--- a/ExcelAddIn1/Resources/FICHA RECETA.xlsx
+++ b/ExcelAddIn1/Resources/FICHA RECETA.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryu\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MANOLO\Documents\GitHub\VSTOexcelRest\ExcelAddIn1\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ReporteInventario" sheetId="3" r:id="rId1"/>
     <sheet name="ReporteInventarioImprimir" sheetId="4" r:id="rId2"/>
     <sheet name="Receta" sheetId="1" r:id="rId3"/>
-    <sheet name="Hoja2" sheetId="5" r:id="rId4"/>
+    <sheet name="ReporterCocina" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="CANTIDAD_A_ELABORAR">Receta!$J$4</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
   <si>
     <t>Receta</t>
   </si>
@@ -226,17 +226,76 @@
   <si>
     <t>Punto de 
 Re-Orden</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Venta 
+CONGELADOS</t>
+  </si>
+  <si>
+    <t>Mermas</t>
+  </si>
+  <si>
+    <t>Perdidas</t>
+  </si>
+  <si>
+    <t>Empleados</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>$$</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Medida</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>Venta</t>
+  </si>
+  <si>
+    <t>SALE -
+Since $$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROFIT -
+Since $$ </t>
+  </si>
+  <si>
+    <t>CLAVE</t>
+  </si>
+  <si>
+    <t>Consumo por dia</t>
+  </si>
+  <si>
+    <t>Ultima Elaboración</t>
+  </si>
+  <si>
+    <t>Fecha :</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,8 +403,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Californian FB"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,6 +481,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="38">
     <border>
@@ -864,7 +957,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -878,27 +971,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1149,6 +1221,46 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1161,6 +1273,62 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1177,117 +1345,68 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="7" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1660,151 +1779,152 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.42578125" style="45"/>
-    <col min="5" max="5" width="11.42578125" style="24"/>
-    <col min="6" max="6" width="11.42578125" style="48"/>
-    <col min="7" max="7" width="12.140625" style="48" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" style="48"/>
-    <col min="10" max="11" width="11.42578125" style="25"/>
-    <col min="12" max="14" width="11.42578125" style="48"/>
-    <col min="15" max="15" width="11.42578125" style="52"/>
-    <col min="16" max="18" width="11.42578125" style="48"/>
-    <col min="19" max="19" width="11.42578125" style="25"/>
-    <col min="20" max="20" width="11.42578125" style="48"/>
-    <col min="21" max="16384" width="11.42578125" style="11"/>
+    <col min="1" max="4" width="11.42578125" style="38"/>
+    <col min="5" max="5" width="11.42578125" style="17"/>
+    <col min="6" max="6" width="11.42578125" style="41"/>
+    <col min="7" max="7" width="12.140625" style="41" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="41"/>
+    <col min="10" max="11" width="11.42578125" style="18"/>
+    <col min="12" max="14" width="11.42578125" style="41"/>
+    <col min="15" max="15" width="11.42578125" style="45"/>
+    <col min="16" max="18" width="11.42578125" style="41"/>
+    <col min="19" max="19" width="11.42578125" style="18"/>
+    <col min="20" max="20" width="11.42578125" style="41"/>
+    <col min="21" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="N1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="53" t="s">
+      <c r="T1" s="46" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="48">
+      <c r="F2" s="41">
         <v>5</v>
       </c>
-      <c r="G2" s="48">
+      <c r="G2" s="41">
         <v>6</v>
       </c>
-      <c r="H2" s="48">
+      <c r="H2" s="41">
         <v>7</v>
       </c>
-      <c r="I2" s="48">
+      <c r="I2" s="41">
         <v>8</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="18">
         <v>9</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="18">
         <v>10</v>
       </c>
-      <c r="L2" s="48">
+      <c r="L2" s="41">
         <v>11</v>
       </c>
-      <c r="M2" s="48">
+      <c r="M2" s="41">
         <v>12</v>
       </c>
-      <c r="N2" s="48">
+      <c r="N2" s="41">
         <v>13</v>
       </c>
-      <c r="O2" s="52">
+      <c r="O2" s="45">
         <v>14</v>
       </c>
-      <c r="P2" s="48">
+      <c r="P2" s="41">
         <v>15</v>
       </c>
-      <c r="Q2" s="48">
+      <c r="Q2" s="41">
         <v>16</v>
       </c>
-      <c r="R2" s="48">
+      <c r="R2" s="41">
         <v>17</v>
       </c>
-      <c r="S2" s="25">
+      <c r="S2" s="18">
         <v>18</v>
       </c>
-      <c r="T2" s="48">
+      <c r="T2" s="41">
         <f>((R2/L2)/S2)*-1</f>
         <v>-8.5858585858585856E-2</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1815,185 +1935,185 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="8" style="25" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="8" style="25" customWidth="1"/>
-    <col min="8" max="8" width="6" style="25" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="8" style="11" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="11"/>
+    <col min="1" max="1" width="32.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="8" style="18" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="8" style="18" customWidth="1"/>
+    <col min="8" max="8" width="6" style="18" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="8" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="73" t="s">
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="73"/>
-      <c r="I1" s="78">
+      <c r="H1" s="66"/>
+      <c r="I1" s="81">
         <v>42491</v>
       </c>
-      <c r="J1" s="78"/>
+      <c r="J1" s="81"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="75" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="78">
+      <c r="H2" s="68"/>
+      <c r="I2" s="81">
         <v>42639</v>
       </c>
-      <c r="J2" s="78"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
     </row>
     <row r="4" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="68" t="s">
+      <c r="I4" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="71" t="s">
+      <c r="J4" s="64" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="105"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="73"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="105"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="73"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="105"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="105"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="73"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="105"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="73"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="105"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="73"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="105"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2018,74 +2138,74 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="11" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="29" style="11" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="11"/>
+    <col min="1" max="1" width="15.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="29" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="92" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="81" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="86"/>
-      <c r="J2" s="26">
+      <c r="I2" s="101"/>
+      <c r="J2" s="19">
         <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="100"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="85" t="s">
+      <c r="A3" s="94"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="86"/>
-      <c r="J3" s="27">
+      <c r="I3" s="101"/>
+      <c r="J3" s="20">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2103,200 +2223,200 @@
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="30">
+      <c r="I4" s="103"/>
+      <c r="J4" s="23">
         <v>8.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="83" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="34">
+      <c r="I5" s="95"/>
+      <c r="J5" s="27">
         <f>SUM(G5:G100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="83" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="84"/>
-      <c r="J6" s="35">
+      <c r="I6" s="95"/>
+      <c r="J6" s="28">
         <f>J5*0.05</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="83" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="84"/>
-      <c r="J7" s="35">
+      <c r="I7" s="95"/>
+      <c r="J7" s="28">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="83" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="84"/>
-      <c r="J8" s="36">
+      <c r="I8" s="95"/>
+      <c r="J8" s="29">
         <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="83" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="83"/>
-      <c r="J9" s="37">
+      <c r="I9" s="91"/>
+      <c r="J9" s="30">
         <f>(PRECIO_VENTA*LITROS_A_ELABORAR)</f>
         <v>1500</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="83" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="83"/>
-      <c r="J10" s="38">
+      <c r="I10" s="91"/>
+      <c r="J10" s="31">
         <f>J9-COSTO_TOTAL_MATERIA_PRIMA</f>
         <v>1500</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="79" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="80"/>
-      <c r="J11" s="39">
+      <c r="I11" s="97"/>
+      <c r="J11" s="32">
         <v>0.27</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="79" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="80"/>
-      <c r="J12" s="39">
+      <c r="I12" s="97"/>
+      <c r="J12" s="32">
         <f>((J5+COSTO_PREPARACION)/J9-1)*(-1)</f>
         <v>0.92666666666666664</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="33"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="33"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="33"/>
-    </row>
-    <row r="16" spans="1:10" s="41" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="33"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:10" s="34" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="33"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="33"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
@@ -2310,13 +2430,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="15">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H5:I5"/>
@@ -2325,6 +2438,13 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="J12">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
@@ -2341,74 +2461,668 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:S1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:26" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="121">
+        <v>42811</v>
+      </c>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="120"/>
+      <c r="P1" s="119" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="119" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="120"/>
+      <c r="T1" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="120"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+    </row>
+    <row r="2" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" s="10" t="s">
+      <c r="D2" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="116" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="116" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="116" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="116" t="s">
         <v>35</v>
       </c>
+      <c r="K2" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="U2" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="104"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="110"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="104"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="110"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="104"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="110"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="110"/>
+      <c r="R6" s="110"/>
+      <c r="S6" s="110"/>
+      <c r="T6" s="110"/>
+      <c r="U6" s="110"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="110"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="110"/>
+      <c r="S7" s="110"/>
+      <c r="T7" s="110"/>
+      <c r="U7" s="110"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="110"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="110"/>
+      <c r="S8" s="110"/>
+      <c r="T8" s="110"/>
+      <c r="U8" s="110"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="110"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="110"/>
+      <c r="T9" s="110"/>
+      <c r="U9" s="110"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="110"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="110"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="110"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="110"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="110"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="110"/>
+      <c r="S12" s="110"/>
+      <c r="T12" s="110"/>
+      <c r="U12" s="110"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="110"/>
+      <c r="S13" s="110"/>
+      <c r="T13" s="110"/>
+      <c r="U13" s="110"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="110"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="110"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="110"/>
+      <c r="U15" s="110"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="110"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="110"/>
+      <c r="S16" s="110"/>
+      <c r="T16" s="110"/>
+      <c r="U16" s="110"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="110"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="110"/>
+      <c r="U17" s="110"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="110"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="110"/>
+      <c r="T18" s="110"/>
+      <c r="U18" s="110"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="110"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="110"/>
+      <c r="S19" s="110"/>
+      <c r="T19" s="110"/>
+      <c r="U19" s="110"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="110"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="110"/>
+      <c r="U20" s="110"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="110"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="110"/>
+      <c r="U21" s="110"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="110"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="110"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="110"/>
+      <c r="S22" s="110"/>
+      <c r="T22" s="110"/>
+      <c r="U22" s="110"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="110"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="110"/>
+      <c r="R23" s="110"/>
+      <c r="S23" s="110"/>
+      <c r="T23" s="110"/>
+      <c r="U23" s="110"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="110"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="110"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="110"/>
+      <c r="T24" s="110"/>
+      <c r="U24" s="110"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="110"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="110"/>
+      <c r="U25" s="110"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ExcelAddIn1/Resources/FICHA RECETA.xlsx
+++ b/ExcelAddIn1/Resources/FICHA RECETA.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MANOLO\Documents\GitHub\VSTOexcelRest\ExcelAddIn1\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MANOLO\Desktop\JOB\proyecto cocina\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ReporteInventario" sheetId="3" r:id="rId1"/>
     <sheet name="ReporteInventarioImprimir" sheetId="4" r:id="rId2"/>
     <sheet name="Receta" sheetId="1" r:id="rId3"/>
     <sheet name="ReporterCocina" sheetId="5" r:id="rId4"/>
+    <sheet name="DetalleReceta" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="CANTIDAD_A_ELABORAR">Receta!$J$4</definedName>
@@ -32,6 +33,8 @@
     <definedName name="NOMBRE">Receta!$B$2</definedName>
     <definedName name="PESO_LITRO">Receta!$J$2</definedName>
     <definedName name="PRECIO_VENTA">Receta!$J$8</definedName>
+    <definedName name="Rece">DetalleReceta!$B$5</definedName>
+    <definedName name="RECETA_KG">DetalleReceta!$B$5</definedName>
     <definedName name="TITULOCANTIDAD">Receta!$A$1</definedName>
     <definedName name="TOLERANCIA_ERROR">Receta!$J$6</definedName>
     <definedName name="UNIDAD_RECETA">Receta!$A$3</definedName>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
   <si>
     <t>Receta</t>
   </si>
@@ -283,19 +286,96 @@
   </si>
   <si>
     <t>Fecha :</t>
+  </si>
+  <si>
+    <t>Since</t>
+  </si>
+  <si>
+    <t>Tipo Producto</t>
+  </si>
+  <si>
+    <t>Cantidad en Inventario</t>
+  </si>
+  <si>
+    <t>Arroz Primavera</t>
+  </si>
+  <si>
+    <t>Tipo de Producto</t>
+  </si>
+  <si>
+    <t># Menu´s</t>
+  </si>
+  <si>
+    <t>Since QTY</t>
+  </si>
+  <si>
+    <t>Cantidad Elaborada Promedio X Menu</t>
+  </si>
+  <si>
+    <t>Sobrantes Promedio X Menu</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Costo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Expresado en Medida de Venta)</t>
+    </r>
+  </si>
+  <si>
+    <t>RECETA PARA:</t>
+  </si>
+  <si>
+    <t>Kgs</t>
+  </si>
+  <si>
+    <t>LTS</t>
+  </si>
+  <si>
+    <t>Ultima Elaboracion</t>
+  </si>
+  <si>
+    <t>Densidad</t>
+  </si>
+  <si>
+    <t>Medida para Venta</t>
+  </si>
+  <si>
+    <t>Ingredientes</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>FOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Costo Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,8 +505,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,6 +602,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="38">
     <border>
@@ -957,7 +1072,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1261,6 +1376,47 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="7" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1361,52 +1517,231 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="7" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1955,45 +2290,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="66" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="66"/>
-      <c r="I1" s="81">
+      <c r="I1" s="98">
         <v>42491</v>
       </c>
-      <c r="J1" s="81"/>
+      <c r="J1" s="98"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="68" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="68"/>
-      <c r="I2" s="81">
+      <c r="I2" s="98">
         <v>42639</v>
       </c>
-      <c r="J2" s="81"/>
+      <c r="J2" s="98"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="65"/>
@@ -2133,7 +2468,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2151,52 +2486,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="93"/>
-      <c r="B2" s="85" t="s">
+      <c r="A2" s="110"/>
+      <c r="B2" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="98" t="s">
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="101"/>
+      <c r="I2" s="118"/>
       <c r="J2" s="19">
         <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="94"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="100" t="s">
+      <c r="A3" s="111"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="101"/>
+      <c r="I3" s="118"/>
       <c r="J3" s="20">
         <v>10</v>
       </c>
@@ -2223,10 +2558,10 @@
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="102" t="s">
+      <c r="H4" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="103"/>
+      <c r="I4" s="120"/>
       <c r="J4" s="23">
         <v>8.5</v>
       </c>
@@ -2239,10 +2574,10 @@
       <c r="E5" s="24"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="91" t="s">
+      <c r="H5" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="95"/>
+      <c r="I5" s="112"/>
       <c r="J5" s="27">
         <f>SUM(G5:G100)</f>
         <v>0</v>
@@ -2256,10 +2591,10 @@
       <c r="E6" s="24"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="91" t="s">
+      <c r="H6" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="95"/>
+      <c r="I6" s="112"/>
       <c r="J6" s="28">
         <f>J5*0.05</f>
         <v>0</v>
@@ -2273,10 +2608,10 @@
       <c r="E7" s="24"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="91" t="s">
+      <c r="H7" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="95"/>
+      <c r="I7" s="112"/>
       <c r="J7" s="28">
         <v>110</v>
       </c>
@@ -2289,10 +2624,10 @@
       <c r="E8" s="24"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="91" t="s">
+      <c r="H8" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="95"/>
+      <c r="I8" s="112"/>
       <c r="J8" s="29">
         <v>150</v>
       </c>
@@ -2305,10 +2640,10 @@
       <c r="E9" s="24"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="91" t="s">
+      <c r="H9" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="91"/>
+      <c r="I9" s="108"/>
       <c r="J9" s="30">
         <f>(PRECIO_VENTA*LITROS_A_ELABORAR)</f>
         <v>1500</v>
@@ -2322,10 +2657,10 @@
       <c r="E10" s="24"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="91" t="s">
+      <c r="H10" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="91"/>
+      <c r="I10" s="108"/>
       <c r="J10" s="31">
         <f>J9-COSTO_TOTAL_MATERIA_PRIMA</f>
         <v>1500</v>
@@ -2339,10 +2674,10 @@
       <c r="E11" s="24"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="96" t="s">
+      <c r="H11" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="97"/>
+      <c r="I11" s="114"/>
       <c r="J11" s="32">
         <v>0.27</v>
       </c>
@@ -2355,10 +2690,10 @@
       <c r="E12" s="24"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="96" t="s">
+      <c r="H12" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="97"/>
+      <c r="I12" s="114"/>
       <c r="J12" s="32">
         <f>((J5+COSTO_PREPARACION)/J9-1)*(-1)</f>
         <v>0.92666666666666664</v>
@@ -2461,669 +2796,1165 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="2" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="23.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="122" t="s">
+    <row r="1" spans="1:29" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="121">
+      <c r="B1" s="94">
         <v>42811</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="119" t="s">
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="120"/>
-      <c r="P1" s="119" t="s">
+      <c r="R1" s="122"/>
+      <c r="S1" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="119" t="s">
+      <c r="T1" s="122"/>
+      <c r="U1" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="120"/>
-      <c r="T1" s="119" t="s">
+      <c r="V1" s="122"/>
+      <c r="W1" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="120"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-    </row>
-    <row r="2" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="X1" s="122"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+    </row>
+    <row r="2" spans="1:29" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="116" t="s">
+      <c r="F2" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="116" t="s">
+      <c r="G2" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="116" t="s">
+      <c r="I2" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="116" t="s">
+      <c r="J2" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="116" t="s">
+      <c r="K2" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="116" t="s">
+      <c r="L2" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="116" t="s">
+      <c r="M2" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="116" t="s">
+      <c r="N2" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="116" t="s">
+      <c r="O2" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="116" t="s">
+      <c r="P2" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="108" t="s">
+      <c r="Q2" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="109" t="s">
+      <c r="R2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="108" t="s">
+      <c r="S2" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="108" t="s">
+      <c r="T2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="109" t="s">
+      <c r="U2" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="108" t="s">
+      <c r="V2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="108" t="s">
+      <c r="W2" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="108" t="s">
+      <c r="X2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="104"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="113"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="104"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="105"/>
-      <c r="U5" s="104"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="110"/>
-      <c r="S6" s="110"/>
-      <c r="T6" s="110"/>
-      <c r="U6" s="110"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110"/>
-      <c r="S7" s="110"/>
-      <c r="T7" s="110"/>
-      <c r="U7" s="110"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
-      <c r="U8" s="110"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="110"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="110"/>
-      <c r="U10" s="110"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="110"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="110"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="110"/>
-      <c r="S12" s="110"/>
-      <c r="T12" s="110"/>
-      <c r="U12" s="110"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="110"/>
-      <c r="S13" s="110"/>
-      <c r="T13" s="110"/>
-      <c r="U13" s="110"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="110"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="110"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="112"/>
-      <c r="M15" s="112"/>
-      <c r="N15" s="110"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="110"/>
-      <c r="R15" s="110"/>
-      <c r="S15" s="110"/>
-      <c r="T15" s="110"/>
-      <c r="U15" s="110"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="112"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="110"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="110"/>
-      <c r="U16" s="110"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="110"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="110"/>
-      <c r="U17" s="110"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="110"/>
-      <c r="U18" s="110"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="110"/>
-      <c r="R19" s="110"/>
-      <c r="S19" s="110"/>
-      <c r="T19" s="110"/>
-      <c r="U19" s="110"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="110"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="110"/>
-      <c r="U20" s="110"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="110"/>
-      <c r="R21" s="110"/>
-      <c r="S21" s="110"/>
-      <c r="T21" s="110"/>
-      <c r="U21" s="110"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="110"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="110"/>
-      <c r="S22" s="110"/>
-      <c r="T22" s="110"/>
-      <c r="U22" s="110"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="110"/>
-      <c r="S23" s="110"/>
-      <c r="T23" s="110"/>
-      <c r="U23" s="110"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="110"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="110"/>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="110"/>
-      <c r="R24" s="110"/>
-      <c r="S24" s="110"/>
-      <c r="T24" s="110"/>
-      <c r="U24" s="110"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="110"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="112"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="110"/>
-      <c r="S25" s="110"/>
-      <c r="T25" s="110"/>
-      <c r="U25" s="110"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="79"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="79"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="79"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="85"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="85"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="85"/>
+      <c r="W7" s="85"/>
+      <c r="X7" s="85"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="85"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="85"/>
+      <c r="X8" s="85"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="85"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="85"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="85"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="85"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="85"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="85"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="85"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="85"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="85"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="85"/>
+      <c r="W16" s="85"/>
+      <c r="X16" s="85"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="85"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="85"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="85"/>
+      <c r="V18" s="85"/>
+      <c r="W18" s="85"/>
+      <c r="X18" s="85"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="85"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="85"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="85"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="85"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="85"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="85"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="85"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="85"/>
+      <c r="U22" s="85"/>
+      <c r="V22" s="85"/>
+      <c r="W22" s="85"/>
+      <c r="X22" s="85"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="85"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="85"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="85"/>
+      <c r="W23" s="85"/>
+      <c r="X23" s="85"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="85"/>
+      <c r="U24" s="85"/>
+      <c r="V24" s="85"/>
+      <c r="W24" s="85"/>
+      <c r="X24" s="85"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="85"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="85"/>
+      <c r="U25" s="85"/>
+      <c r="V25" s="85"/>
+      <c r="W25" s="85"/>
+      <c r="X25" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="171" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+    </row>
+    <row r="2" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="171"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+    </row>
+    <row r="3" spans="1:16" s="169" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
+    </row>
+    <row r="4" spans="1:16" ht="55.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="177" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="184" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="184" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="185" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="186" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="187" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="188" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="188" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="143"/>
+    </row>
+    <row r="5" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="178" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="131"/>
+    </row>
+    <row r="6" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="179"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="142" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="141"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="189" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="184" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="190" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="192"/>
+      <c r="M6" s="193" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="194"/>
+    </row>
+    <row r="7" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="180" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="181" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="182" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="147"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="157"/>
+      <c r="N7" s="157"/>
+    </row>
+    <row r="8" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="158"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="155"/>
+    </row>
+    <row r="9" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="160"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="196"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="197"/>
+      <c r="L9" s="195" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="196"/>
+      <c r="N9" s="197"/>
+    </row>
+    <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="160"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="134"/>
+    </row>
+    <row r="11" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="160"/>
+      <c r="B11" s="161"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="175"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="136"/>
+    </row>
+    <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="160"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="175"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="136"/>
+    </row>
+    <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="160"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="175"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="136"/>
+    </row>
+    <row r="14" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="160"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="175"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="136"/>
+    </row>
+    <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="160"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="175"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="136"/>
+    </row>
+    <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="160"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="175"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="136"/>
+    </row>
+    <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="160"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="175"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="136"/>
+    </row>
+    <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="166"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="175"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="136"/>
+    </row>
+    <row r="19" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="160" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="161" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="162"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="175"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="136"/>
+    </row>
+    <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="167"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="176"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="138"/>
+    </row>
+    <row r="21" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="198" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="149"/>
+      <c r="E21" s="146"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="L10:N20"/>
+    <mergeCell ref="F10:K20"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A1:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ExcelAddIn1/Resources/FICHA RECETA.xlsx
+++ b/ExcelAddIn1/Resources/FICHA RECETA.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="97">
   <si>
     <t>Receta</t>
   </si>
@@ -295,9 +295,6 @@
   </si>
   <si>
     <t>Cantidad en Inventario</t>
-  </si>
-  <si>
-    <t>Arroz Primavera</t>
   </si>
   <si>
     <t>Tipo de Producto</t>
@@ -1417,112 +1414,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1553,24 +1444,6 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1584,12 +1457,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1622,9 +1489,6 @@
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1659,61 +1523,206 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1725,23 +1734,11 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2290,45 +2287,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
       <c r="G1" s="66" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="66"/>
-      <c r="I1" s="98">
+      <c r="I1" s="148">
         <v>42491</v>
       </c>
-      <c r="J1" s="98"/>
+      <c r="J1" s="148"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
       <c r="G2" s="68" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="68"/>
-      <c r="I2" s="98">
+      <c r="I2" s="148">
         <v>42639</v>
       </c>
-      <c r="J2" s="98"/>
+      <c r="J2" s="148"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="65"/>
@@ -2486,52 +2483,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="101"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="151"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="102" t="s">
+      <c r="A2" s="160"/>
+      <c r="B2" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="115" t="s">
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="165" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="117" t="s">
+      <c r="H2" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="118"/>
+      <c r="I2" s="168"/>
       <c r="J2" s="19">
         <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="117" t="s">
+      <c r="A3" s="161"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="118"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="20">
         <v>10</v>
       </c>
@@ -2558,10 +2555,10 @@
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="119" t="s">
+      <c r="H4" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="120"/>
+      <c r="I4" s="170"/>
       <c r="J4" s="23">
         <v>8.5</v>
       </c>
@@ -2574,10 +2571,10 @@
       <c r="E5" s="24"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="108" t="s">
+      <c r="H5" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="112"/>
+      <c r="I5" s="162"/>
       <c r="J5" s="27">
         <f>SUM(G5:G100)</f>
         <v>0</v>
@@ -2591,10 +2588,10 @@
       <c r="E6" s="24"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="108" t="s">
+      <c r="H6" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="112"/>
+      <c r="I6" s="162"/>
       <c r="J6" s="28">
         <f>J5*0.05</f>
         <v>0</v>
@@ -2608,10 +2605,10 @@
       <c r="E7" s="24"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="108" t="s">
+      <c r="H7" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="112"/>
+      <c r="I7" s="162"/>
       <c r="J7" s="28">
         <v>110</v>
       </c>
@@ -2624,10 +2621,10 @@
       <c r="E8" s="24"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="108" t="s">
+      <c r="H8" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="112"/>
+      <c r="I8" s="162"/>
       <c r="J8" s="29">
         <v>150</v>
       </c>
@@ -2640,10 +2637,10 @@
       <c r="E9" s="24"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="108" t="s">
+      <c r="H9" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="108"/>
+      <c r="I9" s="158"/>
       <c r="J9" s="30">
         <f>(PRECIO_VENTA*LITROS_A_ELABORAR)</f>
         <v>1500</v>
@@ -2657,10 +2654,10 @@
       <c r="E10" s="24"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="108" t="s">
+      <c r="H10" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="108"/>
+      <c r="I10" s="158"/>
       <c r="J10" s="31">
         <f>J9-COSTO_TOTAL_MATERIA_PRIMA</f>
         <v>1500</v>
@@ -2674,10 +2671,10 @@
       <c r="E11" s="24"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="113" t="s">
+      <c r="H11" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="114"/>
+      <c r="I11" s="164"/>
       <c r="J11" s="32">
         <v>0.27</v>
       </c>
@@ -2690,10 +2687,10 @@
       <c r="E12" s="24"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="113" t="s">
+      <c r="H12" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="114"/>
+      <c r="I12" s="164"/>
       <c r="J12" s="32">
         <f>((J5+COSTO_PREPARACION)/J9-1)*(-1)</f>
         <v>0.92666666666666664</v>
@@ -2799,7 +2796,7 @@
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2833,22 +2830,22 @@
       <c r="N1" s="81"/>
       <c r="O1" s="81"/>
       <c r="P1" s="81"/>
-      <c r="Q1" s="121" t="s">
+      <c r="Q1" s="171" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="122"/>
-      <c r="S1" s="121" t="s">
+      <c r="R1" s="172"/>
+      <c r="S1" s="171" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="122"/>
-      <c r="U1" s="121" t="s">
+      <c r="T1" s="172"/>
+      <c r="U1" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="122"/>
-      <c r="W1" s="121" t="s">
+      <c r="V1" s="172"/>
+      <c r="W1" s="171" t="s">
         <v>63</v>
       </c>
-      <c r="X1" s="122"/>
+      <c r="X1" s="172"/>
       <c r="Y1" s="81"/>
       <c r="Z1" s="81"/>
       <c r="AA1" s="81"/>
@@ -3549,7 +3546,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:L7"/>
+      <selection activeCell="M7" sqref="M7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3564,380 +3561,378 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="178"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+    </row>
+    <row r="2" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="178"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+    </row>
+    <row r="3" spans="1:16" s="133" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+    </row>
+    <row r="4" spans="1:16" ht="55.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-    </row>
-    <row r="2" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
-    </row>
-    <row r="3" spans="1:16" s="169" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="170"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-    </row>
-    <row r="4" spans="1:16" ht="55.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="177" t="s">
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="140" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="172"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="184" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="184" t="s">
+      <c r="H4" s="191" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="185" t="s">
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="141" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="186" t="s">
+      <c r="L4" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="187" t="s">
+      <c r="M4" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="188" t="s">
+      <c r="N4" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="110"/>
+    </row>
+    <row r="5" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="N4" s="188" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="143"/>
-    </row>
-    <row r="5" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="178" t="s">
+      <c r="B5" s="97"/>
+      <c r="C5" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124" t="s">
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="104"/>
+    </row>
+    <row r="6" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="175"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="130"/>
-      <c r="N5" s="131"/>
-    </row>
-    <row r="6" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="179"/>
-      <c r="B6" s="140"/>
-      <c r="C6" s="142" t="s">
+      <c r="D6" s="108"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="144" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="141"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="189" t="s">
+      <c r="G6" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="184" t="s">
+      <c r="H6" s="194" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="190" t="s">
+      <c r="I6" s="195"/>
+      <c r="J6" s="195"/>
+      <c r="K6" s="195"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="176" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="177"/>
+    </row>
+    <row r="7" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="191"/>
-      <c r="J6" s="191"/>
-      <c r="K6" s="191"/>
-      <c r="L6" s="192"/>
-      <c r="M6" s="193" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="194"/>
-    </row>
-    <row r="7" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="180" t="s">
+      <c r="B7" s="137" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="181" t="s">
+      <c r="C7" s="138" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="112"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
+      <c r="K7" s="193"/>
+      <c r="L7" s="197"/>
+      <c r="M7" s="198"/>
+      <c r="N7" s="198"/>
+    </row>
+    <row r="8" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="122"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+    </row>
+    <row r="9" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="124"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="188" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="189"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="189"/>
+      <c r="K9" s="190"/>
+      <c r="L9" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="182" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="183" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="147"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="157"/>
-      <c r="N7" s="157"/>
-    </row>
-    <row r="8" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="158"/>
-      <c r="B8" s="158"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="153"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155"/>
-    </row>
-    <row r="9" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="160"/>
-      <c r="B9" s="161"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="196"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="196"/>
-      <c r="K9" s="197"/>
-      <c r="L9" s="195" t="s">
+      <c r="M9" s="189"/>
+      <c r="N9" s="190"/>
+    </row>
+    <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="124"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="179"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="181"/>
+    </row>
+    <row r="11" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="124"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="183"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="182"/>
+      <c r="M11" s="183"/>
+      <c r="N11" s="184"/>
+    </row>
+    <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="124"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="183"/>
+      <c r="H12" s="183"/>
+      <c r="I12" s="183"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="182"/>
+      <c r="M12" s="183"/>
+      <c r="N12" s="184"/>
+    </row>
+    <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="124"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="183"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="183"/>
+      <c r="K13" s="184"/>
+      <c r="L13" s="182"/>
+      <c r="M13" s="183"/>
+      <c r="N13" s="184"/>
+    </row>
+    <row r="14" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="124"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="183"/>
+      <c r="K14" s="184"/>
+      <c r="L14" s="182"/>
+      <c r="M14" s="183"/>
+      <c r="N14" s="184"/>
+    </row>
+    <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="124"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="183"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="184"/>
+      <c r="L15" s="182"/>
+      <c r="M15" s="183"/>
+      <c r="N15" s="184"/>
+    </row>
+    <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="124"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="183"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="184"/>
+      <c r="L16" s="182"/>
+      <c r="M16" s="183"/>
+      <c r="N16" s="184"/>
+    </row>
+    <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="124"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="184"/>
+      <c r="L17" s="182"/>
+      <c r="M17" s="183"/>
+      <c r="N17" s="184"/>
+    </row>
+    <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="130"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="184"/>
+      <c r="L18" s="182"/>
+      <c r="M18" s="183"/>
+      <c r="N18" s="184"/>
+    </row>
+    <row r="19" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="M9" s="196"/>
-      <c r="N9" s="197"/>
-    </row>
-    <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="160"/>
-      <c r="B10" s="161"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="134"/>
-      <c r="L10" s="174"/>
-      <c r="M10" s="133"/>
-      <c r="N10" s="134"/>
-    </row>
-    <row r="11" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="160"/>
-      <c r="B11" s="161"/>
-      <c r="C11" s="164"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="136"/>
-      <c r="L11" s="175"/>
-      <c r="M11" s="135"/>
-      <c r="N11" s="136"/>
-    </row>
-    <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="160"/>
-      <c r="B12" s="161"/>
-      <c r="C12" s="164"/>
-      <c r="D12" s="165"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="175"/>
-      <c r="M12" s="135"/>
-      <c r="N12" s="136"/>
-    </row>
-    <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="160"/>
-      <c r="B13" s="161"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="175"/>
-      <c r="M13" s="135"/>
-      <c r="N13" s="136"/>
-    </row>
-    <row r="14" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="160"/>
-      <c r="B14" s="161"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="175"/>
-      <c r="M14" s="135"/>
-      <c r="N14" s="136"/>
-    </row>
-    <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="160"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="175"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="136"/>
-    </row>
-    <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="160"/>
-      <c r="B16" s="161"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="175"/>
-      <c r="M16" s="135"/>
-      <c r="N16" s="136"/>
-    </row>
-    <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="160"/>
-      <c r="B17" s="161"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="175"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="175"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="136"/>
-    </row>
-    <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="166"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="175"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="175"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="136"/>
-    </row>
-    <row r="19" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="160" t="s">
+      <c r="B19" s="125" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="126"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="183"/>
+      <c r="J19" s="183"/>
+      <c r="K19" s="184"/>
+      <c r="L19" s="182"/>
+      <c r="M19" s="183"/>
+      <c r="N19" s="184"/>
+    </row>
+    <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="131"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="185"/>
+      <c r="G20" s="186"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="186"/>
+      <c r="J20" s="186"/>
+      <c r="K20" s="187"/>
+      <c r="L20" s="185"/>
+      <c r="M20" s="186"/>
+      <c r="N20" s="187"/>
+    </row>
+    <row r="21" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="161" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="162"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="175"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="175"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="136"/>
-    </row>
-    <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="167"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="138"/>
-      <c r="L20" s="176"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="138"/>
-    </row>
-    <row r="21" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="198" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="149"/>
-      <c r="E21" s="146"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3956,5 +3951,6 @@
     <mergeCell ref="A1:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelAddIn1/Resources/FICHA RECETA.xlsx
+++ b/ExcelAddIn1/Resources/FICHA RECETA.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MANOLO\Desktop\JOB\proyecto cocina\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\VSTOexcelRest\ExcelAddIn1\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ReporteInventario" sheetId="3" r:id="rId1"/>
-    <sheet name="ReporteInventarioImprimir" sheetId="4" r:id="rId2"/>
-    <sheet name="Receta" sheetId="1" r:id="rId3"/>
-    <sheet name="ReporterCocina" sheetId="5" r:id="rId4"/>
-    <sheet name="DetalleReceta" sheetId="6" r:id="rId5"/>
+    <sheet name="OrdenTrabajo" sheetId="7" r:id="rId2"/>
+    <sheet name="ReporteInventarioImprimir" sheetId="4" r:id="rId3"/>
+    <sheet name="Receta" sheetId="1" r:id="rId4"/>
+    <sheet name="ReporterCocina" sheetId="5" r:id="rId5"/>
+    <sheet name="DetalleReceta" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="CANTIDAD_A_ELABORAR">Receta!$J$4</definedName>
@@ -28,6 +29,7 @@
     <definedName name="FECHA_FIN_IMP">ReporteInventarioImprimir!$I$2</definedName>
     <definedName name="FECHA_INI_IMP">ReporteInventarioImprimir!$I$1</definedName>
     <definedName name="LITROS_A_ELABORAR">Receta!$J$3</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="MARGEN_ANTERIOR">Receta!$J$11</definedName>
     <definedName name="MARGEN_PRODUCTO">Receta!$J$12</definedName>
     <definedName name="NOMBRE">Receta!$B$2</definedName>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="113">
   <si>
     <t>Receta</t>
   </si>
@@ -360,19 +362,91 @@
   <si>
     <t>Costo Total</t>
   </si>
+  <si>
+    <t>Platillo:</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Tipo:</t>
+  </si>
+  <si>
+    <t>Cantidad a Elaborar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medida </t>
+  </si>
+  <si>
+    <t>Cantidad Elaborada-Producto Final</t>
+  </si>
+  <si>
+    <t>Receta Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantidades Necesarias  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CAMBIO DE INGREDIENTES</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(+) Sobrante
+(-) Faltante</t>
+    </r>
+  </si>
+  <si>
+    <t>Lts</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Orden de Trabajo</t>
+  </si>
+  <si>
+    <t>RECETA</t>
+  </si>
+  <si>
+    <t>Hora de inicio:</t>
+  </si>
+  <si>
+    <t>Hora de terminación:</t>
+  </si>
+  <si>
+    <t>Encargado:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,8 +605,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,8 +715,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1063,13 +1197,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1556,6 +1736,261 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="16" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1677,6 +2112,9 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="13" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1737,7 +2175,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1760,7 +2219,9 @@
       </font>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="0"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2265,6 +2726,590 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="232" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="110"/>
+    </row>
+    <row r="2" spans="1:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="178"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="110"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="I3" s="181" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="220"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+    </row>
+    <row r="4" spans="1:13" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="176" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="219"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="110"/>
+    </row>
+    <row r="5" spans="1:13" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="177" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="219"/>
+      <c r="C5" s="219"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="219"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="222" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="223"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="110"/>
+    </row>
+    <row r="6" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="215" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="216"/>
+      <c r="C6" s="217" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="218"/>
+      <c r="E6" s="170" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="165"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="149" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="166" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="110"/>
+    </row>
+    <row r="7" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="148" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="174"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="146"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="110"/>
+    </row>
+    <row r="8" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="171" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="169" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="230" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="231" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="147"/>
+      <c r="I8" s="184" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="182" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="183"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="110"/>
+    </row>
+    <row r="9" spans="1:13" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="167">
+        <v>16</v>
+      </c>
+      <c r="B9" s="168">
+        <v>1</v>
+      </c>
+      <c r="C9" s="150">
+        <f>C7*1/A9</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="230"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="147"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="110"/>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="152"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="224" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="146" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="110"/>
+    </row>
+    <row r="11" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="156"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="224"/>
+      <c r="J11" s="186" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="187"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="110"/>
+    </row>
+    <row r="12" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="156"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="110"/>
+    </row>
+    <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="156"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="185" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" s="183"/>
+      <c r="K13" s="183"/>
+      <c r="L13" s="146"/>
+      <c r="M13" s="110"/>
+    </row>
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="156"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="225"/>
+      <c r="J14" s="226"/>
+      <c r="K14" s="226"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="110"/>
+    </row>
+    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="156"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="225"/>
+      <c r="J15" s="226"/>
+      <c r="K15" s="226"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="110"/>
+    </row>
+    <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="156"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="146"/>
+      <c r="K16" s="146"/>
+      <c r="L16" s="146"/>
+      <c r="M16" s="110"/>
+    </row>
+    <row r="17" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="156"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="191" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="192"/>
+      <c r="L17" s="193"/>
+      <c r="M17" s="110"/>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="156"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="195"/>
+      <c r="I18" s="195"/>
+      <c r="J18" s="195"/>
+      <c r="K18" s="195"/>
+      <c r="L18" s="196"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="156"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="198"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="198"/>
+      <c r="K19" s="198"/>
+      <c r="L19" s="199"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="162"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="197"/>
+      <c r="G20" s="198"/>
+      <c r="H20" s="198"/>
+      <c r="I20" s="198"/>
+      <c r="J20" s="198"/>
+      <c r="K20" s="198"/>
+      <c r="L20" s="199"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="162"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="198"/>
+      <c r="H21" s="198"/>
+      <c r="I21" s="198"/>
+      <c r="J21" s="198"/>
+      <c r="K21" s="198"/>
+      <c r="L21" s="199"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="162"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="197"/>
+      <c r="G22" s="198"/>
+      <c r="H22" s="198"/>
+      <c r="I22" s="198"/>
+      <c r="J22" s="198"/>
+      <c r="K22" s="198"/>
+      <c r="L22" s="199"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="162"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="197"/>
+      <c r="G23" s="198"/>
+      <c r="H23" s="198"/>
+      <c r="I23" s="198"/>
+      <c r="J23" s="198"/>
+      <c r="K23" s="198"/>
+      <c r="L23" s="199"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="164"/>
+      <c r="B24" s="188"/>
+      <c r="C24" s="189"/>
+      <c r="D24" s="190"/>
+      <c r="E24" s="190"/>
+      <c r="F24" s="200"/>
+      <c r="G24" s="201"/>
+      <c r="H24" s="201"/>
+      <c r="I24" s="201"/>
+      <c r="J24" s="201"/>
+      <c r="K24" s="201"/>
+      <c r="L24" s="202"/>
+    </row>
+    <row r="25" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="203" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="204"/>
+      <c r="C25" s="204"/>
+      <c r="D25" s="204"/>
+      <c r="E25" s="204"/>
+      <c r="F25" s="204"/>
+      <c r="G25" s="204"/>
+      <c r="H25" s="205"/>
+      <c r="I25" s="227" t="s">
+        <v>94</v>
+      </c>
+      <c r="J25" s="228"/>
+      <c r="K25" s="228"/>
+      <c r="L25" s="229"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="206"/>
+      <c r="B26" s="207"/>
+      <c r="C26" s="207"/>
+      <c r="D26" s="207"/>
+      <c r="E26" s="207"/>
+      <c r="F26" s="207"/>
+      <c r="G26" s="207"/>
+      <c r="H26" s="208"/>
+      <c r="I26" s="286"/>
+      <c r="J26" s="287"/>
+      <c r="K26" s="287"/>
+      <c r="L26" s="288"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="209"/>
+      <c r="B27" s="210"/>
+      <c r="C27" s="210"/>
+      <c r="D27" s="210"/>
+      <c r="E27" s="210"/>
+      <c r="F27" s="210"/>
+      <c r="G27" s="210"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="289"/>
+      <c r="J27" s="226"/>
+      <c r="K27" s="226"/>
+      <c r="L27" s="290"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="209"/>
+      <c r="B28" s="210"/>
+      <c r="C28" s="210"/>
+      <c r="D28" s="210"/>
+      <c r="E28" s="210"/>
+      <c r="F28" s="210"/>
+      <c r="G28" s="210"/>
+      <c r="H28" s="211"/>
+      <c r="I28" s="289"/>
+      <c r="J28" s="226"/>
+      <c r="K28" s="226"/>
+      <c r="L28" s="290"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="209"/>
+      <c r="B29" s="210"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="210"/>
+      <c r="E29" s="210"/>
+      <c r="F29" s="210"/>
+      <c r="G29" s="210"/>
+      <c r="H29" s="211"/>
+      <c r="I29" s="289"/>
+      <c r="J29" s="226"/>
+      <c r="K29" s="226"/>
+      <c r="L29" s="290"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="209"/>
+      <c r="B30" s="210"/>
+      <c r="C30" s="210"/>
+      <c r="D30" s="210"/>
+      <c r="E30" s="210"/>
+      <c r="F30" s="210"/>
+      <c r="G30" s="210"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="289"/>
+      <c r="J30" s="226"/>
+      <c r="K30" s="226"/>
+      <c r="L30" s="290"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="209"/>
+      <c r="B31" s="210"/>
+      <c r="C31" s="210"/>
+      <c r="D31" s="210"/>
+      <c r="E31" s="210"/>
+      <c r="F31" s="210"/>
+      <c r="G31" s="210"/>
+      <c r="H31" s="211"/>
+      <c r="I31" s="289"/>
+      <c r="J31" s="226"/>
+      <c r="K31" s="226"/>
+      <c r="L31" s="290"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="209"/>
+      <c r="B32" s="210"/>
+      <c r="C32" s="210"/>
+      <c r="D32" s="210"/>
+      <c r="E32" s="210"/>
+      <c r="F32" s="210"/>
+      <c r="G32" s="210"/>
+      <c r="H32" s="211"/>
+      <c r="I32" s="289"/>
+      <c r="J32" s="226"/>
+      <c r="K32" s="226"/>
+      <c r="L32" s="290"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="209"/>
+      <c r="B33" s="210"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="210"/>
+      <c r="G33" s="210"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="289"/>
+      <c r="J33" s="226"/>
+      <c r="K33" s="226"/>
+      <c r="L33" s="290"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="212"/>
+      <c r="B34" s="213"/>
+      <c r="C34" s="213"/>
+      <c r="D34" s="213"/>
+      <c r="E34" s="213"/>
+      <c r="F34" s="213"/>
+      <c r="G34" s="213"/>
+      <c r="H34" s="214"/>
+      <c r="I34" s="291"/>
+      <c r="J34" s="292"/>
+      <c r="K34" s="292"/>
+      <c r="L34" s="293"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="I26:L34"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="F18:L24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H34"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:K15"/>
+    <mergeCell ref="I25:L25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2287,45 +3332,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="234" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
       <c r="G1" s="66" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="66"/>
-      <c r="I1" s="148">
+      <c r="I1" s="235">
         <v>42491</v>
       </c>
-      <c r="J1" s="148"/>
+      <c r="J1" s="235"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
       <c r="G2" s="68" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="68"/>
-      <c r="I2" s="148">
+      <c r="I2" s="235">
         <v>42639</v>
       </c>
-      <c r="J2" s="148"/>
+      <c r="J2" s="235"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="233" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="233"/>
+      <c r="F3" s="233"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="65"/>
@@ -2460,7 +3505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -2483,52 +3528,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="236" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="151"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="238"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="160"/>
-      <c r="B2" s="152" t="s">
+      <c r="A2" s="247"/>
+      <c r="B2" s="239" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="165" t="s">
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="252" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="167" t="s">
+      <c r="H2" s="254" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="168"/>
+      <c r="I2" s="255"/>
       <c r="J2" s="19">
         <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="161"/>
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="167" t="s">
+      <c r="A3" s="248"/>
+      <c r="B3" s="242"/>
+      <c r="C3" s="243"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="253"/>
+      <c r="H3" s="254" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="168"/>
+      <c r="I3" s="255"/>
       <c r="J3" s="20">
         <v>10</v>
       </c>
@@ -2555,10 +3600,10 @@
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="169" t="s">
+      <c r="H4" s="256" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="170"/>
+      <c r="I4" s="257"/>
       <c r="J4" s="23">
         <v>8.5</v>
       </c>
@@ -2571,10 +3616,10 @@
       <c r="E5" s="24"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="158" t="s">
+      <c r="H5" s="245" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="162"/>
+      <c r="I5" s="249"/>
       <c r="J5" s="27">
         <f>SUM(G5:G100)</f>
         <v>0</v>
@@ -2588,10 +3633,10 @@
       <c r="E6" s="24"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="158" t="s">
+      <c r="H6" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="162"/>
+      <c r="I6" s="249"/>
       <c r="J6" s="28">
         <f>J5*0.05</f>
         <v>0</v>
@@ -2605,10 +3650,10 @@
       <c r="E7" s="24"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="158" t="s">
+      <c r="H7" s="245" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="162"/>
+      <c r="I7" s="249"/>
       <c r="J7" s="28">
         <v>110</v>
       </c>
@@ -2621,10 +3666,10 @@
       <c r="E8" s="24"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="158" t="s">
+      <c r="H8" s="245" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="162"/>
+      <c r="I8" s="249"/>
       <c r="J8" s="29">
         <v>150</v>
       </c>
@@ -2637,10 +3682,10 @@
       <c r="E9" s="24"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="158" t="s">
+      <c r="H9" s="245" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="158"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="30">
         <f>(PRECIO_VENTA*LITROS_A_ELABORAR)</f>
         <v>1500</v>
@@ -2654,10 +3699,10 @@
       <c r="E10" s="24"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="158" t="s">
+      <c r="H10" s="245" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="158"/>
+      <c r="I10" s="245"/>
       <c r="J10" s="31">
         <f>J9-COSTO_TOTAL_MATERIA_PRIMA</f>
         <v>1500</v>
@@ -2671,10 +3716,10 @@
       <c r="E11" s="24"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="163" t="s">
+      <c r="H11" s="250" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="164"/>
+      <c r="I11" s="251"/>
       <c r="J11" s="32">
         <v>0.27</v>
       </c>
@@ -2687,10 +3732,10 @@
       <c r="E12" s="24"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="163" t="s">
+      <c r="H12" s="250" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="164"/>
+      <c r="I12" s="251"/>
       <c r="J12" s="32">
         <f>((J5+COSTO_PREPARACION)/J9-1)*(-1)</f>
         <v>0.92666666666666664</v>
@@ -2791,12 +3836,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2830,22 +3875,22 @@
       <c r="N1" s="81"/>
       <c r="O1" s="81"/>
       <c r="P1" s="81"/>
-      <c r="Q1" s="171" t="s">
+      <c r="Q1" s="258" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="172"/>
-      <c r="S1" s="171" t="s">
+      <c r="R1" s="259"/>
+      <c r="S1" s="258" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="172"/>
-      <c r="U1" s="171" t="s">
+      <c r="T1" s="259"/>
+      <c r="U1" s="258" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="172"/>
-      <c r="W1" s="171" t="s">
+      <c r="V1" s="259"/>
+      <c r="W1" s="258" t="s">
         <v>63</v>
       </c>
-      <c r="X1" s="172"/>
+      <c r="X1" s="259"/>
       <c r="Y1" s="81"/>
       <c r="Z1" s="81"/>
       <c r="AA1" s="81"/>
@@ -3541,11 +4586,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7:N7"/>
     </sheetView>
   </sheetViews>
@@ -3561,36 +4606,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="178"/>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
+      <c r="A1" s="266"/>
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
+      <c r="G1" s="266"/>
+      <c r="H1" s="266"/>
+      <c r="I1" s="266"/>
+      <c r="J1" s="266"/>
+      <c r="K1" s="266"/>
+      <c r="L1" s="266"/>
+      <c r="M1" s="266"/>
+      <c r="N1" s="266"/>
     </row>
     <row r="2" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="178"/>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="178"/>
+      <c r="A2" s="266"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="266"/>
+      <c r="K2" s="266"/>
+      <c r="L2" s="266"/>
+      <c r="M2" s="266"/>
+      <c r="N2" s="266"/>
     </row>
     <row r="3" spans="1:16" s="133" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="134"/>
@@ -3612,8 +4657,8 @@
       <c r="A4" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="173"/>
-      <c r="C4" s="173"/>
+      <c r="B4" s="260"/>
+      <c r="C4" s="260"/>
       <c r="D4" s="96"/>
       <c r="E4" s="96"/>
       <c r="F4" s="140" t="s">
@@ -3622,11 +4667,11 @@
       <c r="G4" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="191" t="s">
+      <c r="H4" s="279" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="279"/>
       <c r="K4" s="141" t="s">
         <v>83</v>
       </c>
@@ -3642,7 +4687,7 @@
       <c r="P4" s="110"/>
     </row>
     <row r="5" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="174" t="s">
+      <c r="A5" s="261" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="97"/>
@@ -3653,8 +4698,8 @@
       <c r="E5" s="98"/>
       <c r="F5" s="99"/>
       <c r="G5" s="100"/>
-      <c r="H5" s="192"/>
-      <c r="I5" s="193"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="281"/>
       <c r="J5" s="101"/>
       <c r="K5" s="100"/>
       <c r="L5" s="102"/>
@@ -3662,7 +4707,7 @@
       <c r="N5" s="104"/>
     </row>
     <row r="6" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="175"/>
+      <c r="A6" s="262"/>
       <c r="B6" s="107"/>
       <c r="C6" s="109" t="s">
         <v>88</v>
@@ -3675,17 +4720,17 @@
       <c r="G6" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="194" t="s">
+      <c r="H6" s="282" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="195"/>
-      <c r="J6" s="195"/>
-      <c r="K6" s="195"/>
-      <c r="L6" s="196"/>
-      <c r="M6" s="176" t="s">
+      <c r="I6" s="283"/>
+      <c r="J6" s="283"/>
+      <c r="K6" s="283"/>
+      <c r="L6" s="284"/>
+      <c r="M6" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="177"/>
+      <c r="N6" s="264"/>
     </row>
     <row r="7" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="136" t="s">
@@ -3703,13 +4748,13 @@
       <c r="E7" s="112"/>
       <c r="F7" s="121"/>
       <c r="G7" s="105"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="193"/>
-      <c r="K7" s="193"/>
-      <c r="L7" s="197"/>
-      <c r="M7" s="198"/>
-      <c r="N7" s="198"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="281"/>
+      <c r="J7" s="281"/>
+      <c r="K7" s="281"/>
+      <c r="L7" s="285"/>
+      <c r="M7" s="265"/>
+      <c r="N7" s="265"/>
     </row>
     <row r="8" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="122"/>
@@ -3733,19 +4778,19 @@
       <c r="C9" s="126"/>
       <c r="D9" s="127"/>
       <c r="E9" s="113"/>
-      <c r="F9" s="188" t="s">
+      <c r="F9" s="276" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="189"/>
-      <c r="K9" s="190"/>
-      <c r="L9" s="188" t="s">
+      <c r="G9" s="277"/>
+      <c r="H9" s="277"/>
+      <c r="I9" s="277"/>
+      <c r="J9" s="277"/>
+      <c r="K9" s="278"/>
+      <c r="L9" s="276" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="189"/>
-      <c r="N9" s="190"/>
+      <c r="M9" s="277"/>
+      <c r="N9" s="278"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="124"/>
@@ -3753,15 +4798,15 @@
       <c r="C10" s="128"/>
       <c r="D10" s="129"/>
       <c r="E10" s="113"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="181"/>
+      <c r="F10" s="267"/>
+      <c r="G10" s="268"/>
+      <c r="H10" s="268"/>
+      <c r="I10" s="268"/>
+      <c r="J10" s="268"/>
+      <c r="K10" s="269"/>
+      <c r="L10" s="267"/>
+      <c r="M10" s="268"/>
+      <c r="N10" s="269"/>
     </row>
     <row r="11" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="124"/>
@@ -3769,15 +4814,15 @@
       <c r="C11" s="128"/>
       <c r="D11" s="129"/>
       <c r="E11" s="113"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="182"/>
-      <c r="M11" s="183"/>
-      <c r="N11" s="184"/>
+      <c r="F11" s="270"/>
+      <c r="G11" s="271"/>
+      <c r="H11" s="271"/>
+      <c r="I11" s="271"/>
+      <c r="J11" s="271"/>
+      <c r="K11" s="272"/>
+      <c r="L11" s="270"/>
+      <c r="M11" s="271"/>
+      <c r="N11" s="272"/>
     </row>
     <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="124"/>
@@ -3785,15 +4830,15 @@
       <c r="C12" s="128"/>
       <c r="D12" s="129"/>
       <c r="E12" s="113"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="183"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="182"/>
-      <c r="M12" s="183"/>
-      <c r="N12" s="184"/>
+      <c r="F12" s="270"/>
+      <c r="G12" s="271"/>
+      <c r="H12" s="271"/>
+      <c r="I12" s="271"/>
+      <c r="J12" s="271"/>
+      <c r="K12" s="272"/>
+      <c r="L12" s="270"/>
+      <c r="M12" s="271"/>
+      <c r="N12" s="272"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="124"/>
@@ -3801,15 +4846,15 @@
       <c r="C13" s="126"/>
       <c r="D13" s="127"/>
       <c r="E13" s="113"/>
-      <c r="F13" s="182"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="183"/>
-      <c r="K13" s="184"/>
-      <c r="L13" s="182"/>
-      <c r="M13" s="183"/>
-      <c r="N13" s="184"/>
+      <c r="F13" s="270"/>
+      <c r="G13" s="271"/>
+      <c r="H13" s="271"/>
+      <c r="I13" s="271"/>
+      <c r="J13" s="271"/>
+      <c r="K13" s="272"/>
+      <c r="L13" s="270"/>
+      <c r="M13" s="271"/>
+      <c r="N13" s="272"/>
     </row>
     <row r="14" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="124"/>
@@ -3817,15 +4862,15 @@
       <c r="C14" s="126"/>
       <c r="D14" s="127"/>
       <c r="E14" s="113"/>
-      <c r="F14" s="182"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="184"/>
-      <c r="L14" s="182"/>
-      <c r="M14" s="183"/>
-      <c r="N14" s="184"/>
+      <c r="F14" s="270"/>
+      <c r="G14" s="271"/>
+      <c r="H14" s="271"/>
+      <c r="I14" s="271"/>
+      <c r="J14" s="271"/>
+      <c r="K14" s="272"/>
+      <c r="L14" s="270"/>
+      <c r="M14" s="271"/>
+      <c r="N14" s="272"/>
     </row>
     <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="124"/>
@@ -3833,15 +4878,15 @@
       <c r="C15" s="126"/>
       <c r="D15" s="127"/>
       <c r="E15" s="113"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="184"/>
-      <c r="L15" s="182"/>
-      <c r="M15" s="183"/>
-      <c r="N15" s="184"/>
+      <c r="F15" s="270"/>
+      <c r="G15" s="271"/>
+      <c r="H15" s="271"/>
+      <c r="I15" s="271"/>
+      <c r="J15" s="271"/>
+      <c r="K15" s="272"/>
+      <c r="L15" s="270"/>
+      <c r="M15" s="271"/>
+      <c r="N15" s="272"/>
     </row>
     <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="124"/>
@@ -3849,15 +4894,15 @@
       <c r="C16" s="126"/>
       <c r="D16" s="127"/>
       <c r="E16" s="113"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="184"/>
-      <c r="L16" s="182"/>
-      <c r="M16" s="183"/>
-      <c r="N16" s="184"/>
+      <c r="F16" s="270"/>
+      <c r="G16" s="271"/>
+      <c r="H16" s="271"/>
+      <c r="I16" s="271"/>
+      <c r="J16" s="271"/>
+      <c r="K16" s="272"/>
+      <c r="L16" s="270"/>
+      <c r="M16" s="271"/>
+      <c r="N16" s="272"/>
     </row>
     <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="124"/>
@@ -3865,15 +4910,15 @@
       <c r="C17" s="126"/>
       <c r="D17" s="127"/>
       <c r="E17" s="113"/>
-      <c r="F17" s="182"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="184"/>
-      <c r="L17" s="182"/>
-      <c r="M17" s="183"/>
-      <c r="N17" s="184"/>
+      <c r="F17" s="270"/>
+      <c r="G17" s="271"/>
+      <c r="H17" s="271"/>
+      <c r="I17" s="271"/>
+      <c r="J17" s="271"/>
+      <c r="K17" s="272"/>
+      <c r="L17" s="270"/>
+      <c r="M17" s="271"/>
+      <c r="N17" s="272"/>
     </row>
     <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="130"/>
@@ -3881,15 +4926,15 @@
       <c r="C18" s="126"/>
       <c r="D18" s="127"/>
       <c r="E18" s="113"/>
-      <c r="F18" s="182"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="184"/>
-      <c r="L18" s="182"/>
-      <c r="M18" s="183"/>
-      <c r="N18" s="184"/>
+      <c r="F18" s="270"/>
+      <c r="G18" s="271"/>
+      <c r="H18" s="271"/>
+      <c r="I18" s="271"/>
+      <c r="J18" s="271"/>
+      <c r="K18" s="272"/>
+      <c r="L18" s="270"/>
+      <c r="M18" s="271"/>
+      <c r="N18" s="272"/>
     </row>
     <row r="19" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="124" t="s">
@@ -3901,15 +4946,15 @@
       <c r="C19" s="126"/>
       <c r="D19" s="127"/>
       <c r="E19" s="113"/>
-      <c r="F19" s="182"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="183"/>
-      <c r="K19" s="184"/>
-      <c r="L19" s="182"/>
-      <c r="M19" s="183"/>
-      <c r="N19" s="184"/>
+      <c r="F19" s="270"/>
+      <c r="G19" s="271"/>
+      <c r="H19" s="271"/>
+      <c r="I19" s="271"/>
+      <c r="J19" s="271"/>
+      <c r="K19" s="272"/>
+      <c r="L19" s="270"/>
+      <c r="M19" s="271"/>
+      <c r="N19" s="272"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="131"/>
@@ -3917,15 +4962,15 @@
       <c r="C20" s="126"/>
       <c r="D20" s="127"/>
       <c r="E20" s="113"/>
-      <c r="F20" s="185"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="186"/>
-      <c r="J20" s="186"/>
-      <c r="K20" s="187"/>
-      <c r="L20" s="185"/>
-      <c r="M20" s="186"/>
-      <c r="N20" s="187"/>
+      <c r="F20" s="273"/>
+      <c r="G20" s="274"/>
+      <c r="H20" s="274"/>
+      <c r="I20" s="274"/>
+      <c r="J20" s="274"/>
+      <c r="K20" s="275"/>
+      <c r="L20" s="273"/>
+      <c r="M20" s="274"/>
+      <c r="N20" s="275"/>
     </row>
     <row r="21" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="145" t="s">

--- a/ExcelAddIn1/Resources/FICHA RECETA.xlsx
+++ b/ExcelAddIn1/Resources/FICHA RECETA.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\VSTOexcelRest\ExcelAddIn1\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MANOLO\Desktop\JOB\proyecto cocina\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ReporteInventario" sheetId="3" r:id="rId1"/>
-    <sheet name="OrdenTrabajo" sheetId="7" r:id="rId2"/>
-    <sheet name="ReporteInventarioImprimir" sheetId="4" r:id="rId3"/>
-    <sheet name="Receta" sheetId="1" r:id="rId4"/>
-    <sheet name="ReporterCocina" sheetId="5" r:id="rId5"/>
-    <sheet name="DetalleReceta" sheetId="6" r:id="rId6"/>
+    <sheet name="ReporteInventarioImprimir" sheetId="4" r:id="rId2"/>
+    <sheet name="Receta" sheetId="1" r:id="rId3"/>
+    <sheet name="ReporterCocina" sheetId="5" r:id="rId4"/>
+    <sheet name="DetalleReceta" sheetId="6" r:id="rId5"/>
+    <sheet name="Congelados" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="CANTIDAD_A_ELABORAR">Receta!$J$4</definedName>
@@ -29,7 +29,6 @@
     <definedName name="FECHA_FIN_IMP">ReporteInventarioImprimir!$I$2</definedName>
     <definedName name="FECHA_INI_IMP">ReporteInventarioImprimir!$I$1</definedName>
     <definedName name="LITROS_A_ELABORAR">Receta!$J$3</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="MARGEN_ANTERIOR">Receta!$J$11</definedName>
     <definedName name="MARGEN_PRODUCTO">Receta!$J$12</definedName>
     <definedName name="NOMBRE">Receta!$B$2</definedName>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="101">
   <si>
     <t>Receta</t>
   </si>
@@ -363,90 +362,30 @@
     <t>Costo Total</t>
   </si>
   <si>
-    <t>Platillo:</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Tipo:</t>
-  </si>
-  <si>
-    <t>Cantidad a Elaborar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medida </t>
-  </si>
-  <si>
-    <t>Cantidad Elaborada-Producto Final</t>
-  </si>
-  <si>
-    <t>Receta Base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cantidades Necesarias  </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CAMBIO DE INGREDIENTES</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-(+) Sobrante
-(-) Faltante</t>
-    </r>
-  </si>
-  <si>
-    <t>Lts</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Orden de Trabajo</t>
-  </si>
-  <si>
-    <t>RECETA</t>
-  </si>
-  <si>
-    <t>Hora de inicio:</t>
-  </si>
-  <si>
-    <t>Hora de terminación:</t>
-  </si>
-  <si>
-    <t>Encargado:</t>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Fecha de Entrada</t>
+  </si>
+  <si>
+    <t>CONGELADOS</t>
+  </si>
+  <si>
+    <t>Descipción</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,43 +545,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial Black"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="36"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,30 +640,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1199,46 +1104,9 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1249,7 +1117,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1736,261 +1604,6 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="16" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2003,6 +1616,46 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2039,10 +1692,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2055,46 +1704,67 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2118,86 +1788,17 @@
     <xf numFmtId="0" fontId="17" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2219,9 +1820,7 @@
       </font>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="0"/>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2271,6 +1870,55 @@
         <a:xfrm>
           <a:off x="428625" y="0"/>
           <a:ext cx="1276350" cy="634596"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>742949</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="0"/>
+          <a:ext cx="1485899" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2726,594 +2374,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:H34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="232" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
-      <c r="K1" s="232"/>
-      <c r="L1" s="232"/>
-      <c r="M1" s="110"/>
-    </row>
-    <row r="2" spans="1:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="178"/>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="110"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="I3" s="181" t="s">
-        <v>98</v>
-      </c>
-      <c r="J3" s="220"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-    </row>
-    <row r="4" spans="1:13" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="176" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="219"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="110"/>
-    </row>
-    <row r="5" spans="1:13" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="177" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="219"/>
-      <c r="C5" s="219"/>
-      <c r="D5" s="219"/>
-      <c r="E5" s="219"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="222" t="s">
-        <v>102</v>
-      </c>
-      <c r="I5" s="223"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="110"/>
-    </row>
-    <row r="6" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="215" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="216"/>
-      <c r="C6" s="217" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="218"/>
-      <c r="E6" s="170" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="165"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="149" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" s="166" t="s">
-        <v>106</v>
-      </c>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="110"/>
-    </row>
-    <row r="7" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="148" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="174"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="146"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="110"/>
-    </row>
-    <row r="8" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="171" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="172" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="169" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="230" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="231" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="147"/>
-      <c r="I8" s="184" t="s">
-        <v>110</v>
-      </c>
-      <c r="J8" s="182" t="s">
-        <v>95</v>
-      </c>
-      <c r="K8" s="183"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="110"/>
-    </row>
-    <row r="9" spans="1:13" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="167">
-        <v>16</v>
-      </c>
-      <c r="B9" s="168">
-        <v>1</v>
-      </c>
-      <c r="C9" s="150">
-        <f>C7*1/A9</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="230"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="147"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="110"/>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="152"/>
-      <c r="B10" s="152"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="224" t="s">
-        <v>111</v>
-      </c>
-      <c r="J10" s="146" t="s">
-        <v>95</v>
-      </c>
-      <c r="K10" s="146"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="110"/>
-    </row>
-    <row r="11" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="156"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="224"/>
-      <c r="J11" s="186" t="s">
-        <v>95</v>
-      </c>
-      <c r="K11" s="187"/>
-      <c r="L11" s="146"/>
-      <c r="M11" s="110"/>
-    </row>
-    <row r="12" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="156"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="110"/>
-    </row>
-    <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="156"/>
-      <c r="B13" s="161"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="185" t="s">
-        <v>112</v>
-      </c>
-      <c r="J13" s="183"/>
-      <c r="K13" s="183"/>
-      <c r="L13" s="146"/>
-      <c r="M13" s="110"/>
-    </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="156"/>
-      <c r="B14" s="161"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="225"/>
-      <c r="J14" s="226"/>
-      <c r="K14" s="226"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="110"/>
-    </row>
-    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="156"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="225"/>
-      <c r="J15" s="226"/>
-      <c r="K15" s="226"/>
-      <c r="L15" s="146"/>
-      <c r="M15" s="110"/>
-    </row>
-    <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="156"/>
-      <c r="B16" s="156"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="146"/>
-      <c r="M16" s="110"/>
-    </row>
-    <row r="17" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="156"/>
-      <c r="B17" s="161"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="191" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="192"/>
-      <c r="L17" s="193"/>
-      <c r="M17" s="110"/>
-    </row>
-    <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="156"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="195"/>
-      <c r="H18" s="195"/>
-      <c r="I18" s="195"/>
-      <c r="J18" s="195"/>
-      <c r="K18" s="195"/>
-      <c r="L18" s="196"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="156"/>
-      <c r="B19" s="162"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="197"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="198"/>
-      <c r="K19" s="198"/>
-      <c r="L19" s="199"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="162"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="197"/>
-      <c r="G20" s="198"/>
-      <c r="H20" s="198"/>
-      <c r="I20" s="198"/>
-      <c r="J20" s="198"/>
-      <c r="K20" s="198"/>
-      <c r="L20" s="199"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="162"/>
-      <c r="B21" s="162"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="197"/>
-      <c r="G21" s="198"/>
-      <c r="H21" s="198"/>
-      <c r="I21" s="198"/>
-      <c r="J21" s="198"/>
-      <c r="K21" s="198"/>
-      <c r="L21" s="199"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="162"/>
-      <c r="B22" s="162"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="197"/>
-      <c r="G22" s="198"/>
-      <c r="H22" s="198"/>
-      <c r="I22" s="198"/>
-      <c r="J22" s="198"/>
-      <c r="K22" s="198"/>
-      <c r="L22" s="199"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="197"/>
-      <c r="G23" s="198"/>
-      <c r="H23" s="198"/>
-      <c r="I23" s="198"/>
-      <c r="J23" s="198"/>
-      <c r="K23" s="198"/>
-      <c r="L23" s="199"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="164"/>
-      <c r="B24" s="188"/>
-      <c r="C24" s="189"/>
-      <c r="D24" s="190"/>
-      <c r="E24" s="190"/>
-      <c r="F24" s="200"/>
-      <c r="G24" s="201"/>
-      <c r="H24" s="201"/>
-      <c r="I24" s="201"/>
-      <c r="J24" s="201"/>
-      <c r="K24" s="201"/>
-      <c r="L24" s="202"/>
-    </row>
-    <row r="25" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="203" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="204"/>
-      <c r="C25" s="204"/>
-      <c r="D25" s="204"/>
-      <c r="E25" s="204"/>
-      <c r="F25" s="204"/>
-      <c r="G25" s="204"/>
-      <c r="H25" s="205"/>
-      <c r="I25" s="227" t="s">
-        <v>94</v>
-      </c>
-      <c r="J25" s="228"/>
-      <c r="K25" s="228"/>
-      <c r="L25" s="229"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="206"/>
-      <c r="B26" s="207"/>
-      <c r="C26" s="207"/>
-      <c r="D26" s="207"/>
-      <c r="E26" s="207"/>
-      <c r="F26" s="207"/>
-      <c r="G26" s="207"/>
-      <c r="H26" s="208"/>
-      <c r="I26" s="286"/>
-      <c r="J26" s="287"/>
-      <c r="K26" s="287"/>
-      <c r="L26" s="288"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="209"/>
-      <c r="B27" s="210"/>
-      <c r="C27" s="210"/>
-      <c r="D27" s="210"/>
-      <c r="E27" s="210"/>
-      <c r="F27" s="210"/>
-      <c r="G27" s="210"/>
-      <c r="H27" s="211"/>
-      <c r="I27" s="289"/>
-      <c r="J27" s="226"/>
-      <c r="K27" s="226"/>
-      <c r="L27" s="290"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="209"/>
-      <c r="B28" s="210"/>
-      <c r="C28" s="210"/>
-      <c r="D28" s="210"/>
-      <c r="E28" s="210"/>
-      <c r="F28" s="210"/>
-      <c r="G28" s="210"/>
-      <c r="H28" s="211"/>
-      <c r="I28" s="289"/>
-      <c r="J28" s="226"/>
-      <c r="K28" s="226"/>
-      <c r="L28" s="290"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="209"/>
-      <c r="B29" s="210"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="210"/>
-      <c r="F29" s="210"/>
-      <c r="G29" s="210"/>
-      <c r="H29" s="211"/>
-      <c r="I29" s="289"/>
-      <c r="J29" s="226"/>
-      <c r="K29" s="226"/>
-      <c r="L29" s="290"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="209"/>
-      <c r="B30" s="210"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="210"/>
-      <c r="E30" s="210"/>
-      <c r="F30" s="210"/>
-      <c r="G30" s="210"/>
-      <c r="H30" s="211"/>
-      <c r="I30" s="289"/>
-      <c r="J30" s="226"/>
-      <c r="K30" s="226"/>
-      <c r="L30" s="290"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="209"/>
-      <c r="B31" s="210"/>
-      <c r="C31" s="210"/>
-      <c r="D31" s="210"/>
-      <c r="E31" s="210"/>
-      <c r="F31" s="210"/>
-      <c r="G31" s="210"/>
-      <c r="H31" s="211"/>
-      <c r="I31" s="289"/>
-      <c r="J31" s="226"/>
-      <c r="K31" s="226"/>
-      <c r="L31" s="290"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="209"/>
-      <c r="B32" s="210"/>
-      <c r="C32" s="210"/>
-      <c r="D32" s="210"/>
-      <c r="E32" s="210"/>
-      <c r="F32" s="210"/>
-      <c r="G32" s="210"/>
-      <c r="H32" s="211"/>
-      <c r="I32" s="289"/>
-      <c r="J32" s="226"/>
-      <c r="K32" s="226"/>
-      <c r="L32" s="290"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="209"/>
-      <c r="B33" s="210"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="210"/>
-      <c r="E33" s="210"/>
-      <c r="F33" s="210"/>
-      <c r="G33" s="210"/>
-      <c r="H33" s="211"/>
-      <c r="I33" s="289"/>
-      <c r="J33" s="226"/>
-      <c r="K33" s="226"/>
-      <c r="L33" s="290"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="212"/>
-      <c r="B34" s="213"/>
-      <c r="C34" s="213"/>
-      <c r="D34" s="213"/>
-      <c r="E34" s="213"/>
-      <c r="F34" s="213"/>
-      <c r="G34" s="213"/>
-      <c r="H34" s="214"/>
-      <c r="I34" s="291"/>
-      <c r="J34" s="292"/>
-      <c r="K34" s="292"/>
-      <c r="L34" s="293"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="I26:L34"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="F18:L24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H34"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:K15"/>
-    <mergeCell ref="I25:L25"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3332,45 +2396,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="234" t="s">
+      <c r="B1" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
       <c r="G1" s="66" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="66"/>
-      <c r="I1" s="235">
+      <c r="I1" s="148">
         <v>42491</v>
       </c>
-      <c r="J1" s="235"/>
+      <c r="J1" s="148"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
       <c r="G2" s="68" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="68"/>
-      <c r="I2" s="235">
+      <c r="I2" s="148">
         <v>42639</v>
       </c>
-      <c r="J2" s="235"/>
+      <c r="J2" s="148"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="233" t="s">
+      <c r="B3" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="233"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="65"/>
@@ -3505,7 +2569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -3528,52 +2592,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="236" t="s">
+      <c r="B1" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="238"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="161"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="247"/>
-      <c r="B2" s="239" t="s">
+      <c r="A2" s="169"/>
+      <c r="B2" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
-      <c r="F2" s="241"/>
-      <c r="G2" s="252" t="s">
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="254" t="s">
+      <c r="H2" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="255"/>
+      <c r="I2" s="156"/>
       <c r="J2" s="19">
         <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="248"/>
-      <c r="B3" s="242"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="254" t="s">
+      <c r="A3" s="170"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="255"/>
+      <c r="I3" s="156"/>
       <c r="J3" s="20">
         <v>10</v>
       </c>
@@ -3600,10 +2664,10 @@
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="256" t="s">
+      <c r="H4" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="257"/>
+      <c r="I4" s="158"/>
       <c r="J4" s="23">
         <v>8.5</v>
       </c>
@@ -3616,10 +2680,10 @@
       <c r="E5" s="24"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="245" t="s">
+      <c r="H5" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="249"/>
+      <c r="I5" s="154"/>
       <c r="J5" s="27">
         <f>SUM(G5:G100)</f>
         <v>0</v>
@@ -3633,10 +2697,10 @@
       <c r="E6" s="24"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="245" t="s">
+      <c r="H6" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="249"/>
+      <c r="I6" s="154"/>
       <c r="J6" s="28">
         <f>J5*0.05</f>
         <v>0</v>
@@ -3650,10 +2714,10 @@
       <c r="E7" s="24"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="245" t="s">
+      <c r="H7" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="249"/>
+      <c r="I7" s="154"/>
       <c r="J7" s="28">
         <v>110</v>
       </c>
@@ -3666,10 +2730,10 @@
       <c r="E8" s="24"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="245" t="s">
+      <c r="H8" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="249"/>
+      <c r="I8" s="154"/>
       <c r="J8" s="29">
         <v>150</v>
       </c>
@@ -3682,10 +2746,10 @@
       <c r="E9" s="24"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="245" t="s">
+      <c r="H9" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="245"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="30">
         <f>(PRECIO_VENTA*LITROS_A_ELABORAR)</f>
         <v>1500</v>
@@ -3699,10 +2763,10 @@
       <c r="E10" s="24"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="245" t="s">
+      <c r="H10" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="245"/>
+      <c r="I10" s="153"/>
       <c r="J10" s="31">
         <f>J9-COSTO_TOTAL_MATERIA_PRIMA</f>
         <v>1500</v>
@@ -3716,10 +2780,10 @@
       <c r="E11" s="24"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="250" t="s">
+      <c r="H11" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="251"/>
+      <c r="I11" s="150"/>
       <c r="J11" s="32">
         <v>0.27</v>
       </c>
@@ -3732,10 +2796,10 @@
       <c r="E12" s="24"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="250" t="s">
+      <c r="H12" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="251"/>
+      <c r="I12" s="150"/>
       <c r="J12" s="32">
         <f>((J5+COSTO_PREPARACION)/J9-1)*(-1)</f>
         <v>0.92666666666666664</v>
@@ -3807,6 +2871,13 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="15">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H5:I5"/>
@@ -3815,13 +2886,6 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="J12">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
@@ -3836,12 +2900,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3875,22 +2939,22 @@
       <c r="N1" s="81"/>
       <c r="O1" s="81"/>
       <c r="P1" s="81"/>
-      <c r="Q1" s="258" t="s">
+      <c r="Q1" s="171" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="259"/>
-      <c r="S1" s="258" t="s">
+      <c r="R1" s="172"/>
+      <c r="S1" s="171" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="259"/>
-      <c r="U1" s="258" t="s">
+      <c r="T1" s="172"/>
+      <c r="U1" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="259"/>
-      <c r="W1" s="258" t="s">
+      <c r="V1" s="172"/>
+      <c r="W1" s="171" t="s">
         <v>63</v>
       </c>
-      <c r="X1" s="259"/>
+      <c r="X1" s="172"/>
       <c r="Y1" s="81"/>
       <c r="Z1" s="81"/>
       <c r="AA1" s="81"/>
@@ -4586,12 +3650,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:N7"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4606,36 +3670,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="266"/>
-      <c r="B1" s="266"/>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="266"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="266"/>
-      <c r="N1" s="266"/>
+      <c r="A1" s="198"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
     </row>
     <row r="2" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="266"/>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="266"/>
-      <c r="K2" s="266"/>
-      <c r="L2" s="266"/>
-      <c r="M2" s="266"/>
-      <c r="N2" s="266"/>
+      <c r="A2" s="198"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
+      <c r="L2" s="198"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="198"/>
     </row>
     <row r="3" spans="1:16" s="133" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="134"/>
@@ -4657,8 +3721,8 @@
       <c r="A4" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="260"/>
-      <c r="C4" s="260"/>
+      <c r="B4" s="192"/>
+      <c r="C4" s="192"/>
       <c r="D4" s="96"/>
       <c r="E4" s="96"/>
       <c r="F4" s="140" t="s">
@@ -4667,11 +3731,11 @@
       <c r="G4" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="279" t="s">
+      <c r="H4" s="185" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="279"/>
-      <c r="J4" s="279"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
       <c r="K4" s="141" t="s">
         <v>83</v>
       </c>
@@ -4687,7 +3751,7 @@
       <c r="P4" s="110"/>
     </row>
     <row r="5" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="261" t="s">
+      <c r="A5" s="193" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="97"/>
@@ -4698,8 +3762,8 @@
       <c r="E5" s="98"/>
       <c r="F5" s="99"/>
       <c r="G5" s="100"/>
-      <c r="H5" s="280"/>
-      <c r="I5" s="281"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="187"/>
       <c r="J5" s="101"/>
       <c r="K5" s="100"/>
       <c r="L5" s="102"/>
@@ -4707,7 +3771,7 @@
       <c r="N5" s="104"/>
     </row>
     <row r="6" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="262"/>
+      <c r="A6" s="194"/>
       <c r="B6" s="107"/>
       <c r="C6" s="109" t="s">
         <v>88</v>
@@ -4720,17 +3784,17 @@
       <c r="G6" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="282" t="s">
+      <c r="H6" s="188" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="283"/>
-      <c r="J6" s="283"/>
-      <c r="K6" s="283"/>
-      <c r="L6" s="284"/>
-      <c r="M6" s="263" t="s">
+      <c r="I6" s="189"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="189"/>
+      <c r="L6" s="190"/>
+      <c r="M6" s="195" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="264"/>
+      <c r="N6" s="196"/>
     </row>
     <row r="7" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="136" t="s">
@@ -4748,13 +3812,13 @@
       <c r="E7" s="112"/>
       <c r="F7" s="121"/>
       <c r="G7" s="105"/>
-      <c r="H7" s="280"/>
-      <c r="I7" s="281"/>
-      <c r="J7" s="281"/>
-      <c r="K7" s="281"/>
-      <c r="L7" s="285"/>
-      <c r="M7" s="265"/>
-      <c r="N7" s="265"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="187"/>
+      <c r="K7" s="187"/>
+      <c r="L7" s="191"/>
+      <c r="M7" s="197"/>
+      <c r="N7" s="197"/>
     </row>
     <row r="8" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="122"/>
@@ -4778,19 +3842,19 @@
       <c r="C9" s="126"/>
       <c r="D9" s="127"/>
       <c r="E9" s="113"/>
-      <c r="F9" s="276" t="s">
+      <c r="F9" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="277"/>
-      <c r="H9" s="277"/>
-      <c r="I9" s="277"/>
-      <c r="J9" s="277"/>
-      <c r="K9" s="278"/>
-      <c r="L9" s="276" t="s">
+      <c r="G9" s="183"/>
+      <c r="H9" s="183"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="183"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="182" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="277"/>
-      <c r="N9" s="278"/>
+      <c r="M9" s="183"/>
+      <c r="N9" s="184"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="124"/>
@@ -4798,15 +3862,15 @@
       <c r="C10" s="128"/>
       <c r="D10" s="129"/>
       <c r="E10" s="113"/>
-      <c r="F10" s="267"/>
-      <c r="G10" s="268"/>
-      <c r="H10" s="268"/>
-      <c r="I10" s="268"/>
-      <c r="J10" s="268"/>
-      <c r="K10" s="269"/>
-      <c r="L10" s="267"/>
-      <c r="M10" s="268"/>
-      <c r="N10" s="269"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="175"/>
+      <c r="L10" s="173"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="175"/>
     </row>
     <row r="11" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="124"/>
@@ -4814,15 +3878,15 @@
       <c r="C11" s="128"/>
       <c r="D11" s="129"/>
       <c r="E11" s="113"/>
-      <c r="F11" s="270"/>
-      <c r="G11" s="271"/>
-      <c r="H11" s="271"/>
-      <c r="I11" s="271"/>
-      <c r="J11" s="271"/>
-      <c r="K11" s="272"/>
-      <c r="L11" s="270"/>
-      <c r="M11" s="271"/>
-      <c r="N11" s="272"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="176"/>
+      <c r="M11" s="177"/>
+      <c r="N11" s="178"/>
     </row>
     <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="124"/>
@@ -4830,15 +3894,15 @@
       <c r="C12" s="128"/>
       <c r="D12" s="129"/>
       <c r="E12" s="113"/>
-      <c r="F12" s="270"/>
-      <c r="G12" s="271"/>
-      <c r="H12" s="271"/>
-      <c r="I12" s="271"/>
-      <c r="J12" s="271"/>
-      <c r="K12" s="272"/>
-      <c r="L12" s="270"/>
-      <c r="M12" s="271"/>
-      <c r="N12" s="272"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="178"/>
+      <c r="L12" s="176"/>
+      <c r="M12" s="177"/>
+      <c r="N12" s="178"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="124"/>
@@ -4846,15 +3910,15 @@
       <c r="C13" s="126"/>
       <c r="D13" s="127"/>
       <c r="E13" s="113"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="271"/>
-      <c r="H13" s="271"/>
-      <c r="I13" s="271"/>
-      <c r="J13" s="271"/>
-      <c r="K13" s="272"/>
-      <c r="L13" s="270"/>
-      <c r="M13" s="271"/>
-      <c r="N13" s="272"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="178"/>
+      <c r="L13" s="176"/>
+      <c r="M13" s="177"/>
+      <c r="N13" s="178"/>
     </row>
     <row r="14" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="124"/>
@@ -4862,15 +3926,15 @@
       <c r="C14" s="126"/>
       <c r="D14" s="127"/>
       <c r="E14" s="113"/>
-      <c r="F14" s="270"/>
-      <c r="G14" s="271"/>
-      <c r="H14" s="271"/>
-      <c r="I14" s="271"/>
-      <c r="J14" s="271"/>
-      <c r="K14" s="272"/>
-      <c r="L14" s="270"/>
-      <c r="M14" s="271"/>
-      <c r="N14" s="272"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="176"/>
+      <c r="M14" s="177"/>
+      <c r="N14" s="178"/>
     </row>
     <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="124"/>
@@ -4878,15 +3942,15 @@
       <c r="C15" s="126"/>
       <c r="D15" s="127"/>
       <c r="E15" s="113"/>
-      <c r="F15" s="270"/>
-      <c r="G15" s="271"/>
-      <c r="H15" s="271"/>
-      <c r="I15" s="271"/>
-      <c r="J15" s="271"/>
-      <c r="K15" s="272"/>
-      <c r="L15" s="270"/>
-      <c r="M15" s="271"/>
-      <c r="N15" s="272"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="178"/>
+      <c r="L15" s="176"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="178"/>
     </row>
     <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="124"/>
@@ -4894,15 +3958,15 @@
       <c r="C16" s="126"/>
       <c r="D16" s="127"/>
       <c r="E16" s="113"/>
-      <c r="F16" s="270"/>
-      <c r="G16" s="271"/>
-      <c r="H16" s="271"/>
-      <c r="I16" s="271"/>
-      <c r="J16" s="271"/>
-      <c r="K16" s="272"/>
-      <c r="L16" s="270"/>
-      <c r="M16" s="271"/>
-      <c r="N16" s="272"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="178"/>
+      <c r="L16" s="176"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="178"/>
     </row>
     <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="124"/>
@@ -4910,15 +3974,15 @@
       <c r="C17" s="126"/>
       <c r="D17" s="127"/>
       <c r="E17" s="113"/>
-      <c r="F17" s="270"/>
-      <c r="G17" s="271"/>
-      <c r="H17" s="271"/>
-      <c r="I17" s="271"/>
-      <c r="J17" s="271"/>
-      <c r="K17" s="272"/>
-      <c r="L17" s="270"/>
-      <c r="M17" s="271"/>
-      <c r="N17" s="272"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="178"/>
+      <c r="L17" s="176"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="178"/>
     </row>
     <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="130"/>
@@ -4926,15 +3990,15 @@
       <c r="C18" s="126"/>
       <c r="D18" s="127"/>
       <c r="E18" s="113"/>
-      <c r="F18" s="270"/>
-      <c r="G18" s="271"/>
-      <c r="H18" s="271"/>
-      <c r="I18" s="271"/>
-      <c r="J18" s="271"/>
-      <c r="K18" s="272"/>
-      <c r="L18" s="270"/>
-      <c r="M18" s="271"/>
-      <c r="N18" s="272"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="178"/>
+      <c r="L18" s="176"/>
+      <c r="M18" s="177"/>
+      <c r="N18" s="178"/>
     </row>
     <row r="19" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="124" t="s">
@@ -4946,15 +4010,15 @@
       <c r="C19" s="126"/>
       <c r="D19" s="127"/>
       <c r="E19" s="113"/>
-      <c r="F19" s="270"/>
-      <c r="G19" s="271"/>
-      <c r="H19" s="271"/>
-      <c r="I19" s="271"/>
-      <c r="J19" s="271"/>
-      <c r="K19" s="272"/>
-      <c r="L19" s="270"/>
-      <c r="M19" s="271"/>
-      <c r="N19" s="272"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="177"/>
+      <c r="K19" s="178"/>
+      <c r="L19" s="176"/>
+      <c r="M19" s="177"/>
+      <c r="N19" s="178"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="131"/>
@@ -4962,15 +4026,15 @@
       <c r="C20" s="126"/>
       <c r="D20" s="127"/>
       <c r="E20" s="113"/>
-      <c r="F20" s="273"/>
-      <c r="G20" s="274"/>
-      <c r="H20" s="274"/>
-      <c r="I20" s="274"/>
-      <c r="J20" s="274"/>
-      <c r="K20" s="275"/>
-      <c r="L20" s="273"/>
-      <c r="M20" s="274"/>
-      <c r="N20" s="275"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="180"/>
+      <c r="J20" s="180"/>
+      <c r="K20" s="181"/>
+      <c r="L20" s="179"/>
+      <c r="M20" s="180"/>
+      <c r="N20" s="181"/>
     </row>
     <row r="21" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="145" t="s">
@@ -4981,6 +4045,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A1:N2"/>
     <mergeCell ref="L10:N20"/>
     <mergeCell ref="F10:K20"/>
     <mergeCell ref="F9:K9"/>
@@ -4989,13 +4058,144 @@
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="L9:N9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A1:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="199" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="201" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="201"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="202" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="202" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="202" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="202" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="202" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="202" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="C1:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/ExcelAddIn1/Resources/FICHA RECETA.xlsx
+++ b/ExcelAddIn1/Resources/FICHA RECETA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MANOLO\Desktop\JOB\proyecto cocina\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MANOLO\Documents\GitHub\VSTOexcelRest\ExcelAddIn1\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ReporteInventario" sheetId="3" r:id="rId1"/>
@@ -1604,6 +1604,9 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1788,17 +1791,14 @@
     <xf numFmtId="0" fontId="17" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2396,45 +2396,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
       <c r="G1" s="66" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="66"/>
-      <c r="I1" s="148">
+      <c r="I1" s="149">
         <v>42491</v>
       </c>
-      <c r="J1" s="148"/>
+      <c r="J1" s="149"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
       <c r="G2" s="68" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="68"/>
-      <c r="I2" s="148">
+      <c r="I2" s="149">
         <v>42639</v>
       </c>
-      <c r="J2" s="148"/>
+      <c r="J2" s="149"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="65"/>
@@ -2592,52 +2592,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="162"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="169"/>
-      <c r="B2" s="162" t="s">
+      <c r="A2" s="170"/>
+      <c r="B2" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="151" t="s">
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="155" t="s">
+      <c r="H2" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="156"/>
+      <c r="I2" s="157"/>
       <c r="J2" s="19">
         <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="170"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="155" t="s">
+      <c r="A3" s="171"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="156"/>
+      <c r="I3" s="157"/>
       <c r="J3" s="20">
         <v>10</v>
       </c>
@@ -2664,10 +2664,10 @@
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="157" t="s">
+      <c r="H4" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="158"/>
+      <c r="I4" s="159"/>
       <c r="J4" s="23">
         <v>8.5</v>
       </c>
@@ -2680,10 +2680,10 @@
       <c r="E5" s="24"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="153" t="s">
+      <c r="H5" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="154"/>
+      <c r="I5" s="155"/>
       <c r="J5" s="27">
         <f>SUM(G5:G100)</f>
         <v>0</v>
@@ -2697,10 +2697,10 @@
       <c r="E6" s="24"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="153" t="s">
+      <c r="H6" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="154"/>
+      <c r="I6" s="155"/>
       <c r="J6" s="28">
         <f>J5*0.05</f>
         <v>0</v>
@@ -2714,10 +2714,10 @@
       <c r="E7" s="24"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="153" t="s">
+      <c r="H7" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="154"/>
+      <c r="I7" s="155"/>
       <c r="J7" s="28">
         <v>110</v>
       </c>
@@ -2730,10 +2730,10 @@
       <c r="E8" s="24"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="153" t="s">
+      <c r="H8" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="154"/>
+      <c r="I8" s="155"/>
       <c r="J8" s="29">
         <v>150</v>
       </c>
@@ -2746,10 +2746,10 @@
       <c r="E9" s="24"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="153" t="s">
+      <c r="H9" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="153"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="30">
         <f>(PRECIO_VENTA*LITROS_A_ELABORAR)</f>
         <v>1500</v>
@@ -2763,10 +2763,10 @@
       <c r="E10" s="24"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="153" t="s">
+      <c r="H10" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="153"/>
+      <c r="I10" s="154"/>
       <c r="J10" s="31">
         <f>J9-COSTO_TOTAL_MATERIA_PRIMA</f>
         <v>1500</v>
@@ -2780,10 +2780,10 @@
       <c r="E11" s="24"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="149" t="s">
+      <c r="H11" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="150"/>
+      <c r="I11" s="151"/>
       <c r="J11" s="32">
         <v>0.27</v>
       </c>
@@ -2796,10 +2796,10 @@
       <c r="E12" s="24"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="149" t="s">
+      <c r="H12" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="150"/>
+      <c r="I12" s="151"/>
       <c r="J12" s="32">
         <f>((J5+COSTO_PREPARACION)/J9-1)*(-1)</f>
         <v>0.92666666666666664</v>
@@ -2939,22 +2939,22 @@
       <c r="N1" s="81"/>
       <c r="O1" s="81"/>
       <c r="P1" s="81"/>
-      <c r="Q1" s="171" t="s">
+      <c r="Q1" s="172" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="172"/>
-      <c r="S1" s="171" t="s">
+      <c r="R1" s="173"/>
+      <c r="S1" s="172" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="172"/>
-      <c r="U1" s="171" t="s">
+      <c r="T1" s="173"/>
+      <c r="U1" s="172" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="172"/>
-      <c r="W1" s="171" t="s">
+      <c r="V1" s="173"/>
+      <c r="W1" s="172" t="s">
         <v>63</v>
       </c>
-      <c r="X1" s="172"/>
+      <c r="X1" s="173"/>
       <c r="Y1" s="81"/>
       <c r="Z1" s="81"/>
       <c r="AA1" s="81"/>
@@ -3654,8 +3654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3670,36 +3670,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="198"/>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
+      <c r="A1" s="199"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
     </row>
     <row r="2" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="198"/>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="198"/>
+      <c r="A2" s="199"/>
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
     </row>
     <row r="3" spans="1:16" s="133" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="134"/>
@@ -3721,8 +3721,8 @@
       <c r="A4" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="192"/>
-      <c r="C4" s="192"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
       <c r="D4" s="96"/>
       <c r="E4" s="96"/>
       <c r="F4" s="140" t="s">
@@ -3731,11 +3731,11 @@
       <c r="G4" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="185" t="s">
+      <c r="H4" s="186" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
+      <c r="I4" s="186"/>
+      <c r="J4" s="186"/>
       <c r="K4" s="141" t="s">
         <v>83</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="P4" s="110"/>
     </row>
     <row r="5" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="193" t="s">
+      <c r="A5" s="194" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="97"/>
@@ -3762,8 +3762,8 @@
       <c r="E5" s="98"/>
       <c r="F5" s="99"/>
       <c r="G5" s="100"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="188"/>
       <c r="J5" s="101"/>
       <c r="K5" s="100"/>
       <c r="L5" s="102"/>
@@ -3771,7 +3771,7 @@
       <c r="N5" s="104"/>
     </row>
     <row r="6" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="194"/>
+      <c r="A6" s="195"/>
       <c r="B6" s="107"/>
       <c r="C6" s="109" t="s">
         <v>88</v>
@@ -3784,17 +3784,17 @@
       <c r="G6" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="188" t="s">
+      <c r="H6" s="189" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="189"/>
-      <c r="J6" s="189"/>
-      <c r="K6" s="189"/>
-      <c r="L6" s="190"/>
-      <c r="M6" s="195" t="s">
+      <c r="I6" s="190"/>
+      <c r="J6" s="190"/>
+      <c r="K6" s="190"/>
+      <c r="L6" s="191"/>
+      <c r="M6" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="196"/>
+      <c r="N6" s="197"/>
     </row>
     <row r="7" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="136" t="s">
@@ -3812,13 +3812,13 @@
       <c r="E7" s="112"/>
       <c r="F7" s="121"/>
       <c r="G7" s="105"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="187"/>
-      <c r="J7" s="187"/>
-      <c r="K7" s="187"/>
-      <c r="L7" s="191"/>
-      <c r="M7" s="197"/>
-      <c r="N7" s="197"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="188"/>
+      <c r="L7" s="192"/>
+      <c r="M7" s="198"/>
+      <c r="N7" s="198"/>
     </row>
     <row r="8" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="122"/>
@@ -3842,19 +3842,19 @@
       <c r="C9" s="126"/>
       <c r="D9" s="127"/>
       <c r="E9" s="113"/>
-      <c r="F9" s="182" t="s">
+      <c r="F9" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="183"/>
-      <c r="H9" s="183"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="183"/>
-      <c r="K9" s="184"/>
-      <c r="L9" s="182" t="s">
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="185"/>
+      <c r="L9" s="183" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="183"/>
-      <c r="N9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="185"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="124"/>
@@ -3862,15 +3862,15 @@
       <c r="C10" s="128"/>
       <c r="D10" s="129"/>
       <c r="E10" s="113"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="175"/>
-      <c r="L10" s="173"/>
-      <c r="M10" s="174"/>
-      <c r="N10" s="175"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="176"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="175"/>
+      <c r="N10" s="176"/>
     </row>
     <row r="11" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="124"/>
@@ -3878,15 +3878,15 @@
       <c r="C11" s="128"/>
       <c r="D11" s="129"/>
       <c r="E11" s="113"/>
-      <c r="F11" s="176"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="177"/>
-      <c r="J11" s="177"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="176"/>
-      <c r="M11" s="177"/>
-      <c r="N11" s="178"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="177"/>
+      <c r="M11" s="178"/>
+      <c r="N11" s="179"/>
     </row>
     <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="124"/>
@@ -3894,15 +3894,15 @@
       <c r="C12" s="128"/>
       <c r="D12" s="129"/>
       <c r="E12" s="113"/>
-      <c r="F12" s="176"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="177"/>
-      <c r="J12" s="177"/>
-      <c r="K12" s="178"/>
-      <c r="L12" s="176"/>
-      <c r="M12" s="177"/>
-      <c r="N12" s="178"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="179"/>
+      <c r="L12" s="177"/>
+      <c r="M12" s="178"/>
+      <c r="N12" s="179"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="124"/>
@@ -3910,15 +3910,15 @@
       <c r="C13" s="126"/>
       <c r="D13" s="127"/>
       <c r="E13" s="113"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="178"/>
-      <c r="L13" s="176"/>
-      <c r="M13" s="177"/>
-      <c r="N13" s="178"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="179"/>
+      <c r="L13" s="177"/>
+      <c r="M13" s="178"/>
+      <c r="N13" s="179"/>
     </row>
     <row r="14" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="124"/>
@@ -3926,15 +3926,15 @@
       <c r="C14" s="126"/>
       <c r="D14" s="127"/>
       <c r="E14" s="113"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="178"/>
-      <c r="L14" s="176"/>
-      <c r="M14" s="177"/>
-      <c r="N14" s="178"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="179"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="178"/>
+      <c r="N14" s="179"/>
     </row>
     <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="124"/>
@@ -3942,15 +3942,15 @@
       <c r="C15" s="126"/>
       <c r="D15" s="127"/>
       <c r="E15" s="113"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="177"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="176"/>
-      <c r="M15" s="177"/>
-      <c r="N15" s="178"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="178"/>
+      <c r="K15" s="179"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="178"/>
+      <c r="N15" s="179"/>
     </row>
     <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="124"/>
@@ -3958,15 +3958,15 @@
       <c r="C16" s="126"/>
       <c r="D16" s="127"/>
       <c r="E16" s="113"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="178"/>
-      <c r="L16" s="176"/>
-      <c r="M16" s="177"/>
-      <c r="N16" s="178"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="178"/>
+      <c r="K16" s="179"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="178"/>
+      <c r="N16" s="179"/>
     </row>
     <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="124"/>
@@ -3974,15 +3974,15 @@
       <c r="C17" s="126"/>
       <c r="D17" s="127"/>
       <c r="E17" s="113"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="177"/>
-      <c r="K17" s="178"/>
-      <c r="L17" s="176"/>
-      <c r="M17" s="177"/>
-      <c r="N17" s="178"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="178"/>
+      <c r="K17" s="179"/>
+      <c r="L17" s="177"/>
+      <c r="M17" s="178"/>
+      <c r="N17" s="179"/>
     </row>
     <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="130"/>
@@ -3990,15 +3990,15 @@
       <c r="C18" s="126"/>
       <c r="D18" s="127"/>
       <c r="E18" s="113"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="177"/>
-      <c r="K18" s="178"/>
-      <c r="L18" s="176"/>
-      <c r="M18" s="177"/>
-      <c r="N18" s="178"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="179"/>
+      <c r="L18" s="177"/>
+      <c r="M18" s="178"/>
+      <c r="N18" s="179"/>
     </row>
     <row r="19" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="124" t="s">
@@ -4010,15 +4010,15 @@
       <c r="C19" s="126"/>
       <c r="D19" s="127"/>
       <c r="E19" s="113"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="177"/>
-      <c r="K19" s="178"/>
-      <c r="L19" s="176"/>
-      <c r="M19" s="177"/>
-      <c r="N19" s="178"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="178"/>
+      <c r="K19" s="179"/>
+      <c r="L19" s="177"/>
+      <c r="M19" s="178"/>
+      <c r="N19" s="179"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="131"/>
@@ -4026,15 +4026,15 @@
       <c r="C20" s="126"/>
       <c r="D20" s="127"/>
       <c r="E20" s="113"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="180"/>
-      <c r="J20" s="180"/>
-      <c r="K20" s="181"/>
-      <c r="L20" s="179"/>
-      <c r="M20" s="180"/>
-      <c r="N20" s="181"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="181"/>
+      <c r="J20" s="181"/>
+      <c r="K20" s="182"/>
+      <c r="L20" s="180"/>
+      <c r="M20" s="181"/>
+      <c r="N20" s="182"/>
     </row>
     <row r="21" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="145" t="s">
@@ -4068,7 +4068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -4078,58 +4078,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="199" t="s">
+      <c r="C1" s="201" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="200"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="200"/>
-      <c r="F4" s="200"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="201" t="s">
+      <c r="A5" s="200" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="201"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
+      <c r="B5" s="200"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="202" t="s">
+      <c r="A6" s="146" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="202" t="s">
+      <c r="B6" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="202" t="s">
+      <c r="C6" s="146" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="202" t="s">
+      <c r="D6" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="202" t="s">
+      <c r="E6" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="202" t="s">
+      <c r="F6" s="146" t="s">
         <v>98</v>
       </c>
     </row>

--- a/ExcelAddIn1/Resources/FICHA RECETA.xlsx
+++ b/ExcelAddIn1/Resources/FICHA RECETA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MANOLO\Documents\GitHub\VSTOexcelRest\ExcelAddIn1\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\VSTOexcelRest\ExcelAddIn1\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ReporteInventario" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="Receta" sheetId="1" r:id="rId3"/>
     <sheet name="ReporterCocina" sheetId="5" r:id="rId4"/>
     <sheet name="DetalleReceta" sheetId="6" r:id="rId5"/>
-    <sheet name="Congelados" sheetId="7" r:id="rId6"/>
+    <sheet name="IngredientesMenuDia" sheetId="8" r:id="rId6"/>
+    <sheet name="Congelados" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="CANTIDAD_A_ELABORAR">Receta!$J$4</definedName>
@@ -29,6 +30,7 @@
     <definedName name="FECHA_FIN_IMP">ReporteInventarioImprimir!$I$2</definedName>
     <definedName name="FECHA_INI_IMP">ReporteInventarioImprimir!$I$1</definedName>
     <definedName name="LITROS_A_ELABORAR">Receta!$J$3</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="MARGEN_ANTERIOR">Receta!$J$11</definedName>
     <definedName name="MARGEN_PRODUCTO">Receta!$J$12</definedName>
     <definedName name="NOMBRE">Receta!$B$2</definedName>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="105">
   <si>
     <t>Receta</t>
   </si>
@@ -373,6 +375,18 @@
   <si>
     <t>Descipción</t>
   </si>
+  <si>
+    <t>Almacenes Mercatto                                                   S. de R.L. de C.V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingredientes del Menú Semanal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clave        Ingrediente </t>
+  </si>
 </sst>
 </file>
 
@@ -385,7 +399,7 @@
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +578,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1117,7 +1146,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1607,6 +1636,27 @@
     <xf numFmtId="0" fontId="23" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1791,6 +1841,10 @@
     <xf numFmtId="0" fontId="17" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1800,6 +1854,18 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1820,7 +1886,9 @@
       </font>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="0"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1882,6 +1950,55 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1476375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>16972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1476375" cy="712297"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2396,45 +2513,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="155" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
       <c r="G1" s="66" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="66"/>
-      <c r="I1" s="149">
+      <c r="I1" s="156">
         <v>42491</v>
       </c>
-      <c r="J1" s="149"/>
+      <c r="J1" s="156"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
       <c r="G2" s="68" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="68"/>
-      <c r="I2" s="149">
+      <c r="I2" s="156">
         <v>42639</v>
       </c>
-      <c r="J2" s="149"/>
+      <c r="J2" s="156"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="154" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="65"/>
@@ -2574,7 +2691,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2592,52 +2709,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="162"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="169"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="170"/>
-      <c r="B2" s="163" t="s">
+      <c r="A2" s="177"/>
+      <c r="B2" s="170" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="152" t="s">
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="156" t="s">
+      <c r="H2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="157"/>
+      <c r="I2" s="164"/>
       <c r="J2" s="19">
         <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="171"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="156" t="s">
+      <c r="A3" s="178"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="157"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="20">
         <v>10</v>
       </c>
@@ -2664,10 +2781,10 @@
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="158" t="s">
+      <c r="H4" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="159"/>
+      <c r="I4" s="166"/>
       <c r="J4" s="23">
         <v>8.5</v>
       </c>
@@ -2680,10 +2797,10 @@
       <c r="E5" s="24"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="154" t="s">
+      <c r="H5" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="155"/>
+      <c r="I5" s="162"/>
       <c r="J5" s="27">
         <f>SUM(G5:G100)</f>
         <v>0</v>
@@ -2697,10 +2814,10 @@
       <c r="E6" s="24"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="154" t="s">
+      <c r="H6" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="155"/>
+      <c r="I6" s="162"/>
       <c r="J6" s="28">
         <f>J5*0.05</f>
         <v>0</v>
@@ -2714,10 +2831,10 @@
       <c r="E7" s="24"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="154" t="s">
+      <c r="H7" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="155"/>
+      <c r="I7" s="162"/>
       <c r="J7" s="28">
         <v>110</v>
       </c>
@@ -2730,10 +2847,10 @@
       <c r="E8" s="24"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="154" t="s">
+      <c r="H8" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="155"/>
+      <c r="I8" s="162"/>
       <c r="J8" s="29">
         <v>150</v>
       </c>
@@ -2746,10 +2863,10 @@
       <c r="E9" s="24"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="154" t="s">
+      <c r="H9" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="154"/>
+      <c r="I9" s="161"/>
       <c r="J9" s="30">
         <f>(PRECIO_VENTA*LITROS_A_ELABORAR)</f>
         <v>1500</v>
@@ -2763,10 +2880,10 @@
       <c r="E10" s="24"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="154" t="s">
+      <c r="H10" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="154"/>
+      <c r="I10" s="161"/>
       <c r="J10" s="31">
         <f>J9-COSTO_TOTAL_MATERIA_PRIMA</f>
         <v>1500</v>
@@ -2780,10 +2897,10 @@
       <c r="E11" s="24"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="150" t="s">
+      <c r="H11" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="151"/>
+      <c r="I11" s="158"/>
       <c r="J11" s="32">
         <v>0.27</v>
       </c>
@@ -2796,10 +2913,10 @@
       <c r="E12" s="24"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="150" t="s">
+      <c r="H12" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="151"/>
+      <c r="I12" s="158"/>
       <c r="J12" s="32">
         <f>((J5+COSTO_PREPARACION)/J9-1)*(-1)</f>
         <v>0.92666666666666664</v>
@@ -2904,8 +3021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2939,22 +3056,22 @@
       <c r="N1" s="81"/>
       <c r="O1" s="81"/>
       <c r="P1" s="81"/>
-      <c r="Q1" s="172" t="s">
+      <c r="Q1" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="173"/>
-      <c r="S1" s="172" t="s">
+      <c r="R1" s="180"/>
+      <c r="S1" s="179" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="173"/>
-      <c r="U1" s="172" t="s">
+      <c r="T1" s="180"/>
+      <c r="U1" s="179" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="173"/>
-      <c r="W1" s="172" t="s">
+      <c r="V1" s="180"/>
+      <c r="W1" s="179" t="s">
         <v>63</v>
       </c>
-      <c r="X1" s="173"/>
+      <c r="X1" s="180"/>
       <c r="Y1" s="81"/>
       <c r="Z1" s="81"/>
       <c r="AA1" s="81"/>
@@ -3654,7 +3771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7:N7"/>
     </sheetView>
   </sheetViews>
@@ -3670,36 +3787,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="199"/>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
+      <c r="A1" s="206"/>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="206"/>
     </row>
     <row r="2" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="199"/>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
+      <c r="A2" s="206"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
     </row>
     <row r="3" spans="1:16" s="133" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="134"/>
@@ -3721,8 +3838,8 @@
       <c r="A4" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="193"/>
-      <c r="C4" s="193"/>
+      <c r="B4" s="200"/>
+      <c r="C4" s="200"/>
       <c r="D4" s="96"/>
       <c r="E4" s="96"/>
       <c r="F4" s="140" t="s">
@@ -3731,11 +3848,11 @@
       <c r="G4" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="186" t="s">
+      <c r="H4" s="193" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="186"/>
-      <c r="J4" s="186"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="193"/>
       <c r="K4" s="141" t="s">
         <v>83</v>
       </c>
@@ -3751,7 +3868,7 @@
       <c r="P4" s="110"/>
     </row>
     <row r="5" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="201" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="97"/>
@@ -3762,8 +3879,8 @@
       <c r="E5" s="98"/>
       <c r="F5" s="99"/>
       <c r="G5" s="100"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="188"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="195"/>
       <c r="J5" s="101"/>
       <c r="K5" s="100"/>
       <c r="L5" s="102"/>
@@ -3771,7 +3888,7 @@
       <c r="N5" s="104"/>
     </row>
     <row r="6" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="195"/>
+      <c r="A6" s="202"/>
       <c r="B6" s="107"/>
       <c r="C6" s="109" t="s">
         <v>88</v>
@@ -3784,17 +3901,17 @@
       <c r="G6" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="189" t="s">
+      <c r="H6" s="196" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="190"/>
-      <c r="J6" s="190"/>
-      <c r="K6" s="190"/>
-      <c r="L6" s="191"/>
-      <c r="M6" s="196" t="s">
+      <c r="I6" s="197"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="197"/>
+      <c r="L6" s="198"/>
+      <c r="M6" s="203" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="197"/>
+      <c r="N6" s="204"/>
     </row>
     <row r="7" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="136" t="s">
@@ -3812,13 +3929,13 @@
       <c r="E7" s="112"/>
       <c r="F7" s="121"/>
       <c r="G7" s="105"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="188"/>
-      <c r="J7" s="188"/>
-      <c r="K7" s="188"/>
-      <c r="L7" s="192"/>
-      <c r="M7" s="198"/>
-      <c r="N7" s="198"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="195"/>
+      <c r="L7" s="199"/>
+      <c r="M7" s="205"/>
+      <c r="N7" s="205"/>
     </row>
     <row r="8" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="122"/>
@@ -3842,19 +3959,19 @@
       <c r="C9" s="126"/>
       <c r="D9" s="127"/>
       <c r="E9" s="113"/>
-      <c r="F9" s="183" t="s">
+      <c r="F9" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="184"/>
-      <c r="H9" s="184"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="184"/>
-      <c r="K9" s="185"/>
-      <c r="L9" s="183" t="s">
+      <c r="G9" s="191"/>
+      <c r="H9" s="191"/>
+      <c r="I9" s="191"/>
+      <c r="J9" s="191"/>
+      <c r="K9" s="192"/>
+      <c r="L9" s="190" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="184"/>
-      <c r="N9" s="185"/>
+      <c r="M9" s="191"/>
+      <c r="N9" s="192"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="124"/>
@@ -3862,15 +3979,15 @@
       <c r="C10" s="128"/>
       <c r="D10" s="129"/>
       <c r="E10" s="113"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="176"/>
-      <c r="L10" s="174"/>
-      <c r="M10" s="175"/>
-      <c r="N10" s="176"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="183"/>
+      <c r="L10" s="181"/>
+      <c r="M10" s="182"/>
+      <c r="N10" s="183"/>
     </row>
     <row r="11" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="124"/>
@@ -3878,15 +3995,15 @@
       <c r="C11" s="128"/>
       <c r="D11" s="129"/>
       <c r="E11" s="113"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="177"/>
-      <c r="M11" s="178"/>
-      <c r="N11" s="179"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="186"/>
+      <c r="L11" s="184"/>
+      <c r="M11" s="185"/>
+      <c r="N11" s="186"/>
     </row>
     <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="124"/>
@@ -3894,15 +4011,15 @@
       <c r="C12" s="128"/>
       <c r="D12" s="129"/>
       <c r="E12" s="113"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="179"/>
-      <c r="L12" s="177"/>
-      <c r="M12" s="178"/>
-      <c r="N12" s="179"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="185"/>
+      <c r="K12" s="186"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="185"/>
+      <c r="N12" s="186"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="124"/>
@@ -3910,15 +4027,15 @@
       <c r="C13" s="126"/>
       <c r="D13" s="127"/>
       <c r="E13" s="113"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="178"/>
-      <c r="K13" s="179"/>
-      <c r="L13" s="177"/>
-      <c r="M13" s="178"/>
-      <c r="N13" s="179"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="185"/>
+      <c r="J13" s="185"/>
+      <c r="K13" s="186"/>
+      <c r="L13" s="184"/>
+      <c r="M13" s="185"/>
+      <c r="N13" s="186"/>
     </row>
     <row r="14" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="124"/>
@@ -3926,15 +4043,15 @@
       <c r="C14" s="126"/>
       <c r="D14" s="127"/>
       <c r="E14" s="113"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="179"/>
-      <c r="L14" s="177"/>
-      <c r="M14" s="178"/>
-      <c r="N14" s="179"/>
+      <c r="F14" s="184"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="185"/>
+      <c r="J14" s="185"/>
+      <c r="K14" s="186"/>
+      <c r="L14" s="184"/>
+      <c r="M14" s="185"/>
+      <c r="N14" s="186"/>
     </row>
     <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="124"/>
@@ -3942,15 +4059,15 @@
       <c r="C15" s="126"/>
       <c r="D15" s="127"/>
       <c r="E15" s="113"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="179"/>
-      <c r="L15" s="177"/>
-      <c r="M15" s="178"/>
-      <c r="N15" s="179"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="185"/>
+      <c r="K15" s="186"/>
+      <c r="L15" s="184"/>
+      <c r="M15" s="185"/>
+      <c r="N15" s="186"/>
     </row>
     <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="124"/>
@@ -3958,15 +4075,15 @@
       <c r="C16" s="126"/>
       <c r="D16" s="127"/>
       <c r="E16" s="113"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="179"/>
-      <c r="L16" s="177"/>
-      <c r="M16" s="178"/>
-      <c r="N16" s="179"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="186"/>
+      <c r="L16" s="184"/>
+      <c r="M16" s="185"/>
+      <c r="N16" s="186"/>
     </row>
     <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="124"/>
@@ -3974,15 +4091,15 @@
       <c r="C17" s="126"/>
       <c r="D17" s="127"/>
       <c r="E17" s="113"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="178"/>
-      <c r="K17" s="179"/>
-      <c r="L17" s="177"/>
-      <c r="M17" s="178"/>
-      <c r="N17" s="179"/>
+      <c r="F17" s="184"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="185"/>
+      <c r="K17" s="186"/>
+      <c r="L17" s="184"/>
+      <c r="M17" s="185"/>
+      <c r="N17" s="186"/>
     </row>
     <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="130"/>
@@ -3990,15 +4107,15 @@
       <c r="C18" s="126"/>
       <c r="D18" s="127"/>
       <c r="E18" s="113"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="179"/>
-      <c r="L18" s="177"/>
-      <c r="M18" s="178"/>
-      <c r="N18" s="179"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="185"/>
+      <c r="K18" s="186"/>
+      <c r="L18" s="184"/>
+      <c r="M18" s="185"/>
+      <c r="N18" s="186"/>
     </row>
     <row r="19" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="124" t="s">
@@ -4010,15 +4127,15 @@
       <c r="C19" s="126"/>
       <c r="D19" s="127"/>
       <c r="E19" s="113"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="179"/>
-      <c r="L19" s="177"/>
-      <c r="M19" s="178"/>
-      <c r="N19" s="179"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="185"/>
+      <c r="K19" s="186"/>
+      <c r="L19" s="184"/>
+      <c r="M19" s="185"/>
+      <c r="N19" s="186"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="131"/>
@@ -4026,15 +4143,15 @@
       <c r="C20" s="126"/>
       <c r="D20" s="127"/>
       <c r="E20" s="113"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="181"/>
-      <c r="J20" s="181"/>
-      <c r="K20" s="182"/>
-      <c r="L20" s="180"/>
-      <c r="M20" s="181"/>
-      <c r="N20" s="182"/>
+      <c r="F20" s="187"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="188"/>
+      <c r="J20" s="188"/>
+      <c r="K20" s="189"/>
+      <c r="L20" s="187"/>
+      <c r="M20" s="188"/>
+      <c r="N20" s="189"/>
     </row>
     <row r="21" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="145" t="s">
@@ -4066,10 +4183,290 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="207" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="207"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+    </row>
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="211"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="E3" s="148"/>
+    </row>
+    <row r="4" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="214" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="214"/>
+      <c r="D4" s="213"/>
+    </row>
+    <row r="5" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="150" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="152" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="151" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="153" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="153" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="131"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="131"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="131"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="131"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="131"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="131"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="131"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="131"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="131"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="131"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="131"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="131"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="131"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="131"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="131"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="131"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="215"/>
+      <c r="B22" s="215"/>
+      <c r="C22" s="216"/>
+      <c r="D22" s="215"/>
+      <c r="E22" s="215"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="131"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="131"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="131"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="131"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="131"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="131"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="131"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="131"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="131"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="131"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="131"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="131"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="131"/>
+      <c r="B34" s="131"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="131"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="131"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4078,40 +4475,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="201" t="s">
+      <c r="C1" s="209" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="210"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="200" t="s">
+      <c r="A5" s="208" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="200"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
+      <c r="B5" s="208"/>
+      <c r="C5" s="208"/>
+      <c r="D5" s="208"/>
+      <c r="E5" s="208"/>
+      <c r="F5" s="208"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="146" t="s">

--- a/ExcelAddIn1/Resources/FICHA RECETA.xlsx
+++ b/ExcelAddIn1/Resources/FICHA RECETA.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\VSTOexcelRest\ExcelAddIn1\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ING. VEGA\Documents\GitHub\VSTOexcelRest\ExcelAddIn1\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ReporteInventario" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="ReporterCocina" sheetId="5" r:id="rId4"/>
     <sheet name="DetalleReceta" sheetId="6" r:id="rId5"/>
     <sheet name="IngredientesMenuDia" sheetId="8" r:id="rId6"/>
-    <sheet name="Congelados" sheetId="7" r:id="rId7"/>
+    <sheet name="Destino" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="CANTIDAD_A_ELABORAR">Receta!$J$4</definedName>
@@ -42,7 +42,7 @@
     <definedName name="TOLERANCIA_ERROR">Receta!$J$6</definedName>
     <definedName name="UNIDAD_RECETA">Receta!$A$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <customWorkbookViews>
     <customWorkbookView name="Receta" guid="{144E6047-E10B-4E01-8FEF-AAF3A3213ABE}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1320" windowHeight="784" activeSheetId="1" showFormulaBar="0"/>
   </customWorkbookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="106">
   <si>
     <t>Receta</t>
   </si>
@@ -370,9 +370,6 @@
     <t>Fecha de Entrada</t>
   </si>
   <si>
-    <t>CONGELADOS</t>
-  </si>
-  <si>
     <t>Descipción</t>
   </si>
   <si>
@@ -386,12 +383,18 @@
   </si>
   <si>
     <t xml:space="preserve">Clave        Ingrediente </t>
+  </si>
+  <si>
+    <t>PLATILLO DESTINO</t>
+  </si>
+  <si>
+    <t>Qty Ultima Elaboracion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -1657,203 +1660,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1866,6 +1672,203 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1917,7 +1920,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1966,7 +1975,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2015,7 +2030,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2123,6 +2144,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2158,6 +2196,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2513,45 +2568,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
       <c r="G1" s="66" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="66"/>
-      <c r="I1" s="156">
+      <c r="I1" s="162">
         <v>42491</v>
       </c>
-      <c r="J1" s="156"/>
+      <c r="J1" s="162"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
       <c r="G2" s="68" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="68"/>
-      <c r="I2" s="156">
+      <c r="I2" s="162">
         <v>42639</v>
       </c>
-      <c r="J2" s="156"/>
+      <c r="J2" s="162"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="160" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="65"/>
@@ -2709,52 +2764,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="169"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="175"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="177"/>
-      <c r="B2" s="170" t="s">
+      <c r="A2" s="183"/>
+      <c r="B2" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="159" t="s">
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="165" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="163" t="s">
+      <c r="H2" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="164"/>
+      <c r="I2" s="170"/>
       <c r="J2" s="19">
         <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="178"/>
-      <c r="B3" s="173"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="163" t="s">
+      <c r="A3" s="184"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="164"/>
+      <c r="I3" s="170"/>
       <c r="J3" s="20">
         <v>10</v>
       </c>
@@ -2781,10 +2836,10 @@
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="165" t="s">
+      <c r="H4" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="166"/>
+      <c r="I4" s="172"/>
       <c r="J4" s="23">
         <v>8.5</v>
       </c>
@@ -2797,10 +2852,10 @@
       <c r="E5" s="24"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="161" t="s">
+      <c r="H5" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="162"/>
+      <c r="I5" s="168"/>
       <c r="J5" s="27">
         <f>SUM(G5:G100)</f>
         <v>0</v>
@@ -2814,10 +2869,10 @@
       <c r="E6" s="24"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="161" t="s">
+      <c r="H6" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="162"/>
+      <c r="I6" s="168"/>
       <c r="J6" s="28">
         <f>J5*0.05</f>
         <v>0</v>
@@ -2831,10 +2886,10 @@
       <c r="E7" s="24"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="161" t="s">
+      <c r="H7" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="162"/>
+      <c r="I7" s="168"/>
       <c r="J7" s="28">
         <v>110</v>
       </c>
@@ -2847,10 +2902,10 @@
       <c r="E8" s="24"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="161" t="s">
+      <c r="H8" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="162"/>
+      <c r="I8" s="168"/>
       <c r="J8" s="29">
         <v>150</v>
       </c>
@@ -2863,10 +2918,10 @@
       <c r="E9" s="24"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="161" t="s">
+      <c r="H9" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="161"/>
+      <c r="I9" s="167"/>
       <c r="J9" s="30">
         <f>(PRECIO_VENTA*LITROS_A_ELABORAR)</f>
         <v>1500</v>
@@ -2880,10 +2935,10 @@
       <c r="E10" s="24"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="161" t="s">
+      <c r="H10" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="161"/>
+      <c r="I10" s="167"/>
       <c r="J10" s="31">
         <f>J9-COSTO_TOTAL_MATERIA_PRIMA</f>
         <v>1500</v>
@@ -2897,10 +2952,10 @@
       <c r="E11" s="24"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="157" t="s">
+      <c r="H11" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="158"/>
+      <c r="I11" s="164"/>
       <c r="J11" s="32">
         <v>0.27</v>
       </c>
@@ -2913,10 +2968,10 @@
       <c r="E12" s="24"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="157" t="s">
+      <c r="H12" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="158"/>
+      <c r="I12" s="164"/>
       <c r="J12" s="32">
         <f>((J5+COSTO_PREPARACION)/J9-1)*(-1)</f>
         <v>0.92666666666666664</v>
@@ -3019,23 +3074,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="23.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="95" t="s">
         <v>76</v>
       </c>
@@ -3056,29 +3112,30 @@
       <c r="N1" s="81"/>
       <c r="O1" s="81"/>
       <c r="P1" s="81"/>
-      <c r="Q1" s="179" t="s">
+      <c r="Q1" s="81"/>
+      <c r="R1" s="185" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="180"/>
-      <c r="S1" s="179" t="s">
+      <c r="S1" s="186"/>
+      <c r="T1" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="180"/>
-      <c r="U1" s="179" t="s">
+      <c r="U1" s="186"/>
+      <c r="V1" s="185" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="180"/>
-      <c r="W1" s="179" t="s">
+      <c r="W1" s="186"/>
+      <c r="X1" s="185" t="s">
         <v>63</v>
       </c>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="81"/>
+      <c r="Y1" s="186"/>
       <c r="Z1" s="81"/>
       <c r="AA1" s="81"/>
       <c r="AB1" s="81"/>
       <c r="AC1" s="81"/>
-    </row>
-    <row r="2" spans="1:29" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD1" s="81"/>
+    </row>
+    <row r="2" spans="1:30" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="90" t="s">
         <v>73</v>
       </c>
@@ -3104,60 +3161,63 @@
         <v>75</v>
       </c>
       <c r="I2" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="91" t="s">
+      <c r="K2" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="91" t="s">
+      <c r="L2" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="91" t="s">
+      <c r="M2" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="N2" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="91" t="s">
+      <c r="O2" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="91" t="s">
+      <c r="P2" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="91" t="s">
+      <c r="Q2" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="83" t="s">
+      <c r="R2" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="84" t="s">
+      <c r="S2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="83" t="s">
+      <c r="T2" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="T2" s="83" t="s">
+      <c r="U2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="84" t="s">
+      <c r="V2" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="83" t="s">
+      <c r="W2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="W2" s="83" t="s">
+      <c r="X2" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="X2" s="83" t="s">
+      <c r="Y2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="Y2" s="82"/>
       <c r="Z2" s="82"/>
       <c r="AA2" s="82"/>
       <c r="AB2" s="82"/>
       <c r="AC2" s="82"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD2" s="82"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="85"/>
       <c r="B3" s="85"/>
       <c r="C3" s="85"/>
@@ -3168,22 +3228,23 @@
       <c r="H3" s="85"/>
       <c r="I3" s="85"/>
       <c r="J3" s="85"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
+      <c r="O3" s="85"/>
       <c r="P3" s="86"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="79"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q3" s="86"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="79"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="85"/>
       <c r="B4" s="85"/>
       <c r="C4" s="85"/>
@@ -3194,22 +3255,23 @@
       <c r="H4" s="85"/>
       <c r="I4" s="85"/>
       <c r="J4" s="85"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="93"/>
       <c r="N4" s="85"/>
-      <c r="O4" s="86"/>
+      <c r="O4" s="85"/>
       <c r="P4" s="86"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="79"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q4" s="86"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="79"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="85"/>
       <c r="B5" s="85"/>
       <c r="C5" s="85"/>
@@ -3220,22 +3282,23 @@
       <c r="H5" s="85"/>
       <c r="I5" s="85"/>
       <c r="J5" s="85"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="93"/>
       <c r="N5" s="85"/>
-      <c r="O5" s="86"/>
+      <c r="O5" s="85"/>
       <c r="P5" s="86"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="79"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q5" s="86"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="79"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="85"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
@@ -3246,13 +3309,13 @@
       <c r="H6" s="85"/>
       <c r="I6" s="85"/>
       <c r="J6" s="85"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="85"/>
-      <c r="O6" s="87"/>
+      <c r="O6" s="85"/>
       <c r="P6" s="87"/>
-      <c r="Q6" s="85"/>
+      <c r="Q6" s="87"/>
       <c r="R6" s="85"/>
       <c r="S6" s="85"/>
       <c r="T6" s="85"/>
@@ -3260,8 +3323,9 @@
       <c r="V6" s="85"/>
       <c r="W6" s="85"/>
       <c r="X6" s="85"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y6" s="85"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="85"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
@@ -3272,13 +3336,13 @@
       <c r="H7" s="85"/>
       <c r="I7" s="85"/>
       <c r="J7" s="85"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="93"/>
       <c r="N7" s="85"/>
-      <c r="O7" s="87"/>
+      <c r="O7" s="85"/>
       <c r="P7" s="87"/>
-      <c r="Q7" s="85"/>
+      <c r="Q7" s="87"/>
       <c r="R7" s="85"/>
       <c r="S7" s="85"/>
       <c r="T7" s="85"/>
@@ -3286,8 +3350,9 @@
       <c r="V7" s="85"/>
       <c r="W7" s="85"/>
       <c r="X7" s="85"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y7" s="85"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="85"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
@@ -3298,13 +3363,13 @@
       <c r="H8" s="85"/>
       <c r="I8" s="85"/>
       <c r="J8" s="85"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="93"/>
       <c r="N8" s="85"/>
-      <c r="O8" s="87"/>
+      <c r="O8" s="85"/>
       <c r="P8" s="87"/>
-      <c r="Q8" s="85"/>
+      <c r="Q8" s="87"/>
       <c r="R8" s="85"/>
       <c r="S8" s="85"/>
       <c r="T8" s="85"/>
@@ -3312,8 +3377,9 @@
       <c r="V8" s="85"/>
       <c r="W8" s="85"/>
       <c r="X8" s="85"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y8" s="85"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="85"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
@@ -3324,13 +3390,13 @@
       <c r="H9" s="85"/>
       <c r="I9" s="85"/>
       <c r="J9" s="85"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="93"/>
       <c r="N9" s="85"/>
-      <c r="O9" s="87"/>
+      <c r="O9" s="85"/>
       <c r="P9" s="87"/>
-      <c r="Q9" s="85"/>
+      <c r="Q9" s="87"/>
       <c r="R9" s="85"/>
       <c r="S9" s="85"/>
       <c r="T9" s="85"/>
@@ -3338,8 +3404,9 @@
       <c r="V9" s="85"/>
       <c r="W9" s="85"/>
       <c r="X9" s="85"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y9" s="85"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="85"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
@@ -3350,13 +3417,13 @@
       <c r="H10" s="85"/>
       <c r="I10" s="85"/>
       <c r="J10" s="85"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="93"/>
       <c r="N10" s="85"/>
-      <c r="O10" s="87"/>
+      <c r="O10" s="85"/>
       <c r="P10" s="87"/>
-      <c r="Q10" s="85"/>
+      <c r="Q10" s="87"/>
       <c r="R10" s="85"/>
       <c r="S10" s="85"/>
       <c r="T10" s="85"/>
@@ -3364,8 +3431,9 @@
       <c r="V10" s="85"/>
       <c r="W10" s="85"/>
       <c r="X10" s="85"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y10" s="85"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="85"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
@@ -3376,13 +3444,13 @@
       <c r="H11" s="85"/>
       <c r="I11" s="85"/>
       <c r="J11" s="85"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="93"/>
       <c r="N11" s="85"/>
-      <c r="O11" s="87"/>
+      <c r="O11" s="85"/>
       <c r="P11" s="87"/>
-      <c r="Q11" s="85"/>
+      <c r="Q11" s="87"/>
       <c r="R11" s="85"/>
       <c r="S11" s="85"/>
       <c r="T11" s="85"/>
@@ -3390,8 +3458,9 @@
       <c r="V11" s="85"/>
       <c r="W11" s="85"/>
       <c r="X11" s="85"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y11" s="85"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="85"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
@@ -3402,13 +3471,13 @@
       <c r="H12" s="85"/>
       <c r="I12" s="85"/>
       <c r="J12" s="85"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="93"/>
       <c r="N12" s="85"/>
-      <c r="O12" s="87"/>
+      <c r="O12" s="85"/>
       <c r="P12" s="87"/>
-      <c r="Q12" s="85"/>
+      <c r="Q12" s="87"/>
       <c r="R12" s="85"/>
       <c r="S12" s="85"/>
       <c r="T12" s="85"/>
@@ -3416,8 +3485,9 @@
       <c r="V12" s="85"/>
       <c r="W12" s="85"/>
       <c r="X12" s="85"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y12" s="85"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="85"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
@@ -3428,13 +3498,13 @@
       <c r="H13" s="85"/>
       <c r="I13" s="85"/>
       <c r="J13" s="85"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="93"/>
       <c r="N13" s="85"/>
-      <c r="O13" s="87"/>
+      <c r="O13" s="85"/>
       <c r="P13" s="87"/>
-      <c r="Q13" s="85"/>
+      <c r="Q13" s="87"/>
       <c r="R13" s="85"/>
       <c r="S13" s="85"/>
       <c r="T13" s="85"/>
@@ -3442,8 +3512,9 @@
       <c r="V13" s="85"/>
       <c r="W13" s="85"/>
       <c r="X13" s="85"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y13" s="85"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="85"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
@@ -3454,13 +3525,13 @@
       <c r="H14" s="85"/>
       <c r="I14" s="85"/>
       <c r="J14" s="85"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="93"/>
       <c r="N14" s="85"/>
-      <c r="O14" s="87"/>
+      <c r="O14" s="85"/>
       <c r="P14" s="87"/>
-      <c r="Q14" s="85"/>
+      <c r="Q14" s="87"/>
       <c r="R14" s="85"/>
       <c r="S14" s="85"/>
       <c r="T14" s="85"/>
@@ -3468,8 +3539,9 @@
       <c r="V14" s="85"/>
       <c r="W14" s="85"/>
       <c r="X14" s="85"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y14" s="85"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="85"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
@@ -3480,13 +3552,13 @@
       <c r="H15" s="85"/>
       <c r="I15" s="85"/>
       <c r="J15" s="85"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="93"/>
       <c r="N15" s="85"/>
-      <c r="O15" s="87"/>
+      <c r="O15" s="85"/>
       <c r="P15" s="87"/>
-      <c r="Q15" s="85"/>
+      <c r="Q15" s="87"/>
       <c r="R15" s="85"/>
       <c r="S15" s="85"/>
       <c r="T15" s="85"/>
@@ -3494,8 +3566,9 @@
       <c r="V15" s="85"/>
       <c r="W15" s="85"/>
       <c r="X15" s="85"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y15" s="85"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="85"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
@@ -3506,13 +3579,13 @@
       <c r="H16" s="85"/>
       <c r="I16" s="85"/>
       <c r="J16" s="85"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="93"/>
       <c r="N16" s="85"/>
-      <c r="O16" s="87"/>
+      <c r="O16" s="85"/>
       <c r="P16" s="87"/>
-      <c r="Q16" s="85"/>
+      <c r="Q16" s="87"/>
       <c r="R16" s="85"/>
       <c r="S16" s="85"/>
       <c r="T16" s="85"/>
@@ -3520,8 +3593,9 @@
       <c r="V16" s="85"/>
       <c r="W16" s="85"/>
       <c r="X16" s="85"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y16" s="85"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="85"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
@@ -3532,13 +3606,13 @@
       <c r="H17" s="85"/>
       <c r="I17" s="85"/>
       <c r="J17" s="85"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="93"/>
       <c r="N17" s="85"/>
-      <c r="O17" s="87"/>
+      <c r="O17" s="85"/>
       <c r="P17" s="87"/>
-      <c r="Q17" s="85"/>
+      <c r="Q17" s="87"/>
       <c r="R17" s="85"/>
       <c r="S17" s="85"/>
       <c r="T17" s="85"/>
@@ -3546,8 +3620,9 @@
       <c r="V17" s="85"/>
       <c r="W17" s="85"/>
       <c r="X17" s="85"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y17" s="85"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="85"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
@@ -3558,13 +3633,13 @@
       <c r="H18" s="85"/>
       <c r="I18" s="85"/>
       <c r="J18" s="85"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="93"/>
       <c r="N18" s="85"/>
-      <c r="O18" s="87"/>
+      <c r="O18" s="85"/>
       <c r="P18" s="87"/>
-      <c r="Q18" s="85"/>
+      <c r="Q18" s="87"/>
       <c r="R18" s="85"/>
       <c r="S18" s="85"/>
       <c r="T18" s="85"/>
@@ -3572,8 +3647,9 @@
       <c r="V18" s="85"/>
       <c r="W18" s="85"/>
       <c r="X18" s="85"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y18" s="85"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="85"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
@@ -3584,13 +3660,13 @@
       <c r="H19" s="85"/>
       <c r="I19" s="85"/>
       <c r="J19" s="85"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="93"/>
       <c r="N19" s="85"/>
-      <c r="O19" s="87"/>
+      <c r="O19" s="85"/>
       <c r="P19" s="87"/>
-      <c r="Q19" s="85"/>
+      <c r="Q19" s="87"/>
       <c r="R19" s="85"/>
       <c r="S19" s="85"/>
       <c r="T19" s="85"/>
@@ -3598,8 +3674,9 @@
       <c r="V19" s="85"/>
       <c r="W19" s="85"/>
       <c r="X19" s="85"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y19" s="85"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="85"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -3610,13 +3687,13 @@
       <c r="H20" s="85"/>
       <c r="I20" s="85"/>
       <c r="J20" s="85"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="93"/>
       <c r="N20" s="85"/>
-      <c r="O20" s="87"/>
+      <c r="O20" s="85"/>
       <c r="P20" s="87"/>
-      <c r="Q20" s="85"/>
+      <c r="Q20" s="87"/>
       <c r="R20" s="85"/>
       <c r="S20" s="85"/>
       <c r="T20" s="85"/>
@@ -3624,8 +3701,9 @@
       <c r="V20" s="85"/>
       <c r="W20" s="85"/>
       <c r="X20" s="85"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y20" s="85"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="85"/>
       <c r="B21" s="85"/>
       <c r="C21" s="85"/>
@@ -3636,13 +3714,13 @@
       <c r="H21" s="85"/>
       <c r="I21" s="85"/>
       <c r="J21" s="85"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="93"/>
       <c r="N21" s="85"/>
-      <c r="O21" s="87"/>
+      <c r="O21" s="85"/>
       <c r="P21" s="87"/>
-      <c r="Q21" s="85"/>
+      <c r="Q21" s="87"/>
       <c r="R21" s="85"/>
       <c r="S21" s="85"/>
       <c r="T21" s="85"/>
@@ -3650,8 +3728,9 @@
       <c r="V21" s="85"/>
       <c r="W21" s="85"/>
       <c r="X21" s="85"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y21" s="85"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="85"/>
       <c r="B22" s="85"/>
       <c r="C22" s="85"/>
@@ -3662,13 +3741,13 @@
       <c r="H22" s="85"/>
       <c r="I22" s="85"/>
       <c r="J22" s="85"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="93"/>
       <c r="N22" s="85"/>
-      <c r="O22" s="87"/>
+      <c r="O22" s="85"/>
       <c r="P22" s="87"/>
-      <c r="Q22" s="85"/>
+      <c r="Q22" s="87"/>
       <c r="R22" s="85"/>
       <c r="S22" s="85"/>
       <c r="T22" s="85"/>
@@ -3676,8 +3755,9 @@
       <c r="V22" s="85"/>
       <c r="W22" s="85"/>
       <c r="X22" s="85"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y22" s="85"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="85"/>
       <c r="B23" s="85"/>
       <c r="C23" s="85"/>
@@ -3688,13 +3768,13 @@
       <c r="H23" s="85"/>
       <c r="I23" s="85"/>
       <c r="J23" s="85"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="93"/>
       <c r="N23" s="85"/>
-      <c r="O23" s="87"/>
+      <c r="O23" s="85"/>
       <c r="P23" s="87"/>
-      <c r="Q23" s="85"/>
+      <c r="Q23" s="87"/>
       <c r="R23" s="85"/>
       <c r="S23" s="85"/>
       <c r="T23" s="85"/>
@@ -3702,8 +3782,9 @@
       <c r="V23" s="85"/>
       <c r="W23" s="85"/>
       <c r="X23" s="85"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y23" s="85"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="85"/>
       <c r="B24" s="85"/>
       <c r="C24" s="85"/>
@@ -3714,13 +3795,13 @@
       <c r="H24" s="85"/>
       <c r="I24" s="85"/>
       <c r="J24" s="85"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="93"/>
       <c r="N24" s="85"/>
-      <c r="O24" s="87"/>
+      <c r="O24" s="85"/>
       <c r="P24" s="87"/>
-      <c r="Q24" s="85"/>
+      <c r="Q24" s="87"/>
       <c r="R24" s="85"/>
       <c r="S24" s="85"/>
       <c r="T24" s="85"/>
@@ -3728,8 +3809,9 @@
       <c r="V24" s="85"/>
       <c r="W24" s="85"/>
       <c r="X24" s="85"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y24" s="85"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="85"/>
       <c r="B25" s="85"/>
       <c r="C25" s="85"/>
@@ -3740,13 +3822,13 @@
       <c r="H25" s="85"/>
       <c r="I25" s="85"/>
       <c r="J25" s="85"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="93"/>
       <c r="N25" s="85"/>
-      <c r="O25" s="87"/>
+      <c r="O25" s="85"/>
       <c r="P25" s="87"/>
-      <c r="Q25" s="85"/>
+      <c r="Q25" s="87"/>
       <c r="R25" s="85"/>
       <c r="S25" s="85"/>
       <c r="T25" s="85"/>
@@ -3754,13 +3836,14 @@
       <c r="V25" s="85"/>
       <c r="W25" s="85"/>
       <c r="X25" s="85"/>
+      <c r="Y25" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3787,36 +3870,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="206"/>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
-      <c r="N1" s="206"/>
+      <c r="A1" s="212"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="212"/>
+      <c r="L1" s="212"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="212"/>
     </row>
     <row r="2" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="206"/>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
+      <c r="A2" s="212"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
+      <c r="L2" s="212"/>
+      <c r="M2" s="212"/>
+      <c r="N2" s="212"/>
     </row>
     <row r="3" spans="1:16" s="133" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="134"/>
@@ -3838,8 +3921,8 @@
       <c r="A4" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="200"/>
-      <c r="C4" s="200"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="206"/>
       <c r="D4" s="96"/>
       <c r="E4" s="96"/>
       <c r="F4" s="140" t="s">
@@ -3848,11 +3931,11 @@
       <c r="G4" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="193" t="s">
+      <c r="H4" s="199" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="193"/>
-      <c r="J4" s="193"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="199"/>
       <c r="K4" s="141" t="s">
         <v>83</v>
       </c>
@@ -3868,7 +3951,7 @@
       <c r="P4" s="110"/>
     </row>
     <row r="5" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="201" t="s">
+      <c r="A5" s="207" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="97"/>
@@ -3879,8 +3962,8 @@
       <c r="E5" s="98"/>
       <c r="F5" s="99"/>
       <c r="G5" s="100"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="195"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="201"/>
       <c r="J5" s="101"/>
       <c r="K5" s="100"/>
       <c r="L5" s="102"/>
@@ -3888,7 +3971,7 @@
       <c r="N5" s="104"/>
     </row>
     <row r="6" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="202"/>
+      <c r="A6" s="208"/>
       <c r="B6" s="107"/>
       <c r="C6" s="109" t="s">
         <v>88</v>
@@ -3901,17 +3984,17 @@
       <c r="G6" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="196" t="s">
+      <c r="H6" s="202" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="197"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="197"/>
-      <c r="L6" s="198"/>
-      <c r="M6" s="203" t="s">
+      <c r="I6" s="203"/>
+      <c r="J6" s="203"/>
+      <c r="K6" s="203"/>
+      <c r="L6" s="204"/>
+      <c r="M6" s="209" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="204"/>
+      <c r="N6" s="210"/>
     </row>
     <row r="7" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="136" t="s">
@@ -3929,13 +4012,13 @@
       <c r="E7" s="112"/>
       <c r="F7" s="121"/>
       <c r="G7" s="105"/>
-      <c r="H7" s="194"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="195"/>
-      <c r="K7" s="195"/>
-      <c r="L7" s="199"/>
-      <c r="M7" s="205"/>
-      <c r="N7" s="205"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="201"/>
+      <c r="K7" s="201"/>
+      <c r="L7" s="205"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="211"/>
     </row>
     <row r="8" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="122"/>
@@ -3959,19 +4042,19 @@
       <c r="C9" s="126"/>
       <c r="D9" s="127"/>
       <c r="E9" s="113"/>
-      <c r="F9" s="190" t="s">
+      <c r="F9" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="191"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="191"/>
-      <c r="K9" s="192"/>
-      <c r="L9" s="190" t="s">
+      <c r="G9" s="197"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="198"/>
+      <c r="L9" s="196" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="191"/>
-      <c r="N9" s="192"/>
+      <c r="M9" s="197"/>
+      <c r="N9" s="198"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="124"/>
@@ -3979,15 +4062,15 @@
       <c r="C10" s="128"/>
       <c r="D10" s="129"/>
       <c r="E10" s="113"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="182"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="182"/>
-      <c r="J10" s="182"/>
-      <c r="K10" s="183"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="182"/>
-      <c r="N10" s="183"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="188"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="188"/>
+      <c r="N10" s="189"/>
     </row>
     <row r="11" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="124"/>
@@ -3995,15 +4078,15 @@
       <c r="C11" s="128"/>
       <c r="D11" s="129"/>
       <c r="E11" s="113"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="185"/>
-      <c r="I11" s="185"/>
-      <c r="J11" s="185"/>
-      <c r="K11" s="186"/>
-      <c r="L11" s="184"/>
-      <c r="M11" s="185"/>
-      <c r="N11" s="186"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="191"/>
+      <c r="H11" s="191"/>
+      <c r="I11" s="191"/>
+      <c r="J11" s="191"/>
+      <c r="K11" s="192"/>
+      <c r="L11" s="190"/>
+      <c r="M11" s="191"/>
+      <c r="N11" s="192"/>
     </row>
     <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="124"/>
@@ -4011,15 +4094,15 @@
       <c r="C12" s="128"/>
       <c r="D12" s="129"/>
       <c r="E12" s="113"/>
-      <c r="F12" s="184"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="185"/>
-      <c r="J12" s="185"/>
-      <c r="K12" s="186"/>
-      <c r="L12" s="184"/>
-      <c r="M12" s="185"/>
-      <c r="N12" s="186"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="191"/>
+      <c r="H12" s="191"/>
+      <c r="I12" s="191"/>
+      <c r="J12" s="191"/>
+      <c r="K12" s="192"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="191"/>
+      <c r="N12" s="192"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="124"/>
@@ -4027,15 +4110,15 @@
       <c r="C13" s="126"/>
       <c r="D13" s="127"/>
       <c r="E13" s="113"/>
-      <c r="F13" s="184"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="185"/>
-      <c r="J13" s="185"/>
-      <c r="K13" s="186"/>
-      <c r="L13" s="184"/>
-      <c r="M13" s="185"/>
-      <c r="N13" s="186"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="191"/>
+      <c r="H13" s="191"/>
+      <c r="I13" s="191"/>
+      <c r="J13" s="191"/>
+      <c r="K13" s="192"/>
+      <c r="L13" s="190"/>
+      <c r="M13" s="191"/>
+      <c r="N13" s="192"/>
     </row>
     <row r="14" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="124"/>
@@ -4043,15 +4126,15 @@
       <c r="C14" s="126"/>
       <c r="D14" s="127"/>
       <c r="E14" s="113"/>
-      <c r="F14" s="184"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="185"/>
-      <c r="J14" s="185"/>
-      <c r="K14" s="186"/>
-      <c r="L14" s="184"/>
-      <c r="M14" s="185"/>
-      <c r="N14" s="186"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="191"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="191"/>
+      <c r="J14" s="191"/>
+      <c r="K14" s="192"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="191"/>
+      <c r="N14" s="192"/>
     </row>
     <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="124"/>
@@ -4059,15 +4142,15 @@
       <c r="C15" s="126"/>
       <c r="D15" s="127"/>
       <c r="E15" s="113"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="185"/>
-      <c r="K15" s="186"/>
-      <c r="L15" s="184"/>
-      <c r="M15" s="185"/>
-      <c r="N15" s="186"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="191"/>
+      <c r="H15" s="191"/>
+      <c r="I15" s="191"/>
+      <c r="J15" s="191"/>
+      <c r="K15" s="192"/>
+      <c r="L15" s="190"/>
+      <c r="M15" s="191"/>
+      <c r="N15" s="192"/>
     </row>
     <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="124"/>
@@ -4075,15 +4158,15 @@
       <c r="C16" s="126"/>
       <c r="D16" s="127"/>
       <c r="E16" s="113"/>
-      <c r="F16" s="184"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="185"/>
-      <c r="K16" s="186"/>
-      <c r="L16" s="184"/>
-      <c r="M16" s="185"/>
-      <c r="N16" s="186"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="191"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="192"/>
+      <c r="L16" s="190"/>
+      <c r="M16" s="191"/>
+      <c r="N16" s="192"/>
     </row>
     <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="124"/>
@@ -4091,15 +4174,15 @@
       <c r="C17" s="126"/>
       <c r="D17" s="127"/>
       <c r="E17" s="113"/>
-      <c r="F17" s="184"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="185"/>
-      <c r="K17" s="186"/>
-      <c r="L17" s="184"/>
-      <c r="M17" s="185"/>
-      <c r="N17" s="186"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="191"/>
+      <c r="H17" s="191"/>
+      <c r="I17" s="191"/>
+      <c r="J17" s="191"/>
+      <c r="K17" s="192"/>
+      <c r="L17" s="190"/>
+      <c r="M17" s="191"/>
+      <c r="N17" s="192"/>
     </row>
     <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="130"/>
@@ -4107,15 +4190,15 @@
       <c r="C18" s="126"/>
       <c r="D18" s="127"/>
       <c r="E18" s="113"/>
-      <c r="F18" s="184"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="185"/>
-      <c r="K18" s="186"/>
-      <c r="L18" s="184"/>
-      <c r="M18" s="185"/>
-      <c r="N18" s="186"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="191"/>
+      <c r="H18" s="191"/>
+      <c r="I18" s="191"/>
+      <c r="J18" s="191"/>
+      <c r="K18" s="192"/>
+      <c r="L18" s="190"/>
+      <c r="M18" s="191"/>
+      <c r="N18" s="192"/>
     </row>
     <row r="19" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="124" t="s">
@@ -4127,15 +4210,15 @@
       <c r="C19" s="126"/>
       <c r="D19" s="127"/>
       <c r="E19" s="113"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="185"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="185"/>
-      <c r="J19" s="185"/>
-      <c r="K19" s="186"/>
-      <c r="L19" s="184"/>
-      <c r="M19" s="185"/>
-      <c r="N19" s="186"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="191"/>
+      <c r="K19" s="192"/>
+      <c r="L19" s="190"/>
+      <c r="M19" s="191"/>
+      <c r="N19" s="192"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="131"/>
@@ -4143,15 +4226,15 @@
       <c r="C20" s="126"/>
       <c r="D20" s="127"/>
       <c r="E20" s="113"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="188"/>
-      <c r="I20" s="188"/>
-      <c r="J20" s="188"/>
-      <c r="K20" s="189"/>
-      <c r="L20" s="187"/>
-      <c r="M20" s="188"/>
-      <c r="N20" s="189"/>
+      <c r="F20" s="193"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="194"/>
+      <c r="K20" s="195"/>
+      <c r="L20" s="193"/>
+      <c r="M20" s="194"/>
+      <c r="N20" s="195"/>
     </row>
     <row r="21" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="145" t="s">
@@ -4185,7 +4268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -4199,34 +4282,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="207" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="207"/>
+      <c r="B1" s="213" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="213"/>
       <c r="D1" s="147"/>
       <c r="E1" s="147"/>
     </row>
     <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="211"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="154"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
       <c r="E3" s="148"/>
     </row>
     <row r="4" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="214" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="214"/>
-      <c r="D4" s="213"/>
+      <c r="B4" s="157" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="157"/>
+      <c r="D4" s="156"/>
     </row>
     <row r="5" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="150" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="152" t="s">
         <v>4</v>
@@ -4238,7 +4321,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="153" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4354,11 +4437,11 @@
       <c r="E21" s="131"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="215"/>
-      <c r="B22" s="215"/>
-      <c r="C22" s="216"/>
-      <c r="D22" s="215"/>
-      <c r="E22" s="215"/>
+      <c r="A22" s="158"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="158"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="131"/>
@@ -4466,7 +4549,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4475,40 +4558,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="209" t="s">
+      <c r="C1" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="210"/>
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="208" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="208"/>
-      <c r="C5" s="208"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
+      <c r="A5" s="214" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="214"/>
+      <c r="C5" s="214"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="214"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="146" t="s">
@@ -4518,7 +4601,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="146" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="146" t="s">
         <v>93</v>

--- a/ExcelAddIn1/Resources/FICHA RECETA.xlsx
+++ b/ExcelAddIn1/Resources/FICHA RECETA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8340" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ReporteInventario" sheetId="3" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="107">
   <si>
     <t>Receta</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>Qty Ultima Elaboracion</t>
+  </si>
+  <si>
+    <t>Since-Qty</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1152,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1507,9 +1510,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1684,6 +1684,62 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1700,14 +1756,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1724,58 +1772,40 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1817,12 +1847,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1831,30 +1855,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2568,45 +2568,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
       <c r="G1" s="66" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="66"/>
-      <c r="I1" s="162">
+      <c r="I1" s="161">
         <v>42491</v>
       </c>
-      <c r="J1" s="162"/>
+      <c r="J1" s="161"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
       <c r="G2" s="68" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="68"/>
-      <c r="I2" s="162">
+      <c r="I2" s="161">
         <v>42639</v>
       </c>
-      <c r="J2" s="162"/>
+      <c r="J2" s="161"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="65"/>
@@ -2764,52 +2764,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="175"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="164"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="183"/>
-      <c r="B2" s="176" t="s">
+      <c r="A2" s="173"/>
+      <c r="B2" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="165" t="s">
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="178" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="169" t="s">
+      <c r="H2" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="170"/>
+      <c r="I2" s="181"/>
       <c r="J2" s="19">
         <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="184"/>
-      <c r="B3" s="179"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="169" t="s">
+      <c r="A3" s="174"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="170"/>
+      <c r="I3" s="181"/>
       <c r="J3" s="20">
         <v>10</v>
       </c>
@@ -2836,10 +2836,10 @@
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="171" t="s">
+      <c r="H4" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="172"/>
+      <c r="I4" s="183"/>
       <c r="J4" s="23">
         <v>8.5</v>
       </c>
@@ -2852,10 +2852,10 @@
       <c r="E5" s="24"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="167" t="s">
+      <c r="H5" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="168"/>
+      <c r="I5" s="175"/>
       <c r="J5" s="27">
         <f>SUM(G5:G100)</f>
         <v>0</v>
@@ -2869,10 +2869,10 @@
       <c r="E6" s="24"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="167" t="s">
+      <c r="H6" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="168"/>
+      <c r="I6" s="175"/>
       <c r="J6" s="28">
         <f>J5*0.05</f>
         <v>0</v>
@@ -2886,10 +2886,10 @@
       <c r="E7" s="24"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="167" t="s">
+      <c r="H7" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="168"/>
+      <c r="I7" s="175"/>
       <c r="J7" s="28">
         <v>110</v>
       </c>
@@ -2902,10 +2902,10 @@
       <c r="E8" s="24"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="167" t="s">
+      <c r="H8" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="168"/>
+      <c r="I8" s="175"/>
       <c r="J8" s="29">
         <v>150</v>
       </c>
@@ -2918,10 +2918,10 @@
       <c r="E9" s="24"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="167" t="s">
+      <c r="H9" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="167"/>
+      <c r="I9" s="171"/>
       <c r="J9" s="30">
         <f>(PRECIO_VENTA*LITROS_A_ELABORAR)</f>
         <v>1500</v>
@@ -2935,10 +2935,10 @@
       <c r="E10" s="24"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="167" t="s">
+      <c r="H10" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="167"/>
+      <c r="I10" s="171"/>
       <c r="J10" s="31">
         <f>J9-COSTO_TOTAL_MATERIA_PRIMA</f>
         <v>1500</v>
@@ -2952,10 +2952,10 @@
       <c r="E11" s="24"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="163" t="s">
+      <c r="H11" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="164"/>
+      <c r="I11" s="177"/>
       <c r="J11" s="32">
         <v>0.27</v>
       </c>
@@ -2968,10 +2968,10 @@
       <c r="E12" s="24"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="163" t="s">
+      <c r="H12" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="164"/>
+      <c r="I12" s="177"/>
       <c r="J12" s="32">
         <f>((J5+COSTO_PREPARACION)/J9-1)*(-1)</f>
         <v>0.92666666666666664</v>
@@ -3043,13 +3043,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="15">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H5:I5"/>
@@ -3058,6 +3051,13 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="J12">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
@@ -3074,10 +3074,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD25"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3087,11 +3087,12 @@
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="16" max="16" width="23.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="23.5703125" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="95" t="s">
         <v>76</v>
       </c>
@@ -3113,29 +3114,30 @@
       <c r="O1" s="81"/>
       <c r="P1" s="81"/>
       <c r="Q1" s="81"/>
-      <c r="R1" s="185" t="s">
+      <c r="R1" s="81"/>
+      <c r="S1" s="184" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="186"/>
-      <c r="T1" s="185" t="s">
+      <c r="T1" s="185"/>
+      <c r="U1" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="186"/>
-      <c r="V1" s="185" t="s">
+      <c r="V1" s="185"/>
+      <c r="W1" s="184" t="s">
         <v>62</v>
       </c>
-      <c r="W1" s="186"/>
-      <c r="X1" s="185" t="s">
+      <c r="X1" s="185"/>
+      <c r="Y1" s="184" t="s">
         <v>63</v>
       </c>
-      <c r="Y1" s="186"/>
-      <c r="Z1" s="81"/>
+      <c r="Z1" s="185"/>
       <c r="AA1" s="81"/>
       <c r="AB1" s="81"/>
       <c r="AC1" s="81"/>
       <c r="AD1" s="81"/>
-    </row>
-    <row r="2" spans="1:30" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE1" s="81"/>
+    </row>
+    <row r="2" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="90" t="s">
         <v>73</v>
       </c>
@@ -3182,42 +3184,45 @@
         <v>68</v>
       </c>
       <c r="P2" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q2" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="91" t="s">
+      <c r="R2" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="R2" s="83" t="s">
+      <c r="S2" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="84" t="s">
+      <c r="T2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="83" t="s">
+      <c r="U2" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="83" t="s">
+      <c r="V2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="V2" s="84" t="s">
+      <c r="W2" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="W2" s="83" t="s">
+      <c r="X2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="X2" s="83" t="s">
+      <c r="Y2" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="Y2" s="83" t="s">
+      <c r="Z2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="Z2" s="82"/>
       <c r="AA2" s="82"/>
       <c r="AB2" s="82"/>
       <c r="AC2" s="82"/>
       <c r="AD2" s="82"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE2" s="82"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="85"/>
       <c r="B3" s="85"/>
       <c r="C3" s="85"/>
@@ -3233,18 +3238,19 @@
       <c r="M3" s="93"/>
       <c r="N3" s="85"/>
       <c r="O3" s="85"/>
-      <c r="P3" s="86"/>
+      <c r="P3" s="85"/>
       <c r="Q3" s="86"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="79"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R3" s="86"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="79"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="85"/>
       <c r="B4" s="85"/>
       <c r="C4" s="85"/>
@@ -3260,18 +3266,19 @@
       <c r="M4" s="93"/>
       <c r="N4" s="85"/>
       <c r="O4" s="85"/>
-      <c r="P4" s="86"/>
+      <c r="P4" s="85"/>
       <c r="Q4" s="86"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="79"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R4" s="86"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="79"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="85"/>
       <c r="B5" s="85"/>
       <c r="C5" s="85"/>
@@ -3287,18 +3294,19 @@
       <c r="M5" s="93"/>
       <c r="N5" s="85"/>
       <c r="O5" s="85"/>
-      <c r="P5" s="86"/>
+      <c r="P5" s="85"/>
       <c r="Q5" s="86"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="79"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R5" s="86"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="79"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="85"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
@@ -3314,9 +3322,9 @@
       <c r="M6" s="93"/>
       <c r="N6" s="85"/>
       <c r="O6" s="85"/>
-      <c r="P6" s="87"/>
+      <c r="P6" s="85"/>
       <c r="Q6" s="87"/>
-      <c r="R6" s="85"/>
+      <c r="R6" s="87"/>
       <c r="S6" s="85"/>
       <c r="T6" s="85"/>
       <c r="U6" s="85"/>
@@ -3324,8 +3332,9 @@
       <c r="W6" s="85"/>
       <c r="X6" s="85"/>
       <c r="Y6" s="85"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z6" s="85"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="85"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
@@ -3341,9 +3350,9 @@
       <c r="M7" s="93"/>
       <c r="N7" s="85"/>
       <c r="O7" s="85"/>
-      <c r="P7" s="87"/>
+      <c r="P7" s="85"/>
       <c r="Q7" s="87"/>
-      <c r="R7" s="85"/>
+      <c r="R7" s="87"/>
       <c r="S7" s="85"/>
       <c r="T7" s="85"/>
       <c r="U7" s="85"/>
@@ -3351,8 +3360,9 @@
       <c r="W7" s="85"/>
       <c r="X7" s="85"/>
       <c r="Y7" s="85"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z7" s="85"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="85"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
@@ -3368,9 +3378,9 @@
       <c r="M8" s="93"/>
       <c r="N8" s="85"/>
       <c r="O8" s="85"/>
-      <c r="P8" s="87"/>
+      <c r="P8" s="85"/>
       <c r="Q8" s="87"/>
-      <c r="R8" s="85"/>
+      <c r="R8" s="87"/>
       <c r="S8" s="85"/>
       <c r="T8" s="85"/>
       <c r="U8" s="85"/>
@@ -3378,8 +3388,9 @@
       <c r="W8" s="85"/>
       <c r="X8" s="85"/>
       <c r="Y8" s="85"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z8" s="85"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="85"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
@@ -3395,9 +3406,9 @@
       <c r="M9" s="93"/>
       <c r="N9" s="85"/>
       <c r="O9" s="85"/>
-      <c r="P9" s="87"/>
+      <c r="P9" s="85"/>
       <c r="Q9" s="87"/>
-      <c r="R9" s="85"/>
+      <c r="R9" s="87"/>
       <c r="S9" s="85"/>
       <c r="T9" s="85"/>
       <c r="U9" s="85"/>
@@ -3405,8 +3416,9 @@
       <c r="W9" s="85"/>
       <c r="X9" s="85"/>
       <c r="Y9" s="85"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z9" s="85"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="85"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
@@ -3422,9 +3434,9 @@
       <c r="M10" s="93"/>
       <c r="N10" s="85"/>
       <c r="O10" s="85"/>
-      <c r="P10" s="87"/>
+      <c r="P10" s="85"/>
       <c r="Q10" s="87"/>
-      <c r="R10" s="85"/>
+      <c r="R10" s="87"/>
       <c r="S10" s="85"/>
       <c r="T10" s="85"/>
       <c r="U10" s="85"/>
@@ -3432,8 +3444,9 @@
       <c r="W10" s="85"/>
       <c r="X10" s="85"/>
       <c r="Y10" s="85"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z10" s="85"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="85"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
@@ -3449,9 +3462,9 @@
       <c r="M11" s="93"/>
       <c r="N11" s="85"/>
       <c r="O11" s="85"/>
-      <c r="P11" s="87"/>
+      <c r="P11" s="85"/>
       <c r="Q11" s="87"/>
-      <c r="R11" s="85"/>
+      <c r="R11" s="87"/>
       <c r="S11" s="85"/>
       <c r="T11" s="85"/>
       <c r="U11" s="85"/>
@@ -3459,8 +3472,9 @@
       <c r="W11" s="85"/>
       <c r="X11" s="85"/>
       <c r="Y11" s="85"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z11" s="85"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="85"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
@@ -3476,9 +3490,9 @@
       <c r="M12" s="93"/>
       <c r="N12" s="85"/>
       <c r="O12" s="85"/>
-      <c r="P12" s="87"/>
+      <c r="P12" s="85"/>
       <c r="Q12" s="87"/>
-      <c r="R12" s="85"/>
+      <c r="R12" s="87"/>
       <c r="S12" s="85"/>
       <c r="T12" s="85"/>
       <c r="U12" s="85"/>
@@ -3486,8 +3500,9 @@
       <c r="W12" s="85"/>
       <c r="X12" s="85"/>
       <c r="Y12" s="85"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z12" s="85"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="85"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
@@ -3503,9 +3518,9 @@
       <c r="M13" s="93"/>
       <c r="N13" s="85"/>
       <c r="O13" s="85"/>
-      <c r="P13" s="87"/>
+      <c r="P13" s="85"/>
       <c r="Q13" s="87"/>
-      <c r="R13" s="85"/>
+      <c r="R13" s="87"/>
       <c r="S13" s="85"/>
       <c r="T13" s="85"/>
       <c r="U13" s="85"/>
@@ -3513,8 +3528,9 @@
       <c r="W13" s="85"/>
       <c r="X13" s="85"/>
       <c r="Y13" s="85"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z13" s="85"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="85"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
@@ -3530,9 +3546,9 @@
       <c r="M14" s="93"/>
       <c r="N14" s="85"/>
       <c r="O14" s="85"/>
-      <c r="P14" s="87"/>
+      <c r="P14" s="85"/>
       <c r="Q14" s="87"/>
-      <c r="R14" s="85"/>
+      <c r="R14" s="87"/>
       <c r="S14" s="85"/>
       <c r="T14" s="85"/>
       <c r="U14" s="85"/>
@@ -3540,8 +3556,9 @@
       <c r="W14" s="85"/>
       <c r="X14" s="85"/>
       <c r="Y14" s="85"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z14" s="85"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="85"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
@@ -3557,9 +3574,9 @@
       <c r="M15" s="93"/>
       <c r="N15" s="85"/>
       <c r="O15" s="85"/>
-      <c r="P15" s="87"/>
+      <c r="P15" s="85"/>
       <c r="Q15" s="87"/>
-      <c r="R15" s="85"/>
+      <c r="R15" s="87"/>
       <c r="S15" s="85"/>
       <c r="T15" s="85"/>
       <c r="U15" s="85"/>
@@ -3567,8 +3584,9 @@
       <c r="W15" s="85"/>
       <c r="X15" s="85"/>
       <c r="Y15" s="85"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z15" s="85"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="85"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
@@ -3584,9 +3602,9 @@
       <c r="M16" s="93"/>
       <c r="N16" s="85"/>
       <c r="O16" s="85"/>
-      <c r="P16" s="87"/>
+      <c r="P16" s="85"/>
       <c r="Q16" s="87"/>
-      <c r="R16" s="85"/>
+      <c r="R16" s="87"/>
       <c r="S16" s="85"/>
       <c r="T16" s="85"/>
       <c r="U16" s="85"/>
@@ -3594,8 +3612,9 @@
       <c r="W16" s="85"/>
       <c r="X16" s="85"/>
       <c r="Y16" s="85"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z16" s="85"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="85"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
@@ -3611,9 +3630,9 @@
       <c r="M17" s="93"/>
       <c r="N17" s="85"/>
       <c r="O17" s="85"/>
-      <c r="P17" s="87"/>
+      <c r="P17" s="85"/>
       <c r="Q17" s="87"/>
-      <c r="R17" s="85"/>
+      <c r="R17" s="87"/>
       <c r="S17" s="85"/>
       <c r="T17" s="85"/>
       <c r="U17" s="85"/>
@@ -3621,8 +3640,9 @@
       <c r="W17" s="85"/>
       <c r="X17" s="85"/>
       <c r="Y17" s="85"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z17" s="85"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="85"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
@@ -3638,9 +3658,9 @@
       <c r="M18" s="93"/>
       <c r="N18" s="85"/>
       <c r="O18" s="85"/>
-      <c r="P18" s="87"/>
+      <c r="P18" s="85"/>
       <c r="Q18" s="87"/>
-      <c r="R18" s="85"/>
+      <c r="R18" s="87"/>
       <c r="S18" s="85"/>
       <c r="T18" s="85"/>
       <c r="U18" s="85"/>
@@ -3648,8 +3668,9 @@
       <c r="W18" s="85"/>
       <c r="X18" s="85"/>
       <c r="Y18" s="85"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z18" s="85"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="85"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
@@ -3665,9 +3686,9 @@
       <c r="M19" s="93"/>
       <c r="N19" s="85"/>
       <c r="O19" s="85"/>
-      <c r="P19" s="87"/>
+      <c r="P19" s="85"/>
       <c r="Q19" s="87"/>
-      <c r="R19" s="85"/>
+      <c r="R19" s="87"/>
       <c r="S19" s="85"/>
       <c r="T19" s="85"/>
       <c r="U19" s="85"/>
@@ -3675,8 +3696,9 @@
       <c r="W19" s="85"/>
       <c r="X19" s="85"/>
       <c r="Y19" s="85"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z19" s="85"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="85"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -3692,9 +3714,9 @@
       <c r="M20" s="93"/>
       <c r="N20" s="85"/>
       <c r="O20" s="85"/>
-      <c r="P20" s="87"/>
+      <c r="P20" s="85"/>
       <c r="Q20" s="87"/>
-      <c r="R20" s="85"/>
+      <c r="R20" s="87"/>
       <c r="S20" s="85"/>
       <c r="T20" s="85"/>
       <c r="U20" s="85"/>
@@ -3702,8 +3724,9 @@
       <c r="W20" s="85"/>
       <c r="X20" s="85"/>
       <c r="Y20" s="85"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z20" s="85"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="85"/>
       <c r="B21" s="85"/>
       <c r="C21" s="85"/>
@@ -3719,9 +3742,9 @@
       <c r="M21" s="93"/>
       <c r="N21" s="85"/>
       <c r="O21" s="85"/>
-      <c r="P21" s="87"/>
+      <c r="P21" s="85"/>
       <c r="Q21" s="87"/>
-      <c r="R21" s="85"/>
+      <c r="R21" s="87"/>
       <c r="S21" s="85"/>
       <c r="T21" s="85"/>
       <c r="U21" s="85"/>
@@ -3729,8 +3752,9 @@
       <c r="W21" s="85"/>
       <c r="X21" s="85"/>
       <c r="Y21" s="85"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z21" s="85"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="85"/>
       <c r="B22" s="85"/>
       <c r="C22" s="85"/>
@@ -3746,9 +3770,9 @@
       <c r="M22" s="93"/>
       <c r="N22" s="85"/>
       <c r="O22" s="85"/>
-      <c r="P22" s="87"/>
+      <c r="P22" s="85"/>
       <c r="Q22" s="87"/>
-      <c r="R22" s="85"/>
+      <c r="R22" s="87"/>
       <c r="S22" s="85"/>
       <c r="T22" s="85"/>
       <c r="U22" s="85"/>
@@ -3756,8 +3780,9 @@
       <c r="W22" s="85"/>
       <c r="X22" s="85"/>
       <c r="Y22" s="85"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z22" s="85"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="85"/>
       <c r="B23" s="85"/>
       <c r="C23" s="85"/>
@@ -3773,9 +3798,9 @@
       <c r="M23" s="93"/>
       <c r="N23" s="85"/>
       <c r="O23" s="85"/>
-      <c r="P23" s="87"/>
+      <c r="P23" s="85"/>
       <c r="Q23" s="87"/>
-      <c r="R23" s="85"/>
+      <c r="R23" s="87"/>
       <c r="S23" s="85"/>
       <c r="T23" s="85"/>
       <c r="U23" s="85"/>
@@ -3783,8 +3808,9 @@
       <c r="W23" s="85"/>
       <c r="X23" s="85"/>
       <c r="Y23" s="85"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z23" s="85"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="85"/>
       <c r="B24" s="85"/>
       <c r="C24" s="85"/>
@@ -3800,9 +3826,9 @@
       <c r="M24" s="93"/>
       <c r="N24" s="85"/>
       <c r="O24" s="85"/>
-      <c r="P24" s="87"/>
+      <c r="P24" s="85"/>
       <c r="Q24" s="87"/>
-      <c r="R24" s="85"/>
+      <c r="R24" s="87"/>
       <c r="S24" s="85"/>
       <c r="T24" s="85"/>
       <c r="U24" s="85"/>
@@ -3810,8 +3836,9 @@
       <c r="W24" s="85"/>
       <c r="X24" s="85"/>
       <c r="Y24" s="85"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z24" s="85"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="85"/>
       <c r="B25" s="85"/>
       <c r="C25" s="85"/>
@@ -3827,9 +3854,9 @@
       <c r="M25" s="93"/>
       <c r="N25" s="85"/>
       <c r="O25" s="85"/>
-      <c r="P25" s="87"/>
+      <c r="P25" s="85"/>
       <c r="Q25" s="87"/>
-      <c r="R25" s="85"/>
+      <c r="R25" s="87"/>
       <c r="S25" s="85"/>
       <c r="T25" s="85"/>
       <c r="U25" s="85"/>
@@ -3837,13 +3864,14 @@
       <c r="W25" s="85"/>
       <c r="X25" s="85"/>
       <c r="Y25" s="85"/>
+      <c r="Z25" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3854,8 +3882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:N7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3864,94 +3892,94 @@
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="3.7109375" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" customWidth="1"/>
     <col min="11" max="11" width="16.140625" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="212"/>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="212"/>
-      <c r="L1" s="212"/>
-      <c r="M1" s="212"/>
-      <c r="N1" s="212"/>
+      <c r="A1" s="192"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="192"/>
     </row>
     <row r="2" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="212"/>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="212"/>
-      <c r="M2" s="212"/>
-      <c r="N2" s="212"/>
-    </row>
-    <row r="3" spans="1:16" s="133" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="134"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
+      <c r="A2" s="192"/>
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="192"/>
+      <c r="N2" s="192"/>
+    </row>
+    <row r="3" spans="1:16" s="132" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="133"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
     </row>
     <row r="4" spans="1:16" ht="55.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="206"/>
-      <c r="C4" s="206"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="186"/>
       <c r="D4" s="96"/>
       <c r="E4" s="96"/>
-      <c r="F4" s="140" t="s">
+      <c r="F4" s="139" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="140" t="s">
+      <c r="G4" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="199" t="s">
+      <c r="H4" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="199"/>
-      <c r="J4" s="199"/>
-      <c r="K4" s="141" t="s">
+      <c r="I4" s="208"/>
+      <c r="J4" s="208"/>
+      <c r="K4" s="140" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="142" t="s">
+      <c r="L4" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="M4" s="143" t="s">
+      <c r="M4" s="142" t="s">
         <v>85</v>
       </c>
-      <c r="N4" s="143" t="s">
+      <c r="N4" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="110"/>
+      <c r="P4" s="109"/>
     </row>
     <row r="5" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="207" t="s">
+      <c r="A5" s="187" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="97"/>
@@ -3962,302 +3990,302 @@
       <c r="E5" s="98"/>
       <c r="F5" s="99"/>
       <c r="G5" s="100"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="201"/>
-      <c r="J5" s="101"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="195"/>
       <c r="K5" s="100"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="104"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="208"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="109" t="s">
+      <c r="A6" s="188"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="144" t="s">
+      <c r="D6" s="107"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="202" t="s">
+      <c r="H6" s="209" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="203"/>
-      <c r="J6" s="203"/>
-      <c r="K6" s="203"/>
-      <c r="L6" s="204"/>
-      <c r="M6" s="209" t="s">
+      <c r="I6" s="210"/>
+      <c r="J6" s="210"/>
+      <c r="K6" s="210"/>
+      <c r="L6" s="211"/>
+      <c r="M6" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="210"/>
+      <c r="N6" s="190"/>
     </row>
     <row r="7" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="136" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="138" t="s">
+      <c r="C7" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="139" t="s">
+      <c r="D7" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="112"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="201"/>
-      <c r="K7" s="201"/>
-      <c r="L7" s="205"/>
-      <c r="M7" s="211"/>
-      <c r="N7" s="211"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="194"/>
+      <c r="L7" s="195"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="191"/>
     </row>
     <row r="8" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="122"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="120"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
     </row>
     <row r="9" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="124"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="196" t="s">
+      <c r="A9" s="123"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="197"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="198"/>
-      <c r="L9" s="196" t="s">
+      <c r="G9" s="206"/>
+      <c r="H9" s="206"/>
+      <c r="I9" s="206"/>
+      <c r="J9" s="206"/>
+      <c r="K9" s="207"/>
+      <c r="L9" s="205" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="197"/>
-      <c r="N9" s="198"/>
+      <c r="M9" s="206"/>
+      <c r="N9" s="207"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="124"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="188"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="189"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="188"/>
-      <c r="N10" s="189"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="197"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="198"/>
+      <c r="L10" s="196"/>
+      <c r="M10" s="197"/>
+      <c r="N10" s="198"/>
     </row>
     <row r="11" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="124"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="191"/>
-      <c r="H11" s="191"/>
-      <c r="I11" s="191"/>
-      <c r="J11" s="191"/>
-      <c r="K11" s="192"/>
-      <c r="L11" s="190"/>
-      <c r="M11" s="191"/>
-      <c r="N11" s="192"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="201"/>
+      <c r="L11" s="199"/>
+      <c r="M11" s="200"/>
+      <c r="N11" s="201"/>
     </row>
     <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="124"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="190"/>
-      <c r="G12" s="191"/>
-      <c r="H12" s="191"/>
-      <c r="I12" s="191"/>
-      <c r="J12" s="191"/>
-      <c r="K12" s="192"/>
-      <c r="L12" s="190"/>
-      <c r="M12" s="191"/>
-      <c r="N12" s="192"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="200"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="200"/>
+      <c r="J12" s="200"/>
+      <c r="K12" s="201"/>
+      <c r="L12" s="199"/>
+      <c r="M12" s="200"/>
+      <c r="N12" s="201"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="124"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="191"/>
-      <c r="H13" s="191"/>
-      <c r="I13" s="191"/>
-      <c r="J13" s="191"/>
-      <c r="K13" s="192"/>
-      <c r="L13" s="190"/>
-      <c r="M13" s="191"/>
-      <c r="N13" s="192"/>
+      <c r="A13" s="123"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="200"/>
+      <c r="H13" s="200"/>
+      <c r="I13" s="200"/>
+      <c r="J13" s="200"/>
+      <c r="K13" s="201"/>
+      <c r="L13" s="199"/>
+      <c r="M13" s="200"/>
+      <c r="N13" s="201"/>
     </row>
     <row r="14" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="124"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="191"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="192"/>
-      <c r="L14" s="190"/>
-      <c r="M14" s="191"/>
-      <c r="N14" s="192"/>
+      <c r="A14" s="123"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="201"/>
+      <c r="L14" s="199"/>
+      <c r="M14" s="200"/>
+      <c r="N14" s="201"/>
     </row>
     <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="124"/>
-      <c r="B15" s="125"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="190"/>
-      <c r="G15" s="191"/>
-      <c r="H15" s="191"/>
-      <c r="I15" s="191"/>
-      <c r="J15" s="191"/>
-      <c r="K15" s="192"/>
-      <c r="L15" s="190"/>
-      <c r="M15" s="191"/>
-      <c r="N15" s="192"/>
+      <c r="A15" s="123"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="201"/>
+      <c r="L15" s="199"/>
+      <c r="M15" s="200"/>
+      <c r="N15" s="201"/>
     </row>
     <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="124"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="190"/>
-      <c r="G16" s="191"/>
-      <c r="H16" s="191"/>
-      <c r="I16" s="191"/>
-      <c r="J16" s="191"/>
-      <c r="K16" s="192"/>
-      <c r="L16" s="190"/>
-      <c r="M16" s="191"/>
-      <c r="N16" s="192"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="201"/>
+      <c r="L16" s="199"/>
+      <c r="M16" s="200"/>
+      <c r="N16" s="201"/>
     </row>
     <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="124"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="191"/>
-      <c r="H17" s="191"/>
-      <c r="I17" s="191"/>
-      <c r="J17" s="191"/>
-      <c r="K17" s="192"/>
-      <c r="L17" s="190"/>
-      <c r="M17" s="191"/>
-      <c r="N17" s="192"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="201"/>
+      <c r="L17" s="199"/>
+      <c r="M17" s="200"/>
+      <c r="N17" s="201"/>
     </row>
     <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="130"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="190"/>
-      <c r="G18" s="191"/>
-      <c r="H18" s="191"/>
-      <c r="I18" s="191"/>
-      <c r="J18" s="191"/>
-      <c r="K18" s="192"/>
-      <c r="L18" s="190"/>
-      <c r="M18" s="191"/>
-      <c r="N18" s="192"/>
+      <c r="A18" s="129"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="200"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="201"/>
+      <c r="L18" s="199"/>
+      <c r="M18" s="200"/>
+      <c r="N18" s="201"/>
     </row>
     <row r="19" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="190"/>
-      <c r="G19" s="191"/>
-      <c r="H19" s="191"/>
-      <c r="I19" s="191"/>
-      <c r="J19" s="191"/>
-      <c r="K19" s="192"/>
-      <c r="L19" s="190"/>
-      <c r="M19" s="191"/>
-      <c r="N19" s="192"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="201"/>
+      <c r="L19" s="199"/>
+      <c r="M19" s="200"/>
+      <c r="N19" s="201"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="131"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="194"/>
-      <c r="H20" s="194"/>
-      <c r="I20" s="194"/>
-      <c r="J20" s="194"/>
-      <c r="K20" s="195"/>
-      <c r="L20" s="193"/>
-      <c r="M20" s="194"/>
-      <c r="N20" s="195"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="203"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="203"/>
+      <c r="K20" s="204"/>
+      <c r="L20" s="202"/>
+      <c r="M20" s="203"/>
+      <c r="N20" s="204"/>
     </row>
     <row r="21" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="145" t="s">
+      <c r="C21" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="111"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="L10:N20"/>
+    <mergeCell ref="F10:K20"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="L9:N9"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="A1:N2"/>
-    <mergeCell ref="L10:N20"/>
-    <mergeCell ref="F10:K20"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4282,257 +4310,257 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="213" t="s">
+      <c r="B1" s="212" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="213"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
     </row>
     <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="154"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="153"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="213"/>
-      <c r="C3" s="213"/>
-      <c r="E3" s="148"/>
+      <c r="B3" s="212"/>
+      <c r="C3" s="212"/>
+      <c r="E3" s="147"/>
     </row>
     <row r="4" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="157"/>
-      <c r="D4" s="156"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="155"/>
     </row>
     <row r="5" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="150" t="s">
+      <c r="A5" s="149" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="152" t="s">
+      <c r="B5" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="151" t="s">
+      <c r="C5" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="153" t="s">
+      <c r="E5" s="152" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="131"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
+      <c r="A6" s="130"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="131"/>
-      <c r="B7" s="131"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
+      <c r="A7" s="130"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="131"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="131"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="131"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="131"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="131"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="131"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
+      <c r="A13" s="130"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="131"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="131"/>
-      <c r="B15" s="131"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
+      <c r="A15" s="130"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="131"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="149"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="131"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="131"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="149"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="131"/>
-      <c r="B19" s="131"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
+      <c r="A19" s="130"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="131"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="131"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="158"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="157"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="131"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
+      <c r="A23" s="130"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="131"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
+      <c r="A24" s="130"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="131"/>
-      <c r="B25" s="131"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
+      <c r="A25" s="130"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="131"/>
-      <c r="B26" s="131"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="131"/>
+      <c r="A26" s="130"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="131"/>
-      <c r="B27" s="131"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
+      <c r="A27" s="130"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="131"/>
-      <c r="B28" s="131"/>
-      <c r="C28" s="131"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="131"/>
+      <c r="A28" s="130"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="131"/>
-      <c r="B29" s="131"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
+      <c r="A29" s="130"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="131"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="131"/>
+      <c r="A30" s="130"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="131"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
+      <c r="A31" s="130"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="131"/>
-      <c r="B32" s="131"/>
-      <c r="C32" s="131"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="131"/>
+      <c r="A32" s="130"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="131"/>
-      <c r="B33" s="131"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="131"/>
+      <c r="A33" s="130"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="131"/>
-      <c r="B34" s="131"/>
-      <c r="C34" s="131"/>
-      <c r="D34" s="131"/>
-      <c r="E34" s="131"/>
+      <c r="A34" s="130"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="130"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="131"/>
-      <c r="B35" s="131"/>
-      <c r="C35" s="131"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="131"/>
+      <c r="A35" s="130"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4558,58 +4586,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="215" t="s">
+      <c r="C1" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="213" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="214"/>
-      <c r="C5" s="214"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="214"/>
-      <c r="F5" s="214"/>
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="146" t="s">
+      <c r="D6" s="145" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="146" t="s">
+      <c r="E6" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="146" t="s">
+      <c r="F6" s="145" t="s">
         <v>98</v>
       </c>
     </row>

--- a/ExcelAddIn1/Resources/FICHA RECETA.xlsx
+++ b/ExcelAddIn1/Resources/FICHA RECETA.xlsx
@@ -680,7 +680,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1146,13 +1146,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1546,9 +1566,6 @@
     <xf numFmtId="44" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1573,32 +1590,7 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1632,9 +1624,6 @@
     </xf>
     <xf numFmtId="17" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1672,6 +1661,59 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1684,98 +1726,155 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1799,63 +1898,6 @@
     <xf numFmtId="0" fontId="17" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1868,6 +1910,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2568,45 +2613,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="168" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
       <c r="G1" s="66" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="66"/>
-      <c r="I1" s="161">
+      <c r="I1" s="169">
         <v>42491</v>
       </c>
-      <c r="J1" s="161"/>
+      <c r="J1" s="169"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
       <c r="G2" s="68" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="68"/>
-      <c r="I2" s="161">
+      <c r="I2" s="169">
         <v>42639</v>
       </c>
-      <c r="J2" s="161"/>
+      <c r="J2" s="169"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="65"/>
@@ -2764,52 +2809,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="189" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="162" t="s">
+      <c r="B1" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="164"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="182"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="173"/>
-      <c r="B2" s="165" t="s">
+      <c r="A2" s="190"/>
+      <c r="B2" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="178" t="s">
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="180" t="s">
+      <c r="H2" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="181"/>
+      <c r="I2" s="177"/>
       <c r="J2" s="19">
         <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="174"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="180" t="s">
+      <c r="A3" s="191"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="181"/>
+      <c r="I3" s="177"/>
       <c r="J3" s="20">
         <v>10</v>
       </c>
@@ -2836,10 +2881,10 @@
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="182" t="s">
+      <c r="H4" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="183"/>
+      <c r="I4" s="179"/>
       <c r="J4" s="23">
         <v>8.5</v>
       </c>
@@ -2852,7 +2897,7 @@
       <c r="E5" s="24"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="171" t="s">
+      <c r="H5" s="174" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="175"/>
@@ -2869,7 +2914,7 @@
       <c r="E6" s="24"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="171" t="s">
+      <c r="H6" s="174" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="175"/>
@@ -2886,7 +2931,7 @@
       <c r="E7" s="24"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="171" t="s">
+      <c r="H7" s="174" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="175"/>
@@ -2902,7 +2947,7 @@
       <c r="E8" s="24"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="171" t="s">
+      <c r="H8" s="174" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="175"/>
@@ -2918,10 +2963,10 @@
       <c r="E9" s="24"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="171" t="s">
+      <c r="H9" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="171"/>
+      <c r="I9" s="174"/>
       <c r="J9" s="30">
         <f>(PRECIO_VENTA*LITROS_A_ELABORAR)</f>
         <v>1500</v>
@@ -2935,10 +2980,10 @@
       <c r="E10" s="24"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="171" t="s">
+      <c r="H10" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="171"/>
+      <c r="I10" s="174"/>
       <c r="J10" s="31">
         <f>J9-COSTO_TOTAL_MATERIA_PRIMA</f>
         <v>1500</v>
@@ -2952,10 +2997,10 @@
       <c r="E11" s="24"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="176" t="s">
+      <c r="H11" s="170" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="177"/>
+      <c r="I11" s="171"/>
       <c r="J11" s="32">
         <v>0.27</v>
       </c>
@@ -2968,10 +3013,10 @@
       <c r="E12" s="24"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="176" t="s">
+      <c r="H12" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="177"/>
+      <c r="I12" s="171"/>
       <c r="J12" s="32">
         <f>((J5+COSTO_PREPARACION)/J9-1)*(-1)</f>
         <v>0.92666666666666664</v>
@@ -3043,6 +3088,13 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="15">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H5:I5"/>
@@ -3051,13 +3103,6 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="J12">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
@@ -3115,22 +3160,22 @@
       <c r="P1" s="81"/>
       <c r="Q1" s="81"/>
       <c r="R1" s="81"/>
-      <c r="S1" s="184" t="s">
+      <c r="S1" s="192" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="185"/>
-      <c r="U1" s="184" t="s">
+      <c r="T1" s="193"/>
+      <c r="U1" s="192" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="185"/>
-      <c r="W1" s="184" t="s">
+      <c r="V1" s="193"/>
+      <c r="W1" s="192" t="s">
         <v>62</v>
       </c>
-      <c r="X1" s="185"/>
-      <c r="Y1" s="184" t="s">
+      <c r="X1" s="193"/>
+      <c r="Y1" s="192" t="s">
         <v>63</v>
       </c>
-      <c r="Z1" s="185"/>
+      <c r="Z1" s="193"/>
       <c r="AA1" s="81"/>
       <c r="AB1" s="81"/>
       <c r="AC1" s="81"/>
@@ -3880,10 +3925,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3898,88 +3943,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="192"/>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
+      <c r="A1" s="219"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="219"/>
     </row>
     <row r="2" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="192"/>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="192"/>
-      <c r="K2" s="192"/>
-      <c r="L2" s="192"/>
-      <c r="M2" s="192"/>
-      <c r="N2" s="192"/>
-    </row>
-    <row r="3" spans="1:16" s="132" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="133"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
+      <c r="A2" s="219"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="219"/>
+      <c r="M2" s="219"/>
+      <c r="N2" s="219"/>
+    </row>
+    <row r="3" spans="1:16" s="122" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="123"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
     </row>
     <row r="4" spans="1:16" ht="55.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="186"/>
-      <c r="C4" s="186"/>
+      <c r="B4" s="213"/>
+      <c r="C4" s="213"/>
       <c r="D4" s="96"/>
       <c r="E4" s="96"/>
-      <c r="F4" s="139" t="s">
+      <c r="F4" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="139" t="s">
+      <c r="G4" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="208" t="s">
+      <c r="H4" s="206" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="208"/>
-      <c r="J4" s="208"/>
-      <c r="K4" s="140" t="s">
+      <c r="I4" s="206"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="141" t="s">
+      <c r="L4" s="131" t="s">
         <v>84</v>
       </c>
-      <c r="M4" s="142" t="s">
+      <c r="M4" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="N4" s="142" t="s">
+      <c r="N4" s="132" t="s">
         <v>34</v>
       </c>
       <c r="P4" s="109"/>
     </row>
     <row r="5" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="187" t="s">
+      <c r="A5" s="214" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="97"/>
@@ -3990,289 +4035,329 @@
       <c r="E5" s="98"/>
       <c r="F5" s="99"/>
       <c r="G5" s="100"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="195"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="212"/>
       <c r="K5" s="100"/>
       <c r="L5" s="101"/>
       <c r="M5" s="102"/>
       <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="188"/>
+      <c r="A6" s="215"/>
       <c r="B6" s="106"/>
       <c r="C6" s="108" t="s">
         <v>88</v>
       </c>
       <c r="D6" s="107"/>
       <c r="E6" s="105"/>
-      <c r="F6" s="143" t="s">
+      <c r="F6" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="139" t="s">
+      <c r="G6" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="209" t="s">
+      <c r="H6" s="207" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="210"/>
-      <c r="J6" s="210"/>
-      <c r="K6" s="210"/>
-      <c r="L6" s="211"/>
-      <c r="M6" s="189" t="s">
+      <c r="I6" s="208"/>
+      <c r="J6" s="208"/>
+      <c r="K6" s="208"/>
+      <c r="L6" s="209"/>
+      <c r="M6" s="216" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="190"/>
+      <c r="N6" s="217"/>
     </row>
     <row r="7" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="138" t="s">
+      <c r="D7" s="128" t="s">
         <v>69</v>
       </c>
       <c r="E7" s="111"/>
-      <c r="F7" s="120"/>
+      <c r="F7" s="119"/>
       <c r="G7" s="104"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="194"/>
-      <c r="L7" s="195"/>
-      <c r="M7" s="191"/>
-      <c r="N7" s="191"/>
+      <c r="H7" s="210"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="212"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="218"/>
     </row>
     <row r="8" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="121"/>
-      <c r="B8" s="121"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
+      <c r="A8" s="224"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="152"/>
       <c r="E8" s="111"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
     </row>
     <row r="9" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="123"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="126"/>
+      <c r="A9" s="154"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="156"/>
       <c r="E9" s="112"/>
-      <c r="F9" s="205" t="s">
+      <c r="F9" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="206"/>
-      <c r="H9" s="206"/>
-      <c r="I9" s="206"/>
-      <c r="J9" s="206"/>
-      <c r="K9" s="207"/>
-      <c r="L9" s="205" t="s">
+      <c r="G9" s="204"/>
+      <c r="H9" s="204"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="204"/>
+      <c r="K9" s="205"/>
+      <c r="L9" s="203" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="206"/>
-      <c r="N9" s="207"/>
+      <c r="M9" s="204"/>
+      <c r="N9" s="205"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="123"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="128"/>
+      <c r="A10" s="154"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="158"/>
       <c r="E10" s="112"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="197"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="197"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="198"/>
-      <c r="L10" s="196"/>
-      <c r="M10" s="197"/>
-      <c r="N10" s="198"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="195"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="195"/>
+      <c r="K10" s="196"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="195"/>
+      <c r="N10" s="196"/>
     </row>
     <row r="11" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="123"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="128"/>
+      <c r="A11" s="154"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="158"/>
       <c r="E11" s="112"/>
-      <c r="F11" s="199"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="200"/>
-      <c r="J11" s="200"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="199"/>
-      <c r="M11" s="200"/>
-      <c r="N11" s="201"/>
+      <c r="F11" s="197"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="198"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="199"/>
+      <c r="L11" s="197"/>
+      <c r="M11" s="198"/>
+      <c r="N11" s="199"/>
     </row>
     <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="123"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="128"/>
+      <c r="A12" s="154"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="157"/>
+      <c r="D12" s="158"/>
       <c r="E12" s="112"/>
-      <c r="F12" s="199"/>
-      <c r="G12" s="200"/>
-      <c r="H12" s="200"/>
-      <c r="I12" s="200"/>
-      <c r="J12" s="200"/>
-      <c r="K12" s="201"/>
-      <c r="L12" s="199"/>
-      <c r="M12" s="200"/>
-      <c r="N12" s="201"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="198"/>
+      <c r="H12" s="198"/>
+      <c r="I12" s="198"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="199"/>
+      <c r="L12" s="197"/>
+      <c r="M12" s="198"/>
+      <c r="N12" s="199"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="123"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="126"/>
+      <c r="A13" s="154"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="156"/>
       <c r="E13" s="112"/>
-      <c r="F13" s="199"/>
-      <c r="G13" s="200"/>
-      <c r="H13" s="200"/>
-      <c r="I13" s="200"/>
-      <c r="J13" s="200"/>
-      <c r="K13" s="201"/>
-      <c r="L13" s="199"/>
-      <c r="M13" s="200"/>
-      <c r="N13" s="201"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="198"/>
+      <c r="I13" s="198"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="199"/>
+      <c r="L13" s="197"/>
+      <c r="M13" s="198"/>
+      <c r="N13" s="199"/>
     </row>
     <row r="14" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="123"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="126"/>
+      <c r="A14" s="154"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="156"/>
       <c r="E14" s="112"/>
-      <c r="F14" s="199"/>
-      <c r="G14" s="200"/>
-      <c r="H14" s="200"/>
-      <c r="I14" s="200"/>
-      <c r="J14" s="200"/>
-      <c r="K14" s="201"/>
-      <c r="L14" s="199"/>
-      <c r="M14" s="200"/>
-      <c r="N14" s="201"/>
+      <c r="F14" s="197"/>
+      <c r="G14" s="198"/>
+      <c r="H14" s="198"/>
+      <c r="I14" s="198"/>
+      <c r="J14" s="198"/>
+      <c r="K14" s="199"/>
+      <c r="L14" s="197"/>
+      <c r="M14" s="198"/>
+      <c r="N14" s="199"/>
     </row>
     <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="123"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="126"/>
+      <c r="A15" s="154"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="156"/>
       <c r="E15" s="112"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="201"/>
-      <c r="L15" s="199"/>
-      <c r="M15" s="200"/>
-      <c r="N15" s="201"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="198"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="199"/>
+      <c r="L15" s="197"/>
+      <c r="M15" s="198"/>
+      <c r="N15" s="199"/>
     </row>
     <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="123"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="126"/>
+      <c r="A16" s="154"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="156"/>
       <c r="E16" s="112"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="200"/>
-      <c r="H16" s="200"/>
-      <c r="I16" s="200"/>
-      <c r="J16" s="200"/>
-      <c r="K16" s="201"/>
-      <c r="L16" s="199"/>
-      <c r="M16" s="200"/>
-      <c r="N16" s="201"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="198"/>
+      <c r="H16" s="198"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="198"/>
+      <c r="K16" s="199"/>
+      <c r="L16" s="197"/>
+      <c r="M16" s="198"/>
+      <c r="N16" s="199"/>
     </row>
     <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="123"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="126"/>
+      <c r="A17" s="154"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="156"/>
       <c r="E17" s="112"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="200"/>
-      <c r="H17" s="200"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="201"/>
-      <c r="L17" s="199"/>
-      <c r="M17" s="200"/>
-      <c r="N17" s="201"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="199"/>
+      <c r="L17" s="197"/>
+      <c r="M17" s="198"/>
+      <c r="N17" s="199"/>
     </row>
     <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="129"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="126"/>
+      <c r="A18" s="159"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="156"/>
       <c r="E18" s="112"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="200"/>
-      <c r="H18" s="200"/>
-      <c r="I18" s="200"/>
-      <c r="J18" s="200"/>
-      <c r="K18" s="201"/>
-      <c r="L18" s="199"/>
-      <c r="M18" s="200"/>
-      <c r="N18" s="201"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="198"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="198"/>
+      <c r="K18" s="199"/>
+      <c r="L18" s="197"/>
+      <c r="M18" s="198"/>
+      <c r="N18" s="199"/>
     </row>
     <row r="19" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="154" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="156"/>
       <c r="E19" s="112"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="200"/>
-      <c r="J19" s="200"/>
-      <c r="K19" s="201"/>
-      <c r="L19" s="199"/>
-      <c r="M19" s="200"/>
-      <c r="N19" s="201"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="198"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="198"/>
+      <c r="K19" s="199"/>
+      <c r="L19" s="197"/>
+      <c r="M19" s="198"/>
+      <c r="N19" s="199"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="130"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="126"/>
+      <c r="A20" s="160"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="162"/>
       <c r="E20" s="112"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="203"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="203"/>
-      <c r="J20" s="203"/>
-      <c r="K20" s="204"/>
-      <c r="L20" s="202"/>
-      <c r="M20" s="203"/>
-      <c r="N20" s="204"/>
-    </row>
-    <row r="21" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="144" t="s">
+      <c r="F20" s="200"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="201"/>
+      <c r="J20" s="201"/>
+      <c r="K20" s="202"/>
+      <c r="L20" s="200"/>
+      <c r="M20" s="201"/>
+      <c r="N20" s="202"/>
+    </row>
+    <row r="21" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="163"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="148"/>
+    </row>
+    <row r="22" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="164"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="148"/>
+      <c r="N22" s="148"/>
+    </row>
+    <row r="23" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="150"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="113"/>
-      <c r="E21" s="110"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="L10:N20"/>
     <mergeCell ref="F10:K20"/>
     <mergeCell ref="F9:K9"/>
@@ -4280,12 +4365,6 @@
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="L9:N9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4310,257 +4389,257 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="212" t="s">
+      <c r="B1" s="220" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="212"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
     </row>
     <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="153"/>
+      <c r="B2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="142"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="E3" s="147"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
+      <c r="E3" s="136"/>
     </row>
     <row r="4" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="145" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="156"/>
-      <c r="D4" s="155"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="144"/>
     </row>
     <row r="5" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="139" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="152" t="s">
+      <c r="D5" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="152" t="s">
+      <c r="E5" s="141" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="130"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="130"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
+      <c r="A7" s="121"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="130"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="130"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="130"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="130"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="130"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="130"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
+      <c r="A13" s="121"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="130"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
+      <c r="A14" s="121"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="130"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="130"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="130"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
+      <c r="A17" s="121"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="130"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
+      <c r="A18" s="121"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="130"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
+      <c r="A19" s="121"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="130"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
+      <c r="A20" s="121"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="130"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
+      <c r="A21" s="121"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="157"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
+      <c r="A22" s="146"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="146"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="130"/>
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="130"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
+      <c r="A24" s="121"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="130"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="130"/>
+      <c r="A25" s="121"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="130"/>
-      <c r="B26" s="130"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
+      <c r="A26" s="121"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="130"/>
-      <c r="B27" s="130"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="130"/>
-      <c r="B28" s="130"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="130"/>
+      <c r="A28" s="121"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="130"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
+      <c r="A29" s="121"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="130"/>
-      <c r="B30" s="130"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="130"/>
+      <c r="A30" s="121"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="130"/>
-      <c r="B31" s="130"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
+      <c r="A31" s="121"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="130"/>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
+      <c r="A32" s="121"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="130"/>
-      <c r="B33" s="130"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="130"/>
+      <c r="A33" s="121"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="130"/>
-      <c r="B34" s="130"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="130"/>
+      <c r="A34" s="121"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="130"/>
-      <c r="B35" s="130"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
+      <c r="A35" s="121"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4586,58 +4665,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="214" t="s">
+      <c r="C1" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="222"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="222"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
+      <c r="C4" s="223"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="223"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="213" t="s">
+      <c r="A5" s="221" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="213"/>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="213"/>
+      <c r="B5" s="221"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="134" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="145" t="s">
+      <c r="E6" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="145" t="s">
+      <c r="F6" s="134" t="s">
         <v>98</v>
       </c>
     </row>

--- a/ExcelAddIn1/Resources/FICHA RECETA.xlsx
+++ b/ExcelAddIn1/Resources/FICHA RECETA.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\aimee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ING. VEGA\Documents\GitHub\VSTOexcelRest\ExcelAddIn1\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ReporteInventario" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <definedName name="TOLERANCIA_ERROR">Receta!$J$6</definedName>
     <definedName name="UNIDAD_RECETA">Receta!$A$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <customWorkbookViews>
     <customWorkbookView name="Receta" guid="{144E6047-E10B-4E01-8FEF-AAF3A3213ABE}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1320" windowHeight="784" activeSheetId="1" showFormulaBar="0"/>
   </customWorkbookViews>
@@ -444,14 +444,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="7">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.000%"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="[$$-80A]#,##0.00"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1260,10 +1261,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1361,26 +1362,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1584,14 +1585,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="7" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1629,10 +1630,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1651,16 +1652,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1683,35 +1684,6 @@
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1762,7 +1734,7 @@
     <xf numFmtId="0" fontId="21" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="16" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="16" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1792,7 +1764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1918,6 +1890,24 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2026,24 +2016,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2063,6 +2035,46 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2099,10 +2111,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2115,46 +2123,67 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2178,63 +2207,28 @@
     <xf numFmtId="0" fontId="17" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2286,7 +2280,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2335,7 +2335,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2452,6 +2458,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2487,6 +2510,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2835,35 +2875,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="193" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
       <c r="M1" s="110"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="178"/>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
       <c r="M2" s="110"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2874,515 +2914,510 @@
       <c r="E3" s="110"/>
       <c r="F3" s="110"/>
       <c r="G3" s="110"/>
-      <c r="I3" s="181" t="s">
+      <c r="I3" s="170" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="242"/>
-      <c r="K3" s="243"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="196"/>
       <c r="L3" s="110"/>
       <c r="M3" s="110"/>
     </row>
     <row r="4" spans="1:13" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="165" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="241"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
       <c r="M4" s="110"/>
     </row>
     <row r="5" spans="1:13" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="166" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="241"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="244" t="s">
+      <c r="B5" s="194"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="197" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="245"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
       <c r="M5" s="110"/>
     </row>
     <row r="6" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="216" t="s">
+      <c r="A6" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="217"/>
-      <c r="C6" s="218" t="s">
+      <c r="B6" s="212"/>
+      <c r="C6" s="213" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="219"/>
-      <c r="E6" s="170" t="s">
+      <c r="D6" s="214"/>
+      <c r="E6" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="165"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="149" t="s">
+      <c r="F6" s="154"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="138" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="166" t="s">
+      <c r="I6" s="155" t="s">
         <v>106</v>
       </c>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="110"/>
     </row>
     <row r="7" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="148" t="s">
+      <c r="A7" s="137" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="174"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="107"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="146"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="135"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
       <c r="M7" s="110"/>
     </row>
     <row r="8" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="171" t="s">
+      <c r="A8" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="172" t="s">
+      <c r="B8" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="169" t="s">
+      <c r="C8" s="158" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="225" t="s">
+      <c r="D8" s="220" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="226" t="s">
+      <c r="E8" s="221" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="147"/>
-      <c r="I8" s="184" t="s">
+      <c r="F8" s="136"/>
+      <c r="I8" s="173" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="182" t="s">
+      <c r="J8" s="171" t="s">
         <v>95</v>
       </c>
-      <c r="K8" s="183"/>
-      <c r="L8" s="146"/>
+      <c r="K8" s="172"/>
+      <c r="L8" s="135"/>
       <c r="M8" s="110"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="167">
+      <c r="A9" s="156">
         <v>16</v>
       </c>
-      <c r="B9" s="168">
+      <c r="B9" s="157">
         <v>1</v>
       </c>
-      <c r="C9" s="150">
+      <c r="C9" s="139">
         <f>C7*1/A9</f>
         <v>0</v>
       </c>
-      <c r="D9" s="225"/>
-      <c r="E9" s="226"/>
-      <c r="F9" s="147"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146"/>
+      <c r="D9" s="220"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="136"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="135"/>
       <c r="M9" s="110"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="152"/>
-      <c r="B10" s="152"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="224" t="s">
+      <c r="A10" s="141"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="219" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="146" t="s">
+      <c r="J10" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="146"/>
-      <c r="L10" s="146"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
       <c r="M10" s="110"/>
     </row>
     <row r="11" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="156"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="224"/>
-      <c r="J11" s="186" t="s">
+      <c r="A11" s="145"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="175" t="s">
         <v>95</v>
       </c>
-      <c r="K11" s="187"/>
-      <c r="L11" s="146"/>
+      <c r="K11" s="176"/>
+      <c r="L11" s="135"/>
       <c r="M11" s="110"/>
     </row>
     <row r="12" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="156"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
+      <c r="A12" s="145"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="135"/>
       <c r="M12" s="110"/>
     </row>
     <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="156"/>
-      <c r="B13" s="161"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="185" t="s">
+      <c r="A13" s="145"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="174" t="s">
         <v>112</v>
       </c>
-      <c r="J13" s="183"/>
-      <c r="K13" s="183"/>
-      <c r="L13" s="146"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="172"/>
+      <c r="L13" s="135"/>
       <c r="M13" s="110"/>
     </row>
     <row r="14" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="156"/>
-      <c r="B14" s="161"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="220"/>
-      <c r="J14" s="239"/>
-      <c r="K14" s="239"/>
-      <c r="L14" s="146"/>
+      <c r="A14" s="145"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="215"/>
+      <c r="J14" s="234"/>
+      <c r="K14" s="234"/>
+      <c r="L14" s="135"/>
       <c r="M14" s="110"/>
     </row>
     <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="156"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="220"/>
-      <c r="J15" s="239"/>
-      <c r="K15" s="239"/>
-      <c r="L15" s="146"/>
+      <c r="A15" s="145"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="215"/>
+      <c r="J15" s="234"/>
+      <c r="K15" s="234"/>
+      <c r="L15" s="135"/>
       <c r="M15" s="110"/>
     </row>
     <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="156"/>
-      <c r="B16" s="156"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="146"/>
+      <c r="A16" s="145"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
       <c r="M16" s="110"/>
     </row>
     <row r="17" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="156"/>
-      <c r="B17" s="161"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="227" t="s">
+      <c r="A17" s="145"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="222" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="228"/>
-      <c r="H17" s="228"/>
-      <c r="I17" s="228"/>
-      <c r="J17" s="228"/>
-      <c r="K17" s="228"/>
-      <c r="L17" s="229"/>
+      <c r="G17" s="223"/>
+      <c r="H17" s="223"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="223"/>
+      <c r="K17" s="223"/>
+      <c r="L17" s="224"/>
       <c r="M17" s="110"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="156"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="230"/>
-      <c r="G18" s="231"/>
-      <c r="H18" s="231"/>
-      <c r="I18" s="231"/>
-      <c r="J18" s="231"/>
-      <c r="K18" s="231"/>
-      <c r="L18" s="232"/>
+      <c r="A18" s="145"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="225"/>
+      <c r="G18" s="226"/>
+      <c r="H18" s="226"/>
+      <c r="I18" s="226"/>
+      <c r="J18" s="226"/>
+      <c r="K18" s="226"/>
+      <c r="L18" s="227"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="156"/>
-      <c r="B19" s="162"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="233"/>
-      <c r="G19" s="234"/>
-      <c r="H19" s="234"/>
-      <c r="I19" s="234"/>
-      <c r="J19" s="234"/>
-      <c r="K19" s="234"/>
-      <c r="L19" s="235"/>
+      <c r="A19" s="145"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="228"/>
+      <c r="G19" s="229"/>
+      <c r="H19" s="229"/>
+      <c r="I19" s="229"/>
+      <c r="J19" s="229"/>
+      <c r="K19" s="229"/>
+      <c r="L19" s="230"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="162"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="233"/>
-      <c r="G20" s="234"/>
-      <c r="H20" s="234"/>
-      <c r="I20" s="234"/>
-      <c r="J20" s="234"/>
-      <c r="K20" s="234"/>
-      <c r="L20" s="235"/>
+      <c r="A20" s="151"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="228"/>
+      <c r="G20" s="229"/>
+      <c r="H20" s="229"/>
+      <c r="I20" s="229"/>
+      <c r="J20" s="229"/>
+      <c r="K20" s="229"/>
+      <c r="L20" s="230"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="162"/>
-      <c r="B21" s="162"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="233"/>
-      <c r="G21" s="234"/>
-      <c r="H21" s="234"/>
-      <c r="I21" s="234"/>
-      <c r="J21" s="234"/>
-      <c r="K21" s="234"/>
-      <c r="L21" s="235"/>
+      <c r="A21" s="151"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="228"/>
+      <c r="G21" s="229"/>
+      <c r="H21" s="229"/>
+      <c r="I21" s="229"/>
+      <c r="J21" s="229"/>
+      <c r="K21" s="229"/>
+      <c r="L21" s="230"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="162"/>
-      <c r="B22" s="162"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="233"/>
-      <c r="G22" s="234"/>
-      <c r="H22" s="234"/>
-      <c r="I22" s="234"/>
-      <c r="J22" s="234"/>
-      <c r="K22" s="234"/>
-      <c r="L22" s="235"/>
+      <c r="A22" s="151"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="228"/>
+      <c r="G22" s="229"/>
+      <c r="H22" s="229"/>
+      <c r="I22" s="229"/>
+      <c r="J22" s="229"/>
+      <c r="K22" s="229"/>
+      <c r="L22" s="230"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="233"/>
-      <c r="G23" s="234"/>
-      <c r="H23" s="234"/>
-      <c r="I23" s="234"/>
-      <c r="J23" s="234"/>
-      <c r="K23" s="234"/>
-      <c r="L23" s="235"/>
+      <c r="A23" s="151"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="228"/>
+      <c r="G23" s="229"/>
+      <c r="H23" s="229"/>
+      <c r="I23" s="229"/>
+      <c r="J23" s="229"/>
+      <c r="K23" s="229"/>
+      <c r="L23" s="230"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="164"/>
-      <c r="B24" s="197"/>
-      <c r="C24" s="198"/>
-      <c r="D24" s="199"/>
-      <c r="E24" s="199"/>
-      <c r="F24" s="236"/>
-      <c r="G24" s="237"/>
-      <c r="H24" s="237"/>
-      <c r="I24" s="237"/>
-      <c r="J24" s="237"/>
-      <c r="K24" s="237"/>
-      <c r="L24" s="238"/>
+      <c r="A24" s="153"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="187"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="231"/>
+      <c r="G24" s="232"/>
+      <c r="H24" s="232"/>
+      <c r="I24" s="232"/>
+      <c r="J24" s="232"/>
+      <c r="K24" s="232"/>
+      <c r="L24" s="233"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="204" t="s">
+      <c r="A25" s="199" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="205"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="205"/>
-      <c r="E25" s="205"/>
-      <c r="F25" s="205"/>
-      <c r="G25" s="205"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="221" t="s">
+      <c r="B25" s="200"/>
+      <c r="C25" s="200"/>
+      <c r="D25" s="200"/>
+      <c r="E25" s="200"/>
+      <c r="F25" s="200"/>
+      <c r="G25" s="200"/>
+      <c r="H25" s="201"/>
+      <c r="I25" s="216" t="s">
         <v>94</v>
       </c>
-      <c r="J25" s="222"/>
-      <c r="K25" s="222"/>
-      <c r="L25" s="223"/>
+      <c r="J25" s="217"/>
+      <c r="K25" s="217"/>
+      <c r="L25" s="218"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="207"/>
-      <c r="B26" s="208"/>
-      <c r="C26" s="208"/>
-      <c r="D26" s="208"/>
-      <c r="E26" s="208"/>
-      <c r="F26" s="208"/>
-      <c r="G26" s="208"/>
-      <c r="H26" s="209"/>
-      <c r="I26" s="189"/>
-      <c r="J26" s="190"/>
-      <c r="K26" s="190"/>
-      <c r="L26" s="191"/>
+      <c r="A26" s="202"/>
+      <c r="B26" s="203"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="203"/>
+      <c r="H26" s="204"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="179"/>
+      <c r="K26" s="179"/>
+      <c r="L26" s="180"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="210"/>
-      <c r="B27" s="211"/>
-      <c r="C27" s="211"/>
-      <c r="D27" s="211"/>
-      <c r="E27" s="211"/>
-      <c r="F27" s="211"/>
-      <c r="G27" s="211"/>
-      <c r="H27" s="212"/>
-      <c r="I27" s="192"/>
-      <c r="J27" s="188"/>
-      <c r="K27" s="188"/>
-      <c r="L27" s="193"/>
+      <c r="A27" s="205"/>
+      <c r="B27" s="206"/>
+      <c r="C27" s="206"/>
+      <c r="D27" s="206"/>
+      <c r="E27" s="206"/>
+      <c r="F27" s="206"/>
+      <c r="G27" s="206"/>
+      <c r="H27" s="207"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="177"/>
+      <c r="K27" s="177"/>
+      <c r="L27" s="182"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="210"/>
-      <c r="B28" s="211"/>
-      <c r="C28" s="211"/>
-      <c r="D28" s="211"/>
-      <c r="E28" s="211"/>
-      <c r="F28" s="211"/>
-      <c r="G28" s="211"/>
-      <c r="H28" s="212"/>
-      <c r="I28" s="192"/>
-      <c r="J28" s="188"/>
-      <c r="K28" s="188"/>
-      <c r="L28" s="193"/>
+      <c r="A28" s="205"/>
+      <c r="B28" s="206"/>
+      <c r="C28" s="206"/>
+      <c r="D28" s="206"/>
+      <c r="E28" s="206"/>
+      <c r="F28" s="206"/>
+      <c r="G28" s="206"/>
+      <c r="H28" s="207"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="177"/>
+      <c r="L28" s="182"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="210"/>
-      <c r="B29" s="211"/>
-      <c r="C29" s="211"/>
-      <c r="D29" s="211"/>
-      <c r="E29" s="211"/>
-      <c r="F29" s="211"/>
-      <c r="G29" s="211"/>
-      <c r="H29" s="212"/>
-      <c r="I29" s="192"/>
-      <c r="J29" s="188"/>
-      <c r="K29" s="188"/>
-      <c r="L29" s="193"/>
+      <c r="A29" s="205"/>
+      <c r="B29" s="206"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="206"/>
+      <c r="E29" s="206"/>
+      <c r="F29" s="206"/>
+      <c r="G29" s="206"/>
+      <c r="H29" s="207"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="177"/>
+      <c r="L29" s="182"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="210"/>
-      <c r="B30" s="211"/>
-      <c r="C30" s="211"/>
-      <c r="D30" s="211"/>
-      <c r="E30" s="211"/>
-      <c r="F30" s="211"/>
-      <c r="G30" s="211"/>
-      <c r="H30" s="212"/>
-      <c r="I30" s="192"/>
-      <c r="J30" s="188"/>
-      <c r="K30" s="188"/>
-      <c r="L30" s="193"/>
+      <c r="A30" s="205"/>
+      <c r="B30" s="206"/>
+      <c r="C30" s="206"/>
+      <c r="D30" s="206"/>
+      <c r="E30" s="206"/>
+      <c r="F30" s="206"/>
+      <c r="G30" s="206"/>
+      <c r="H30" s="207"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="177"/>
+      <c r="L30" s="182"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="210"/>
-      <c r="B31" s="211"/>
-      <c r="C31" s="211"/>
-      <c r="D31" s="211"/>
-      <c r="E31" s="211"/>
-      <c r="F31" s="211"/>
-      <c r="G31" s="211"/>
-      <c r="H31" s="212"/>
-      <c r="I31" s="192"/>
-      <c r="J31" s="188"/>
-      <c r="K31" s="188"/>
-      <c r="L31" s="193"/>
+      <c r="A31" s="205"/>
+      <c r="B31" s="206"/>
+      <c r="C31" s="206"/>
+      <c r="D31" s="206"/>
+      <c r="E31" s="206"/>
+      <c r="F31" s="206"/>
+      <c r="G31" s="206"/>
+      <c r="H31" s="207"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="177"/>
+      <c r="K31" s="177"/>
+      <c r="L31" s="182"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="210"/>
-      <c r="B32" s="211"/>
-      <c r="C32" s="211"/>
-      <c r="D32" s="211"/>
-      <c r="E32" s="211"/>
-      <c r="F32" s="211"/>
-      <c r="G32" s="211"/>
-      <c r="H32" s="212"/>
-      <c r="I32" s="192"/>
-      <c r="J32" s="188"/>
-      <c r="K32" s="188"/>
-      <c r="L32" s="193"/>
+      <c r="A32" s="205"/>
+      <c r="B32" s="206"/>
+      <c r="C32" s="206"/>
+      <c r="D32" s="206"/>
+      <c r="E32" s="206"/>
+      <c r="F32" s="206"/>
+      <c r="G32" s="206"/>
+      <c r="H32" s="207"/>
+      <c r="I32" s="181"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="182"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="210"/>
-      <c r="B33" s="211"/>
-      <c r="C33" s="211"/>
-      <c r="D33" s="211"/>
-      <c r="E33" s="211"/>
-      <c r="F33" s="211"/>
-      <c r="G33" s="211"/>
-      <c r="H33" s="212"/>
-      <c r="I33" s="192"/>
-      <c r="J33" s="188"/>
-      <c r="K33" s="188"/>
-      <c r="L33" s="193"/>
+      <c r="A33" s="205"/>
+      <c r="B33" s="206"/>
+      <c r="C33" s="206"/>
+      <c r="D33" s="206"/>
+      <c r="E33" s="206"/>
+      <c r="F33" s="206"/>
+      <c r="G33" s="206"/>
+      <c r="H33" s="207"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="182"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="213"/>
-      <c r="B34" s="214"/>
-      <c r="C34" s="214"/>
-      <c r="D34" s="214"/>
-      <c r="E34" s="214"/>
-      <c r="F34" s="214"/>
-      <c r="G34" s="214"/>
-      <c r="H34" s="215"/>
-      <c r="I34" s="194"/>
-      <c r="J34" s="195"/>
-      <c r="K34" s="195"/>
-      <c r="L34" s="196"/>
+      <c r="A34" s="208"/>
+      <c r="B34" s="209"/>
+      <c r="C34" s="209"/>
+      <c r="D34" s="209"/>
+      <c r="E34" s="209"/>
+      <c r="F34" s="209"/>
+      <c r="G34" s="209"/>
+      <c r="H34" s="210"/>
+      <c r="I34" s="183"/>
+      <c r="J34" s="184"/>
+      <c r="K34" s="184"/>
+      <c r="L34" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H5:I5"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A26:H34"/>
     <mergeCell ref="A6:B6"/>
@@ -3395,6 +3430,11 @@
     <mergeCell ref="F17:L17"/>
     <mergeCell ref="F18:L24"/>
     <mergeCell ref="J14:K15"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3425,45 +3465,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="247" t="s">
+      <c r="B1" s="236" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
       <c r="G1" s="66" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="66"/>
-      <c r="I1" s="248">
+      <c r="I1" s="237">
         <v>42491</v>
       </c>
-      <c r="J1" s="248"/>
+      <c r="J1" s="237"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
       <c r="G2" s="68" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="68"/>
-      <c r="I2" s="248">
+      <c r="I2" s="237">
         <v>42639</v>
       </c>
-      <c r="J2" s="248"/>
+      <c r="J2" s="237"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="246" t="s">
+      <c r="B3" s="235" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="246"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="65"/>
@@ -3602,7 +3642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -3614,256 +3654,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="249" t="s">
+      <c r="B1" s="238" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="249"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="200"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="189"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="249"/>
-      <c r="C3" s="249"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="238"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
     </row>
     <row r="4" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="250" t="s">
+      <c r="B4" s="239" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="250"/>
+      <c r="C4" s="239"/>
     </row>
     <row r="5" spans="1:6" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="203" t="s">
+      <c r="A5" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="203" t="s">
+      <c r="B5" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="203" t="s">
+      <c r="C5" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="203" t="s">
+      <c r="D5" s="192" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="202"/>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
+      <c r="A6" s="191"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="202"/>
-      <c r="B7" s="202"/>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
+      <c r="A7" s="191"/>
+      <c r="B7" s="191"/>
+      <c r="C7" s="191"/>
+      <c r="D7" s="191"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="202"/>
-      <c r="B8" s="202"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
+      <c r="A8" s="191"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="202"/>
-      <c r="B9" s="202"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="202"/>
+      <c r="A9" s="191"/>
+      <c r="B9" s="191"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="191"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="202"/>
-      <c r="B10" s="202"/>
-      <c r="C10" s="202"/>
-      <c r="D10" s="202"/>
+      <c r="A10" s="191"/>
+      <c r="B10" s="191"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="191"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="202"/>
-      <c r="B11" s="202"/>
-      <c r="C11" s="202"/>
-      <c r="D11" s="202"/>
+      <c r="A11" s="191"/>
+      <c r="B11" s="191"/>
+      <c r="C11" s="191"/>
+      <c r="D11" s="191"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="202"/>
-      <c r="B12" s="202"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="202"/>
+      <c r="A12" s="191"/>
+      <c r="B12" s="191"/>
+      <c r="C12" s="191"/>
+      <c r="D12" s="191"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="202"/>
-      <c r="B13" s="202"/>
-      <c r="C13" s="202"/>
-      <c r="D13" s="202"/>
+      <c r="A13" s="191"/>
+      <c r="B13" s="191"/>
+      <c r="C13" s="191"/>
+      <c r="D13" s="191"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="202"/>
-      <c r="B14" s="202"/>
-      <c r="C14" s="202"/>
-      <c r="D14" s="202"/>
+      <c r="A14" s="191"/>
+      <c r="B14" s="191"/>
+      <c r="C14" s="191"/>
+      <c r="D14" s="191"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="202"/>
-      <c r="B15" s="202"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
+      <c r="A15" s="191"/>
+      <c r="B15" s="191"/>
+      <c r="C15" s="191"/>
+      <c r="D15" s="191"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="202"/>
-      <c r="B16" s="202"/>
-      <c r="C16" s="202"/>
-      <c r="D16" s="202"/>
+      <c r="A16" s="191"/>
+      <c r="B16" s="191"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="191"/>
     </row>
     <row r="17" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="202"/>
-      <c r="B17" s="202"/>
-      <c r="C17" s="202"/>
-      <c r="D17" s="202"/>
+      <c r="A17" s="191"/>
+      <c r="B17" s="191"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="191"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="202"/>
-      <c r="B18" s="202"/>
-      <c r="C18" s="202"/>
-      <c r="D18" s="202"/>
+      <c r="A18" s="191"/>
+      <c r="B18" s="191"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="191"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="202"/>
-      <c r="B19" s="202"/>
-      <c r="C19" s="202"/>
-      <c r="D19" s="202"/>
+      <c r="A19" s="191"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="191"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="202"/>
-      <c r="B20" s="202"/>
-      <c r="C20" s="202"/>
-      <c r="D20" s="202"/>
+      <c r="A20" s="191"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="191"/>
     </row>
     <row r="21" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="202"/>
-      <c r="B21" s="202"/>
-      <c r="C21" s="202"/>
-      <c r="D21" s="202"/>
+      <c r="A21" s="191"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="191"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="202"/>
-      <c r="B22" s="202"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="202"/>
+      <c r="A22" s="191"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="191"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="202"/>
-      <c r="B23" s="202"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="202"/>
+      <c r="A23" s="191"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="191"/>
     </row>
     <row r="24" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="202"/>
-      <c r="B24" s="202"/>
-      <c r="C24" s="202"/>
-      <c r="D24" s="202"/>
+      <c r="A24" s="191"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="191"/>
     </row>
     <row r="25" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="202"/>
-      <c r="B25" s="202"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="202"/>
+      <c r="A25" s="191"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="191"/>
     </row>
     <row r="26" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="202"/>
-      <c r="B26" s="202"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="202"/>
+      <c r="A26" s="191"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="191"/>
     </row>
     <row r="27" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="202"/>
-      <c r="B27" s="202"/>
-      <c r="C27" s="202"/>
-      <c r="D27" s="202"/>
+      <c r="A27" s="191"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="191"/>
+      <c r="D27" s="191"/>
     </row>
     <row r="28" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="202"/>
-      <c r="B28" s="202"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="202"/>
+      <c r="A28" s="191"/>
+      <c r="B28" s="191"/>
+      <c r="C28" s="191"/>
+      <c r="D28" s="191"/>
     </row>
     <row r="29" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="202"/>
-      <c r="B29" s="202"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="202"/>
+      <c r="A29" s="191"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="191"/>
     </row>
     <row r="30" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="202"/>
-      <c r="B30" s="202"/>
-      <c r="C30" s="202"/>
-      <c r="D30" s="202"/>
+      <c r="A30" s="191"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="191"/>
     </row>
     <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="202"/>
-      <c r="B31" s="202"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="202"/>
+      <c r="A31" s="191"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="191"/>
+      <c r="D31" s="191"/>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="202"/>
-      <c r="B32" s="202"/>
-      <c r="C32" s="202"/>
-      <c r="D32" s="202"/>
+      <c r="A32" s="191"/>
+      <c r="B32" s="191"/>
+      <c r="C32" s="191"/>
+      <c r="D32" s="191"/>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="202"/>
-      <c r="B33" s="202"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="202"/>
+      <c r="A33" s="191"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="191"/>
+      <c r="D33" s="191"/>
     </row>
     <row r="34" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="202"/>
-      <c r="B34" s="202"/>
-      <c r="C34" s="202"/>
-      <c r="D34" s="202"/>
+      <c r="A34" s="191"/>
+      <c r="B34" s="191"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="191"/>
     </row>
     <row r="35" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="202"/>
-      <c r="B35" s="202"/>
-      <c r="C35" s="202"/>
-      <c r="D35" s="202"/>
+      <c r="A35" s="191"/>
+      <c r="B35" s="191"/>
+      <c r="C35" s="191"/>
+      <c r="D35" s="191"/>
     </row>
     <row r="36" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="202"/>
-      <c r="B36" s="202"/>
-      <c r="C36" s="202"/>
-      <c r="D36" s="202"/>
+      <c r="A36" s="191"/>
+      <c r="B36" s="191"/>
+      <c r="C36" s="191"/>
+      <c r="D36" s="191"/>
     </row>
     <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="202"/>
-      <c r="B37" s="202"/>
-      <c r="C37" s="202"/>
-      <c r="D37" s="202"/>
+      <c r="A37" s="191"/>
+      <c r="B37" s="191"/>
+      <c r="C37" s="191"/>
+      <c r="D37" s="191"/>
     </row>
     <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="202"/>
-      <c r="B38" s="202"/>
-      <c r="C38" s="202"/>
-      <c r="D38" s="202"/>
+      <c r="A38" s="191"/>
+      <c r="B38" s="191"/>
+      <c r="C38" s="191"/>
+      <c r="D38" s="191"/>
     </row>
     <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="202"/>
-      <c r="B39" s="202"/>
-      <c r="C39" s="202"/>
-      <c r="D39" s="202"/>
+      <c r="A39" s="191"/>
+      <c r="B39" s="191"/>
+      <c r="C39" s="191"/>
+      <c r="D39" s="191"/>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="202"/>
-      <c r="B40" s="202"/>
-      <c r="C40" s="202"/>
-      <c r="D40" s="202"/>
+      <c r="A40" s="191"/>
+      <c r="B40" s="191"/>
+      <c r="C40" s="191"/>
+      <c r="D40" s="191"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -3900,52 +3940,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="261" t="s">
+      <c r="A1" s="259" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="251" t="s">
+      <c r="B1" s="250" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="253"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="252"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="262"/>
-      <c r="B2" s="254" t="s">
+      <c r="A2" s="260"/>
+      <c r="B2" s="253" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="267" t="s">
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="242" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="269" t="s">
+      <c r="H2" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="270"/>
+      <c r="I2" s="247"/>
       <c r="J2" s="19">
         <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="263"/>
-      <c r="B3" s="257"/>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="259"/>
-      <c r="G3" s="268"/>
-      <c r="H3" s="269" t="s">
+      <c r="A3" s="261"/>
+      <c r="B3" s="256"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="243"/>
+      <c r="H3" s="246" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="270"/>
+      <c r="I3" s="247"/>
       <c r="J3" s="20">
         <v>10</v>
       </c>
@@ -3972,10 +4012,10 @@
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="271" t="s">
+      <c r="H4" s="248" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="272"/>
+      <c r="I4" s="249"/>
       <c r="J4" s="23">
         <v>8.5</v>
       </c>
@@ -3988,10 +4028,10 @@
       <c r="E5" s="24"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="260" t="s">
+      <c r="H5" s="244" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="264"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="27">
         <f>SUM(G5:G100)</f>
         <v>0</v>
@@ -4005,10 +4045,10 @@
       <c r="E6" s="24"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="260" t="s">
+      <c r="H6" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="264"/>
+      <c r="I6" s="245"/>
       <c r="J6" s="28">
         <f>J5*0.05</f>
         <v>0</v>
@@ -4022,10 +4062,10 @@
       <c r="E7" s="24"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="260" t="s">
+      <c r="H7" s="244" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="264"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="28">
         <v>110</v>
       </c>
@@ -4038,10 +4078,10 @@
       <c r="E8" s="24"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="260" t="s">
+      <c r="H8" s="244" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="264"/>
+      <c r="I8" s="245"/>
       <c r="J8" s="29">
         <v>150</v>
       </c>
@@ -4054,10 +4094,10 @@
       <c r="E9" s="24"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="260" t="s">
+      <c r="H9" s="244" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="260"/>
+      <c r="I9" s="244"/>
       <c r="J9" s="30">
         <f>(PRECIO_VENTA*LITROS_A_ELABORAR)</f>
         <v>1500</v>
@@ -4071,10 +4111,10 @@
       <c r="E10" s="24"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="260" t="s">
+      <c r="H10" s="244" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="260"/>
+      <c r="I10" s="244"/>
       <c r="J10" s="31">
         <f>J9-COSTO_TOTAL_MATERIA_PRIMA</f>
         <v>1500</v>
@@ -4088,10 +4128,10 @@
       <c r="E11" s="24"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="265" t="s">
+      <c r="H11" s="240" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="266"/>
+      <c r="I11" s="241"/>
       <c r="J11" s="32">
         <v>0.27</v>
       </c>
@@ -4104,10 +4144,10 @@
       <c r="E12" s="24"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="265" t="s">
+      <c r="H12" s="240" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="266"/>
+      <c r="I12" s="241"/>
       <c r="J12" s="32">
         <f>((J5+COSTO_PREPARACION)/J9-1)*(-1)</f>
         <v>0.92666666666666664</v>
@@ -4179,6 +4219,13 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="15">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H5:I5"/>
@@ -4187,13 +4234,6 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="J12">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
@@ -4247,22 +4287,22 @@
       <c r="N1" s="81"/>
       <c r="O1" s="81"/>
       <c r="P1" s="81"/>
-      <c r="Q1" s="273" t="s">
+      <c r="Q1" s="262" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="274"/>
-      <c r="S1" s="273" t="s">
+      <c r="R1" s="263"/>
+      <c r="S1" s="262" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="274"/>
-      <c r="U1" s="273" t="s">
+      <c r="T1" s="263"/>
+      <c r="U1" s="262" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="274"/>
-      <c r="W1" s="273" t="s">
+      <c r="V1" s="263"/>
+      <c r="W1" s="262" t="s">
         <v>63</v>
       </c>
-      <c r="X1" s="274"/>
+      <c r="X1" s="263"/>
       <c r="Y1" s="81"/>
       <c r="Z1" s="81"/>
       <c r="AA1" s="81"/>
@@ -4962,8 +5002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4978,88 +5018,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="281"/>
-      <c r="B1" s="281"/>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="281"/>
-      <c r="L1" s="281"/>
-      <c r="M1" s="281"/>
-      <c r="N1" s="281"/>
+      <c r="A1" s="289"/>
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="289"/>
+      <c r="E1" s="289"/>
+      <c r="F1" s="289"/>
+      <c r="G1" s="289"/>
+      <c r="H1" s="289"/>
+      <c r="I1" s="289"/>
+      <c r="J1" s="289"/>
+      <c r="K1" s="289"/>
+      <c r="L1" s="289"/>
+      <c r="M1" s="289"/>
+      <c r="N1" s="289"/>
     </row>
     <row r="2" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="281"/>
-      <c r="B2" s="281"/>
-      <c r="C2" s="281"/>
-      <c r="D2" s="281"/>
-      <c r="E2" s="281"/>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="281"/>
-      <c r="K2" s="281"/>
-      <c r="L2" s="281"/>
-      <c r="M2" s="281"/>
-      <c r="N2" s="281"/>
-    </row>
-    <row r="3" spans="1:16" s="133" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="134"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
+      <c r="A2" s="289"/>
+      <c r="B2" s="289"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="289"/>
+      <c r="E2" s="289"/>
+      <c r="F2" s="289"/>
+      <c r="G2" s="289"/>
+      <c r="H2" s="289"/>
+      <c r="I2" s="289"/>
+      <c r="J2" s="289"/>
+      <c r="K2" s="289"/>
+      <c r="L2" s="289"/>
+      <c r="M2" s="289"/>
+      <c r="N2" s="289"/>
+    </row>
+    <row r="3" spans="1:16" s="122" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="123"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
     </row>
     <row r="4" spans="1:16" ht="55.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="275"/>
-      <c r="C4" s="275"/>
+      <c r="B4" s="283"/>
+      <c r="C4" s="283"/>
       <c r="D4" s="96"/>
       <c r="E4" s="96"/>
-      <c r="F4" s="140" t="s">
+      <c r="F4" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="140" t="s">
+      <c r="G4" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="294" t="s">
+      <c r="H4" s="276" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="294"/>
-      <c r="J4" s="294"/>
-      <c r="K4" s="141" t="s">
+      <c r="I4" s="276"/>
+      <c r="J4" s="276"/>
+      <c r="K4" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="142" t="s">
+      <c r="L4" s="131" t="s">
         <v>84</v>
       </c>
-      <c r="M4" s="143" t="s">
+      <c r="M4" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="N4" s="143" t="s">
+      <c r="N4" s="132" t="s">
         <v>34</v>
       </c>
       <c r="P4" s="110"/>
     </row>
     <row r="5" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="276" t="s">
+      <c r="A5" s="284" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="97"/>
@@ -5070,8 +5110,8 @@
       <c r="E5" s="98"/>
       <c r="F5" s="99"/>
       <c r="G5" s="100"/>
-      <c r="H5" s="295"/>
-      <c r="I5" s="296"/>
+      <c r="H5" s="277"/>
+      <c r="I5" s="278"/>
       <c r="J5" s="101"/>
       <c r="K5" s="100"/>
       <c r="L5" s="102"/>
@@ -5079,60 +5119,60 @@
       <c r="N5" s="104"/>
     </row>
     <row r="6" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="277"/>
+      <c r="A6" s="285"/>
       <c r="B6" s="107"/>
       <c r="C6" s="109" t="s">
         <v>88</v>
       </c>
       <c r="D6" s="108"/>
       <c r="E6" s="106"/>
-      <c r="F6" s="144" t="s">
+      <c r="F6" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="297" t="s">
+      <c r="H6" s="279" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="298"/>
-      <c r="J6" s="298"/>
-      <c r="K6" s="298"/>
-      <c r="L6" s="299"/>
-      <c r="M6" s="278" t="s">
+      <c r="I6" s="280"/>
+      <c r="J6" s="280"/>
+      <c r="K6" s="280"/>
+      <c r="L6" s="281"/>
+      <c r="M6" s="286" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="279"/>
+      <c r="N6" s="287"/>
     </row>
     <row r="7" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="138" t="s">
+      <c r="C7" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="139" t="s">
+      <c r="D7" s="128" t="s">
         <v>69</v>
       </c>
       <c r="E7" s="112"/>
       <c r="F7" s="121"/>
       <c r="G7" s="105"/>
-      <c r="H7" s="295"/>
-      <c r="I7" s="296"/>
-      <c r="J7" s="296"/>
-      <c r="K7" s="296"/>
-      <c r="L7" s="300"/>
-      <c r="M7" s="280"/>
-      <c r="N7" s="280"/>
+      <c r="H7" s="277"/>
+      <c r="I7" s="278"/>
+      <c r="J7" s="278"/>
+      <c r="K7" s="278"/>
+      <c r="L7" s="282"/>
+      <c r="M7" s="288"/>
+      <c r="N7" s="288"/>
     </row>
     <row r="8" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="122"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
+      <c r="A8" s="290"/>
+      <c r="B8" s="290"/>
+      <c r="C8" s="291"/>
+      <c r="D8" s="292"/>
       <c r="E8" s="112"/>
       <c r="F8" s="115"/>
       <c r="G8" s="116"/>
@@ -5144,208 +5184,208 @@
       <c r="M8" s="120"/>
       <c r="N8" s="120"/>
     </row>
-    <row r="9" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="124"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="127"/>
+    <row r="9" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="170"/>
+      <c r="B9" s="293"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="294"/>
       <c r="E9" s="113"/>
-      <c r="F9" s="291" t="s">
+      <c r="F9" s="273" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="292"/>
-      <c r="J9" s="292"/>
-      <c r="K9" s="293"/>
-      <c r="L9" s="291" t="s">
+      <c r="G9" s="274"/>
+      <c r="H9" s="274"/>
+      <c r="I9" s="274"/>
+      <c r="J9" s="274"/>
+      <c r="K9" s="275"/>
+      <c r="L9" s="273" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="292"/>
-      <c r="N9" s="293"/>
-    </row>
-    <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="124"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="129"/>
+      <c r="M9" s="274"/>
+      <c r="N9" s="275"/>
+    </row>
+    <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="170"/>
+      <c r="B10" s="293"/>
+      <c r="C10" s="295"/>
+      <c r="D10" s="296"/>
       <c r="E10" s="113"/>
-      <c r="F10" s="282"/>
-      <c r="G10" s="283"/>
-      <c r="H10" s="283"/>
-      <c r="I10" s="283"/>
-      <c r="J10" s="283"/>
-      <c r="K10" s="284"/>
-      <c r="L10" s="282"/>
-      <c r="M10" s="283"/>
-      <c r="N10" s="284"/>
-    </row>
-    <row r="11" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="124"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="129"/>
+      <c r="F10" s="264"/>
+      <c r="G10" s="265"/>
+      <c r="H10" s="265"/>
+      <c r="I10" s="265"/>
+      <c r="J10" s="265"/>
+      <c r="K10" s="266"/>
+      <c r="L10" s="264"/>
+      <c r="M10" s="265"/>
+      <c r="N10" s="266"/>
+    </row>
+    <row r="11" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="170"/>
+      <c r="B11" s="293"/>
+      <c r="C11" s="295"/>
+      <c r="D11" s="296"/>
       <c r="E11" s="113"/>
-      <c r="F11" s="285"/>
-      <c r="G11" s="286"/>
-      <c r="H11" s="286"/>
-      <c r="I11" s="286"/>
-      <c r="J11" s="286"/>
-      <c r="K11" s="287"/>
-      <c r="L11" s="285"/>
-      <c r="M11" s="286"/>
-      <c r="N11" s="287"/>
-    </row>
-    <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="124"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="129"/>
+      <c r="F11" s="267"/>
+      <c r="G11" s="268"/>
+      <c r="H11" s="268"/>
+      <c r="I11" s="268"/>
+      <c r="J11" s="268"/>
+      <c r="K11" s="269"/>
+      <c r="L11" s="267"/>
+      <c r="M11" s="268"/>
+      <c r="N11" s="269"/>
+    </row>
+    <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="170"/>
+      <c r="B12" s="293"/>
+      <c r="C12" s="295"/>
+      <c r="D12" s="296"/>
       <c r="E12" s="113"/>
-      <c r="F12" s="285"/>
-      <c r="G12" s="286"/>
-      <c r="H12" s="286"/>
-      <c r="I12" s="286"/>
-      <c r="J12" s="286"/>
-      <c r="K12" s="287"/>
-      <c r="L12" s="285"/>
-      <c r="M12" s="286"/>
-      <c r="N12" s="287"/>
-    </row>
-    <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="124"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="127"/>
+      <c r="F12" s="267"/>
+      <c r="G12" s="268"/>
+      <c r="H12" s="268"/>
+      <c r="I12" s="268"/>
+      <c r="J12" s="268"/>
+      <c r="K12" s="269"/>
+      <c r="L12" s="267"/>
+      <c r="M12" s="268"/>
+      <c r="N12" s="269"/>
+    </row>
+    <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="170"/>
+      <c r="B13" s="293"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="294"/>
       <c r="E13" s="113"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="287"/>
-      <c r="L13" s="285"/>
-      <c r="M13" s="286"/>
-      <c r="N13" s="287"/>
-    </row>
-    <row r="14" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="124"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="127"/>
+      <c r="F13" s="267"/>
+      <c r="G13" s="268"/>
+      <c r="H13" s="268"/>
+      <c r="I13" s="268"/>
+      <c r="J13" s="268"/>
+      <c r="K13" s="269"/>
+      <c r="L13" s="267"/>
+      <c r="M13" s="268"/>
+      <c r="N13" s="269"/>
+    </row>
+    <row r="14" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="170"/>
+      <c r="B14" s="293"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="294"/>
       <c r="E14" s="113"/>
-      <c r="F14" s="285"/>
-      <c r="G14" s="286"/>
-      <c r="H14" s="286"/>
-      <c r="I14" s="286"/>
-      <c r="J14" s="286"/>
-      <c r="K14" s="287"/>
-      <c r="L14" s="285"/>
-      <c r="M14" s="286"/>
-      <c r="N14" s="287"/>
-    </row>
-    <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="124"/>
-      <c r="B15" s="125"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="127"/>
+      <c r="F14" s="267"/>
+      <c r="G14" s="268"/>
+      <c r="H14" s="268"/>
+      <c r="I14" s="268"/>
+      <c r="J14" s="268"/>
+      <c r="K14" s="269"/>
+      <c r="L14" s="267"/>
+      <c r="M14" s="268"/>
+      <c r="N14" s="269"/>
+    </row>
+    <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="170"/>
+      <c r="B15" s="293"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="294"/>
       <c r="E15" s="113"/>
-      <c r="F15" s="285"/>
-      <c r="G15" s="286"/>
-      <c r="H15" s="286"/>
-      <c r="I15" s="286"/>
-      <c r="J15" s="286"/>
-      <c r="K15" s="287"/>
-      <c r="L15" s="285"/>
-      <c r="M15" s="286"/>
-      <c r="N15" s="287"/>
-    </row>
-    <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="124"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="127"/>
+      <c r="F15" s="267"/>
+      <c r="G15" s="268"/>
+      <c r="H15" s="268"/>
+      <c r="I15" s="268"/>
+      <c r="J15" s="268"/>
+      <c r="K15" s="269"/>
+      <c r="L15" s="267"/>
+      <c r="M15" s="268"/>
+      <c r="N15" s="269"/>
+    </row>
+    <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="170"/>
+      <c r="B16" s="293"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="294"/>
       <c r="E16" s="113"/>
-      <c r="F16" s="285"/>
-      <c r="G16" s="286"/>
-      <c r="H16" s="286"/>
-      <c r="I16" s="286"/>
-      <c r="J16" s="286"/>
-      <c r="K16" s="287"/>
-      <c r="L16" s="285"/>
-      <c r="M16" s="286"/>
-      <c r="N16" s="287"/>
-    </row>
-    <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="124"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="127"/>
+      <c r="F16" s="267"/>
+      <c r="G16" s="268"/>
+      <c r="H16" s="268"/>
+      <c r="I16" s="268"/>
+      <c r="J16" s="268"/>
+      <c r="K16" s="269"/>
+      <c r="L16" s="267"/>
+      <c r="M16" s="268"/>
+      <c r="N16" s="269"/>
+    </row>
+    <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="170"/>
+      <c r="B17" s="293"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="294"/>
       <c r="E17" s="113"/>
-      <c r="F17" s="285"/>
-      <c r="G17" s="286"/>
-      <c r="H17" s="286"/>
-      <c r="I17" s="286"/>
-      <c r="J17" s="286"/>
-      <c r="K17" s="287"/>
-      <c r="L17" s="285"/>
-      <c r="M17" s="286"/>
-      <c r="N17" s="287"/>
-    </row>
-    <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="130"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="127"/>
+      <c r="F17" s="267"/>
+      <c r="G17" s="268"/>
+      <c r="H17" s="268"/>
+      <c r="I17" s="268"/>
+      <c r="J17" s="268"/>
+      <c r="K17" s="269"/>
+      <c r="L17" s="267"/>
+      <c r="M17" s="268"/>
+      <c r="N17" s="269"/>
+    </row>
+    <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="297"/>
+      <c r="B18" s="293"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="294"/>
       <c r="E18" s="113"/>
-      <c r="F18" s="285"/>
-      <c r="G18" s="286"/>
-      <c r="H18" s="286"/>
-      <c r="I18" s="286"/>
-      <c r="J18" s="286"/>
-      <c r="K18" s="287"/>
-      <c r="L18" s="285"/>
-      <c r="M18" s="286"/>
-      <c r="N18" s="287"/>
-    </row>
-    <row r="19" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="124" t="s">
+      <c r="F18" s="267"/>
+      <c r="G18" s="268"/>
+      <c r="H18" s="268"/>
+      <c r="I18" s="268"/>
+      <c r="J18" s="268"/>
+      <c r="K18" s="269"/>
+      <c r="L18" s="267"/>
+      <c r="M18" s="268"/>
+      <c r="N18" s="269"/>
+    </row>
+    <row r="19" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="170" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="293" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="127"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="294"/>
       <c r="E19" s="113"/>
-      <c r="F19" s="285"/>
-      <c r="G19" s="286"/>
-      <c r="H19" s="286"/>
-      <c r="I19" s="286"/>
-      <c r="J19" s="286"/>
-      <c r="K19" s="287"/>
-      <c r="L19" s="285"/>
-      <c r="M19" s="286"/>
-      <c r="N19" s="287"/>
+      <c r="F19" s="267"/>
+      <c r="G19" s="268"/>
+      <c r="H19" s="268"/>
+      <c r="I19" s="268"/>
+      <c r="J19" s="268"/>
+      <c r="K19" s="269"/>
+      <c r="L19" s="267"/>
+      <c r="M19" s="268"/>
+      <c r="N19" s="269"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="131"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="127"/>
+      <c r="A20" s="297"/>
+      <c r="B20" s="293"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="294"/>
       <c r="E20" s="113"/>
-      <c r="F20" s="288"/>
-      <c r="G20" s="289"/>
-      <c r="H20" s="289"/>
-      <c r="I20" s="289"/>
-      <c r="J20" s="289"/>
-      <c r="K20" s="290"/>
-      <c r="L20" s="288"/>
-      <c r="M20" s="289"/>
-      <c r="N20" s="290"/>
+      <c r="F20" s="270"/>
+      <c r="G20" s="271"/>
+      <c r="H20" s="271"/>
+      <c r="I20" s="271"/>
+      <c r="J20" s="271"/>
+      <c r="K20" s="272"/>
+      <c r="L20" s="270"/>
+      <c r="M20" s="271"/>
+      <c r="N20" s="272"/>
     </row>
     <row r="21" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="145" t="s">
+      <c r="C21" s="134" t="s">
         <v>96</v>
       </c>
       <c r="D21" s="114"/>
@@ -5353,6 +5393,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A1:N2"/>
     <mergeCell ref="L10:N20"/>
     <mergeCell ref="F10:K20"/>
     <mergeCell ref="F9:K9"/>
@@ -5361,11 +5406,6 @@
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="L9:N9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A1:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ExcelAddIn1/Resources/FICHA RECETA.xlsx
+++ b/ExcelAddIn1/Resources/FICHA RECETA.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\aimee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\VSTOexcelRest\ExcelAddIn1\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ReporteInventario" sheetId="3" r:id="rId1"/>
     <sheet name="OrdenTrabajo" sheetId="7" r:id="rId2"/>
     <sheet name="ReporteInventarioImprimir" sheetId="4" r:id="rId3"/>
-    <sheet name="ReporteIngredientesDiarios" sheetId="8" r:id="rId4"/>
-    <sheet name="Receta" sheetId="1" r:id="rId5"/>
-    <sheet name="ReporterCocina" sheetId="5" r:id="rId6"/>
-    <sheet name="DetalleReceta" sheetId="6" r:id="rId7"/>
+    <sheet name="IngredientesMenuDiario" sheetId="8" r:id="rId4"/>
+    <sheet name="IngredientesMenuDiarioxPlatillo" sheetId="9" r:id="rId5"/>
+    <sheet name="ReportePlatillosDiarios" sheetId="10" r:id="rId6"/>
+    <sheet name="Receta" sheetId="1" r:id="rId7"/>
+    <sheet name="ReporterCocina" sheetId="5" r:id="rId8"/>
+    <sheet name="DetalleReceta" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="CANTIDAD_A_ELABORAR">Receta!$J$4</definedName>
@@ -31,6 +33,7 @@
     <definedName name="FECHA_INI_IMP">ReporteInventarioImprimir!$I$1</definedName>
     <definedName name="LITROS_A_ELABORAR">Receta!$J$3</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_SECOND_FORMAT" hidden="1">" "</definedName>
     <definedName name="MARGEN_ANTERIOR">Receta!$J$11</definedName>
     <definedName name="MARGEN_PRODUCTO">Receta!$J$12</definedName>
     <definedName name="NOMBRE">Receta!$B$2</definedName>
@@ -42,7 +45,7 @@
     <definedName name="TOLERANCIA_ERROR">Receta!$J$6</definedName>
     <definedName name="UNIDAD_RECETA">Receta!$A$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <customWorkbookViews>
     <customWorkbookView name="Receta" guid="{144E6047-E10B-4E01-8FEF-AAF3A3213ABE}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1320" windowHeight="784" activeSheetId="1" showFormulaBar="0"/>
   </customWorkbookViews>
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="121">
   <si>
     <t>Receta</t>
   </si>
@@ -435,16 +438,34 @@
     <t>Encargado:</t>
   </si>
   <si>
-    <t>Almacenes Mercatto                                  S. de R.L. de C.V.</t>
-  </si>
-  <si>
     <t>Ingredientes Menú Diario</t>
+  </si>
+  <si>
+    <t>Platillo</t>
+  </si>
+  <si>
+    <t>Clave Ingrediente</t>
+  </si>
+  <si>
+    <t>Almacenes Mercatto                                          S. de R.L. de C.V.</t>
+  </si>
+  <si>
+    <t>Almacenes Mercatto                                                           S. de R.L. de C.V.</t>
+  </si>
+  <si>
+    <t>Platillos Diarios</t>
+  </si>
+  <si>
+    <t>Almacenes Mercatto                                                     S. de R.L. de C.V.</t>
+  </si>
+  <si>
+    <t>Cantidad Elaborar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -453,7 +474,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,6 +676,21 @@
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -754,7 +790,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1257,13 +1293,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1918,6 +1989,35 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2026,24 +2126,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2063,6 +2145,53 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2099,10 +2228,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2115,46 +2240,67 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2178,61 +2324,9 @@
     <xf numFmtId="0" fontId="17" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2286,7 +2380,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2335,7 +2435,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2365,6 +2471,134 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="1714499" cy="954734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>21284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA49E59-E36B-4EE7-8F96-E972AC970FA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="9804" b="88889" l="5863" r="94463"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1971675" cy="1192859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>59384</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B85647-6388-4BFD-9012-2A6BFC3A0A33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="9804" b="88889" l="5863" r="94463"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="0"/>
+          <a:ext cx="1714499" cy="1192859"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2452,6 +2686,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2487,6 +2738,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2835,20 +3103,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="208" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
       <c r="M1" s="110"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
@@ -2877,8 +3145,8 @@
       <c r="I3" s="181" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="242"/>
-      <c r="K3" s="243"/>
+      <c r="J3" s="210"/>
+      <c r="K3" s="211"/>
       <c r="L3" s="110"/>
       <c r="M3" s="110"/>
     </row>
@@ -2886,10 +3154,10 @@
       <c r="A4" s="176" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="241"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="209"/>
       <c r="G4" s="146"/>
       <c r="H4" s="146"/>
       <c r="I4" s="179"/>
@@ -2902,29 +3170,29 @@
       <c r="A5" s="177" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="241"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
+      <c r="B5" s="209"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
       <c r="G5" s="146"/>
-      <c r="H5" s="244" t="s">
+      <c r="H5" s="212" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="245"/>
+      <c r="I5" s="213"/>
       <c r="J5" s="146"/>
       <c r="K5" s="146"/>
       <c r="L5" s="146"/>
       <c r="M5" s="110"/>
     </row>
     <row r="6" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="216" t="s">
+      <c r="A6" s="226" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="217"/>
-      <c r="C6" s="218" t="s">
+      <c r="B6" s="227"/>
+      <c r="C6" s="228" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="219"/>
+      <c r="D6" s="229"/>
       <c r="E6" s="170" t="s">
         <v>90</v>
       </c>
@@ -2967,10 +3235,10 @@
       <c r="C8" s="169" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="225" t="s">
+      <c r="D8" s="235" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="226" t="s">
+      <c r="E8" s="236" t="s">
         <v>105</v>
       </c>
       <c r="F8" s="147"/>
@@ -2995,8 +3263,8 @@
         <f>C7*1/A9</f>
         <v>0</v>
       </c>
-      <c r="D9" s="225"/>
-      <c r="E9" s="226"/>
+      <c r="D9" s="235"/>
+      <c r="E9" s="236"/>
       <c r="F9" s="147"/>
       <c r="I9" s="146"/>
       <c r="J9" s="146"/>
@@ -3013,7 +3281,7 @@
       <c r="F10" s="146"/>
       <c r="G10" s="146"/>
       <c r="H10" s="146"/>
-      <c r="I10" s="224" t="s">
+      <c r="I10" s="234" t="s">
         <v>111</v>
       </c>
       <c r="J10" s="146" t="s">
@@ -3032,7 +3300,7 @@
       <c r="F11" s="146"/>
       <c r="G11" s="146"/>
       <c r="H11" s="146"/>
-      <c r="I11" s="224"/>
+      <c r="I11" s="234"/>
       <c r="J11" s="186" t="s">
         <v>95</v>
       </c>
@@ -3081,9 +3349,9 @@
       <c r="F14" s="146"/>
       <c r="G14" s="146"/>
       <c r="H14" s="146"/>
-      <c r="I14" s="220"/>
-      <c r="J14" s="239"/>
-      <c r="K14" s="239"/>
+      <c r="I14" s="230"/>
+      <c r="J14" s="249"/>
+      <c r="K14" s="249"/>
       <c r="L14" s="146"/>
       <c r="M14" s="110"/>
     </row>
@@ -3096,9 +3364,9 @@
       <c r="F15" s="146"/>
       <c r="G15" s="146"/>
       <c r="H15" s="146"/>
-      <c r="I15" s="220"/>
-      <c r="J15" s="239"/>
-      <c r="K15" s="239"/>
+      <c r="I15" s="230"/>
+      <c r="J15" s="249"/>
+      <c r="K15" s="249"/>
       <c r="L15" s="146"/>
       <c r="M15" s="110"/>
     </row>
@@ -3123,15 +3391,15 @@
       <c r="C17" s="160"/>
       <c r="D17" s="158"/>
       <c r="E17" s="159"/>
-      <c r="F17" s="227" t="s">
+      <c r="F17" s="237" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="228"/>
-      <c r="H17" s="228"/>
-      <c r="I17" s="228"/>
-      <c r="J17" s="228"/>
-      <c r="K17" s="228"/>
-      <c r="L17" s="229"/>
+      <c r="G17" s="238"/>
+      <c r="H17" s="238"/>
+      <c r="I17" s="238"/>
+      <c r="J17" s="238"/>
+      <c r="K17" s="238"/>
+      <c r="L17" s="239"/>
       <c r="M17" s="110"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
@@ -3140,13 +3408,13 @@
       <c r="C18" s="160"/>
       <c r="D18" s="158"/>
       <c r="E18" s="159"/>
-      <c r="F18" s="230"/>
-      <c r="G18" s="231"/>
-      <c r="H18" s="231"/>
-      <c r="I18" s="231"/>
-      <c r="J18" s="231"/>
-      <c r="K18" s="231"/>
-      <c r="L18" s="232"/>
+      <c r="F18" s="240"/>
+      <c r="G18" s="241"/>
+      <c r="H18" s="241"/>
+      <c r="I18" s="241"/>
+      <c r="J18" s="241"/>
+      <c r="K18" s="241"/>
+      <c r="L18" s="242"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="156"/>
@@ -3154,13 +3422,13 @@
       <c r="C19" s="163"/>
       <c r="D19" s="159"/>
       <c r="E19" s="159"/>
-      <c r="F19" s="233"/>
-      <c r="G19" s="234"/>
-      <c r="H19" s="234"/>
-      <c r="I19" s="234"/>
-      <c r="J19" s="234"/>
-      <c r="K19" s="234"/>
-      <c r="L19" s="235"/>
+      <c r="F19" s="243"/>
+      <c r="G19" s="244"/>
+      <c r="H19" s="244"/>
+      <c r="I19" s="244"/>
+      <c r="J19" s="244"/>
+      <c r="K19" s="244"/>
+      <c r="L19" s="245"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="162"/>
@@ -3168,13 +3436,13 @@
       <c r="C20" s="163"/>
       <c r="D20" s="159"/>
       <c r="E20" s="159"/>
-      <c r="F20" s="233"/>
-      <c r="G20" s="234"/>
-      <c r="H20" s="234"/>
-      <c r="I20" s="234"/>
-      <c r="J20" s="234"/>
-      <c r="K20" s="234"/>
-      <c r="L20" s="235"/>
+      <c r="F20" s="243"/>
+      <c r="G20" s="244"/>
+      <c r="H20" s="244"/>
+      <c r="I20" s="244"/>
+      <c r="J20" s="244"/>
+      <c r="K20" s="244"/>
+      <c r="L20" s="245"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="162"/>
@@ -3182,13 +3450,13 @@
       <c r="C21" s="163"/>
       <c r="D21" s="159"/>
       <c r="E21" s="159"/>
-      <c r="F21" s="233"/>
-      <c r="G21" s="234"/>
-      <c r="H21" s="234"/>
-      <c r="I21" s="234"/>
-      <c r="J21" s="234"/>
-      <c r="K21" s="234"/>
-      <c r="L21" s="235"/>
+      <c r="F21" s="243"/>
+      <c r="G21" s="244"/>
+      <c r="H21" s="244"/>
+      <c r="I21" s="244"/>
+      <c r="J21" s="244"/>
+      <c r="K21" s="244"/>
+      <c r="L21" s="245"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="162"/>
@@ -3196,13 +3464,13 @@
       <c r="C22" s="163"/>
       <c r="D22" s="159"/>
       <c r="E22" s="159"/>
-      <c r="F22" s="233"/>
-      <c r="G22" s="234"/>
-      <c r="H22" s="234"/>
-      <c r="I22" s="234"/>
-      <c r="J22" s="234"/>
-      <c r="K22" s="234"/>
-      <c r="L22" s="235"/>
+      <c r="F22" s="243"/>
+      <c r="G22" s="244"/>
+      <c r="H22" s="244"/>
+      <c r="I22" s="244"/>
+      <c r="J22" s="244"/>
+      <c r="K22" s="244"/>
+      <c r="L22" s="245"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="162"/>
@@ -3210,13 +3478,13 @@
       <c r="C23" s="163"/>
       <c r="D23" s="159"/>
       <c r="E23" s="159"/>
-      <c r="F23" s="233"/>
-      <c r="G23" s="234"/>
-      <c r="H23" s="234"/>
-      <c r="I23" s="234"/>
-      <c r="J23" s="234"/>
-      <c r="K23" s="234"/>
-      <c r="L23" s="235"/>
+      <c r="F23" s="243"/>
+      <c r="G23" s="244"/>
+      <c r="H23" s="244"/>
+      <c r="I23" s="244"/>
+      <c r="J23" s="244"/>
+      <c r="K23" s="244"/>
+      <c r="L23" s="245"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="164"/>
@@ -3224,153 +3492,153 @@
       <c r="C24" s="198"/>
       <c r="D24" s="199"/>
       <c r="E24" s="199"/>
-      <c r="F24" s="236"/>
-      <c r="G24" s="237"/>
-      <c r="H24" s="237"/>
-      <c r="I24" s="237"/>
-      <c r="J24" s="237"/>
-      <c r="K24" s="237"/>
-      <c r="L24" s="238"/>
+      <c r="F24" s="246"/>
+      <c r="G24" s="247"/>
+      <c r="H24" s="247"/>
+      <c r="I24" s="247"/>
+      <c r="J24" s="247"/>
+      <c r="K24" s="247"/>
+      <c r="L24" s="248"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="204" t="s">
+      <c r="A25" s="214" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="205"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="205"/>
-      <c r="E25" s="205"/>
-      <c r="F25" s="205"/>
-      <c r="G25" s="205"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="221" t="s">
+      <c r="B25" s="215"/>
+      <c r="C25" s="215"/>
+      <c r="D25" s="215"/>
+      <c r="E25" s="215"/>
+      <c r="F25" s="215"/>
+      <c r="G25" s="215"/>
+      <c r="H25" s="216"/>
+      <c r="I25" s="231" t="s">
         <v>94</v>
       </c>
-      <c r="J25" s="222"/>
-      <c r="K25" s="222"/>
-      <c r="L25" s="223"/>
+      <c r="J25" s="232"/>
+      <c r="K25" s="232"/>
+      <c r="L25" s="233"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="207"/>
-      <c r="B26" s="208"/>
-      <c r="C26" s="208"/>
-      <c r="D26" s="208"/>
-      <c r="E26" s="208"/>
-      <c r="F26" s="208"/>
-      <c r="G26" s="208"/>
-      <c r="H26" s="209"/>
+      <c r="A26" s="217"/>
+      <c r="B26" s="218"/>
+      <c r="C26" s="218"/>
+      <c r="D26" s="218"/>
+      <c r="E26" s="218"/>
+      <c r="F26" s="218"/>
+      <c r="G26" s="218"/>
+      <c r="H26" s="219"/>
       <c r="I26" s="189"/>
       <c r="J26" s="190"/>
       <c r="K26" s="190"/>
       <c r="L26" s="191"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="210"/>
-      <c r="B27" s="211"/>
-      <c r="C27" s="211"/>
-      <c r="D27" s="211"/>
-      <c r="E27" s="211"/>
-      <c r="F27" s="211"/>
-      <c r="G27" s="211"/>
-      <c r="H27" s="212"/>
+      <c r="A27" s="220"/>
+      <c r="B27" s="221"/>
+      <c r="C27" s="221"/>
+      <c r="D27" s="221"/>
+      <c r="E27" s="221"/>
+      <c r="F27" s="221"/>
+      <c r="G27" s="221"/>
+      <c r="H27" s="222"/>
       <c r="I27" s="192"/>
       <c r="J27" s="188"/>
       <c r="K27" s="188"/>
       <c r="L27" s="193"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="210"/>
-      <c r="B28" s="211"/>
-      <c r="C28" s="211"/>
-      <c r="D28" s="211"/>
-      <c r="E28" s="211"/>
-      <c r="F28" s="211"/>
-      <c r="G28" s="211"/>
-      <c r="H28" s="212"/>
+      <c r="A28" s="220"/>
+      <c r="B28" s="221"/>
+      <c r="C28" s="221"/>
+      <c r="D28" s="221"/>
+      <c r="E28" s="221"/>
+      <c r="F28" s="221"/>
+      <c r="G28" s="221"/>
+      <c r="H28" s="222"/>
       <c r="I28" s="192"/>
       <c r="J28" s="188"/>
       <c r="K28" s="188"/>
       <c r="L28" s="193"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="210"/>
-      <c r="B29" s="211"/>
-      <c r="C29" s="211"/>
-      <c r="D29" s="211"/>
-      <c r="E29" s="211"/>
-      <c r="F29" s="211"/>
-      <c r="G29" s="211"/>
-      <c r="H29" s="212"/>
+      <c r="A29" s="220"/>
+      <c r="B29" s="221"/>
+      <c r="C29" s="221"/>
+      <c r="D29" s="221"/>
+      <c r="E29" s="221"/>
+      <c r="F29" s="221"/>
+      <c r="G29" s="221"/>
+      <c r="H29" s="222"/>
       <c r="I29" s="192"/>
       <c r="J29" s="188"/>
       <c r="K29" s="188"/>
       <c r="L29" s="193"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="210"/>
-      <c r="B30" s="211"/>
-      <c r="C30" s="211"/>
-      <c r="D30" s="211"/>
-      <c r="E30" s="211"/>
-      <c r="F30" s="211"/>
-      <c r="G30" s="211"/>
-      <c r="H30" s="212"/>
+      <c r="A30" s="220"/>
+      <c r="B30" s="221"/>
+      <c r="C30" s="221"/>
+      <c r="D30" s="221"/>
+      <c r="E30" s="221"/>
+      <c r="F30" s="221"/>
+      <c r="G30" s="221"/>
+      <c r="H30" s="222"/>
       <c r="I30" s="192"/>
       <c r="J30" s="188"/>
       <c r="K30" s="188"/>
       <c r="L30" s="193"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="210"/>
-      <c r="B31" s="211"/>
-      <c r="C31" s="211"/>
-      <c r="D31" s="211"/>
-      <c r="E31" s="211"/>
-      <c r="F31" s="211"/>
-      <c r="G31" s="211"/>
-      <c r="H31" s="212"/>
+      <c r="A31" s="220"/>
+      <c r="B31" s="221"/>
+      <c r="C31" s="221"/>
+      <c r="D31" s="221"/>
+      <c r="E31" s="221"/>
+      <c r="F31" s="221"/>
+      <c r="G31" s="221"/>
+      <c r="H31" s="222"/>
       <c r="I31" s="192"/>
       <c r="J31" s="188"/>
       <c r="K31" s="188"/>
       <c r="L31" s="193"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="210"/>
-      <c r="B32" s="211"/>
-      <c r="C32" s="211"/>
-      <c r="D32" s="211"/>
-      <c r="E32" s="211"/>
-      <c r="F32" s="211"/>
-      <c r="G32" s="211"/>
-      <c r="H32" s="212"/>
+      <c r="A32" s="220"/>
+      <c r="B32" s="221"/>
+      <c r="C32" s="221"/>
+      <c r="D32" s="221"/>
+      <c r="E32" s="221"/>
+      <c r="F32" s="221"/>
+      <c r="G32" s="221"/>
+      <c r="H32" s="222"/>
       <c r="I32" s="192"/>
       <c r="J32" s="188"/>
       <c r="K32" s="188"/>
       <c r="L32" s="193"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="210"/>
-      <c r="B33" s="211"/>
-      <c r="C33" s="211"/>
-      <c r="D33" s="211"/>
-      <c r="E33" s="211"/>
-      <c r="F33" s="211"/>
-      <c r="G33" s="211"/>
-      <c r="H33" s="212"/>
+      <c r="A33" s="220"/>
+      <c r="B33" s="221"/>
+      <c r="C33" s="221"/>
+      <c r="D33" s="221"/>
+      <c r="E33" s="221"/>
+      <c r="F33" s="221"/>
+      <c r="G33" s="221"/>
+      <c r="H33" s="222"/>
       <c r="I33" s="192"/>
       <c r="J33" s="188"/>
       <c r="K33" s="188"/>
       <c r="L33" s="193"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="213"/>
-      <c r="B34" s="214"/>
-      <c r="C34" s="214"/>
-      <c r="D34" s="214"/>
-      <c r="E34" s="214"/>
-      <c r="F34" s="214"/>
-      <c r="G34" s="214"/>
-      <c r="H34" s="215"/>
+      <c r="A34" s="223"/>
+      <c r="B34" s="224"/>
+      <c r="C34" s="224"/>
+      <c r="D34" s="224"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="224"/>
+      <c r="G34" s="224"/>
+      <c r="H34" s="225"/>
       <c r="I34" s="194"/>
       <c r="J34" s="195"/>
       <c r="K34" s="195"/>
@@ -3378,11 +3646,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H5:I5"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A26:H34"/>
     <mergeCell ref="A6:B6"/>
@@ -3395,6 +3658,11 @@
     <mergeCell ref="F17:L17"/>
     <mergeCell ref="F18:L24"/>
     <mergeCell ref="J14:K15"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3425,45 +3693,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="247" t="s">
+      <c r="B1" s="251" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
       <c r="G1" s="66" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="66"/>
-      <c r="I1" s="248">
+      <c r="I1" s="252">
         <v>42491</v>
       </c>
-      <c r="J1" s="248"/>
+      <c r="J1" s="252"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
       <c r="G2" s="68" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="68"/>
-      <c r="I2" s="248">
+      <c r="I2" s="252">
         <v>42639</v>
       </c>
-      <c r="J2" s="248"/>
+      <c r="J2" s="252"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="246" t="s">
+      <c r="B3" s="250" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="246"/>
+      <c r="C3" s="250"/>
+      <c r="D3" s="250"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="250"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="65"/>
@@ -3600,46 +3868,48 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="249" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="249"/>
+      <c r="B1" s="253" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="253"/>
       <c r="D1" s="200"/>
       <c r="E1" s="200"/>
       <c r="F1" s="200"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
       <c r="D2" s="201"/>
       <c r="E2" s="201"/>
       <c r="F2" s="200"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="249"/>
-      <c r="C3" s="249"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
       <c r="E3" s="201"/>
       <c r="F3" s="201"/>
     </row>
     <row r="4" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="250" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="250"/>
+      <c r="B4" s="254" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="254"/>
     </row>
     <row r="5" spans="1:6" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="203" t="s">
@@ -3653,6 +3923,9 @@
       </c>
       <c r="D5" s="203" t="s">
         <v>3</v>
+      </c>
+      <c r="E5" s="203" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3660,212 +3933,422 @@
       <c r="B6" s="202"/>
       <c r="C6" s="202"/>
       <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="202"/>
       <c r="B7" s="202"/>
       <c r="C7" s="202"/>
       <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="202"/>
       <c r="B8" s="202"/>
       <c r="C8" s="202"/>
       <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="202"/>
       <c r="B9" s="202"/>
       <c r="C9" s="202"/>
       <c r="D9" s="202"/>
+      <c r="E9" s="202"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="202"/>
       <c r="B10" s="202"/>
       <c r="C10" s="202"/>
       <c r="D10" s="202"/>
+      <c r="E10" s="202"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="202"/>
       <c r="B11" s="202"/>
       <c r="C11" s="202"/>
       <c r="D11" s="202"/>
+      <c r="E11" s="202"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="202"/>
       <c r="B12" s="202"/>
       <c r="C12" s="202"/>
       <c r="D12" s="202"/>
+      <c r="E12" s="202"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="202"/>
       <c r="B13" s="202"/>
       <c r="C13" s="202"/>
       <c r="D13" s="202"/>
+      <c r="E13" s="202"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="202"/>
       <c r="B14" s="202"/>
       <c r="C14" s="202"/>
       <c r="D14" s="202"/>
+      <c r="E14" s="202"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="202"/>
       <c r="B15" s="202"/>
       <c r="C15" s="202"/>
       <c r="D15" s="202"/>
+      <c r="E15" s="202"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="202"/>
       <c r="B16" s="202"/>
       <c r="C16" s="202"/>
       <c r="D16" s="202"/>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="202"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="202"/>
       <c r="B17" s="202"/>
       <c r="C17" s="202"/>
       <c r="D17" s="202"/>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="202"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="202"/>
       <c r="B18" s="202"/>
       <c r="C18" s="202"/>
       <c r="D18" s="202"/>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="202"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="202"/>
       <c r="B19" s="202"/>
       <c r="C19" s="202"/>
       <c r="D19" s="202"/>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="202"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="202"/>
       <c r="B20" s="202"/>
       <c r="C20" s="202"/>
       <c r="D20" s="202"/>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="202"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="202"/>
       <c r="B21" s="202"/>
       <c r="C21" s="202"/>
       <c r="D21" s="202"/>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="202"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="202"/>
       <c r="B22" s="202"/>
       <c r="C22" s="202"/>
       <c r="D22" s="202"/>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="202"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="202"/>
       <c r="B23" s="202"/>
       <c r="C23" s="202"/>
       <c r="D23" s="202"/>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="202"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="202"/>
       <c r="B24" s="202"/>
       <c r="C24" s="202"/>
       <c r="D24" s="202"/>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="202"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="202"/>
       <c r="B25" s="202"/>
       <c r="C25" s="202"/>
       <c r="D25" s="202"/>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="202"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="202"/>
       <c r="B26" s="202"/>
       <c r="C26" s="202"/>
       <c r="D26" s="202"/>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="202"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="202"/>
       <c r="B27" s="202"/>
       <c r="C27" s="202"/>
       <c r="D27" s="202"/>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="202"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="202"/>
       <c r="B28" s="202"/>
       <c r="C28" s="202"/>
       <c r="D28" s="202"/>
-    </row>
-    <row r="29" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="202"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="202"/>
       <c r="B29" s="202"/>
       <c r="C29" s="202"/>
       <c r="D29" s="202"/>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="202"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="202"/>
       <c r="B30" s="202"/>
       <c r="C30" s="202"/>
       <c r="D30" s="202"/>
-    </row>
-    <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="202"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="202"/>
       <c r="B31" s="202"/>
       <c r="C31" s="202"/>
       <c r="D31" s="202"/>
-    </row>
-    <row r="32" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="202"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="202"/>
       <c r="B32" s="202"/>
       <c r="C32" s="202"/>
       <c r="D32" s="202"/>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="202"/>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="202"/>
       <c r="B33" s="202"/>
       <c r="C33" s="202"/>
       <c r="D33" s="202"/>
-    </row>
-    <row r="34" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="202"/>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="202"/>
       <c r="B34" s="202"/>
       <c r="C34" s="202"/>
       <c r="D34" s="202"/>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="202"/>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="202"/>
       <c r="B35" s="202"/>
       <c r="C35" s="202"/>
       <c r="D35" s="202"/>
-    </row>
-    <row r="36" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="202"/>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="202"/>
       <c r="B36" s="202"/>
       <c r="C36" s="202"/>
       <c r="D36" s="202"/>
-    </row>
-    <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="202"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="202"/>
       <c r="B37" s="202"/>
       <c r="C37" s="202"/>
       <c r="D37" s="202"/>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="202"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="202"/>
       <c r="B38" s="202"/>
       <c r="C38" s="202"/>
       <c r="D38" s="202"/>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="202"/>
-      <c r="B39" s="202"/>
-      <c r="C39" s="202"/>
-      <c r="D39" s="202"/>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="202"/>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="204"/>
+      <c r="B39" s="204"/>
+      <c r="C39" s="204"/>
+      <c r="D39" s="204"/>
+      <c r="E39" s="204"/>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="202"/>
       <c r="B40" s="202"/>
       <c r="C40" s="202"/>
       <c r="D40" s="202"/>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="E40" s="202"/>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="202"/>
+      <c r="B41" s="202"/>
+      <c r="C41" s="202"/>
+      <c r="D41" s="202"/>
+      <c r="E41" s="202"/>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="202"/>
+      <c r="B42" s="202"/>
+      <c r="C42" s="202"/>
+      <c r="D42" s="202"/>
+      <c r="E42" s="202"/>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="202"/>
+      <c r="B43" s="202"/>
+      <c r="C43" s="202"/>
+      <c r="D43" s="202"/>
+      <c r="E43" s="202"/>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="202"/>
+      <c r="B44" s="202"/>
+      <c r="C44" s="202"/>
+      <c r="D44" s="202"/>
+      <c r="E44" s="202"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="202"/>
+      <c r="B45" s="202"/>
+      <c r="C45" s="202"/>
+      <c r="D45" s="202"/>
+      <c r="E45" s="202"/>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="202"/>
+      <c r="B46" s="202"/>
+      <c r="C46" s="202"/>
+      <c r="D46" s="202"/>
+      <c r="E46" s="202"/>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="202"/>
+      <c r="B47" s="202"/>
+      <c r="C47" s="202"/>
+      <c r="D47" s="202"/>
+      <c r="E47" s="202"/>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="202"/>
+      <c r="B48" s="202"/>
+      <c r="C48" s="202"/>
+      <c r="D48" s="202"/>
+      <c r="E48" s="202"/>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="202"/>
+      <c r="B49" s="202"/>
+      <c r="C49" s="202"/>
+      <c r="D49" s="202"/>
+      <c r="E49" s="202"/>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="202"/>
+      <c r="B50" s="202"/>
+      <c r="C50" s="202"/>
+      <c r="D50" s="202"/>
+      <c r="E50" s="202"/>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="202"/>
+      <c r="B51" s="202"/>
+      <c r="C51" s="202"/>
+      <c r="D51" s="202"/>
+      <c r="E51" s="202"/>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="202"/>
+      <c r="B52" s="202"/>
+      <c r="C52" s="202"/>
+      <c r="D52" s="202"/>
+      <c r="E52" s="202"/>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="202"/>
+      <c r="B53" s="202"/>
+      <c r="C53" s="202"/>
+      <c r="D53" s="202"/>
+      <c r="E53" s="202"/>
+    </row>
+    <row r="54" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="202"/>
+      <c r="B54" s="202"/>
+      <c r="C54" s="202"/>
+      <c r="D54" s="202"/>
+      <c r="E54" s="202"/>
+    </row>
+    <row r="55" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="202"/>
+      <c r="B55" s="202"/>
+      <c r="C55" s="202"/>
+      <c r="D55" s="202"/>
+      <c r="E55" s="202"/>
+    </row>
+    <row r="56" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="202"/>
+      <c r="B56" s="202"/>
+      <c r="C56" s="202"/>
+      <c r="D56" s="202"/>
+      <c r="E56" s="202"/>
+    </row>
+    <row r="57" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="202"/>
+      <c r="B57" s="202"/>
+      <c r="C57" s="202"/>
+      <c r="D57" s="202"/>
+      <c r="E57" s="202"/>
+    </row>
+    <row r="58" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="202"/>
+      <c r="B58" s="202"/>
+      <c r="C58" s="202"/>
+      <c r="D58" s="202"/>
+      <c r="E58" s="202"/>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="202"/>
+      <c r="B59" s="202"/>
+      <c r="C59" s="202"/>
+      <c r="D59" s="202"/>
+      <c r="E59" s="202"/>
+    </row>
+    <row r="60" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="202"/>
+      <c r="B60" s="202"/>
+      <c r="C60" s="202"/>
+      <c r="D60" s="202"/>
+      <c r="E60" s="202"/>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="202"/>
+      <c r="B61" s="202"/>
+      <c r="C61" s="202"/>
+      <c r="D61" s="202"/>
+      <c r="E61" s="202"/>
+    </row>
+    <row r="62" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="202"/>
+      <c r="B62" s="202"/>
+      <c r="C62" s="202"/>
+      <c r="D62" s="202"/>
+      <c r="E62" s="202"/>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="202"/>
+      <c r="B63" s="202"/>
+      <c r="C63" s="202"/>
+      <c r="D63" s="202"/>
+      <c r="E63" s="202"/>
+    </row>
+    <row r="64" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="202"/>
+      <c r="B64" s="202"/>
+      <c r="C64" s="202"/>
+      <c r="D64" s="202"/>
+      <c r="E64" s="202"/>
+    </row>
+    <row r="65" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="202"/>
+      <c r="B65" s="202"/>
+      <c r="C65" s="202"/>
+      <c r="D65" s="202"/>
+      <c r="E65" s="202"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C3"/>
@@ -3878,6 +4361,935 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="255" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="200"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="201"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="201"/>
+    </row>
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="255"/>
+      <c r="C4" s="255"/>
+      <c r="D4" s="255"/>
+      <c r="E4" s="255"/>
+      <c r="F4" s="201"/>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="256" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="256"/>
+      <c r="D5" s="256"/>
+      <c r="E5" s="256"/>
+    </row>
+    <row r="6" spans="1:6" ht="43.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="205" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="206" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="205" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="205" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="205" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="205" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="202"/>
+      <c r="B7" s="202"/>
+      <c r="C7" s="202"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="202"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="202"/>
+      <c r="B9" s="202"/>
+      <c r="C9" s="202"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="202"/>
+      <c r="F9" s="202"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="202"/>
+      <c r="B10" s="202"/>
+      <c r="C10" s="202"/>
+      <c r="D10" s="202"/>
+      <c r="E10" s="202"/>
+      <c r="F10" s="202"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="202"/>
+      <c r="B11" s="202"/>
+      <c r="C11" s="202"/>
+      <c r="D11" s="202"/>
+      <c r="E11" s="202"/>
+      <c r="F11" s="202"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="202"/>
+      <c r="B12" s="202"/>
+      <c r="C12" s="202"/>
+      <c r="D12" s="202"/>
+      <c r="E12" s="202"/>
+      <c r="F12" s="202"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="202"/>
+      <c r="B13" s="202"/>
+      <c r="C13" s="202"/>
+      <c r="D13" s="202"/>
+      <c r="E13" s="202"/>
+      <c r="F13" s="202"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="202"/>
+      <c r="B14" s="202"/>
+      <c r="C14" s="202"/>
+      <c r="D14" s="202"/>
+      <c r="E14" s="202"/>
+      <c r="F14" s="202"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="202"/>
+      <c r="B15" s="202"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="202"/>
+      <c r="F15" s="202"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="202"/>
+      <c r="B16" s="202"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="202"/>
+      <c r="E16" s="202"/>
+      <c r="F16" s="202"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="202"/>
+      <c r="B17" s="202"/>
+      <c r="C17" s="202"/>
+      <c r="D17" s="202"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="202"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="202"/>
+      <c r="B18" s="202"/>
+      <c r="C18" s="202"/>
+      <c r="D18" s="202"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="202"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="202"/>
+      <c r="B19" s="202"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="202"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="202"/>
+      <c r="B20" s="202"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="202"/>
+      <c r="F20" s="202"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="202"/>
+      <c r="B21" s="202"/>
+      <c r="C21" s="202"/>
+      <c r="D21" s="202"/>
+      <c r="E21" s="202"/>
+      <c r="F21" s="202"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="202"/>
+      <c r="B22" s="202"/>
+      <c r="C22" s="202"/>
+      <c r="D22" s="202"/>
+      <c r="E22" s="202"/>
+      <c r="F22" s="202"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="202"/>
+      <c r="B23" s="202"/>
+      <c r="C23" s="202"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="202"/>
+      <c r="F23" s="202"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="202"/>
+      <c r="B24" s="202"/>
+      <c r="C24" s="202"/>
+      <c r="D24" s="202"/>
+      <c r="E24" s="202"/>
+      <c r="F24" s="202"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="202"/>
+      <c r="B25" s="202"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="202"/>
+      <c r="E25" s="202"/>
+      <c r="F25" s="202"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="202"/>
+      <c r="B26" s="202"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="202"/>
+      <c r="E26" s="202"/>
+      <c r="F26" s="202"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="202"/>
+      <c r="B27" s="202"/>
+      <c r="C27" s="202"/>
+      <c r="D27" s="202"/>
+      <c r="E27" s="202"/>
+      <c r="F27" s="202"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="202"/>
+      <c r="B28" s="202"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="202"/>
+      <c r="E28" s="202"/>
+      <c r="F28" s="202"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="202"/>
+      <c r="B29" s="202"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="202"/>
+      <c r="F29" s="202"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="202"/>
+      <c r="B30" s="202"/>
+      <c r="C30" s="202"/>
+      <c r="D30" s="202"/>
+      <c r="E30" s="202"/>
+      <c r="F30" s="202"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="202"/>
+      <c r="B31" s="202"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="202"/>
+      <c r="E31" s="202"/>
+      <c r="F31" s="202"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="202"/>
+      <c r="B32" s="202"/>
+      <c r="C32" s="202"/>
+      <c r="D32" s="202"/>
+      <c r="E32" s="202"/>
+      <c r="F32" s="202"/>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="202"/>
+      <c r="B33" s="202"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="202"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="202"/>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="202"/>
+      <c r="B34" s="202"/>
+      <c r="C34" s="202"/>
+      <c r="D34" s="202"/>
+      <c r="E34" s="202"/>
+      <c r="F34" s="202"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="202"/>
+      <c r="B35" s="202"/>
+      <c r="C35" s="202"/>
+      <c r="D35" s="202"/>
+      <c r="E35" s="202"/>
+      <c r="F35" s="202"/>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="202"/>
+      <c r="B36" s="202"/>
+      <c r="C36" s="202"/>
+      <c r="D36" s="202"/>
+      <c r="E36" s="202"/>
+      <c r="F36" s="202"/>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="202"/>
+      <c r="B37" s="202"/>
+      <c r="C37" s="202"/>
+      <c r="D37" s="202"/>
+      <c r="E37" s="202"/>
+      <c r="F37" s="202"/>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="202"/>
+      <c r="B38" s="202"/>
+      <c r="C38" s="202"/>
+      <c r="D38" s="202"/>
+      <c r="E38" s="202"/>
+      <c r="F38" s="202"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="202"/>
+      <c r="B39" s="202"/>
+      <c r="C39" s="202"/>
+      <c r="D39" s="202"/>
+      <c r="E39" s="202"/>
+      <c r="F39" s="202"/>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="204"/>
+      <c r="B40" s="204"/>
+      <c r="C40" s="204"/>
+      <c r="D40" s="204"/>
+      <c r="E40" s="204"/>
+      <c r="F40" s="204"/>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="202"/>
+      <c r="B41" s="202"/>
+      <c r="C41" s="202"/>
+      <c r="D41" s="202"/>
+      <c r="E41" s="202"/>
+      <c r="F41" s="202"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="202"/>
+      <c r="B42" s="202"/>
+      <c r="C42" s="202"/>
+      <c r="D42" s="202"/>
+      <c r="E42" s="202"/>
+      <c r="F42" s="202"/>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="202"/>
+      <c r="B43" s="202"/>
+      <c r="C43" s="202"/>
+      <c r="D43" s="202"/>
+      <c r="E43" s="202"/>
+      <c r="F43" s="202"/>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="202"/>
+      <c r="B44" s="202"/>
+      <c r="C44" s="202"/>
+      <c r="D44" s="202"/>
+      <c r="E44" s="202"/>
+      <c r="F44" s="202"/>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="202"/>
+      <c r="B45" s="202"/>
+      <c r="C45" s="202"/>
+      <c r="D45" s="202"/>
+      <c r="E45" s="202"/>
+      <c r="F45" s="202"/>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="202"/>
+      <c r="B46" s="202"/>
+      <c r="C46" s="202"/>
+      <c r="D46" s="202"/>
+      <c r="E46" s="202"/>
+      <c r="F46" s="202"/>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="202"/>
+      <c r="B47" s="202"/>
+      <c r="C47" s="202"/>
+      <c r="D47" s="202"/>
+      <c r="E47" s="202"/>
+      <c r="F47" s="202"/>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="202"/>
+      <c r="B48" s="202"/>
+      <c r="C48" s="202"/>
+      <c r="D48" s="202"/>
+      <c r="E48" s="202"/>
+      <c r="F48" s="202"/>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="202"/>
+      <c r="B49" s="202"/>
+      <c r="C49" s="202"/>
+      <c r="D49" s="202"/>
+      <c r="E49" s="202"/>
+      <c r="F49" s="202"/>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="202"/>
+      <c r="B50" s="202"/>
+      <c r="C50" s="202"/>
+      <c r="D50" s="202"/>
+      <c r="E50" s="202"/>
+      <c r="F50" s="202"/>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="202"/>
+      <c r="B51" s="202"/>
+      <c r="C51" s="202"/>
+      <c r="D51" s="202"/>
+      <c r="E51" s="202"/>
+      <c r="F51" s="202"/>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="202"/>
+      <c r="B52" s="202"/>
+      <c r="C52" s="202"/>
+      <c r="D52" s="202"/>
+      <c r="E52" s="202"/>
+      <c r="F52" s="202"/>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="202"/>
+      <c r="B53" s="202"/>
+      <c r="C53" s="202"/>
+      <c r="D53" s="202"/>
+      <c r="E53" s="202"/>
+      <c r="F53" s="202"/>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="202"/>
+      <c r="B54" s="202"/>
+      <c r="C54" s="202"/>
+      <c r="D54" s="202"/>
+      <c r="E54" s="202"/>
+      <c r="F54" s="202"/>
+    </row>
+    <row r="55" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="202"/>
+      <c r="B55" s="202"/>
+      <c r="C55" s="202"/>
+      <c r="D55" s="202"/>
+      <c r="E55" s="202"/>
+      <c r="F55" s="202"/>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="202"/>
+      <c r="B56" s="202"/>
+      <c r="C56" s="202"/>
+      <c r="D56" s="202"/>
+      <c r="E56" s="202"/>
+      <c r="F56" s="202"/>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="202"/>
+      <c r="B57" s="202"/>
+      <c r="C57" s="202"/>
+      <c r="D57" s="202"/>
+      <c r="E57" s="202"/>
+      <c r="F57" s="202"/>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="202"/>
+      <c r="B58" s="202"/>
+      <c r="C58" s="202"/>
+      <c r="D58" s="202"/>
+      <c r="E58" s="202"/>
+      <c r="F58" s="202"/>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="202"/>
+      <c r="B59" s="202"/>
+      <c r="C59" s="202"/>
+      <c r="D59" s="202"/>
+      <c r="E59" s="202"/>
+      <c r="F59" s="202"/>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="202"/>
+      <c r="B60" s="202"/>
+      <c r="C60" s="202"/>
+      <c r="D60" s="202"/>
+      <c r="E60" s="202"/>
+      <c r="F60" s="202"/>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="202"/>
+      <c r="B61" s="202"/>
+      <c r="C61" s="202"/>
+      <c r="D61" s="202"/>
+      <c r="E61" s="202"/>
+      <c r="F61" s="202"/>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="202"/>
+      <c r="B62" s="202"/>
+      <c r="C62" s="202"/>
+      <c r="D62" s="202"/>
+      <c r="E62" s="202"/>
+      <c r="F62" s="202"/>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="202"/>
+      <c r="B63" s="202"/>
+      <c r="C63" s="202"/>
+      <c r="D63" s="202"/>
+      <c r="E63" s="202"/>
+      <c r="F63" s="202"/>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="202"/>
+      <c r="B64" s="202"/>
+      <c r="C64" s="202"/>
+      <c r="D64" s="202"/>
+      <c r="E64" s="202"/>
+      <c r="F64" s="202"/>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="202"/>
+      <c r="B65" s="202"/>
+      <c r="C65" s="202"/>
+      <c r="D65" s="202"/>
+      <c r="E65" s="202"/>
+      <c r="F65" s="202"/>
+    </row>
+    <row r="66" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="202"/>
+      <c r="B66" s="202"/>
+      <c r="C66" s="202"/>
+      <c r="D66" s="202"/>
+      <c r="E66" s="202"/>
+      <c r="F66" s="202"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E4"/>
+    <mergeCell ref="B5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="255" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="255"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+    </row>
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="207"/>
+      <c r="C4" s="207"/>
+    </row>
+    <row r="5" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="254" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="254"/>
+    </row>
+    <row r="6" spans="1:3" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="205" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="205" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="309" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="202"/>
+      <c r="B7" s="202"/>
+      <c r="C7" s="202"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="202"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="202"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="202"/>
+      <c r="B9" s="202"/>
+      <c r="C9" s="202"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="202"/>
+      <c r="B10" s="202"/>
+      <c r="C10" s="202"/>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="202"/>
+      <c r="B11" s="202"/>
+      <c r="C11" s="202"/>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="202"/>
+      <c r="B12" s="202"/>
+      <c r="C12" s="202"/>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="202"/>
+      <c r="B13" s="202"/>
+      <c r="C13" s="202"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="202"/>
+      <c r="B14" s="202"/>
+      <c r="C14" s="202"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="202"/>
+      <c r="B15" s="202"/>
+      <c r="C15" s="202"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="202"/>
+      <c r="B16" s="202"/>
+      <c r="C16" s="202"/>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="202"/>
+      <c r="B17" s="202"/>
+      <c r="C17" s="202"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="202"/>
+      <c r="B18" s="202"/>
+      <c r="C18" s="202"/>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="202"/>
+      <c r="B19" s="202"/>
+      <c r="C19" s="202"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="308"/>
+      <c r="B20" s="308"/>
+      <c r="C20" s="308"/>
+      <c r="D20" s="307"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="110"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="110"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="110"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="110"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="110"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="110"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="110"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="110"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="110"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="110"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="110"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="110"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="110"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="110"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="110"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="110"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="110"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="110"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="110"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="110"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="110"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="110"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="110"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="110"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="110"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="110"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="110"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="110"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="110"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="110"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="110"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="110"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="110"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="110"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="110"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="110"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="110"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="110"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="110"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="110"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="110"/>
+      <c r="B46" s="110"/>
+      <c r="C46" s="110"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="110"/>
+      <c r="B47" s="110"/>
+      <c r="C47" s="110"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="110"/>
+      <c r="B48" s="110"/>
+      <c r="C48" s="110"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="110"/>
+      <c r="B49" s="110"/>
+      <c r="C49" s="110"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="110"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="110"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="110"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="110"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="110"/>
+      <c r="B52" s="110"/>
+      <c r="C52" s="110"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="110"/>
+      <c r="B53" s="110"/>
+      <c r="C53" s="110"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="110"/>
+      <c r="B54" s="110"/>
+      <c r="C54" s="110"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="110"/>
+      <c r="B55" s="110"/>
+      <c r="C55" s="110"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="110"/>
+      <c r="B56" s="110"/>
+      <c r="C56" s="110"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="110"/>
+      <c r="B57" s="110"/>
+      <c r="C57" s="110"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="110"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="110"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="110"/>
+      <c r="B59" s="110"/>
+      <c r="C59" s="110"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="110"/>
+      <c r="B60" s="110"/>
+      <c r="C60" s="110"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="110"/>
+      <c r="B61" s="110"/>
+      <c r="C61" s="110"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="110"/>
+      <c r="B62" s="110"/>
+      <c r="C62" s="110"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="110"/>
+      <c r="B63" s="110"/>
+      <c r="C63" s="110"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="110"/>
+      <c r="B64" s="110"/>
+      <c r="C64" s="110"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="110"/>
+      <c r="B65" s="110"/>
+      <c r="C65" s="110"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="110"/>
+      <c r="B66" s="110"/>
+      <c r="C66" s="110"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -3900,52 +5312,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="261" t="s">
+      <c r="A1" s="276" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="251" t="s">
+      <c r="B1" s="267" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="253"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="269"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="262"/>
-      <c r="B2" s="254" t="s">
+      <c r="A2" s="277"/>
+      <c r="B2" s="270" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="267" t="s">
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="272"/>
+      <c r="G2" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="269" t="s">
+      <c r="H2" s="263" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="270"/>
+      <c r="I2" s="264"/>
       <c r="J2" s="19">
         <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="263"/>
-      <c r="B3" s="257"/>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="259"/>
-      <c r="G3" s="268"/>
-      <c r="H3" s="269" t="s">
+      <c r="A3" s="278"/>
+      <c r="B3" s="273"/>
+      <c r="C3" s="274"/>
+      <c r="D3" s="274"/>
+      <c r="E3" s="274"/>
+      <c r="F3" s="275"/>
+      <c r="G3" s="260"/>
+      <c r="H3" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="270"/>
+      <c r="I3" s="264"/>
       <c r="J3" s="20">
         <v>10</v>
       </c>
@@ -3972,10 +5384,10 @@
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="271" t="s">
+      <c r="H4" s="265" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="272"/>
+      <c r="I4" s="266"/>
       <c r="J4" s="23">
         <v>8.5</v>
       </c>
@@ -3988,10 +5400,10 @@
       <c r="E5" s="24"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="260" t="s">
+      <c r="H5" s="261" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="264"/>
+      <c r="I5" s="262"/>
       <c r="J5" s="27">
         <f>SUM(G5:G100)</f>
         <v>0</v>
@@ -4005,10 +5417,10 @@
       <c r="E6" s="24"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="260" t="s">
+      <c r="H6" s="261" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="264"/>
+      <c r="I6" s="262"/>
       <c r="J6" s="28">
         <f>J5*0.05</f>
         <v>0</v>
@@ -4022,10 +5434,10 @@
       <c r="E7" s="24"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="260" t="s">
+      <c r="H7" s="261" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="264"/>
+      <c r="I7" s="262"/>
       <c r="J7" s="28">
         <v>110</v>
       </c>
@@ -4038,10 +5450,10 @@
       <c r="E8" s="24"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="260" t="s">
+      <c r="H8" s="261" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="264"/>
+      <c r="I8" s="262"/>
       <c r="J8" s="29">
         <v>150</v>
       </c>
@@ -4054,10 +5466,10 @@
       <c r="E9" s="24"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="260" t="s">
+      <c r="H9" s="261" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="260"/>
+      <c r="I9" s="261"/>
       <c r="J9" s="30">
         <f>(PRECIO_VENTA*LITROS_A_ELABORAR)</f>
         <v>1500</v>
@@ -4071,10 +5483,10 @@
       <c r="E10" s="24"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="260" t="s">
+      <c r="H10" s="261" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="260"/>
+      <c r="I10" s="261"/>
       <c r="J10" s="31">
         <f>J9-COSTO_TOTAL_MATERIA_PRIMA</f>
         <v>1500</v>
@@ -4088,10 +5500,10 @@
       <c r="E11" s="24"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="265" t="s">
+      <c r="H11" s="257" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="266"/>
+      <c r="I11" s="258"/>
       <c r="J11" s="32">
         <v>0.27</v>
       </c>
@@ -4104,10 +5516,10 @@
       <c r="E12" s="24"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="265" t="s">
+      <c r="H12" s="257" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="266"/>
+      <c r="I12" s="258"/>
       <c r="J12" s="32">
         <f>((J5+COSTO_PREPARACION)/J9-1)*(-1)</f>
         <v>0.92666666666666664</v>
@@ -4179,6 +5591,13 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="15">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H5:I5"/>
@@ -4187,13 +5606,6 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="J12">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
@@ -4208,7 +5620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
@@ -4247,22 +5659,22 @@
       <c r="N1" s="81"/>
       <c r="O1" s="81"/>
       <c r="P1" s="81"/>
-      <c r="Q1" s="273" t="s">
+      <c r="Q1" s="279" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="274"/>
-      <c r="S1" s="273" t="s">
+      <c r="R1" s="280"/>
+      <c r="S1" s="279" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="274"/>
-      <c r="U1" s="273" t="s">
+      <c r="T1" s="280"/>
+      <c r="U1" s="279" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="274"/>
-      <c r="W1" s="273" t="s">
+      <c r="V1" s="280"/>
+      <c r="W1" s="279" t="s">
         <v>63</v>
       </c>
-      <c r="X1" s="274"/>
+      <c r="X1" s="280"/>
       <c r="Y1" s="81"/>
       <c r="Z1" s="81"/>
       <c r="AA1" s="81"/>
@@ -4958,7 +6370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
@@ -4978,36 +6390,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="281"/>
-      <c r="B1" s="281"/>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="281"/>
-      <c r="L1" s="281"/>
-      <c r="M1" s="281"/>
-      <c r="N1" s="281"/>
+      <c r="A1" s="306"/>
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
+      <c r="N1" s="306"/>
     </row>
     <row r="2" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="281"/>
-      <c r="B2" s="281"/>
-      <c r="C2" s="281"/>
-      <c r="D2" s="281"/>
-      <c r="E2" s="281"/>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="281"/>
-      <c r="K2" s="281"/>
-      <c r="L2" s="281"/>
-      <c r="M2" s="281"/>
-      <c r="N2" s="281"/>
+      <c r="A2" s="306"/>
+      <c r="B2" s="306"/>
+      <c r="C2" s="306"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="306"/>
+      <c r="F2" s="306"/>
+      <c r="G2" s="306"/>
+      <c r="H2" s="306"/>
+      <c r="I2" s="306"/>
+      <c r="J2" s="306"/>
+      <c r="K2" s="306"/>
+      <c r="L2" s="306"/>
+      <c r="M2" s="306"/>
+      <c r="N2" s="306"/>
     </row>
     <row r="3" spans="1:16" s="133" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="134"/>
@@ -5029,8 +6441,8 @@
       <c r="A4" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="275"/>
-      <c r="C4" s="275"/>
+      <c r="B4" s="300"/>
+      <c r="C4" s="300"/>
       <c r="D4" s="96"/>
       <c r="E4" s="96"/>
       <c r="F4" s="140" t="s">
@@ -5039,11 +6451,11 @@
       <c r="G4" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="294" t="s">
+      <c r="H4" s="293" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="294"/>
-      <c r="J4" s="294"/>
+      <c r="I4" s="293"/>
+      <c r="J4" s="293"/>
       <c r="K4" s="141" t="s">
         <v>83</v>
       </c>
@@ -5059,7 +6471,7 @@
       <c r="P4" s="110"/>
     </row>
     <row r="5" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="276" t="s">
+      <c r="A5" s="301" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="97"/>
@@ -5070,8 +6482,8 @@
       <c r="E5" s="98"/>
       <c r="F5" s="99"/>
       <c r="G5" s="100"/>
-      <c r="H5" s="295"/>
-      <c r="I5" s="296"/>
+      <c r="H5" s="294"/>
+      <c r="I5" s="295"/>
       <c r="J5" s="101"/>
       <c r="K5" s="100"/>
       <c r="L5" s="102"/>
@@ -5079,7 +6491,7 @@
       <c r="N5" s="104"/>
     </row>
     <row r="6" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="277"/>
+      <c r="A6" s="302"/>
       <c r="B6" s="107"/>
       <c r="C6" s="109" t="s">
         <v>88</v>
@@ -5092,17 +6504,17 @@
       <c r="G6" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="297" t="s">
+      <c r="H6" s="296" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="298"/>
-      <c r="J6" s="298"/>
-      <c r="K6" s="298"/>
-      <c r="L6" s="299"/>
-      <c r="M6" s="278" t="s">
+      <c r="I6" s="297"/>
+      <c r="J6" s="297"/>
+      <c r="K6" s="297"/>
+      <c r="L6" s="298"/>
+      <c r="M6" s="303" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="279"/>
+      <c r="N6" s="304"/>
     </row>
     <row r="7" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="136" t="s">
@@ -5120,13 +6532,13 @@
       <c r="E7" s="112"/>
       <c r="F7" s="121"/>
       <c r="G7" s="105"/>
-      <c r="H7" s="295"/>
-      <c r="I7" s="296"/>
-      <c r="J7" s="296"/>
-      <c r="K7" s="296"/>
-      <c r="L7" s="300"/>
-      <c r="M7" s="280"/>
-      <c r="N7" s="280"/>
+      <c r="H7" s="294"/>
+      <c r="I7" s="295"/>
+      <c r="J7" s="295"/>
+      <c r="K7" s="295"/>
+      <c r="L7" s="299"/>
+      <c r="M7" s="305"/>
+      <c r="N7" s="305"/>
     </row>
     <row r="8" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="122"/>
@@ -5150,19 +6562,19 @@
       <c r="C9" s="126"/>
       <c r="D9" s="127"/>
       <c r="E9" s="113"/>
-      <c r="F9" s="291" t="s">
+      <c r="F9" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="292"/>
-      <c r="J9" s="292"/>
-      <c r="K9" s="293"/>
-      <c r="L9" s="291" t="s">
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="291"/>
+      <c r="J9" s="291"/>
+      <c r="K9" s="292"/>
+      <c r="L9" s="290" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="292"/>
-      <c r="N9" s="293"/>
+      <c r="M9" s="291"/>
+      <c r="N9" s="292"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="124"/>
@@ -5170,15 +6582,15 @@
       <c r="C10" s="128"/>
       <c r="D10" s="129"/>
       <c r="E10" s="113"/>
-      <c r="F10" s="282"/>
-      <c r="G10" s="283"/>
-      <c r="H10" s="283"/>
-      <c r="I10" s="283"/>
-      <c r="J10" s="283"/>
-      <c r="K10" s="284"/>
-      <c r="L10" s="282"/>
-      <c r="M10" s="283"/>
-      <c r="N10" s="284"/>
+      <c r="F10" s="281"/>
+      <c r="G10" s="282"/>
+      <c r="H10" s="282"/>
+      <c r="I10" s="282"/>
+      <c r="J10" s="282"/>
+      <c r="K10" s="283"/>
+      <c r="L10" s="281"/>
+      <c r="M10" s="282"/>
+      <c r="N10" s="283"/>
     </row>
     <row r="11" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="124"/>
@@ -5186,15 +6598,15 @@
       <c r="C11" s="128"/>
       <c r="D11" s="129"/>
       <c r="E11" s="113"/>
-      <c r="F11" s="285"/>
-      <c r="G11" s="286"/>
-      <c r="H11" s="286"/>
-      <c r="I11" s="286"/>
-      <c r="J11" s="286"/>
-      <c r="K11" s="287"/>
-      <c r="L11" s="285"/>
-      <c r="M11" s="286"/>
-      <c r="N11" s="287"/>
+      <c r="F11" s="284"/>
+      <c r="G11" s="285"/>
+      <c r="H11" s="285"/>
+      <c r="I11" s="285"/>
+      <c r="J11" s="285"/>
+      <c r="K11" s="286"/>
+      <c r="L11" s="284"/>
+      <c r="M11" s="285"/>
+      <c r="N11" s="286"/>
     </row>
     <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="124"/>
@@ -5202,15 +6614,15 @@
       <c r="C12" s="128"/>
       <c r="D12" s="129"/>
       <c r="E12" s="113"/>
-      <c r="F12" s="285"/>
-      <c r="G12" s="286"/>
-      <c r="H12" s="286"/>
-      <c r="I12" s="286"/>
-      <c r="J12" s="286"/>
-      <c r="K12" s="287"/>
-      <c r="L12" s="285"/>
-      <c r="M12" s="286"/>
-      <c r="N12" s="287"/>
+      <c r="F12" s="284"/>
+      <c r="G12" s="285"/>
+      <c r="H12" s="285"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
+      <c r="K12" s="286"/>
+      <c r="L12" s="284"/>
+      <c r="M12" s="285"/>
+      <c r="N12" s="286"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="124"/>
@@ -5218,15 +6630,15 @@
       <c r="C13" s="126"/>
       <c r="D13" s="127"/>
       <c r="E13" s="113"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="287"/>
-      <c r="L13" s="285"/>
-      <c r="M13" s="286"/>
-      <c r="N13" s="287"/>
+      <c r="F13" s="284"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="286"/>
+      <c r="L13" s="284"/>
+      <c r="M13" s="285"/>
+      <c r="N13" s="286"/>
     </row>
     <row r="14" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="124"/>
@@ -5234,15 +6646,15 @@
       <c r="C14" s="126"/>
       <c r="D14" s="127"/>
       <c r="E14" s="113"/>
-      <c r="F14" s="285"/>
-      <c r="G14" s="286"/>
-      <c r="H14" s="286"/>
-      <c r="I14" s="286"/>
-      <c r="J14" s="286"/>
-      <c r="K14" s="287"/>
-      <c r="L14" s="285"/>
-      <c r="M14" s="286"/>
-      <c r="N14" s="287"/>
+      <c r="F14" s="284"/>
+      <c r="G14" s="285"/>
+      <c r="H14" s="285"/>
+      <c r="I14" s="285"/>
+      <c r="J14" s="285"/>
+      <c r="K14" s="286"/>
+      <c r="L14" s="284"/>
+      <c r="M14" s="285"/>
+      <c r="N14" s="286"/>
     </row>
     <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="124"/>
@@ -5250,15 +6662,15 @@
       <c r="C15" s="126"/>
       <c r="D15" s="127"/>
       <c r="E15" s="113"/>
-      <c r="F15" s="285"/>
-      <c r="G15" s="286"/>
-      <c r="H15" s="286"/>
-      <c r="I15" s="286"/>
-      <c r="J15" s="286"/>
-      <c r="K15" s="287"/>
-      <c r="L15" s="285"/>
-      <c r="M15" s="286"/>
-      <c r="N15" s="287"/>
+      <c r="F15" s="284"/>
+      <c r="G15" s="285"/>
+      <c r="H15" s="285"/>
+      <c r="I15" s="285"/>
+      <c r="J15" s="285"/>
+      <c r="K15" s="286"/>
+      <c r="L15" s="284"/>
+      <c r="M15" s="285"/>
+      <c r="N15" s="286"/>
     </row>
     <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="124"/>
@@ -5266,15 +6678,15 @@
       <c r="C16" s="126"/>
       <c r="D16" s="127"/>
       <c r="E16" s="113"/>
-      <c r="F16" s="285"/>
-      <c r="G16" s="286"/>
-      <c r="H16" s="286"/>
-      <c r="I16" s="286"/>
-      <c r="J16" s="286"/>
-      <c r="K16" s="287"/>
-      <c r="L16" s="285"/>
-      <c r="M16" s="286"/>
-      <c r="N16" s="287"/>
+      <c r="F16" s="284"/>
+      <c r="G16" s="285"/>
+      <c r="H16" s="285"/>
+      <c r="I16" s="285"/>
+      <c r="J16" s="285"/>
+      <c r="K16" s="286"/>
+      <c r="L16" s="284"/>
+      <c r="M16" s="285"/>
+      <c r="N16" s="286"/>
     </row>
     <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="124"/>
@@ -5282,15 +6694,15 @@
       <c r="C17" s="126"/>
       <c r="D17" s="127"/>
       <c r="E17" s="113"/>
-      <c r="F17" s="285"/>
-      <c r="G17" s="286"/>
-      <c r="H17" s="286"/>
-      <c r="I17" s="286"/>
-      <c r="J17" s="286"/>
-      <c r="K17" s="287"/>
-      <c r="L17" s="285"/>
-      <c r="M17" s="286"/>
-      <c r="N17" s="287"/>
+      <c r="F17" s="284"/>
+      <c r="G17" s="285"/>
+      <c r="H17" s="285"/>
+      <c r="I17" s="285"/>
+      <c r="J17" s="285"/>
+      <c r="K17" s="286"/>
+      <c r="L17" s="284"/>
+      <c r="M17" s="285"/>
+      <c r="N17" s="286"/>
     </row>
     <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="130"/>
@@ -5298,15 +6710,15 @@
       <c r="C18" s="126"/>
       <c r="D18" s="127"/>
       <c r="E18" s="113"/>
-      <c r="F18" s="285"/>
-      <c r="G18" s="286"/>
-      <c r="H18" s="286"/>
-      <c r="I18" s="286"/>
-      <c r="J18" s="286"/>
-      <c r="K18" s="287"/>
-      <c r="L18" s="285"/>
-      <c r="M18" s="286"/>
-      <c r="N18" s="287"/>
+      <c r="F18" s="284"/>
+      <c r="G18" s="285"/>
+      <c r="H18" s="285"/>
+      <c r="I18" s="285"/>
+      <c r="J18" s="285"/>
+      <c r="K18" s="286"/>
+      <c r="L18" s="284"/>
+      <c r="M18" s="285"/>
+      <c r="N18" s="286"/>
     </row>
     <row r="19" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="124" t="s">
@@ -5318,15 +6730,15 @@
       <c r="C19" s="126"/>
       <c r="D19" s="127"/>
       <c r="E19" s="113"/>
-      <c r="F19" s="285"/>
-      <c r="G19" s="286"/>
-      <c r="H19" s="286"/>
-      <c r="I19" s="286"/>
-      <c r="J19" s="286"/>
-      <c r="K19" s="287"/>
-      <c r="L19" s="285"/>
-      <c r="M19" s="286"/>
-      <c r="N19" s="287"/>
+      <c r="F19" s="284"/>
+      <c r="G19" s="285"/>
+      <c r="H19" s="285"/>
+      <c r="I19" s="285"/>
+      <c r="J19" s="285"/>
+      <c r="K19" s="286"/>
+      <c r="L19" s="284"/>
+      <c r="M19" s="285"/>
+      <c r="N19" s="286"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="131"/>
@@ -5334,15 +6746,15 @@
       <c r="C20" s="126"/>
       <c r="D20" s="127"/>
       <c r="E20" s="113"/>
-      <c r="F20" s="288"/>
-      <c r="G20" s="289"/>
-      <c r="H20" s="289"/>
-      <c r="I20" s="289"/>
-      <c r="J20" s="289"/>
-      <c r="K20" s="290"/>
-      <c r="L20" s="288"/>
-      <c r="M20" s="289"/>
-      <c r="N20" s="290"/>
+      <c r="F20" s="287"/>
+      <c r="G20" s="288"/>
+      <c r="H20" s="288"/>
+      <c r="I20" s="288"/>
+      <c r="J20" s="288"/>
+      <c r="K20" s="289"/>
+      <c r="L20" s="287"/>
+      <c r="M20" s="288"/>
+      <c r="N20" s="289"/>
     </row>
     <row r="21" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="145" t="s">
@@ -5353,6 +6765,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A1:N2"/>
     <mergeCell ref="L10:N20"/>
     <mergeCell ref="F10:K20"/>
     <mergeCell ref="F9:K9"/>
@@ -5361,11 +6778,6 @@
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="L9:N9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A1:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ExcelAddIn1/Resources/FICHA RECETA.xlsx
+++ b/ExcelAddIn1/Resources/FICHA RECETA.xlsx
@@ -452,7 +452,7 @@
     <numFmt numFmtId="167" formatCode="0.000%"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="[$$-80A]#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="[$$-80A]#,##0.00"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1264,7 +1264,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1627,9 +1627,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="13" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1890,6 +1887,34 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2168,19 +2193,25 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2207,28 +2238,6 @@
     <xf numFmtId="0" fontId="17" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2875,546 +2884,546 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="202" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="110"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="109"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="110"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="109"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="I3" s="170" t="s">
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="I3" s="169" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="195"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
     </row>
     <row r="4" spans="1:13" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="164" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="110"/>
+      <c r="B4" s="203"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="109"/>
     </row>
     <row r="5" spans="1:13" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="165" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="197" t="s">
+      <c r="B5" s="203"/>
+      <c r="C5" s="203"/>
+      <c r="D5" s="203"/>
+      <c r="E5" s="203"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="206" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="198"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="135"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="110"/>
+      <c r="I5" s="207"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="109"/>
     </row>
     <row r="6" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="211" t="s">
+      <c r="A6" s="220" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="212"/>
-      <c r="C6" s="213" t="s">
+      <c r="B6" s="221"/>
+      <c r="C6" s="222" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="214"/>
-      <c r="E6" s="159" t="s">
+      <c r="D6" s="223"/>
+      <c r="E6" s="158" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="154"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="138" t="s">
+      <c r="F6" s="153"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="155" t="s">
+      <c r="I6" s="154" t="s">
         <v>106</v>
       </c>
-      <c r="J6" s="135"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="135"/>
-      <c r="M6" s="110"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="109"/>
     </row>
     <row r="7" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="163"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="135"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="110"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="134"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="109"/>
     </row>
     <row r="8" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="159" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="161" t="s">
+      <c r="B8" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="157" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="220" t="s">
+      <c r="D8" s="229" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="221" t="s">
+      <c r="E8" s="230" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="136"/>
-      <c r="I8" s="173" t="s">
+      <c r="F8" s="135"/>
+      <c r="I8" s="172" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="171" t="s">
+      <c r="J8" s="170" t="s">
         <v>95</v>
       </c>
-      <c r="K8" s="172"/>
-      <c r="L8" s="135"/>
-      <c r="M8" s="110"/>
+      <c r="K8" s="171"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="109"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="156">
+      <c r="A9" s="155">
         <v>16</v>
       </c>
-      <c r="B9" s="157">
+      <c r="B9" s="156">
         <v>1</v>
       </c>
-      <c r="C9" s="139">
+      <c r="C9" s="138">
         <f>C7*1/A9</f>
         <v>0</v>
       </c>
-      <c r="D9" s="220"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="136"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="110"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="230"/>
+      <c r="F9" s="135"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="109"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="141"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="219" t="s">
+      <c r="A10" s="140"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="228" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="135" t="s">
+      <c r="J10" s="134" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="135"/>
-      <c r="L10" s="135"/>
-      <c r="M10" s="110"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="109"/>
     </row>
     <row r="11" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="145"/>
-      <c r="B11" s="145"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="219"/>
-      <c r="J11" s="175" t="s">
+      <c r="A11" s="144"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="228"/>
+      <c r="J11" s="174" t="s">
         <v>95</v>
       </c>
-      <c r="K11" s="176"/>
-      <c r="L11" s="135"/>
-      <c r="M11" s="110"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="109"/>
     </row>
     <row r="12" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="145"/>
-      <c r="B12" s="145"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="110"/>
+      <c r="A12" s="144"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="109"/>
     </row>
     <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="145"/>
-      <c r="B13" s="150"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="174" t="s">
+      <c r="A13" s="144"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="173" t="s">
         <v>112</v>
       </c>
-      <c r="J13" s="172"/>
-      <c r="K13" s="172"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="110"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="109"/>
     </row>
     <row r="14" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="145"/>
-      <c r="B14" s="150"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="215"/>
-      <c r="J14" s="234"/>
-      <c r="K14" s="234"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="110"/>
+      <c r="A14" s="144"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="224"/>
+      <c r="J14" s="243"/>
+      <c r="K14" s="243"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="109"/>
     </row>
     <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="145"/>
-      <c r="B15" s="150"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="215"/>
-      <c r="J15" s="234"/>
-      <c r="K15" s="234"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="110"/>
+      <c r="A15" s="144"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="224"/>
+      <c r="J15" s="243"/>
+      <c r="K15" s="243"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="109"/>
     </row>
     <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="145"/>
-      <c r="B16" s="145"/>
-      <c r="C16" s="149"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="110"/>
+      <c r="A16" s="144"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="109"/>
     </row>
     <row r="17" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="145"/>
-      <c r="B17" s="150"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="222" t="s">
+      <c r="A17" s="144"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="231" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="223"/>
-      <c r="H17" s="223"/>
-      <c r="I17" s="223"/>
-      <c r="J17" s="223"/>
-      <c r="K17" s="223"/>
-      <c r="L17" s="224"/>
-      <c r="M17" s="110"/>
+      <c r="G17" s="232"/>
+      <c r="H17" s="232"/>
+      <c r="I17" s="232"/>
+      <c r="J17" s="232"/>
+      <c r="K17" s="232"/>
+      <c r="L17" s="233"/>
+      <c r="M17" s="109"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="145"/>
-      <c r="B18" s="150"/>
-      <c r="C18" s="149"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="225"/>
-      <c r="G18" s="226"/>
-      <c r="H18" s="226"/>
-      <c r="I18" s="226"/>
-      <c r="J18" s="226"/>
-      <c r="K18" s="226"/>
-      <c r="L18" s="227"/>
+      <c r="A18" s="144"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="234"/>
+      <c r="G18" s="235"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="235"/>
+      <c r="J18" s="235"/>
+      <c r="K18" s="235"/>
+      <c r="L18" s="236"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="145"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="228"/>
-      <c r="G19" s="229"/>
-      <c r="H19" s="229"/>
-      <c r="I19" s="229"/>
-      <c r="J19" s="229"/>
-      <c r="K19" s="229"/>
-      <c r="L19" s="230"/>
+      <c r="A19" s="144"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="237"/>
+      <c r="G19" s="238"/>
+      <c r="H19" s="238"/>
+      <c r="I19" s="238"/>
+      <c r="J19" s="238"/>
+      <c r="K19" s="238"/>
+      <c r="L19" s="239"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="151"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="228"/>
-      <c r="G20" s="229"/>
-      <c r="H20" s="229"/>
-      <c r="I20" s="229"/>
-      <c r="J20" s="229"/>
-      <c r="K20" s="229"/>
-      <c r="L20" s="230"/>
+      <c r="A20" s="150"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="237"/>
+      <c r="G20" s="238"/>
+      <c r="H20" s="238"/>
+      <c r="I20" s="238"/>
+      <c r="J20" s="238"/>
+      <c r="K20" s="238"/>
+      <c r="L20" s="239"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="151"/>
-      <c r="B21" s="151"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="228"/>
-      <c r="G21" s="229"/>
-      <c r="H21" s="229"/>
-      <c r="I21" s="229"/>
-      <c r="J21" s="229"/>
-      <c r="K21" s="229"/>
-      <c r="L21" s="230"/>
+      <c r="A21" s="150"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="237"/>
+      <c r="G21" s="238"/>
+      <c r="H21" s="238"/>
+      <c r="I21" s="238"/>
+      <c r="J21" s="238"/>
+      <c r="K21" s="238"/>
+      <c r="L21" s="239"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="151"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="228"/>
-      <c r="G22" s="229"/>
-      <c r="H22" s="229"/>
-      <c r="I22" s="229"/>
-      <c r="J22" s="229"/>
-      <c r="K22" s="229"/>
-      <c r="L22" s="230"/>
+      <c r="A22" s="150"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="237"/>
+      <c r="G22" s="238"/>
+      <c r="H22" s="238"/>
+      <c r="I22" s="238"/>
+      <c r="J22" s="238"/>
+      <c r="K22" s="238"/>
+      <c r="L22" s="239"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="151"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="228"/>
-      <c r="G23" s="229"/>
-      <c r="H23" s="229"/>
-      <c r="I23" s="229"/>
-      <c r="J23" s="229"/>
-      <c r="K23" s="229"/>
-      <c r="L23" s="230"/>
+      <c r="A23" s="150"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="237"/>
+      <c r="G23" s="238"/>
+      <c r="H23" s="238"/>
+      <c r="I23" s="238"/>
+      <c r="J23" s="238"/>
+      <c r="K23" s="238"/>
+      <c r="L23" s="239"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="153"/>
-      <c r="B24" s="186"/>
-      <c r="C24" s="187"/>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="231"/>
-      <c r="G24" s="232"/>
-      <c r="H24" s="232"/>
-      <c r="I24" s="232"/>
-      <c r="J24" s="232"/>
-      <c r="K24" s="232"/>
-      <c r="L24" s="233"/>
+      <c r="A24" s="152"/>
+      <c r="B24" s="185"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="187"/>
+      <c r="E24" s="187"/>
+      <c r="F24" s="240"/>
+      <c r="G24" s="241"/>
+      <c r="H24" s="241"/>
+      <c r="I24" s="241"/>
+      <c r="J24" s="241"/>
+      <c r="K24" s="241"/>
+      <c r="L24" s="242"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="199" t="s">
+      <c r="A25" s="208" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="200"/>
-      <c r="C25" s="200"/>
-      <c r="D25" s="200"/>
-      <c r="E25" s="200"/>
-      <c r="F25" s="200"/>
-      <c r="G25" s="200"/>
-      <c r="H25" s="201"/>
-      <c r="I25" s="216" t="s">
+      <c r="B25" s="209"/>
+      <c r="C25" s="209"/>
+      <c r="D25" s="209"/>
+      <c r="E25" s="209"/>
+      <c r="F25" s="209"/>
+      <c r="G25" s="209"/>
+      <c r="H25" s="210"/>
+      <c r="I25" s="225" t="s">
         <v>94</v>
       </c>
-      <c r="J25" s="217"/>
-      <c r="K25" s="217"/>
-      <c r="L25" s="218"/>
+      <c r="J25" s="226"/>
+      <c r="K25" s="226"/>
+      <c r="L25" s="227"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="202"/>
-      <c r="B26" s="203"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="203"/>
-      <c r="H26" s="204"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="180"/>
+      <c r="A26" s="211"/>
+      <c r="B26" s="212"/>
+      <c r="C26" s="212"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="212"/>
+      <c r="F26" s="212"/>
+      <c r="G26" s="212"/>
+      <c r="H26" s="213"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="178"/>
+      <c r="K26" s="178"/>
+      <c r="L26" s="179"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="205"/>
-      <c r="B27" s="206"/>
-      <c r="C27" s="206"/>
-      <c r="D27" s="206"/>
-      <c r="E27" s="206"/>
-      <c r="F27" s="206"/>
-      <c r="G27" s="206"/>
-      <c r="H27" s="207"/>
-      <c r="I27" s="181"/>
-      <c r="J27" s="177"/>
-      <c r="K27" s="177"/>
-      <c r="L27" s="182"/>
+      <c r="A27" s="214"/>
+      <c r="B27" s="215"/>
+      <c r="C27" s="215"/>
+      <c r="D27" s="215"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="215"/>
+      <c r="G27" s="215"/>
+      <c r="H27" s="216"/>
+      <c r="I27" s="180"/>
+      <c r="J27" s="176"/>
+      <c r="K27" s="176"/>
+      <c r="L27" s="181"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="205"/>
-      <c r="B28" s="206"/>
-      <c r="C28" s="206"/>
-      <c r="D28" s="206"/>
-      <c r="E28" s="206"/>
-      <c r="F28" s="206"/>
-      <c r="G28" s="206"/>
-      <c r="H28" s="207"/>
-      <c r="I28" s="181"/>
-      <c r="J28" s="177"/>
-      <c r="K28" s="177"/>
-      <c r="L28" s="182"/>
+      <c r="A28" s="214"/>
+      <c r="B28" s="215"/>
+      <c r="C28" s="215"/>
+      <c r="D28" s="215"/>
+      <c r="E28" s="215"/>
+      <c r="F28" s="215"/>
+      <c r="G28" s="215"/>
+      <c r="H28" s="216"/>
+      <c r="I28" s="180"/>
+      <c r="J28" s="176"/>
+      <c r="K28" s="176"/>
+      <c r="L28" s="181"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="205"/>
-      <c r="B29" s="206"/>
-      <c r="C29" s="206"/>
-      <c r="D29" s="206"/>
-      <c r="E29" s="206"/>
-      <c r="F29" s="206"/>
-      <c r="G29" s="206"/>
-      <c r="H29" s="207"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="177"/>
-      <c r="K29" s="177"/>
-      <c r="L29" s="182"/>
+      <c r="A29" s="214"/>
+      <c r="B29" s="215"/>
+      <c r="C29" s="215"/>
+      <c r="D29" s="215"/>
+      <c r="E29" s="215"/>
+      <c r="F29" s="215"/>
+      <c r="G29" s="215"/>
+      <c r="H29" s="216"/>
+      <c r="I29" s="180"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="176"/>
+      <c r="L29" s="181"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="205"/>
-      <c r="B30" s="206"/>
-      <c r="C30" s="206"/>
-      <c r="D30" s="206"/>
-      <c r="E30" s="206"/>
-      <c r="F30" s="206"/>
-      <c r="G30" s="206"/>
-      <c r="H30" s="207"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="177"/>
-      <c r="K30" s="177"/>
-      <c r="L30" s="182"/>
+      <c r="A30" s="214"/>
+      <c r="B30" s="215"/>
+      <c r="C30" s="215"/>
+      <c r="D30" s="215"/>
+      <c r="E30" s="215"/>
+      <c r="F30" s="215"/>
+      <c r="G30" s="215"/>
+      <c r="H30" s="216"/>
+      <c r="I30" s="180"/>
+      <c r="J30" s="176"/>
+      <c r="K30" s="176"/>
+      <c r="L30" s="181"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="205"/>
-      <c r="B31" s="206"/>
-      <c r="C31" s="206"/>
-      <c r="D31" s="206"/>
-      <c r="E31" s="206"/>
-      <c r="F31" s="206"/>
-      <c r="G31" s="206"/>
-      <c r="H31" s="207"/>
-      <c r="I31" s="181"/>
-      <c r="J31" s="177"/>
-      <c r="K31" s="177"/>
-      <c r="L31" s="182"/>
+      <c r="A31" s="214"/>
+      <c r="B31" s="215"/>
+      <c r="C31" s="215"/>
+      <c r="D31" s="215"/>
+      <c r="E31" s="215"/>
+      <c r="F31" s="215"/>
+      <c r="G31" s="215"/>
+      <c r="H31" s="216"/>
+      <c r="I31" s="180"/>
+      <c r="J31" s="176"/>
+      <c r="K31" s="176"/>
+      <c r="L31" s="181"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="205"/>
-      <c r="B32" s="206"/>
-      <c r="C32" s="206"/>
-      <c r="D32" s="206"/>
-      <c r="E32" s="206"/>
-      <c r="F32" s="206"/>
-      <c r="G32" s="206"/>
-      <c r="H32" s="207"/>
-      <c r="I32" s="181"/>
-      <c r="J32" s="177"/>
-      <c r="K32" s="177"/>
-      <c r="L32" s="182"/>
+      <c r="A32" s="214"/>
+      <c r="B32" s="215"/>
+      <c r="C32" s="215"/>
+      <c r="D32" s="215"/>
+      <c r="E32" s="215"/>
+      <c r="F32" s="215"/>
+      <c r="G32" s="215"/>
+      <c r="H32" s="216"/>
+      <c r="I32" s="180"/>
+      <c r="J32" s="176"/>
+      <c r="K32" s="176"/>
+      <c r="L32" s="181"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="205"/>
-      <c r="B33" s="206"/>
-      <c r="C33" s="206"/>
-      <c r="D33" s="206"/>
-      <c r="E33" s="206"/>
-      <c r="F33" s="206"/>
-      <c r="G33" s="206"/>
-      <c r="H33" s="207"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="177"/>
-      <c r="K33" s="177"/>
-      <c r="L33" s="182"/>
+      <c r="A33" s="214"/>
+      <c r="B33" s="215"/>
+      <c r="C33" s="215"/>
+      <c r="D33" s="215"/>
+      <c r="E33" s="215"/>
+      <c r="F33" s="215"/>
+      <c r="G33" s="215"/>
+      <c r="H33" s="216"/>
+      <c r="I33" s="180"/>
+      <c r="J33" s="176"/>
+      <c r="K33" s="176"/>
+      <c r="L33" s="181"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="208"/>
-      <c r="B34" s="209"/>
-      <c r="C34" s="209"/>
-      <c r="D34" s="209"/>
-      <c r="E34" s="209"/>
-      <c r="F34" s="209"/>
-      <c r="G34" s="209"/>
-      <c r="H34" s="210"/>
-      <c r="I34" s="183"/>
-      <c r="J34" s="184"/>
-      <c r="K34" s="184"/>
-      <c r="L34" s="185"/>
+      <c r="A34" s="217"/>
+      <c r="B34" s="218"/>
+      <c r="C34" s="218"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="218"/>
+      <c r="F34" s="218"/>
+      <c r="G34" s="218"/>
+      <c r="H34" s="219"/>
+      <c r="I34" s="182"/>
+      <c r="J34" s="183"/>
+      <c r="K34" s="183"/>
+      <c r="L34" s="184"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -3465,45 +3474,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="236" t="s">
+      <c r="B1" s="245" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
       <c r="G1" s="66" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="66"/>
-      <c r="I1" s="237">
+      <c r="I1" s="246">
         <v>42491</v>
       </c>
-      <c r="J1" s="237"/>
+      <c r="J1" s="246"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
+      <c r="B2" s="245"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="245"/>
+      <c r="F2" s="245"/>
       <c r="G2" s="68" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="68"/>
-      <c r="I2" s="237">
+      <c r="I2" s="246">
         <v>42639</v>
       </c>
-      <c r="J2" s="237"/>
+      <c r="J2" s="246"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="235" t="s">
+      <c r="B3" s="244" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="235"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="65"/>
@@ -3654,256 +3663,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="238" t="s">
+      <c r="B1" s="247" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="238"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="189"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="188"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="238"/>
-      <c r="C3" s="238"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
+      <c r="B3" s="247"/>
+      <c r="C3" s="247"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
     </row>
     <row r="4" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="239" t="s">
+      <c r="B4" s="248" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="239"/>
+      <c r="C4" s="248"/>
     </row>
     <row r="5" spans="1:6" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="192" t="s">
+      <c r="A5" s="191" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="192" t="s">
+      <c r="B5" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="192" t="s">
+      <c r="D5" s="191" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="191"/>
-      <c r="B6" s="191"/>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
+      <c r="A6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="191"/>
-      <c r="B7" s="191"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
+      <c r="A7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="191"/>
-      <c r="B8" s="191"/>
-      <c r="C8" s="191"/>
-      <c r="D8" s="191"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="191"/>
-      <c r="B9" s="191"/>
-      <c r="C9" s="191"/>
-      <c r="D9" s="191"/>
+      <c r="A9" s="190"/>
+      <c r="B9" s="190"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="191"/>
-      <c r="B10" s="191"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="191"/>
+      <c r="A10" s="190"/>
+      <c r="B10" s="190"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="190"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="191"/>
-      <c r="B11" s="191"/>
-      <c r="C11" s="191"/>
-      <c r="D11" s="191"/>
+      <c r="A11" s="190"/>
+      <c r="B11" s="190"/>
+      <c r="C11" s="190"/>
+      <c r="D11" s="190"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="191"/>
-      <c r="B12" s="191"/>
-      <c r="C12" s="191"/>
-      <c r="D12" s="191"/>
+      <c r="A12" s="190"/>
+      <c r="B12" s="190"/>
+      <c r="C12" s="190"/>
+      <c r="D12" s="190"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="191"/>
-      <c r="B13" s="191"/>
-      <c r="C13" s="191"/>
-      <c r="D13" s="191"/>
+      <c r="A13" s="190"/>
+      <c r="B13" s="190"/>
+      <c r="C13" s="190"/>
+      <c r="D13" s="190"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="191"/>
-      <c r="B14" s="191"/>
-      <c r="C14" s="191"/>
-      <c r="D14" s="191"/>
+      <c r="A14" s="190"/>
+      <c r="B14" s="190"/>
+      <c r="C14" s="190"/>
+      <c r="D14" s="190"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="191"/>
-      <c r="B15" s="191"/>
-      <c r="C15" s="191"/>
-      <c r="D15" s="191"/>
+      <c r="A15" s="190"/>
+      <c r="B15" s="190"/>
+      <c r="C15" s="190"/>
+      <c r="D15" s="190"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="191"/>
-      <c r="B16" s="191"/>
-      <c r="C16" s="191"/>
-      <c r="D16" s="191"/>
+      <c r="A16" s="190"/>
+      <c r="B16" s="190"/>
+      <c r="C16" s="190"/>
+      <c r="D16" s="190"/>
     </row>
     <row r="17" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="191"/>
-      <c r="B17" s="191"/>
-      <c r="C17" s="191"/>
-      <c r="D17" s="191"/>
+      <c r="A17" s="190"/>
+      <c r="B17" s="190"/>
+      <c r="C17" s="190"/>
+      <c r="D17" s="190"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="191"/>
-      <c r="B18" s="191"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="191"/>
+      <c r="A18" s="190"/>
+      <c r="B18" s="190"/>
+      <c r="C18" s="190"/>
+      <c r="D18" s="190"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="191"/>
-      <c r="B19" s="191"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="191"/>
+      <c r="A19" s="190"/>
+      <c r="B19" s="190"/>
+      <c r="C19" s="190"/>
+      <c r="D19" s="190"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="191"/>
-      <c r="B20" s="191"/>
-      <c r="C20" s="191"/>
-      <c r="D20" s="191"/>
+      <c r="A20" s="190"/>
+      <c r="B20" s="190"/>
+      <c r="C20" s="190"/>
+      <c r="D20" s="190"/>
     </row>
     <row r="21" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="191"/>
-      <c r="B21" s="191"/>
-      <c r="C21" s="191"/>
-      <c r="D21" s="191"/>
+      <c r="A21" s="190"/>
+      <c r="B21" s="190"/>
+      <c r="C21" s="190"/>
+      <c r="D21" s="190"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="191"/>
-      <c r="B22" s="191"/>
-      <c r="C22" s="191"/>
-      <c r="D22" s="191"/>
+      <c r="A22" s="190"/>
+      <c r="B22" s="190"/>
+      <c r="C22" s="190"/>
+      <c r="D22" s="190"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="191"/>
-      <c r="B23" s="191"/>
-      <c r="C23" s="191"/>
-      <c r="D23" s="191"/>
+      <c r="A23" s="190"/>
+      <c r="B23" s="190"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="190"/>
     </row>
     <row r="24" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="191"/>
-      <c r="B24" s="191"/>
-      <c r="C24" s="191"/>
-      <c r="D24" s="191"/>
+      <c r="A24" s="190"/>
+      <c r="B24" s="190"/>
+      <c r="C24" s="190"/>
+      <c r="D24" s="190"/>
     </row>
     <row r="25" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="191"/>
-      <c r="B25" s="191"/>
-      <c r="C25" s="191"/>
-      <c r="D25" s="191"/>
+      <c r="A25" s="190"/>
+      <c r="B25" s="190"/>
+      <c r="C25" s="190"/>
+      <c r="D25" s="190"/>
     </row>
     <row r="26" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="191"/>
-      <c r="B26" s="191"/>
-      <c r="C26" s="191"/>
-      <c r="D26" s="191"/>
+      <c r="A26" s="190"/>
+      <c r="B26" s="190"/>
+      <c r="C26" s="190"/>
+      <c r="D26" s="190"/>
     </row>
     <row r="27" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="191"/>
-      <c r="B27" s="191"/>
-      <c r="C27" s="191"/>
-      <c r="D27" s="191"/>
+      <c r="A27" s="190"/>
+      <c r="B27" s="190"/>
+      <c r="C27" s="190"/>
+      <c r="D27" s="190"/>
     </row>
     <row r="28" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="191"/>
-      <c r="B28" s="191"/>
-      <c r="C28" s="191"/>
-      <c r="D28" s="191"/>
+      <c r="A28" s="190"/>
+      <c r="B28" s="190"/>
+      <c r="C28" s="190"/>
+      <c r="D28" s="190"/>
     </row>
     <row r="29" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="191"/>
-      <c r="B29" s="191"/>
-      <c r="C29" s="191"/>
-      <c r="D29" s="191"/>
+      <c r="A29" s="190"/>
+      <c r="B29" s="190"/>
+      <c r="C29" s="190"/>
+      <c r="D29" s="190"/>
     </row>
     <row r="30" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="191"/>
-      <c r="B30" s="191"/>
-      <c r="C30" s="191"/>
-      <c r="D30" s="191"/>
+      <c r="A30" s="190"/>
+      <c r="B30" s="190"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="190"/>
     </row>
     <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="191"/>
-      <c r="B31" s="191"/>
-      <c r="C31" s="191"/>
-      <c r="D31" s="191"/>
+      <c r="A31" s="190"/>
+      <c r="B31" s="190"/>
+      <c r="C31" s="190"/>
+      <c r="D31" s="190"/>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="191"/>
-      <c r="B32" s="191"/>
-      <c r="C32" s="191"/>
-      <c r="D32" s="191"/>
+      <c r="A32" s="190"/>
+      <c r="B32" s="190"/>
+      <c r="C32" s="190"/>
+      <c r="D32" s="190"/>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="191"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="191"/>
+      <c r="A33" s="190"/>
+      <c r="B33" s="190"/>
+      <c r="C33" s="190"/>
+      <c r="D33" s="190"/>
     </row>
     <row r="34" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="191"/>
-      <c r="B34" s="191"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="191"/>
+      <c r="A34" s="190"/>
+      <c r="B34" s="190"/>
+      <c r="C34" s="190"/>
+      <c r="D34" s="190"/>
     </row>
     <row r="35" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="191"/>
-      <c r="B35" s="191"/>
-      <c r="C35" s="191"/>
-      <c r="D35" s="191"/>
+      <c r="A35" s="190"/>
+      <c r="B35" s="190"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190"/>
     </row>
     <row r="36" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="191"/>
-      <c r="B36" s="191"/>
-      <c r="C36" s="191"/>
-      <c r="D36" s="191"/>
+      <c r="A36" s="190"/>
+      <c r="B36" s="190"/>
+      <c r="C36" s="190"/>
+      <c r="D36" s="190"/>
     </row>
     <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="191"/>
-      <c r="B37" s="191"/>
-      <c r="C37" s="191"/>
-      <c r="D37" s="191"/>
+      <c r="A37" s="190"/>
+      <c r="B37" s="190"/>
+      <c r="C37" s="190"/>
+      <c r="D37" s="190"/>
     </row>
     <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="191"/>
-      <c r="B38" s="191"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="191"/>
+      <c r="A38" s="190"/>
+      <c r="B38" s="190"/>
+      <c r="C38" s="190"/>
+      <c r="D38" s="190"/>
     </row>
     <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="191"/>
-      <c r="B39" s="191"/>
-      <c r="C39" s="191"/>
-      <c r="D39" s="191"/>
+      <c r="A39" s="190"/>
+      <c r="B39" s="190"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="190"/>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="191"/>
-      <c r="B40" s="191"/>
-      <c r="C40" s="191"/>
-      <c r="D40" s="191"/>
+      <c r="A40" s="190"/>
+      <c r="B40" s="190"/>
+      <c r="C40" s="190"/>
+      <c r="D40" s="190"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -3940,52 +3949,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="259" t="s">
+      <c r="A1" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="250" t="s">
+      <c r="B1" s="259" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="252"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="261"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="260"/>
-      <c r="B2" s="253" t="s">
+      <c r="A2" s="269"/>
+      <c r="B2" s="262" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="242" t="s">
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="251" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="246" t="s">
+      <c r="H2" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="247"/>
+      <c r="I2" s="256"/>
       <c r="J2" s="19">
         <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="261"/>
-      <c r="B3" s="256"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="257"/>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="243"/>
-      <c r="H3" s="246" t="s">
+      <c r="A3" s="270"/>
+      <c r="B3" s="265"/>
+      <c r="C3" s="266"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="255" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="247"/>
+      <c r="I3" s="256"/>
       <c r="J3" s="20">
         <v>10</v>
       </c>
@@ -4012,10 +4021,10 @@
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="248" t="s">
+      <c r="H4" s="257" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="249"/>
+      <c r="I4" s="258"/>
       <c r="J4" s="23">
         <v>8.5</v>
       </c>
@@ -4028,10 +4037,10 @@
       <c r="E5" s="24"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="244" t="s">
+      <c r="H5" s="253" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="245"/>
+      <c r="I5" s="254"/>
       <c r="J5" s="27">
         <f>SUM(G5:G100)</f>
         <v>0</v>
@@ -4045,10 +4054,10 @@
       <c r="E6" s="24"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="244" t="s">
+      <c r="H6" s="253" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="245"/>
+      <c r="I6" s="254"/>
       <c r="J6" s="28">
         <f>J5*0.05</f>
         <v>0</v>
@@ -4062,10 +4071,10 @@
       <c r="E7" s="24"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="244" t="s">
+      <c r="H7" s="253" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="245"/>
+      <c r="I7" s="254"/>
       <c r="J7" s="28">
         <v>110</v>
       </c>
@@ -4078,10 +4087,10 @@
       <c r="E8" s="24"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="244" t="s">
+      <c r="H8" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="245"/>
+      <c r="I8" s="254"/>
       <c r="J8" s="29">
         <v>150</v>
       </c>
@@ -4094,10 +4103,10 @@
       <c r="E9" s="24"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="244" t="s">
+      <c r="H9" s="253" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="244"/>
+      <c r="I9" s="253"/>
       <c r="J9" s="30">
         <f>(PRECIO_VENTA*LITROS_A_ELABORAR)</f>
         <v>1500</v>
@@ -4111,10 +4120,10 @@
       <c r="E10" s="24"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="244" t="s">
+      <c r="H10" s="253" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="244"/>
+      <c r="I10" s="253"/>
       <c r="J10" s="31">
         <f>J9-COSTO_TOTAL_MATERIA_PRIMA</f>
         <v>1500</v>
@@ -4128,10 +4137,10 @@
       <c r="E11" s="24"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="240" t="s">
+      <c r="H11" s="249" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="241"/>
+      <c r="I11" s="250"/>
       <c r="J11" s="32">
         <v>0.27</v>
       </c>
@@ -4144,10 +4153,10 @@
       <c r="E12" s="24"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="240" t="s">
+      <c r="H12" s="249" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="241"/>
+      <c r="I12" s="250"/>
       <c r="J12" s="32">
         <f>((J5+COSTO_PREPARACION)/J9-1)*(-1)</f>
         <v>0.92666666666666664</v>
@@ -4287,22 +4296,22 @@
       <c r="N1" s="81"/>
       <c r="O1" s="81"/>
       <c r="P1" s="81"/>
-      <c r="Q1" s="262" t="s">
+      <c r="Q1" s="271" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="263"/>
-      <c r="S1" s="262" t="s">
+      <c r="R1" s="272"/>
+      <c r="S1" s="271" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="263"/>
-      <c r="U1" s="262" t="s">
+      <c r="T1" s="272"/>
+      <c r="U1" s="271" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="263"/>
-      <c r="W1" s="262" t="s">
+      <c r="V1" s="272"/>
+      <c r="W1" s="271" t="s">
         <v>63</v>
       </c>
-      <c r="X1" s="263"/>
+      <c r="X1" s="272"/>
       <c r="Y1" s="81"/>
       <c r="Z1" s="81"/>
       <c r="AA1" s="81"/>
@@ -5010,6 +5019,7 @@
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="3.7109375" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" hidden="1" customWidth="1"/>
@@ -5018,88 +5028,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="289"/>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
-      <c r="G1" s="289"/>
-      <c r="H1" s="289"/>
-      <c r="I1" s="289"/>
-      <c r="J1" s="289"/>
-      <c r="K1" s="289"/>
-      <c r="L1" s="289"/>
-      <c r="M1" s="289"/>
-      <c r="N1" s="289"/>
+      <c r="A1" s="300"/>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
+      <c r="J1" s="300"/>
+      <c r="K1" s="300"/>
+      <c r="L1" s="300"/>
+      <c r="M1" s="300"/>
+      <c r="N1" s="300"/>
     </row>
     <row r="2" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="289"/>
-      <c r="B2" s="289"/>
-      <c r="C2" s="289"/>
-      <c r="D2" s="289"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="289"/>
-      <c r="G2" s="289"/>
-      <c r="H2" s="289"/>
-      <c r="I2" s="289"/>
-      <c r="J2" s="289"/>
-      <c r="K2" s="289"/>
-      <c r="L2" s="289"/>
-      <c r="M2" s="289"/>
-      <c r="N2" s="289"/>
-    </row>
-    <row r="3" spans="1:16" s="122" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="123"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
+      <c r="A2" s="300"/>
+      <c r="B2" s="300"/>
+      <c r="C2" s="300"/>
+      <c r="D2" s="300"/>
+      <c r="E2" s="300"/>
+      <c r="F2" s="300"/>
+      <c r="G2" s="300"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="300"/>
+      <c r="L2" s="300"/>
+      <c r="M2" s="300"/>
+      <c r="N2" s="300"/>
+    </row>
+    <row r="3" spans="1:16" s="121" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="122"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
     </row>
     <row r="4" spans="1:16" ht="55.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="283"/>
-      <c r="C4" s="283"/>
+      <c r="B4" s="294"/>
+      <c r="C4" s="294"/>
       <c r="D4" s="96"/>
       <c r="E4" s="96"/>
-      <c r="F4" s="129" t="s">
+      <c r="F4" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="129" t="s">
+      <c r="G4" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="276" t="s">
+      <c r="H4" s="285" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="276"/>
-      <c r="J4" s="276"/>
-      <c r="K4" s="130" t="s">
+      <c r="I4" s="285"/>
+      <c r="J4" s="285"/>
+      <c r="K4" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="131" t="s">
+      <c r="L4" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="M4" s="132" t="s">
+      <c r="M4" s="131" t="s">
         <v>85</v>
       </c>
-      <c r="N4" s="132" t="s">
+      <c r="N4" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="110"/>
+      <c r="P4" s="109"/>
     </row>
     <row r="5" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="284" t="s">
+      <c r="A5" s="295" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="97"/>
@@ -5110,286 +5120,286 @@
       <c r="E5" s="98"/>
       <c r="F5" s="99"/>
       <c r="G5" s="100"/>
-      <c r="H5" s="277"/>
-      <c r="I5" s="278"/>
+      <c r="H5" s="286"/>
+      <c r="I5" s="287"/>
       <c r="J5" s="101"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="104"/>
+      <c r="K5" s="200"/>
+      <c r="L5" s="201"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="285"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="109" t="s">
+      <c r="A6" s="296"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="133" t="s">
+      <c r="D6" s="107"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="129" t="s">
+      <c r="G6" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="279" t="s">
+      <c r="H6" s="288" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="280"/>
-      <c r="J6" s="280"/>
-      <c r="K6" s="280"/>
-      <c r="L6" s="281"/>
-      <c r="M6" s="286" t="s">
+      <c r="I6" s="289"/>
+      <c r="J6" s="289"/>
+      <c r="K6" s="289"/>
+      <c r="L6" s="290"/>
+      <c r="M6" s="297" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="287"/>
+      <c r="N6" s="298"/>
     </row>
     <row r="7" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="128" t="s">
+      <c r="D7" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="112"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="277"/>
-      <c r="I7" s="278"/>
-      <c r="J7" s="278"/>
-      <c r="K7" s="278"/>
-      <c r="L7" s="282"/>
-      <c r="M7" s="288"/>
-      <c r="N7" s="288"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="292"/>
+      <c r="J7" s="292"/>
+      <c r="K7" s="292"/>
+      <c r="L7" s="293"/>
+      <c r="M7" s="299"/>
+      <c r="N7" s="299"/>
     </row>
     <row r="8" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="290"/>
-      <c r="B8" s="290"/>
-      <c r="C8" s="291"/>
-      <c r="D8" s="292"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="120"/>
+      <c r="A8" s="192"/>
+      <c r="B8" s="192"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
     </row>
     <row r="9" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="170"/>
-      <c r="B9" s="293"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="294"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="273" t="s">
+      <c r="A9" s="169"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="274"/>
-      <c r="H9" s="274"/>
-      <c r="I9" s="274"/>
-      <c r="J9" s="274"/>
-      <c r="K9" s="275"/>
-      <c r="L9" s="273" t="s">
+      <c r="G9" s="283"/>
+      <c r="H9" s="283"/>
+      <c r="I9" s="283"/>
+      <c r="J9" s="283"/>
+      <c r="K9" s="284"/>
+      <c r="L9" s="282" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="274"/>
-      <c r="N9" s="275"/>
+      <c r="M9" s="283"/>
+      <c r="N9" s="284"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="170"/>
-      <c r="B10" s="293"/>
-      <c r="C10" s="295"/>
-      <c r="D10" s="296"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="264"/>
-      <c r="G10" s="265"/>
-      <c r="H10" s="265"/>
-      <c r="I10" s="265"/>
-      <c r="J10" s="265"/>
-      <c r="K10" s="266"/>
-      <c r="L10" s="264"/>
-      <c r="M10" s="265"/>
-      <c r="N10" s="266"/>
+      <c r="A10" s="169"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="273"/>
+      <c r="G10" s="274"/>
+      <c r="H10" s="274"/>
+      <c r="I10" s="274"/>
+      <c r="J10" s="274"/>
+      <c r="K10" s="275"/>
+      <c r="L10" s="273"/>
+      <c r="M10" s="274"/>
+      <c r="N10" s="275"/>
     </row>
     <row r="11" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="170"/>
-      <c r="B11" s="293"/>
-      <c r="C11" s="295"/>
-      <c r="D11" s="296"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="267"/>
-      <c r="G11" s="268"/>
-      <c r="H11" s="268"/>
-      <c r="I11" s="268"/>
-      <c r="J11" s="268"/>
-      <c r="K11" s="269"/>
-      <c r="L11" s="267"/>
-      <c r="M11" s="268"/>
-      <c r="N11" s="269"/>
+      <c r="A11" s="169"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="197"/>
+      <c r="D11" s="198"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="276"/>
+      <c r="G11" s="277"/>
+      <c r="H11" s="277"/>
+      <c r="I11" s="277"/>
+      <c r="J11" s="277"/>
+      <c r="K11" s="278"/>
+      <c r="L11" s="276"/>
+      <c r="M11" s="277"/>
+      <c r="N11" s="278"/>
     </row>
     <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="170"/>
-      <c r="B12" s="293"/>
-      <c r="C12" s="295"/>
-      <c r="D12" s="296"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="267"/>
-      <c r="G12" s="268"/>
-      <c r="H12" s="268"/>
-      <c r="I12" s="268"/>
-      <c r="J12" s="268"/>
-      <c r="K12" s="269"/>
-      <c r="L12" s="267"/>
-      <c r="M12" s="268"/>
-      <c r="N12" s="269"/>
+      <c r="A12" s="169"/>
+      <c r="B12" s="195"/>
+      <c r="C12" s="197"/>
+      <c r="D12" s="198"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="276"/>
+      <c r="G12" s="277"/>
+      <c r="H12" s="277"/>
+      <c r="I12" s="277"/>
+      <c r="J12" s="277"/>
+      <c r="K12" s="278"/>
+      <c r="L12" s="276"/>
+      <c r="M12" s="277"/>
+      <c r="N12" s="278"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="170"/>
-      <c r="B13" s="293"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="294"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="267"/>
-      <c r="G13" s="268"/>
-      <c r="H13" s="268"/>
-      <c r="I13" s="268"/>
-      <c r="J13" s="268"/>
-      <c r="K13" s="269"/>
-      <c r="L13" s="267"/>
-      <c r="M13" s="268"/>
-      <c r="N13" s="269"/>
+      <c r="A13" s="169"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="276"/>
+      <c r="G13" s="277"/>
+      <c r="H13" s="277"/>
+      <c r="I13" s="277"/>
+      <c r="J13" s="277"/>
+      <c r="K13" s="278"/>
+      <c r="L13" s="276"/>
+      <c r="M13" s="277"/>
+      <c r="N13" s="278"/>
     </row>
     <row r="14" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="170"/>
-      <c r="B14" s="293"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="294"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="267"/>
-      <c r="G14" s="268"/>
-      <c r="H14" s="268"/>
-      <c r="I14" s="268"/>
-      <c r="J14" s="268"/>
-      <c r="K14" s="269"/>
-      <c r="L14" s="267"/>
-      <c r="M14" s="268"/>
-      <c r="N14" s="269"/>
+      <c r="A14" s="169"/>
+      <c r="B14" s="195"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="276"/>
+      <c r="G14" s="277"/>
+      <c r="H14" s="277"/>
+      <c r="I14" s="277"/>
+      <c r="J14" s="277"/>
+      <c r="K14" s="278"/>
+      <c r="L14" s="276"/>
+      <c r="M14" s="277"/>
+      <c r="N14" s="278"/>
     </row>
     <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="170"/>
-      <c r="B15" s="293"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="294"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="267"/>
-      <c r="G15" s="268"/>
-      <c r="H15" s="268"/>
-      <c r="I15" s="268"/>
-      <c r="J15" s="268"/>
-      <c r="K15" s="269"/>
-      <c r="L15" s="267"/>
-      <c r="M15" s="268"/>
-      <c r="N15" s="269"/>
+      <c r="A15" s="169"/>
+      <c r="B15" s="195"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="276"/>
+      <c r="G15" s="277"/>
+      <c r="H15" s="277"/>
+      <c r="I15" s="277"/>
+      <c r="J15" s="277"/>
+      <c r="K15" s="278"/>
+      <c r="L15" s="276"/>
+      <c r="M15" s="277"/>
+      <c r="N15" s="278"/>
     </row>
     <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="170"/>
-      <c r="B16" s="293"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="294"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="267"/>
-      <c r="G16" s="268"/>
-      <c r="H16" s="268"/>
-      <c r="I16" s="268"/>
-      <c r="J16" s="268"/>
-      <c r="K16" s="269"/>
-      <c r="L16" s="267"/>
-      <c r="M16" s="268"/>
-      <c r="N16" s="269"/>
+      <c r="A16" s="169"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="276"/>
+      <c r="G16" s="277"/>
+      <c r="H16" s="277"/>
+      <c r="I16" s="277"/>
+      <c r="J16" s="277"/>
+      <c r="K16" s="278"/>
+      <c r="L16" s="276"/>
+      <c r="M16" s="277"/>
+      <c r="N16" s="278"/>
     </row>
     <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="170"/>
-      <c r="B17" s="293"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="294"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="267"/>
-      <c r="G17" s="268"/>
-      <c r="H17" s="268"/>
-      <c r="I17" s="268"/>
-      <c r="J17" s="268"/>
-      <c r="K17" s="269"/>
-      <c r="L17" s="267"/>
-      <c r="M17" s="268"/>
-      <c r="N17" s="269"/>
+      <c r="A17" s="169"/>
+      <c r="B17" s="195"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="276"/>
+      <c r="G17" s="277"/>
+      <c r="H17" s="277"/>
+      <c r="I17" s="277"/>
+      <c r="J17" s="277"/>
+      <c r="K17" s="278"/>
+      <c r="L17" s="276"/>
+      <c r="M17" s="277"/>
+      <c r="N17" s="278"/>
     </row>
     <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="297"/>
-      <c r="B18" s="293"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="294"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="267"/>
-      <c r="G18" s="268"/>
-      <c r="H18" s="268"/>
-      <c r="I18" s="268"/>
-      <c r="J18" s="268"/>
-      <c r="K18" s="269"/>
-      <c r="L18" s="267"/>
-      <c r="M18" s="268"/>
-      <c r="N18" s="269"/>
+      <c r="A18" s="199"/>
+      <c r="B18" s="195"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="196"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="276"/>
+      <c r="G18" s="277"/>
+      <c r="H18" s="277"/>
+      <c r="I18" s="277"/>
+      <c r="J18" s="277"/>
+      <c r="K18" s="278"/>
+      <c r="L18" s="276"/>
+      <c r="M18" s="277"/>
+      <c r="N18" s="278"/>
     </row>
     <row r="19" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="170" t="s">
+      <c r="A19" s="169" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="293" t="s">
+      <c r="B19" s="195" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="170"/>
-      <c r="D19" s="294"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="267"/>
-      <c r="G19" s="268"/>
-      <c r="H19" s="268"/>
-      <c r="I19" s="268"/>
-      <c r="J19" s="268"/>
-      <c r="K19" s="269"/>
-      <c r="L19" s="267"/>
-      <c r="M19" s="268"/>
-      <c r="N19" s="269"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="276"/>
+      <c r="G19" s="277"/>
+      <c r="H19" s="277"/>
+      <c r="I19" s="277"/>
+      <c r="J19" s="277"/>
+      <c r="K19" s="278"/>
+      <c r="L19" s="276"/>
+      <c r="M19" s="277"/>
+      <c r="N19" s="278"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="297"/>
-      <c r="B20" s="293"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="294"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="270"/>
-      <c r="G20" s="271"/>
-      <c r="H20" s="271"/>
-      <c r="I20" s="271"/>
-      <c r="J20" s="271"/>
-      <c r="K20" s="272"/>
-      <c r="L20" s="270"/>
-      <c r="M20" s="271"/>
-      <c r="N20" s="272"/>
+      <c r="A20" s="199"/>
+      <c r="B20" s="195"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="196"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="279"/>
+      <c r="G20" s="280"/>
+      <c r="H20" s="280"/>
+      <c r="I20" s="280"/>
+      <c r="J20" s="280"/>
+      <c r="K20" s="281"/>
+      <c r="L20" s="279"/>
+      <c r="M20" s="280"/>
+      <c r="N20" s="281"/>
     </row>
     <row r="21" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="134" t="s">
+      <c r="C21" s="133" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="111"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/ExcelAddIn1/Resources/FICHA RECETA.xlsx
+++ b/ExcelAddIn1/Resources/FICHA RECETA.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ING. VEGA\Documents\GitHub\VSTOexcelRest\ExcelAddIn1\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ReporteInventario" sheetId="3" r:id="rId1"/>
     <sheet name="OrdenTrabajo" sheetId="7" r:id="rId2"/>
     <sheet name="ReporteInventarioImprimir" sheetId="4" r:id="rId3"/>
-    <sheet name="ReporteIngredientesDiarios" sheetId="8" r:id="rId4"/>
-    <sheet name="Receta" sheetId="1" r:id="rId5"/>
-    <sheet name="ReporterCocina" sheetId="5" r:id="rId6"/>
-    <sheet name="DetalleReceta" sheetId="6" r:id="rId7"/>
+    <sheet name="IngredientesPreviaGlobal" sheetId="8" r:id="rId4"/>
+    <sheet name="IngredientesPreviaPlatillo" sheetId="9" r:id="rId5"/>
+    <sheet name="Receta" sheetId="1" r:id="rId6"/>
+    <sheet name="ReporterCocina" sheetId="5" r:id="rId7"/>
+    <sheet name="DetalleReceta" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="CANTIDAD_A_ELABORAR">Receta!$J$4</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="121">
   <si>
     <t>Receta</t>
   </si>
@@ -435,10 +436,28 @@
     <t>Encargado:</t>
   </si>
   <si>
-    <t>Almacenes Mercatto                                  S. de R.L. de C.V.</t>
-  </si>
-  <si>
-    <t>Ingredientes Menú Diario</t>
+    <t>Firma de Recibido</t>
+  </si>
+  <si>
+    <t>Almacenes Mercatto                                        S. de R.L. de C.V.</t>
+  </si>
+  <si>
+    <t>Previa</t>
+  </si>
+  <si>
+    <t>Platillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almacenes Mercatto                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    S. de R.L. de C.V.</t>
+  </si>
+  <si>
+    <t>Fecha: ____________</t>
+  </si>
+  <si>
+    <t>Fecha:__________</t>
   </si>
 </sst>
 </file>
@@ -446,15 +465,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.000%"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="[$$-80A]#,##0.00"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="[$$-80A]#,##0.00"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,7 +670,21 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Arial Black"/>
       <family val="2"/>
@@ -755,7 +788,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1258,13 +1291,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1362,26 +1406,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1585,14 +1629,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1627,10 +1671,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1649,16 +1693,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1731,7 +1775,7 @@
     <xf numFmtId="0" fontId="21" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="16" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="16" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1761,7 +1805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1879,33 +1923,25 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1915,6 +1951,162 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1933,114 +2125,6 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2053,12 +2137,71 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2076,14 +2219,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2100,59 +2235,32 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2217,27 +2325,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2332,15 +2443,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>87959</xdr:rowOff>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2234</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2378,8 +2489,72 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="38100" y="0"/>
+          <a:ext cx="1714499" cy="954734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1743075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>136892</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17ED924A-CD86-45B1-ADE2-7F555164A074}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="9804" b="88889" l="5863" r="94463"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1714499" cy="954734"/>
+          <a:ext cx="1743075" cy="1241792"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2884,20 +3059,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="252" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
       <c r="M1" s="109"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
@@ -2926,8 +3101,8 @@
       <c r="I3" s="169" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="204"/>
-      <c r="K3" s="205"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="255"/>
       <c r="L3" s="109"/>
       <c r="M3" s="109"/>
     </row>
@@ -2935,10 +3110,10 @@
       <c r="A4" s="164" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="203"/>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="203"/>
+      <c r="B4" s="253"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="253"/>
       <c r="G4" s="134"/>
       <c r="H4" s="134"/>
       <c r="I4" s="167"/>
@@ -2951,29 +3126,29 @@
       <c r="A5" s="165" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="203"/>
-      <c r="C5" s="203"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="203"/>
+      <c r="B5" s="253"/>
+      <c r="C5" s="253"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
       <c r="G5" s="134"/>
-      <c r="H5" s="206" t="s">
+      <c r="H5" s="256" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="207"/>
+      <c r="I5" s="257"/>
       <c r="J5" s="134"/>
       <c r="K5" s="134"/>
       <c r="L5" s="134"/>
       <c r="M5" s="109"/>
     </row>
     <row r="6" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="220" t="s">
+      <c r="A6" s="228" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="221"/>
-      <c r="C6" s="222" t="s">
+      <c r="B6" s="229"/>
+      <c r="C6" s="230" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="223"/>
+      <c r="D6" s="231"/>
       <c r="E6" s="158" t="s">
         <v>90</v>
       </c>
@@ -3016,10 +3191,10 @@
       <c r="C8" s="157" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="229" t="s">
+      <c r="D8" s="237" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="230" t="s">
+      <c r="E8" s="238" t="s">
         <v>105</v>
       </c>
       <c r="F8" s="135"/>
@@ -3044,8 +3219,8 @@
         <f>C7*1/A9</f>
         <v>0</v>
       </c>
-      <c r="D9" s="229"/>
-      <c r="E9" s="230"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="238"/>
       <c r="F9" s="135"/>
       <c r="I9" s="134"/>
       <c r="J9" s="134"/>
@@ -3062,7 +3237,7 @@
       <c r="F10" s="134"/>
       <c r="G10" s="134"/>
       <c r="H10" s="134"/>
-      <c r="I10" s="228" t="s">
+      <c r="I10" s="236" t="s">
         <v>111</v>
       </c>
       <c r="J10" s="134" t="s">
@@ -3081,7 +3256,7 @@
       <c r="F11" s="134"/>
       <c r="G11" s="134"/>
       <c r="H11" s="134"/>
-      <c r="I11" s="228"/>
+      <c r="I11" s="236"/>
       <c r="J11" s="174" t="s">
         <v>95</v>
       </c>
@@ -3130,9 +3305,9 @@
       <c r="F14" s="134"/>
       <c r="G14" s="134"/>
       <c r="H14" s="134"/>
-      <c r="I14" s="224"/>
-      <c r="J14" s="243"/>
-      <c r="K14" s="243"/>
+      <c r="I14" s="232"/>
+      <c r="J14" s="251"/>
+      <c r="K14" s="251"/>
       <c r="L14" s="134"/>
       <c r="M14" s="109"/>
     </row>
@@ -3145,9 +3320,9 @@
       <c r="F15" s="134"/>
       <c r="G15" s="134"/>
       <c r="H15" s="134"/>
-      <c r="I15" s="224"/>
-      <c r="J15" s="243"/>
-      <c r="K15" s="243"/>
+      <c r="I15" s="232"/>
+      <c r="J15" s="251"/>
+      <c r="K15" s="251"/>
       <c r="L15" s="134"/>
       <c r="M15" s="109"/>
     </row>
@@ -3172,15 +3347,15 @@
       <c r="C17" s="148"/>
       <c r="D17" s="146"/>
       <c r="E17" s="147"/>
-      <c r="F17" s="231" t="s">
+      <c r="F17" s="239" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="232"/>
-      <c r="H17" s="232"/>
-      <c r="I17" s="232"/>
-      <c r="J17" s="232"/>
-      <c r="K17" s="232"/>
-      <c r="L17" s="233"/>
+      <c r="G17" s="240"/>
+      <c r="H17" s="240"/>
+      <c r="I17" s="240"/>
+      <c r="J17" s="240"/>
+      <c r="K17" s="240"/>
+      <c r="L17" s="241"/>
       <c r="M17" s="109"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
@@ -3189,13 +3364,13 @@
       <c r="C18" s="148"/>
       <c r="D18" s="146"/>
       <c r="E18" s="147"/>
-      <c r="F18" s="234"/>
-      <c r="G18" s="235"/>
-      <c r="H18" s="235"/>
-      <c r="I18" s="235"/>
-      <c r="J18" s="235"/>
-      <c r="K18" s="235"/>
-      <c r="L18" s="236"/>
+      <c r="F18" s="242"/>
+      <c r="G18" s="243"/>
+      <c r="H18" s="243"/>
+      <c r="I18" s="243"/>
+      <c r="J18" s="243"/>
+      <c r="K18" s="243"/>
+      <c r="L18" s="244"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="144"/>
@@ -3203,13 +3378,13 @@
       <c r="C19" s="151"/>
       <c r="D19" s="147"/>
       <c r="E19" s="147"/>
-      <c r="F19" s="237"/>
-      <c r="G19" s="238"/>
-      <c r="H19" s="238"/>
-      <c r="I19" s="238"/>
-      <c r="J19" s="238"/>
-      <c r="K19" s="238"/>
-      <c r="L19" s="239"/>
+      <c r="F19" s="245"/>
+      <c r="G19" s="246"/>
+      <c r="H19" s="246"/>
+      <c r="I19" s="246"/>
+      <c r="J19" s="246"/>
+      <c r="K19" s="246"/>
+      <c r="L19" s="247"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="150"/>
@@ -3217,13 +3392,13 @@
       <c r="C20" s="151"/>
       <c r="D20" s="147"/>
       <c r="E20" s="147"/>
-      <c r="F20" s="237"/>
-      <c r="G20" s="238"/>
-      <c r="H20" s="238"/>
-      <c r="I20" s="238"/>
-      <c r="J20" s="238"/>
-      <c r="K20" s="238"/>
-      <c r="L20" s="239"/>
+      <c r="F20" s="245"/>
+      <c r="G20" s="246"/>
+      <c r="H20" s="246"/>
+      <c r="I20" s="246"/>
+      <c r="J20" s="246"/>
+      <c r="K20" s="246"/>
+      <c r="L20" s="247"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="150"/>
@@ -3231,13 +3406,13 @@
       <c r="C21" s="151"/>
       <c r="D21" s="147"/>
       <c r="E21" s="147"/>
-      <c r="F21" s="237"/>
-      <c r="G21" s="238"/>
-      <c r="H21" s="238"/>
-      <c r="I21" s="238"/>
-      <c r="J21" s="238"/>
-      <c r="K21" s="238"/>
-      <c r="L21" s="239"/>
+      <c r="F21" s="245"/>
+      <c r="G21" s="246"/>
+      <c r="H21" s="246"/>
+      <c r="I21" s="246"/>
+      <c r="J21" s="246"/>
+      <c r="K21" s="246"/>
+      <c r="L21" s="247"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="150"/>
@@ -3245,13 +3420,13 @@
       <c r="C22" s="151"/>
       <c r="D22" s="147"/>
       <c r="E22" s="147"/>
-      <c r="F22" s="237"/>
-      <c r="G22" s="238"/>
-      <c r="H22" s="238"/>
-      <c r="I22" s="238"/>
-      <c r="J22" s="238"/>
-      <c r="K22" s="238"/>
-      <c r="L22" s="239"/>
+      <c r="F22" s="245"/>
+      <c r="G22" s="246"/>
+      <c r="H22" s="246"/>
+      <c r="I22" s="246"/>
+      <c r="J22" s="246"/>
+      <c r="K22" s="246"/>
+      <c r="L22" s="247"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="150"/>
@@ -3259,13 +3434,13 @@
       <c r="C23" s="151"/>
       <c r="D23" s="147"/>
       <c r="E23" s="147"/>
-      <c r="F23" s="237"/>
-      <c r="G23" s="238"/>
-      <c r="H23" s="238"/>
-      <c r="I23" s="238"/>
-      <c r="J23" s="238"/>
-      <c r="K23" s="238"/>
-      <c r="L23" s="239"/>
+      <c r="F23" s="245"/>
+      <c r="G23" s="246"/>
+      <c r="H23" s="246"/>
+      <c r="I23" s="246"/>
+      <c r="J23" s="246"/>
+      <c r="K23" s="246"/>
+      <c r="L23" s="247"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="152"/>
@@ -3273,153 +3448,153 @@
       <c r="C24" s="186"/>
       <c r="D24" s="187"/>
       <c r="E24" s="187"/>
-      <c r="F24" s="240"/>
-      <c r="G24" s="241"/>
-      <c r="H24" s="241"/>
-      <c r="I24" s="241"/>
-      <c r="J24" s="241"/>
-      <c r="K24" s="241"/>
-      <c r="L24" s="242"/>
+      <c r="F24" s="248"/>
+      <c r="G24" s="249"/>
+      <c r="H24" s="249"/>
+      <c r="I24" s="249"/>
+      <c r="J24" s="249"/>
+      <c r="K24" s="249"/>
+      <c r="L24" s="250"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="208" t="s">
+      <c r="A25" s="216" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="209"/>
-      <c r="C25" s="209"/>
-      <c r="D25" s="209"/>
-      <c r="E25" s="209"/>
-      <c r="F25" s="209"/>
-      <c r="G25" s="209"/>
-      <c r="H25" s="210"/>
-      <c r="I25" s="225" t="s">
+      <c r="B25" s="217"/>
+      <c r="C25" s="217"/>
+      <c r="D25" s="217"/>
+      <c r="E25" s="217"/>
+      <c r="F25" s="217"/>
+      <c r="G25" s="217"/>
+      <c r="H25" s="218"/>
+      <c r="I25" s="233" t="s">
         <v>94</v>
       </c>
-      <c r="J25" s="226"/>
-      <c r="K25" s="226"/>
-      <c r="L25" s="227"/>
+      <c r="J25" s="234"/>
+      <c r="K25" s="234"/>
+      <c r="L25" s="235"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="211"/>
-      <c r="B26" s="212"/>
-      <c r="C26" s="212"/>
-      <c r="D26" s="212"/>
-      <c r="E26" s="212"/>
-      <c r="F26" s="212"/>
-      <c r="G26" s="212"/>
-      <c r="H26" s="213"/>
+      <c r="A26" s="219"/>
+      <c r="B26" s="220"/>
+      <c r="C26" s="220"/>
+      <c r="D26" s="220"/>
+      <c r="E26" s="220"/>
+      <c r="F26" s="220"/>
+      <c r="G26" s="220"/>
+      <c r="H26" s="221"/>
       <c r="I26" s="177"/>
       <c r="J26" s="178"/>
       <c r="K26" s="178"/>
       <c r="L26" s="179"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="214"/>
-      <c r="B27" s="215"/>
-      <c r="C27" s="215"/>
-      <c r="D27" s="215"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="215"/>
-      <c r="G27" s="215"/>
-      <c r="H27" s="216"/>
+      <c r="A27" s="222"/>
+      <c r="B27" s="223"/>
+      <c r="C27" s="223"/>
+      <c r="D27" s="223"/>
+      <c r="E27" s="223"/>
+      <c r="F27" s="223"/>
+      <c r="G27" s="223"/>
+      <c r="H27" s="224"/>
       <c r="I27" s="180"/>
       <c r="J27" s="176"/>
       <c r="K27" s="176"/>
       <c r="L27" s="181"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="214"/>
-      <c r="B28" s="215"/>
-      <c r="C28" s="215"/>
-      <c r="D28" s="215"/>
-      <c r="E28" s="215"/>
-      <c r="F28" s="215"/>
-      <c r="G28" s="215"/>
-      <c r="H28" s="216"/>
+      <c r="A28" s="222"/>
+      <c r="B28" s="223"/>
+      <c r="C28" s="223"/>
+      <c r="D28" s="223"/>
+      <c r="E28" s="223"/>
+      <c r="F28" s="223"/>
+      <c r="G28" s="223"/>
+      <c r="H28" s="224"/>
       <c r="I28" s="180"/>
       <c r="J28" s="176"/>
       <c r="K28" s="176"/>
       <c r="L28" s="181"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="214"/>
-      <c r="B29" s="215"/>
-      <c r="C29" s="215"/>
-      <c r="D29" s="215"/>
-      <c r="E29" s="215"/>
-      <c r="F29" s="215"/>
-      <c r="G29" s="215"/>
-      <c r="H29" s="216"/>
+      <c r="A29" s="222"/>
+      <c r="B29" s="223"/>
+      <c r="C29" s="223"/>
+      <c r="D29" s="223"/>
+      <c r="E29" s="223"/>
+      <c r="F29" s="223"/>
+      <c r="G29" s="223"/>
+      <c r="H29" s="224"/>
       <c r="I29" s="180"/>
       <c r="J29" s="176"/>
       <c r="K29" s="176"/>
       <c r="L29" s="181"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="214"/>
-      <c r="B30" s="215"/>
-      <c r="C30" s="215"/>
-      <c r="D30" s="215"/>
-      <c r="E30" s="215"/>
-      <c r="F30" s="215"/>
-      <c r="G30" s="215"/>
-      <c r="H30" s="216"/>
+      <c r="A30" s="222"/>
+      <c r="B30" s="223"/>
+      <c r="C30" s="223"/>
+      <c r="D30" s="223"/>
+      <c r="E30" s="223"/>
+      <c r="F30" s="223"/>
+      <c r="G30" s="223"/>
+      <c r="H30" s="224"/>
       <c r="I30" s="180"/>
       <c r="J30" s="176"/>
       <c r="K30" s="176"/>
       <c r="L30" s="181"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="214"/>
-      <c r="B31" s="215"/>
-      <c r="C31" s="215"/>
-      <c r="D31" s="215"/>
-      <c r="E31" s="215"/>
-      <c r="F31" s="215"/>
-      <c r="G31" s="215"/>
-      <c r="H31" s="216"/>
+      <c r="A31" s="222"/>
+      <c r="B31" s="223"/>
+      <c r="C31" s="223"/>
+      <c r="D31" s="223"/>
+      <c r="E31" s="223"/>
+      <c r="F31" s="223"/>
+      <c r="G31" s="223"/>
+      <c r="H31" s="224"/>
       <c r="I31" s="180"/>
       <c r="J31" s="176"/>
       <c r="K31" s="176"/>
       <c r="L31" s="181"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="214"/>
-      <c r="B32" s="215"/>
-      <c r="C32" s="215"/>
-      <c r="D32" s="215"/>
-      <c r="E32" s="215"/>
-      <c r="F32" s="215"/>
-      <c r="G32" s="215"/>
-      <c r="H32" s="216"/>
+      <c r="A32" s="222"/>
+      <c r="B32" s="223"/>
+      <c r="C32" s="223"/>
+      <c r="D32" s="223"/>
+      <c r="E32" s="223"/>
+      <c r="F32" s="223"/>
+      <c r="G32" s="223"/>
+      <c r="H32" s="224"/>
       <c r="I32" s="180"/>
       <c r="J32" s="176"/>
       <c r="K32" s="176"/>
       <c r="L32" s="181"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="214"/>
-      <c r="B33" s="215"/>
-      <c r="C33" s="215"/>
-      <c r="D33" s="215"/>
-      <c r="E33" s="215"/>
-      <c r="F33" s="215"/>
-      <c r="G33" s="215"/>
-      <c r="H33" s="216"/>
+      <c r="A33" s="222"/>
+      <c r="B33" s="223"/>
+      <c r="C33" s="223"/>
+      <c r="D33" s="223"/>
+      <c r="E33" s="223"/>
+      <c r="F33" s="223"/>
+      <c r="G33" s="223"/>
+      <c r="H33" s="224"/>
       <c r="I33" s="180"/>
       <c r="J33" s="176"/>
       <c r="K33" s="176"/>
       <c r="L33" s="181"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="217"/>
-      <c r="B34" s="218"/>
-      <c r="C34" s="218"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="218"/>
-      <c r="F34" s="218"/>
-      <c r="G34" s="218"/>
-      <c r="H34" s="219"/>
+      <c r="A34" s="225"/>
+      <c r="B34" s="226"/>
+      <c r="C34" s="226"/>
+      <c r="D34" s="226"/>
+      <c r="E34" s="226"/>
+      <c r="F34" s="226"/>
+      <c r="G34" s="226"/>
+      <c r="H34" s="227"/>
       <c r="I34" s="182"/>
       <c r="J34" s="183"/>
       <c r="K34" s="183"/>
@@ -3427,6 +3602,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A26:H34"/>
     <mergeCell ref="A6:B6"/>
@@ -3439,11 +3619,6 @@
     <mergeCell ref="F17:L17"/>
     <mergeCell ref="F18:L24"/>
     <mergeCell ref="J14:K15"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3474,45 +3649,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
       <c r="G1" s="66" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="66"/>
-      <c r="I1" s="246">
+      <c r="I1" s="260">
         <v>42491</v>
       </c>
-      <c r="J1" s="246"/>
+      <c r="J1" s="260"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="245"/>
-      <c r="E2" s="245"/>
-      <c r="F2" s="245"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
       <c r="G2" s="68" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="68"/>
-      <c r="I2" s="246">
+      <c r="I2" s="260">
         <v>42639</v>
       </c>
-      <c r="J2" s="246"/>
+      <c r="J2" s="260"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="244" t="s">
+      <c r="B3" s="258" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
+      <c r="C3" s="258"/>
+      <c r="D3" s="258"/>
+      <c r="E3" s="258"/>
+      <c r="F3" s="258"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="65"/>
@@ -3649,276 +3824,1077 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="320" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="247" t="s">
+    <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="210" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="262" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="262"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="188"/>
+    </row>
+    <row r="2" spans="1:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="210"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="316"/>
+      <c r="F2" s="188"/>
+    </row>
+    <row r="3" spans="1:6" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="211" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="261" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="247"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="188"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="247"/>
-      <c r="C3" s="247"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-    </row>
-    <row r="4" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="248" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="248"/>
-    </row>
-    <row r="5" spans="1:6" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="191" t="s">
+      <c r="D3" s="261"/>
+      <c r="E3" s="317"/>
+    </row>
+    <row r="4" spans="1:6" s="202" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="191" t="s">
+      <c r="B4" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="191" t="s">
+      <c r="C4" s="201" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="191" t="s">
-        <v>3</v>
-      </c>
+      <c r="D4" s="201"/>
+      <c r="E4" s="318" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="199"/>
+      <c r="B5" s="203"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="319"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="190"/>
-      <c r="B6" s="190"/>
-      <c r="C6" s="190"/>
-      <c r="D6" s="190"/>
+      <c r="A6" s="199"/>
+      <c r="B6" s="203"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="319"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="190"/>
-      <c r="B7" s="190"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="190"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="203"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="319"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="190"/>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
+      <c r="A8" s="199"/>
+      <c r="B8" s="203"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="319"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="190"/>
-      <c r="B9" s="190"/>
-      <c r="C9" s="190"/>
-      <c r="D9" s="190"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="203"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="319"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="190"/>
-      <c r="B10" s="190"/>
-      <c r="C10" s="190"/>
-      <c r="D10" s="190"/>
+      <c r="A10" s="199"/>
+      <c r="B10" s="203"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="319"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="190"/>
-      <c r="B11" s="190"/>
-      <c r="C11" s="190"/>
-      <c r="D11" s="190"/>
+      <c r="A11" s="199"/>
+      <c r="B11" s="203"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="319"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="190"/>
-      <c r="B12" s="190"/>
-      <c r="C12" s="190"/>
-      <c r="D12" s="190"/>
+      <c r="A12" s="199"/>
+      <c r="B12" s="203"/>
+      <c r="C12" s="199"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="319"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="190"/>
-      <c r="B13" s="190"/>
-      <c r="C13" s="190"/>
-      <c r="D13" s="190"/>
+      <c r="A13" s="199"/>
+      <c r="B13" s="203"/>
+      <c r="C13" s="199"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="319"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="190"/>
-      <c r="B14" s="190"/>
-      <c r="C14" s="190"/>
-      <c r="D14" s="190"/>
+      <c r="A14" s="199"/>
+      <c r="B14" s="203"/>
+      <c r="C14" s="199"/>
+      <c r="D14" s="199"/>
+      <c r="E14" s="319"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="190"/>
-      <c r="B15" s="190"/>
-      <c r="C15" s="190"/>
-      <c r="D15" s="190"/>
+      <c r="A15" s="199"/>
+      <c r="B15" s="203"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="319"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="190"/>
-      <c r="B16" s="190"/>
-      <c r="C16" s="190"/>
-      <c r="D16" s="190"/>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="190"/>
-      <c r="B17" s="190"/>
-      <c r="C17" s="190"/>
-      <c r="D17" s="190"/>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="190"/>
-      <c r="B18" s="190"/>
-      <c r="C18" s="190"/>
-      <c r="D18" s="190"/>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="190"/>
-      <c r="B19" s="190"/>
-      <c r="C19" s="190"/>
-      <c r="D19" s="190"/>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="190"/>
-      <c r="B20" s="190"/>
-      <c r="C20" s="190"/>
-      <c r="D20" s="190"/>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="190"/>
-      <c r="B21" s="190"/>
-      <c r="C21" s="190"/>
-      <c r="D21" s="190"/>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="190"/>
-      <c r="B22" s="190"/>
-      <c r="C22" s="190"/>
-      <c r="D22" s="190"/>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="190"/>
-      <c r="B23" s="190"/>
-      <c r="C23" s="190"/>
-      <c r="D23" s="190"/>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="190"/>
-      <c r="B24" s="190"/>
-      <c r="C24" s="190"/>
-      <c r="D24" s="190"/>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="190"/>
-      <c r="B25" s="190"/>
-      <c r="C25" s="190"/>
-      <c r="D25" s="190"/>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="190"/>
-      <c r="B26" s="190"/>
-      <c r="C26" s="190"/>
-      <c r="D26" s="190"/>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="190"/>
-      <c r="B27" s="190"/>
-      <c r="C27" s="190"/>
-      <c r="D27" s="190"/>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="190"/>
-      <c r="B28" s="190"/>
-      <c r="C28" s="190"/>
-      <c r="D28" s="190"/>
-    </row>
-    <row r="29" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="190"/>
-      <c r="B29" s="190"/>
-      <c r="C29" s="190"/>
-      <c r="D29" s="190"/>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="190"/>
-      <c r="B30" s="190"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="190"/>
-    </row>
-    <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="190"/>
-      <c r="B31" s="190"/>
-      <c r="C31" s="190"/>
-      <c r="D31" s="190"/>
-    </row>
-    <row r="32" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="190"/>
-      <c r="B32" s="190"/>
-      <c r="C32" s="190"/>
-      <c r="D32" s="190"/>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="190"/>
-      <c r="B33" s="190"/>
-      <c r="C33" s="190"/>
-      <c r="D33" s="190"/>
-    </row>
-    <row r="34" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="190"/>
-      <c r="B34" s="190"/>
-      <c r="C34" s="190"/>
-      <c r="D34" s="190"/>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="190"/>
-      <c r="B35" s="190"/>
-      <c r="C35" s="190"/>
-      <c r="D35" s="190"/>
-    </row>
-    <row r="36" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="190"/>
-      <c r="B36" s="190"/>
-      <c r="C36" s="190"/>
-      <c r="D36" s="190"/>
-    </row>
-    <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="190"/>
-      <c r="B37" s="190"/>
-      <c r="C37" s="190"/>
-      <c r="D37" s="190"/>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="190"/>
-      <c r="B38" s="190"/>
-      <c r="C38" s="190"/>
-      <c r="D38" s="190"/>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="190"/>
-      <c r="B39" s="190"/>
-      <c r="C39" s="190"/>
-      <c r="D39" s="190"/>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="190"/>
-      <c r="B40" s="190"/>
-      <c r="C40" s="190"/>
-      <c r="D40" s="190"/>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="A16" s="199"/>
+      <c r="B16" s="203"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="319"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="199"/>
+      <c r="B17" s="203"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="319"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="199"/>
+      <c r="B18" s="203"/>
+      <c r="C18" s="199"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="319"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="199"/>
+      <c r="B19" s="203"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="319"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="199"/>
+      <c r="B20" s="203"/>
+      <c r="C20" s="199"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="319"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="199"/>
+      <c r="B21" s="203"/>
+      <c r="C21" s="199"/>
+      <c r="D21" s="199"/>
+      <c r="E21" s="319"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="199"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="199"/>
+      <c r="D22" s="199"/>
+      <c r="E22" s="319"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="199"/>
+      <c r="B23" s="203"/>
+      <c r="C23" s="199"/>
+      <c r="D23" s="199"/>
+      <c r="E23" s="319"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="199"/>
+      <c r="B24" s="203"/>
+      <c r="C24" s="199"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="319"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="199"/>
+      <c r="B25" s="203"/>
+      <c r="C25" s="199"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="319"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="199"/>
+      <c r="B26" s="203"/>
+      <c r="C26" s="199"/>
+      <c r="D26" s="199"/>
+      <c r="E26" s="319"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="199"/>
+      <c r="B27" s="203"/>
+      <c r="C27" s="199"/>
+      <c r="D27" s="199"/>
+      <c r="E27" s="319"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="199"/>
+      <c r="B28" s="203"/>
+      <c r="C28" s="199"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="319"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="199"/>
+      <c r="B29" s="203"/>
+      <c r="C29" s="199"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="319"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="199"/>
+      <c r="B30" s="203"/>
+      <c r="C30" s="199"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="319"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="199"/>
+      <c r="B31" s="203"/>
+      <c r="C31" s="199"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="319"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="199"/>
+      <c r="B32" s="203"/>
+      <c r="C32" s="199"/>
+      <c r="D32" s="199"/>
+      <c r="E32" s="319"/>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="199"/>
+      <c r="B33" s="203"/>
+      <c r="C33" s="199"/>
+      <c r="D33" s="199"/>
+      <c r="E33" s="319"/>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="199"/>
+      <c r="B34" s="203"/>
+      <c r="C34" s="199"/>
+      <c r="D34" s="199"/>
+      <c r="E34" s="319"/>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="199"/>
+      <c r="B35" s="203"/>
+      <c r="C35" s="199"/>
+      <c r="D35" s="199"/>
+      <c r="E35" s="319"/>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="199"/>
+      <c r="B36" s="203"/>
+      <c r="C36" s="199"/>
+      <c r="D36" s="199"/>
+      <c r="E36" s="319"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="199"/>
+      <c r="B37" s="203"/>
+      <c r="C37" s="199"/>
+      <c r="D37" s="199"/>
+      <c r="E37" s="319"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="199"/>
+      <c r="B38" s="203"/>
+      <c r="C38" s="199"/>
+      <c r="D38" s="199"/>
+      <c r="E38" s="319"/>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="199"/>
+      <c r="B39" s="203"/>
+      <c r="C39" s="199"/>
+      <c r="D39" s="199"/>
+      <c r="E39" s="319"/>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="199"/>
+      <c r="B40" s="203"/>
+      <c r="C40" s="199"/>
+      <c r="D40" s="199"/>
+      <c r="E40" s="319"/>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="199"/>
+      <c r="B41" s="203"/>
+      <c r="C41" s="199"/>
+      <c r="D41" s="199"/>
+      <c r="E41" s="319"/>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="199"/>
+      <c r="B42" s="203"/>
+      <c r="C42" s="199"/>
+      <c r="D42" s="199"/>
+      <c r="E42" s="319"/>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="199"/>
+      <c r="B43" s="203"/>
+      <c r="C43" s="199"/>
+      <c r="D43" s="199"/>
+      <c r="E43" s="319"/>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="199"/>
+      <c r="B44" s="203"/>
+      <c r="C44" s="199"/>
+      <c r="D44" s="199"/>
+      <c r="E44" s="319"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="199"/>
+      <c r="B45" s="203"/>
+      <c r="C45" s="199"/>
+      <c r="D45" s="199"/>
+      <c r="E45" s="319"/>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="199"/>
+      <c r="B46" s="203"/>
+      <c r="C46" s="199"/>
+      <c r="D46" s="199"/>
+      <c r="E46" s="319"/>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="199"/>
+      <c r="B47" s="203"/>
+      <c r="C47" s="199"/>
+      <c r="D47" s="199"/>
+      <c r="E47" s="319"/>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="199"/>
+      <c r="B48" s="203"/>
+      <c r="C48" s="199"/>
+      <c r="D48" s="199"/>
+      <c r="E48" s="319"/>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="199"/>
+      <c r="B49" s="203"/>
+      <c r="C49" s="199"/>
+      <c r="D49" s="199"/>
+      <c r="E49" s="319"/>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="199"/>
+      <c r="B50" s="203"/>
+      <c r="C50" s="199"/>
+      <c r="D50" s="199"/>
+      <c r="E50" s="319"/>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="199"/>
+      <c r="B51" s="203"/>
+      <c r="C51" s="199"/>
+      <c r="D51" s="199"/>
+      <c r="E51" s="319"/>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="199"/>
+      <c r="B52" s="203"/>
+      <c r="C52" s="199"/>
+      <c r="D52" s="199"/>
+      <c r="E52" s="319"/>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="199"/>
+      <c r="B53" s="203"/>
+      <c r="C53" s="199"/>
+      <c r="D53" s="199"/>
+      <c r="E53" s="319"/>
+    </row>
+    <row r="54" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="199"/>
+      <c r="B54" s="203"/>
+      <c r="C54" s="199"/>
+      <c r="D54" s="199"/>
+      <c r="E54" s="319"/>
+    </row>
+    <row r="55" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="199"/>
+      <c r="B55" s="203"/>
+      <c r="C55" s="199"/>
+      <c r="D55" s="199"/>
+      <c r="E55" s="319"/>
+    </row>
+    <row r="56" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="199"/>
+      <c r="B56" s="203"/>
+      <c r="C56" s="199"/>
+      <c r="D56" s="199"/>
+      <c r="E56" s="319"/>
+    </row>
+    <row r="57" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="199"/>
+      <c r="B57" s="203"/>
+      <c r="C57" s="199"/>
+      <c r="D57" s="199"/>
+      <c r="E57" s="319"/>
+    </row>
+    <row r="58" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="199"/>
+      <c r="B58" s="203"/>
+      <c r="C58" s="199"/>
+      <c r="D58" s="199"/>
+      <c r="E58" s="319"/>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="199"/>
+      <c r="B59" s="203"/>
+      <c r="C59" s="199"/>
+      <c r="D59" s="199"/>
+      <c r="E59" s="319"/>
+    </row>
+    <row r="60" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="199"/>
+      <c r="B60" s="203"/>
+      <c r="C60" s="199"/>
+      <c r="D60" s="199"/>
+      <c r="E60" s="319"/>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="199"/>
+      <c r="B61" s="203"/>
+      <c r="C61" s="199"/>
+      <c r="D61" s="199"/>
+      <c r="E61" s="319"/>
+    </row>
+    <row r="62" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="199"/>
+      <c r="B62" s="203"/>
+      <c r="C62" s="199"/>
+      <c r="D62" s="199"/>
+      <c r="E62" s="319"/>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="199"/>
+      <c r="B63" s="203"/>
+      <c r="C63" s="199"/>
+      <c r="D63" s="199"/>
+      <c r="E63" s="319"/>
+    </row>
+    <row r="64" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="199"/>
+      <c r="B64" s="203"/>
+      <c r="C64" s="199"/>
+      <c r="D64" s="199"/>
+      <c r="E64" s="319"/>
+    </row>
+    <row r="65" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="199"/>
+      <c r="B65" s="203"/>
+      <c r="C65" s="199"/>
+      <c r="D65" s="199"/>
+      <c r="E65" s="319"/>
+    </row>
+    <row r="66" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="199"/>
+      <c r="B66" s="203"/>
+      <c r="C66" s="199"/>
+      <c r="D66" s="199"/>
+      <c r="E66" s="319"/>
+    </row>
+    <row r="67" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="199"/>
+      <c r="B67" s="203"/>
+      <c r="C67" s="199"/>
+      <c r="D67" s="199"/>
+      <c r="E67" s="319"/>
+    </row>
+    <row r="68" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="199"/>
+      <c r="B68" s="203"/>
+      <c r="C68" s="199"/>
+      <c r="D68" s="199"/>
+      <c r="E68" s="319"/>
+    </row>
+    <row r="69" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="199"/>
+      <c r="B69" s="203"/>
+      <c r="C69" s="199"/>
+      <c r="D69" s="199"/>
+      <c r="E69" s="319"/>
+    </row>
+    <row r="70" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="199"/>
+      <c r="B70" s="203"/>
+      <c r="C70" s="199"/>
+      <c r="D70" s="199"/>
+      <c r="E70" s="319"/>
+    </row>
+    <row r="71" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="199"/>
+      <c r="B71" s="203"/>
+      <c r="C71" s="199"/>
+      <c r="D71" s="199"/>
+      <c r="E71" s="319"/>
+    </row>
+    <row r="72" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="199"/>
+      <c r="B72" s="203"/>
+      <c r="C72" s="199"/>
+      <c r="D72" s="199"/>
+      <c r="E72" s="319"/>
+    </row>
+    <row r="73" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="199"/>
+      <c r="B73" s="203"/>
+      <c r="C73" s="199"/>
+      <c r="D73" s="199"/>
+      <c r="E73" s="319"/>
+    </row>
+    <row r="74" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="199"/>
+      <c r="B74" s="203"/>
+      <c r="C74" s="199"/>
+      <c r="D74" s="199"/>
+      <c r="E74" s="319"/>
+    </row>
+    <row r="75" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="199"/>
+      <c r="B75" s="203"/>
+      <c r="C75" s="199"/>
+      <c r="D75" s="199"/>
+      <c r="E75" s="319"/>
+    </row>
+    <row r="76" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="199"/>
+      <c r="B76" s="203"/>
+      <c r="C76" s="199"/>
+      <c r="D76" s="199"/>
+      <c r="E76" s="319"/>
+    </row>
+    <row r="77" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="199"/>
+      <c r="B77" s="203"/>
+      <c r="C77" s="199"/>
+      <c r="D77" s="199"/>
+      <c r="E77" s="319"/>
+    </row>
+    <row r="78" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="199"/>
+      <c r="B78" s="203"/>
+      <c r="C78" s="199"/>
+      <c r="D78" s="199"/>
+      <c r="E78" s="319"/>
+    </row>
+    <row r="79" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="199"/>
+      <c r="B79" s="203"/>
+      <c r="C79" s="199"/>
+      <c r="D79" s="199"/>
+      <c r="E79" s="319"/>
+    </row>
+    <row r="80" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="199"/>
+      <c r="B80" s="203"/>
+      <c r="C80" s="199"/>
+      <c r="D80" s="199"/>
+      <c r="E80" s="319"/>
+    </row>
+    <row r="81" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="199"/>
+      <c r="B81" s="203"/>
+      <c r="C81" s="199"/>
+      <c r="D81" s="199"/>
+      <c r="E81" s="319"/>
+    </row>
+    <row r="82" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="199"/>
+      <c r="B82" s="203"/>
+      <c r="C82" s="199"/>
+      <c r="D82" s="199"/>
+      <c r="E82" s="319"/>
+    </row>
+    <row r="83" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="199"/>
+      <c r="B83" s="203"/>
+      <c r="C83" s="199"/>
+      <c r="D83" s="199"/>
+      <c r="E83" s="319"/>
+    </row>
+    <row r="84" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="199"/>
+      <c r="B84" s="203"/>
+      <c r="C84" s="199"/>
+      <c r="D84" s="199"/>
+      <c r="E84" s="319"/>
+    </row>
+    <row r="85" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="199"/>
+      <c r="B85" s="203"/>
+      <c r="C85" s="199"/>
+      <c r="D85" s="199"/>
+      <c r="E85" s="319"/>
+    </row>
+    <row r="86" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="199"/>
+      <c r="B86" s="203"/>
+      <c r="C86" s="199"/>
+      <c r="D86" s="199"/>
+      <c r="E86" s="319"/>
+    </row>
+    <row r="87" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="199"/>
+      <c r="B87" s="203"/>
+      <c r="C87" s="199"/>
+      <c r="D87" s="199"/>
+      <c r="E87" s="319"/>
+    </row>
+    <row r="88" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="199"/>
+      <c r="B88" s="203"/>
+      <c r="C88" s="199"/>
+      <c r="D88" s="199"/>
+      <c r="E88" s="319"/>
+    </row>
+    <row r="89" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="199"/>
+      <c r="B89" s="203"/>
+      <c r="C89" s="199"/>
+      <c r="D89" s="199"/>
+      <c r="E89" s="319"/>
+    </row>
+    <row r="90" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="199"/>
+      <c r="B90" s="203"/>
+      <c r="C90" s="199"/>
+      <c r="D90" s="199"/>
+      <c r="E90" s="319"/>
+    </row>
+    <row r="91" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="199"/>
+      <c r="B91" s="203"/>
+      <c r="C91" s="199"/>
+      <c r="D91" s="199"/>
+      <c r="E91" s="319"/>
+    </row>
+    <row r="92" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="199"/>
+      <c r="B92" s="203"/>
+      <c r="C92" s="199"/>
+      <c r="D92" s="199"/>
+      <c r="E92" s="319"/>
+    </row>
+    <row r="93" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="199"/>
+      <c r="B93" s="203"/>
+      <c r="C93" s="199"/>
+      <c r="D93" s="199"/>
+      <c r="E93" s="319"/>
+    </row>
+    <row r="94" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="199"/>
+      <c r="B94" s="203"/>
+      <c r="C94" s="199"/>
+      <c r="D94" s="199"/>
+      <c r="E94" s="319"/>
+    </row>
+    <row r="95" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="199"/>
+      <c r="B95" s="203"/>
+      <c r="C95" s="199"/>
+      <c r="D95" s="199"/>
+      <c r="E95" s="319"/>
+    </row>
+    <row r="96" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="199"/>
+      <c r="B96" s="203"/>
+      <c r="C96" s="199"/>
+      <c r="D96" s="199"/>
+      <c r="E96" s="319"/>
+    </row>
+    <row r="97" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="199"/>
+      <c r="B97" s="203"/>
+      <c r="C97" s="199"/>
+      <c r="D97" s="199"/>
+      <c r="E97" s="319"/>
+    </row>
+    <row r="98" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="199"/>
+      <c r="B98" s="203"/>
+      <c r="C98" s="199"/>
+      <c r="D98" s="199"/>
+      <c r="E98" s="319"/>
+    </row>
+    <row r="99" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="199"/>
+      <c r="B99" s="203"/>
+      <c r="C99" s="199"/>
+      <c r="D99" s="199"/>
+      <c r="E99" s="319"/>
+    </row>
+    <row r="100" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="199"/>
+      <c r="B100" s="203"/>
+      <c r="C100" s="199"/>
+      <c r="D100" s="199"/>
+      <c r="E100" s="319"/>
+    </row>
+    <row r="101" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="199"/>
+      <c r="B101" s="203"/>
+      <c r="C101" s="199"/>
+      <c r="D101" s="199"/>
+      <c r="E101" s="319"/>
+    </row>
+    <row r="102" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="199"/>
+      <c r="B102" s="203"/>
+      <c r="C102" s="199"/>
+      <c r="D102" s="199"/>
+      <c r="E102" s="319"/>
+    </row>
+    <row r="103" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="199"/>
+      <c r="B103" s="203"/>
+      <c r="C103" s="199"/>
+      <c r="D103" s="199"/>
+      <c r="E103" s="319"/>
+    </row>
+    <row r="104" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="199"/>
+      <c r="B104" s="203"/>
+      <c r="C104" s="199"/>
+      <c r="D104" s="199"/>
+      <c r="E104" s="319"/>
+    </row>
+    <row r="105" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="199"/>
+      <c r="B105" s="203"/>
+      <c r="C105" s="199"/>
+      <c r="D105" s="199"/>
+      <c r="E105" s="319"/>
+    </row>
+    <row r="106" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="199"/>
+      <c r="B106" s="203"/>
+      <c r="C106" s="199"/>
+      <c r="D106" s="199"/>
+      <c r="E106" s="319"/>
+    </row>
+    <row r="107" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="199"/>
+      <c r="B107" s="203"/>
+      <c r="C107" s="199"/>
+      <c r="D107" s="199"/>
+      <c r="E107" s="319"/>
+    </row>
+    <row r="108" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="199"/>
+      <c r="B108" s="203"/>
+      <c r="C108" s="199"/>
+      <c r="D108" s="199"/>
+      <c r="E108" s="319"/>
+    </row>
+    <row r="109" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="199"/>
+      <c r="B109" s="203"/>
+      <c r="C109" s="199"/>
+      <c r="D109" s="199"/>
+      <c r="E109" s="319"/>
+    </row>
+    <row r="110" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="199"/>
+      <c r="B110" s="203"/>
+      <c r="C110" s="199"/>
+      <c r="D110" s="199"/>
+      <c r="E110" s="319"/>
+    </row>
+    <row r="111" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="199"/>
+      <c r="B111" s="203"/>
+      <c r="C111" s="199"/>
+      <c r="D111" s="199"/>
+      <c r="E111" s="319"/>
+    </row>
+    <row r="112" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="199"/>
+      <c r="B112" s="203"/>
+      <c r="C112" s="199"/>
+      <c r="D112" s="199"/>
+      <c r="E112" s="319"/>
+    </row>
+    <row r="113" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="199"/>
+      <c r="B113" s="203"/>
+      <c r="C113" s="199"/>
+      <c r="D113" s="199"/>
+      <c r="E113" s="319"/>
+    </row>
+    <row r="114" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="199"/>
+      <c r="B114" s="203"/>
+      <c r="C114" s="199"/>
+      <c r="D114" s="199"/>
+      <c r="E114" s="319"/>
+    </row>
+    <row r="115" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="199"/>
+      <c r="B115" s="203"/>
+      <c r="C115" s="199"/>
+      <c r="D115" s="199"/>
+      <c r="E115" s="319"/>
+    </row>
+    <row r="116" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="199"/>
+      <c r="B116" s="203"/>
+      <c r="C116" s="199"/>
+      <c r="D116" s="199"/>
+      <c r="E116" s="319"/>
+    </row>
+    <row r="117" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="199"/>
+      <c r="B117" s="203"/>
+      <c r="C117" s="199"/>
+      <c r="D117" s="199"/>
+      <c r="E117" s="319"/>
+    </row>
+    <row r="118" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="199"/>
+      <c r="B118" s="203"/>
+      <c r="C118" s="199"/>
+      <c r="D118" s="199"/>
+      <c r="E118" s="319"/>
+    </row>
+    <row r="119" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="199"/>
+      <c r="B119" s="203"/>
+      <c r="C119" s="199"/>
+      <c r="D119" s="199"/>
+      <c r="E119" s="319"/>
+    </row>
+    <row r="120" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="199"/>
+      <c r="B120" s="203"/>
+      <c r="C120" s="199"/>
+      <c r="D120" s="199"/>
+      <c r="E120" s="319"/>
+    </row>
+    <row r="121" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="199"/>
+      <c r="B121" s="203"/>
+      <c r="C121" s="199"/>
+      <c r="D121" s="199"/>
+      <c r="E121" s="319"/>
+    </row>
+    <row r="122" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="199"/>
+      <c r="B122" s="203"/>
+      <c r="C122" s="199"/>
+      <c r="D122" s="199"/>
+      <c r="E122" s="319"/>
+    </row>
+    <row r="123" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="199"/>
+      <c r="B123" s="203"/>
+      <c r="C123" s="199"/>
+      <c r="D123" s="199"/>
+      <c r="E123" s="319"/>
+    </row>
+    <row r="124" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="199"/>
+      <c r="B124" s="203"/>
+      <c r="C124" s="199"/>
+      <c r="D124" s="199"/>
+      <c r="E124" s="319"/>
+    </row>
+    <row r="125" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="199"/>
+      <c r="B125" s="203"/>
+      <c r="C125" s="199"/>
+      <c r="D125" s="199"/>
+      <c r="E125" s="319"/>
+    </row>
+    <row r="126" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="199"/>
+      <c r="B126" s="203"/>
+      <c r="C126" s="199"/>
+      <c r="D126" s="199"/>
+      <c r="E126" s="319"/>
+    </row>
+    <row r="127" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="199"/>
+      <c r="B127" s="203"/>
+      <c r="C127" s="199"/>
+      <c r="D127" s="199"/>
+      <c r="E127" s="319"/>
+    </row>
+    <row r="128" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="199"/>
+      <c r="B128" s="203"/>
+      <c r="C128" s="199"/>
+      <c r="D128" s="199"/>
+      <c r="E128" s="319"/>
+    </row>
+    <row r="129" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="199"/>
+      <c r="B129" s="203"/>
+      <c r="C129" s="199"/>
+      <c r="D129" s="199"/>
+      <c r="E129" s="319"/>
+    </row>
+    <row r="130" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="199"/>
+      <c r="B130" s="203"/>
+      <c r="C130" s="199"/>
+      <c r="D130" s="199"/>
+      <c r="E130" s="319"/>
+    </row>
+    <row r="131" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="199"/>
+      <c r="B131" s="203"/>
+      <c r="C131" s="199"/>
+      <c r="D131" s="199"/>
+      <c r="E131" s="319"/>
+    </row>
+    <row r="132" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="199"/>
+      <c r="B132" s="203"/>
+      <c r="C132" s="199"/>
+      <c r="D132" s="199"/>
+      <c r="E132" s="319"/>
+    </row>
+    <row r="133" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="199"/>
+      <c r="B133" s="203"/>
+      <c r="C133" s="199"/>
+      <c r="D133" s="199"/>
+      <c r="E133" s="319"/>
+    </row>
+    <row r="134" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="199"/>
+      <c r="B134" s="203"/>
+      <c r="C134" s="199"/>
+      <c r="D134" s="199"/>
+      <c r="E134" s="319"/>
+    </row>
+    <row r="135" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="199"/>
+      <c r="B135" s="203"/>
+      <c r="C135" s="199"/>
+      <c r="D135" s="199"/>
+      <c r="E135" s="319"/>
+    </row>
+    <row r="136" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="199"/>
+      <c r="B136" s="203"/>
+      <c r="C136" s="199"/>
+      <c r="D136" s="199"/>
+      <c r="E136" s="319"/>
+    </row>
+    <row r="137" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="199"/>
+      <c r="B137" s="203"/>
+      <c r="C137" s="199"/>
+      <c r="D137" s="199"/>
+      <c r="E137" s="319"/>
+    </row>
+    <row r="138" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="199"/>
+      <c r="B138" s="203"/>
+      <c r="C138" s="199"/>
+      <c r="D138" s="199"/>
+      <c r="E138" s="319"/>
+    </row>
+    <row r="139" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="199"/>
+      <c r="B139" s="203"/>
+      <c r="C139" s="199"/>
+      <c r="D139" s="199"/>
+      <c r="E139" s="319"/>
+    </row>
+    <row r="140" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="199"/>
+      <c r="B140" s="203"/>
+      <c r="C140" s="199"/>
+      <c r="D140" s="199"/>
+      <c r="E140" s="319"/>
+    </row>
+    <row r="141" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="199"/>
+      <c r="B141" s="203"/>
+      <c r="C141" s="199"/>
+      <c r="D141" s="199"/>
+      <c r="E141" s="319"/>
+    </row>
+    <row r="142" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="199"/>
+      <c r="B142" s="203"/>
+      <c r="C142" s="199"/>
+      <c r="D142" s="199"/>
+      <c r="E142" s="319"/>
+    </row>
+    <row r="143" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="199"/>
+      <c r="B143" s="203"/>
+      <c r="C143" s="199"/>
+      <c r="D143" s="199"/>
+      <c r="E143" s="319"/>
+    </row>
+    <row r="144" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="199"/>
+      <c r="B144" s="203"/>
+      <c r="C144" s="199"/>
+      <c r="D144" s="199"/>
+      <c r="E144" s="319"/>
+    </row>
+    <row r="145" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="199"/>
+      <c r="B145" s="203"/>
+      <c r="C145" s="199"/>
+      <c r="D145" s="199"/>
+      <c r="E145" s="319"/>
+    </row>
+    <row r="146" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="199"/>
+      <c r="B146" s="203"/>
+      <c r="C146" s="199"/>
+      <c r="D146" s="199"/>
+      <c r="E146" s="319"/>
+    </row>
+    <row r="147" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="199"/>
+      <c r="B147" s="203"/>
+      <c r="C147" s="199"/>
+      <c r="D147" s="199"/>
+      <c r="E147" s="319"/>
+    </row>
+    <row r="148" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="199"/>
+      <c r="B148" s="203"/>
+      <c r="C148" s="199"/>
+      <c r="D148" s="199"/>
+      <c r="E148" s="319"/>
+    </row>
+    <row r="149" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3927,6 +4903,1144 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G157"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="320"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="209" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="215" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="214"/>
+      <c r="E1" s="321"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="209" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="209"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="322"/>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="204"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="323"/>
+    </row>
+    <row r="4" spans="1:7" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="206" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="263" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="263"/>
+    </row>
+    <row r="5" spans="1:7" s="202" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="201" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="201" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="201" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="201"/>
+      <c r="E5" s="318" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="205"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="203"/>
+      <c r="B6" s="200"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="324"/>
+      <c r="F6" s="109"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="203"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="324"/>
+      <c r="G7" s="212"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="203"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="203"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="324"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="203"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="203"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="324"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="203"/>
+      <c r="B10" s="200"/>
+      <c r="C10" s="203"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="324"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="203"/>
+      <c r="B11" s="200"/>
+      <c r="C11" s="203"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="324"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="203"/>
+      <c r="B12" s="200"/>
+      <c r="C12" s="203"/>
+      <c r="D12" s="200"/>
+      <c r="E12" s="324"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="203"/>
+      <c r="B13" s="200"/>
+      <c r="C13" s="203"/>
+      <c r="D13" s="200"/>
+      <c r="E13" s="324"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="203"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="203"/>
+      <c r="D14" s="200"/>
+      <c r="E14" s="324"/>
+      <c r="F14" s="109"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="203"/>
+      <c r="B15" s="200"/>
+      <c r="C15" s="203"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="324"/>
+      <c r="F15" s="109"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="203"/>
+      <c r="B16" s="200"/>
+      <c r="C16" s="203"/>
+      <c r="D16" s="200"/>
+      <c r="E16" s="324"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="203"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="203"/>
+      <c r="D17" s="200"/>
+      <c r="E17" s="324"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="203"/>
+      <c r="B18" s="200"/>
+      <c r="C18" s="203"/>
+      <c r="D18" s="200"/>
+      <c r="E18" s="324"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="203"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="203"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="324"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="203"/>
+      <c r="B20" s="200"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="324"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="203"/>
+      <c r="B21" s="200"/>
+      <c r="C21" s="203"/>
+      <c r="D21" s="200"/>
+      <c r="E21" s="324"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="203"/>
+      <c r="B22" s="200"/>
+      <c r="C22" s="203"/>
+      <c r="D22" s="200"/>
+      <c r="E22" s="324"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="203"/>
+      <c r="B23" s="200"/>
+      <c r="C23" s="203"/>
+      <c r="D23" s="200"/>
+      <c r="E23" s="324"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="203"/>
+      <c r="B24" s="200"/>
+      <c r="C24" s="203"/>
+      <c r="D24" s="200"/>
+      <c r="E24" s="324"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="203"/>
+      <c r="B25" s="200"/>
+      <c r="C25" s="203"/>
+      <c r="D25" s="200"/>
+      <c r="E25" s="324"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="203"/>
+      <c r="B26" s="200"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="200"/>
+      <c r="E26" s="324"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="203"/>
+      <c r="B27" s="200"/>
+      <c r="C27" s="203"/>
+      <c r="D27" s="200"/>
+      <c r="E27" s="324"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="203"/>
+      <c r="B28" s="200"/>
+      <c r="C28" s="203"/>
+      <c r="D28" s="200"/>
+      <c r="E28" s="324"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="203"/>
+      <c r="B29" s="200"/>
+      <c r="C29" s="203"/>
+      <c r="D29" s="200"/>
+      <c r="E29" s="324"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="203"/>
+      <c r="B30" s="200"/>
+      <c r="C30" s="203"/>
+      <c r="D30" s="200"/>
+      <c r="E30" s="324"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="203"/>
+      <c r="B31" s="200"/>
+      <c r="C31" s="203"/>
+      <c r="D31" s="200"/>
+      <c r="E31" s="324"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="203"/>
+      <c r="B32" s="200"/>
+      <c r="C32" s="203"/>
+      <c r="D32" s="200"/>
+      <c r="E32" s="324"/>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="203"/>
+      <c r="B33" s="200"/>
+      <c r="C33" s="203"/>
+      <c r="D33" s="200"/>
+      <c r="E33" s="324"/>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="203"/>
+      <c r="B34" s="200"/>
+      <c r="C34" s="203"/>
+      <c r="D34" s="200"/>
+      <c r="E34" s="324"/>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="203"/>
+      <c r="B35" s="200"/>
+      <c r="C35" s="203"/>
+      <c r="D35" s="200"/>
+      <c r="E35" s="324"/>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="203"/>
+      <c r="B36" s="200"/>
+      <c r="C36" s="203"/>
+      <c r="D36" s="200"/>
+      <c r="E36" s="324"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="203"/>
+      <c r="B37" s="200"/>
+      <c r="C37" s="203"/>
+      <c r="D37" s="200"/>
+      <c r="E37" s="324"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="203"/>
+      <c r="B38" s="200"/>
+      <c r="C38" s="203"/>
+      <c r="D38" s="200"/>
+      <c r="E38" s="324"/>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="203"/>
+      <c r="B39" s="200"/>
+      <c r="C39" s="203"/>
+      <c r="D39" s="200"/>
+      <c r="E39" s="324"/>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="203"/>
+      <c r="B40" s="200"/>
+      <c r="C40" s="203"/>
+      <c r="D40" s="200"/>
+      <c r="E40" s="324"/>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="203"/>
+      <c r="B41" s="200"/>
+      <c r="C41" s="203"/>
+      <c r="D41" s="200"/>
+      <c r="E41" s="324"/>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="203"/>
+      <c r="B42" s="200"/>
+      <c r="C42" s="203"/>
+      <c r="D42" s="200"/>
+      <c r="E42" s="324"/>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="203"/>
+      <c r="B43" s="200"/>
+      <c r="C43" s="203"/>
+      <c r="D43" s="200"/>
+      <c r="E43" s="324"/>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="203"/>
+      <c r="B44" s="200"/>
+      <c r="C44" s="203"/>
+      <c r="D44" s="200"/>
+      <c r="E44" s="324"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="203"/>
+      <c r="B45" s="200"/>
+      <c r="C45" s="203"/>
+      <c r="D45" s="200"/>
+      <c r="E45" s="324"/>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="203"/>
+      <c r="B46" s="200"/>
+      <c r="C46" s="203"/>
+      <c r="D46" s="200"/>
+      <c r="E46" s="324"/>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="203"/>
+      <c r="B47" s="200"/>
+      <c r="C47" s="203"/>
+      <c r="D47" s="200"/>
+      <c r="E47" s="324"/>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="203"/>
+      <c r="B48" s="200"/>
+      <c r="C48" s="203"/>
+      <c r="D48" s="200"/>
+      <c r="E48" s="324"/>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="203"/>
+      <c r="B49" s="200"/>
+      <c r="C49" s="203"/>
+      <c r="D49" s="200"/>
+      <c r="E49" s="324"/>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="203"/>
+      <c r="B50" s="200"/>
+      <c r="C50" s="203"/>
+      <c r="D50" s="200"/>
+      <c r="E50" s="324"/>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="203"/>
+      <c r="B51" s="200"/>
+      <c r="C51" s="203"/>
+      <c r="D51" s="200"/>
+      <c r="E51" s="324"/>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="203"/>
+      <c r="B52" s="200"/>
+      <c r="C52" s="203"/>
+      <c r="D52" s="200"/>
+      <c r="E52" s="324"/>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="203"/>
+      <c r="B53" s="200"/>
+      <c r="C53" s="203"/>
+      <c r="D53" s="200"/>
+      <c r="E53" s="324"/>
+    </row>
+    <row r="54" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="203"/>
+      <c r="B54" s="200"/>
+      <c r="C54" s="203"/>
+      <c r="D54" s="200"/>
+      <c r="E54" s="324"/>
+    </row>
+    <row r="55" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="203"/>
+      <c r="B55" s="200"/>
+      <c r="C55" s="203"/>
+      <c r="D55" s="200"/>
+      <c r="E55" s="324"/>
+    </row>
+    <row r="56" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="203"/>
+      <c r="B56" s="200"/>
+      <c r="C56" s="203"/>
+      <c r="D56" s="200"/>
+      <c r="E56" s="324"/>
+    </row>
+    <row r="57" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="203"/>
+      <c r="B57" s="200"/>
+      <c r="C57" s="203"/>
+      <c r="D57" s="200"/>
+      <c r="E57" s="324"/>
+    </row>
+    <row r="58" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="203"/>
+      <c r="B58" s="200"/>
+      <c r="C58" s="203"/>
+      <c r="D58" s="200"/>
+      <c r="E58" s="324"/>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="203"/>
+      <c r="B59" s="200"/>
+      <c r="C59" s="203"/>
+      <c r="D59" s="200"/>
+      <c r="E59" s="324"/>
+    </row>
+    <row r="60" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="203"/>
+      <c r="B60" s="200"/>
+      <c r="C60" s="203"/>
+      <c r="D60" s="200"/>
+      <c r="E60" s="324"/>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="203"/>
+      <c r="B61" s="200"/>
+      <c r="C61" s="203"/>
+      <c r="D61" s="200"/>
+      <c r="E61" s="324"/>
+    </row>
+    <row r="62" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="203"/>
+      <c r="B62" s="200"/>
+      <c r="C62" s="203"/>
+      <c r="D62" s="200"/>
+      <c r="E62" s="324"/>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="203"/>
+      <c r="B63" s="200"/>
+      <c r="C63" s="203"/>
+      <c r="D63" s="200"/>
+      <c r="E63" s="324"/>
+    </row>
+    <row r="64" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="203"/>
+      <c r="B64" s="200"/>
+      <c r="C64" s="203"/>
+      <c r="D64" s="200"/>
+      <c r="E64" s="324"/>
+    </row>
+    <row r="65" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="203"/>
+      <c r="B65" s="200"/>
+      <c r="C65" s="203"/>
+      <c r="D65" s="200"/>
+      <c r="E65" s="324"/>
+    </row>
+    <row r="66" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="203"/>
+      <c r="B66" s="200"/>
+      <c r="C66" s="203"/>
+      <c r="D66" s="200"/>
+      <c r="E66" s="324"/>
+    </row>
+    <row r="67" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="203"/>
+      <c r="B67" s="200"/>
+      <c r="C67" s="203"/>
+      <c r="D67" s="200"/>
+      <c r="E67" s="324"/>
+    </row>
+    <row r="68" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="203"/>
+      <c r="B68" s="200"/>
+      <c r="C68" s="203"/>
+      <c r="D68" s="200"/>
+      <c r="E68" s="324"/>
+    </row>
+    <row r="69" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="203"/>
+      <c r="B69" s="200"/>
+      <c r="C69" s="203"/>
+      <c r="D69" s="200"/>
+      <c r="E69" s="324"/>
+    </row>
+    <row r="70" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="203"/>
+      <c r="B70" s="200"/>
+      <c r="C70" s="203"/>
+      <c r="D70" s="200"/>
+      <c r="E70" s="324"/>
+    </row>
+    <row r="71" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="203"/>
+      <c r="B71" s="200"/>
+      <c r="C71" s="203"/>
+      <c r="D71" s="200"/>
+      <c r="E71" s="324"/>
+    </row>
+    <row r="72" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="203"/>
+      <c r="B72" s="200"/>
+      <c r="C72" s="203"/>
+      <c r="D72" s="200"/>
+      <c r="E72" s="324"/>
+    </row>
+    <row r="73" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="203"/>
+      <c r="B73" s="200"/>
+      <c r="C73" s="203"/>
+      <c r="D73" s="200"/>
+      <c r="E73" s="324"/>
+    </row>
+    <row r="74" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="203"/>
+      <c r="B74" s="200"/>
+      <c r="C74" s="203"/>
+      <c r="D74" s="200"/>
+      <c r="E74" s="324"/>
+    </row>
+    <row r="75" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="203"/>
+      <c r="B75" s="200"/>
+      <c r="C75" s="203"/>
+      <c r="D75" s="200"/>
+      <c r="E75" s="324"/>
+    </row>
+    <row r="76" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="203"/>
+      <c r="B76" s="200"/>
+      <c r="C76" s="203"/>
+      <c r="D76" s="200"/>
+      <c r="E76" s="324"/>
+    </row>
+    <row r="77" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="203"/>
+      <c r="B77" s="200"/>
+      <c r="C77" s="203"/>
+      <c r="D77" s="200"/>
+      <c r="E77" s="324"/>
+    </row>
+    <row r="78" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="203"/>
+      <c r="B78" s="200"/>
+      <c r="C78" s="203"/>
+      <c r="D78" s="200"/>
+      <c r="E78" s="324"/>
+    </row>
+    <row r="79" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="203"/>
+      <c r="B79" s="200"/>
+      <c r="C79" s="203"/>
+      <c r="D79" s="200"/>
+      <c r="E79" s="324"/>
+    </row>
+    <row r="80" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="203"/>
+      <c r="B80" s="200"/>
+      <c r="C80" s="203"/>
+      <c r="D80" s="200"/>
+      <c r="E80" s="324"/>
+    </row>
+    <row r="81" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="203"/>
+      <c r="B81" s="200"/>
+      <c r="C81" s="203"/>
+      <c r="D81" s="200"/>
+      <c r="E81" s="324"/>
+    </row>
+    <row r="82" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="203"/>
+      <c r="B82" s="200"/>
+      <c r="C82" s="203"/>
+      <c r="D82" s="200"/>
+      <c r="E82" s="324"/>
+    </row>
+    <row r="83" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="203"/>
+      <c r="B83" s="200"/>
+      <c r="C83" s="203"/>
+      <c r="D83" s="200"/>
+      <c r="E83" s="324"/>
+    </row>
+    <row r="84" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="203"/>
+      <c r="B84" s="200"/>
+      <c r="C84" s="203"/>
+      <c r="D84" s="200"/>
+      <c r="E84" s="324"/>
+    </row>
+    <row r="85" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="203"/>
+      <c r="B85" s="200"/>
+      <c r="C85" s="203"/>
+      <c r="D85" s="200"/>
+      <c r="E85" s="324"/>
+    </row>
+    <row r="86" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="203"/>
+      <c r="B86" s="200"/>
+      <c r="C86" s="203"/>
+      <c r="D86" s="200"/>
+      <c r="E86" s="324"/>
+    </row>
+    <row r="87" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="203"/>
+      <c r="B87" s="200"/>
+      <c r="C87" s="203"/>
+      <c r="D87" s="200"/>
+      <c r="E87" s="324"/>
+    </row>
+    <row r="88" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="203"/>
+      <c r="B88" s="200"/>
+      <c r="C88" s="203"/>
+      <c r="D88" s="200"/>
+      <c r="E88" s="324"/>
+    </row>
+    <row r="89" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="203"/>
+      <c r="B89" s="200"/>
+      <c r="C89" s="203"/>
+      <c r="D89" s="200"/>
+      <c r="E89" s="324"/>
+    </row>
+    <row r="90" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="203"/>
+      <c r="B90" s="200"/>
+      <c r="C90" s="203"/>
+      <c r="D90" s="200"/>
+      <c r="E90" s="324"/>
+    </row>
+    <row r="91" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="203"/>
+      <c r="B91" s="200"/>
+      <c r="C91" s="203"/>
+      <c r="D91" s="200"/>
+      <c r="E91" s="324"/>
+    </row>
+    <row r="92" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="203"/>
+      <c r="B92" s="200"/>
+      <c r="C92" s="203"/>
+      <c r="D92" s="200"/>
+      <c r="E92" s="324"/>
+    </row>
+    <row r="93" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="203"/>
+      <c r="B93" s="200"/>
+      <c r="C93" s="203"/>
+      <c r="D93" s="200"/>
+      <c r="E93" s="324"/>
+    </row>
+    <row r="94" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="203"/>
+      <c r="B94" s="200"/>
+      <c r="C94" s="203"/>
+      <c r="D94" s="200"/>
+      <c r="E94" s="324"/>
+    </row>
+    <row r="95" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="203"/>
+      <c r="B95" s="200"/>
+      <c r="C95" s="203"/>
+      <c r="D95" s="200"/>
+      <c r="E95" s="324"/>
+    </row>
+    <row r="96" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="203"/>
+      <c r="B96" s="200"/>
+      <c r="C96" s="203"/>
+      <c r="D96" s="200"/>
+      <c r="E96" s="324"/>
+    </row>
+    <row r="97" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="203"/>
+      <c r="B97" s="200"/>
+      <c r="C97" s="203"/>
+      <c r="D97" s="200"/>
+      <c r="E97" s="324"/>
+    </row>
+    <row r="98" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="203"/>
+      <c r="B98" s="200"/>
+      <c r="C98" s="203"/>
+      <c r="D98" s="200"/>
+      <c r="E98" s="324"/>
+    </row>
+    <row r="99" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="203"/>
+      <c r="B99" s="200"/>
+      <c r="C99" s="203"/>
+      <c r="D99" s="200"/>
+      <c r="E99" s="324"/>
+    </row>
+    <row r="100" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="203"/>
+      <c r="B100" s="200"/>
+      <c r="C100" s="203"/>
+      <c r="D100" s="200"/>
+      <c r="E100" s="324"/>
+    </row>
+    <row r="101" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="203"/>
+      <c r="B101" s="200"/>
+      <c r="C101" s="203"/>
+      <c r="D101" s="200"/>
+      <c r="E101" s="324"/>
+    </row>
+    <row r="102" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="203"/>
+      <c r="B102" s="200"/>
+      <c r="C102" s="203"/>
+      <c r="D102" s="200"/>
+      <c r="E102" s="324"/>
+    </row>
+    <row r="103" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="203"/>
+      <c r="B103" s="200"/>
+      <c r="C103" s="203"/>
+      <c r="D103" s="200"/>
+      <c r="E103" s="324"/>
+    </row>
+    <row r="104" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="203"/>
+      <c r="B104" s="200"/>
+      <c r="C104" s="203"/>
+      <c r="D104" s="200"/>
+      <c r="E104" s="324"/>
+    </row>
+    <row r="105" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="203"/>
+      <c r="B105" s="200"/>
+      <c r="C105" s="203"/>
+      <c r="D105" s="200"/>
+      <c r="E105" s="324"/>
+    </row>
+    <row r="106" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="203"/>
+      <c r="B106" s="200"/>
+      <c r="C106" s="203"/>
+      <c r="D106" s="200"/>
+      <c r="E106" s="324"/>
+    </row>
+    <row r="107" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="203"/>
+      <c r="B107" s="200"/>
+      <c r="C107" s="203"/>
+      <c r="D107" s="200"/>
+      <c r="E107" s="324"/>
+    </row>
+    <row r="108" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="203"/>
+      <c r="B108" s="200"/>
+      <c r="C108" s="203"/>
+      <c r="D108" s="200"/>
+      <c r="E108" s="324"/>
+    </row>
+    <row r="109" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="203"/>
+      <c r="B109" s="200"/>
+      <c r="C109" s="203"/>
+      <c r="D109" s="200"/>
+      <c r="E109" s="324"/>
+    </row>
+    <row r="110" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="203"/>
+      <c r="B110" s="200"/>
+      <c r="C110" s="203"/>
+      <c r="D110" s="200"/>
+      <c r="E110" s="324"/>
+    </row>
+    <row r="111" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="203"/>
+      <c r="B111" s="200"/>
+      <c r="C111" s="203"/>
+      <c r="D111" s="200"/>
+      <c r="E111" s="324"/>
+    </row>
+    <row r="112" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="203"/>
+      <c r="B112" s="200"/>
+      <c r="C112" s="203"/>
+      <c r="D112" s="200"/>
+      <c r="E112" s="324"/>
+    </row>
+    <row r="113" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="203"/>
+      <c r="B113" s="200"/>
+      <c r="C113" s="203"/>
+      <c r="D113" s="200"/>
+      <c r="E113" s="324"/>
+    </row>
+    <row r="114" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="203"/>
+      <c r="B114" s="200"/>
+      <c r="C114" s="203"/>
+      <c r="D114" s="200"/>
+      <c r="E114" s="324"/>
+    </row>
+    <row r="115" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="203"/>
+      <c r="B115" s="200"/>
+      <c r="C115" s="203"/>
+      <c r="D115" s="200"/>
+      <c r="E115" s="324"/>
+    </row>
+    <row r="116" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="203"/>
+      <c r="B116" s="200"/>
+      <c r="C116" s="203"/>
+      <c r="D116" s="200"/>
+      <c r="E116" s="324"/>
+    </row>
+    <row r="117" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="203"/>
+      <c r="B117" s="200"/>
+      <c r="C117" s="203"/>
+      <c r="D117" s="200"/>
+      <c r="E117" s="324"/>
+    </row>
+    <row r="118" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="203"/>
+      <c r="B118" s="200"/>
+      <c r="C118" s="203"/>
+      <c r="D118" s="200"/>
+      <c r="E118" s="324"/>
+    </row>
+    <row r="119" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="203"/>
+      <c r="B119" s="200"/>
+      <c r="C119" s="203"/>
+      <c r="D119" s="200"/>
+      <c r="E119" s="324"/>
+    </row>
+    <row r="120" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="203"/>
+      <c r="B120" s="200"/>
+      <c r="C120" s="203"/>
+      <c r="D120" s="200"/>
+      <c r="E120" s="324"/>
+    </row>
+    <row r="121" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="203"/>
+      <c r="B121" s="200"/>
+      <c r="C121" s="203"/>
+      <c r="D121" s="200"/>
+      <c r="E121" s="324"/>
+    </row>
+    <row r="122" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="203"/>
+      <c r="B122" s="200"/>
+      <c r="C122" s="203"/>
+      <c r="D122" s="200"/>
+      <c r="E122" s="324"/>
+    </row>
+    <row r="123" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="203"/>
+      <c r="B123" s="200"/>
+      <c r="C123" s="203"/>
+      <c r="D123" s="200"/>
+      <c r="E123" s="324"/>
+    </row>
+    <row r="124" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="203"/>
+      <c r="B124" s="200"/>
+      <c r="C124" s="203"/>
+      <c r="D124" s="200"/>
+      <c r="E124" s="324"/>
+    </row>
+    <row r="125" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="203"/>
+      <c r="B125" s="200"/>
+      <c r="C125" s="203"/>
+      <c r="D125" s="200"/>
+      <c r="E125" s="324"/>
+    </row>
+    <row r="126" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="203"/>
+      <c r="B126" s="200"/>
+      <c r="C126" s="203"/>
+      <c r="D126" s="200"/>
+      <c r="E126" s="324"/>
+    </row>
+    <row r="127" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="203"/>
+      <c r="B127" s="200"/>
+      <c r="C127" s="203"/>
+      <c r="D127" s="200"/>
+      <c r="E127" s="324"/>
+    </row>
+    <row r="128" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="203"/>
+      <c r="B128" s="200"/>
+      <c r="C128" s="203"/>
+      <c r="D128" s="200"/>
+      <c r="E128" s="324"/>
+    </row>
+    <row r="129" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="203"/>
+      <c r="B129" s="200"/>
+      <c r="C129" s="203"/>
+      <c r="D129" s="200"/>
+      <c r="E129" s="324"/>
+    </row>
+    <row r="130" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="203"/>
+      <c r="B130" s="200"/>
+      <c r="C130" s="203"/>
+      <c r="D130" s="200"/>
+      <c r="E130" s="324"/>
+    </row>
+    <row r="131" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="203"/>
+      <c r="B131" s="200"/>
+      <c r="C131" s="203"/>
+      <c r="D131" s="200"/>
+      <c r="E131" s="324"/>
+    </row>
+    <row r="132" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="203"/>
+      <c r="B132" s="200"/>
+      <c r="C132" s="203"/>
+      <c r="D132" s="200"/>
+      <c r="E132" s="324"/>
+    </row>
+    <row r="133" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="203"/>
+      <c r="B133" s="200"/>
+      <c r="C133" s="203"/>
+      <c r="D133" s="200"/>
+      <c r="E133" s="324"/>
+    </row>
+    <row r="134" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="203"/>
+      <c r="B134" s="200"/>
+      <c r="C134" s="203"/>
+      <c r="D134" s="200"/>
+      <c r="E134" s="324"/>
+    </row>
+    <row r="135" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="203"/>
+      <c r="B135" s="200"/>
+      <c r="C135" s="203"/>
+      <c r="D135" s="200"/>
+      <c r="E135" s="324"/>
+    </row>
+    <row r="136" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="203"/>
+      <c r="B136" s="200"/>
+      <c r="C136" s="203"/>
+      <c r="D136" s="200"/>
+      <c r="E136" s="324"/>
+    </row>
+    <row r="137" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="203"/>
+      <c r="B137" s="200"/>
+      <c r="C137" s="203"/>
+      <c r="D137" s="200"/>
+      <c r="E137" s="324"/>
+    </row>
+    <row r="138" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="203"/>
+      <c r="B138" s="200"/>
+      <c r="C138" s="203"/>
+      <c r="D138" s="200"/>
+      <c r="E138" s="324"/>
+    </row>
+    <row r="139" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="203"/>
+      <c r="B139" s="200"/>
+      <c r="C139" s="203"/>
+      <c r="D139" s="200"/>
+      <c r="E139" s="324"/>
+    </row>
+    <row r="140" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="203"/>
+      <c r="B140" s="200"/>
+      <c r="C140" s="203"/>
+      <c r="D140" s="200"/>
+      <c r="E140" s="324"/>
+    </row>
+    <row r="141" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="203"/>
+      <c r="B141" s="200"/>
+      <c r="C141" s="203"/>
+      <c r="D141" s="200"/>
+      <c r="E141" s="324"/>
+    </row>
+    <row r="142" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="203"/>
+      <c r="B142" s="200"/>
+      <c r="C142" s="203"/>
+      <c r="D142" s="200"/>
+      <c r="E142" s="324"/>
+    </row>
+    <row r="143" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="203"/>
+      <c r="B143" s="200"/>
+      <c r="C143" s="203"/>
+      <c r="D143" s="200"/>
+      <c r="E143" s="324"/>
+    </row>
+    <row r="144" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="203"/>
+      <c r="B144" s="200"/>
+      <c r="C144" s="203"/>
+      <c r="D144" s="200"/>
+      <c r="E144" s="324"/>
+    </row>
+    <row r="145" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="203"/>
+      <c r="B145" s="200"/>
+      <c r="C145" s="203"/>
+      <c r="D145" s="200"/>
+      <c r="E145" s="324"/>
+    </row>
+    <row r="146" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="203"/>
+      <c r="B146" s="200"/>
+      <c r="C146" s="203"/>
+      <c r="D146" s="200"/>
+      <c r="E146" s="324"/>
+    </row>
+    <row r="147" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="203"/>
+      <c r="B147" s="200"/>
+      <c r="C147" s="203"/>
+      <c r="D147" s="200"/>
+      <c r="E147" s="324"/>
+    </row>
+    <row r="148" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="203"/>
+      <c r="B148" s="200"/>
+      <c r="C148" s="203"/>
+      <c r="D148" s="200"/>
+      <c r="E148" s="324"/>
+    </row>
+    <row r="149" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="203"/>
+      <c r="B149" s="200"/>
+      <c r="C149" s="203"/>
+      <c r="D149" s="200"/>
+      <c r="E149" s="324"/>
+    </row>
+    <row r="150" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="203"/>
+      <c r="B150" s="200"/>
+      <c r="C150" s="203"/>
+      <c r="D150" s="200"/>
+      <c r="E150" s="324"/>
+    </row>
+    <row r="151" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="203"/>
+      <c r="B151" s="200"/>
+      <c r="C151" s="203"/>
+      <c r="D151" s="200"/>
+      <c r="E151" s="324"/>
+    </row>
+    <row r="152" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="203"/>
+      <c r="B152" s="200"/>
+      <c r="C152" s="203"/>
+      <c r="D152" s="200"/>
+      <c r="E152" s="324"/>
+    </row>
+    <row r="153" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="203"/>
+      <c r="B153" s="200"/>
+      <c r="C153" s="203"/>
+      <c r="D153" s="200"/>
+      <c r="E153" s="324"/>
+    </row>
+    <row r="154" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="203"/>
+      <c r="B154" s="200"/>
+      <c r="C154" s="203"/>
+      <c r="D154" s="200"/>
+      <c r="E154" s="324"/>
+    </row>
+    <row r="155" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="203"/>
+      <c r="B155" s="200"/>
+      <c r="C155" s="203"/>
+      <c r="D155" s="200"/>
+      <c r="E155" s="324"/>
+    </row>
+    <row r="156" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="203"/>
+      <c r="B156" s="200"/>
+      <c r="C156" s="203"/>
+      <c r="D156" s="200"/>
+      <c r="E156" s="324"/>
+    </row>
+    <row r="157" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -3949,52 +6063,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="274" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="259" t="s">
+      <c r="B1" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="261"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="266"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="269"/>
-      <c r="B2" s="262" t="s">
+      <c r="A2" s="275"/>
+      <c r="B2" s="267" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="251" t="s">
+      <c r="C2" s="268"/>
+      <c r="D2" s="268"/>
+      <c r="E2" s="268"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="280" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="255" t="s">
+      <c r="H2" s="282" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="256"/>
+      <c r="I2" s="283"/>
       <c r="J2" s="19">
         <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="270"/>
-      <c r="B3" s="265"/>
-      <c r="C3" s="266"/>
-      <c r="D3" s="266"/>
-      <c r="E3" s="266"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="255" t="s">
+      <c r="A3" s="276"/>
+      <c r="B3" s="270"/>
+      <c r="C3" s="271"/>
+      <c r="D3" s="271"/>
+      <c r="E3" s="271"/>
+      <c r="F3" s="272"/>
+      <c r="G3" s="281"/>
+      <c r="H3" s="282" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="256"/>
+      <c r="I3" s="283"/>
       <c r="J3" s="20">
         <v>10</v>
       </c>
@@ -4021,10 +6135,10 @@
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="257" t="s">
+      <c r="H4" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="258"/>
+      <c r="I4" s="285"/>
       <c r="J4" s="23">
         <v>8.5</v>
       </c>
@@ -4037,10 +6151,10 @@
       <c r="E5" s="24"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="253" t="s">
+      <c r="H5" s="273" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="254"/>
+      <c r="I5" s="277"/>
       <c r="J5" s="27">
         <f>SUM(G5:G100)</f>
         <v>0</v>
@@ -4054,10 +6168,10 @@
       <c r="E6" s="24"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="253" t="s">
+      <c r="H6" s="273" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="254"/>
+      <c r="I6" s="277"/>
       <c r="J6" s="28">
         <f>J5*0.05</f>
         <v>0</v>
@@ -4071,10 +6185,10 @@
       <c r="E7" s="24"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="253" t="s">
+      <c r="H7" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="254"/>
+      <c r="I7" s="277"/>
       <c r="J7" s="28">
         <v>110</v>
       </c>
@@ -4087,10 +6201,10 @@
       <c r="E8" s="24"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="253" t="s">
+      <c r="H8" s="273" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="254"/>
+      <c r="I8" s="277"/>
       <c r="J8" s="29">
         <v>150</v>
       </c>
@@ -4103,10 +6217,10 @@
       <c r="E9" s="24"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="253" t="s">
+      <c r="H9" s="273" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="253"/>
+      <c r="I9" s="273"/>
       <c r="J9" s="30">
         <f>(PRECIO_VENTA*LITROS_A_ELABORAR)</f>
         <v>1500</v>
@@ -4120,10 +6234,10 @@
       <c r="E10" s="24"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="253" t="s">
+      <c r="H10" s="273" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="253"/>
+      <c r="I10" s="273"/>
       <c r="J10" s="31">
         <f>J9-COSTO_TOTAL_MATERIA_PRIMA</f>
         <v>1500</v>
@@ -4137,10 +6251,10 @@
       <c r="E11" s="24"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="249" t="s">
+      <c r="H11" s="278" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="250"/>
+      <c r="I11" s="279"/>
       <c r="J11" s="32">
         <v>0.27</v>
       </c>
@@ -4153,10 +6267,10 @@
       <c r="E12" s="24"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="249" t="s">
+      <c r="H12" s="278" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="250"/>
+      <c r="I12" s="279"/>
       <c r="J12" s="32">
         <f>((J5+COSTO_PREPARACION)/J9-1)*(-1)</f>
         <v>0.92666666666666664</v>
@@ -4228,13 +6342,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="15">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H5:I5"/>
@@ -4243,6 +6350,13 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="J12">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
@@ -4257,7 +6371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
@@ -4296,22 +6410,22 @@
       <c r="N1" s="81"/>
       <c r="O1" s="81"/>
       <c r="P1" s="81"/>
-      <c r="Q1" s="271" t="s">
+      <c r="Q1" s="286" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="272"/>
-      <c r="S1" s="271" t="s">
+      <c r="R1" s="287"/>
+      <c r="S1" s="286" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="272"/>
-      <c r="U1" s="271" t="s">
+      <c r="T1" s="287"/>
+      <c r="U1" s="286" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="272"/>
-      <c r="W1" s="271" t="s">
+      <c r="V1" s="287"/>
+      <c r="W1" s="286" t="s">
         <v>63</v>
       </c>
-      <c r="X1" s="272"/>
+      <c r="X1" s="287"/>
       <c r="Y1" s="81"/>
       <c r="Z1" s="81"/>
       <c r="AA1" s="81"/>
@@ -5007,11 +7121,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -5028,36 +7142,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="300"/>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
-      <c r="J1" s="300"/>
-      <c r="K1" s="300"/>
-      <c r="L1" s="300"/>
-      <c r="M1" s="300"/>
-      <c r="N1" s="300"/>
+      <c r="A1" s="294"/>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="294"/>
+      <c r="K1" s="294"/>
+      <c r="L1" s="294"/>
+      <c r="M1" s="294"/>
+      <c r="N1" s="294"/>
     </row>
     <row r="2" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="300"/>
-      <c r="B2" s="300"/>
-      <c r="C2" s="300"/>
-      <c r="D2" s="300"/>
-      <c r="E2" s="300"/>
-      <c r="F2" s="300"/>
-      <c r="G2" s="300"/>
-      <c r="H2" s="300"/>
-      <c r="I2" s="300"/>
-      <c r="J2" s="300"/>
-      <c r="K2" s="300"/>
-      <c r="L2" s="300"/>
-      <c r="M2" s="300"/>
-      <c r="N2" s="300"/>
+      <c r="A2" s="294"/>
+      <c r="B2" s="294"/>
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="294"/>
+      <c r="G2" s="294"/>
+      <c r="H2" s="294"/>
+      <c r="I2" s="294"/>
+      <c r="J2" s="294"/>
+      <c r="K2" s="294"/>
+      <c r="L2" s="294"/>
+      <c r="M2" s="294"/>
+      <c r="N2" s="294"/>
     </row>
     <row r="3" spans="1:16" s="121" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="122"/>
@@ -5079,8 +7193,8 @@
       <c r="A4" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="294"/>
-      <c r="C4" s="294"/>
+      <c r="B4" s="288"/>
+      <c r="C4" s="288"/>
       <c r="D4" s="96"/>
       <c r="E4" s="96"/>
       <c r="F4" s="128" t="s">
@@ -5089,11 +7203,11 @@
       <c r="G4" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="285" t="s">
+      <c r="H4" s="307" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="285"/>
-      <c r="J4" s="285"/>
+      <c r="I4" s="307"/>
+      <c r="J4" s="307"/>
       <c r="K4" s="129" t="s">
         <v>83</v>
       </c>
@@ -5109,7 +7223,7 @@
       <c r="P4" s="109"/>
     </row>
     <row r="5" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="295" t="s">
+      <c r="A5" s="289" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="97"/>
@@ -5120,16 +7234,16 @@
       <c r="E5" s="98"/>
       <c r="F5" s="99"/>
       <c r="G5" s="100"/>
-      <c r="H5" s="286"/>
-      <c r="I5" s="287"/>
+      <c r="H5" s="308"/>
+      <c r="I5" s="309"/>
       <c r="J5" s="101"/>
-      <c r="K5" s="200"/>
-      <c r="L5" s="201"/>
+      <c r="K5" s="197"/>
+      <c r="L5" s="198"/>
       <c r="M5" s="102"/>
       <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="296"/>
+      <c r="A6" s="290"/>
       <c r="B6" s="106"/>
       <c r="C6" s="108" t="s">
         <v>88</v>
@@ -5142,17 +7256,17 @@
       <c r="G6" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="288" t="s">
+      <c r="H6" s="310" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="289"/>
-      <c r="J6" s="289"/>
-      <c r="K6" s="289"/>
-      <c r="L6" s="290"/>
-      <c r="M6" s="297" t="s">
+      <c r="I6" s="311"/>
+      <c r="J6" s="311"/>
+      <c r="K6" s="311"/>
+      <c r="L6" s="312"/>
+      <c r="M6" s="291" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="298"/>
+      <c r="N6" s="292"/>
     </row>
     <row r="7" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="124" t="s">
@@ -5170,19 +7284,19 @@
       <c r="E7" s="111"/>
       <c r="F7" s="120"/>
       <c r="G7" s="104"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="292"/>
-      <c r="J7" s="292"/>
-      <c r="K7" s="292"/>
-      <c r="L7" s="293"/>
-      <c r="M7" s="299"/>
-      <c r="N7" s="299"/>
+      <c r="H7" s="313"/>
+      <c r="I7" s="314"/>
+      <c r="J7" s="314"/>
+      <c r="K7" s="314"/>
+      <c r="L7" s="315"/>
+      <c r="M7" s="293"/>
+      <c r="N7" s="293"/>
     </row>
     <row r="8" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="192"/>
-      <c r="B8" s="192"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="194"/>
+      <c r="A8" s="189"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="191"/>
       <c r="E8" s="111"/>
       <c r="F8" s="114"/>
       <c r="G8" s="115"/>
@@ -5196,203 +7310,203 @@
     </row>
     <row r="9" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="169"/>
-      <c r="B9" s="195"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="169"/>
-      <c r="D9" s="196"/>
+      <c r="D9" s="193"/>
       <c r="E9" s="112"/>
-      <c r="F9" s="282" t="s">
+      <c r="F9" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="283"/>
-      <c r="H9" s="283"/>
-      <c r="I9" s="283"/>
-      <c r="J9" s="283"/>
-      <c r="K9" s="284"/>
-      <c r="L9" s="282" t="s">
+      <c r="G9" s="305"/>
+      <c r="H9" s="305"/>
+      <c r="I9" s="305"/>
+      <c r="J9" s="305"/>
+      <c r="K9" s="306"/>
+      <c r="L9" s="304" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="283"/>
-      <c r="N9" s="284"/>
+      <c r="M9" s="305"/>
+      <c r="N9" s="306"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="169"/>
-      <c r="B10" s="195"/>
-      <c r="C10" s="197"/>
-      <c r="D10" s="198"/>
+      <c r="B10" s="192"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="195"/>
       <c r="E10" s="112"/>
-      <c r="F10" s="273"/>
-      <c r="G10" s="274"/>
-      <c r="H10" s="274"/>
-      <c r="I10" s="274"/>
-      <c r="J10" s="274"/>
-      <c r="K10" s="275"/>
-      <c r="L10" s="273"/>
-      <c r="M10" s="274"/>
-      <c r="N10" s="275"/>
+      <c r="F10" s="295"/>
+      <c r="G10" s="296"/>
+      <c r="H10" s="296"/>
+      <c r="I10" s="296"/>
+      <c r="J10" s="296"/>
+      <c r="K10" s="297"/>
+      <c r="L10" s="295"/>
+      <c r="M10" s="296"/>
+      <c r="N10" s="297"/>
     </row>
     <row r="11" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="169"/>
-      <c r="B11" s="195"/>
-      <c r="C11" s="197"/>
-      <c r="D11" s="198"/>
+      <c r="B11" s="192"/>
+      <c r="C11" s="194"/>
+      <c r="D11" s="195"/>
       <c r="E11" s="112"/>
-      <c r="F11" s="276"/>
-      <c r="G11" s="277"/>
-      <c r="H11" s="277"/>
-      <c r="I11" s="277"/>
-      <c r="J11" s="277"/>
-      <c r="K11" s="278"/>
-      <c r="L11" s="276"/>
-      <c r="M11" s="277"/>
-      <c r="N11" s="278"/>
+      <c r="F11" s="298"/>
+      <c r="G11" s="299"/>
+      <c r="H11" s="299"/>
+      <c r="I11" s="299"/>
+      <c r="J11" s="299"/>
+      <c r="K11" s="300"/>
+      <c r="L11" s="298"/>
+      <c r="M11" s="299"/>
+      <c r="N11" s="300"/>
     </row>
     <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="169"/>
-      <c r="B12" s="195"/>
-      <c r="C12" s="197"/>
-      <c r="D12" s="198"/>
+      <c r="B12" s="192"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="195"/>
       <c r="E12" s="112"/>
-      <c r="F12" s="276"/>
-      <c r="G12" s="277"/>
-      <c r="H12" s="277"/>
-      <c r="I12" s="277"/>
-      <c r="J12" s="277"/>
-      <c r="K12" s="278"/>
-      <c r="L12" s="276"/>
-      <c r="M12" s="277"/>
-      <c r="N12" s="278"/>
+      <c r="F12" s="298"/>
+      <c r="G12" s="299"/>
+      <c r="H12" s="299"/>
+      <c r="I12" s="299"/>
+      <c r="J12" s="299"/>
+      <c r="K12" s="300"/>
+      <c r="L12" s="298"/>
+      <c r="M12" s="299"/>
+      <c r="N12" s="300"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="169"/>
-      <c r="B13" s="195"/>
+      <c r="B13" s="192"/>
       <c r="C13" s="169"/>
-      <c r="D13" s="196"/>
+      <c r="D13" s="193"/>
       <c r="E13" s="112"/>
-      <c r="F13" s="276"/>
-      <c r="G13" s="277"/>
-      <c r="H13" s="277"/>
-      <c r="I13" s="277"/>
-      <c r="J13" s="277"/>
-      <c r="K13" s="278"/>
-      <c r="L13" s="276"/>
-      <c r="M13" s="277"/>
-      <c r="N13" s="278"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="299"/>
+      <c r="H13" s="299"/>
+      <c r="I13" s="299"/>
+      <c r="J13" s="299"/>
+      <c r="K13" s="300"/>
+      <c r="L13" s="298"/>
+      <c r="M13" s="299"/>
+      <c r="N13" s="300"/>
     </row>
     <row r="14" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="169"/>
-      <c r="B14" s="195"/>
+      <c r="B14" s="192"/>
       <c r="C14" s="169"/>
-      <c r="D14" s="196"/>
+      <c r="D14" s="193"/>
       <c r="E14" s="112"/>
-      <c r="F14" s="276"/>
-      <c r="G14" s="277"/>
-      <c r="H14" s="277"/>
-      <c r="I14" s="277"/>
-      <c r="J14" s="277"/>
-      <c r="K14" s="278"/>
-      <c r="L14" s="276"/>
-      <c r="M14" s="277"/>
-      <c r="N14" s="278"/>
+      <c r="F14" s="298"/>
+      <c r="G14" s="299"/>
+      <c r="H14" s="299"/>
+      <c r="I14" s="299"/>
+      <c r="J14" s="299"/>
+      <c r="K14" s="300"/>
+      <c r="L14" s="298"/>
+      <c r="M14" s="299"/>
+      <c r="N14" s="300"/>
     </row>
     <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="169"/>
-      <c r="B15" s="195"/>
+      <c r="B15" s="192"/>
       <c r="C15" s="169"/>
-      <c r="D15" s="196"/>
+      <c r="D15" s="193"/>
       <c r="E15" s="112"/>
-      <c r="F15" s="276"/>
-      <c r="G15" s="277"/>
-      <c r="H15" s="277"/>
-      <c r="I15" s="277"/>
-      <c r="J15" s="277"/>
-      <c r="K15" s="278"/>
-      <c r="L15" s="276"/>
-      <c r="M15" s="277"/>
-      <c r="N15" s="278"/>
+      <c r="F15" s="298"/>
+      <c r="G15" s="299"/>
+      <c r="H15" s="299"/>
+      <c r="I15" s="299"/>
+      <c r="J15" s="299"/>
+      <c r="K15" s="300"/>
+      <c r="L15" s="298"/>
+      <c r="M15" s="299"/>
+      <c r="N15" s="300"/>
     </row>
     <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="169"/>
-      <c r="B16" s="195"/>
+      <c r="B16" s="192"/>
       <c r="C16" s="169"/>
-      <c r="D16" s="196"/>
+      <c r="D16" s="193"/>
       <c r="E16" s="112"/>
-      <c r="F16" s="276"/>
-      <c r="G16" s="277"/>
-      <c r="H16" s="277"/>
-      <c r="I16" s="277"/>
-      <c r="J16" s="277"/>
-      <c r="K16" s="278"/>
-      <c r="L16" s="276"/>
-      <c r="M16" s="277"/>
-      <c r="N16" s="278"/>
+      <c r="F16" s="298"/>
+      <c r="G16" s="299"/>
+      <c r="H16" s="299"/>
+      <c r="I16" s="299"/>
+      <c r="J16" s="299"/>
+      <c r="K16" s="300"/>
+      <c r="L16" s="298"/>
+      <c r="M16" s="299"/>
+      <c r="N16" s="300"/>
     </row>
     <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="169"/>
-      <c r="B17" s="195"/>
+      <c r="B17" s="192"/>
       <c r="C17" s="169"/>
-      <c r="D17" s="196"/>
+      <c r="D17" s="193"/>
       <c r="E17" s="112"/>
-      <c r="F17" s="276"/>
-      <c r="G17" s="277"/>
-      <c r="H17" s="277"/>
-      <c r="I17" s="277"/>
-      <c r="J17" s="277"/>
-      <c r="K17" s="278"/>
-      <c r="L17" s="276"/>
-      <c r="M17" s="277"/>
-      <c r="N17" s="278"/>
+      <c r="F17" s="298"/>
+      <c r="G17" s="299"/>
+      <c r="H17" s="299"/>
+      <c r="I17" s="299"/>
+      <c r="J17" s="299"/>
+      <c r="K17" s="300"/>
+      <c r="L17" s="298"/>
+      <c r="M17" s="299"/>
+      <c r="N17" s="300"/>
     </row>
     <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="199"/>
-      <c r="B18" s="195"/>
+      <c r="A18" s="196"/>
+      <c r="B18" s="192"/>
       <c r="C18" s="169"/>
-      <c r="D18" s="196"/>
+      <c r="D18" s="193"/>
       <c r="E18" s="112"/>
-      <c r="F18" s="276"/>
-      <c r="G18" s="277"/>
-      <c r="H18" s="277"/>
-      <c r="I18" s="277"/>
-      <c r="J18" s="277"/>
-      <c r="K18" s="278"/>
-      <c r="L18" s="276"/>
-      <c r="M18" s="277"/>
-      <c r="N18" s="278"/>
+      <c r="F18" s="298"/>
+      <c r="G18" s="299"/>
+      <c r="H18" s="299"/>
+      <c r="I18" s="299"/>
+      <c r="J18" s="299"/>
+      <c r="K18" s="300"/>
+      <c r="L18" s="298"/>
+      <c r="M18" s="299"/>
+      <c r="N18" s="300"/>
     </row>
     <row r="19" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="169" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="195" t="s">
+      <c r="B19" s="192" t="s">
         <v>95</v>
       </c>
       <c r="C19" s="169"/>
-      <c r="D19" s="196"/>
+      <c r="D19" s="193"/>
       <c r="E19" s="112"/>
-      <c r="F19" s="276"/>
-      <c r="G19" s="277"/>
-      <c r="H19" s="277"/>
-      <c r="I19" s="277"/>
-      <c r="J19" s="277"/>
-      <c r="K19" s="278"/>
-      <c r="L19" s="276"/>
-      <c r="M19" s="277"/>
-      <c r="N19" s="278"/>
+      <c r="F19" s="298"/>
+      <c r="G19" s="299"/>
+      <c r="H19" s="299"/>
+      <c r="I19" s="299"/>
+      <c r="J19" s="299"/>
+      <c r="K19" s="300"/>
+      <c r="L19" s="298"/>
+      <c r="M19" s="299"/>
+      <c r="N19" s="300"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="199"/>
-      <c r="B20" s="195"/>
+      <c r="A20" s="196"/>
+      <c r="B20" s="192"/>
       <c r="C20" s="169"/>
-      <c r="D20" s="196"/>
+      <c r="D20" s="193"/>
       <c r="E20" s="112"/>
-      <c r="F20" s="279"/>
-      <c r="G20" s="280"/>
-      <c r="H20" s="280"/>
-      <c r="I20" s="280"/>
-      <c r="J20" s="280"/>
-      <c r="K20" s="281"/>
-      <c r="L20" s="279"/>
-      <c r="M20" s="280"/>
-      <c r="N20" s="281"/>
+      <c r="F20" s="301"/>
+      <c r="G20" s="302"/>
+      <c r="H20" s="302"/>
+      <c r="I20" s="302"/>
+      <c r="J20" s="302"/>
+      <c r="K20" s="303"/>
+      <c r="L20" s="301"/>
+      <c r="M20" s="302"/>
+      <c r="N20" s="303"/>
     </row>
     <row r="21" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="133" t="s">
@@ -5403,11 +7517,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A1:N2"/>
     <mergeCell ref="L10:N20"/>
     <mergeCell ref="F10:K20"/>
     <mergeCell ref="F9:K9"/>
@@ -5416,6 +7525,11 @@
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="L9:N9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A1:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ExcelAddIn1/Resources/FICHA RECETA.xlsx
+++ b/ExcelAddIn1/Resources/FICHA RECETA.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\VSTOexcelRest\ExcelAddIn1\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReporteInventario" sheetId="3" r:id="rId1"/>
@@ -17,9 +17,10 @@
     <sheet name="ReporteInventarioImprimir" sheetId="4" r:id="rId3"/>
     <sheet name="IngredientesPreviaGlobal" sheetId="8" r:id="rId4"/>
     <sheet name="IngredientesPreviaPlatillo" sheetId="9" r:id="rId5"/>
-    <sheet name="Receta" sheetId="1" r:id="rId6"/>
-    <sheet name="ReporterCocina" sheetId="5" r:id="rId7"/>
-    <sheet name="DetalleReceta" sheetId="6" r:id="rId8"/>
+    <sheet name="DestinoPlatillos" sheetId="10" r:id="rId6"/>
+    <sheet name="Receta" sheetId="1" r:id="rId7"/>
+    <sheet name="ReporterCocina" sheetId="5" r:id="rId8"/>
+    <sheet name="DetalleReceta" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="CANTIDAD_A_ELABORAR">Receta!$J$4</definedName>
@@ -32,6 +33,7 @@
     <definedName name="FECHA_INI_IMP">ReporteInventarioImprimir!$I$1</definedName>
     <definedName name="LITROS_A_ELABORAR">Receta!$J$3</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_SECOND_FORMAT" hidden="1">" "</definedName>
     <definedName name="MARGEN_ANTERIOR">Receta!$J$11</definedName>
     <definedName name="MARGEN_PRODUCTO">Receta!$J$12</definedName>
     <definedName name="NOMBRE">Receta!$B$2</definedName>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="127">
   <si>
     <t>Receta</t>
   </si>
@@ -459,11 +461,29 @@
   <si>
     <t>Fecha:__________</t>
   </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Fecha de Entrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S. de R.L. de C.V.</t>
+  </si>
+  <si>
+    <t>Existencia</t>
+  </si>
+  <si>
+    <t>Qty Ultima Elaboración</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="7">
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -590,13 +610,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Californian FB"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -688,6 +701,13 @@
       <color rgb="FFFF0000"/>
       <name val="Arial Black"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Californian FB"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1308,7 +1328,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="325">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1647,11 +1667,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1693,7 +1710,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1702,7 +1719,7 @@
     <xf numFmtId="44" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1727,7 +1744,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1748,7 +1765,7 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1772,7 +1789,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="16" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1816,10 +1833,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1855,7 +1872,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1951,13 +1968,13 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1965,14 +1982,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1983,7 +2000,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1999,6 +2016,61 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2047,7 +2119,7 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2065,65 +2137,47 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2147,6 +2201,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2183,10 +2281,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2199,46 +2293,73 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2259,96 +2380,13 @@
     <xf numFmtId="10" fontId="13" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2370,7 +2408,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="0"/>
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2555,6 +2593,69 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="1743075" cy="1241792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76D8D19A-AFDF-4EA6-9DCC-390389B08A00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="9804" b="88889" l="5863" r="94463"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="9680" b="8034"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1657350" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2886,7 +2987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -3043,7 +3144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
@@ -3059,554 +3160,549 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="229" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="109"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="108"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="166"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="109"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="109"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="I3" s="169" t="s">
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="I3" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="254"/>
-      <c r="K3" s="255"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
     </row>
     <row r="4" spans="1:13" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="164" t="s">
+      <c r="A4" s="163" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="253"/>
-      <c r="C4" s="253"/>
-      <c r="D4" s="253"/>
-      <c r="E4" s="253"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="109"/>
+      <c r="B4" s="230"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="230"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="108"/>
     </row>
     <row r="5" spans="1:13" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="164" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="253"/>
-      <c r="C5" s="253"/>
-      <c r="D5" s="253"/>
-      <c r="E5" s="253"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="256" t="s">
+      <c r="B5" s="230"/>
+      <c r="C5" s="230"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="230"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="233" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="257"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="109"/>
+      <c r="I5" s="234"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="108"/>
     </row>
     <row r="6" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="228" t="s">
+      <c r="A6" s="247" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="229"/>
-      <c r="C6" s="230" t="s">
+      <c r="B6" s="248"/>
+      <c r="C6" s="249" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="231"/>
-      <c r="E6" s="158" t="s">
+      <c r="D6" s="250"/>
+      <c r="E6" s="157" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="153"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="137" t="s">
+      <c r="F6" s="152"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="154" t="s">
+      <c r="I6" s="153" t="s">
         <v>106</v>
       </c>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="109"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="108"/>
     </row>
     <row r="7" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="162"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="134"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="134"/>
-      <c r="M7" s="109"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="133"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="108"/>
     </row>
     <row r="8" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="159" t="s">
+      <c r="A8" s="158" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="157" t="s">
+      <c r="C8" s="156" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="237" t="s">
+      <c r="D8" s="256" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="238" t="s">
+      <c r="E8" s="257" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="135"/>
-      <c r="I8" s="172" t="s">
+      <c r="F8" s="134"/>
+      <c r="I8" s="171" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="170" t="s">
+      <c r="J8" s="169" t="s">
         <v>95</v>
       </c>
-      <c r="K8" s="171"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="109"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="108"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="155">
+      <c r="A9" s="154">
         <v>16</v>
       </c>
-      <c r="B9" s="156">
+      <c r="B9" s="155">
         <v>1</v>
       </c>
-      <c r="C9" s="138">
+      <c r="C9" s="137">
         <f>C7*1/A9</f>
         <v>0</v>
       </c>
-      <c r="D9" s="237"/>
-      <c r="E9" s="238"/>
-      <c r="F9" s="135"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="134"/>
-      <c r="M9" s="109"/>
+      <c r="D9" s="256"/>
+      <c r="E9" s="257"/>
+      <c r="F9" s="134"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="108"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="140"/>
-      <c r="B10" s="140"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="236" t="s">
+      <c r="A10" s="139"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="255" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="134" t="s">
+      <c r="J10" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="134"/>
-      <c r="L10" s="134"/>
-      <c r="M10" s="109"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="108"/>
     </row>
     <row r="11" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="144"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="236"/>
-      <c r="J11" s="174" t="s">
+      <c r="A11" s="143"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="255"/>
+      <c r="J11" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="K11" s="175"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="109"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="108"/>
     </row>
     <row r="12" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="144"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="109"/>
+      <c r="A12" s="143"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="108"/>
     </row>
     <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="144"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="173" t="s">
+      <c r="A13" s="143"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="172" t="s">
         <v>112</v>
       </c>
-      <c r="J13" s="171"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="109"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="108"/>
     </row>
     <row r="14" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="144"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="232"/>
-      <c r="J14" s="251"/>
-      <c r="K14" s="251"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="109"/>
+      <c r="A14" s="143"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="251"/>
+      <c r="J14" s="270"/>
+      <c r="K14" s="270"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="108"/>
     </row>
     <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="144"/>
-      <c r="B15" s="149"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="232"/>
-      <c r="J15" s="251"/>
-      <c r="K15" s="251"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="109"/>
+      <c r="A15" s="143"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="251"/>
+      <c r="J15" s="270"/>
+      <c r="K15" s="270"/>
+      <c r="L15" s="133"/>
+      <c r="M15" s="108"/>
     </row>
     <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="144"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="109"/>
+      <c r="A16" s="143"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="108"/>
     </row>
     <row r="17" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="144"/>
-      <c r="B17" s="149"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="239" t="s">
+      <c r="A17" s="143"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="258" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="240"/>
-      <c r="H17" s="240"/>
-      <c r="I17" s="240"/>
-      <c r="J17" s="240"/>
-      <c r="K17" s="240"/>
-      <c r="L17" s="241"/>
-      <c r="M17" s="109"/>
+      <c r="G17" s="259"/>
+      <c r="H17" s="259"/>
+      <c r="I17" s="259"/>
+      <c r="J17" s="259"/>
+      <c r="K17" s="259"/>
+      <c r="L17" s="260"/>
+      <c r="M17" s="108"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="144"/>
-      <c r="B18" s="149"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="242"/>
-      <c r="G18" s="243"/>
-      <c r="H18" s="243"/>
-      <c r="I18" s="243"/>
-      <c r="J18" s="243"/>
-      <c r="K18" s="243"/>
-      <c r="L18" s="244"/>
+      <c r="A18" s="143"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="261"/>
+      <c r="G18" s="262"/>
+      <c r="H18" s="262"/>
+      <c r="I18" s="262"/>
+      <c r="J18" s="262"/>
+      <c r="K18" s="262"/>
+      <c r="L18" s="263"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="144"/>
-      <c r="B19" s="150"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="245"/>
-      <c r="G19" s="246"/>
-      <c r="H19" s="246"/>
-      <c r="I19" s="246"/>
-      <c r="J19" s="246"/>
-      <c r="K19" s="246"/>
-      <c r="L19" s="247"/>
+      <c r="A19" s="143"/>
+      <c r="B19" s="149"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="264"/>
+      <c r="G19" s="265"/>
+      <c r="H19" s="265"/>
+      <c r="I19" s="265"/>
+      <c r="J19" s="265"/>
+      <c r="K19" s="265"/>
+      <c r="L19" s="266"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="150"/>
-      <c r="B20" s="150"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="245"/>
-      <c r="G20" s="246"/>
-      <c r="H20" s="246"/>
-      <c r="I20" s="246"/>
-      <c r="J20" s="246"/>
-      <c r="K20" s="246"/>
-      <c r="L20" s="247"/>
+      <c r="A20" s="149"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="264"/>
+      <c r="G20" s="265"/>
+      <c r="H20" s="265"/>
+      <c r="I20" s="265"/>
+      <c r="J20" s="265"/>
+      <c r="K20" s="265"/>
+      <c r="L20" s="266"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="150"/>
-      <c r="B21" s="150"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="245"/>
-      <c r="G21" s="246"/>
-      <c r="H21" s="246"/>
-      <c r="I21" s="246"/>
-      <c r="J21" s="246"/>
-      <c r="K21" s="246"/>
-      <c r="L21" s="247"/>
+      <c r="A21" s="149"/>
+      <c r="B21" s="149"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="264"/>
+      <c r="G21" s="265"/>
+      <c r="H21" s="265"/>
+      <c r="I21" s="265"/>
+      <c r="J21" s="265"/>
+      <c r="K21" s="265"/>
+      <c r="L21" s="266"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="150"/>
-      <c r="B22" s="150"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="245"/>
-      <c r="G22" s="246"/>
-      <c r="H22" s="246"/>
-      <c r="I22" s="246"/>
-      <c r="J22" s="246"/>
-      <c r="K22" s="246"/>
-      <c r="L22" s="247"/>
+      <c r="A22" s="149"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="264"/>
+      <c r="G22" s="265"/>
+      <c r="H22" s="265"/>
+      <c r="I22" s="265"/>
+      <c r="J22" s="265"/>
+      <c r="K22" s="265"/>
+      <c r="L22" s="266"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="150"/>
-      <c r="B23" s="150"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="245"/>
-      <c r="G23" s="246"/>
-      <c r="H23" s="246"/>
-      <c r="I23" s="246"/>
-      <c r="J23" s="246"/>
-      <c r="K23" s="246"/>
-      <c r="L23" s="247"/>
+      <c r="A23" s="149"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="264"/>
+      <c r="G23" s="265"/>
+      <c r="H23" s="265"/>
+      <c r="I23" s="265"/>
+      <c r="J23" s="265"/>
+      <c r="K23" s="265"/>
+      <c r="L23" s="266"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="152"/>
-      <c r="B24" s="185"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="187"/>
-      <c r="E24" s="187"/>
-      <c r="F24" s="248"/>
-      <c r="G24" s="249"/>
-      <c r="H24" s="249"/>
-      <c r="I24" s="249"/>
-      <c r="J24" s="249"/>
-      <c r="K24" s="249"/>
-      <c r="L24" s="250"/>
+      <c r="A24" s="151"/>
+      <c r="B24" s="184"/>
+      <c r="C24" s="185"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="267"/>
+      <c r="G24" s="268"/>
+      <c r="H24" s="268"/>
+      <c r="I24" s="268"/>
+      <c r="J24" s="268"/>
+      <c r="K24" s="268"/>
+      <c r="L24" s="269"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="216" t="s">
+      <c r="A25" s="235" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="217"/>
-      <c r="C25" s="217"/>
-      <c r="D25" s="217"/>
-      <c r="E25" s="217"/>
-      <c r="F25" s="217"/>
-      <c r="G25" s="217"/>
-      <c r="H25" s="218"/>
-      <c r="I25" s="233" t="s">
+      <c r="B25" s="236"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="236"/>
+      <c r="E25" s="236"/>
+      <c r="F25" s="236"/>
+      <c r="G25" s="236"/>
+      <c r="H25" s="237"/>
+      <c r="I25" s="252" t="s">
         <v>94</v>
       </c>
-      <c r="J25" s="234"/>
-      <c r="K25" s="234"/>
-      <c r="L25" s="235"/>
+      <c r="J25" s="253"/>
+      <c r="K25" s="253"/>
+      <c r="L25" s="254"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="219"/>
-      <c r="B26" s="220"/>
-      <c r="C26" s="220"/>
-      <c r="D26" s="220"/>
-      <c r="E26" s="220"/>
-      <c r="F26" s="220"/>
-      <c r="G26" s="220"/>
-      <c r="H26" s="221"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="178"/>
-      <c r="L26" s="179"/>
+      <c r="A26" s="238"/>
+      <c r="B26" s="239"/>
+      <c r="C26" s="239"/>
+      <c r="D26" s="239"/>
+      <c r="E26" s="239"/>
+      <c r="F26" s="239"/>
+      <c r="G26" s="239"/>
+      <c r="H26" s="240"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="177"/>
+      <c r="L26" s="178"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="222"/>
-      <c r="B27" s="223"/>
-      <c r="C27" s="223"/>
-      <c r="D27" s="223"/>
-      <c r="E27" s="223"/>
-      <c r="F27" s="223"/>
-      <c r="G27" s="223"/>
-      <c r="H27" s="224"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="176"/>
-      <c r="K27" s="176"/>
-      <c r="L27" s="181"/>
+      <c r="A27" s="241"/>
+      <c r="B27" s="242"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="242"/>
+      <c r="E27" s="242"/>
+      <c r="F27" s="242"/>
+      <c r="G27" s="242"/>
+      <c r="H27" s="243"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="175"/>
+      <c r="K27" s="175"/>
+      <c r="L27" s="180"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="222"/>
-      <c r="B28" s="223"/>
-      <c r="C28" s="223"/>
-      <c r="D28" s="223"/>
-      <c r="E28" s="223"/>
-      <c r="F28" s="223"/>
-      <c r="G28" s="223"/>
-      <c r="H28" s="224"/>
-      <c r="I28" s="180"/>
-      <c r="J28" s="176"/>
-      <c r="K28" s="176"/>
-      <c r="L28" s="181"/>
+      <c r="A28" s="241"/>
+      <c r="B28" s="242"/>
+      <c r="C28" s="242"/>
+      <c r="D28" s="242"/>
+      <c r="E28" s="242"/>
+      <c r="F28" s="242"/>
+      <c r="G28" s="242"/>
+      <c r="H28" s="243"/>
+      <c r="I28" s="179"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="180"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="222"/>
-      <c r="B29" s="223"/>
-      <c r="C29" s="223"/>
-      <c r="D29" s="223"/>
-      <c r="E29" s="223"/>
-      <c r="F29" s="223"/>
-      <c r="G29" s="223"/>
-      <c r="H29" s="224"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="176"/>
-      <c r="K29" s="176"/>
-      <c r="L29" s="181"/>
+      <c r="A29" s="241"/>
+      <c r="B29" s="242"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="242"/>
+      <c r="E29" s="242"/>
+      <c r="F29" s="242"/>
+      <c r="G29" s="242"/>
+      <c r="H29" s="243"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="180"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="222"/>
-      <c r="B30" s="223"/>
-      <c r="C30" s="223"/>
-      <c r="D30" s="223"/>
-      <c r="E30" s="223"/>
-      <c r="F30" s="223"/>
-      <c r="G30" s="223"/>
-      <c r="H30" s="224"/>
-      <c r="I30" s="180"/>
-      <c r="J30" s="176"/>
-      <c r="K30" s="176"/>
-      <c r="L30" s="181"/>
+      <c r="A30" s="241"/>
+      <c r="B30" s="242"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="242"/>
+      <c r="E30" s="242"/>
+      <c r="F30" s="242"/>
+      <c r="G30" s="242"/>
+      <c r="H30" s="243"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="175"/>
+      <c r="K30" s="175"/>
+      <c r="L30" s="180"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="222"/>
-      <c r="B31" s="223"/>
-      <c r="C31" s="223"/>
-      <c r="D31" s="223"/>
-      <c r="E31" s="223"/>
-      <c r="F31" s="223"/>
-      <c r="G31" s="223"/>
-      <c r="H31" s="224"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="176"/>
-      <c r="K31" s="176"/>
-      <c r="L31" s="181"/>
+      <c r="A31" s="241"/>
+      <c r="B31" s="242"/>
+      <c r="C31" s="242"/>
+      <c r="D31" s="242"/>
+      <c r="E31" s="242"/>
+      <c r="F31" s="242"/>
+      <c r="G31" s="242"/>
+      <c r="H31" s="243"/>
+      <c r="I31" s="179"/>
+      <c r="J31" s="175"/>
+      <c r="K31" s="175"/>
+      <c r="L31" s="180"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="222"/>
-      <c r="B32" s="223"/>
-      <c r="C32" s="223"/>
-      <c r="D32" s="223"/>
-      <c r="E32" s="223"/>
-      <c r="F32" s="223"/>
-      <c r="G32" s="223"/>
-      <c r="H32" s="224"/>
-      <c r="I32" s="180"/>
-      <c r="J32" s="176"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="181"/>
+      <c r="A32" s="241"/>
+      <c r="B32" s="242"/>
+      <c r="C32" s="242"/>
+      <c r="D32" s="242"/>
+      <c r="E32" s="242"/>
+      <c r="F32" s="242"/>
+      <c r="G32" s="242"/>
+      <c r="H32" s="243"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="175"/>
+      <c r="K32" s="175"/>
+      <c r="L32" s="180"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="222"/>
-      <c r="B33" s="223"/>
-      <c r="C33" s="223"/>
-      <c r="D33" s="223"/>
-      <c r="E33" s="223"/>
-      <c r="F33" s="223"/>
-      <c r="G33" s="223"/>
-      <c r="H33" s="224"/>
-      <c r="I33" s="180"/>
-      <c r="J33" s="176"/>
-      <c r="K33" s="176"/>
-      <c r="L33" s="181"/>
+      <c r="A33" s="241"/>
+      <c r="B33" s="242"/>
+      <c r="C33" s="242"/>
+      <c r="D33" s="242"/>
+      <c r="E33" s="242"/>
+      <c r="F33" s="242"/>
+      <c r="G33" s="242"/>
+      <c r="H33" s="243"/>
+      <c r="I33" s="179"/>
+      <c r="J33" s="175"/>
+      <c r="K33" s="175"/>
+      <c r="L33" s="180"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="225"/>
-      <c r="B34" s="226"/>
-      <c r="C34" s="226"/>
-      <c r="D34" s="226"/>
-      <c r="E34" s="226"/>
-      <c r="F34" s="226"/>
-      <c r="G34" s="226"/>
-      <c r="H34" s="227"/>
-      <c r="I34" s="182"/>
-      <c r="J34" s="183"/>
-      <c r="K34" s="183"/>
-      <c r="L34" s="184"/>
+      <c r="A34" s="244"/>
+      <c r="B34" s="245"/>
+      <c r="C34" s="245"/>
+      <c r="D34" s="245"/>
+      <c r="E34" s="245"/>
+      <c r="F34" s="245"/>
+      <c r="G34" s="245"/>
+      <c r="H34" s="246"/>
+      <c r="I34" s="181"/>
+      <c r="J34" s="182"/>
+      <c r="K34" s="182"/>
+      <c r="L34" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H5:I5"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A26:H34"/>
     <mergeCell ref="A6:B6"/>
@@ -3619,6 +3715,11 @@
     <mergeCell ref="F17:L17"/>
     <mergeCell ref="F18:L24"/>
     <mergeCell ref="J14:K15"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3626,7 +3727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3649,45 +3750,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="259" t="s">
+      <c r="B1" s="272" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
       <c r="G1" s="66" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="66"/>
-      <c r="I1" s="260">
+      <c r="I1" s="273">
         <v>42491</v>
       </c>
-      <c r="J1" s="260"/>
+      <c r="J1" s="273"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="259"/>
-      <c r="C2" s="259"/>
-      <c r="D2" s="259"/>
-      <c r="E2" s="259"/>
-      <c r="F2" s="259"/>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="272"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="272"/>
       <c r="G2" s="68" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="68"/>
-      <c r="I2" s="260">
+      <c r="I2" s="273">
         <v>42639</v>
       </c>
-      <c r="J2" s="260"/>
+      <c r="J2" s="273"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="258" t="s">
+      <c r="B3" s="271" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
+      <c r="C3" s="271"/>
+      <c r="D3" s="271"/>
+      <c r="E3" s="271"/>
+      <c r="F3" s="271"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="65"/>
@@ -3823,11 +3924,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3836,1059 +3937,1059 @@
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="320" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="219" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="209" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="262" t="s">
+      <c r="C1" s="275" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="262"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="188"/>
+      <c r="D1" s="275"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="187"/>
     </row>
     <row r="2" spans="1:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="210"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="316"/>
-      <c r="F2" s="188"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="187"/>
     </row>
     <row r="3" spans="1:6" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="211" t="s">
+      <c r="B3" s="210" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="261" t="s">
+      <c r="C3" s="274" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="261"/>
-      <c r="E3" s="317"/>
-    </row>
-    <row r="4" spans="1:6" s="202" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="201" t="s">
+      <c r="D3" s="274"/>
+      <c r="E3" s="216"/>
+    </row>
+    <row r="4" spans="1:6" s="201" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="201" t="s">
+      <c r="B4" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="201" t="s">
+      <c r="C4" s="200" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="201"/>
-      <c r="E4" s="318" t="s">
+      <c r="D4" s="200"/>
+      <c r="E4" s="217" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="199"/>
-      <c r="B5" s="203"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="319"/>
+      <c r="A5" s="198"/>
+      <c r="B5" s="202"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="218"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="199"/>
-      <c r="B6" s="203"/>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="319"/>
+      <c r="A6" s="198"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="218"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="199"/>
-      <c r="B7" s="203"/>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="319"/>
+      <c r="A7" s="198"/>
+      <c r="B7" s="202"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="198"/>
+      <c r="E7" s="218"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="199"/>
-      <c r="B8" s="203"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="319"/>
+      <c r="A8" s="198"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="218"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="199"/>
-      <c r="B9" s="203"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="319"/>
+      <c r="A9" s="198"/>
+      <c r="B9" s="202"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="218"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="199"/>
-      <c r="B10" s="203"/>
-      <c r="C10" s="199"/>
-      <c r="D10" s="199"/>
-      <c r="E10" s="319"/>
+      <c r="A10" s="198"/>
+      <c r="B10" s="202"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="218"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="199"/>
-      <c r="B11" s="203"/>
-      <c r="C11" s="199"/>
-      <c r="D11" s="199"/>
-      <c r="E11" s="319"/>
+      <c r="A11" s="198"/>
+      <c r="B11" s="202"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="198"/>
+      <c r="E11" s="218"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="199"/>
-      <c r="B12" s="203"/>
-      <c r="C12" s="199"/>
-      <c r="D12" s="199"/>
-      <c r="E12" s="319"/>
+      <c r="A12" s="198"/>
+      <c r="B12" s="202"/>
+      <c r="C12" s="198"/>
+      <c r="D12" s="198"/>
+      <c r="E12" s="218"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="199"/>
-      <c r="B13" s="203"/>
-      <c r="C13" s="199"/>
-      <c r="D13" s="199"/>
-      <c r="E13" s="319"/>
+      <c r="A13" s="198"/>
+      <c r="B13" s="202"/>
+      <c r="C13" s="198"/>
+      <c r="D13" s="198"/>
+      <c r="E13" s="218"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="199"/>
-      <c r="B14" s="203"/>
-      <c r="C14" s="199"/>
-      <c r="D14" s="199"/>
-      <c r="E14" s="319"/>
+      <c r="A14" s="198"/>
+      <c r="B14" s="202"/>
+      <c r="C14" s="198"/>
+      <c r="D14" s="198"/>
+      <c r="E14" s="218"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="199"/>
-      <c r="B15" s="203"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="199"/>
-      <c r="E15" s="319"/>
+      <c r="A15" s="198"/>
+      <c r="B15" s="202"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="198"/>
+      <c r="E15" s="218"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="199"/>
-      <c r="B16" s="203"/>
-      <c r="C16" s="199"/>
-      <c r="D16" s="199"/>
-      <c r="E16" s="319"/>
+      <c r="A16" s="198"/>
+      <c r="B16" s="202"/>
+      <c r="C16" s="198"/>
+      <c r="D16" s="198"/>
+      <c r="E16" s="218"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="199"/>
-      <c r="B17" s="203"/>
-      <c r="C17" s="199"/>
-      <c r="D17" s="199"/>
-      <c r="E17" s="319"/>
+      <c r="A17" s="198"/>
+      <c r="B17" s="202"/>
+      <c r="C17" s="198"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="218"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="199"/>
-      <c r="B18" s="203"/>
-      <c r="C18" s="199"/>
-      <c r="D18" s="199"/>
-      <c r="E18" s="319"/>
+      <c r="A18" s="198"/>
+      <c r="B18" s="202"/>
+      <c r="C18" s="198"/>
+      <c r="D18" s="198"/>
+      <c r="E18" s="218"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="199"/>
-      <c r="B19" s="203"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="199"/>
-      <c r="E19" s="319"/>
+      <c r="A19" s="198"/>
+      <c r="B19" s="202"/>
+      <c r="C19" s="198"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="218"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="199"/>
-      <c r="B20" s="203"/>
-      <c r="C20" s="199"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="319"/>
+      <c r="A20" s="198"/>
+      <c r="B20" s="202"/>
+      <c r="C20" s="198"/>
+      <c r="D20" s="198"/>
+      <c r="E20" s="218"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="199"/>
-      <c r="B21" s="203"/>
-      <c r="C21" s="199"/>
-      <c r="D21" s="199"/>
-      <c r="E21" s="319"/>
+      <c r="A21" s="198"/>
+      <c r="B21" s="202"/>
+      <c r="C21" s="198"/>
+      <c r="D21" s="198"/>
+      <c r="E21" s="218"/>
     </row>
     <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="199"/>
-      <c r="B22" s="203"/>
-      <c r="C22" s="199"/>
-      <c r="D22" s="199"/>
-      <c r="E22" s="319"/>
+      <c r="A22" s="198"/>
+      <c r="B22" s="202"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="198"/>
+      <c r="E22" s="218"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="199"/>
-      <c r="B23" s="203"/>
-      <c r="C23" s="199"/>
-      <c r="D23" s="199"/>
-      <c r="E23" s="319"/>
+      <c r="A23" s="198"/>
+      <c r="B23" s="202"/>
+      <c r="C23" s="198"/>
+      <c r="D23" s="198"/>
+      <c r="E23" s="218"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="199"/>
-      <c r="B24" s="203"/>
-      <c r="C24" s="199"/>
-      <c r="D24" s="199"/>
-      <c r="E24" s="319"/>
+      <c r="A24" s="198"/>
+      <c r="B24" s="202"/>
+      <c r="C24" s="198"/>
+      <c r="D24" s="198"/>
+      <c r="E24" s="218"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="199"/>
-      <c r="B25" s="203"/>
-      <c r="C25" s="199"/>
-      <c r="D25" s="199"/>
-      <c r="E25" s="319"/>
+      <c r="A25" s="198"/>
+      <c r="B25" s="202"/>
+      <c r="C25" s="198"/>
+      <c r="D25" s="198"/>
+      <c r="E25" s="218"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="199"/>
-      <c r="B26" s="203"/>
-      <c r="C26" s="199"/>
-      <c r="D26" s="199"/>
-      <c r="E26" s="319"/>
+      <c r="A26" s="198"/>
+      <c r="B26" s="202"/>
+      <c r="C26" s="198"/>
+      <c r="D26" s="198"/>
+      <c r="E26" s="218"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="199"/>
-      <c r="B27" s="203"/>
-      <c r="C27" s="199"/>
-      <c r="D27" s="199"/>
-      <c r="E27" s="319"/>
+      <c r="A27" s="198"/>
+      <c r="B27" s="202"/>
+      <c r="C27" s="198"/>
+      <c r="D27" s="198"/>
+      <c r="E27" s="218"/>
     </row>
     <row r="28" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="199"/>
-      <c r="B28" s="203"/>
-      <c r="C28" s="199"/>
-      <c r="D28" s="199"/>
-      <c r="E28" s="319"/>
+      <c r="A28" s="198"/>
+      <c r="B28" s="202"/>
+      <c r="C28" s="198"/>
+      <c r="D28" s="198"/>
+      <c r="E28" s="218"/>
     </row>
     <row r="29" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="199"/>
-      <c r="B29" s="203"/>
-      <c r="C29" s="199"/>
-      <c r="D29" s="199"/>
-      <c r="E29" s="319"/>
+      <c r="A29" s="198"/>
+      <c r="B29" s="202"/>
+      <c r="C29" s="198"/>
+      <c r="D29" s="198"/>
+      <c r="E29" s="218"/>
     </row>
     <row r="30" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="199"/>
-      <c r="B30" s="203"/>
-      <c r="C30" s="199"/>
-      <c r="D30" s="199"/>
-      <c r="E30" s="319"/>
+      <c r="A30" s="198"/>
+      <c r="B30" s="202"/>
+      <c r="C30" s="198"/>
+      <c r="D30" s="198"/>
+      <c r="E30" s="218"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="199"/>
-      <c r="B31" s="203"/>
-      <c r="C31" s="199"/>
-      <c r="D31" s="199"/>
-      <c r="E31" s="319"/>
+      <c r="A31" s="198"/>
+      <c r="B31" s="202"/>
+      <c r="C31" s="198"/>
+      <c r="D31" s="198"/>
+      <c r="E31" s="218"/>
     </row>
     <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="199"/>
-      <c r="B32" s="203"/>
-      <c r="C32" s="199"/>
-      <c r="D32" s="199"/>
-      <c r="E32" s="319"/>
+      <c r="A32" s="198"/>
+      <c r="B32" s="202"/>
+      <c r="C32" s="198"/>
+      <c r="D32" s="198"/>
+      <c r="E32" s="218"/>
     </row>
     <row r="33" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="199"/>
-      <c r="B33" s="203"/>
-      <c r="C33" s="199"/>
-      <c r="D33" s="199"/>
-      <c r="E33" s="319"/>
+      <c r="A33" s="198"/>
+      <c r="B33" s="202"/>
+      <c r="C33" s="198"/>
+      <c r="D33" s="198"/>
+      <c r="E33" s="218"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="199"/>
-      <c r="B34" s="203"/>
-      <c r="C34" s="199"/>
-      <c r="D34" s="199"/>
-      <c r="E34" s="319"/>
+      <c r="A34" s="198"/>
+      <c r="B34" s="202"/>
+      <c r="C34" s="198"/>
+      <c r="D34" s="198"/>
+      <c r="E34" s="218"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="199"/>
-      <c r="B35" s="203"/>
-      <c r="C35" s="199"/>
-      <c r="D35" s="199"/>
-      <c r="E35" s="319"/>
+      <c r="A35" s="198"/>
+      <c r="B35" s="202"/>
+      <c r="C35" s="198"/>
+      <c r="D35" s="198"/>
+      <c r="E35" s="218"/>
     </row>
     <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="199"/>
-      <c r="B36" s="203"/>
-      <c r="C36" s="199"/>
-      <c r="D36" s="199"/>
-      <c r="E36" s="319"/>
+      <c r="A36" s="198"/>
+      <c r="B36" s="202"/>
+      <c r="C36" s="198"/>
+      <c r="D36" s="198"/>
+      <c r="E36" s="218"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="199"/>
-      <c r="B37" s="203"/>
-      <c r="C37" s="199"/>
-      <c r="D37" s="199"/>
-      <c r="E37" s="319"/>
+      <c r="A37" s="198"/>
+      <c r="B37" s="202"/>
+      <c r="C37" s="198"/>
+      <c r="D37" s="198"/>
+      <c r="E37" s="218"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="199"/>
-      <c r="B38" s="203"/>
-      <c r="C38" s="199"/>
-      <c r="D38" s="199"/>
-      <c r="E38" s="319"/>
+      <c r="A38" s="198"/>
+      <c r="B38" s="202"/>
+      <c r="C38" s="198"/>
+      <c r="D38" s="198"/>
+      <c r="E38" s="218"/>
     </row>
     <row r="39" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="199"/>
-      <c r="B39" s="203"/>
-      <c r="C39" s="199"/>
-      <c r="D39" s="199"/>
-      <c r="E39" s="319"/>
+      <c r="A39" s="198"/>
+      <c r="B39" s="202"/>
+      <c r="C39" s="198"/>
+      <c r="D39" s="198"/>
+      <c r="E39" s="218"/>
     </row>
     <row r="40" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="199"/>
-      <c r="B40" s="203"/>
-      <c r="C40" s="199"/>
-      <c r="D40" s="199"/>
-      <c r="E40" s="319"/>
+      <c r="A40" s="198"/>
+      <c r="B40" s="202"/>
+      <c r="C40" s="198"/>
+      <c r="D40" s="198"/>
+      <c r="E40" s="218"/>
     </row>
     <row r="41" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="199"/>
-      <c r="B41" s="203"/>
-      <c r="C41" s="199"/>
-      <c r="D41" s="199"/>
-      <c r="E41" s="319"/>
+      <c r="A41" s="198"/>
+      <c r="B41" s="202"/>
+      <c r="C41" s="198"/>
+      <c r="D41" s="198"/>
+      <c r="E41" s="218"/>
     </row>
     <row r="42" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="199"/>
-      <c r="B42" s="203"/>
-      <c r="C42" s="199"/>
-      <c r="D42" s="199"/>
-      <c r="E42" s="319"/>
+      <c r="A42" s="198"/>
+      <c r="B42" s="202"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="218"/>
     </row>
     <row r="43" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="199"/>
-      <c r="B43" s="203"/>
-      <c r="C43" s="199"/>
-      <c r="D43" s="199"/>
-      <c r="E43" s="319"/>
+      <c r="A43" s="198"/>
+      <c r="B43" s="202"/>
+      <c r="C43" s="198"/>
+      <c r="D43" s="198"/>
+      <c r="E43" s="218"/>
     </row>
     <row r="44" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="199"/>
-      <c r="B44" s="203"/>
-      <c r="C44" s="199"/>
-      <c r="D44" s="199"/>
-      <c r="E44" s="319"/>
+      <c r="A44" s="198"/>
+      <c r="B44" s="202"/>
+      <c r="C44" s="198"/>
+      <c r="D44" s="198"/>
+      <c r="E44" s="218"/>
     </row>
     <row r="45" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="199"/>
-      <c r="B45" s="203"/>
-      <c r="C45" s="199"/>
-      <c r="D45" s="199"/>
-      <c r="E45" s="319"/>
+      <c r="A45" s="198"/>
+      <c r="B45" s="202"/>
+      <c r="C45" s="198"/>
+      <c r="D45" s="198"/>
+      <c r="E45" s="218"/>
     </row>
     <row r="46" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="199"/>
-      <c r="B46" s="203"/>
-      <c r="C46" s="199"/>
-      <c r="D46" s="199"/>
-      <c r="E46" s="319"/>
+      <c r="A46" s="198"/>
+      <c r="B46" s="202"/>
+      <c r="C46" s="198"/>
+      <c r="D46" s="198"/>
+      <c r="E46" s="218"/>
     </row>
     <row r="47" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="199"/>
-      <c r="B47" s="203"/>
-      <c r="C47" s="199"/>
-      <c r="D47" s="199"/>
-      <c r="E47" s="319"/>
+      <c r="A47" s="198"/>
+      <c r="B47" s="202"/>
+      <c r="C47" s="198"/>
+      <c r="D47" s="198"/>
+      <c r="E47" s="218"/>
     </row>
     <row r="48" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="199"/>
-      <c r="B48" s="203"/>
-      <c r="C48" s="199"/>
-      <c r="D48" s="199"/>
-      <c r="E48" s="319"/>
+      <c r="A48" s="198"/>
+      <c r="B48" s="202"/>
+      <c r="C48" s="198"/>
+      <c r="D48" s="198"/>
+      <c r="E48" s="218"/>
     </row>
     <row r="49" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="199"/>
-      <c r="B49" s="203"/>
-      <c r="C49" s="199"/>
-      <c r="D49" s="199"/>
-      <c r="E49" s="319"/>
+      <c r="A49" s="198"/>
+      <c r="B49" s="202"/>
+      <c r="C49" s="198"/>
+      <c r="D49" s="198"/>
+      <c r="E49" s="218"/>
     </row>
     <row r="50" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="199"/>
-      <c r="B50" s="203"/>
-      <c r="C50" s="199"/>
-      <c r="D50" s="199"/>
-      <c r="E50" s="319"/>
+      <c r="A50" s="198"/>
+      <c r="B50" s="202"/>
+      <c r="C50" s="198"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="218"/>
     </row>
     <row r="51" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="199"/>
-      <c r="B51" s="203"/>
-      <c r="C51" s="199"/>
-      <c r="D51" s="199"/>
-      <c r="E51" s="319"/>
+      <c r="A51" s="198"/>
+      <c r="B51" s="202"/>
+      <c r="C51" s="198"/>
+      <c r="D51" s="198"/>
+      <c r="E51" s="218"/>
     </row>
     <row r="52" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="199"/>
-      <c r="B52" s="203"/>
-      <c r="C52" s="199"/>
-      <c r="D52" s="199"/>
-      <c r="E52" s="319"/>
+      <c r="A52" s="198"/>
+      <c r="B52" s="202"/>
+      <c r="C52" s="198"/>
+      <c r="D52" s="198"/>
+      <c r="E52" s="218"/>
     </row>
     <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="199"/>
-      <c r="B53" s="203"/>
-      <c r="C53" s="199"/>
-      <c r="D53" s="199"/>
-      <c r="E53" s="319"/>
+      <c r="A53" s="198"/>
+      <c r="B53" s="202"/>
+      <c r="C53" s="198"/>
+      <c r="D53" s="198"/>
+      <c r="E53" s="218"/>
     </row>
     <row r="54" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="199"/>
-      <c r="B54" s="203"/>
-      <c r="C54" s="199"/>
-      <c r="D54" s="199"/>
-      <c r="E54" s="319"/>
+      <c r="A54" s="198"/>
+      <c r="B54" s="202"/>
+      <c r="C54" s="198"/>
+      <c r="D54" s="198"/>
+      <c r="E54" s="218"/>
     </row>
     <row r="55" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="199"/>
-      <c r="B55" s="203"/>
-      <c r="C55" s="199"/>
-      <c r="D55" s="199"/>
-      <c r="E55" s="319"/>
+      <c r="A55" s="198"/>
+      <c r="B55" s="202"/>
+      <c r="C55" s="198"/>
+      <c r="D55" s="198"/>
+      <c r="E55" s="218"/>
     </row>
     <row r="56" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="199"/>
-      <c r="B56" s="203"/>
-      <c r="C56" s="199"/>
-      <c r="D56" s="199"/>
-      <c r="E56" s="319"/>
+      <c r="A56" s="198"/>
+      <c r="B56" s="202"/>
+      <c r="C56" s="198"/>
+      <c r="D56" s="198"/>
+      <c r="E56" s="218"/>
     </row>
     <row r="57" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="199"/>
-      <c r="B57" s="203"/>
-      <c r="C57" s="199"/>
-      <c r="D57" s="199"/>
-      <c r="E57" s="319"/>
+      <c r="A57" s="198"/>
+      <c r="B57" s="202"/>
+      <c r="C57" s="198"/>
+      <c r="D57" s="198"/>
+      <c r="E57" s="218"/>
     </row>
     <row r="58" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="199"/>
-      <c r="B58" s="203"/>
-      <c r="C58" s="199"/>
-      <c r="D58" s="199"/>
-      <c r="E58" s="319"/>
+      <c r="A58" s="198"/>
+      <c r="B58" s="202"/>
+      <c r="C58" s="198"/>
+      <c r="D58" s="198"/>
+      <c r="E58" s="218"/>
     </row>
     <row r="59" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="199"/>
-      <c r="B59" s="203"/>
-      <c r="C59" s="199"/>
-      <c r="D59" s="199"/>
-      <c r="E59" s="319"/>
+      <c r="A59" s="198"/>
+      <c r="B59" s="202"/>
+      <c r="C59" s="198"/>
+      <c r="D59" s="198"/>
+      <c r="E59" s="218"/>
     </row>
     <row r="60" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="199"/>
-      <c r="B60" s="203"/>
-      <c r="C60" s="199"/>
-      <c r="D60" s="199"/>
-      <c r="E60" s="319"/>
+      <c r="A60" s="198"/>
+      <c r="B60" s="202"/>
+      <c r="C60" s="198"/>
+      <c r="D60" s="198"/>
+      <c r="E60" s="218"/>
     </row>
     <row r="61" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="199"/>
-      <c r="B61" s="203"/>
-      <c r="C61" s="199"/>
-      <c r="D61" s="199"/>
-      <c r="E61" s="319"/>
+      <c r="A61" s="198"/>
+      <c r="B61" s="202"/>
+      <c r="C61" s="198"/>
+      <c r="D61" s="198"/>
+      <c r="E61" s="218"/>
     </row>
     <row r="62" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="199"/>
-      <c r="B62" s="203"/>
-      <c r="C62" s="199"/>
-      <c r="D62" s="199"/>
-      <c r="E62" s="319"/>
+      <c r="A62" s="198"/>
+      <c r="B62" s="202"/>
+      <c r="C62" s="198"/>
+      <c r="D62" s="198"/>
+      <c r="E62" s="218"/>
     </row>
     <row r="63" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="199"/>
-      <c r="B63" s="203"/>
-      <c r="C63" s="199"/>
-      <c r="D63" s="199"/>
-      <c r="E63" s="319"/>
+      <c r="A63" s="198"/>
+      <c r="B63" s="202"/>
+      <c r="C63" s="198"/>
+      <c r="D63" s="198"/>
+      <c r="E63" s="218"/>
     </row>
     <row r="64" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="199"/>
-      <c r="B64" s="203"/>
-      <c r="C64" s="199"/>
-      <c r="D64" s="199"/>
-      <c r="E64" s="319"/>
+      <c r="A64" s="198"/>
+      <c r="B64" s="202"/>
+      <c r="C64" s="198"/>
+      <c r="D64" s="198"/>
+      <c r="E64" s="218"/>
     </row>
     <row r="65" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="199"/>
-      <c r="B65" s="203"/>
-      <c r="C65" s="199"/>
-      <c r="D65" s="199"/>
-      <c r="E65" s="319"/>
+      <c r="A65" s="198"/>
+      <c r="B65" s="202"/>
+      <c r="C65" s="198"/>
+      <c r="D65" s="198"/>
+      <c r="E65" s="218"/>
     </row>
     <row r="66" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="199"/>
-      <c r="B66" s="203"/>
-      <c r="C66" s="199"/>
-      <c r="D66" s="199"/>
-      <c r="E66" s="319"/>
+      <c r="A66" s="198"/>
+      <c r="B66" s="202"/>
+      <c r="C66" s="198"/>
+      <c r="D66" s="198"/>
+      <c r="E66" s="218"/>
     </row>
     <row r="67" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="199"/>
-      <c r="B67" s="203"/>
-      <c r="C67" s="199"/>
-      <c r="D67" s="199"/>
-      <c r="E67" s="319"/>
+      <c r="A67" s="198"/>
+      <c r="B67" s="202"/>
+      <c r="C67" s="198"/>
+      <c r="D67" s="198"/>
+      <c r="E67" s="218"/>
     </row>
     <row r="68" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="199"/>
-      <c r="B68" s="203"/>
-      <c r="C68" s="199"/>
-      <c r="D68" s="199"/>
-      <c r="E68" s="319"/>
+      <c r="A68" s="198"/>
+      <c r="B68" s="202"/>
+      <c r="C68" s="198"/>
+      <c r="D68" s="198"/>
+      <c r="E68" s="218"/>
     </row>
     <row r="69" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="199"/>
-      <c r="B69" s="203"/>
-      <c r="C69" s="199"/>
-      <c r="D69" s="199"/>
-      <c r="E69" s="319"/>
+      <c r="A69" s="198"/>
+      <c r="B69" s="202"/>
+      <c r="C69" s="198"/>
+      <c r="D69" s="198"/>
+      <c r="E69" s="218"/>
     </row>
     <row r="70" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="199"/>
-      <c r="B70" s="203"/>
-      <c r="C70" s="199"/>
-      <c r="D70" s="199"/>
-      <c r="E70" s="319"/>
+      <c r="A70" s="198"/>
+      <c r="B70" s="202"/>
+      <c r="C70" s="198"/>
+      <c r="D70" s="198"/>
+      <c r="E70" s="218"/>
     </row>
     <row r="71" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="199"/>
-      <c r="B71" s="203"/>
-      <c r="C71" s="199"/>
-      <c r="D71" s="199"/>
-      <c r="E71" s="319"/>
+      <c r="A71" s="198"/>
+      <c r="B71" s="202"/>
+      <c r="C71" s="198"/>
+      <c r="D71" s="198"/>
+      <c r="E71" s="218"/>
     </row>
     <row r="72" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="199"/>
-      <c r="B72" s="203"/>
-      <c r="C72" s="199"/>
-      <c r="D72" s="199"/>
-      <c r="E72" s="319"/>
+      <c r="A72" s="198"/>
+      <c r="B72" s="202"/>
+      <c r="C72" s="198"/>
+      <c r="D72" s="198"/>
+      <c r="E72" s="218"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="199"/>
-      <c r="B73" s="203"/>
-      <c r="C73" s="199"/>
-      <c r="D73" s="199"/>
-      <c r="E73" s="319"/>
+      <c r="A73" s="198"/>
+      <c r="B73" s="202"/>
+      <c r="C73" s="198"/>
+      <c r="D73" s="198"/>
+      <c r="E73" s="218"/>
     </row>
     <row r="74" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="199"/>
-      <c r="B74" s="203"/>
-      <c r="C74" s="199"/>
-      <c r="D74" s="199"/>
-      <c r="E74" s="319"/>
+      <c r="A74" s="198"/>
+      <c r="B74" s="202"/>
+      <c r="C74" s="198"/>
+      <c r="D74" s="198"/>
+      <c r="E74" s="218"/>
     </row>
     <row r="75" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="199"/>
-      <c r="B75" s="203"/>
-      <c r="C75" s="199"/>
-      <c r="D75" s="199"/>
-      <c r="E75" s="319"/>
+      <c r="A75" s="198"/>
+      <c r="B75" s="202"/>
+      <c r="C75" s="198"/>
+      <c r="D75" s="198"/>
+      <c r="E75" s="218"/>
     </row>
     <row r="76" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="199"/>
-      <c r="B76" s="203"/>
-      <c r="C76" s="199"/>
-      <c r="D76" s="199"/>
-      <c r="E76" s="319"/>
+      <c r="A76" s="198"/>
+      <c r="B76" s="202"/>
+      <c r="C76" s="198"/>
+      <c r="D76" s="198"/>
+      <c r="E76" s="218"/>
     </row>
     <row r="77" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="199"/>
-      <c r="B77" s="203"/>
-      <c r="C77" s="199"/>
-      <c r="D77" s="199"/>
-      <c r="E77" s="319"/>
+      <c r="A77" s="198"/>
+      <c r="B77" s="202"/>
+      <c r="C77" s="198"/>
+      <c r="D77" s="198"/>
+      <c r="E77" s="218"/>
     </row>
     <row r="78" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="199"/>
-      <c r="B78" s="203"/>
-      <c r="C78" s="199"/>
-      <c r="D78" s="199"/>
-      <c r="E78" s="319"/>
+      <c r="A78" s="198"/>
+      <c r="B78" s="202"/>
+      <c r="C78" s="198"/>
+      <c r="D78" s="198"/>
+      <c r="E78" s="218"/>
     </row>
     <row r="79" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="199"/>
-      <c r="B79" s="203"/>
-      <c r="C79" s="199"/>
-      <c r="D79" s="199"/>
-      <c r="E79" s="319"/>
+      <c r="A79" s="198"/>
+      <c r="B79" s="202"/>
+      <c r="C79" s="198"/>
+      <c r="D79" s="198"/>
+      <c r="E79" s="218"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="199"/>
-      <c r="B80" s="203"/>
-      <c r="C80" s="199"/>
-      <c r="D80" s="199"/>
-      <c r="E80" s="319"/>
+      <c r="A80" s="198"/>
+      <c r="B80" s="202"/>
+      <c r="C80" s="198"/>
+      <c r="D80" s="198"/>
+      <c r="E80" s="218"/>
     </row>
     <row r="81" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="199"/>
-      <c r="B81" s="203"/>
-      <c r="C81" s="199"/>
-      <c r="D81" s="199"/>
-      <c r="E81" s="319"/>
+      <c r="A81" s="198"/>
+      <c r="B81" s="202"/>
+      <c r="C81" s="198"/>
+      <c r="D81" s="198"/>
+      <c r="E81" s="218"/>
     </row>
     <row r="82" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="199"/>
-      <c r="B82" s="203"/>
-      <c r="C82" s="199"/>
-      <c r="D82" s="199"/>
-      <c r="E82" s="319"/>
+      <c r="A82" s="198"/>
+      <c r="B82" s="202"/>
+      <c r="C82" s="198"/>
+      <c r="D82" s="198"/>
+      <c r="E82" s="218"/>
     </row>
     <row r="83" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="199"/>
-      <c r="B83" s="203"/>
-      <c r="C83" s="199"/>
-      <c r="D83" s="199"/>
-      <c r="E83" s="319"/>
+      <c r="A83" s="198"/>
+      <c r="B83" s="202"/>
+      <c r="C83" s="198"/>
+      <c r="D83" s="198"/>
+      <c r="E83" s="218"/>
     </row>
     <row r="84" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="199"/>
-      <c r="B84" s="203"/>
-      <c r="C84" s="199"/>
-      <c r="D84" s="199"/>
-      <c r="E84" s="319"/>
+      <c r="A84" s="198"/>
+      <c r="B84" s="202"/>
+      <c r="C84" s="198"/>
+      <c r="D84" s="198"/>
+      <c r="E84" s="218"/>
     </row>
     <row r="85" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="199"/>
-      <c r="B85" s="203"/>
-      <c r="C85" s="199"/>
-      <c r="D85" s="199"/>
-      <c r="E85" s="319"/>
+      <c r="A85" s="198"/>
+      <c r="B85" s="202"/>
+      <c r="C85" s="198"/>
+      <c r="D85" s="198"/>
+      <c r="E85" s="218"/>
     </row>
     <row r="86" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="199"/>
-      <c r="B86" s="203"/>
-      <c r="C86" s="199"/>
-      <c r="D86" s="199"/>
-      <c r="E86" s="319"/>
+      <c r="A86" s="198"/>
+      <c r="B86" s="202"/>
+      <c r="C86" s="198"/>
+      <c r="D86" s="198"/>
+      <c r="E86" s="218"/>
     </row>
     <row r="87" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="199"/>
-      <c r="B87" s="203"/>
-      <c r="C87" s="199"/>
-      <c r="D87" s="199"/>
-      <c r="E87" s="319"/>
+      <c r="A87" s="198"/>
+      <c r="B87" s="202"/>
+      <c r="C87" s="198"/>
+      <c r="D87" s="198"/>
+      <c r="E87" s="218"/>
     </row>
     <row r="88" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="199"/>
-      <c r="B88" s="203"/>
-      <c r="C88" s="199"/>
-      <c r="D88" s="199"/>
-      <c r="E88" s="319"/>
+      <c r="A88" s="198"/>
+      <c r="B88" s="202"/>
+      <c r="C88" s="198"/>
+      <c r="D88" s="198"/>
+      <c r="E88" s="218"/>
     </row>
     <row r="89" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="199"/>
-      <c r="B89" s="203"/>
-      <c r="C89" s="199"/>
-      <c r="D89" s="199"/>
-      <c r="E89" s="319"/>
+      <c r="A89" s="198"/>
+      <c r="B89" s="202"/>
+      <c r="C89" s="198"/>
+      <c r="D89" s="198"/>
+      <c r="E89" s="218"/>
     </row>
     <row r="90" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="199"/>
-      <c r="B90" s="203"/>
-      <c r="C90" s="199"/>
-      <c r="D90" s="199"/>
-      <c r="E90" s="319"/>
+      <c r="A90" s="198"/>
+      <c r="B90" s="202"/>
+      <c r="C90" s="198"/>
+      <c r="D90" s="198"/>
+      <c r="E90" s="218"/>
     </row>
     <row r="91" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="199"/>
-      <c r="B91" s="203"/>
-      <c r="C91" s="199"/>
-      <c r="D91" s="199"/>
-      <c r="E91" s="319"/>
+      <c r="A91" s="198"/>
+      <c r="B91" s="202"/>
+      <c r="C91" s="198"/>
+      <c r="D91" s="198"/>
+      <c r="E91" s="218"/>
     </row>
     <row r="92" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="199"/>
-      <c r="B92" s="203"/>
-      <c r="C92" s="199"/>
-      <c r="D92" s="199"/>
-      <c r="E92" s="319"/>
+      <c r="A92" s="198"/>
+      <c r="B92" s="202"/>
+      <c r="C92" s="198"/>
+      <c r="D92" s="198"/>
+      <c r="E92" s="218"/>
     </row>
     <row r="93" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="199"/>
-      <c r="B93" s="203"/>
-      <c r="C93" s="199"/>
-      <c r="D93" s="199"/>
-      <c r="E93" s="319"/>
+      <c r="A93" s="198"/>
+      <c r="B93" s="202"/>
+      <c r="C93" s="198"/>
+      <c r="D93" s="198"/>
+      <c r="E93" s="218"/>
     </row>
     <row r="94" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="199"/>
-      <c r="B94" s="203"/>
-      <c r="C94" s="199"/>
-      <c r="D94" s="199"/>
-      <c r="E94" s="319"/>
+      <c r="A94" s="198"/>
+      <c r="B94" s="202"/>
+      <c r="C94" s="198"/>
+      <c r="D94" s="198"/>
+      <c r="E94" s="218"/>
     </row>
     <row r="95" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="199"/>
-      <c r="B95" s="203"/>
-      <c r="C95" s="199"/>
-      <c r="D95" s="199"/>
-      <c r="E95" s="319"/>
+      <c r="A95" s="198"/>
+      <c r="B95" s="202"/>
+      <c r="C95" s="198"/>
+      <c r="D95" s="198"/>
+      <c r="E95" s="218"/>
     </row>
     <row r="96" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="199"/>
-      <c r="B96" s="203"/>
-      <c r="C96" s="199"/>
-      <c r="D96" s="199"/>
-      <c r="E96" s="319"/>
+      <c r="A96" s="198"/>
+      <c r="B96" s="202"/>
+      <c r="C96" s="198"/>
+      <c r="D96" s="198"/>
+      <c r="E96" s="218"/>
     </row>
     <row r="97" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="199"/>
-      <c r="B97" s="203"/>
-      <c r="C97" s="199"/>
-      <c r="D97" s="199"/>
-      <c r="E97" s="319"/>
+      <c r="A97" s="198"/>
+      <c r="B97" s="202"/>
+      <c r="C97" s="198"/>
+      <c r="D97" s="198"/>
+      <c r="E97" s="218"/>
     </row>
     <row r="98" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="199"/>
-      <c r="B98" s="203"/>
-      <c r="C98" s="199"/>
-      <c r="D98" s="199"/>
-      <c r="E98" s="319"/>
+      <c r="A98" s="198"/>
+      <c r="B98" s="202"/>
+      <c r="C98" s="198"/>
+      <c r="D98" s="198"/>
+      <c r="E98" s="218"/>
     </row>
     <row r="99" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="199"/>
-      <c r="B99" s="203"/>
-      <c r="C99" s="199"/>
-      <c r="D99" s="199"/>
-      <c r="E99" s="319"/>
+      <c r="A99" s="198"/>
+      <c r="B99" s="202"/>
+      <c r="C99" s="198"/>
+      <c r="D99" s="198"/>
+      <c r="E99" s="218"/>
     </row>
     <row r="100" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="199"/>
-      <c r="B100" s="203"/>
-      <c r="C100" s="199"/>
-      <c r="D100" s="199"/>
-      <c r="E100" s="319"/>
+      <c r="A100" s="198"/>
+      <c r="B100" s="202"/>
+      <c r="C100" s="198"/>
+      <c r="D100" s="198"/>
+      <c r="E100" s="218"/>
     </row>
     <row r="101" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="199"/>
-      <c r="B101" s="203"/>
-      <c r="C101" s="199"/>
-      <c r="D101" s="199"/>
-      <c r="E101" s="319"/>
+      <c r="A101" s="198"/>
+      <c r="B101" s="202"/>
+      <c r="C101" s="198"/>
+      <c r="D101" s="198"/>
+      <c r="E101" s="218"/>
     </row>
     <row r="102" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="199"/>
-      <c r="B102" s="203"/>
-      <c r="C102" s="199"/>
-      <c r="D102" s="199"/>
-      <c r="E102" s="319"/>
+      <c r="A102" s="198"/>
+      <c r="B102" s="202"/>
+      <c r="C102" s="198"/>
+      <c r="D102" s="198"/>
+      <c r="E102" s="218"/>
     </row>
     <row r="103" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="199"/>
-      <c r="B103" s="203"/>
-      <c r="C103" s="199"/>
-      <c r="D103" s="199"/>
-      <c r="E103" s="319"/>
+      <c r="A103" s="198"/>
+      <c r="B103" s="202"/>
+      <c r="C103" s="198"/>
+      <c r="D103" s="198"/>
+      <c r="E103" s="218"/>
     </row>
     <row r="104" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="199"/>
-      <c r="B104" s="203"/>
-      <c r="C104" s="199"/>
-      <c r="D104" s="199"/>
-      <c r="E104" s="319"/>
+      <c r="A104" s="198"/>
+      <c r="B104" s="202"/>
+      <c r="C104" s="198"/>
+      <c r="D104" s="198"/>
+      <c r="E104" s="218"/>
     </row>
     <row r="105" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="199"/>
-      <c r="B105" s="203"/>
-      <c r="C105" s="199"/>
-      <c r="D105" s="199"/>
-      <c r="E105" s="319"/>
+      <c r="A105" s="198"/>
+      <c r="B105" s="202"/>
+      <c r="C105" s="198"/>
+      <c r="D105" s="198"/>
+      <c r="E105" s="218"/>
     </row>
     <row r="106" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="199"/>
-      <c r="B106" s="203"/>
-      <c r="C106" s="199"/>
-      <c r="D106" s="199"/>
-      <c r="E106" s="319"/>
+      <c r="A106" s="198"/>
+      <c r="B106" s="202"/>
+      <c r="C106" s="198"/>
+      <c r="D106" s="198"/>
+      <c r="E106" s="218"/>
     </row>
     <row r="107" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="199"/>
-      <c r="B107" s="203"/>
-      <c r="C107" s="199"/>
-      <c r="D107" s="199"/>
-      <c r="E107" s="319"/>
+      <c r="A107" s="198"/>
+      <c r="B107" s="202"/>
+      <c r="C107" s="198"/>
+      <c r="D107" s="198"/>
+      <c r="E107" s="218"/>
     </row>
     <row r="108" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="199"/>
-      <c r="B108" s="203"/>
-      <c r="C108" s="199"/>
-      <c r="D108" s="199"/>
-      <c r="E108" s="319"/>
+      <c r="A108" s="198"/>
+      <c r="B108" s="202"/>
+      <c r="C108" s="198"/>
+      <c r="D108" s="198"/>
+      <c r="E108" s="218"/>
     </row>
     <row r="109" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="199"/>
-      <c r="B109" s="203"/>
-      <c r="C109" s="199"/>
-      <c r="D109" s="199"/>
-      <c r="E109" s="319"/>
+      <c r="A109" s="198"/>
+      <c r="B109" s="202"/>
+      <c r="C109" s="198"/>
+      <c r="D109" s="198"/>
+      <c r="E109" s="218"/>
     </row>
     <row r="110" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="199"/>
-      <c r="B110" s="203"/>
-      <c r="C110" s="199"/>
-      <c r="D110" s="199"/>
-      <c r="E110" s="319"/>
+      <c r="A110" s="198"/>
+      <c r="B110" s="202"/>
+      <c r="C110" s="198"/>
+      <c r="D110" s="198"/>
+      <c r="E110" s="218"/>
     </row>
     <row r="111" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="199"/>
-      <c r="B111" s="203"/>
-      <c r="C111" s="199"/>
-      <c r="D111" s="199"/>
-      <c r="E111" s="319"/>
+      <c r="A111" s="198"/>
+      <c r="B111" s="202"/>
+      <c r="C111" s="198"/>
+      <c r="D111" s="198"/>
+      <c r="E111" s="218"/>
     </row>
     <row r="112" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="199"/>
-      <c r="B112" s="203"/>
-      <c r="C112" s="199"/>
-      <c r="D112" s="199"/>
-      <c r="E112" s="319"/>
+      <c r="A112" s="198"/>
+      <c r="B112" s="202"/>
+      <c r="C112" s="198"/>
+      <c r="D112" s="198"/>
+      <c r="E112" s="218"/>
     </row>
     <row r="113" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="199"/>
-      <c r="B113" s="203"/>
-      <c r="C113" s="199"/>
-      <c r="D113" s="199"/>
-      <c r="E113" s="319"/>
+      <c r="A113" s="198"/>
+      <c r="B113" s="202"/>
+      <c r="C113" s="198"/>
+      <c r="D113" s="198"/>
+      <c r="E113" s="218"/>
     </row>
     <row r="114" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="199"/>
-      <c r="B114" s="203"/>
-      <c r="C114" s="199"/>
-      <c r="D114" s="199"/>
-      <c r="E114" s="319"/>
+      <c r="A114" s="198"/>
+      <c r="B114" s="202"/>
+      <c r="C114" s="198"/>
+      <c r="D114" s="198"/>
+      <c r="E114" s="218"/>
     </row>
     <row r="115" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="199"/>
-      <c r="B115" s="203"/>
-      <c r="C115" s="199"/>
-      <c r="D115" s="199"/>
-      <c r="E115" s="319"/>
+      <c r="A115" s="198"/>
+      <c r="B115" s="202"/>
+      <c r="C115" s="198"/>
+      <c r="D115" s="198"/>
+      <c r="E115" s="218"/>
     </row>
     <row r="116" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="199"/>
-      <c r="B116" s="203"/>
-      <c r="C116" s="199"/>
-      <c r="D116" s="199"/>
-      <c r="E116" s="319"/>
+      <c r="A116" s="198"/>
+      <c r="B116" s="202"/>
+      <c r="C116" s="198"/>
+      <c r="D116" s="198"/>
+      <c r="E116" s="218"/>
     </row>
     <row r="117" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="199"/>
-      <c r="B117" s="203"/>
-      <c r="C117" s="199"/>
-      <c r="D117" s="199"/>
-      <c r="E117" s="319"/>
+      <c r="A117" s="198"/>
+      <c r="B117" s="202"/>
+      <c r="C117" s="198"/>
+      <c r="D117" s="198"/>
+      <c r="E117" s="218"/>
     </row>
     <row r="118" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="199"/>
-      <c r="B118" s="203"/>
-      <c r="C118" s="199"/>
-      <c r="D118" s="199"/>
-      <c r="E118" s="319"/>
+      <c r="A118" s="198"/>
+      <c r="B118" s="202"/>
+      <c r="C118" s="198"/>
+      <c r="D118" s="198"/>
+      <c r="E118" s="218"/>
     </row>
     <row r="119" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="199"/>
-      <c r="B119" s="203"/>
-      <c r="C119" s="199"/>
-      <c r="D119" s="199"/>
-      <c r="E119" s="319"/>
+      <c r="A119" s="198"/>
+      <c r="B119" s="202"/>
+      <c r="C119" s="198"/>
+      <c r="D119" s="198"/>
+      <c r="E119" s="218"/>
     </row>
     <row r="120" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="199"/>
-      <c r="B120" s="203"/>
-      <c r="C120" s="199"/>
-      <c r="D120" s="199"/>
-      <c r="E120" s="319"/>
+      <c r="A120" s="198"/>
+      <c r="B120" s="202"/>
+      <c r="C120" s="198"/>
+      <c r="D120" s="198"/>
+      <c r="E120" s="218"/>
     </row>
     <row r="121" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="199"/>
-      <c r="B121" s="203"/>
-      <c r="C121" s="199"/>
-      <c r="D121" s="199"/>
-      <c r="E121" s="319"/>
+      <c r="A121" s="198"/>
+      <c r="B121" s="202"/>
+      <c r="C121" s="198"/>
+      <c r="D121" s="198"/>
+      <c r="E121" s="218"/>
     </row>
     <row r="122" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="199"/>
-      <c r="B122" s="203"/>
-      <c r="C122" s="199"/>
-      <c r="D122" s="199"/>
-      <c r="E122" s="319"/>
+      <c r="A122" s="198"/>
+      <c r="B122" s="202"/>
+      <c r="C122" s="198"/>
+      <c r="D122" s="198"/>
+      <c r="E122" s="218"/>
     </row>
     <row r="123" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="199"/>
-      <c r="B123" s="203"/>
-      <c r="C123" s="199"/>
-      <c r="D123" s="199"/>
-      <c r="E123" s="319"/>
+      <c r="A123" s="198"/>
+      <c r="B123" s="202"/>
+      <c r="C123" s="198"/>
+      <c r="D123" s="198"/>
+      <c r="E123" s="218"/>
     </row>
     <row r="124" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="199"/>
-      <c r="B124" s="203"/>
-      <c r="C124" s="199"/>
-      <c r="D124" s="199"/>
-      <c r="E124" s="319"/>
+      <c r="A124" s="198"/>
+      <c r="B124" s="202"/>
+      <c r="C124" s="198"/>
+      <c r="D124" s="198"/>
+      <c r="E124" s="218"/>
     </row>
     <row r="125" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="199"/>
-      <c r="B125" s="203"/>
-      <c r="C125" s="199"/>
-      <c r="D125" s="199"/>
-      <c r="E125" s="319"/>
+      <c r="A125" s="198"/>
+      <c r="B125" s="202"/>
+      <c r="C125" s="198"/>
+      <c r="D125" s="198"/>
+      <c r="E125" s="218"/>
     </row>
     <row r="126" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="199"/>
-      <c r="B126" s="203"/>
-      <c r="C126" s="199"/>
-      <c r="D126" s="199"/>
-      <c r="E126" s="319"/>
+      <c r="A126" s="198"/>
+      <c r="B126" s="202"/>
+      <c r="C126" s="198"/>
+      <c r="D126" s="198"/>
+      <c r="E126" s="218"/>
     </row>
     <row r="127" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="199"/>
-      <c r="B127" s="203"/>
-      <c r="C127" s="199"/>
-      <c r="D127" s="199"/>
-      <c r="E127" s="319"/>
+      <c r="A127" s="198"/>
+      <c r="B127" s="202"/>
+      <c r="C127" s="198"/>
+      <c r="D127" s="198"/>
+      <c r="E127" s="218"/>
     </row>
     <row r="128" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="199"/>
-      <c r="B128" s="203"/>
-      <c r="C128" s="199"/>
-      <c r="D128" s="199"/>
-      <c r="E128" s="319"/>
+      <c r="A128" s="198"/>
+      <c r="B128" s="202"/>
+      <c r="C128" s="198"/>
+      <c r="D128" s="198"/>
+      <c r="E128" s="218"/>
     </row>
     <row r="129" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="199"/>
-      <c r="B129" s="203"/>
-      <c r="C129" s="199"/>
-      <c r="D129" s="199"/>
-      <c r="E129" s="319"/>
+      <c r="A129" s="198"/>
+      <c r="B129" s="202"/>
+      <c r="C129" s="198"/>
+      <c r="D129" s="198"/>
+      <c r="E129" s="218"/>
     </row>
     <row r="130" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="199"/>
-      <c r="B130" s="203"/>
-      <c r="C130" s="199"/>
-      <c r="D130" s="199"/>
-      <c r="E130" s="319"/>
+      <c r="A130" s="198"/>
+      <c r="B130" s="202"/>
+      <c r="C130" s="198"/>
+      <c r="D130" s="198"/>
+      <c r="E130" s="218"/>
     </row>
     <row r="131" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="199"/>
-      <c r="B131" s="203"/>
-      <c r="C131" s="199"/>
-      <c r="D131" s="199"/>
-      <c r="E131" s="319"/>
+      <c r="A131" s="198"/>
+      <c r="B131" s="202"/>
+      <c r="C131" s="198"/>
+      <c r="D131" s="198"/>
+      <c r="E131" s="218"/>
     </row>
     <row r="132" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="199"/>
-      <c r="B132" s="203"/>
-      <c r="C132" s="199"/>
-      <c r="D132" s="199"/>
-      <c r="E132" s="319"/>
+      <c r="A132" s="198"/>
+      <c r="B132" s="202"/>
+      <c r="C132" s="198"/>
+      <c r="D132" s="198"/>
+      <c r="E132" s="218"/>
     </row>
     <row r="133" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="199"/>
-      <c r="B133" s="203"/>
-      <c r="C133" s="199"/>
-      <c r="D133" s="199"/>
-      <c r="E133" s="319"/>
+      <c r="A133" s="198"/>
+      <c r="B133" s="202"/>
+      <c r="C133" s="198"/>
+      <c r="D133" s="198"/>
+      <c r="E133" s="218"/>
     </row>
     <row r="134" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="199"/>
-      <c r="B134" s="203"/>
-      <c r="C134" s="199"/>
-      <c r="D134" s="199"/>
-      <c r="E134" s="319"/>
+      <c r="A134" s="198"/>
+      <c r="B134" s="202"/>
+      <c r="C134" s="198"/>
+      <c r="D134" s="198"/>
+      <c r="E134" s="218"/>
     </row>
     <row r="135" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="199"/>
-      <c r="B135" s="203"/>
-      <c r="C135" s="199"/>
-      <c r="D135" s="199"/>
-      <c r="E135" s="319"/>
+      <c r="A135" s="198"/>
+      <c r="B135" s="202"/>
+      <c r="C135" s="198"/>
+      <c r="D135" s="198"/>
+      <c r="E135" s="218"/>
     </row>
     <row r="136" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="199"/>
-      <c r="B136" s="203"/>
-      <c r="C136" s="199"/>
-      <c r="D136" s="199"/>
-      <c r="E136" s="319"/>
+      <c r="A136" s="198"/>
+      <c r="B136" s="202"/>
+      <c r="C136" s="198"/>
+      <c r="D136" s="198"/>
+      <c r="E136" s="218"/>
     </row>
     <row r="137" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="199"/>
-      <c r="B137" s="203"/>
-      <c r="C137" s="199"/>
-      <c r="D137" s="199"/>
-      <c r="E137" s="319"/>
+      <c r="A137" s="198"/>
+      <c r="B137" s="202"/>
+      <c r="C137" s="198"/>
+      <c r="D137" s="198"/>
+      <c r="E137" s="218"/>
     </row>
     <row r="138" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="199"/>
-      <c r="B138" s="203"/>
-      <c r="C138" s="199"/>
-      <c r="D138" s="199"/>
-      <c r="E138" s="319"/>
+      <c r="A138" s="198"/>
+      <c r="B138" s="202"/>
+      <c r="C138" s="198"/>
+      <c r="D138" s="198"/>
+      <c r="E138" s="218"/>
     </row>
     <row r="139" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="199"/>
-      <c r="B139" s="203"/>
-      <c r="C139" s="199"/>
-      <c r="D139" s="199"/>
-      <c r="E139" s="319"/>
+      <c r="A139" s="198"/>
+      <c r="B139" s="202"/>
+      <c r="C139" s="198"/>
+      <c r="D139" s="198"/>
+      <c r="E139" s="218"/>
     </row>
     <row r="140" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="199"/>
-      <c r="B140" s="203"/>
-      <c r="C140" s="199"/>
-      <c r="D140" s="199"/>
-      <c r="E140" s="319"/>
+      <c r="A140" s="198"/>
+      <c r="B140" s="202"/>
+      <c r="C140" s="198"/>
+      <c r="D140" s="198"/>
+      <c r="E140" s="218"/>
     </row>
     <row r="141" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="199"/>
-      <c r="B141" s="203"/>
-      <c r="C141" s="199"/>
-      <c r="D141" s="199"/>
-      <c r="E141" s="319"/>
+      <c r="A141" s="198"/>
+      <c r="B141" s="202"/>
+      <c r="C141" s="198"/>
+      <c r="D141" s="198"/>
+      <c r="E141" s="218"/>
     </row>
     <row r="142" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="199"/>
-      <c r="B142" s="203"/>
-      <c r="C142" s="199"/>
-      <c r="D142" s="199"/>
-      <c r="E142" s="319"/>
+      <c r="A142" s="198"/>
+      <c r="B142" s="202"/>
+      <c r="C142" s="198"/>
+      <c r="D142" s="198"/>
+      <c r="E142" s="218"/>
     </row>
     <row r="143" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="199"/>
-      <c r="B143" s="203"/>
-      <c r="C143" s="199"/>
-      <c r="D143" s="199"/>
-      <c r="E143" s="319"/>
+      <c r="A143" s="198"/>
+      <c r="B143" s="202"/>
+      <c r="C143" s="198"/>
+      <c r="D143" s="198"/>
+      <c r="E143" s="218"/>
     </row>
     <row r="144" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="199"/>
-      <c r="B144" s="203"/>
-      <c r="C144" s="199"/>
-      <c r="D144" s="199"/>
-      <c r="E144" s="319"/>
+      <c r="A144" s="198"/>
+      <c r="B144" s="202"/>
+      <c r="C144" s="198"/>
+      <c r="D144" s="198"/>
+      <c r="E144" s="218"/>
     </row>
     <row r="145" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="199"/>
-      <c r="B145" s="203"/>
-      <c r="C145" s="199"/>
-      <c r="D145" s="199"/>
-      <c r="E145" s="319"/>
+      <c r="A145" s="198"/>
+      <c r="B145" s="202"/>
+      <c r="C145" s="198"/>
+      <c r="D145" s="198"/>
+      <c r="E145" s="218"/>
     </row>
     <row r="146" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="199"/>
-      <c r="B146" s="203"/>
-      <c r="C146" s="199"/>
-      <c r="D146" s="199"/>
-      <c r="E146" s="319"/>
+      <c r="A146" s="198"/>
+      <c r="B146" s="202"/>
+      <c r="C146" s="198"/>
+      <c r="D146" s="198"/>
+      <c r="E146" s="218"/>
     </row>
     <row r="147" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="199"/>
-      <c r="B147" s="203"/>
-      <c r="C147" s="199"/>
-      <c r="D147" s="199"/>
-      <c r="E147" s="319"/>
+      <c r="A147" s="198"/>
+      <c r="B147" s="202"/>
+      <c r="C147" s="198"/>
+      <c r="D147" s="198"/>
+      <c r="E147" s="218"/>
     </row>
     <row r="148" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="199"/>
-      <c r="B148" s="203"/>
-      <c r="C148" s="199"/>
-      <c r="D148" s="199"/>
-      <c r="E148" s="319"/>
+      <c r="A148" s="198"/>
+      <c r="B148" s="202"/>
+      <c r="C148" s="198"/>
+      <c r="D148" s="198"/>
+      <c r="E148" s="218"/>
     </row>
     <row r="149" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -4903,11 +5004,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4916,1118 +5017,1118 @@
     <col min="2" max="2" width="38.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="5.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="320"/>
+    <col min="5" max="5" width="11.42578125" style="219"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="208" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="215" t="s">
+      <c r="C1" s="214" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="214"/>
-      <c r="E1" s="321"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="220"/>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="209" t="s">
+      <c r="B2" s="208" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="322"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="221"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="204"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="323"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="222"/>
     </row>
     <row r="4" spans="1:7" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="206" t="s">
+      <c r="B4" s="205" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="263" t="s">
+      <c r="C4" s="276" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="263"/>
-    </row>
-    <row r="5" spans="1:7" s="202" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="201" t="s">
+      <c r="D4" s="276"/>
+    </row>
+    <row r="5" spans="1:7" s="201" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="200" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="201" t="s">
+      <c r="B5" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="201" t="s">
+      <c r="C5" s="200" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="201"/>
-      <c r="E5" s="318" t="s">
+      <c r="D5" s="200"/>
+      <c r="E5" s="217" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="205"/>
+      <c r="F5" s="204"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="203"/>
-      <c r="B6" s="200"/>
-      <c r="C6" s="203"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="324"/>
-      <c r="F6" s="109"/>
+      <c r="A6" s="202"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="108"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="203"/>
-      <c r="B7" s="200"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="324"/>
-      <c r="G7" s="212"/>
+      <c r="A7" s="202"/>
+      <c r="B7" s="199"/>
+      <c r="C7" s="202"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="223"/>
+      <c r="G7" s="211"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="203"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="203"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="324"/>
+      <c r="A8" s="202"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="223"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="203"/>
-      <c r="B9" s="200"/>
-      <c r="C9" s="203"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="324"/>
+      <c r="A9" s="202"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="202"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="223"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="203"/>
-      <c r="B10" s="200"/>
-      <c r="C10" s="203"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="324"/>
+      <c r="A10" s="202"/>
+      <c r="B10" s="199"/>
+      <c r="C10" s="202"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="223"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="203"/>
-      <c r="B11" s="200"/>
-      <c r="C11" s="203"/>
-      <c r="D11" s="200"/>
-      <c r="E11" s="324"/>
+      <c r="A11" s="202"/>
+      <c r="B11" s="199"/>
+      <c r="C11" s="202"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="223"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="203"/>
-      <c r="B12" s="200"/>
-      <c r="C12" s="203"/>
-      <c r="D12" s="200"/>
-      <c r="E12" s="324"/>
+      <c r="A12" s="202"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="202"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="223"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="203"/>
-      <c r="B13" s="200"/>
-      <c r="C13" s="203"/>
-      <c r="D13" s="200"/>
-      <c r="E13" s="324"/>
+      <c r="A13" s="202"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="202"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="223"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="203"/>
-      <c r="B14" s="200"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="324"/>
-      <c r="F14" s="109"/>
+      <c r="A14" s="202"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="202"/>
+      <c r="D14" s="199"/>
+      <c r="E14" s="223"/>
+      <c r="F14" s="108"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="203"/>
-      <c r="B15" s="200"/>
-      <c r="C15" s="203"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="324"/>
-      <c r="F15" s="109"/>
+      <c r="A15" s="202"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="223"/>
+      <c r="F15" s="108"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="203"/>
-      <c r="B16" s="200"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="324"/>
+      <c r="A16" s="202"/>
+      <c r="B16" s="199"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="223"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="203"/>
-      <c r="B17" s="200"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="324"/>
+      <c r="A17" s="202"/>
+      <c r="B17" s="199"/>
+      <c r="C17" s="202"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="223"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="203"/>
-      <c r="B18" s="200"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="200"/>
-      <c r="E18" s="324"/>
+      <c r="A18" s="202"/>
+      <c r="B18" s="199"/>
+      <c r="C18" s="202"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="223"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="203"/>
-      <c r="B19" s="200"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="324"/>
+      <c r="A19" s="202"/>
+      <c r="B19" s="199"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="223"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="203"/>
-      <c r="B20" s="200"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="324"/>
+      <c r="A20" s="202"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="223"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="203"/>
-      <c r="B21" s="200"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="200"/>
-      <c r="E21" s="324"/>
+      <c r="A21" s="202"/>
+      <c r="B21" s="199"/>
+      <c r="C21" s="202"/>
+      <c r="D21" s="199"/>
+      <c r="E21" s="223"/>
     </row>
     <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="203"/>
-      <c r="B22" s="200"/>
-      <c r="C22" s="203"/>
-      <c r="D22" s="200"/>
-      <c r="E22" s="324"/>
+      <c r="A22" s="202"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="202"/>
+      <c r="D22" s="199"/>
+      <c r="E22" s="223"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="203"/>
-      <c r="B23" s="200"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="200"/>
-      <c r="E23" s="324"/>
+      <c r="A23" s="202"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="202"/>
+      <c r="D23" s="199"/>
+      <c r="E23" s="223"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="203"/>
-      <c r="B24" s="200"/>
-      <c r="C24" s="203"/>
-      <c r="D24" s="200"/>
-      <c r="E24" s="324"/>
+      <c r="A24" s="202"/>
+      <c r="B24" s="199"/>
+      <c r="C24" s="202"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="223"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="203"/>
-      <c r="B25" s="200"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="200"/>
-      <c r="E25" s="324"/>
+      <c r="A25" s="202"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="223"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="203"/>
-      <c r="B26" s="200"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="200"/>
-      <c r="E26" s="324"/>
+      <c r="A26" s="202"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="199"/>
+      <c r="E26" s="223"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="203"/>
-      <c r="B27" s="200"/>
-      <c r="C27" s="203"/>
-      <c r="D27" s="200"/>
-      <c r="E27" s="324"/>
+      <c r="A27" s="202"/>
+      <c r="B27" s="199"/>
+      <c r="C27" s="202"/>
+      <c r="D27" s="199"/>
+      <c r="E27" s="223"/>
     </row>
     <row r="28" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="203"/>
-      <c r="B28" s="200"/>
-      <c r="C28" s="203"/>
-      <c r="D28" s="200"/>
-      <c r="E28" s="324"/>
+      <c r="A28" s="202"/>
+      <c r="B28" s="199"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="223"/>
     </row>
     <row r="29" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="203"/>
-      <c r="B29" s="200"/>
-      <c r="C29" s="203"/>
-      <c r="D29" s="200"/>
-      <c r="E29" s="324"/>
+      <c r="A29" s="202"/>
+      <c r="B29" s="199"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="223"/>
     </row>
     <row r="30" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="203"/>
-      <c r="B30" s="200"/>
-      <c r="C30" s="203"/>
-      <c r="D30" s="200"/>
-      <c r="E30" s="324"/>
+      <c r="A30" s="202"/>
+      <c r="B30" s="199"/>
+      <c r="C30" s="202"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="223"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="203"/>
-      <c r="B31" s="200"/>
-      <c r="C31" s="203"/>
-      <c r="D31" s="200"/>
-      <c r="E31" s="324"/>
+      <c r="A31" s="202"/>
+      <c r="B31" s="199"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="223"/>
     </row>
     <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="203"/>
-      <c r="B32" s="200"/>
-      <c r="C32" s="203"/>
-      <c r="D32" s="200"/>
-      <c r="E32" s="324"/>
+      <c r="A32" s="202"/>
+      <c r="B32" s="199"/>
+      <c r="C32" s="202"/>
+      <c r="D32" s="199"/>
+      <c r="E32" s="223"/>
     </row>
     <row r="33" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="203"/>
-      <c r="B33" s="200"/>
-      <c r="C33" s="203"/>
-      <c r="D33" s="200"/>
-      <c r="E33" s="324"/>
+      <c r="A33" s="202"/>
+      <c r="B33" s="199"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="199"/>
+      <c r="E33" s="223"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="203"/>
-      <c r="B34" s="200"/>
-      <c r="C34" s="203"/>
-      <c r="D34" s="200"/>
-      <c r="E34" s="324"/>
+      <c r="A34" s="202"/>
+      <c r="B34" s="199"/>
+      <c r="C34" s="202"/>
+      <c r="D34" s="199"/>
+      <c r="E34" s="223"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="203"/>
-      <c r="B35" s="200"/>
-      <c r="C35" s="203"/>
-      <c r="D35" s="200"/>
-      <c r="E35" s="324"/>
+      <c r="A35" s="202"/>
+      <c r="B35" s="199"/>
+      <c r="C35" s="202"/>
+      <c r="D35" s="199"/>
+      <c r="E35" s="223"/>
     </row>
     <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="203"/>
-      <c r="B36" s="200"/>
-      <c r="C36" s="203"/>
-      <c r="D36" s="200"/>
-      <c r="E36" s="324"/>
+      <c r="A36" s="202"/>
+      <c r="B36" s="199"/>
+      <c r="C36" s="202"/>
+      <c r="D36" s="199"/>
+      <c r="E36" s="223"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="203"/>
-      <c r="B37" s="200"/>
-      <c r="C37" s="203"/>
-      <c r="D37" s="200"/>
-      <c r="E37" s="324"/>
+      <c r="A37" s="202"/>
+      <c r="B37" s="199"/>
+      <c r="C37" s="202"/>
+      <c r="D37" s="199"/>
+      <c r="E37" s="223"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="203"/>
-      <c r="B38" s="200"/>
-      <c r="C38" s="203"/>
-      <c r="D38" s="200"/>
-      <c r="E38" s="324"/>
+      <c r="A38" s="202"/>
+      <c r="B38" s="199"/>
+      <c r="C38" s="202"/>
+      <c r="D38" s="199"/>
+      <c r="E38" s="223"/>
     </row>
     <row r="39" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="203"/>
-      <c r="B39" s="200"/>
-      <c r="C39" s="203"/>
-      <c r="D39" s="200"/>
-      <c r="E39" s="324"/>
+      <c r="A39" s="202"/>
+      <c r="B39" s="199"/>
+      <c r="C39" s="202"/>
+      <c r="D39" s="199"/>
+      <c r="E39" s="223"/>
     </row>
     <row r="40" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="203"/>
-      <c r="B40" s="200"/>
-      <c r="C40" s="203"/>
-      <c r="D40" s="200"/>
-      <c r="E40" s="324"/>
+      <c r="A40" s="202"/>
+      <c r="B40" s="199"/>
+      <c r="C40" s="202"/>
+      <c r="D40" s="199"/>
+      <c r="E40" s="223"/>
     </row>
     <row r="41" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="203"/>
-      <c r="B41" s="200"/>
-      <c r="C41" s="203"/>
-      <c r="D41" s="200"/>
-      <c r="E41" s="324"/>
+      <c r="A41" s="202"/>
+      <c r="B41" s="199"/>
+      <c r="C41" s="202"/>
+      <c r="D41" s="199"/>
+      <c r="E41" s="223"/>
     </row>
     <row r="42" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="203"/>
-      <c r="B42" s="200"/>
-      <c r="C42" s="203"/>
-      <c r="D42" s="200"/>
-      <c r="E42" s="324"/>
+      <c r="A42" s="202"/>
+      <c r="B42" s="199"/>
+      <c r="C42" s="202"/>
+      <c r="D42" s="199"/>
+      <c r="E42" s="223"/>
     </row>
     <row r="43" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="203"/>
-      <c r="B43" s="200"/>
-      <c r="C43" s="203"/>
-      <c r="D43" s="200"/>
-      <c r="E43" s="324"/>
+      <c r="A43" s="202"/>
+      <c r="B43" s="199"/>
+      <c r="C43" s="202"/>
+      <c r="D43" s="199"/>
+      <c r="E43" s="223"/>
     </row>
     <row r="44" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="203"/>
-      <c r="B44" s="200"/>
-      <c r="C44" s="203"/>
-      <c r="D44" s="200"/>
-      <c r="E44" s="324"/>
+      <c r="A44" s="202"/>
+      <c r="B44" s="199"/>
+      <c r="C44" s="202"/>
+      <c r="D44" s="199"/>
+      <c r="E44" s="223"/>
     </row>
     <row r="45" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="203"/>
-      <c r="B45" s="200"/>
-      <c r="C45" s="203"/>
-      <c r="D45" s="200"/>
-      <c r="E45" s="324"/>
+      <c r="A45" s="202"/>
+      <c r="B45" s="199"/>
+      <c r="C45" s="202"/>
+      <c r="D45" s="199"/>
+      <c r="E45" s="223"/>
     </row>
     <row r="46" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="203"/>
-      <c r="B46" s="200"/>
-      <c r="C46" s="203"/>
-      <c r="D46" s="200"/>
-      <c r="E46" s="324"/>
+      <c r="A46" s="202"/>
+      <c r="B46" s="199"/>
+      <c r="C46" s="202"/>
+      <c r="D46" s="199"/>
+      <c r="E46" s="223"/>
     </row>
     <row r="47" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="203"/>
-      <c r="B47" s="200"/>
-      <c r="C47" s="203"/>
-      <c r="D47" s="200"/>
-      <c r="E47" s="324"/>
+      <c r="A47" s="202"/>
+      <c r="B47" s="199"/>
+      <c r="C47" s="202"/>
+      <c r="D47" s="199"/>
+      <c r="E47" s="223"/>
     </row>
     <row r="48" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="203"/>
-      <c r="B48" s="200"/>
-      <c r="C48" s="203"/>
-      <c r="D48" s="200"/>
-      <c r="E48" s="324"/>
+      <c r="A48" s="202"/>
+      <c r="B48" s="199"/>
+      <c r="C48" s="202"/>
+      <c r="D48" s="199"/>
+      <c r="E48" s="223"/>
     </row>
     <row r="49" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="203"/>
-      <c r="B49" s="200"/>
-      <c r="C49" s="203"/>
-      <c r="D49" s="200"/>
-      <c r="E49" s="324"/>
+      <c r="A49" s="202"/>
+      <c r="B49" s="199"/>
+      <c r="C49" s="202"/>
+      <c r="D49" s="199"/>
+      <c r="E49" s="223"/>
     </row>
     <row r="50" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="203"/>
-      <c r="B50" s="200"/>
-      <c r="C50" s="203"/>
-      <c r="D50" s="200"/>
-      <c r="E50" s="324"/>
+      <c r="A50" s="202"/>
+      <c r="B50" s="199"/>
+      <c r="C50" s="202"/>
+      <c r="D50" s="199"/>
+      <c r="E50" s="223"/>
     </row>
     <row r="51" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="203"/>
-      <c r="B51" s="200"/>
-      <c r="C51" s="203"/>
-      <c r="D51" s="200"/>
-      <c r="E51" s="324"/>
+      <c r="A51" s="202"/>
+      <c r="B51" s="199"/>
+      <c r="C51" s="202"/>
+      <c r="D51" s="199"/>
+      <c r="E51" s="223"/>
     </row>
     <row r="52" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="203"/>
-      <c r="B52" s="200"/>
-      <c r="C52" s="203"/>
-      <c r="D52" s="200"/>
-      <c r="E52" s="324"/>
+      <c r="A52" s="202"/>
+      <c r="B52" s="199"/>
+      <c r="C52" s="202"/>
+      <c r="D52" s="199"/>
+      <c r="E52" s="223"/>
     </row>
     <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="203"/>
-      <c r="B53" s="200"/>
-      <c r="C53" s="203"/>
-      <c r="D53" s="200"/>
-      <c r="E53" s="324"/>
+      <c r="A53" s="202"/>
+      <c r="B53" s="199"/>
+      <c r="C53" s="202"/>
+      <c r="D53" s="199"/>
+      <c r="E53" s="223"/>
     </row>
     <row r="54" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="203"/>
-      <c r="B54" s="200"/>
-      <c r="C54" s="203"/>
-      <c r="D54" s="200"/>
-      <c r="E54" s="324"/>
+      <c r="A54" s="202"/>
+      <c r="B54" s="199"/>
+      <c r="C54" s="202"/>
+      <c r="D54" s="199"/>
+      <c r="E54" s="223"/>
     </row>
     <row r="55" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="203"/>
-      <c r="B55" s="200"/>
-      <c r="C55" s="203"/>
-      <c r="D55" s="200"/>
-      <c r="E55" s="324"/>
+      <c r="A55" s="202"/>
+      <c r="B55" s="199"/>
+      <c r="C55" s="202"/>
+      <c r="D55" s="199"/>
+      <c r="E55" s="223"/>
     </row>
     <row r="56" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="203"/>
-      <c r="B56" s="200"/>
-      <c r="C56" s="203"/>
-      <c r="D56" s="200"/>
-      <c r="E56" s="324"/>
+      <c r="A56" s="202"/>
+      <c r="B56" s="199"/>
+      <c r="C56" s="202"/>
+      <c r="D56" s="199"/>
+      <c r="E56" s="223"/>
     </row>
     <row r="57" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="203"/>
-      <c r="B57" s="200"/>
-      <c r="C57" s="203"/>
-      <c r="D57" s="200"/>
-      <c r="E57" s="324"/>
+      <c r="A57" s="202"/>
+      <c r="B57" s="199"/>
+      <c r="C57" s="202"/>
+      <c r="D57" s="199"/>
+      <c r="E57" s="223"/>
     </row>
     <row r="58" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="203"/>
-      <c r="B58" s="200"/>
-      <c r="C58" s="203"/>
-      <c r="D58" s="200"/>
-      <c r="E58" s="324"/>
+      <c r="A58" s="202"/>
+      <c r="B58" s="199"/>
+      <c r="C58" s="202"/>
+      <c r="D58" s="199"/>
+      <c r="E58" s="223"/>
     </row>
     <row r="59" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="203"/>
-      <c r="B59" s="200"/>
-      <c r="C59" s="203"/>
-      <c r="D59" s="200"/>
-      <c r="E59" s="324"/>
+      <c r="A59" s="202"/>
+      <c r="B59" s="199"/>
+      <c r="C59" s="202"/>
+      <c r="D59" s="199"/>
+      <c r="E59" s="223"/>
     </row>
     <row r="60" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="203"/>
-      <c r="B60" s="200"/>
-      <c r="C60" s="203"/>
-      <c r="D60" s="200"/>
-      <c r="E60" s="324"/>
+      <c r="A60" s="202"/>
+      <c r="B60" s="199"/>
+      <c r="C60" s="202"/>
+      <c r="D60" s="199"/>
+      <c r="E60" s="223"/>
     </row>
     <row r="61" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="203"/>
-      <c r="B61" s="200"/>
-      <c r="C61" s="203"/>
-      <c r="D61" s="200"/>
-      <c r="E61" s="324"/>
+      <c r="A61" s="202"/>
+      <c r="B61" s="199"/>
+      <c r="C61" s="202"/>
+      <c r="D61" s="199"/>
+      <c r="E61" s="223"/>
     </row>
     <row r="62" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="203"/>
-      <c r="B62" s="200"/>
-      <c r="C62" s="203"/>
-      <c r="D62" s="200"/>
-      <c r="E62" s="324"/>
+      <c r="A62" s="202"/>
+      <c r="B62" s="199"/>
+      <c r="C62" s="202"/>
+      <c r="D62" s="199"/>
+      <c r="E62" s="223"/>
     </row>
     <row r="63" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="203"/>
-      <c r="B63" s="200"/>
-      <c r="C63" s="203"/>
-      <c r="D63" s="200"/>
-      <c r="E63" s="324"/>
+      <c r="A63" s="202"/>
+      <c r="B63" s="199"/>
+      <c r="C63" s="202"/>
+      <c r="D63" s="199"/>
+      <c r="E63" s="223"/>
     </row>
     <row r="64" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="203"/>
-      <c r="B64" s="200"/>
-      <c r="C64" s="203"/>
-      <c r="D64" s="200"/>
-      <c r="E64" s="324"/>
+      <c r="A64" s="202"/>
+      <c r="B64" s="199"/>
+      <c r="C64" s="202"/>
+      <c r="D64" s="199"/>
+      <c r="E64" s="223"/>
     </row>
     <row r="65" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="203"/>
-      <c r="B65" s="200"/>
-      <c r="C65" s="203"/>
-      <c r="D65" s="200"/>
-      <c r="E65" s="324"/>
+      <c r="A65" s="202"/>
+      <c r="B65" s="199"/>
+      <c r="C65" s="202"/>
+      <c r="D65" s="199"/>
+      <c r="E65" s="223"/>
     </row>
     <row r="66" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="203"/>
-      <c r="B66" s="200"/>
-      <c r="C66" s="203"/>
-      <c r="D66" s="200"/>
-      <c r="E66" s="324"/>
+      <c r="A66" s="202"/>
+      <c r="B66" s="199"/>
+      <c r="C66" s="202"/>
+      <c r="D66" s="199"/>
+      <c r="E66" s="223"/>
     </row>
     <row r="67" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="203"/>
-      <c r="B67" s="200"/>
-      <c r="C67" s="203"/>
-      <c r="D67" s="200"/>
-      <c r="E67" s="324"/>
+      <c r="A67" s="202"/>
+      <c r="B67" s="199"/>
+      <c r="C67" s="202"/>
+      <c r="D67" s="199"/>
+      <c r="E67" s="223"/>
     </row>
     <row r="68" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="203"/>
-      <c r="B68" s="200"/>
-      <c r="C68" s="203"/>
-      <c r="D68" s="200"/>
-      <c r="E68" s="324"/>
+      <c r="A68" s="202"/>
+      <c r="B68" s="199"/>
+      <c r="C68" s="202"/>
+      <c r="D68" s="199"/>
+      <c r="E68" s="223"/>
     </row>
     <row r="69" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="203"/>
-      <c r="B69" s="200"/>
-      <c r="C69" s="203"/>
-      <c r="D69" s="200"/>
-      <c r="E69" s="324"/>
+      <c r="A69" s="202"/>
+      <c r="B69" s="199"/>
+      <c r="C69" s="202"/>
+      <c r="D69" s="199"/>
+      <c r="E69" s="223"/>
     </row>
     <row r="70" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="203"/>
-      <c r="B70" s="200"/>
-      <c r="C70" s="203"/>
-      <c r="D70" s="200"/>
-      <c r="E70" s="324"/>
+      <c r="A70" s="202"/>
+      <c r="B70" s="199"/>
+      <c r="C70" s="202"/>
+      <c r="D70" s="199"/>
+      <c r="E70" s="223"/>
     </row>
     <row r="71" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="203"/>
-      <c r="B71" s="200"/>
-      <c r="C71" s="203"/>
-      <c r="D71" s="200"/>
-      <c r="E71" s="324"/>
+      <c r="A71" s="202"/>
+      <c r="B71" s="199"/>
+      <c r="C71" s="202"/>
+      <c r="D71" s="199"/>
+      <c r="E71" s="223"/>
     </row>
     <row r="72" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="203"/>
-      <c r="B72" s="200"/>
-      <c r="C72" s="203"/>
-      <c r="D72" s="200"/>
-      <c r="E72" s="324"/>
+      <c r="A72" s="202"/>
+      <c r="B72" s="199"/>
+      <c r="C72" s="202"/>
+      <c r="D72" s="199"/>
+      <c r="E72" s="223"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="203"/>
-      <c r="B73" s="200"/>
-      <c r="C73" s="203"/>
-      <c r="D73" s="200"/>
-      <c r="E73" s="324"/>
+      <c r="A73" s="202"/>
+      <c r="B73" s="199"/>
+      <c r="C73" s="202"/>
+      <c r="D73" s="199"/>
+      <c r="E73" s="223"/>
     </row>
     <row r="74" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="203"/>
-      <c r="B74" s="200"/>
-      <c r="C74" s="203"/>
-      <c r="D74" s="200"/>
-      <c r="E74" s="324"/>
+      <c r="A74" s="202"/>
+      <c r="B74" s="199"/>
+      <c r="C74" s="202"/>
+      <c r="D74" s="199"/>
+      <c r="E74" s="223"/>
     </row>
     <row r="75" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="203"/>
-      <c r="B75" s="200"/>
-      <c r="C75" s="203"/>
-      <c r="D75" s="200"/>
-      <c r="E75" s="324"/>
+      <c r="A75" s="202"/>
+      <c r="B75" s="199"/>
+      <c r="C75" s="202"/>
+      <c r="D75" s="199"/>
+      <c r="E75" s="223"/>
     </row>
     <row r="76" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="203"/>
-      <c r="B76" s="200"/>
-      <c r="C76" s="203"/>
-      <c r="D76" s="200"/>
-      <c r="E76" s="324"/>
+      <c r="A76" s="202"/>
+      <c r="B76" s="199"/>
+      <c r="C76" s="202"/>
+      <c r="D76" s="199"/>
+      <c r="E76" s="223"/>
     </row>
     <row r="77" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="203"/>
-      <c r="B77" s="200"/>
-      <c r="C77" s="203"/>
-      <c r="D77" s="200"/>
-      <c r="E77" s="324"/>
+      <c r="A77" s="202"/>
+      <c r="B77" s="199"/>
+      <c r="C77" s="202"/>
+      <c r="D77" s="199"/>
+      <c r="E77" s="223"/>
     </row>
     <row r="78" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="203"/>
-      <c r="B78" s="200"/>
-      <c r="C78" s="203"/>
-      <c r="D78" s="200"/>
-      <c r="E78" s="324"/>
+      <c r="A78" s="202"/>
+      <c r="B78" s="199"/>
+      <c r="C78" s="202"/>
+      <c r="D78" s="199"/>
+      <c r="E78" s="223"/>
     </row>
     <row r="79" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="203"/>
-      <c r="B79" s="200"/>
-      <c r="C79" s="203"/>
-      <c r="D79" s="200"/>
-      <c r="E79" s="324"/>
+      <c r="A79" s="202"/>
+      <c r="B79" s="199"/>
+      <c r="C79" s="202"/>
+      <c r="D79" s="199"/>
+      <c r="E79" s="223"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="203"/>
-      <c r="B80" s="200"/>
-      <c r="C80" s="203"/>
-      <c r="D80" s="200"/>
-      <c r="E80" s="324"/>
+      <c r="A80" s="202"/>
+      <c r="B80" s="199"/>
+      <c r="C80" s="202"/>
+      <c r="D80" s="199"/>
+      <c r="E80" s="223"/>
     </row>
     <row r="81" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="203"/>
-      <c r="B81" s="200"/>
-      <c r="C81" s="203"/>
-      <c r="D81" s="200"/>
-      <c r="E81" s="324"/>
+      <c r="A81" s="202"/>
+      <c r="B81" s="199"/>
+      <c r="C81" s="202"/>
+      <c r="D81" s="199"/>
+      <c r="E81" s="223"/>
     </row>
     <row r="82" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="203"/>
-      <c r="B82" s="200"/>
-      <c r="C82" s="203"/>
-      <c r="D82" s="200"/>
-      <c r="E82" s="324"/>
+      <c r="A82" s="202"/>
+      <c r="B82" s="199"/>
+      <c r="C82" s="202"/>
+      <c r="D82" s="199"/>
+      <c r="E82" s="223"/>
     </row>
     <row r="83" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="203"/>
-      <c r="B83" s="200"/>
-      <c r="C83" s="203"/>
-      <c r="D83" s="200"/>
-      <c r="E83" s="324"/>
+      <c r="A83" s="202"/>
+      <c r="B83" s="199"/>
+      <c r="C83" s="202"/>
+      <c r="D83" s="199"/>
+      <c r="E83" s="223"/>
     </row>
     <row r="84" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="203"/>
-      <c r="B84" s="200"/>
-      <c r="C84" s="203"/>
-      <c r="D84" s="200"/>
-      <c r="E84" s="324"/>
+      <c r="A84" s="202"/>
+      <c r="B84" s="199"/>
+      <c r="C84" s="202"/>
+      <c r="D84" s="199"/>
+      <c r="E84" s="223"/>
     </row>
     <row r="85" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="203"/>
-      <c r="B85" s="200"/>
-      <c r="C85" s="203"/>
-      <c r="D85" s="200"/>
-      <c r="E85" s="324"/>
+      <c r="A85" s="202"/>
+      <c r="B85" s="199"/>
+      <c r="C85" s="202"/>
+      <c r="D85" s="199"/>
+      <c r="E85" s="223"/>
     </row>
     <row r="86" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="203"/>
-      <c r="B86" s="200"/>
-      <c r="C86" s="203"/>
-      <c r="D86" s="200"/>
-      <c r="E86" s="324"/>
+      <c r="A86" s="202"/>
+      <c r="B86" s="199"/>
+      <c r="C86" s="202"/>
+      <c r="D86" s="199"/>
+      <c r="E86" s="223"/>
     </row>
     <row r="87" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="203"/>
-      <c r="B87" s="200"/>
-      <c r="C87" s="203"/>
-      <c r="D87" s="200"/>
-      <c r="E87" s="324"/>
+      <c r="A87" s="202"/>
+      <c r="B87" s="199"/>
+      <c r="C87" s="202"/>
+      <c r="D87" s="199"/>
+      <c r="E87" s="223"/>
     </row>
     <row r="88" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="203"/>
-      <c r="B88" s="200"/>
-      <c r="C88" s="203"/>
-      <c r="D88" s="200"/>
-      <c r="E88" s="324"/>
+      <c r="A88" s="202"/>
+      <c r="B88" s="199"/>
+      <c r="C88" s="202"/>
+      <c r="D88" s="199"/>
+      <c r="E88" s="223"/>
     </row>
     <row r="89" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="203"/>
-      <c r="B89" s="200"/>
-      <c r="C89" s="203"/>
-      <c r="D89" s="200"/>
-      <c r="E89" s="324"/>
+      <c r="A89" s="202"/>
+      <c r="B89" s="199"/>
+      <c r="C89" s="202"/>
+      <c r="D89" s="199"/>
+      <c r="E89" s="223"/>
     </row>
     <row r="90" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="203"/>
-      <c r="B90" s="200"/>
-      <c r="C90" s="203"/>
-      <c r="D90" s="200"/>
-      <c r="E90" s="324"/>
+      <c r="A90" s="202"/>
+      <c r="B90" s="199"/>
+      <c r="C90" s="202"/>
+      <c r="D90" s="199"/>
+      <c r="E90" s="223"/>
     </row>
     <row r="91" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="203"/>
-      <c r="B91" s="200"/>
-      <c r="C91" s="203"/>
-      <c r="D91" s="200"/>
-      <c r="E91" s="324"/>
+      <c r="A91" s="202"/>
+      <c r="B91" s="199"/>
+      <c r="C91" s="202"/>
+      <c r="D91" s="199"/>
+      <c r="E91" s="223"/>
     </row>
     <row r="92" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="203"/>
-      <c r="B92" s="200"/>
-      <c r="C92" s="203"/>
-      <c r="D92" s="200"/>
-      <c r="E92" s="324"/>
+      <c r="A92" s="202"/>
+      <c r="B92" s="199"/>
+      <c r="C92" s="202"/>
+      <c r="D92" s="199"/>
+      <c r="E92" s="223"/>
     </row>
     <row r="93" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="203"/>
-      <c r="B93" s="200"/>
-      <c r="C93" s="203"/>
-      <c r="D93" s="200"/>
-      <c r="E93" s="324"/>
+      <c r="A93" s="202"/>
+      <c r="B93" s="199"/>
+      <c r="C93" s="202"/>
+      <c r="D93" s="199"/>
+      <c r="E93" s="223"/>
     </row>
     <row r="94" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="203"/>
-      <c r="B94" s="200"/>
-      <c r="C94" s="203"/>
-      <c r="D94" s="200"/>
-      <c r="E94" s="324"/>
+      <c r="A94" s="202"/>
+      <c r="B94" s="199"/>
+      <c r="C94" s="202"/>
+      <c r="D94" s="199"/>
+      <c r="E94" s="223"/>
     </row>
     <row r="95" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="203"/>
-      <c r="B95" s="200"/>
-      <c r="C95" s="203"/>
-      <c r="D95" s="200"/>
-      <c r="E95" s="324"/>
+      <c r="A95" s="202"/>
+      <c r="B95" s="199"/>
+      <c r="C95" s="202"/>
+      <c r="D95" s="199"/>
+      <c r="E95" s="223"/>
     </row>
     <row r="96" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="203"/>
-      <c r="B96" s="200"/>
-      <c r="C96" s="203"/>
-      <c r="D96" s="200"/>
-      <c r="E96" s="324"/>
+      <c r="A96" s="202"/>
+      <c r="B96" s="199"/>
+      <c r="C96" s="202"/>
+      <c r="D96" s="199"/>
+      <c r="E96" s="223"/>
     </row>
     <row r="97" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="203"/>
-      <c r="B97" s="200"/>
-      <c r="C97" s="203"/>
-      <c r="D97" s="200"/>
-      <c r="E97" s="324"/>
+      <c r="A97" s="202"/>
+      <c r="B97" s="199"/>
+      <c r="C97" s="202"/>
+      <c r="D97" s="199"/>
+      <c r="E97" s="223"/>
     </row>
     <row r="98" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="203"/>
-      <c r="B98" s="200"/>
-      <c r="C98" s="203"/>
-      <c r="D98" s="200"/>
-      <c r="E98" s="324"/>
+      <c r="A98" s="202"/>
+      <c r="B98" s="199"/>
+      <c r="C98" s="202"/>
+      <c r="D98" s="199"/>
+      <c r="E98" s="223"/>
     </row>
     <row r="99" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="203"/>
-      <c r="B99" s="200"/>
-      <c r="C99" s="203"/>
-      <c r="D99" s="200"/>
-      <c r="E99" s="324"/>
+      <c r="A99" s="202"/>
+      <c r="B99" s="199"/>
+      <c r="C99" s="202"/>
+      <c r="D99" s="199"/>
+      <c r="E99" s="223"/>
     </row>
     <row r="100" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="203"/>
-      <c r="B100" s="200"/>
-      <c r="C100" s="203"/>
-      <c r="D100" s="200"/>
-      <c r="E100" s="324"/>
+      <c r="A100" s="202"/>
+      <c r="B100" s="199"/>
+      <c r="C100" s="202"/>
+      <c r="D100" s="199"/>
+      <c r="E100" s="223"/>
     </row>
     <row r="101" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="203"/>
-      <c r="B101" s="200"/>
-      <c r="C101" s="203"/>
-      <c r="D101" s="200"/>
-      <c r="E101" s="324"/>
+      <c r="A101" s="202"/>
+      <c r="B101" s="199"/>
+      <c r="C101" s="202"/>
+      <c r="D101" s="199"/>
+      <c r="E101" s="223"/>
     </row>
     <row r="102" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="203"/>
-      <c r="B102" s="200"/>
-      <c r="C102" s="203"/>
-      <c r="D102" s="200"/>
-      <c r="E102" s="324"/>
+      <c r="A102" s="202"/>
+      <c r="B102" s="199"/>
+      <c r="C102" s="202"/>
+      <c r="D102" s="199"/>
+      <c r="E102" s="223"/>
     </row>
     <row r="103" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="203"/>
-      <c r="B103" s="200"/>
-      <c r="C103" s="203"/>
-      <c r="D103" s="200"/>
-      <c r="E103" s="324"/>
+      <c r="A103" s="202"/>
+      <c r="B103" s="199"/>
+      <c r="C103" s="202"/>
+      <c r="D103" s="199"/>
+      <c r="E103" s="223"/>
     </row>
     <row r="104" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="203"/>
-      <c r="B104" s="200"/>
-      <c r="C104" s="203"/>
-      <c r="D104" s="200"/>
-      <c r="E104" s="324"/>
+      <c r="A104" s="202"/>
+      <c r="B104" s="199"/>
+      <c r="C104" s="202"/>
+      <c r="D104" s="199"/>
+      <c r="E104" s="223"/>
     </row>
     <row r="105" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="203"/>
-      <c r="B105" s="200"/>
-      <c r="C105" s="203"/>
-      <c r="D105" s="200"/>
-      <c r="E105" s="324"/>
+      <c r="A105" s="202"/>
+      <c r="B105" s="199"/>
+      <c r="C105" s="202"/>
+      <c r="D105" s="199"/>
+      <c r="E105" s="223"/>
     </row>
     <row r="106" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="203"/>
-      <c r="B106" s="200"/>
-      <c r="C106" s="203"/>
-      <c r="D106" s="200"/>
-      <c r="E106" s="324"/>
+      <c r="A106" s="202"/>
+      <c r="B106" s="199"/>
+      <c r="C106" s="202"/>
+      <c r="D106" s="199"/>
+      <c r="E106" s="223"/>
     </row>
     <row r="107" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="203"/>
-      <c r="B107" s="200"/>
-      <c r="C107" s="203"/>
-      <c r="D107" s="200"/>
-      <c r="E107" s="324"/>
+      <c r="A107" s="202"/>
+      <c r="B107" s="199"/>
+      <c r="C107" s="202"/>
+      <c r="D107" s="199"/>
+      <c r="E107" s="223"/>
     </row>
     <row r="108" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="203"/>
-      <c r="B108" s="200"/>
-      <c r="C108" s="203"/>
-      <c r="D108" s="200"/>
-      <c r="E108" s="324"/>
+      <c r="A108" s="202"/>
+      <c r="B108" s="199"/>
+      <c r="C108" s="202"/>
+      <c r="D108" s="199"/>
+      <c r="E108" s="223"/>
     </row>
     <row r="109" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="203"/>
-      <c r="B109" s="200"/>
-      <c r="C109" s="203"/>
-      <c r="D109" s="200"/>
-      <c r="E109" s="324"/>
+      <c r="A109" s="202"/>
+      <c r="B109" s="199"/>
+      <c r="C109" s="202"/>
+      <c r="D109" s="199"/>
+      <c r="E109" s="223"/>
     </row>
     <row r="110" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="203"/>
-      <c r="B110" s="200"/>
-      <c r="C110" s="203"/>
-      <c r="D110" s="200"/>
-      <c r="E110" s="324"/>
+      <c r="A110" s="202"/>
+      <c r="B110" s="199"/>
+      <c r="C110" s="202"/>
+      <c r="D110" s="199"/>
+      <c r="E110" s="223"/>
     </row>
     <row r="111" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="203"/>
-      <c r="B111" s="200"/>
-      <c r="C111" s="203"/>
-      <c r="D111" s="200"/>
-      <c r="E111" s="324"/>
+      <c r="A111" s="202"/>
+      <c r="B111" s="199"/>
+      <c r="C111" s="202"/>
+      <c r="D111" s="199"/>
+      <c r="E111" s="223"/>
     </row>
     <row r="112" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="203"/>
-      <c r="B112" s="200"/>
-      <c r="C112" s="203"/>
-      <c r="D112" s="200"/>
-      <c r="E112" s="324"/>
+      <c r="A112" s="202"/>
+      <c r="B112" s="199"/>
+      <c r="C112" s="202"/>
+      <c r="D112" s="199"/>
+      <c r="E112" s="223"/>
     </row>
     <row r="113" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="203"/>
-      <c r="B113" s="200"/>
-      <c r="C113" s="203"/>
-      <c r="D113" s="200"/>
-      <c r="E113" s="324"/>
+      <c r="A113" s="202"/>
+      <c r="B113" s="199"/>
+      <c r="C113" s="202"/>
+      <c r="D113" s="199"/>
+      <c r="E113" s="223"/>
     </row>
     <row r="114" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="203"/>
-      <c r="B114" s="200"/>
-      <c r="C114" s="203"/>
-      <c r="D114" s="200"/>
-      <c r="E114" s="324"/>
+      <c r="A114" s="202"/>
+      <c r="B114" s="199"/>
+      <c r="C114" s="202"/>
+      <c r="D114" s="199"/>
+      <c r="E114" s="223"/>
     </row>
     <row r="115" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="203"/>
-      <c r="B115" s="200"/>
-      <c r="C115" s="203"/>
-      <c r="D115" s="200"/>
-      <c r="E115" s="324"/>
+      <c r="A115" s="202"/>
+      <c r="B115" s="199"/>
+      <c r="C115" s="202"/>
+      <c r="D115" s="199"/>
+      <c r="E115" s="223"/>
     </row>
     <row r="116" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="203"/>
-      <c r="B116" s="200"/>
-      <c r="C116" s="203"/>
-      <c r="D116" s="200"/>
-      <c r="E116" s="324"/>
+      <c r="A116" s="202"/>
+      <c r="B116" s="199"/>
+      <c r="C116" s="202"/>
+      <c r="D116" s="199"/>
+      <c r="E116" s="223"/>
     </row>
     <row r="117" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="203"/>
-      <c r="B117" s="200"/>
-      <c r="C117" s="203"/>
-      <c r="D117" s="200"/>
-      <c r="E117" s="324"/>
+      <c r="A117" s="202"/>
+      <c r="B117" s="199"/>
+      <c r="C117" s="202"/>
+      <c r="D117" s="199"/>
+      <c r="E117" s="223"/>
     </row>
     <row r="118" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="203"/>
-      <c r="B118" s="200"/>
-      <c r="C118" s="203"/>
-      <c r="D118" s="200"/>
-      <c r="E118" s="324"/>
+      <c r="A118" s="202"/>
+      <c r="B118" s="199"/>
+      <c r="C118" s="202"/>
+      <c r="D118" s="199"/>
+      <c r="E118" s="223"/>
     </row>
     <row r="119" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="203"/>
-      <c r="B119" s="200"/>
-      <c r="C119" s="203"/>
-      <c r="D119" s="200"/>
-      <c r="E119" s="324"/>
+      <c r="A119" s="202"/>
+      <c r="B119" s="199"/>
+      <c r="C119" s="202"/>
+      <c r="D119" s="199"/>
+      <c r="E119" s="223"/>
     </row>
     <row r="120" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="203"/>
-      <c r="B120" s="200"/>
-      <c r="C120" s="203"/>
-      <c r="D120" s="200"/>
-      <c r="E120" s="324"/>
+      <c r="A120" s="202"/>
+      <c r="B120" s="199"/>
+      <c r="C120" s="202"/>
+      <c r="D120" s="199"/>
+      <c r="E120" s="223"/>
     </row>
     <row r="121" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="203"/>
-      <c r="B121" s="200"/>
-      <c r="C121" s="203"/>
-      <c r="D121" s="200"/>
-      <c r="E121" s="324"/>
+      <c r="A121" s="202"/>
+      <c r="B121" s="199"/>
+      <c r="C121" s="202"/>
+      <c r="D121" s="199"/>
+      <c r="E121" s="223"/>
     </row>
     <row r="122" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="203"/>
-      <c r="B122" s="200"/>
-      <c r="C122" s="203"/>
-      <c r="D122" s="200"/>
-      <c r="E122" s="324"/>
+      <c r="A122" s="202"/>
+      <c r="B122" s="199"/>
+      <c r="C122" s="202"/>
+      <c r="D122" s="199"/>
+      <c r="E122" s="223"/>
     </row>
     <row r="123" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="203"/>
-      <c r="B123" s="200"/>
-      <c r="C123" s="203"/>
-      <c r="D123" s="200"/>
-      <c r="E123" s="324"/>
+      <c r="A123" s="202"/>
+      <c r="B123" s="199"/>
+      <c r="C123" s="202"/>
+      <c r="D123" s="199"/>
+      <c r="E123" s="223"/>
     </row>
     <row r="124" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="203"/>
-      <c r="B124" s="200"/>
-      <c r="C124" s="203"/>
-      <c r="D124" s="200"/>
-      <c r="E124" s="324"/>
+      <c r="A124" s="202"/>
+      <c r="B124" s="199"/>
+      <c r="C124" s="202"/>
+      <c r="D124" s="199"/>
+      <c r="E124" s="223"/>
     </row>
     <row r="125" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="203"/>
-      <c r="B125" s="200"/>
-      <c r="C125" s="203"/>
-      <c r="D125" s="200"/>
-      <c r="E125" s="324"/>
+      <c r="A125" s="202"/>
+      <c r="B125" s="199"/>
+      <c r="C125" s="202"/>
+      <c r="D125" s="199"/>
+      <c r="E125" s="223"/>
     </row>
     <row r="126" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="203"/>
-      <c r="B126" s="200"/>
-      <c r="C126" s="203"/>
-      <c r="D126" s="200"/>
-      <c r="E126" s="324"/>
+      <c r="A126" s="202"/>
+      <c r="B126" s="199"/>
+      <c r="C126" s="202"/>
+      <c r="D126" s="199"/>
+      <c r="E126" s="223"/>
     </row>
     <row r="127" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="203"/>
-      <c r="B127" s="200"/>
-      <c r="C127" s="203"/>
-      <c r="D127" s="200"/>
-      <c r="E127" s="324"/>
+      <c r="A127" s="202"/>
+      <c r="B127" s="199"/>
+      <c r="C127" s="202"/>
+      <c r="D127" s="199"/>
+      <c r="E127" s="223"/>
     </row>
     <row r="128" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="203"/>
-      <c r="B128" s="200"/>
-      <c r="C128" s="203"/>
-      <c r="D128" s="200"/>
-      <c r="E128" s="324"/>
+      <c r="A128" s="202"/>
+      <c r="B128" s="199"/>
+      <c r="C128" s="202"/>
+      <c r="D128" s="199"/>
+      <c r="E128" s="223"/>
     </row>
     <row r="129" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="203"/>
-      <c r="B129" s="200"/>
-      <c r="C129" s="203"/>
-      <c r="D129" s="200"/>
-      <c r="E129" s="324"/>
+      <c r="A129" s="202"/>
+      <c r="B129" s="199"/>
+      <c r="C129" s="202"/>
+      <c r="D129" s="199"/>
+      <c r="E129" s="223"/>
     </row>
     <row r="130" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="203"/>
-      <c r="B130" s="200"/>
-      <c r="C130" s="203"/>
-      <c r="D130" s="200"/>
-      <c r="E130" s="324"/>
+      <c r="A130" s="202"/>
+      <c r="B130" s="199"/>
+      <c r="C130" s="202"/>
+      <c r="D130" s="199"/>
+      <c r="E130" s="223"/>
     </row>
     <row r="131" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="203"/>
-      <c r="B131" s="200"/>
-      <c r="C131" s="203"/>
-      <c r="D131" s="200"/>
-      <c r="E131" s="324"/>
+      <c r="A131" s="202"/>
+      <c r="B131" s="199"/>
+      <c r="C131" s="202"/>
+      <c r="D131" s="199"/>
+      <c r="E131" s="223"/>
     </row>
     <row r="132" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="203"/>
-      <c r="B132" s="200"/>
-      <c r="C132" s="203"/>
-      <c r="D132" s="200"/>
-      <c r="E132" s="324"/>
+      <c r="A132" s="202"/>
+      <c r="B132" s="199"/>
+      <c r="C132" s="202"/>
+      <c r="D132" s="199"/>
+      <c r="E132" s="223"/>
     </row>
     <row r="133" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="203"/>
-      <c r="B133" s="200"/>
-      <c r="C133" s="203"/>
-      <c r="D133" s="200"/>
-      <c r="E133" s="324"/>
+      <c r="A133" s="202"/>
+      <c r="B133" s="199"/>
+      <c r="C133" s="202"/>
+      <c r="D133" s="199"/>
+      <c r="E133" s="223"/>
     </row>
     <row r="134" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="203"/>
-      <c r="B134" s="200"/>
-      <c r="C134" s="203"/>
-      <c r="D134" s="200"/>
-      <c r="E134" s="324"/>
+      <c r="A134" s="202"/>
+      <c r="B134" s="199"/>
+      <c r="C134" s="202"/>
+      <c r="D134" s="199"/>
+      <c r="E134" s="223"/>
     </row>
     <row r="135" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="203"/>
-      <c r="B135" s="200"/>
-      <c r="C135" s="203"/>
-      <c r="D135" s="200"/>
-      <c r="E135" s="324"/>
+      <c r="A135" s="202"/>
+      <c r="B135" s="199"/>
+      <c r="C135" s="202"/>
+      <c r="D135" s="199"/>
+      <c r="E135" s="223"/>
     </row>
     <row r="136" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="203"/>
-      <c r="B136" s="200"/>
-      <c r="C136" s="203"/>
-      <c r="D136" s="200"/>
-      <c r="E136" s="324"/>
+      <c r="A136" s="202"/>
+      <c r="B136" s="199"/>
+      <c r="C136" s="202"/>
+      <c r="D136" s="199"/>
+      <c r="E136" s="223"/>
     </row>
     <row r="137" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="203"/>
-      <c r="B137" s="200"/>
-      <c r="C137" s="203"/>
-      <c r="D137" s="200"/>
-      <c r="E137" s="324"/>
+      <c r="A137" s="202"/>
+      <c r="B137" s="199"/>
+      <c r="C137" s="202"/>
+      <c r="D137" s="199"/>
+      <c r="E137" s="223"/>
     </row>
     <row r="138" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="203"/>
-      <c r="B138" s="200"/>
-      <c r="C138" s="203"/>
-      <c r="D138" s="200"/>
-      <c r="E138" s="324"/>
+      <c r="A138" s="202"/>
+      <c r="B138" s="199"/>
+      <c r="C138" s="202"/>
+      <c r="D138" s="199"/>
+      <c r="E138" s="223"/>
     </row>
     <row r="139" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="203"/>
-      <c r="B139" s="200"/>
-      <c r="C139" s="203"/>
-      <c r="D139" s="200"/>
-      <c r="E139" s="324"/>
+      <c r="A139" s="202"/>
+      <c r="B139" s="199"/>
+      <c r="C139" s="202"/>
+      <c r="D139" s="199"/>
+      <c r="E139" s="223"/>
     </row>
     <row r="140" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="203"/>
-      <c r="B140" s="200"/>
-      <c r="C140" s="203"/>
-      <c r="D140" s="200"/>
-      <c r="E140" s="324"/>
+      <c r="A140" s="202"/>
+      <c r="B140" s="199"/>
+      <c r="C140" s="202"/>
+      <c r="D140" s="199"/>
+      <c r="E140" s="223"/>
     </row>
     <row r="141" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="203"/>
-      <c r="B141" s="200"/>
-      <c r="C141" s="203"/>
-      <c r="D141" s="200"/>
-      <c r="E141" s="324"/>
+      <c r="A141" s="202"/>
+      <c r="B141" s="199"/>
+      <c r="C141" s="202"/>
+      <c r="D141" s="199"/>
+      <c r="E141" s="223"/>
     </row>
     <row r="142" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="203"/>
-      <c r="B142" s="200"/>
-      <c r="C142" s="203"/>
-      <c r="D142" s="200"/>
-      <c r="E142" s="324"/>
+      <c r="A142" s="202"/>
+      <c r="B142" s="199"/>
+      <c r="C142" s="202"/>
+      <c r="D142" s="199"/>
+      <c r="E142" s="223"/>
     </row>
     <row r="143" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="203"/>
-      <c r="B143" s="200"/>
-      <c r="C143" s="203"/>
-      <c r="D143" s="200"/>
-      <c r="E143" s="324"/>
+      <c r="A143" s="202"/>
+      <c r="B143" s="199"/>
+      <c r="C143" s="202"/>
+      <c r="D143" s="199"/>
+      <c r="E143" s="223"/>
     </row>
     <row r="144" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="203"/>
-      <c r="B144" s="200"/>
-      <c r="C144" s="203"/>
-      <c r="D144" s="200"/>
-      <c r="E144" s="324"/>
+      <c r="A144" s="202"/>
+      <c r="B144" s="199"/>
+      <c r="C144" s="202"/>
+      <c r="D144" s="199"/>
+      <c r="E144" s="223"/>
     </row>
     <row r="145" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="203"/>
-      <c r="B145" s="200"/>
-      <c r="C145" s="203"/>
-      <c r="D145" s="200"/>
-      <c r="E145" s="324"/>
+      <c r="A145" s="202"/>
+      <c r="B145" s="199"/>
+      <c r="C145" s="202"/>
+      <c r="D145" s="199"/>
+      <c r="E145" s="223"/>
     </row>
     <row r="146" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="203"/>
-      <c r="B146" s="200"/>
-      <c r="C146" s="203"/>
-      <c r="D146" s="200"/>
-      <c r="E146" s="324"/>
+      <c r="A146" s="202"/>
+      <c r="B146" s="199"/>
+      <c r="C146" s="202"/>
+      <c r="D146" s="199"/>
+      <c r="E146" s="223"/>
     </row>
     <row r="147" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="203"/>
-      <c r="B147" s="200"/>
-      <c r="C147" s="203"/>
-      <c r="D147" s="200"/>
-      <c r="E147" s="324"/>
+      <c r="A147" s="202"/>
+      <c r="B147" s="199"/>
+      <c r="C147" s="202"/>
+      <c r="D147" s="199"/>
+      <c r="E147" s="223"/>
     </row>
     <row r="148" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="203"/>
-      <c r="B148" s="200"/>
-      <c r="C148" s="203"/>
-      <c r="D148" s="200"/>
-      <c r="E148" s="324"/>
+      <c r="A148" s="202"/>
+      <c r="B148" s="199"/>
+      <c r="C148" s="202"/>
+      <c r="D148" s="199"/>
+      <c r="E148" s="223"/>
     </row>
     <row r="149" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="203"/>
-      <c r="B149" s="200"/>
-      <c r="C149" s="203"/>
-      <c r="D149" s="200"/>
-      <c r="E149" s="324"/>
+      <c r="A149" s="202"/>
+      <c r="B149" s="199"/>
+      <c r="C149" s="202"/>
+      <c r="D149" s="199"/>
+      <c r="E149" s="223"/>
     </row>
     <row r="150" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="203"/>
-      <c r="B150" s="200"/>
-      <c r="C150" s="203"/>
-      <c r="D150" s="200"/>
-      <c r="E150" s="324"/>
+      <c r="A150" s="202"/>
+      <c r="B150" s="199"/>
+      <c r="C150" s="202"/>
+      <c r="D150" s="199"/>
+      <c r="E150" s="223"/>
     </row>
     <row r="151" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="203"/>
-      <c r="B151" s="200"/>
-      <c r="C151" s="203"/>
-      <c r="D151" s="200"/>
-      <c r="E151" s="324"/>
+      <c r="A151" s="202"/>
+      <c r="B151" s="199"/>
+      <c r="C151" s="202"/>
+      <c r="D151" s="199"/>
+      <c r="E151" s="223"/>
     </row>
     <row r="152" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="203"/>
-      <c r="B152" s="200"/>
-      <c r="C152" s="203"/>
-      <c r="D152" s="200"/>
-      <c r="E152" s="324"/>
+      <c r="A152" s="202"/>
+      <c r="B152" s="199"/>
+      <c r="C152" s="202"/>
+      <c r="D152" s="199"/>
+      <c r="E152" s="223"/>
     </row>
     <row r="153" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="203"/>
-      <c r="B153" s="200"/>
-      <c r="C153" s="203"/>
-      <c r="D153" s="200"/>
-      <c r="E153" s="324"/>
+      <c r="A153" s="202"/>
+      <c r="B153" s="199"/>
+      <c r="C153" s="202"/>
+      <c r="D153" s="199"/>
+      <c r="E153" s="223"/>
     </row>
     <row r="154" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="203"/>
-      <c r="B154" s="200"/>
-      <c r="C154" s="203"/>
-      <c r="D154" s="200"/>
-      <c r="E154" s="324"/>
+      <c r="A154" s="202"/>
+      <c r="B154" s="199"/>
+      <c r="C154" s="202"/>
+      <c r="D154" s="199"/>
+      <c r="E154" s="223"/>
     </row>
     <row r="155" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="203"/>
-      <c r="B155" s="200"/>
-      <c r="C155" s="203"/>
-      <c r="D155" s="200"/>
-      <c r="E155" s="324"/>
+      <c r="A155" s="202"/>
+      <c r="B155" s="199"/>
+      <c r="C155" s="202"/>
+      <c r="D155" s="199"/>
+      <c r="E155" s="223"/>
     </row>
     <row r="156" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="203"/>
-      <c r="B156" s="200"/>
-      <c r="C156" s="203"/>
-      <c r="D156" s="200"/>
-      <c r="E156" s="324"/>
+      <c r="A156" s="202"/>
+      <c r="B156" s="199"/>
+      <c r="C156" s="202"/>
+      <c r="D156" s="199"/>
+      <c r="E156" s="223"/>
     </row>
     <row r="157" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -6041,7 +6142,431 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAEACC1-D7D0-4B3A-ADCD-E107FAB74356}">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="219" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="277" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="277"/>
+      <c r="E1" s="277"/>
+    </row>
+    <row r="2" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="277" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="277"/>
+      <c r="E2" s="277"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="225" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="225" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="225" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="225" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="225" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="330" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="224"/>
+      <c r="B6" s="224"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="224"/>
+      <c r="E6" s="224"/>
+      <c r="F6" s="331"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="224"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="331"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="224"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="331"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="224"/>
+      <c r="B9" s="224"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="331"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="224"/>
+      <c r="B10" s="224"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="331"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="224"/>
+      <c r="B11" s="224"/>
+      <c r="C11" s="224"/>
+      <c r="D11" s="224"/>
+      <c r="E11" s="224"/>
+      <c r="F11" s="331"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="224"/>
+      <c r="B12" s="224"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="331"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="224"/>
+      <c r="B13" s="224"/>
+      <c r="C13" s="224"/>
+      <c r="D13" s="224"/>
+      <c r="E13" s="224"/>
+      <c r="F13" s="331"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="224"/>
+      <c r="B14" s="224"/>
+      <c r="C14" s="224"/>
+      <c r="D14" s="224"/>
+      <c r="E14" s="224"/>
+      <c r="F14" s="331"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="224"/>
+      <c r="B15" s="224"/>
+      <c r="C15" s="224"/>
+      <c r="D15" s="224"/>
+      <c r="E15" s="224"/>
+      <c r="F15" s="331"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="224"/>
+      <c r="B16" s="224"/>
+      <c r="C16" s="224"/>
+      <c r="D16" s="224"/>
+      <c r="E16" s="224"/>
+      <c r="F16" s="331"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="224"/>
+      <c r="B17" s="224"/>
+      <c r="C17" s="224"/>
+      <c r="D17" s="224"/>
+      <c r="E17" s="224"/>
+      <c r="F17" s="331"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="224"/>
+      <c r="B18" s="224"/>
+      <c r="C18" s="224"/>
+      <c r="D18" s="224"/>
+      <c r="E18" s="224"/>
+      <c r="F18" s="331"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="224"/>
+      <c r="B19" s="224"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="224"/>
+      <c r="F19" s="331"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="224"/>
+      <c r="B20" s="224"/>
+      <c r="C20" s="224"/>
+      <c r="D20" s="224"/>
+      <c r="E20" s="224"/>
+      <c r="F20" s="331"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="224"/>
+      <c r="B21" s="224"/>
+      <c r="C21" s="224"/>
+      <c r="D21" s="224"/>
+      <c r="E21" s="224"/>
+      <c r="F21" s="331"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="224"/>
+      <c r="B22" s="224"/>
+      <c r="C22" s="224"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="224"/>
+      <c r="F22" s="331"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="224"/>
+      <c r="B23" s="224"/>
+      <c r="C23" s="224"/>
+      <c r="D23" s="224"/>
+      <c r="E23" s="224"/>
+      <c r="F23" s="331"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="224"/>
+      <c r="B24" s="224"/>
+      <c r="C24" s="224"/>
+      <c r="D24" s="224"/>
+      <c r="E24" s="224"/>
+      <c r="F24" s="331"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="224"/>
+      <c r="B25" s="224"/>
+      <c r="C25" s="224"/>
+      <c r="D25" s="224"/>
+      <c r="E25" s="224"/>
+      <c r="F25" s="331"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="224"/>
+      <c r="B26" s="224"/>
+      <c r="C26" s="224"/>
+      <c r="D26" s="224"/>
+      <c r="E26" s="224"/>
+      <c r="F26" s="331"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="224"/>
+      <c r="B27" s="224"/>
+      <c r="C27" s="224"/>
+      <c r="D27" s="224"/>
+      <c r="E27" s="224"/>
+      <c r="F27" s="331"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="224"/>
+      <c r="B28" s="224"/>
+      <c r="C28" s="224"/>
+      <c r="D28" s="224"/>
+      <c r="E28" s="224"/>
+      <c r="F28" s="331"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="224"/>
+      <c r="B29" s="224"/>
+      <c r="C29" s="224"/>
+      <c r="D29" s="224"/>
+      <c r="E29" s="224"/>
+      <c r="F29" s="331"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="224"/>
+      <c r="B30" s="224"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="224"/>
+      <c r="E30" s="224"/>
+      <c r="F30" s="331"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="224"/>
+      <c r="B31" s="224"/>
+      <c r="C31" s="224"/>
+      <c r="D31" s="224"/>
+      <c r="E31" s="224"/>
+      <c r="F31" s="331"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="224"/>
+      <c r="B32" s="224"/>
+      <c r="C32" s="224"/>
+      <c r="D32" s="224"/>
+      <c r="E32" s="224"/>
+      <c r="F32" s="331"/>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="224"/>
+      <c r="B33" s="224"/>
+      <c r="C33" s="224"/>
+      <c r="D33" s="224"/>
+      <c r="E33" s="224"/>
+      <c r="F33" s="331"/>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="224"/>
+      <c r="B34" s="224"/>
+      <c r="C34" s="224"/>
+      <c r="D34" s="224"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="331"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="224"/>
+      <c r="B35" s="224"/>
+      <c r="C35" s="224"/>
+      <c r="D35" s="224"/>
+      <c r="E35" s="224"/>
+      <c r="F35" s="331"/>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="224"/>
+      <c r="B36" s="224"/>
+      <c r="C36" s="224"/>
+      <c r="D36" s="224"/>
+      <c r="E36" s="224"/>
+      <c r="F36" s="331"/>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="224"/>
+      <c r="B37" s="224"/>
+      <c r="C37" s="224"/>
+      <c r="D37" s="224"/>
+      <c r="E37" s="224"/>
+      <c r="F37" s="331"/>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="224"/>
+      <c r="B38" s="224"/>
+      <c r="C38" s="224"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="224"/>
+      <c r="F38" s="331"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="224"/>
+      <c r="B39" s="224"/>
+      <c r="C39" s="224"/>
+      <c r="D39" s="224"/>
+      <c r="E39" s="224"/>
+      <c r="F39" s="331"/>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="224"/>
+      <c r="B40" s="224"/>
+      <c r="C40" s="224"/>
+      <c r="D40" s="224"/>
+      <c r="E40" s="224"/>
+      <c r="F40" s="331"/>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="224"/>
+      <c r="B41" s="224"/>
+      <c r="C41" s="224"/>
+      <c r="D41" s="224"/>
+      <c r="E41" s="224"/>
+      <c r="F41" s="331"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="224"/>
+      <c r="B42" s="224"/>
+      <c r="C42" s="224"/>
+      <c r="D42" s="224"/>
+      <c r="E42" s="224"/>
+      <c r="F42" s="331"/>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="224"/>
+      <c r="B43" s="224"/>
+      <c r="C43" s="224"/>
+      <c r="D43" s="224"/>
+      <c r="E43" s="224"/>
+      <c r="F43" s="331"/>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="224"/>
+      <c r="B44" s="224"/>
+      <c r="C44" s="224"/>
+      <c r="D44" s="224"/>
+      <c r="E44" s="224"/>
+      <c r="F44" s="331"/>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="224"/>
+      <c r="B45" s="224"/>
+      <c r="C45" s="224"/>
+      <c r="D45" s="224"/>
+      <c r="E45" s="224"/>
+      <c r="F45" s="331"/>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="224"/>
+      <c r="B46" s="224"/>
+      <c r="C46" s="224"/>
+      <c r="D46" s="224"/>
+      <c r="E46" s="224"/>
+      <c r="F46" s="331"/>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="224"/>
+      <c r="B47" s="224"/>
+      <c r="C47" s="224"/>
+      <c r="D47" s="224"/>
+      <c r="E47" s="224"/>
+      <c r="F47" s="331"/>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="224"/>
+      <c r="B48" s="224"/>
+      <c r="C48" s="224"/>
+      <c r="D48" s="224"/>
+      <c r="E48" s="224"/>
+      <c r="F48" s="331"/>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="224"/>
+      <c r="B49" s="224"/>
+      <c r="C49" s="224"/>
+      <c r="D49" s="224"/>
+      <c r="E49" s="224"/>
+      <c r="F49" s="331"/>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="224"/>
+      <c r="B50" s="224"/>
+      <c r="C50" s="224"/>
+      <c r="D50" s="224"/>
+      <c r="E50" s="224"/>
+      <c r="F50" s="331"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -6063,52 +6588,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="274" t="s">
+      <c r="A1" s="297" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="264" t="s">
+      <c r="B1" s="288" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="266"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="289"/>
+      <c r="E1" s="289"/>
+      <c r="F1" s="290"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="275"/>
-      <c r="B2" s="267" t="s">
+      <c r="A2" s="298"/>
+      <c r="B2" s="291" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="269"/>
+      <c r="C2" s="292"/>
+      <c r="D2" s="292"/>
+      <c r="E2" s="292"/>
+      <c r="F2" s="293"/>
       <c r="G2" s="280" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="282" t="s">
+      <c r="H2" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="283"/>
+      <c r="I2" s="285"/>
       <c r="J2" s="19">
         <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="276"/>
-      <c r="B3" s="270"/>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="272"/>
+      <c r="A3" s="299"/>
+      <c r="B3" s="294"/>
+      <c r="C3" s="295"/>
+      <c r="D3" s="295"/>
+      <c r="E3" s="295"/>
+      <c r="F3" s="296"/>
       <c r="G3" s="281"/>
-      <c r="H3" s="282" t="s">
+      <c r="H3" s="284" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="283"/>
+      <c r="I3" s="285"/>
       <c r="J3" s="20">
         <v>10</v>
       </c>
@@ -6135,10 +6660,10 @@
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="284" t="s">
+      <c r="H4" s="286" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="285"/>
+      <c r="I4" s="287"/>
       <c r="J4" s="23">
         <v>8.5</v>
       </c>
@@ -6151,10 +6676,10 @@
       <c r="E5" s="24"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="273" t="s">
+      <c r="H5" s="282" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="277"/>
+      <c r="I5" s="283"/>
       <c r="J5" s="27">
         <f>SUM(G5:G100)</f>
         <v>0</v>
@@ -6168,10 +6693,10 @@
       <c r="E6" s="24"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="273" t="s">
+      <c r="H6" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="277"/>
+      <c r="I6" s="283"/>
       <c r="J6" s="28">
         <f>J5*0.05</f>
         <v>0</v>
@@ -6185,10 +6710,10 @@
       <c r="E7" s="24"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="273" t="s">
+      <c r="H7" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="277"/>
+      <c r="I7" s="283"/>
       <c r="J7" s="28">
         <v>110</v>
       </c>
@@ -6201,10 +6726,10 @@
       <c r="E8" s="24"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="273" t="s">
+      <c r="H8" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="277"/>
+      <c r="I8" s="283"/>
       <c r="J8" s="29">
         <v>150</v>
       </c>
@@ -6217,10 +6742,10 @@
       <c r="E9" s="24"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="273" t="s">
+      <c r="H9" s="282" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="273"/>
+      <c r="I9" s="282"/>
       <c r="J9" s="30">
         <f>(PRECIO_VENTA*LITROS_A_ELABORAR)</f>
         <v>1500</v>
@@ -6234,10 +6759,10 @@
       <c r="E10" s="24"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="273" t="s">
+      <c r="H10" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="273"/>
+      <c r="I10" s="282"/>
       <c r="J10" s="31">
         <f>J9-COSTO_TOTAL_MATERIA_PRIMA</f>
         <v>1500</v>
@@ -6342,6 +6867,13 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="15">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H5:I5"/>
@@ -6350,13 +6882,6 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="J12">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
@@ -6371,29 +6896,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC25"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AD38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="23.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:30" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="227" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="94">
+      <c r="B1" s="228">
         <v>42811</v>
       </c>
       <c r="C1" s="94"/>
@@ -6410,29 +6936,30 @@
       <c r="N1" s="81"/>
       <c r="O1" s="81"/>
       <c r="P1" s="81"/>
-      <c r="Q1" s="286" t="s">
+      <c r="Q1" s="81"/>
+      <c r="R1" s="300" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="287"/>
-      <c r="S1" s="286" t="s">
+      <c r="S1" s="301"/>
+      <c r="T1" s="300" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="287"/>
-      <c r="U1" s="286" t="s">
+      <c r="U1" s="301"/>
+      <c r="V1" s="300" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="287"/>
-      <c r="W1" s="286" t="s">
+      <c r="W1" s="301"/>
+      <c r="X1" s="300" t="s">
         <v>63</v>
       </c>
-      <c r="X1" s="287"/>
-      <c r="Y1" s="81"/>
+      <c r="Y1" s="301"/>
       <c r="Z1" s="81"/>
       <c r="AA1" s="81"/>
       <c r="AB1" s="81"/>
       <c r="AC1" s="81"/>
-    </row>
-    <row r="2" spans="1:29" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD1" s="81"/>
+    </row>
+    <row r="2" spans="1:30" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="90" t="s">
         <v>73</v>
       </c>
@@ -6457,61 +6984,64 @@
       <c r="H2" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="91" t="s">
+      <c r="I2" s="226" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="91" t="s">
+      <c r="K2" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="91" t="s">
+      <c r="L2" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="91" t="s">
+      <c r="M2" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="N2" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="91" t="s">
+      <c r="O2" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="91" t="s">
+      <c r="P2" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="91" t="s">
+      <c r="Q2" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="83" t="s">
+      <c r="R2" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="84" t="s">
+      <c r="S2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="83" t="s">
+      <c r="T2" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="T2" s="83" t="s">
+      <c r="U2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="84" t="s">
+      <c r="V2" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="83" t="s">
+      <c r="W2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="W2" s="83" t="s">
+      <c r="X2" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="X2" s="83" t="s">
+      <c r="Y2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="Y2" s="82"/>
       <c r="Z2" s="82"/>
       <c r="AA2" s="82"/>
       <c r="AB2" s="82"/>
       <c r="AC2" s="82"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD2" s="82"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="85"/>
       <c r="B3" s="85"/>
       <c r="C3" s="85"/>
@@ -6522,22 +7052,23 @@
       <c r="H3" s="85"/>
       <c r="I3" s="85"/>
       <c r="J3" s="85"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
+      <c r="O3" s="85"/>
       <c r="P3" s="86"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="79"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q3" s="86"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="79"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="85"/>
       <c r="B4" s="85"/>
       <c r="C4" s="85"/>
@@ -6548,22 +7079,23 @@
       <c r="H4" s="85"/>
       <c r="I4" s="85"/>
       <c r="J4" s="85"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="93"/>
       <c r="N4" s="85"/>
-      <c r="O4" s="86"/>
+      <c r="O4" s="85"/>
       <c r="P4" s="86"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="79"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q4" s="86"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="79"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="85"/>
       <c r="B5" s="85"/>
       <c r="C5" s="85"/>
@@ -6574,22 +7106,23 @@
       <c r="H5" s="85"/>
       <c r="I5" s="85"/>
       <c r="J5" s="85"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="93"/>
       <c r="N5" s="85"/>
-      <c r="O5" s="86"/>
+      <c r="O5" s="85"/>
       <c r="P5" s="86"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="79"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q5" s="86"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="79"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="85"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
@@ -6600,13 +7133,13 @@
       <c r="H6" s="85"/>
       <c r="I6" s="85"/>
       <c r="J6" s="85"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="85"/>
-      <c r="O6" s="87"/>
+      <c r="O6" s="85"/>
       <c r="P6" s="87"/>
-      <c r="Q6" s="85"/>
+      <c r="Q6" s="87"/>
       <c r="R6" s="85"/>
       <c r="S6" s="85"/>
       <c r="T6" s="85"/>
@@ -6614,8 +7147,9 @@
       <c r="V6" s="85"/>
       <c r="W6" s="85"/>
       <c r="X6" s="85"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y6" s="85"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="85"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
@@ -6626,13 +7160,13 @@
       <c r="H7" s="85"/>
       <c r="I7" s="85"/>
       <c r="J7" s="85"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="93"/>
       <c r="N7" s="85"/>
-      <c r="O7" s="87"/>
+      <c r="O7" s="85"/>
       <c r="P7" s="87"/>
-      <c r="Q7" s="85"/>
+      <c r="Q7" s="87"/>
       <c r="R7" s="85"/>
       <c r="S7" s="85"/>
       <c r="T7" s="85"/>
@@ -6640,8 +7174,9 @@
       <c r="V7" s="85"/>
       <c r="W7" s="85"/>
       <c r="X7" s="85"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y7" s="85"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="85"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
@@ -6652,13 +7187,13 @@
       <c r="H8" s="85"/>
       <c r="I8" s="85"/>
       <c r="J8" s="85"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="93"/>
       <c r="N8" s="85"/>
-      <c r="O8" s="87"/>
+      <c r="O8" s="85"/>
       <c r="P8" s="87"/>
-      <c r="Q8" s="85"/>
+      <c r="Q8" s="87"/>
       <c r="R8" s="85"/>
       <c r="S8" s="85"/>
       <c r="T8" s="85"/>
@@ -6666,8 +7201,9 @@
       <c r="V8" s="85"/>
       <c r="W8" s="85"/>
       <c r="X8" s="85"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y8" s="85"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="85"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
@@ -6678,13 +7214,13 @@
       <c r="H9" s="85"/>
       <c r="I9" s="85"/>
       <c r="J9" s="85"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="93"/>
       <c r="N9" s="85"/>
-      <c r="O9" s="87"/>
+      <c r="O9" s="85"/>
       <c r="P9" s="87"/>
-      <c r="Q9" s="85"/>
+      <c r="Q9" s="87"/>
       <c r="R9" s="85"/>
       <c r="S9" s="85"/>
       <c r="T9" s="85"/>
@@ -6692,8 +7228,9 @@
       <c r="V9" s="85"/>
       <c r="W9" s="85"/>
       <c r="X9" s="85"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y9" s="85"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="85"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
@@ -6704,13 +7241,13 @@
       <c r="H10" s="85"/>
       <c r="I10" s="85"/>
       <c r="J10" s="85"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="93"/>
       <c r="N10" s="85"/>
-      <c r="O10" s="87"/>
+      <c r="O10" s="85"/>
       <c r="P10" s="87"/>
-      <c r="Q10" s="85"/>
+      <c r="Q10" s="87"/>
       <c r="R10" s="85"/>
       <c r="S10" s="85"/>
       <c r="T10" s="85"/>
@@ -6718,8 +7255,9 @@
       <c r="V10" s="85"/>
       <c r="W10" s="85"/>
       <c r="X10" s="85"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y10" s="85"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="85"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
@@ -6730,13 +7268,13 @@
       <c r="H11" s="85"/>
       <c r="I11" s="85"/>
       <c r="J11" s="85"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="93"/>
       <c r="N11" s="85"/>
-      <c r="O11" s="87"/>
+      <c r="O11" s="85"/>
       <c r="P11" s="87"/>
-      <c r="Q11" s="85"/>
+      <c r="Q11" s="87"/>
       <c r="R11" s="85"/>
       <c r="S11" s="85"/>
       <c r="T11" s="85"/>
@@ -6744,8 +7282,9 @@
       <c r="V11" s="85"/>
       <c r="W11" s="85"/>
       <c r="X11" s="85"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y11" s="85"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="85"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
@@ -6756,13 +7295,13 @@
       <c r="H12" s="85"/>
       <c r="I12" s="85"/>
       <c r="J12" s="85"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="93"/>
       <c r="N12" s="85"/>
-      <c r="O12" s="87"/>
+      <c r="O12" s="85"/>
       <c r="P12" s="87"/>
-      <c r="Q12" s="85"/>
+      <c r="Q12" s="87"/>
       <c r="R12" s="85"/>
       <c r="S12" s="85"/>
       <c r="T12" s="85"/>
@@ -6770,8 +7309,9 @@
       <c r="V12" s="85"/>
       <c r="W12" s="85"/>
       <c r="X12" s="85"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y12" s="85"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="85"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
@@ -6782,13 +7322,13 @@
       <c r="H13" s="85"/>
       <c r="I13" s="85"/>
       <c r="J13" s="85"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="93"/>
       <c r="N13" s="85"/>
-      <c r="O13" s="87"/>
+      <c r="O13" s="85"/>
       <c r="P13" s="87"/>
-      <c r="Q13" s="85"/>
+      <c r="Q13" s="87"/>
       <c r="R13" s="85"/>
       <c r="S13" s="85"/>
       <c r="T13" s="85"/>
@@ -6796,8 +7336,9 @@
       <c r="V13" s="85"/>
       <c r="W13" s="85"/>
       <c r="X13" s="85"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y13" s="85"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="85"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
@@ -6808,13 +7349,13 @@
       <c r="H14" s="85"/>
       <c r="I14" s="85"/>
       <c r="J14" s="85"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="93"/>
       <c r="N14" s="85"/>
-      <c r="O14" s="87"/>
+      <c r="O14" s="85"/>
       <c r="P14" s="87"/>
-      <c r="Q14" s="85"/>
+      <c r="Q14" s="87"/>
       <c r="R14" s="85"/>
       <c r="S14" s="85"/>
       <c r="T14" s="85"/>
@@ -6822,8 +7363,9 @@
       <c r="V14" s="85"/>
       <c r="W14" s="85"/>
       <c r="X14" s="85"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y14" s="85"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="85"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
@@ -6834,13 +7376,13 @@
       <c r="H15" s="85"/>
       <c r="I15" s="85"/>
       <c r="J15" s="85"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="93"/>
       <c r="N15" s="85"/>
-      <c r="O15" s="87"/>
+      <c r="O15" s="85"/>
       <c r="P15" s="87"/>
-      <c r="Q15" s="85"/>
+      <c r="Q15" s="87"/>
       <c r="R15" s="85"/>
       <c r="S15" s="85"/>
       <c r="T15" s="85"/>
@@ -6848,8 +7390,9 @@
       <c r="V15" s="85"/>
       <c r="W15" s="85"/>
       <c r="X15" s="85"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y15" s="85"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="85"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
@@ -6860,13 +7403,13 @@
       <c r="H16" s="85"/>
       <c r="I16" s="85"/>
       <c r="J16" s="85"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="93"/>
       <c r="N16" s="85"/>
-      <c r="O16" s="87"/>
+      <c r="O16" s="85"/>
       <c r="P16" s="87"/>
-      <c r="Q16" s="85"/>
+      <c r="Q16" s="87"/>
       <c r="R16" s="85"/>
       <c r="S16" s="85"/>
       <c r="T16" s="85"/>
@@ -6874,8 +7417,9 @@
       <c r="V16" s="85"/>
       <c r="W16" s="85"/>
       <c r="X16" s="85"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y16" s="85"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="85"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
@@ -6886,13 +7430,13 @@
       <c r="H17" s="85"/>
       <c r="I17" s="85"/>
       <c r="J17" s="85"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="93"/>
       <c r="N17" s="85"/>
-      <c r="O17" s="87"/>
+      <c r="O17" s="85"/>
       <c r="P17" s="87"/>
-      <c r="Q17" s="85"/>
+      <c r="Q17" s="87"/>
       <c r="R17" s="85"/>
       <c r="S17" s="85"/>
       <c r="T17" s="85"/>
@@ -6900,8 +7444,9 @@
       <c r="V17" s="85"/>
       <c r="W17" s="85"/>
       <c r="X17" s="85"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y17" s="85"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="85"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
@@ -6912,13 +7457,13 @@
       <c r="H18" s="85"/>
       <c r="I18" s="85"/>
       <c r="J18" s="85"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="93"/>
       <c r="N18" s="85"/>
-      <c r="O18" s="87"/>
+      <c r="O18" s="85"/>
       <c r="P18" s="87"/>
-      <c r="Q18" s="85"/>
+      <c r="Q18" s="87"/>
       <c r="R18" s="85"/>
       <c r="S18" s="85"/>
       <c r="T18" s="85"/>
@@ -6926,8 +7471,9 @@
       <c r="V18" s="85"/>
       <c r="W18" s="85"/>
       <c r="X18" s="85"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y18" s="85"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="85"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
@@ -6938,13 +7484,13 @@
       <c r="H19" s="85"/>
       <c r="I19" s="85"/>
       <c r="J19" s="85"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="93"/>
       <c r="N19" s="85"/>
-      <c r="O19" s="87"/>
+      <c r="O19" s="85"/>
       <c r="P19" s="87"/>
-      <c r="Q19" s="85"/>
+      <c r="Q19" s="87"/>
       <c r="R19" s="85"/>
       <c r="S19" s="85"/>
       <c r="T19" s="85"/>
@@ -6952,8 +7498,9 @@
       <c r="V19" s="85"/>
       <c r="W19" s="85"/>
       <c r="X19" s="85"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y19" s="85"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="85"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -6964,13 +7511,13 @@
       <c r="H20" s="85"/>
       <c r="I20" s="85"/>
       <c r="J20" s="85"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="93"/>
       <c r="N20" s="85"/>
-      <c r="O20" s="87"/>
+      <c r="O20" s="85"/>
       <c r="P20" s="87"/>
-      <c r="Q20" s="85"/>
+      <c r="Q20" s="87"/>
       <c r="R20" s="85"/>
       <c r="S20" s="85"/>
       <c r="T20" s="85"/>
@@ -6978,8 +7525,9 @@
       <c r="V20" s="85"/>
       <c r="W20" s="85"/>
       <c r="X20" s="85"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y20" s="85"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="85"/>
       <c r="B21" s="85"/>
       <c r="C21" s="85"/>
@@ -6990,13 +7538,13 @@
       <c r="H21" s="85"/>
       <c r="I21" s="85"/>
       <c r="J21" s="85"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="93"/>
       <c r="N21" s="85"/>
-      <c r="O21" s="87"/>
+      <c r="O21" s="85"/>
       <c r="P21" s="87"/>
-      <c r="Q21" s="85"/>
+      <c r="Q21" s="87"/>
       <c r="R21" s="85"/>
       <c r="S21" s="85"/>
       <c r="T21" s="85"/>
@@ -7004,8 +7552,9 @@
       <c r="V21" s="85"/>
       <c r="W21" s="85"/>
       <c r="X21" s="85"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y21" s="85"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="85"/>
       <c r="B22" s="85"/>
       <c r="C22" s="85"/>
@@ -7016,13 +7565,13 @@
       <c r="H22" s="85"/>
       <c r="I22" s="85"/>
       <c r="J22" s="85"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="93"/>
       <c r="N22" s="85"/>
-      <c r="O22" s="87"/>
+      <c r="O22" s="85"/>
       <c r="P22" s="87"/>
-      <c r="Q22" s="85"/>
+      <c r="Q22" s="87"/>
       <c r="R22" s="85"/>
       <c r="S22" s="85"/>
       <c r="T22" s="85"/>
@@ -7030,8 +7579,9 @@
       <c r="V22" s="85"/>
       <c r="W22" s="85"/>
       <c r="X22" s="85"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y22" s="85"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="85"/>
       <c r="B23" s="85"/>
       <c r="C23" s="85"/>
@@ -7042,13 +7592,13 @@
       <c r="H23" s="85"/>
       <c r="I23" s="85"/>
       <c r="J23" s="85"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="93"/>
       <c r="N23" s="85"/>
-      <c r="O23" s="87"/>
+      <c r="O23" s="85"/>
       <c r="P23" s="87"/>
-      <c r="Q23" s="85"/>
+      <c r="Q23" s="87"/>
       <c r="R23" s="85"/>
       <c r="S23" s="85"/>
       <c r="T23" s="85"/>
@@ -7056,8 +7606,9 @@
       <c r="V23" s="85"/>
       <c r="W23" s="85"/>
       <c r="X23" s="85"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y23" s="85"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="85"/>
       <c r="B24" s="85"/>
       <c r="C24" s="85"/>
@@ -7068,13 +7619,13 @@
       <c r="H24" s="85"/>
       <c r="I24" s="85"/>
       <c r="J24" s="85"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="93"/>
       <c r="N24" s="85"/>
-      <c r="O24" s="87"/>
+      <c r="O24" s="85"/>
       <c r="P24" s="87"/>
-      <c r="Q24" s="85"/>
+      <c r="Q24" s="87"/>
       <c r="R24" s="85"/>
       <c r="S24" s="85"/>
       <c r="T24" s="85"/>
@@ -7082,8 +7633,9 @@
       <c r="V24" s="85"/>
       <c r="W24" s="85"/>
       <c r="X24" s="85"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y24" s="85"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="85"/>
       <c r="B25" s="85"/>
       <c r="C25" s="85"/>
@@ -7094,13 +7646,13 @@
       <c r="H25" s="85"/>
       <c r="I25" s="85"/>
       <c r="J25" s="85"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="93"/>
       <c r="N25" s="85"/>
-      <c r="O25" s="87"/>
+      <c r="O25" s="85"/>
       <c r="P25" s="87"/>
-      <c r="Q25" s="85"/>
+      <c r="Q25" s="87"/>
       <c r="R25" s="85"/>
       <c r="S25" s="85"/>
       <c r="T25" s="85"/>
@@ -7108,415 +7660,773 @@
       <c r="V25" s="85"/>
       <c r="W25" s="85"/>
       <c r="X25" s="85"/>
+      <c r="Y25" s="85"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="85"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="85"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="85"/>
+      <c r="S26" s="85"/>
+      <c r="T26" s="85"/>
+      <c r="U26" s="85"/>
+      <c r="V26" s="85"/>
+      <c r="W26" s="85"/>
+      <c r="X26" s="85"/>
+      <c r="Y26" s="85"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="85"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="85"/>
+      <c r="T27" s="85"/>
+      <c r="U27" s="85"/>
+      <c r="V27" s="85"/>
+      <c r="W27" s="85"/>
+      <c r="X27" s="85"/>
+      <c r="Y27" s="85"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="85"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
+      <c r="T28" s="85"/>
+      <c r="U28" s="85"/>
+      <c r="V28" s="85"/>
+      <c r="W28" s="85"/>
+      <c r="X28" s="85"/>
+      <c r="Y28" s="85"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="85"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="85"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="85"/>
+      <c r="V29" s="85"/>
+      <c r="W29" s="85"/>
+      <c r="X29" s="85"/>
+      <c r="Y29" s="85"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="85"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="85"/>
+      <c r="U30" s="85"/>
+      <c r="V30" s="85"/>
+      <c r="W30" s="85"/>
+      <c r="X30" s="85"/>
+      <c r="Y30" s="85"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="85"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="85"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="85"/>
+      <c r="S31" s="85"/>
+      <c r="T31" s="85"/>
+      <c r="U31" s="85"/>
+      <c r="V31" s="85"/>
+      <c r="W31" s="85"/>
+      <c r="X31" s="85"/>
+      <c r="Y31" s="85"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="85"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="87"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="85"/>
+      <c r="U32" s="85"/>
+      <c r="V32" s="85"/>
+      <c r="W32" s="85"/>
+      <c r="X32" s="85"/>
+      <c r="Y32" s="85"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="85"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="85"/>
+      <c r="S33" s="85"/>
+      <c r="T33" s="85"/>
+      <c r="U33" s="85"/>
+      <c r="V33" s="85"/>
+      <c r="W33" s="85"/>
+      <c r="X33" s="85"/>
+      <c r="Y33" s="85"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="85"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="85"/>
+      <c r="T34" s="85"/>
+      <c r="U34" s="85"/>
+      <c r="V34" s="85"/>
+      <c r="W34" s="85"/>
+      <c r="X34" s="85"/>
+      <c r="Y34" s="85"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="85"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="87"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
+      <c r="U35" s="85"/>
+      <c r="V35" s="85"/>
+      <c r="W35" s="85"/>
+      <c r="X35" s="85"/>
+      <c r="Y35" s="85"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="85"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="85"/>
+      <c r="S36" s="85"/>
+      <c r="T36" s="85"/>
+      <c r="U36" s="85"/>
+      <c r="V36" s="85"/>
+      <c r="W36" s="85"/>
+      <c r="X36" s="85"/>
+      <c r="Y36" s="85"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="85"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="92"/>
+      <c r="M37" s="93"/>
+      <c r="N37" s="85"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="87"/>
+      <c r="Q37" s="87"/>
+      <c r="R37" s="85"/>
+      <c r="S37" s="85"/>
+      <c r="T37" s="85"/>
+      <c r="U37" s="85"/>
+      <c r="V37" s="85"/>
+      <c r="W37" s="85"/>
+      <c r="X37" s="85"/>
+      <c r="Y37" s="85"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="85"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="92"/>
+      <c r="M38" s="93"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="87"/>
+      <c r="R38" s="85"/>
+      <c r="S38" s="85"/>
+      <c r="T38" s="85"/>
+      <c r="U38" s="85"/>
+      <c r="V38" s="85"/>
+      <c r="W38" s="85"/>
+      <c r="X38" s="85"/>
+      <c r="Y38" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="3.7109375" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="294"/>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="294"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="294"/>
-      <c r="I1" s="294"/>
-      <c r="J1" s="294"/>
-      <c r="K1" s="294"/>
-      <c r="L1" s="294"/>
-      <c r="M1" s="294"/>
-      <c r="N1" s="294"/>
+      <c r="A1" s="329"/>
+      <c r="B1" s="329"/>
+      <c r="C1" s="329"/>
+      <c r="D1" s="329"/>
+      <c r="E1" s="329"/>
+      <c r="F1" s="329"/>
+      <c r="G1" s="329"/>
+      <c r="H1" s="329"/>
+      <c r="I1" s="329"/>
+      <c r="J1" s="329"/>
+      <c r="K1" s="329"/>
+      <c r="L1" s="329"/>
+      <c r="M1" s="329"/>
+      <c r="N1" s="329"/>
     </row>
     <row r="2" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="294"/>
-      <c r="B2" s="294"/>
-      <c r="C2" s="294"/>
-      <c r="D2" s="294"/>
-      <c r="E2" s="294"/>
-      <c r="F2" s="294"/>
-      <c r="G2" s="294"/>
-      <c r="H2" s="294"/>
-      <c r="I2" s="294"/>
-      <c r="J2" s="294"/>
-      <c r="K2" s="294"/>
-      <c r="L2" s="294"/>
-      <c r="M2" s="294"/>
-      <c r="N2" s="294"/>
-    </row>
-    <row r="3" spans="1:16" s="121" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="122"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
+      <c r="A2" s="329"/>
+      <c r="B2" s="329"/>
+      <c r="C2" s="329"/>
+      <c r="D2" s="329"/>
+      <c r="E2" s="329"/>
+      <c r="F2" s="329"/>
+      <c r="G2" s="329"/>
+      <c r="H2" s="329"/>
+      <c r="I2" s="329"/>
+      <c r="J2" s="329"/>
+      <c r="K2" s="329"/>
+      <c r="L2" s="329"/>
+      <c r="M2" s="329"/>
+      <c r="N2" s="329"/>
+    </row>
+    <row r="3" spans="1:16" s="120" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="121"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
     </row>
     <row r="4" spans="1:16" ht="55.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="288"/>
-      <c r="C4" s="288"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="128" t="s">
+      <c r="B4" s="323"/>
+      <c r="C4" s="323"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="128" t="s">
+      <c r="G4" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="307" t="s">
+      <c r="H4" s="314" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="307"/>
-      <c r="J4" s="307"/>
-      <c r="K4" s="129" t="s">
+      <c r="I4" s="314"/>
+      <c r="J4" s="314"/>
+      <c r="K4" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="130" t="s">
+      <c r="L4" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="M4" s="131" t="s">
+      <c r="M4" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="N4" s="131" t="s">
+      <c r="N4" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="109"/>
+      <c r="P4" s="108"/>
     </row>
     <row r="5" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="289" t="s">
+      <c r="A5" s="324" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97" t="s">
+      <c r="B5" s="96"/>
+      <c r="C5" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="308"/>
-      <c r="I5" s="309"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="197"/>
-      <c r="L5" s="198"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="103"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="316"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="196"/>
+      <c r="L5" s="197"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="102"/>
     </row>
     <row r="6" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="290"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="108" t="s">
+      <c r="A6" s="325"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="132" t="s">
+      <c r="D6" s="106"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="128" t="s">
+      <c r="G6" s="127" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="310" t="s">
+      <c r="H6" s="317" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="311"/>
-      <c r="J6" s="311"/>
-      <c r="K6" s="311"/>
-      <c r="L6" s="312"/>
-      <c r="M6" s="291" t="s">
+      <c r="I6" s="318"/>
+      <c r="J6" s="318"/>
+      <c r="K6" s="318"/>
+      <c r="L6" s="319"/>
+      <c r="M6" s="326" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="292"/>
+      <c r="N6" s="327"/>
     </row>
     <row r="7" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="126" t="s">
+      <c r="C7" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="127" t="s">
+      <c r="D7" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="313"/>
-      <c r="I7" s="314"/>
-      <c r="J7" s="314"/>
-      <c r="K7" s="314"/>
-      <c r="L7" s="315"/>
-      <c r="M7" s="293"/>
-      <c r="N7" s="293"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="320"/>
+      <c r="I7" s="321"/>
+      <c r="J7" s="321"/>
+      <c r="K7" s="321"/>
+      <c r="L7" s="322"/>
+      <c r="M7" s="328"/>
+      <c r="N7" s="328"/>
     </row>
     <row r="8" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="189"/>
-      <c r="B8" s="189"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="191"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
     </row>
     <row r="9" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="169"/>
-      <c r="B9" s="192"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="304" t="s">
+      <c r="A9" s="168"/>
+      <c r="B9" s="191"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="305"/>
-      <c r="H9" s="305"/>
-      <c r="I9" s="305"/>
-      <c r="J9" s="305"/>
-      <c r="K9" s="306"/>
-      <c r="L9" s="304" t="s">
+      <c r="G9" s="312"/>
+      <c r="H9" s="312"/>
+      <c r="I9" s="312"/>
+      <c r="J9" s="312"/>
+      <c r="K9" s="313"/>
+      <c r="L9" s="311" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="305"/>
-      <c r="N9" s="306"/>
+      <c r="M9" s="312"/>
+      <c r="N9" s="313"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="169"/>
-      <c r="B10" s="192"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="295"/>
-      <c r="G10" s="296"/>
-      <c r="H10" s="296"/>
-      <c r="I10" s="296"/>
-      <c r="J10" s="296"/>
-      <c r="K10" s="297"/>
-      <c r="L10" s="295"/>
-      <c r="M10" s="296"/>
-      <c r="N10" s="297"/>
+      <c r="A10" s="168"/>
+      <c r="B10" s="191"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="302"/>
+      <c r="G10" s="303"/>
+      <c r="H10" s="303"/>
+      <c r="I10" s="303"/>
+      <c r="J10" s="303"/>
+      <c r="K10" s="304"/>
+      <c r="L10" s="302"/>
+      <c r="M10" s="303"/>
+      <c r="N10" s="304"/>
     </row>
     <row r="11" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="169"/>
-      <c r="B11" s="192"/>
-      <c r="C11" s="194"/>
-      <c r="D11" s="195"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="298"/>
-      <c r="G11" s="299"/>
-      <c r="H11" s="299"/>
-      <c r="I11" s="299"/>
-      <c r="J11" s="299"/>
-      <c r="K11" s="300"/>
-      <c r="L11" s="298"/>
-      <c r="M11" s="299"/>
-      <c r="N11" s="300"/>
+      <c r="A11" s="168"/>
+      <c r="B11" s="191"/>
+      <c r="C11" s="193"/>
+      <c r="D11" s="194"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="305"/>
+      <c r="G11" s="306"/>
+      <c r="H11" s="306"/>
+      <c r="I11" s="306"/>
+      <c r="J11" s="306"/>
+      <c r="K11" s="307"/>
+      <c r="L11" s="305"/>
+      <c r="M11" s="306"/>
+      <c r="N11" s="307"/>
     </row>
     <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="169"/>
-      <c r="B12" s="192"/>
-      <c r="C12" s="194"/>
-      <c r="D12" s="195"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="298"/>
-      <c r="G12" s="299"/>
-      <c r="H12" s="299"/>
-      <c r="I12" s="299"/>
-      <c r="J12" s="299"/>
-      <c r="K12" s="300"/>
-      <c r="L12" s="298"/>
-      <c r="M12" s="299"/>
-      <c r="N12" s="300"/>
+      <c r="A12" s="168"/>
+      <c r="B12" s="191"/>
+      <c r="C12" s="193"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="305"/>
+      <c r="G12" s="306"/>
+      <c r="H12" s="306"/>
+      <c r="I12" s="306"/>
+      <c r="J12" s="306"/>
+      <c r="K12" s="307"/>
+      <c r="L12" s="305"/>
+      <c r="M12" s="306"/>
+      <c r="N12" s="307"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="169"/>
-      <c r="B13" s="192"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="298"/>
-      <c r="G13" s="299"/>
-      <c r="H13" s="299"/>
-      <c r="I13" s="299"/>
-      <c r="J13" s="299"/>
-      <c r="K13" s="300"/>
-      <c r="L13" s="298"/>
-      <c r="M13" s="299"/>
-      <c r="N13" s="300"/>
+      <c r="A13" s="168"/>
+      <c r="B13" s="191"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="305"/>
+      <c r="G13" s="306"/>
+      <c r="H13" s="306"/>
+      <c r="I13" s="306"/>
+      <c r="J13" s="306"/>
+      <c r="K13" s="307"/>
+      <c r="L13" s="305"/>
+      <c r="M13" s="306"/>
+      <c r="N13" s="307"/>
     </row>
     <row r="14" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="169"/>
-      <c r="B14" s="192"/>
-      <c r="C14" s="169"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="298"/>
-      <c r="G14" s="299"/>
-      <c r="H14" s="299"/>
-      <c r="I14" s="299"/>
-      <c r="J14" s="299"/>
-      <c r="K14" s="300"/>
-      <c r="L14" s="298"/>
-      <c r="M14" s="299"/>
-      <c r="N14" s="300"/>
+      <c r="A14" s="168"/>
+      <c r="B14" s="191"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="305"/>
+      <c r="G14" s="306"/>
+      <c r="H14" s="306"/>
+      <c r="I14" s="306"/>
+      <c r="J14" s="306"/>
+      <c r="K14" s="307"/>
+      <c r="L14" s="305"/>
+      <c r="M14" s="306"/>
+      <c r="N14" s="307"/>
     </row>
     <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="169"/>
-      <c r="B15" s="192"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="298"/>
-      <c r="G15" s="299"/>
-      <c r="H15" s="299"/>
-      <c r="I15" s="299"/>
-      <c r="J15" s="299"/>
-      <c r="K15" s="300"/>
-      <c r="L15" s="298"/>
-      <c r="M15" s="299"/>
-      <c r="N15" s="300"/>
+      <c r="A15" s="168"/>
+      <c r="B15" s="191"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="305"/>
+      <c r="G15" s="306"/>
+      <c r="H15" s="306"/>
+      <c r="I15" s="306"/>
+      <c r="J15" s="306"/>
+      <c r="K15" s="307"/>
+      <c r="L15" s="305"/>
+      <c r="M15" s="306"/>
+      <c r="N15" s="307"/>
     </row>
     <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="169"/>
-      <c r="B16" s="192"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="298"/>
-      <c r="G16" s="299"/>
-      <c r="H16" s="299"/>
-      <c r="I16" s="299"/>
-      <c r="J16" s="299"/>
-      <c r="K16" s="300"/>
-      <c r="L16" s="298"/>
-      <c r="M16" s="299"/>
-      <c r="N16" s="300"/>
+      <c r="A16" s="168"/>
+      <c r="B16" s="191"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="305"/>
+      <c r="G16" s="306"/>
+      <c r="H16" s="306"/>
+      <c r="I16" s="306"/>
+      <c r="J16" s="306"/>
+      <c r="K16" s="307"/>
+      <c r="L16" s="305"/>
+      <c r="M16" s="306"/>
+      <c r="N16" s="307"/>
     </row>
     <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="169"/>
-      <c r="B17" s="192"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="193"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="298"/>
-      <c r="G17" s="299"/>
-      <c r="H17" s="299"/>
-      <c r="I17" s="299"/>
-      <c r="J17" s="299"/>
-      <c r="K17" s="300"/>
-      <c r="L17" s="298"/>
-      <c r="M17" s="299"/>
-      <c r="N17" s="300"/>
+      <c r="A17" s="168"/>
+      <c r="B17" s="191"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="305"/>
+      <c r="G17" s="306"/>
+      <c r="H17" s="306"/>
+      <c r="I17" s="306"/>
+      <c r="J17" s="306"/>
+      <c r="K17" s="307"/>
+      <c r="L17" s="305"/>
+      <c r="M17" s="306"/>
+      <c r="N17" s="307"/>
     </row>
     <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="196"/>
-      <c r="B18" s="192"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="298"/>
-      <c r="G18" s="299"/>
-      <c r="H18" s="299"/>
-      <c r="I18" s="299"/>
-      <c r="J18" s="299"/>
-      <c r="K18" s="300"/>
-      <c r="L18" s="298"/>
-      <c r="M18" s="299"/>
-      <c r="N18" s="300"/>
+      <c r="A18" s="195"/>
+      <c r="B18" s="191"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="305"/>
+      <c r="G18" s="306"/>
+      <c r="H18" s="306"/>
+      <c r="I18" s="306"/>
+      <c r="J18" s="306"/>
+      <c r="K18" s="307"/>
+      <c r="L18" s="305"/>
+      <c r="M18" s="306"/>
+      <c r="N18" s="307"/>
     </row>
     <row r="19" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="169" t="s">
+      <c r="A19" s="168" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="192" t="s">
+      <c r="B19" s="191" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="169"/>
-      <c r="D19" s="193"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="298"/>
-      <c r="G19" s="299"/>
-      <c r="H19" s="299"/>
-      <c r="I19" s="299"/>
-      <c r="J19" s="299"/>
-      <c r="K19" s="300"/>
-      <c r="L19" s="298"/>
-      <c r="M19" s="299"/>
-      <c r="N19" s="300"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="305"/>
+      <c r="G19" s="306"/>
+      <c r="H19" s="306"/>
+      <c r="I19" s="306"/>
+      <c r="J19" s="306"/>
+      <c r="K19" s="307"/>
+      <c r="L19" s="305"/>
+      <c r="M19" s="306"/>
+      <c r="N19" s="307"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="196"/>
-      <c r="B20" s="192"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="193"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="301"/>
-      <c r="G20" s="302"/>
-      <c r="H20" s="302"/>
-      <c r="I20" s="302"/>
-      <c r="J20" s="302"/>
-      <c r="K20" s="303"/>
-      <c r="L20" s="301"/>
-      <c r="M20" s="302"/>
-      <c r="N20" s="303"/>
+      <c r="A20" s="195"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="308"/>
+      <c r="G20" s="309"/>
+      <c r="H20" s="309"/>
+      <c r="I20" s="309"/>
+      <c r="J20" s="309"/>
+      <c r="K20" s="310"/>
+      <c r="L20" s="308"/>
+      <c r="M20" s="309"/>
+      <c r="N20" s="310"/>
     </row>
     <row r="21" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="133" t="s">
+      <c r="C21" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="113"/>
-      <c r="E21" s="110"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A1:N2"/>
     <mergeCell ref="L10:N20"/>
     <mergeCell ref="F10:K20"/>
     <mergeCell ref="F9:K9"/>
@@ -7525,11 +8435,6 @@
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="L9:N9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A1:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ExcelAddIn1/Resources/FICHA RECETA.xlsx
+++ b/ExcelAddIn1/Resources/FICHA RECETA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReporteInventario" sheetId="3" r:id="rId1"/>
@@ -18,9 +18,11 @@
     <sheet name="IngredientesPreviaGlobal" sheetId="8" r:id="rId4"/>
     <sheet name="IngredientesPreviaPlatillo" sheetId="9" r:id="rId5"/>
     <sheet name="DestinoPlatillos" sheetId="10" r:id="rId6"/>
-    <sheet name="Receta" sheetId="1" r:id="rId7"/>
-    <sheet name="ReporterCocina" sheetId="5" r:id="rId8"/>
-    <sheet name="DetalleReceta" sheetId="6" r:id="rId9"/>
+    <sheet name="StatusProducto" sheetId="11" r:id="rId7"/>
+    <sheet name="Receta" sheetId="1" r:id="rId8"/>
+    <sheet name="ReporterCocina" sheetId="5" r:id="rId9"/>
+    <sheet name="DetalleReceta" sheetId="6" r:id="rId10"/>
+    <sheet name="MenuSemanal" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="CANTIDAD_A_ELABORAR">Receta!$J$4</definedName>
@@ -49,11 +51,12 @@
   <customWorkbookViews>
     <customWorkbookView name="Receta" guid="{144E6047-E10B-4E01-8FEF-AAF3A3213ABE}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1320" windowHeight="784" activeSheetId="1" showFormulaBar="0"/>
   </customWorkbookViews>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="132">
   <si>
     <t>Receta</t>
   </si>
@@ -379,13 +382,7 @@
     <t>Cantidad a Elaborar</t>
   </si>
   <si>
-    <t xml:space="preserve">Medida </t>
-  </si>
-  <si>
     <t>Cantidad Elaborada-Producto Final</t>
-  </si>
-  <si>
-    <t>Receta Base</t>
   </si>
   <si>
     <t xml:space="preserve">Cantidades Necesarias  </t>
@@ -420,12 +417,6 @@
     <t>Lts</t>
   </si>
   <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Orden de Trabajo</t>
-  </si>
-  <si>
     <t>RECETA</t>
   </si>
   <si>
@@ -478,22 +469,47 @@
   </si>
   <si>
     <t>Qty Ultima Elaboración</t>
+  </si>
+  <si>
+    <t>Ficha de Trabajo</t>
+  </si>
+  <si>
+    <t>Precio de Venta</t>
+  </si>
+  <si>
+    <t>Fecha:</t>
+  </si>
+  <si>
+    <t>Tipo Receta</t>
+  </si>
+  <si>
+    <t>Venta Total</t>
+  </si>
+  <si>
+    <t>del:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">al: </t>
+  </si>
+  <si>
+    <t>Menú Semanal</t>
+  </si>
+  <si>
+    <t>COMENTARIOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="7">
+  <numFmts count="5">
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="[$$-80A]#,##0.00"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,8 +725,44 @@
       <name val="Californian FB"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -807,8 +859,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1322,13 +1380,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="358">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1780,162 +1929,9 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="16" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1946,22 +1942,9 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2053,131 +2036,495 @@
     <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="16" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2299,40 +2646,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2383,10 +2709,38 @@
     <xf numFmtId="0" fontId="16" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2410,6 +2764,11 @@
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2656,6 +3015,69 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="1657350" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16CB015A-FE7E-42B1-AAE4-AD8875A11E64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="9804" b="88889" l="5863" r="94463"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="9680" b="8034"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1657350" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3143,586 +3565,1992 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="349"/>
+      <c r="B1" s="349"/>
+      <c r="C1" s="349"/>
+      <c r="D1" s="349"/>
+      <c r="E1" s="349"/>
+      <c r="F1" s="349"/>
+      <c r="G1" s="349"/>
+      <c r="H1" s="349"/>
+      <c r="I1" s="349"/>
+      <c r="J1" s="349"/>
+      <c r="K1" s="349"/>
+      <c r="L1" s="349"/>
+      <c r="M1" s="349"/>
+      <c r="N1" s="349"/>
+    </row>
+    <row r="2" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="349"/>
+      <c r="B2" s="349"/>
+      <c r="C2" s="349"/>
+      <c r="D2" s="349"/>
+      <c r="E2" s="349"/>
+      <c r="F2" s="349"/>
+      <c r="G2" s="349"/>
+      <c r="H2" s="349"/>
+      <c r="I2" s="349"/>
+      <c r="J2" s="349"/>
+      <c r="K2" s="349"/>
+      <c r="L2" s="349"/>
+      <c r="M2" s="349"/>
+      <c r="N2" s="349"/>
+    </row>
+    <row r="3" spans="1:16" s="120" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="121"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+    </row>
+    <row r="4" spans="1:16" ht="55.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="343"/>
+      <c r="C4" s="343"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="127" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="334" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="334"/>
+      <c r="J4" s="334"/>
+      <c r="K4" s="128" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="129" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="130" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="108"/>
+    </row>
+    <row r="5" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="344" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="335"/>
+      <c r="I5" s="336"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="102"/>
+    </row>
+    <row r="6" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="345"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="106"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="131" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="127" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="337" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="338"/>
+      <c r="J6" s="338"/>
+      <c r="K6" s="338"/>
+      <c r="L6" s="339"/>
+      <c r="M6" s="346" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="347"/>
+    </row>
+    <row r="7" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="123" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="124" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="110"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="340"/>
+      <c r="I7" s="341"/>
+      <c r="J7" s="341"/>
+      <c r="K7" s="341"/>
+      <c r="L7" s="342"/>
+      <c r="M7" s="348"/>
+      <c r="N7" s="348"/>
+    </row>
+    <row r="8" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="135"/>
+      <c r="B8" s="173"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+    </row>
+    <row r="9" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="183"/>
+      <c r="B9" s="174"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="331" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="332"/>
+      <c r="H9" s="332"/>
+      <c r="I9" s="332"/>
+      <c r="J9" s="332"/>
+      <c r="K9" s="333"/>
+      <c r="L9" s="331" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" s="332"/>
+      <c r="N9" s="333"/>
+    </row>
+    <row r="10" spans="1:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="183"/>
+      <c r="B10" s="174"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="329"/>
+      <c r="G10" s="329"/>
+      <c r="H10" s="329"/>
+      <c r="I10" s="329"/>
+      <c r="J10" s="329"/>
+      <c r="K10" s="329"/>
+      <c r="L10" s="330"/>
+      <c r="M10" s="330"/>
+      <c r="N10" s="330"/>
+    </row>
+    <row r="11" spans="1:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="183"/>
+      <c r="B11" s="174"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="329"/>
+      <c r="G11" s="329"/>
+      <c r="H11" s="329"/>
+      <c r="I11" s="329"/>
+      <c r="J11" s="329"/>
+      <c r="K11" s="329"/>
+      <c r="L11" s="330"/>
+      <c r="M11" s="330"/>
+      <c r="N11" s="330"/>
+    </row>
+    <row r="12" spans="1:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="183"/>
+      <c r="B12" s="174"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="329"/>
+      <c r="G12" s="329"/>
+      <c r="H12" s="329"/>
+      <c r="I12" s="329"/>
+      <c r="J12" s="329"/>
+      <c r="K12" s="329"/>
+      <c r="L12" s="330"/>
+      <c r="M12" s="330"/>
+      <c r="N12" s="330"/>
+    </row>
+    <row r="13" spans="1:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="183"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="329"/>
+      <c r="G13" s="329"/>
+      <c r="H13" s="329"/>
+      <c r="I13" s="329"/>
+      <c r="J13" s="329"/>
+      <c r="K13" s="329"/>
+      <c r="L13" s="330"/>
+      <c r="M13" s="330"/>
+      <c r="N13" s="330"/>
+    </row>
+    <row r="14" spans="1:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="183"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="329"/>
+      <c r="G14" s="329"/>
+      <c r="H14" s="329"/>
+      <c r="I14" s="329"/>
+      <c r="J14" s="329"/>
+      <c r="K14" s="329"/>
+      <c r="L14" s="330"/>
+      <c r="M14" s="330"/>
+      <c r="N14" s="330"/>
+    </row>
+    <row r="15" spans="1:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="183"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="329"/>
+      <c r="G15" s="329"/>
+      <c r="H15" s="329"/>
+      <c r="I15" s="329"/>
+      <c r="J15" s="329"/>
+      <c r="K15" s="329"/>
+      <c r="L15" s="330"/>
+      <c r="M15" s="330"/>
+      <c r="N15" s="330"/>
+    </row>
+    <row r="16" spans="1:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="183"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="329"/>
+      <c r="G16" s="329"/>
+      <c r="H16" s="329"/>
+      <c r="I16" s="329"/>
+      <c r="J16" s="329"/>
+      <c r="K16" s="329"/>
+      <c r="L16" s="330"/>
+      <c r="M16" s="330"/>
+      <c r="N16" s="330"/>
+    </row>
+    <row r="17" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="183"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="329"/>
+      <c r="G17" s="329"/>
+      <c r="H17" s="329"/>
+      <c r="I17" s="329"/>
+      <c r="J17" s="329"/>
+      <c r="K17" s="329"/>
+      <c r="L17" s="330"/>
+      <c r="M17" s="330"/>
+      <c r="N17" s="330"/>
+    </row>
+    <row r="18" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="184"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="329"/>
+      <c r="G18" s="329"/>
+      <c r="H18" s="329"/>
+      <c r="I18" s="329"/>
+      <c r="J18" s="329"/>
+      <c r="K18" s="329"/>
+      <c r="L18" s="330"/>
+      <c r="M18" s="330"/>
+      <c r="N18" s="330"/>
+    </row>
+    <row r="19" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="184"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="329"/>
+      <c r="G19" s="329"/>
+      <c r="H19" s="329"/>
+      <c r="I19" s="329"/>
+      <c r="J19" s="329"/>
+      <c r="K19" s="329"/>
+      <c r="L19" s="330"/>
+      <c r="M19" s="330"/>
+      <c r="N19" s="330"/>
+    </row>
+    <row r="20" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="184"/>
+      <c r="B20" s="174"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="329"/>
+      <c r="G20" s="329"/>
+      <c r="H20" s="329"/>
+      <c r="I20" s="329"/>
+      <c r="J20" s="329"/>
+      <c r="K20" s="329"/>
+      <c r="L20" s="330"/>
+      <c r="M20" s="330"/>
+      <c r="N20" s="330"/>
+    </row>
+    <row r="21" spans="1:14" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="132" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="112"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="329"/>
+      <c r="G21" s="329"/>
+      <c r="H21" s="329"/>
+      <c r="I21" s="329"/>
+      <c r="J21" s="329"/>
+      <c r="K21" s="329"/>
+      <c r="L21" s="330"/>
+      <c r="M21" s="330"/>
+      <c r="N21" s="330"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="F10:K21"/>
+    <mergeCell ref="L10:N21"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="L9:N9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A68DDF-C34E-46BB-9021-F98EEE12CB45}">
+  <dimension ref="A1:H109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="350" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="350"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="224"/>
+      <c r="B2" s="224"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+    </row>
+    <row r="3" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="178" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="353"/>
+      <c r="C3" s="178" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="354"/>
+      <c r="E3" s="354"/>
+      <c r="F3" s="354"/>
+    </row>
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="178"/>
+      <c r="B4" s="182"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="182"/>
+    </row>
+    <row r="5" spans="1:7" s="179" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="181" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="351"/>
+      <c r="C5" s="351"/>
+      <c r="D5" s="352"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="227" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="228" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="228" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="228" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="227" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="227" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="232"/>
+      <c r="B7" s="233"/>
+      <c r="C7" s="232"/>
+      <c r="D7" s="232"/>
+      <c r="E7" s="234"/>
+      <c r="F7" s="235"/>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="232"/>
+      <c r="B8" s="233"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="232"/>
+      <c r="E8" s="234"/>
+      <c r="F8" s="234"/>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="232"/>
+      <c r="B9" s="233"/>
+      <c r="C9" s="232"/>
+      <c r="D9" s="232"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
+    </row>
+    <row r="10" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="232"/>
+      <c r="B10" s="233"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="232"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
+    </row>
+    <row r="11" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="232"/>
+      <c r="B11" s="233"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="232"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="234"/>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="232"/>
+      <c r="B12" s="233"/>
+      <c r="C12" s="232"/>
+      <c r="D12" s="232"/>
+      <c r="E12" s="234"/>
+      <c r="F12" s="234"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="232"/>
+      <c r="B13" s="233"/>
+      <c r="C13" s="232"/>
+      <c r="D13" s="232"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="234"/>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="232"/>
+      <c r="B14" s="233"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="232"/>
+      <c r="E14" s="234"/>
+      <c r="F14" s="234"/>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="232"/>
+      <c r="B15" s="233"/>
+      <c r="C15" s="232"/>
+      <c r="D15" s="232"/>
+      <c r="E15" s="234"/>
+      <c r="F15" s="234"/>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="232"/>
+      <c r="B16" s="233"/>
+      <c r="C16" s="232"/>
+      <c r="D16" s="232"/>
+      <c r="E16" s="234"/>
+      <c r="F16" s="234"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="232"/>
+      <c r="B17" s="233"/>
+      <c r="C17" s="232"/>
+      <c r="D17" s="232"/>
+      <c r="E17" s="234"/>
+      <c r="F17" s="234"/>
+      <c r="H17" s="179"/>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="232"/>
+      <c r="B18" s="233"/>
+      <c r="C18" s="232"/>
+      <c r="D18" s="232"/>
+      <c r="E18" s="234"/>
+      <c r="F18" s="234"/>
+    </row>
+    <row r="19" spans="1:8" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E19" s="180" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="231">
+        <f>SUM(F7,F8,F9,F10,F11,F12,F13,F14,F15,F16,F17,F18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:8" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="181" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="355"/>
+      <c r="C21" s="356"/>
+      <c r="D21" s="357"/>
+      <c r="E21" s="226"/>
+    </row>
+    <row r="22" spans="1:8" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="227" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="228" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="228" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="228" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="227" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="227" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="232"/>
+      <c r="D23" s="232"/>
+      <c r="E23" s="234"/>
+      <c r="F23" s="235"/>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="232"/>
+      <c r="B24" s="233"/>
+      <c r="C24" s="232"/>
+      <c r="D24" s="232"/>
+      <c r="E24" s="234"/>
+      <c r="F24" s="234"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="232"/>
+      <c r="B25" s="233"/>
+      <c r="C25" s="232"/>
+      <c r="D25" s="232"/>
+      <c r="E25" s="234"/>
+      <c r="F25" s="234"/>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="232"/>
+      <c r="B26" s="233"/>
+      <c r="C26" s="232"/>
+      <c r="D26" s="232"/>
+      <c r="E26" s="234"/>
+      <c r="F26" s="234"/>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="232"/>
+      <c r="B27" s="233"/>
+      <c r="C27" s="232"/>
+      <c r="D27" s="232"/>
+      <c r="E27" s="234"/>
+      <c r="F27" s="234"/>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="232"/>
+      <c r="B28" s="233"/>
+      <c r="C28" s="232"/>
+      <c r="D28" s="232"/>
+      <c r="E28" s="234"/>
+      <c r="F28" s="234"/>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="232"/>
+      <c r="B29" s="233"/>
+      <c r="C29" s="232"/>
+      <c r="D29" s="232"/>
+      <c r="E29" s="234"/>
+      <c r="F29" s="234"/>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="232"/>
+      <c r="B30" s="233"/>
+      <c r="C30" s="232"/>
+      <c r="D30" s="232"/>
+      <c r="E30" s="234"/>
+      <c r="F30" s="234"/>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="232"/>
+      <c r="B31" s="233"/>
+      <c r="C31" s="232"/>
+      <c r="D31" s="232"/>
+      <c r="E31" s="234"/>
+      <c r="F31" s="234"/>
+    </row>
+    <row r="32" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="232"/>
+      <c r="B32" s="233"/>
+      <c r="C32" s="232"/>
+      <c r="D32" s="232"/>
+      <c r="E32" s="234"/>
+      <c r="F32" s="234"/>
+    </row>
+    <row r="33" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="232"/>
+      <c r="B33" s="233"/>
+      <c r="C33" s="232"/>
+      <c r="D33" s="232"/>
+      <c r="E33" s="234"/>
+      <c r="F33" s="234"/>
+    </row>
+    <row r="34" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="232"/>
+      <c r="B34" s="233"/>
+      <c r="C34" s="232"/>
+      <c r="D34" s="232"/>
+      <c r="E34" s="234"/>
+      <c r="F34" s="234"/>
+    </row>
+    <row r="35" spans="1:6" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="230"/>
+      <c r="B35" s="230"/>
+      <c r="C35" s="230"/>
+      <c r="D35" s="230"/>
+      <c r="E35" s="180" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="231">
+        <f>SUM(F23,F24,F25,F26,F27,F28,F29,F30,F31,F32,F33,F34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="181" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="355"/>
+      <c r="C37" s="356"/>
+      <c r="D37" s="356"/>
+      <c r="E37" s="226"/>
+    </row>
+    <row r="38" spans="1:6" ht="43.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="227" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="227" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="227" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="227" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="227" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="227" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="232"/>
+      <c r="B39" s="233"/>
+      <c r="C39" s="232"/>
+      <c r="D39" s="232"/>
+      <c r="E39" s="234"/>
+      <c r="F39" s="235"/>
+    </row>
+    <row r="40" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="232"/>
+      <c r="B40" s="233"/>
+      <c r="C40" s="232"/>
+      <c r="D40" s="232"/>
+      <c r="E40" s="234"/>
+      <c r="F40" s="234"/>
+    </row>
+    <row r="41" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="232"/>
+      <c r="B41" s="233"/>
+      <c r="C41" s="232"/>
+      <c r="D41" s="232"/>
+      <c r="E41" s="234"/>
+      <c r="F41" s="234"/>
+    </row>
+    <row r="42" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="232"/>
+      <c r="B42" s="233"/>
+      <c r="C42" s="232"/>
+      <c r="D42" s="232"/>
+      <c r="E42" s="234"/>
+      <c r="F42" s="234"/>
+    </row>
+    <row r="43" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="232"/>
+      <c r="B43" s="233"/>
+      <c r="C43" s="232"/>
+      <c r="D43" s="232"/>
+      <c r="E43" s="234"/>
+      <c r="F43" s="234"/>
+    </row>
+    <row r="44" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="232"/>
+      <c r="B44" s="233"/>
+      <c r="C44" s="232"/>
+      <c r="D44" s="232"/>
+      <c r="E44" s="234"/>
+      <c r="F44" s="234"/>
+    </row>
+    <row r="45" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="232"/>
+      <c r="B45" s="233"/>
+      <c r="C45" s="232"/>
+      <c r="D45" s="232"/>
+      <c r="E45" s="234"/>
+      <c r="F45" s="234"/>
+    </row>
+    <row r="46" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="232"/>
+      <c r="B46" s="233"/>
+      <c r="C46" s="232"/>
+      <c r="D46" s="232"/>
+      <c r="E46" s="234"/>
+      <c r="F46" s="234"/>
+    </row>
+    <row r="47" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="232"/>
+      <c r="B47" s="233"/>
+      <c r="C47" s="232"/>
+      <c r="D47" s="232"/>
+      <c r="E47" s="234"/>
+      <c r="F47" s="234"/>
+    </row>
+    <row r="48" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="232"/>
+      <c r="B48" s="233"/>
+      <c r="C48" s="232"/>
+      <c r="D48" s="232"/>
+      <c r="E48" s="234"/>
+      <c r="F48" s="234"/>
+    </row>
+    <row r="49" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="232"/>
+      <c r="B49" s="233"/>
+      <c r="C49" s="232"/>
+      <c r="D49" s="232"/>
+      <c r="E49" s="234"/>
+      <c r="F49" s="234"/>
+    </row>
+    <row r="50" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="232"/>
+      <c r="B50" s="233"/>
+      <c r="C50" s="232"/>
+      <c r="D50" s="232"/>
+      <c r="E50" s="234"/>
+      <c r="F50" s="234"/>
+    </row>
+    <row r="51" spans="1:6" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E51" s="180" t="s">
+        <v>127</v>
+      </c>
+      <c r="F51" s="231">
+        <f>SUM(F39,F40,F41,F42,F43,F44,F45,F46,F47,F48,F49,F50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="181" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="355"/>
+      <c r="C53" s="356"/>
+      <c r="D53" s="356"/>
+      <c r="E53" s="226"/>
+    </row>
+    <row r="54" spans="1:6" s="229" customFormat="1" ht="43.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="227" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="227" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="227" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="227" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="227" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="227" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="232"/>
+      <c r="B55" s="233"/>
+      <c r="C55" s="232"/>
+      <c r="D55" s="232"/>
+      <c r="E55" s="234"/>
+      <c r="F55" s="235"/>
+    </row>
+    <row r="56" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="232"/>
+      <c r="B56" s="233"/>
+      <c r="C56" s="232"/>
+      <c r="D56" s="232"/>
+      <c r="E56" s="234"/>
+      <c r="F56" s="234"/>
+    </row>
+    <row r="57" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="232"/>
+      <c r="B57" s="233"/>
+      <c r="C57" s="232"/>
+      <c r="D57" s="232"/>
+      <c r="E57" s="234"/>
+      <c r="F57" s="234"/>
+    </row>
+    <row r="58" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="232"/>
+      <c r="B58" s="233"/>
+      <c r="C58" s="232"/>
+      <c r="D58" s="232"/>
+      <c r="E58" s="234"/>
+      <c r="F58" s="234"/>
+    </row>
+    <row r="59" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="232"/>
+      <c r="B59" s="233"/>
+      <c r="C59" s="232"/>
+      <c r="D59" s="232"/>
+      <c r="E59" s="234"/>
+      <c r="F59" s="234"/>
+    </row>
+    <row r="60" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="232"/>
+      <c r="B60" s="233"/>
+      <c r="C60" s="232"/>
+      <c r="D60" s="232"/>
+      <c r="E60" s="234"/>
+      <c r="F60" s="234"/>
+    </row>
+    <row r="61" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="232"/>
+      <c r="B61" s="233"/>
+      <c r="C61" s="232"/>
+      <c r="D61" s="232"/>
+      <c r="E61" s="234"/>
+      <c r="F61" s="234"/>
+    </row>
+    <row r="62" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="232"/>
+      <c r="B62" s="233"/>
+      <c r="C62" s="232"/>
+      <c r="D62" s="232"/>
+      <c r="E62" s="234"/>
+      <c r="F62" s="234"/>
+    </row>
+    <row r="63" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="232"/>
+      <c r="B63" s="233"/>
+      <c r="C63" s="232"/>
+      <c r="D63" s="232"/>
+      <c r="E63" s="234"/>
+      <c r="F63" s="234"/>
+    </row>
+    <row r="64" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="232"/>
+      <c r="B64" s="233"/>
+      <c r="C64" s="232"/>
+      <c r="D64" s="232"/>
+      <c r="E64" s="234"/>
+      <c r="F64" s="234"/>
+    </row>
+    <row r="65" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="232"/>
+      <c r="B65" s="233"/>
+      <c r="C65" s="232"/>
+      <c r="D65" s="232"/>
+      <c r="E65" s="234"/>
+      <c r="F65" s="234"/>
+    </row>
+    <row r="66" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="232"/>
+      <c r="B66" s="233"/>
+      <c r="C66" s="232"/>
+      <c r="D66" s="232"/>
+      <c r="E66" s="234"/>
+      <c r="F66" s="234"/>
+    </row>
+    <row r="67" spans="1:6" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E67" s="180" t="s">
+        <v>127</v>
+      </c>
+      <c r="F67" s="231">
+        <f>SUM(F55,F56,F57,F58,F59,F60,F61,F62,F63,F64,F65,F66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="225" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="355"/>
+      <c r="C69" s="356"/>
+      <c r="D69" s="357"/>
+    </row>
+    <row r="70" spans="1:6" s="229" customFormat="1" ht="43.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="227" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="227" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="227" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" s="227" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="227" t="s">
+        <v>124</v>
+      </c>
+      <c r="F70" s="227" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="232"/>
+      <c r="B71" s="233"/>
+      <c r="C71" s="232"/>
+      <c r="D71" s="232"/>
+      <c r="E71" s="234"/>
+      <c r="F71" s="235"/>
+    </row>
+    <row r="72" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="232"/>
+      <c r="B72" s="233"/>
+      <c r="C72" s="232"/>
+      <c r="D72" s="232"/>
+      <c r="E72" s="234"/>
+      <c r="F72" s="234"/>
+    </row>
+    <row r="73" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="232"/>
+      <c r="B73" s="233"/>
+      <c r="C73" s="232"/>
+      <c r="D73" s="232"/>
+      <c r="E73" s="234"/>
+      <c r="F73" s="234"/>
+    </row>
+    <row r="74" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="232"/>
+      <c r="B74" s="233"/>
+      <c r="C74" s="232"/>
+      <c r="D74" s="232"/>
+      <c r="E74" s="234"/>
+      <c r="F74" s="234"/>
+    </row>
+    <row r="75" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="232"/>
+      <c r="B75" s="233"/>
+      <c r="C75" s="232"/>
+      <c r="D75" s="232"/>
+      <c r="E75" s="234"/>
+      <c r="F75" s="234"/>
+    </row>
+    <row r="76" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="232"/>
+      <c r="B76" s="233"/>
+      <c r="C76" s="232"/>
+      <c r="D76" s="232"/>
+      <c r="E76" s="234"/>
+      <c r="F76" s="234"/>
+    </row>
+    <row r="77" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="232"/>
+      <c r="B77" s="233"/>
+      <c r="C77" s="232"/>
+      <c r="D77" s="232"/>
+      <c r="E77" s="234"/>
+      <c r="F77" s="234"/>
+    </row>
+    <row r="78" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="232"/>
+      <c r="B78" s="233"/>
+      <c r="C78" s="232"/>
+      <c r="D78" s="232"/>
+      <c r="E78" s="234"/>
+      <c r="F78" s="234"/>
+    </row>
+    <row r="79" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="232"/>
+      <c r="B79" s="233"/>
+      <c r="C79" s="232"/>
+      <c r="D79" s="232"/>
+      <c r="E79" s="234"/>
+      <c r="F79" s="234"/>
+    </row>
+    <row r="80" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="232"/>
+      <c r="B80" s="233"/>
+      <c r="C80" s="232"/>
+      <c r="D80" s="232"/>
+      <c r="E80" s="234"/>
+      <c r="F80" s="234"/>
+    </row>
+    <row r="81" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="232"/>
+      <c r="B81" s="233"/>
+      <c r="C81" s="232"/>
+      <c r="D81" s="232"/>
+      <c r="E81" s="234"/>
+      <c r="F81" s="234"/>
+    </row>
+    <row r="82" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="232"/>
+      <c r="B82" s="233"/>
+      <c r="C82" s="232"/>
+      <c r="D82" s="232"/>
+      <c r="E82" s="234"/>
+      <c r="F82" s="234"/>
+    </row>
+    <row r="83" spans="1:6" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E83" s="180" t="s">
+        <v>127</v>
+      </c>
+      <c r="F83" s="231">
+        <f>SUM(F71,F72,F73,F74,F75,F76,F77,F78,F79,F80,F81,F82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="181" t="s">
+        <v>125</v>
+      </c>
+      <c r="B85" s="355"/>
+      <c r="C85" s="356"/>
+      <c r="D85" s="356"/>
+      <c r="E85" s="226"/>
+    </row>
+    <row r="86" spans="1:6" s="229" customFormat="1" ht="43.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="227" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86" s="227" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" s="227" t="s">
+        <v>100</v>
+      </c>
+      <c r="D86" s="227" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="227" t="s">
+        <v>124</v>
+      </c>
+      <c r="F86" s="227" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="232"/>
+      <c r="B87" s="233"/>
+      <c r="C87" s="232"/>
+      <c r="D87" s="232"/>
+      <c r="E87" s="234"/>
+      <c r="F87" s="235"/>
+    </row>
+    <row r="88" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="232"/>
+      <c r="B88" s="233"/>
+      <c r="C88" s="232"/>
+      <c r="D88" s="232"/>
+      <c r="E88" s="234"/>
+      <c r="F88" s="234"/>
+    </row>
+    <row r="89" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="232"/>
+      <c r="B89" s="233"/>
+      <c r="C89" s="232"/>
+      <c r="D89" s="232"/>
+      <c r="E89" s="234"/>
+      <c r="F89" s="234"/>
+    </row>
+    <row r="90" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="232"/>
+      <c r="B90" s="233"/>
+      <c r="C90" s="232"/>
+      <c r="D90" s="232"/>
+      <c r="E90" s="234"/>
+      <c r="F90" s="234"/>
+    </row>
+    <row r="91" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="232"/>
+      <c r="B91" s="233"/>
+      <c r="C91" s="232"/>
+      <c r="D91" s="232"/>
+      <c r="E91" s="234"/>
+      <c r="F91" s="234"/>
+    </row>
+    <row r="92" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="232"/>
+      <c r="B92" s="233"/>
+      <c r="C92" s="232"/>
+      <c r="D92" s="232"/>
+      <c r="E92" s="234"/>
+      <c r="F92" s="234"/>
+    </row>
+    <row r="93" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="232"/>
+      <c r="B93" s="233"/>
+      <c r="C93" s="232"/>
+      <c r="D93" s="232"/>
+      <c r="E93" s="234"/>
+      <c r="F93" s="234"/>
+    </row>
+    <row r="94" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="232"/>
+      <c r="B94" s="233"/>
+      <c r="C94" s="232"/>
+      <c r="D94" s="232"/>
+      <c r="E94" s="234"/>
+      <c r="F94" s="234"/>
+    </row>
+    <row r="95" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="232"/>
+      <c r="B95" s="233"/>
+      <c r="C95" s="232"/>
+      <c r="D95" s="232"/>
+      <c r="E95" s="234"/>
+      <c r="F95" s="234"/>
+    </row>
+    <row r="96" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="232"/>
+      <c r="B96" s="233"/>
+      <c r="C96" s="232"/>
+      <c r="D96" s="232"/>
+      <c r="E96" s="234"/>
+      <c r="F96" s="234"/>
+    </row>
+    <row r="97" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="232"/>
+      <c r="B97" s="233"/>
+      <c r="C97" s="232"/>
+      <c r="D97" s="232"/>
+      <c r="E97" s="234"/>
+      <c r="F97" s="234"/>
+    </row>
+    <row r="98" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="232"/>
+      <c r="B98" s="233"/>
+      <c r="C98" s="232"/>
+      <c r="D98" s="232"/>
+      <c r="E98" s="234"/>
+      <c r="F98" s="234"/>
+    </row>
+    <row r="99" spans="1:6" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E99" s="180" t="s">
+        <v>127</v>
+      </c>
+      <c r="F99" s="231">
+        <f>SUM(F87,F88,F89,F90,F91,F92,F93,F94,F95,F96,F97,F98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="181" t="s">
+        <v>125</v>
+      </c>
+      <c r="B101" s="355"/>
+      <c r="C101" s="356"/>
+      <c r="D101" s="357"/>
+    </row>
+    <row r="102" spans="1:6" s="229" customFormat="1" ht="43.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="227" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102" s="227" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102" s="227" t="s">
+        <v>100</v>
+      </c>
+      <c r="D102" s="227" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="227" t="s">
+        <v>124</v>
+      </c>
+      <c r="F102" s="227" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="232"/>
+      <c r="B103" s="233"/>
+      <c r="C103" s="232"/>
+      <c r="D103" s="232"/>
+      <c r="E103" s="234"/>
+      <c r="F103" s="235"/>
+    </row>
+    <row r="104" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="232"/>
+      <c r="B104" s="233"/>
+      <c r="C104" s="232"/>
+      <c r="D104" s="232"/>
+      <c r="E104" s="234"/>
+      <c r="F104" s="234"/>
+    </row>
+    <row r="105" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="232"/>
+      <c r="B105" s="233"/>
+      <c r="C105" s="232"/>
+      <c r="D105" s="232"/>
+      <c r="E105" s="234"/>
+      <c r="F105" s="234"/>
+    </row>
+    <row r="106" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="232"/>
+      <c r="B106" s="233"/>
+      <c r="C106" s="232"/>
+      <c r="D106" s="232"/>
+      <c r="E106" s="234"/>
+      <c r="F106" s="234"/>
+    </row>
+    <row r="107" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="232"/>
+      <c r="B107" s="233"/>
+      <c r="C107" s="232"/>
+      <c r="D107" s="232"/>
+      <c r="E107" s="234"/>
+      <c r="F107" s="234"/>
+    </row>
+    <row r="108" spans="1:6" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E108" s="180" t="s">
+        <v>127</v>
+      </c>
+      <c r="F108" s="231">
+        <f>SUM(F103,F104,F105,F106,F107)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B37:D37"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="1.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="4" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="4"/>
+    <col min="8" max="8" width="10.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="4" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="4"/>
+    <col min="12" max="12" width="16.140625" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="229" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="108"/>
+    <row r="1" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="258" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="258"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="258"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="258"/>
+      <c r="L1" s="258"/>
+      <c r="M1" s="185"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="108"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="108"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="I3" s="168" t="s">
+      <c r="A2" s="186"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="185"/>
+    </row>
+    <row r="3" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="185"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="I3" s="187" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="231"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-    </row>
-    <row r="4" spans="1:13" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="163" t="s">
+      <c r="J3" s="259"/>
+      <c r="K3" s="260"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+    </row>
+    <row r="4" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="188" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="230"/>
-      <c r="C4" s="230"/>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="108"/>
+      <c r="B4" s="261"/>
+      <c r="C4" s="262"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="189"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="190"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="190"/>
+      <c r="L4" s="190"/>
+      <c r="M4" s="185"/>
     </row>
     <row r="5" spans="1:13" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="164" t="s">
+      <c r="A5" s="193" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="230"/>
-      <c r="C5" s="230"/>
-      <c r="D5" s="230"/>
-      <c r="E5" s="230"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="233" t="s">
+      <c r="B5" s="264"/>
+      <c r="C5" s="265"/>
+      <c r="D5" s="266"/>
+      <c r="E5" s="194"/>
+      <c r="G5" s="267" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="268"/>
+      <c r="J5" s="190"/>
+      <c r="K5" s="190"/>
+      <c r="L5" s="190"/>
+      <c r="M5" s="185"/>
+    </row>
+    <row r="6" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="241" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="242"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="195" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="196" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="197"/>
+      <c r="G6" s="198" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="199" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="190"/>
+      <c r="K6" s="190"/>
+      <c r="L6" s="190"/>
+      <c r="M6" s="185"/>
+    </row>
+    <row r="7" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="244"/>
+      <c r="B7" s="245"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="202"/>
+      <c r="J7" s="190"/>
+      <c r="K7" s="190"/>
+      <c r="L7" s="190"/>
+      <c r="M7" s="185"/>
+    </row>
+    <row r="8" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="247" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="248"/>
+      <c r="C8" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="234"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="108"/>
-    </row>
-    <row r="6" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="247" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="248"/>
-      <c r="C6" s="249" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="250"/>
-      <c r="E6" s="157" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="152"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="136" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" s="153" t="s">
+      <c r="D8" s="251" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="236" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="204"/>
+      <c r="I8" s="205" t="s">
         <v>106</v>
       </c>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="108"/>
-    </row>
-    <row r="7" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="135" t="s">
+      <c r="J8" s="206" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="161"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="133"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="108"/>
-    </row>
-    <row r="8" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="158" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="159" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="156" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="256" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="257" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="134"/>
-      <c r="I8" s="171" t="s">
-        <v>110</v>
-      </c>
-      <c r="J8" s="169" t="s">
-        <v>95</v>
-      </c>
-      <c r="K8" s="170"/>
-      <c r="L8" s="133"/>
-      <c r="M8" s="108"/>
+      <c r="K8" s="207"/>
+      <c r="L8" s="190"/>
+      <c r="M8" s="185"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="154">
-        <v>16</v>
-      </c>
-      <c r="B9" s="155">
+      <c r="A9" s="249">
         <v>1</v>
       </c>
-      <c r="C9" s="137">
+      <c r="B9" s="250"/>
+      <c r="C9" s="208">
         <f>C7*1/A9</f>
         <v>0</v>
       </c>
-      <c r="D9" s="256"/>
-      <c r="E9" s="257"/>
-      <c r="F9" s="134"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="108"/>
+      <c r="D9" s="251"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="204"/>
+      <c r="I9" s="190"/>
+      <c r="J9" s="190"/>
+      <c r="K9" s="190"/>
+      <c r="L9" s="190"/>
+      <c r="M9" s="185"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="139"/>
-      <c r="B10" s="139"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="255" t="s">
-        <v>111</v>
-      </c>
-      <c r="J10" s="133" t="s">
+      <c r="A10" s="256"/>
+      <c r="B10" s="257"/>
+      <c r="C10" s="209"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="253" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" s="190" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133"/>
-      <c r="M10" s="108"/>
+      <c r="K10" s="190"/>
+      <c r="L10" s="190"/>
+      <c r="M10" s="185"/>
     </row>
     <row r="11" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="143"/>
-      <c r="B11" s="143"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="255"/>
-      <c r="J11" s="173" t="s">
+      <c r="A11" s="254"/>
+      <c r="B11" s="255"/>
+      <c r="C11" s="212"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="214"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="253"/>
+      <c r="J11" s="215" t="s">
         <v>95</v>
       </c>
-      <c r="K11" s="174"/>
-      <c r="L11" s="133"/>
-      <c r="M11" s="108"/>
+      <c r="K11" s="216"/>
+      <c r="L11" s="190"/>
+      <c r="M11" s="185"/>
     </row>
     <row r="12" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="143"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="108"/>
+      <c r="A12" s="254"/>
+      <c r="B12" s="255"/>
+      <c r="C12" s="212"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="185"/>
     </row>
     <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="143"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="172" t="s">
-        <v>112</v>
-      </c>
-      <c r="J13" s="170"/>
-      <c r="K13" s="170"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="108"/>
-    </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="143"/>
-      <c r="B14" s="148"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="251"/>
-      <c r="J14" s="270"/>
-      <c r="K14" s="270"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="108"/>
-    </row>
-    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="143"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="251"/>
-      <c r="J15" s="270"/>
-      <c r="K15" s="270"/>
-      <c r="L15" s="133"/>
-      <c r="M15" s="108"/>
+      <c r="A13" s="254"/>
+      <c r="B13" s="255"/>
+      <c r="C13" s="212"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="217" t="s">
+        <v>108</v>
+      </c>
+      <c r="J13" s="207"/>
+      <c r="K13" s="207"/>
+      <c r="L13" s="190"/>
+      <c r="M13" s="185"/>
+    </row>
+    <row r="14" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="254"/>
+      <c r="B14" s="255"/>
+      <c r="C14" s="212"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="214"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="252"/>
+      <c r="J14" s="237"/>
+      <c r="K14" s="237"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="185"/>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="254"/>
+      <c r="B15" s="255"/>
+      <c r="C15" s="212"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="214"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="252"/>
+      <c r="J15" s="237"/>
+      <c r="K15" s="237"/>
+      <c r="L15" s="190"/>
+      <c r="M15" s="185"/>
     </row>
     <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="143"/>
-      <c r="B16" s="143"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="133"/>
-      <c r="M16" s="108"/>
+      <c r="A16" s="254"/>
+      <c r="B16" s="255"/>
+      <c r="C16" s="212"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="214"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="190"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="190"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="190"/>
+      <c r="L16" s="190"/>
+      <c r="M16" s="185"/>
     </row>
     <row r="17" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="143"/>
-      <c r="B17" s="148"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="258" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="259"/>
-      <c r="H17" s="259"/>
-      <c r="I17" s="259"/>
-      <c r="J17" s="259"/>
-      <c r="K17" s="259"/>
-      <c r="L17" s="260"/>
-      <c r="M17" s="108"/>
+      <c r="A17" s="254"/>
+      <c r="B17" s="255"/>
+      <c r="C17" s="212"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="238" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="239"/>
+      <c r="H17" s="239"/>
+      <c r="I17" s="240"/>
+      <c r="J17" s="238" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="239"/>
+      <c r="L17" s="240"/>
+      <c r="M17" s="185"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="143"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="261"/>
-      <c r="G18" s="262"/>
-      <c r="H18" s="262"/>
-      <c r="I18" s="262"/>
-      <c r="J18" s="262"/>
-      <c r="K18" s="262"/>
-      <c r="L18" s="263"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="143"/>
-      <c r="B19" s="149"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="264"/>
-      <c r="G19" s="265"/>
-      <c r="H19" s="265"/>
-      <c r="I19" s="265"/>
-      <c r="J19" s="265"/>
-      <c r="K19" s="265"/>
-      <c r="L19" s="266"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="149"/>
-      <c r="B20" s="149"/>
-      <c r="C20" s="150"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="264"/>
-      <c r="G20" s="265"/>
-      <c r="H20" s="265"/>
-      <c r="I20" s="265"/>
-      <c r="J20" s="265"/>
-      <c r="K20" s="265"/>
-      <c r="L20" s="266"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="149"/>
-      <c r="B21" s="149"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="264"/>
-      <c r="G21" s="265"/>
-      <c r="H21" s="265"/>
-      <c r="I21" s="265"/>
-      <c r="J21" s="265"/>
-      <c r="K21" s="265"/>
-      <c r="L21" s="266"/>
+      <c r="A18" s="254"/>
+      <c r="B18" s="255"/>
+      <c r="C18" s="212"/>
+      <c r="D18" s="213"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="275"/>
+      <c r="G18" s="276"/>
+      <c r="H18" s="276"/>
+      <c r="I18" s="277"/>
+      <c r="J18" s="269"/>
+      <c r="K18" s="269"/>
+      <c r="L18" s="270"/>
+    </row>
+    <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="254"/>
+      <c r="B19" s="255"/>
+      <c r="C19" s="212"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="278"/>
+      <c r="G19" s="279"/>
+      <c r="H19" s="279"/>
+      <c r="I19" s="280"/>
+      <c r="J19" s="271"/>
+      <c r="K19" s="271"/>
+      <c r="L19" s="272"/>
+    </row>
+    <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="254"/>
+      <c r="B20" s="255"/>
+      <c r="C20" s="212"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="218"/>
+      <c r="F20" s="278"/>
+      <c r="G20" s="279"/>
+      <c r="H20" s="279"/>
+      <c r="I20" s="280"/>
+      <c r="J20" s="271"/>
+      <c r="K20" s="271"/>
+      <c r="L20" s="272"/>
+    </row>
+    <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="254"/>
+      <c r="B21" s="255"/>
+      <c r="C21" s="212"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="218"/>
+      <c r="F21" s="278"/>
+      <c r="G21" s="279"/>
+      <c r="H21" s="279"/>
+      <c r="I21" s="280"/>
+      <c r="J21" s="271"/>
+      <c r="K21" s="271"/>
+      <c r="L21" s="272"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="149"/>
-      <c r="B22" s="149"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="264"/>
-      <c r="G22" s="265"/>
-      <c r="H22" s="265"/>
-      <c r="I22" s="265"/>
-      <c r="J22" s="265"/>
-      <c r="K22" s="265"/>
-      <c r="L22" s="266"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="149"/>
-      <c r="B23" s="149"/>
-      <c r="C23" s="150"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="264"/>
-      <c r="G23" s="265"/>
-      <c r="H23" s="265"/>
-      <c r="I23" s="265"/>
-      <c r="J23" s="265"/>
-      <c r="K23" s="265"/>
-      <c r="L23" s="266"/>
+      <c r="A22" s="254"/>
+      <c r="B22" s="255"/>
+      <c r="C22" s="212"/>
+      <c r="D22" s="213"/>
+      <c r="E22" s="218"/>
+      <c r="F22" s="278"/>
+      <c r="G22" s="279"/>
+      <c r="H22" s="279"/>
+      <c r="I22" s="280"/>
+      <c r="J22" s="271"/>
+      <c r="K22" s="271"/>
+      <c r="L22" s="272"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="254"/>
+      <c r="B23" s="255"/>
+      <c r="C23" s="212"/>
+      <c r="D23" s="213"/>
+      <c r="E23" s="219"/>
+      <c r="F23" s="278"/>
+      <c r="G23" s="279"/>
+      <c r="H23" s="279"/>
+      <c r="I23" s="280"/>
+      <c r="J23" s="271"/>
+      <c r="K23" s="271"/>
+      <c r="L23" s="272"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="151"/>
-      <c r="B24" s="184"/>
-      <c r="C24" s="185"/>
-      <c r="D24" s="186"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="267"/>
-      <c r="G24" s="268"/>
-      <c r="H24" s="268"/>
-      <c r="I24" s="268"/>
-      <c r="J24" s="268"/>
-      <c r="K24" s="268"/>
-      <c r="L24" s="269"/>
-    </row>
-    <row r="25" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="235" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="236"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="236"/>
-      <c r="E25" s="236"/>
-      <c r="F25" s="236"/>
-      <c r="G25" s="236"/>
-      <c r="H25" s="237"/>
-      <c r="I25" s="252" t="s">
-        <v>94</v>
-      </c>
-      <c r="J25" s="253"/>
-      <c r="K25" s="253"/>
-      <c r="L25" s="254"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="238"/>
-      <c r="B26" s="239"/>
-      <c r="C26" s="239"/>
-      <c r="D26" s="239"/>
-      <c r="E26" s="239"/>
-      <c r="F26" s="239"/>
-      <c r="G26" s="239"/>
-      <c r="H26" s="240"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="177"/>
-      <c r="K26" s="177"/>
-      <c r="L26" s="178"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="241"/>
-      <c r="B27" s="242"/>
-      <c r="C27" s="242"/>
-      <c r="D27" s="242"/>
-      <c r="E27" s="242"/>
-      <c r="F27" s="242"/>
-      <c r="G27" s="242"/>
-      <c r="H27" s="243"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="175"/>
-      <c r="K27" s="175"/>
-      <c r="L27" s="180"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="241"/>
-      <c r="B28" s="242"/>
-      <c r="C28" s="242"/>
-      <c r="D28" s="242"/>
-      <c r="E28" s="242"/>
-      <c r="F28" s="242"/>
-      <c r="G28" s="242"/>
-      <c r="H28" s="243"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="175"/>
-      <c r="L28" s="180"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="241"/>
-      <c r="B29" s="242"/>
-      <c r="C29" s="242"/>
-      <c r="D29" s="242"/>
-      <c r="E29" s="242"/>
-      <c r="F29" s="242"/>
-      <c r="G29" s="242"/>
-      <c r="H29" s="243"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="175"/>
-      <c r="L29" s="180"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="241"/>
-      <c r="B30" s="242"/>
-      <c r="C30" s="242"/>
-      <c r="D30" s="242"/>
-      <c r="E30" s="242"/>
-      <c r="F30" s="242"/>
-      <c r="G30" s="242"/>
-      <c r="H30" s="243"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="175"/>
-      <c r="K30" s="175"/>
-      <c r="L30" s="180"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="241"/>
-      <c r="B31" s="242"/>
-      <c r="C31" s="242"/>
-      <c r="D31" s="242"/>
-      <c r="E31" s="242"/>
-      <c r="F31" s="242"/>
-      <c r="G31" s="242"/>
-      <c r="H31" s="243"/>
-      <c r="I31" s="179"/>
-      <c r="J31" s="175"/>
-      <c r="K31" s="175"/>
-      <c r="L31" s="180"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="241"/>
-      <c r="B32" s="242"/>
-      <c r="C32" s="242"/>
-      <c r="D32" s="242"/>
-      <c r="E32" s="242"/>
-      <c r="F32" s="242"/>
-      <c r="G32" s="242"/>
-      <c r="H32" s="243"/>
-      <c r="I32" s="179"/>
-      <c r="J32" s="175"/>
-      <c r="K32" s="175"/>
-      <c r="L32" s="180"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="241"/>
-      <c r="B33" s="242"/>
-      <c r="C33" s="242"/>
-      <c r="D33" s="242"/>
-      <c r="E33" s="242"/>
-      <c r="F33" s="242"/>
-      <c r="G33" s="242"/>
-      <c r="H33" s="243"/>
-      <c r="I33" s="179"/>
-      <c r="J33" s="175"/>
-      <c r="K33" s="175"/>
-      <c r="L33" s="180"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="244"/>
-      <c r="B34" s="245"/>
-      <c r="C34" s="245"/>
-      <c r="D34" s="245"/>
-      <c r="E34" s="245"/>
-      <c r="F34" s="245"/>
-      <c r="G34" s="245"/>
-      <c r="H34" s="246"/>
-      <c r="I34" s="181"/>
-      <c r="J34" s="182"/>
-      <c r="K34" s="182"/>
-      <c r="L34" s="183"/>
+      <c r="A24" s="296"/>
+      <c r="B24" s="297"/>
+      <c r="C24" s="220"/>
+      <c r="D24" s="221"/>
+      <c r="E24" s="202"/>
+      <c r="F24" s="278"/>
+      <c r="G24" s="279"/>
+      <c r="H24" s="279"/>
+      <c r="I24" s="280"/>
+      <c r="J24" s="271"/>
+      <c r="K24" s="271"/>
+      <c r="L24" s="272"/>
+    </row>
+    <row r="25" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="284" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="285"/>
+      <c r="C25" s="285"/>
+      <c r="D25" s="286"/>
+      <c r="E25" s="222"/>
+      <c r="F25" s="278"/>
+      <c r="G25" s="279"/>
+      <c r="H25" s="279"/>
+      <c r="I25" s="280"/>
+      <c r="J25" s="271"/>
+      <c r="K25" s="271"/>
+      <c r="L25" s="272"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="287"/>
+      <c r="B26" s="288"/>
+      <c r="C26" s="288"/>
+      <c r="D26" s="289"/>
+      <c r="E26" s="223"/>
+      <c r="F26" s="278"/>
+      <c r="G26" s="279"/>
+      <c r="H26" s="279"/>
+      <c r="I26" s="280"/>
+      <c r="J26" s="271"/>
+      <c r="K26" s="271"/>
+      <c r="L26" s="272"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="290"/>
+      <c r="B27" s="291"/>
+      <c r="C27" s="291"/>
+      <c r="D27" s="292"/>
+      <c r="E27" s="223"/>
+      <c r="F27" s="278"/>
+      <c r="G27" s="279"/>
+      <c r="H27" s="279"/>
+      <c r="I27" s="280"/>
+      <c r="J27" s="271"/>
+      <c r="K27" s="271"/>
+      <c r="L27" s="272"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="290"/>
+      <c r="B28" s="291"/>
+      <c r="C28" s="291"/>
+      <c r="D28" s="292"/>
+      <c r="E28" s="223"/>
+      <c r="F28" s="278"/>
+      <c r="G28" s="279"/>
+      <c r="H28" s="279"/>
+      <c r="I28" s="280"/>
+      <c r="J28" s="271"/>
+      <c r="K28" s="271"/>
+      <c r="L28" s="272"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="290"/>
+      <c r="B29" s="291"/>
+      <c r="C29" s="291"/>
+      <c r="D29" s="292"/>
+      <c r="E29" s="223"/>
+      <c r="F29" s="278"/>
+      <c r="G29" s="279"/>
+      <c r="H29" s="279"/>
+      <c r="I29" s="280"/>
+      <c r="J29" s="271"/>
+      <c r="K29" s="271"/>
+      <c r="L29" s="272"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="290"/>
+      <c r="B30" s="291"/>
+      <c r="C30" s="291"/>
+      <c r="D30" s="292"/>
+      <c r="E30" s="223"/>
+      <c r="F30" s="278"/>
+      <c r="G30" s="279"/>
+      <c r="H30" s="279"/>
+      <c r="I30" s="280"/>
+      <c r="J30" s="271"/>
+      <c r="K30" s="271"/>
+      <c r="L30" s="272"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="290"/>
+      <c r="B31" s="291"/>
+      <c r="C31" s="291"/>
+      <c r="D31" s="292"/>
+      <c r="E31" s="223"/>
+      <c r="F31" s="278"/>
+      <c r="G31" s="279"/>
+      <c r="H31" s="279"/>
+      <c r="I31" s="280"/>
+      <c r="J31" s="271"/>
+      <c r="K31" s="271"/>
+      <c r="L31" s="272"/>
+    </row>
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="290"/>
+      <c r="B32" s="291"/>
+      <c r="C32" s="291"/>
+      <c r="D32" s="292"/>
+      <c r="E32" s="223"/>
+      <c r="F32" s="278"/>
+      <c r="G32" s="279"/>
+      <c r="H32" s="279"/>
+      <c r="I32" s="280"/>
+      <c r="J32" s="271"/>
+      <c r="K32" s="271"/>
+      <c r="L32" s="272"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="290"/>
+      <c r="B33" s="291"/>
+      <c r="C33" s="291"/>
+      <c r="D33" s="292"/>
+      <c r="E33" s="223"/>
+      <c r="F33" s="278"/>
+      <c r="G33" s="279"/>
+      <c r="H33" s="279"/>
+      <c r="I33" s="280"/>
+      <c r="J33" s="271"/>
+      <c r="K33" s="271"/>
+      <c r="L33" s="272"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="293"/>
+      <c r="B34" s="294"/>
+      <c r="C34" s="294"/>
+      <c r="D34" s="295"/>
+      <c r="E34" s="223"/>
+      <c r="F34" s="281"/>
+      <c r="G34" s="282"/>
+      <c r="H34" s="282"/>
+      <c r="I34" s="283"/>
+      <c r="J34" s="273"/>
+      <c r="K34" s="273"/>
+      <c r="L34" s="274"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H34"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
+  <mergeCells count="35">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="J18:L34"/>
+    <mergeCell ref="F18:I34"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D34"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="J14:K15"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I25:L25"/>
     <mergeCell ref="I10:I11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="F18:L24"/>
-    <mergeCell ref="J14:K15"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3750,45 +5578,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="272" t="s">
+      <c r="B1" s="299" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
+      <c r="C1" s="299"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="299"/>
+      <c r="F1" s="299"/>
       <c r="G1" s="66" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="66"/>
-      <c r="I1" s="273">
+      <c r="I1" s="300">
         <v>42491</v>
       </c>
-      <c r="J1" s="273"/>
+      <c r="J1" s="300"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
+      <c r="B2" s="299"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="299"/>
       <c r="G2" s="68" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="68"/>
-      <c r="I2" s="273">
+      <c r="I2" s="300">
         <v>42639</v>
       </c>
-      <c r="J2" s="273"/>
+      <c r="J2" s="300"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="271" t="s">
+      <c r="B3" s="298" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="298"/>
+      <c r="E3" s="298"/>
+      <c r="F3" s="298"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="65"/>
@@ -3937,1059 +5765,1059 @@
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="219" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="161" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="209" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="275" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="275"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="187"/>
+      <c r="B1" s="151" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="302" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="302"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="134"/>
     </row>
     <row r="2" spans="1:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="209"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="187"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="134"/>
     </row>
     <row r="3" spans="1:6" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="210" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="274" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="274"/>
-      <c r="E3" s="216"/>
-    </row>
-    <row r="4" spans="1:6" s="201" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="200" t="s">
+      <c r="B3" s="152" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="301" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="301"/>
+      <c r="E3" s="158"/>
+    </row>
+    <row r="4" spans="1:6" s="143" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="200" t="s">
+      <c r="B4" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="200" t="s">
+      <c r="C4" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="200"/>
-      <c r="E4" s="217" t="s">
+      <c r="D4" s="142"/>
+      <c r="E4" s="159" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="198"/>
-      <c r="B5" s="202"/>
-      <c r="C5" s="198"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="218"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="160"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="198"/>
-      <c r="B6" s="202"/>
-      <c r="C6" s="198"/>
-      <c r="D6" s="198"/>
-      <c r="E6" s="218"/>
+      <c r="A6" s="140"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="160"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="198"/>
-      <c r="B7" s="202"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198"/>
-      <c r="E7" s="218"/>
+      <c r="A7" s="140"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="160"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="198"/>
-      <c r="B8" s="202"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="198"/>
-      <c r="E8" s="218"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="160"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="198"/>
-      <c r="B9" s="202"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="198"/>
-      <c r="E9" s="218"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="160"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="198"/>
-      <c r="B10" s="202"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="218"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="160"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="198"/>
-      <c r="B11" s="202"/>
-      <c r="C11" s="198"/>
-      <c r="D11" s="198"/>
-      <c r="E11" s="218"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="160"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="198"/>
-      <c r="B12" s="202"/>
-      <c r="C12" s="198"/>
-      <c r="D12" s="198"/>
-      <c r="E12" s="218"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="160"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="198"/>
-      <c r="B13" s="202"/>
-      <c r="C13" s="198"/>
-      <c r="D13" s="198"/>
-      <c r="E13" s="218"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="160"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="198"/>
-      <c r="B14" s="202"/>
-      <c r="C14" s="198"/>
-      <c r="D14" s="198"/>
-      <c r="E14" s="218"/>
+      <c r="A14" s="140"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="160"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="198"/>
-      <c r="B15" s="202"/>
-      <c r="C15" s="198"/>
-      <c r="D15" s="198"/>
-      <c r="E15" s="218"/>
+      <c r="A15" s="140"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="160"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="198"/>
-      <c r="B16" s="202"/>
-      <c r="C16" s="198"/>
-      <c r="D16" s="198"/>
-      <c r="E16" s="218"/>
+      <c r="A16" s="140"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="160"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="198"/>
-      <c r="B17" s="202"/>
-      <c r="C17" s="198"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="218"/>
+      <c r="A17" s="140"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="160"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="198"/>
-      <c r="B18" s="202"/>
-      <c r="C18" s="198"/>
-      <c r="D18" s="198"/>
-      <c r="E18" s="218"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="160"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="198"/>
-      <c r="B19" s="202"/>
-      <c r="C19" s="198"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="218"/>
+      <c r="A19" s="140"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="160"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="198"/>
-      <c r="B20" s="202"/>
-      <c r="C20" s="198"/>
-      <c r="D20" s="198"/>
-      <c r="E20" s="218"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="160"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="198"/>
-      <c r="B21" s="202"/>
-      <c r="C21" s="198"/>
-      <c r="D21" s="198"/>
-      <c r="E21" s="218"/>
+      <c r="A21" s="140"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="160"/>
     </row>
     <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="198"/>
-      <c r="B22" s="202"/>
-      <c r="C22" s="198"/>
-      <c r="D22" s="198"/>
-      <c r="E22" s="218"/>
+      <c r="A22" s="140"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="160"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="198"/>
-      <c r="B23" s="202"/>
-      <c r="C23" s="198"/>
-      <c r="D23" s="198"/>
-      <c r="E23" s="218"/>
+      <c r="A23" s="140"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="160"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="198"/>
-      <c r="B24" s="202"/>
-      <c r="C24" s="198"/>
-      <c r="D24" s="198"/>
-      <c r="E24" s="218"/>
+      <c r="A24" s="140"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="160"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="198"/>
-      <c r="B25" s="202"/>
-      <c r="C25" s="198"/>
-      <c r="D25" s="198"/>
-      <c r="E25" s="218"/>
+      <c r="A25" s="140"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="160"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="198"/>
-      <c r="B26" s="202"/>
-      <c r="C26" s="198"/>
-      <c r="D26" s="198"/>
-      <c r="E26" s="218"/>
+      <c r="A26" s="140"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="160"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="198"/>
-      <c r="B27" s="202"/>
-      <c r="C27" s="198"/>
-      <c r="D27" s="198"/>
-      <c r="E27" s="218"/>
+      <c r="A27" s="140"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="160"/>
     </row>
     <row r="28" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="198"/>
-      <c r="B28" s="202"/>
-      <c r="C28" s="198"/>
-      <c r="D28" s="198"/>
-      <c r="E28" s="218"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="160"/>
     </row>
     <row r="29" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="198"/>
-      <c r="B29" s="202"/>
-      <c r="C29" s="198"/>
-      <c r="D29" s="198"/>
-      <c r="E29" s="218"/>
+      <c r="A29" s="140"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="160"/>
     </row>
     <row r="30" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="198"/>
-      <c r="B30" s="202"/>
-      <c r="C30" s="198"/>
-      <c r="D30" s="198"/>
-      <c r="E30" s="218"/>
+      <c r="A30" s="140"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="160"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="198"/>
-      <c r="B31" s="202"/>
-      <c r="C31" s="198"/>
-      <c r="D31" s="198"/>
-      <c r="E31" s="218"/>
+      <c r="A31" s="140"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="160"/>
     </row>
     <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="198"/>
-      <c r="B32" s="202"/>
-      <c r="C32" s="198"/>
-      <c r="D32" s="198"/>
-      <c r="E32" s="218"/>
+      <c r="A32" s="140"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="160"/>
     </row>
     <row r="33" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="198"/>
-      <c r="B33" s="202"/>
-      <c r="C33" s="198"/>
-      <c r="D33" s="198"/>
-      <c r="E33" s="218"/>
+      <c r="A33" s="140"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="160"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="198"/>
-      <c r="B34" s="202"/>
-      <c r="C34" s="198"/>
-      <c r="D34" s="198"/>
-      <c r="E34" s="218"/>
+      <c r="A34" s="140"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="140"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="160"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="198"/>
-      <c r="B35" s="202"/>
-      <c r="C35" s="198"/>
-      <c r="D35" s="198"/>
-      <c r="E35" s="218"/>
+      <c r="A35" s="140"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="140"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="160"/>
     </row>
     <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="198"/>
-      <c r="B36" s="202"/>
-      <c r="C36" s="198"/>
-      <c r="D36" s="198"/>
-      <c r="E36" s="218"/>
+      <c r="A36" s="140"/>
+      <c r="B36" s="144"/>
+      <c r="C36" s="140"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="160"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="198"/>
-      <c r="B37" s="202"/>
-      <c r="C37" s="198"/>
-      <c r="D37" s="198"/>
-      <c r="E37" s="218"/>
+      <c r="A37" s="140"/>
+      <c r="B37" s="144"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="160"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="198"/>
-      <c r="B38" s="202"/>
-      <c r="C38" s="198"/>
-      <c r="D38" s="198"/>
-      <c r="E38" s="218"/>
+      <c r="A38" s="140"/>
+      <c r="B38" s="144"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="160"/>
     </row>
     <row r="39" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="198"/>
-      <c r="B39" s="202"/>
-      <c r="C39" s="198"/>
-      <c r="D39" s="198"/>
-      <c r="E39" s="218"/>
+      <c r="A39" s="140"/>
+      <c r="B39" s="144"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="160"/>
     </row>
     <row r="40" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="198"/>
-      <c r="B40" s="202"/>
-      <c r="C40" s="198"/>
-      <c r="D40" s="198"/>
-      <c r="E40" s="218"/>
+      <c r="A40" s="140"/>
+      <c r="B40" s="144"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="160"/>
     </row>
     <row r="41" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="198"/>
-      <c r="B41" s="202"/>
-      <c r="C41" s="198"/>
-      <c r="D41" s="198"/>
-      <c r="E41" s="218"/>
+      <c r="A41" s="140"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="160"/>
     </row>
     <row r="42" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="198"/>
-      <c r="B42" s="202"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="218"/>
+      <c r="A42" s="140"/>
+      <c r="B42" s="144"/>
+      <c r="C42" s="140"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="160"/>
     </row>
     <row r="43" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="198"/>
-      <c r="B43" s="202"/>
-      <c r="C43" s="198"/>
-      <c r="D43" s="198"/>
-      <c r="E43" s="218"/>
+      <c r="A43" s="140"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="160"/>
     </row>
     <row r="44" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="198"/>
-      <c r="B44" s="202"/>
-      <c r="C44" s="198"/>
-      <c r="D44" s="198"/>
-      <c r="E44" s="218"/>
+      <c r="A44" s="140"/>
+      <c r="B44" s="144"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="160"/>
     </row>
     <row r="45" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="198"/>
-      <c r="B45" s="202"/>
-      <c r="C45" s="198"/>
-      <c r="D45" s="198"/>
-      <c r="E45" s="218"/>
+      <c r="A45" s="140"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="160"/>
     </row>
     <row r="46" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="198"/>
-      <c r="B46" s="202"/>
-      <c r="C46" s="198"/>
-      <c r="D46" s="198"/>
-      <c r="E46" s="218"/>
+      <c r="A46" s="140"/>
+      <c r="B46" s="144"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="160"/>
     </row>
     <row r="47" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="198"/>
-      <c r="B47" s="202"/>
-      <c r="C47" s="198"/>
-      <c r="D47" s="198"/>
-      <c r="E47" s="218"/>
+      <c r="A47" s="140"/>
+      <c r="B47" s="144"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="160"/>
     </row>
     <row r="48" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="198"/>
-      <c r="B48" s="202"/>
-      <c r="C48" s="198"/>
-      <c r="D48" s="198"/>
-      <c r="E48" s="218"/>
+      <c r="A48" s="140"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="160"/>
     </row>
     <row r="49" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="198"/>
-      <c r="B49" s="202"/>
-      <c r="C49" s="198"/>
-      <c r="D49" s="198"/>
-      <c r="E49" s="218"/>
+      <c r="A49" s="140"/>
+      <c r="B49" s="144"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="160"/>
     </row>
     <row r="50" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="198"/>
-      <c r="B50" s="202"/>
-      <c r="C50" s="198"/>
-      <c r="D50" s="198"/>
-      <c r="E50" s="218"/>
+      <c r="A50" s="140"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="160"/>
     </row>
     <row r="51" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="198"/>
-      <c r="B51" s="202"/>
-      <c r="C51" s="198"/>
-      <c r="D51" s="198"/>
-      <c r="E51" s="218"/>
+      <c r="A51" s="140"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="160"/>
     </row>
     <row r="52" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="198"/>
-      <c r="B52" s="202"/>
-      <c r="C52" s="198"/>
-      <c r="D52" s="198"/>
-      <c r="E52" s="218"/>
+      <c r="A52" s="140"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="140"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="160"/>
     </row>
     <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="198"/>
-      <c r="B53" s="202"/>
-      <c r="C53" s="198"/>
-      <c r="D53" s="198"/>
-      <c r="E53" s="218"/>
+      <c r="A53" s="140"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="140"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="160"/>
     </row>
     <row r="54" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="198"/>
-      <c r="B54" s="202"/>
-      <c r="C54" s="198"/>
-      <c r="D54" s="198"/>
-      <c r="E54" s="218"/>
+      <c r="A54" s="140"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="140"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="160"/>
     </row>
     <row r="55" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="198"/>
-      <c r="B55" s="202"/>
-      <c r="C55" s="198"/>
-      <c r="D55" s="198"/>
-      <c r="E55" s="218"/>
+      <c r="A55" s="140"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="140"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="160"/>
     </row>
     <row r="56" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="198"/>
-      <c r="B56" s="202"/>
-      <c r="C56" s="198"/>
-      <c r="D56" s="198"/>
-      <c r="E56" s="218"/>
+      <c r="A56" s="140"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="160"/>
     </row>
     <row r="57" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="198"/>
-      <c r="B57" s="202"/>
-      <c r="C57" s="198"/>
-      <c r="D57" s="198"/>
-      <c r="E57" s="218"/>
+      <c r="A57" s="140"/>
+      <c r="B57" s="144"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="160"/>
     </row>
     <row r="58" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="198"/>
-      <c r="B58" s="202"/>
-      <c r="C58" s="198"/>
-      <c r="D58" s="198"/>
-      <c r="E58" s="218"/>
+      <c r="A58" s="140"/>
+      <c r="B58" s="144"/>
+      <c r="C58" s="140"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="160"/>
     </row>
     <row r="59" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="198"/>
-      <c r="B59" s="202"/>
-      <c r="C59" s="198"/>
-      <c r="D59" s="198"/>
-      <c r="E59" s="218"/>
+      <c r="A59" s="140"/>
+      <c r="B59" s="144"/>
+      <c r="C59" s="140"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="160"/>
     </row>
     <row r="60" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="198"/>
-      <c r="B60" s="202"/>
-      <c r="C60" s="198"/>
-      <c r="D60" s="198"/>
-      <c r="E60" s="218"/>
+      <c r="A60" s="140"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="140"/>
+      <c r="E60" s="160"/>
     </row>
     <row r="61" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="198"/>
-      <c r="B61" s="202"/>
-      <c r="C61" s="198"/>
-      <c r="D61" s="198"/>
-      <c r="E61" s="218"/>
+      <c r="A61" s="140"/>
+      <c r="B61" s="144"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="160"/>
     </row>
     <row r="62" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="198"/>
-      <c r="B62" s="202"/>
-      <c r="C62" s="198"/>
-      <c r="D62" s="198"/>
-      <c r="E62" s="218"/>
+      <c r="A62" s="140"/>
+      <c r="B62" s="144"/>
+      <c r="C62" s="140"/>
+      <c r="D62" s="140"/>
+      <c r="E62" s="160"/>
     </row>
     <row r="63" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="198"/>
-      <c r="B63" s="202"/>
-      <c r="C63" s="198"/>
-      <c r="D63" s="198"/>
-      <c r="E63" s="218"/>
+      <c r="A63" s="140"/>
+      <c r="B63" s="144"/>
+      <c r="C63" s="140"/>
+      <c r="D63" s="140"/>
+      <c r="E63" s="160"/>
     </row>
     <row r="64" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="198"/>
-      <c r="B64" s="202"/>
-      <c r="C64" s="198"/>
-      <c r="D64" s="198"/>
-      <c r="E64" s="218"/>
+      <c r="A64" s="140"/>
+      <c r="B64" s="144"/>
+      <c r="C64" s="140"/>
+      <c r="D64" s="140"/>
+      <c r="E64" s="160"/>
     </row>
     <row r="65" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="198"/>
-      <c r="B65" s="202"/>
-      <c r="C65" s="198"/>
-      <c r="D65" s="198"/>
-      <c r="E65" s="218"/>
+      <c r="A65" s="140"/>
+      <c r="B65" s="144"/>
+      <c r="C65" s="140"/>
+      <c r="D65" s="140"/>
+      <c r="E65" s="160"/>
     </row>
     <row r="66" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="198"/>
-      <c r="B66" s="202"/>
-      <c r="C66" s="198"/>
-      <c r="D66" s="198"/>
-      <c r="E66" s="218"/>
+      <c r="A66" s="140"/>
+      <c r="B66" s="144"/>
+      <c r="C66" s="140"/>
+      <c r="D66" s="140"/>
+      <c r="E66" s="160"/>
     </row>
     <row r="67" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="198"/>
-      <c r="B67" s="202"/>
-      <c r="C67" s="198"/>
-      <c r="D67" s="198"/>
-      <c r="E67" s="218"/>
+      <c r="A67" s="140"/>
+      <c r="B67" s="144"/>
+      <c r="C67" s="140"/>
+      <c r="D67" s="140"/>
+      <c r="E67" s="160"/>
     </row>
     <row r="68" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="198"/>
-      <c r="B68" s="202"/>
-      <c r="C68" s="198"/>
-      <c r="D68" s="198"/>
-      <c r="E68" s="218"/>
+      <c r="A68" s="140"/>
+      <c r="B68" s="144"/>
+      <c r="C68" s="140"/>
+      <c r="D68" s="140"/>
+      <c r="E68" s="160"/>
     </row>
     <row r="69" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="198"/>
-      <c r="B69" s="202"/>
-      <c r="C69" s="198"/>
-      <c r="D69" s="198"/>
-      <c r="E69" s="218"/>
+      <c r="A69" s="140"/>
+      <c r="B69" s="144"/>
+      <c r="C69" s="140"/>
+      <c r="D69" s="140"/>
+      <c r="E69" s="160"/>
     </row>
     <row r="70" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="198"/>
-      <c r="B70" s="202"/>
-      <c r="C70" s="198"/>
-      <c r="D70" s="198"/>
-      <c r="E70" s="218"/>
+      <c r="A70" s="140"/>
+      <c r="B70" s="144"/>
+      <c r="C70" s="140"/>
+      <c r="D70" s="140"/>
+      <c r="E70" s="160"/>
     </row>
     <row r="71" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="198"/>
-      <c r="B71" s="202"/>
-      <c r="C71" s="198"/>
-      <c r="D71" s="198"/>
-      <c r="E71" s="218"/>
+      <c r="A71" s="140"/>
+      <c r="B71" s="144"/>
+      <c r="C71" s="140"/>
+      <c r="D71" s="140"/>
+      <c r="E71" s="160"/>
     </row>
     <row r="72" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="198"/>
-      <c r="B72" s="202"/>
-      <c r="C72" s="198"/>
-      <c r="D72" s="198"/>
-      <c r="E72" s="218"/>
+      <c r="A72" s="140"/>
+      <c r="B72" s="144"/>
+      <c r="C72" s="140"/>
+      <c r="D72" s="140"/>
+      <c r="E72" s="160"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="198"/>
-      <c r="B73" s="202"/>
-      <c r="C73" s="198"/>
-      <c r="D73" s="198"/>
-      <c r="E73" s="218"/>
+      <c r="A73" s="140"/>
+      <c r="B73" s="144"/>
+      <c r="C73" s="140"/>
+      <c r="D73" s="140"/>
+      <c r="E73" s="160"/>
     </row>
     <row r="74" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="198"/>
-      <c r="B74" s="202"/>
-      <c r="C74" s="198"/>
-      <c r="D74" s="198"/>
-      <c r="E74" s="218"/>
+      <c r="A74" s="140"/>
+      <c r="B74" s="144"/>
+      <c r="C74" s="140"/>
+      <c r="D74" s="140"/>
+      <c r="E74" s="160"/>
     </row>
     <row r="75" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="198"/>
-      <c r="B75" s="202"/>
-      <c r="C75" s="198"/>
-      <c r="D75" s="198"/>
-      <c r="E75" s="218"/>
+      <c r="A75" s="140"/>
+      <c r="B75" s="144"/>
+      <c r="C75" s="140"/>
+      <c r="D75" s="140"/>
+      <c r="E75" s="160"/>
     </row>
     <row r="76" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="198"/>
-      <c r="B76" s="202"/>
-      <c r="C76" s="198"/>
-      <c r="D76" s="198"/>
-      <c r="E76" s="218"/>
+      <c r="A76" s="140"/>
+      <c r="B76" s="144"/>
+      <c r="C76" s="140"/>
+      <c r="D76" s="140"/>
+      <c r="E76" s="160"/>
     </row>
     <row r="77" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="198"/>
-      <c r="B77" s="202"/>
-      <c r="C77" s="198"/>
-      <c r="D77" s="198"/>
-      <c r="E77" s="218"/>
+      <c r="A77" s="140"/>
+      <c r="B77" s="144"/>
+      <c r="C77" s="140"/>
+      <c r="D77" s="140"/>
+      <c r="E77" s="160"/>
     </row>
     <row r="78" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="198"/>
-      <c r="B78" s="202"/>
-      <c r="C78" s="198"/>
-      <c r="D78" s="198"/>
-      <c r="E78" s="218"/>
+      <c r="A78" s="140"/>
+      <c r="B78" s="144"/>
+      <c r="C78" s="140"/>
+      <c r="D78" s="140"/>
+      <c r="E78" s="160"/>
     </row>
     <row r="79" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="198"/>
-      <c r="B79" s="202"/>
-      <c r="C79" s="198"/>
-      <c r="D79" s="198"/>
-      <c r="E79" s="218"/>
+      <c r="A79" s="140"/>
+      <c r="B79" s="144"/>
+      <c r="C79" s="140"/>
+      <c r="D79" s="140"/>
+      <c r="E79" s="160"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="198"/>
-      <c r="B80" s="202"/>
-      <c r="C80" s="198"/>
-      <c r="D80" s="198"/>
-      <c r="E80" s="218"/>
+      <c r="A80" s="140"/>
+      <c r="B80" s="144"/>
+      <c r="C80" s="140"/>
+      <c r="D80" s="140"/>
+      <c r="E80" s="160"/>
     </row>
     <row r="81" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="198"/>
-      <c r="B81" s="202"/>
-      <c r="C81" s="198"/>
-      <c r="D81" s="198"/>
-      <c r="E81" s="218"/>
+      <c r="A81" s="140"/>
+      <c r="B81" s="144"/>
+      <c r="C81" s="140"/>
+      <c r="D81" s="140"/>
+      <c r="E81" s="160"/>
     </row>
     <row r="82" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="198"/>
-      <c r="B82" s="202"/>
-      <c r="C82" s="198"/>
-      <c r="D82" s="198"/>
-      <c r="E82" s="218"/>
+      <c r="A82" s="140"/>
+      <c r="B82" s="144"/>
+      <c r="C82" s="140"/>
+      <c r="D82" s="140"/>
+      <c r="E82" s="160"/>
     </row>
     <row r="83" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="198"/>
-      <c r="B83" s="202"/>
-      <c r="C83" s="198"/>
-      <c r="D83" s="198"/>
-      <c r="E83" s="218"/>
+      <c r="A83" s="140"/>
+      <c r="B83" s="144"/>
+      <c r="C83" s="140"/>
+      <c r="D83" s="140"/>
+      <c r="E83" s="160"/>
     </row>
     <row r="84" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="198"/>
-      <c r="B84" s="202"/>
-      <c r="C84" s="198"/>
-      <c r="D84" s="198"/>
-      <c r="E84" s="218"/>
+      <c r="A84" s="140"/>
+      <c r="B84" s="144"/>
+      <c r="C84" s="140"/>
+      <c r="D84" s="140"/>
+      <c r="E84" s="160"/>
     </row>
     <row r="85" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="198"/>
-      <c r="B85" s="202"/>
-      <c r="C85" s="198"/>
-      <c r="D85" s="198"/>
-      <c r="E85" s="218"/>
+      <c r="A85" s="140"/>
+      <c r="B85" s="144"/>
+      <c r="C85" s="140"/>
+      <c r="D85" s="140"/>
+      <c r="E85" s="160"/>
     </row>
     <row r="86" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="198"/>
-      <c r="B86" s="202"/>
-      <c r="C86" s="198"/>
-      <c r="D86" s="198"/>
-      <c r="E86" s="218"/>
+      <c r="A86" s="140"/>
+      <c r="B86" s="144"/>
+      <c r="C86" s="140"/>
+      <c r="D86" s="140"/>
+      <c r="E86" s="160"/>
     </row>
     <row r="87" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="198"/>
-      <c r="B87" s="202"/>
-      <c r="C87" s="198"/>
-      <c r="D87" s="198"/>
-      <c r="E87" s="218"/>
+      <c r="A87" s="140"/>
+      <c r="B87" s="144"/>
+      <c r="C87" s="140"/>
+      <c r="D87" s="140"/>
+      <c r="E87" s="160"/>
     </row>
     <row r="88" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="198"/>
-      <c r="B88" s="202"/>
-      <c r="C88" s="198"/>
-      <c r="D88" s="198"/>
-      <c r="E88" s="218"/>
+      <c r="A88" s="140"/>
+      <c r="B88" s="144"/>
+      <c r="C88" s="140"/>
+      <c r="D88" s="140"/>
+      <c r="E88" s="160"/>
     </row>
     <row r="89" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="198"/>
-      <c r="B89" s="202"/>
-      <c r="C89" s="198"/>
-      <c r="D89" s="198"/>
-      <c r="E89" s="218"/>
+      <c r="A89" s="140"/>
+      <c r="B89" s="144"/>
+      <c r="C89" s="140"/>
+      <c r="D89" s="140"/>
+      <c r="E89" s="160"/>
     </row>
     <row r="90" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="198"/>
-      <c r="B90" s="202"/>
-      <c r="C90" s="198"/>
-      <c r="D90" s="198"/>
-      <c r="E90" s="218"/>
+      <c r="A90" s="140"/>
+      <c r="B90" s="144"/>
+      <c r="C90" s="140"/>
+      <c r="D90" s="140"/>
+      <c r="E90" s="160"/>
     </row>
     <row r="91" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="198"/>
-      <c r="B91" s="202"/>
-      <c r="C91" s="198"/>
-      <c r="D91" s="198"/>
-      <c r="E91" s="218"/>
+      <c r="A91" s="140"/>
+      <c r="B91" s="144"/>
+      <c r="C91" s="140"/>
+      <c r="D91" s="140"/>
+      <c r="E91" s="160"/>
     </row>
     <row r="92" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="198"/>
-      <c r="B92" s="202"/>
-      <c r="C92" s="198"/>
-      <c r="D92" s="198"/>
-      <c r="E92" s="218"/>
+      <c r="A92" s="140"/>
+      <c r="B92" s="144"/>
+      <c r="C92" s="140"/>
+      <c r="D92" s="140"/>
+      <c r="E92" s="160"/>
     </row>
     <row r="93" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="198"/>
-      <c r="B93" s="202"/>
-      <c r="C93" s="198"/>
-      <c r="D93" s="198"/>
-      <c r="E93" s="218"/>
+      <c r="A93" s="140"/>
+      <c r="B93" s="144"/>
+      <c r="C93" s="140"/>
+      <c r="D93" s="140"/>
+      <c r="E93" s="160"/>
     </row>
     <row r="94" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="198"/>
-      <c r="B94" s="202"/>
-      <c r="C94" s="198"/>
-      <c r="D94" s="198"/>
-      <c r="E94" s="218"/>
+      <c r="A94" s="140"/>
+      <c r="B94" s="144"/>
+      <c r="C94" s="140"/>
+      <c r="D94" s="140"/>
+      <c r="E94" s="160"/>
     </row>
     <row r="95" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="198"/>
-      <c r="B95" s="202"/>
-      <c r="C95" s="198"/>
-      <c r="D95" s="198"/>
-      <c r="E95" s="218"/>
+      <c r="A95" s="140"/>
+      <c r="B95" s="144"/>
+      <c r="C95" s="140"/>
+      <c r="D95" s="140"/>
+      <c r="E95" s="160"/>
     </row>
     <row r="96" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="198"/>
-      <c r="B96" s="202"/>
-      <c r="C96" s="198"/>
-      <c r="D96" s="198"/>
-      <c r="E96" s="218"/>
+      <c r="A96" s="140"/>
+      <c r="B96" s="144"/>
+      <c r="C96" s="140"/>
+      <c r="D96" s="140"/>
+      <c r="E96" s="160"/>
     </row>
     <row r="97" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="198"/>
-      <c r="B97" s="202"/>
-      <c r="C97" s="198"/>
-      <c r="D97" s="198"/>
-      <c r="E97" s="218"/>
+      <c r="A97" s="140"/>
+      <c r="B97" s="144"/>
+      <c r="C97" s="140"/>
+      <c r="D97" s="140"/>
+      <c r="E97" s="160"/>
     </row>
     <row r="98" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="198"/>
-      <c r="B98" s="202"/>
-      <c r="C98" s="198"/>
-      <c r="D98" s="198"/>
-      <c r="E98" s="218"/>
+      <c r="A98" s="140"/>
+      <c r="B98" s="144"/>
+      <c r="C98" s="140"/>
+      <c r="D98" s="140"/>
+      <c r="E98" s="160"/>
     </row>
     <row r="99" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="198"/>
-      <c r="B99" s="202"/>
-      <c r="C99" s="198"/>
-      <c r="D99" s="198"/>
-      <c r="E99" s="218"/>
+      <c r="A99" s="140"/>
+      <c r="B99" s="144"/>
+      <c r="C99" s="140"/>
+      <c r="D99" s="140"/>
+      <c r="E99" s="160"/>
     </row>
     <row r="100" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="198"/>
-      <c r="B100" s="202"/>
-      <c r="C100" s="198"/>
-      <c r="D100" s="198"/>
-      <c r="E100" s="218"/>
+      <c r="A100" s="140"/>
+      <c r="B100" s="144"/>
+      <c r="C100" s="140"/>
+      <c r="D100" s="140"/>
+      <c r="E100" s="160"/>
     </row>
     <row r="101" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="198"/>
-      <c r="B101" s="202"/>
-      <c r="C101" s="198"/>
-      <c r="D101" s="198"/>
-      <c r="E101" s="218"/>
+      <c r="A101" s="140"/>
+      <c r="B101" s="144"/>
+      <c r="C101" s="140"/>
+      <c r="D101" s="140"/>
+      <c r="E101" s="160"/>
     </row>
     <row r="102" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="198"/>
-      <c r="B102" s="202"/>
-      <c r="C102" s="198"/>
-      <c r="D102" s="198"/>
-      <c r="E102" s="218"/>
+      <c r="A102" s="140"/>
+      <c r="B102" s="144"/>
+      <c r="C102" s="140"/>
+      <c r="D102" s="140"/>
+      <c r="E102" s="160"/>
     </row>
     <row r="103" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="198"/>
-      <c r="B103" s="202"/>
-      <c r="C103" s="198"/>
-      <c r="D103" s="198"/>
-      <c r="E103" s="218"/>
+      <c r="A103" s="140"/>
+      <c r="B103" s="144"/>
+      <c r="C103" s="140"/>
+      <c r="D103" s="140"/>
+      <c r="E103" s="160"/>
     </row>
     <row r="104" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="198"/>
-      <c r="B104" s="202"/>
-      <c r="C104" s="198"/>
-      <c r="D104" s="198"/>
-      <c r="E104" s="218"/>
+      <c r="A104" s="140"/>
+      <c r="B104" s="144"/>
+      <c r="C104" s="140"/>
+      <c r="D104" s="140"/>
+      <c r="E104" s="160"/>
     </row>
     <row r="105" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="198"/>
-      <c r="B105" s="202"/>
-      <c r="C105" s="198"/>
-      <c r="D105" s="198"/>
-      <c r="E105" s="218"/>
+      <c r="A105" s="140"/>
+      <c r="B105" s="144"/>
+      <c r="C105" s="140"/>
+      <c r="D105" s="140"/>
+      <c r="E105" s="160"/>
     </row>
     <row r="106" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="198"/>
-      <c r="B106" s="202"/>
-      <c r="C106" s="198"/>
-      <c r="D106" s="198"/>
-      <c r="E106" s="218"/>
+      <c r="A106" s="140"/>
+      <c r="B106" s="144"/>
+      <c r="C106" s="140"/>
+      <c r="D106" s="140"/>
+      <c r="E106" s="160"/>
     </row>
     <row r="107" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="198"/>
-      <c r="B107" s="202"/>
-      <c r="C107" s="198"/>
-      <c r="D107" s="198"/>
-      <c r="E107" s="218"/>
+      <c r="A107" s="140"/>
+      <c r="B107" s="144"/>
+      <c r="C107" s="140"/>
+      <c r="D107" s="140"/>
+      <c r="E107" s="160"/>
     </row>
     <row r="108" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="198"/>
-      <c r="B108" s="202"/>
-      <c r="C108" s="198"/>
-      <c r="D108" s="198"/>
-      <c r="E108" s="218"/>
+      <c r="A108" s="140"/>
+      <c r="B108" s="144"/>
+      <c r="C108" s="140"/>
+      <c r="D108" s="140"/>
+      <c r="E108" s="160"/>
     </row>
     <row r="109" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="198"/>
-      <c r="B109" s="202"/>
-      <c r="C109" s="198"/>
-      <c r="D109" s="198"/>
-      <c r="E109" s="218"/>
+      <c r="A109" s="140"/>
+      <c r="B109" s="144"/>
+      <c r="C109" s="140"/>
+      <c r="D109" s="140"/>
+      <c r="E109" s="160"/>
     </row>
     <row r="110" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="198"/>
-      <c r="B110" s="202"/>
-      <c r="C110" s="198"/>
-      <c r="D110" s="198"/>
-      <c r="E110" s="218"/>
+      <c r="A110" s="140"/>
+      <c r="B110" s="144"/>
+      <c r="C110" s="140"/>
+      <c r="D110" s="140"/>
+      <c r="E110" s="160"/>
     </row>
     <row r="111" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="198"/>
-      <c r="B111" s="202"/>
-      <c r="C111" s="198"/>
-      <c r="D111" s="198"/>
-      <c r="E111" s="218"/>
+      <c r="A111" s="140"/>
+      <c r="B111" s="144"/>
+      <c r="C111" s="140"/>
+      <c r="D111" s="140"/>
+      <c r="E111" s="160"/>
     </row>
     <row r="112" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="198"/>
-      <c r="B112" s="202"/>
-      <c r="C112" s="198"/>
-      <c r="D112" s="198"/>
-      <c r="E112" s="218"/>
+      <c r="A112" s="140"/>
+      <c r="B112" s="144"/>
+      <c r="C112" s="140"/>
+      <c r="D112" s="140"/>
+      <c r="E112" s="160"/>
     </row>
     <row r="113" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="198"/>
-      <c r="B113" s="202"/>
-      <c r="C113" s="198"/>
-      <c r="D113" s="198"/>
-      <c r="E113" s="218"/>
+      <c r="A113" s="140"/>
+      <c r="B113" s="144"/>
+      <c r="C113" s="140"/>
+      <c r="D113" s="140"/>
+      <c r="E113" s="160"/>
     </row>
     <row r="114" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="198"/>
-      <c r="B114" s="202"/>
-      <c r="C114" s="198"/>
-      <c r="D114" s="198"/>
-      <c r="E114" s="218"/>
+      <c r="A114" s="140"/>
+      <c r="B114" s="144"/>
+      <c r="C114" s="140"/>
+      <c r="D114" s="140"/>
+      <c r="E114" s="160"/>
     </row>
     <row r="115" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="198"/>
-      <c r="B115" s="202"/>
-      <c r="C115" s="198"/>
-      <c r="D115" s="198"/>
-      <c r="E115" s="218"/>
+      <c r="A115" s="140"/>
+      <c r="B115" s="144"/>
+      <c r="C115" s="140"/>
+      <c r="D115" s="140"/>
+      <c r="E115" s="160"/>
     </row>
     <row r="116" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="198"/>
-      <c r="B116" s="202"/>
-      <c r="C116" s="198"/>
-      <c r="D116" s="198"/>
-      <c r="E116" s="218"/>
+      <c r="A116" s="140"/>
+      <c r="B116" s="144"/>
+      <c r="C116" s="140"/>
+      <c r="D116" s="140"/>
+      <c r="E116" s="160"/>
     </row>
     <row r="117" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="198"/>
-      <c r="B117" s="202"/>
-      <c r="C117" s="198"/>
-      <c r="D117" s="198"/>
-      <c r="E117" s="218"/>
+      <c r="A117" s="140"/>
+      <c r="B117" s="144"/>
+      <c r="C117" s="140"/>
+      <c r="D117" s="140"/>
+      <c r="E117" s="160"/>
     </row>
     <row r="118" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="198"/>
-      <c r="B118" s="202"/>
-      <c r="C118" s="198"/>
-      <c r="D118" s="198"/>
-      <c r="E118" s="218"/>
+      <c r="A118" s="140"/>
+      <c r="B118" s="144"/>
+      <c r="C118" s="140"/>
+      <c r="D118" s="140"/>
+      <c r="E118" s="160"/>
     </row>
     <row r="119" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="198"/>
-      <c r="B119" s="202"/>
-      <c r="C119" s="198"/>
-      <c r="D119" s="198"/>
-      <c r="E119" s="218"/>
+      <c r="A119" s="140"/>
+      <c r="B119" s="144"/>
+      <c r="C119" s="140"/>
+      <c r="D119" s="140"/>
+      <c r="E119" s="160"/>
     </row>
     <row r="120" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="198"/>
-      <c r="B120" s="202"/>
-      <c r="C120" s="198"/>
-      <c r="D120" s="198"/>
-      <c r="E120" s="218"/>
+      <c r="A120" s="140"/>
+      <c r="B120" s="144"/>
+      <c r="C120" s="140"/>
+      <c r="D120" s="140"/>
+      <c r="E120" s="160"/>
     </row>
     <row r="121" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="198"/>
-      <c r="B121" s="202"/>
-      <c r="C121" s="198"/>
-      <c r="D121" s="198"/>
-      <c r="E121" s="218"/>
+      <c r="A121" s="140"/>
+      <c r="B121" s="144"/>
+      <c r="C121" s="140"/>
+      <c r="D121" s="140"/>
+      <c r="E121" s="160"/>
     </row>
     <row r="122" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="198"/>
-      <c r="B122" s="202"/>
-      <c r="C122" s="198"/>
-      <c r="D122" s="198"/>
-      <c r="E122" s="218"/>
+      <c r="A122" s="140"/>
+      <c r="B122" s="144"/>
+      <c r="C122" s="140"/>
+      <c r="D122" s="140"/>
+      <c r="E122" s="160"/>
     </row>
     <row r="123" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="198"/>
-      <c r="B123" s="202"/>
-      <c r="C123" s="198"/>
-      <c r="D123" s="198"/>
-      <c r="E123" s="218"/>
+      <c r="A123" s="140"/>
+      <c r="B123" s="144"/>
+      <c r="C123" s="140"/>
+      <c r="D123" s="140"/>
+      <c r="E123" s="160"/>
     </row>
     <row r="124" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="198"/>
-      <c r="B124" s="202"/>
-      <c r="C124" s="198"/>
-      <c r="D124" s="198"/>
-      <c r="E124" s="218"/>
+      <c r="A124" s="140"/>
+      <c r="B124" s="144"/>
+      <c r="C124" s="140"/>
+      <c r="D124" s="140"/>
+      <c r="E124" s="160"/>
     </row>
     <row r="125" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="198"/>
-      <c r="B125" s="202"/>
-      <c r="C125" s="198"/>
-      <c r="D125" s="198"/>
-      <c r="E125" s="218"/>
+      <c r="A125" s="140"/>
+      <c r="B125" s="144"/>
+      <c r="C125" s="140"/>
+      <c r="D125" s="140"/>
+      <c r="E125" s="160"/>
     </row>
     <row r="126" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="198"/>
-      <c r="B126" s="202"/>
-      <c r="C126" s="198"/>
-      <c r="D126" s="198"/>
-      <c r="E126" s="218"/>
+      <c r="A126" s="140"/>
+      <c r="B126" s="144"/>
+      <c r="C126" s="140"/>
+      <c r="D126" s="140"/>
+      <c r="E126" s="160"/>
     </row>
     <row r="127" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="198"/>
-      <c r="B127" s="202"/>
-      <c r="C127" s="198"/>
-      <c r="D127" s="198"/>
-      <c r="E127" s="218"/>
+      <c r="A127" s="140"/>
+      <c r="B127" s="144"/>
+      <c r="C127" s="140"/>
+      <c r="D127" s="140"/>
+      <c r="E127" s="160"/>
     </row>
     <row r="128" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="198"/>
-      <c r="B128" s="202"/>
-      <c r="C128" s="198"/>
-      <c r="D128" s="198"/>
-      <c r="E128" s="218"/>
+      <c r="A128" s="140"/>
+      <c r="B128" s="144"/>
+      <c r="C128" s="140"/>
+      <c r="D128" s="140"/>
+      <c r="E128" s="160"/>
     </row>
     <row r="129" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="198"/>
-      <c r="B129" s="202"/>
-      <c r="C129" s="198"/>
-      <c r="D129" s="198"/>
-      <c r="E129" s="218"/>
+      <c r="A129" s="140"/>
+      <c r="B129" s="144"/>
+      <c r="C129" s="140"/>
+      <c r="D129" s="140"/>
+      <c r="E129" s="160"/>
     </row>
     <row r="130" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="198"/>
-      <c r="B130" s="202"/>
-      <c r="C130" s="198"/>
-      <c r="D130" s="198"/>
-      <c r="E130" s="218"/>
+      <c r="A130" s="140"/>
+      <c r="B130" s="144"/>
+      <c r="C130" s="140"/>
+      <c r="D130" s="140"/>
+      <c r="E130" s="160"/>
     </row>
     <row r="131" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="198"/>
-      <c r="B131" s="202"/>
-      <c r="C131" s="198"/>
-      <c r="D131" s="198"/>
-      <c r="E131" s="218"/>
+      <c r="A131" s="140"/>
+      <c r="B131" s="144"/>
+      <c r="C131" s="140"/>
+      <c r="D131" s="140"/>
+      <c r="E131" s="160"/>
     </row>
     <row r="132" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="198"/>
-      <c r="B132" s="202"/>
-      <c r="C132" s="198"/>
-      <c r="D132" s="198"/>
-      <c r="E132" s="218"/>
+      <c r="A132" s="140"/>
+      <c r="B132" s="144"/>
+      <c r="C132" s="140"/>
+      <c r="D132" s="140"/>
+      <c r="E132" s="160"/>
     </row>
     <row r="133" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="198"/>
-      <c r="B133" s="202"/>
-      <c r="C133" s="198"/>
-      <c r="D133" s="198"/>
-      <c r="E133" s="218"/>
+      <c r="A133" s="140"/>
+      <c r="B133" s="144"/>
+      <c r="C133" s="140"/>
+      <c r="D133" s="140"/>
+      <c r="E133" s="160"/>
     </row>
     <row r="134" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="198"/>
-      <c r="B134" s="202"/>
-      <c r="C134" s="198"/>
-      <c r="D134" s="198"/>
-      <c r="E134" s="218"/>
+      <c r="A134" s="140"/>
+      <c r="B134" s="144"/>
+      <c r="C134" s="140"/>
+      <c r="D134" s="140"/>
+      <c r="E134" s="160"/>
     </row>
     <row r="135" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="198"/>
-      <c r="B135" s="202"/>
-      <c r="C135" s="198"/>
-      <c r="D135" s="198"/>
-      <c r="E135" s="218"/>
+      <c r="A135" s="140"/>
+      <c r="B135" s="144"/>
+      <c r="C135" s="140"/>
+      <c r="D135" s="140"/>
+      <c r="E135" s="160"/>
     </row>
     <row r="136" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="198"/>
-      <c r="B136" s="202"/>
-      <c r="C136" s="198"/>
-      <c r="D136" s="198"/>
-      <c r="E136" s="218"/>
+      <c r="A136" s="140"/>
+      <c r="B136" s="144"/>
+      <c r="C136" s="140"/>
+      <c r="D136" s="140"/>
+      <c r="E136" s="160"/>
     </row>
     <row r="137" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="198"/>
-      <c r="B137" s="202"/>
-      <c r="C137" s="198"/>
-      <c r="D137" s="198"/>
-      <c r="E137" s="218"/>
+      <c r="A137" s="140"/>
+      <c r="B137" s="144"/>
+      <c r="C137" s="140"/>
+      <c r="D137" s="140"/>
+      <c r="E137" s="160"/>
     </row>
     <row r="138" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="198"/>
-      <c r="B138" s="202"/>
-      <c r="C138" s="198"/>
-      <c r="D138" s="198"/>
-      <c r="E138" s="218"/>
+      <c r="A138" s="140"/>
+      <c r="B138" s="144"/>
+      <c r="C138" s="140"/>
+      <c r="D138" s="140"/>
+      <c r="E138" s="160"/>
     </row>
     <row r="139" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="198"/>
-      <c r="B139" s="202"/>
-      <c r="C139" s="198"/>
-      <c r="D139" s="198"/>
-      <c r="E139" s="218"/>
+      <c r="A139" s="140"/>
+      <c r="B139" s="144"/>
+      <c r="C139" s="140"/>
+      <c r="D139" s="140"/>
+      <c r="E139" s="160"/>
     </row>
     <row r="140" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="198"/>
-      <c r="B140" s="202"/>
-      <c r="C140" s="198"/>
-      <c r="D140" s="198"/>
-      <c r="E140" s="218"/>
+      <c r="A140" s="140"/>
+      <c r="B140" s="144"/>
+      <c r="C140" s="140"/>
+      <c r="D140" s="140"/>
+      <c r="E140" s="160"/>
     </row>
     <row r="141" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="198"/>
-      <c r="B141" s="202"/>
-      <c r="C141" s="198"/>
-      <c r="D141" s="198"/>
-      <c r="E141" s="218"/>
+      <c r="A141" s="140"/>
+      <c r="B141" s="144"/>
+      <c r="C141" s="140"/>
+      <c r="D141" s="140"/>
+      <c r="E141" s="160"/>
     </row>
     <row r="142" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="198"/>
-      <c r="B142" s="202"/>
-      <c r="C142" s="198"/>
-      <c r="D142" s="198"/>
-      <c r="E142" s="218"/>
+      <c r="A142" s="140"/>
+      <c r="B142" s="144"/>
+      <c r="C142" s="140"/>
+      <c r="D142" s="140"/>
+      <c r="E142" s="160"/>
     </row>
     <row r="143" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="198"/>
-      <c r="B143" s="202"/>
-      <c r="C143" s="198"/>
-      <c r="D143" s="198"/>
-      <c r="E143" s="218"/>
+      <c r="A143" s="140"/>
+      <c r="B143" s="144"/>
+      <c r="C143" s="140"/>
+      <c r="D143" s="140"/>
+      <c r="E143" s="160"/>
     </row>
     <row r="144" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="198"/>
-      <c r="B144" s="202"/>
-      <c r="C144" s="198"/>
-      <c r="D144" s="198"/>
-      <c r="E144" s="218"/>
+      <c r="A144" s="140"/>
+      <c r="B144" s="144"/>
+      <c r="C144" s="140"/>
+      <c r="D144" s="140"/>
+      <c r="E144" s="160"/>
     </row>
     <row r="145" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="198"/>
-      <c r="B145" s="202"/>
-      <c r="C145" s="198"/>
-      <c r="D145" s="198"/>
-      <c r="E145" s="218"/>
+      <c r="A145" s="140"/>
+      <c r="B145" s="144"/>
+      <c r="C145" s="140"/>
+      <c r="D145" s="140"/>
+      <c r="E145" s="160"/>
     </row>
     <row r="146" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="198"/>
-      <c r="B146" s="202"/>
-      <c r="C146" s="198"/>
-      <c r="D146" s="198"/>
-      <c r="E146" s="218"/>
+      <c r="A146" s="140"/>
+      <c r="B146" s="144"/>
+      <c r="C146" s="140"/>
+      <c r="D146" s="140"/>
+      <c r="E146" s="160"/>
     </row>
     <row r="147" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="198"/>
-      <c r="B147" s="202"/>
-      <c r="C147" s="198"/>
-      <c r="D147" s="198"/>
-      <c r="E147" s="218"/>
+      <c r="A147" s="140"/>
+      <c r="B147" s="144"/>
+      <c r="C147" s="140"/>
+      <c r="D147" s="140"/>
+      <c r="E147" s="160"/>
     </row>
     <row r="148" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="198"/>
-      <c r="B148" s="202"/>
-      <c r="C148" s="198"/>
-      <c r="D148" s="198"/>
-      <c r="E148" s="218"/>
+      <c r="A148" s="140"/>
+      <c r="B148" s="144"/>
+      <c r="C148" s="140"/>
+      <c r="D148" s="140"/>
+      <c r="E148" s="160"/>
     </row>
     <row r="149" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -5008,7 +6836,7 @@
   <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5017,1118 +6845,1118 @@
     <col min="2" max="2" width="38.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="5.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="219"/>
+    <col min="5" max="5" width="11.42578125" style="161"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="208" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="214" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="213"/>
-      <c r="E1" s="220"/>
+      <c r="B1" s="150" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="156" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="155"/>
+      <c r="E1" s="162"/>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="208" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="208"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="221"/>
+      <c r="B2" s="150" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="150"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="163"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="203"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="222"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="164"/>
     </row>
     <row r="4" spans="1:7" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="205" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="276" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="276"/>
-    </row>
-    <row r="5" spans="1:7" s="201" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="200" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="200" t="s">
+      <c r="B4" s="147" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="303" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="303"/>
+    </row>
+    <row r="5" spans="1:7" s="143" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="142" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="200" t="s">
+      <c r="C5" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="200"/>
-      <c r="E5" s="217" t="s">
+      <c r="D5" s="142"/>
+      <c r="E5" s="159" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="204"/>
+      <c r="F5" s="146"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="202"/>
-      <c r="B6" s="199"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="223"/>
+      <c r="A6" s="144"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="165"/>
       <c r="F6" s="108"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="202"/>
-      <c r="B7" s="199"/>
-      <c r="C7" s="202"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="223"/>
-      <c r="G7" s="211"/>
+      <c r="A7" s="144"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="165"/>
+      <c r="G7" s="153"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="202"/>
-      <c r="B8" s="199"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="223"/>
+      <c r="A8" s="144"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="165"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="202"/>
-      <c r="B9" s="199"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="223"/>
+      <c r="A9" s="144"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="165"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="202"/>
-      <c r="B10" s="199"/>
-      <c r="C10" s="202"/>
-      <c r="D10" s="199"/>
-      <c r="E10" s="223"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="165"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="202"/>
-      <c r="B11" s="199"/>
-      <c r="C11" s="202"/>
-      <c r="D11" s="199"/>
-      <c r="E11" s="223"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="165"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="202"/>
-      <c r="B12" s="199"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="199"/>
-      <c r="E12" s="223"/>
+      <c r="A12" s="144"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="165"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="202"/>
-      <c r="B13" s="199"/>
-      <c r="C13" s="202"/>
-      <c r="D13" s="199"/>
-      <c r="E13" s="223"/>
+      <c r="A13" s="144"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="165"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="202"/>
-      <c r="B14" s="199"/>
-      <c r="C14" s="202"/>
-      <c r="D14" s="199"/>
-      <c r="E14" s="223"/>
+      <c r="A14" s="144"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="165"/>
       <c r="F14" s="108"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="202"/>
-      <c r="B15" s="199"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="199"/>
-      <c r="E15" s="223"/>
+      <c r="A15" s="144"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="165"/>
       <c r="F15" s="108"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="202"/>
-      <c r="B16" s="199"/>
-      <c r="C16" s="202"/>
-      <c r="D16" s="199"/>
-      <c r="E16" s="223"/>
+      <c r="A16" s="144"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="165"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="202"/>
-      <c r="B17" s="199"/>
-      <c r="C17" s="202"/>
-      <c r="D17" s="199"/>
-      <c r="E17" s="223"/>
+      <c r="A17" s="144"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="165"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="202"/>
-      <c r="B18" s="199"/>
-      <c r="C18" s="202"/>
-      <c r="D18" s="199"/>
-      <c r="E18" s="223"/>
+      <c r="A18" s="144"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="165"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="202"/>
-      <c r="B19" s="199"/>
-      <c r="C19" s="202"/>
-      <c r="D19" s="199"/>
-      <c r="E19" s="223"/>
+      <c r="A19" s="144"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="165"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="202"/>
-      <c r="B20" s="199"/>
-      <c r="C20" s="202"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="223"/>
+      <c r="A20" s="144"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="165"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="202"/>
-      <c r="B21" s="199"/>
-      <c r="C21" s="202"/>
-      <c r="D21" s="199"/>
-      <c r="E21" s="223"/>
+      <c r="A21" s="144"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="165"/>
     </row>
     <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="202"/>
-      <c r="B22" s="199"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="199"/>
-      <c r="E22" s="223"/>
+      <c r="A22" s="144"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="165"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="202"/>
-      <c r="B23" s="199"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="199"/>
-      <c r="E23" s="223"/>
+      <c r="A23" s="144"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="165"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="202"/>
-      <c r="B24" s="199"/>
-      <c r="C24" s="202"/>
-      <c r="D24" s="199"/>
-      <c r="E24" s="223"/>
+      <c r="A24" s="144"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="165"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="202"/>
-      <c r="B25" s="199"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="199"/>
-      <c r="E25" s="223"/>
+      <c r="A25" s="144"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="165"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="202"/>
-      <c r="B26" s="199"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="199"/>
-      <c r="E26" s="223"/>
+      <c r="A26" s="144"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="165"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="202"/>
-      <c r="B27" s="199"/>
-      <c r="C27" s="202"/>
-      <c r="D27" s="199"/>
-      <c r="E27" s="223"/>
+      <c r="A27" s="144"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="165"/>
     </row>
     <row r="28" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="202"/>
-      <c r="B28" s="199"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="199"/>
-      <c r="E28" s="223"/>
+      <c r="A28" s="144"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="165"/>
     </row>
     <row r="29" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="202"/>
-      <c r="B29" s="199"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="199"/>
-      <c r="E29" s="223"/>
+      <c r="A29" s="144"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="165"/>
     </row>
     <row r="30" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="202"/>
-      <c r="B30" s="199"/>
-      <c r="C30" s="202"/>
-      <c r="D30" s="199"/>
-      <c r="E30" s="223"/>
+      <c r="A30" s="144"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="165"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="202"/>
-      <c r="B31" s="199"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="199"/>
-      <c r="E31" s="223"/>
+      <c r="A31" s="144"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="165"/>
     </row>
     <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="202"/>
-      <c r="B32" s="199"/>
-      <c r="C32" s="202"/>
-      <c r="D32" s="199"/>
-      <c r="E32" s="223"/>
+      <c r="A32" s="144"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="165"/>
     </row>
     <row r="33" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="202"/>
-      <c r="B33" s="199"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="199"/>
-      <c r="E33" s="223"/>
+      <c r="A33" s="144"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="165"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="202"/>
-      <c r="B34" s="199"/>
-      <c r="C34" s="202"/>
-      <c r="D34" s="199"/>
-      <c r="E34" s="223"/>
+      <c r="A34" s="144"/>
+      <c r="B34" s="141"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="165"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="202"/>
-      <c r="B35" s="199"/>
-      <c r="C35" s="202"/>
-      <c r="D35" s="199"/>
-      <c r="E35" s="223"/>
+      <c r="A35" s="144"/>
+      <c r="B35" s="141"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="165"/>
     </row>
     <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="202"/>
-      <c r="B36" s="199"/>
-      <c r="C36" s="202"/>
-      <c r="D36" s="199"/>
-      <c r="E36" s="223"/>
+      <c r="A36" s="144"/>
+      <c r="B36" s="141"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="165"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="202"/>
-      <c r="B37" s="199"/>
-      <c r="C37" s="202"/>
-      <c r="D37" s="199"/>
-      <c r="E37" s="223"/>
+      <c r="A37" s="144"/>
+      <c r="B37" s="141"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="141"/>
+      <c r="E37" s="165"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="202"/>
-      <c r="B38" s="199"/>
-      <c r="C38" s="202"/>
-      <c r="D38" s="199"/>
-      <c r="E38" s="223"/>
+      <c r="A38" s="144"/>
+      <c r="B38" s="141"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="141"/>
+      <c r="E38" s="165"/>
     </row>
     <row r="39" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="202"/>
-      <c r="B39" s="199"/>
-      <c r="C39" s="202"/>
-      <c r="D39" s="199"/>
-      <c r="E39" s="223"/>
+      <c r="A39" s="144"/>
+      <c r="B39" s="141"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="141"/>
+      <c r="E39" s="165"/>
     </row>
     <row r="40" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="202"/>
-      <c r="B40" s="199"/>
-      <c r="C40" s="202"/>
-      <c r="D40" s="199"/>
-      <c r="E40" s="223"/>
+      <c r="A40" s="144"/>
+      <c r="B40" s="141"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="141"/>
+      <c r="E40" s="165"/>
     </row>
     <row r="41" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="202"/>
-      <c r="B41" s="199"/>
-      <c r="C41" s="202"/>
-      <c r="D41" s="199"/>
-      <c r="E41" s="223"/>
+      <c r="A41" s="144"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="141"/>
+      <c r="E41" s="165"/>
     </row>
     <row r="42" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="202"/>
-      <c r="B42" s="199"/>
-      <c r="C42" s="202"/>
-      <c r="D42" s="199"/>
-      <c r="E42" s="223"/>
+      <c r="A42" s="144"/>
+      <c r="B42" s="141"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="141"/>
+      <c r="E42" s="165"/>
     </row>
     <row r="43" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="202"/>
-      <c r="B43" s="199"/>
-      <c r="C43" s="202"/>
-      <c r="D43" s="199"/>
-      <c r="E43" s="223"/>
+      <c r="A43" s="144"/>
+      <c r="B43" s="141"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="141"/>
+      <c r="E43" s="165"/>
     </row>
     <row r="44" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="202"/>
-      <c r="B44" s="199"/>
-      <c r="C44" s="202"/>
-      <c r="D44" s="199"/>
-      <c r="E44" s="223"/>
+      <c r="A44" s="144"/>
+      <c r="B44" s="141"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="141"/>
+      <c r="E44" s="165"/>
     </row>
     <row r="45" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="202"/>
-      <c r="B45" s="199"/>
-      <c r="C45" s="202"/>
-      <c r="D45" s="199"/>
-      <c r="E45" s="223"/>
+      <c r="A45" s="144"/>
+      <c r="B45" s="141"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="165"/>
     </row>
     <row r="46" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="202"/>
-      <c r="B46" s="199"/>
-      <c r="C46" s="202"/>
-      <c r="D46" s="199"/>
-      <c r="E46" s="223"/>
+      <c r="A46" s="144"/>
+      <c r="B46" s="141"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="141"/>
+      <c r="E46" s="165"/>
     </row>
     <row r="47" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="202"/>
-      <c r="B47" s="199"/>
-      <c r="C47" s="202"/>
-      <c r="D47" s="199"/>
-      <c r="E47" s="223"/>
+      <c r="A47" s="144"/>
+      <c r="B47" s="141"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="141"/>
+      <c r="E47" s="165"/>
     </row>
     <row r="48" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="202"/>
-      <c r="B48" s="199"/>
-      <c r="C48" s="202"/>
-      <c r="D48" s="199"/>
-      <c r="E48" s="223"/>
+      <c r="A48" s="144"/>
+      <c r="B48" s="141"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="141"/>
+      <c r="E48" s="165"/>
     </row>
     <row r="49" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="202"/>
-      <c r="B49" s="199"/>
-      <c r="C49" s="202"/>
-      <c r="D49" s="199"/>
-      <c r="E49" s="223"/>
+      <c r="A49" s="144"/>
+      <c r="B49" s="141"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="141"/>
+      <c r="E49" s="165"/>
     </row>
     <row r="50" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="202"/>
-      <c r="B50" s="199"/>
-      <c r="C50" s="202"/>
-      <c r="D50" s="199"/>
-      <c r="E50" s="223"/>
+      <c r="A50" s="144"/>
+      <c r="B50" s="141"/>
+      <c r="C50" s="144"/>
+      <c r="D50" s="141"/>
+      <c r="E50" s="165"/>
     </row>
     <row r="51" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="202"/>
-      <c r="B51" s="199"/>
-      <c r="C51" s="202"/>
-      <c r="D51" s="199"/>
-      <c r="E51" s="223"/>
+      <c r="A51" s="144"/>
+      <c r="B51" s="141"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="141"/>
+      <c r="E51" s="165"/>
     </row>
     <row r="52" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="202"/>
-      <c r="B52" s="199"/>
-      <c r="C52" s="202"/>
-      <c r="D52" s="199"/>
-      <c r="E52" s="223"/>
+      <c r="A52" s="144"/>
+      <c r="B52" s="141"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="141"/>
+      <c r="E52" s="165"/>
     </row>
     <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="202"/>
-      <c r="B53" s="199"/>
-      <c r="C53" s="202"/>
-      <c r="D53" s="199"/>
-      <c r="E53" s="223"/>
+      <c r="A53" s="144"/>
+      <c r="B53" s="141"/>
+      <c r="C53" s="144"/>
+      <c r="D53" s="141"/>
+      <c r="E53" s="165"/>
     </row>
     <row r="54" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="202"/>
-      <c r="B54" s="199"/>
-      <c r="C54" s="202"/>
-      <c r="D54" s="199"/>
-      <c r="E54" s="223"/>
+      <c r="A54" s="144"/>
+      <c r="B54" s="141"/>
+      <c r="C54" s="144"/>
+      <c r="D54" s="141"/>
+      <c r="E54" s="165"/>
     </row>
     <row r="55" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="202"/>
-      <c r="B55" s="199"/>
-      <c r="C55" s="202"/>
-      <c r="D55" s="199"/>
-      <c r="E55" s="223"/>
+      <c r="A55" s="144"/>
+      <c r="B55" s="141"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="141"/>
+      <c r="E55" s="165"/>
     </row>
     <row r="56" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="202"/>
-      <c r="B56" s="199"/>
-      <c r="C56" s="202"/>
-      <c r="D56" s="199"/>
-      <c r="E56" s="223"/>
+      <c r="A56" s="144"/>
+      <c r="B56" s="141"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="141"/>
+      <c r="E56" s="165"/>
     </row>
     <row r="57" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="202"/>
-      <c r="B57" s="199"/>
-      <c r="C57" s="202"/>
-      <c r="D57" s="199"/>
-      <c r="E57" s="223"/>
+      <c r="A57" s="144"/>
+      <c r="B57" s="141"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="141"/>
+      <c r="E57" s="165"/>
     </row>
     <row r="58" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="202"/>
-      <c r="B58" s="199"/>
-      <c r="C58" s="202"/>
-      <c r="D58" s="199"/>
-      <c r="E58" s="223"/>
+      <c r="A58" s="144"/>
+      <c r="B58" s="141"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="141"/>
+      <c r="E58" s="165"/>
     </row>
     <row r="59" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="202"/>
-      <c r="B59" s="199"/>
-      <c r="C59" s="202"/>
-      <c r="D59" s="199"/>
-      <c r="E59" s="223"/>
+      <c r="A59" s="144"/>
+      <c r="B59" s="141"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="141"/>
+      <c r="E59" s="165"/>
     </row>
     <row r="60" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="202"/>
-      <c r="B60" s="199"/>
-      <c r="C60" s="202"/>
-      <c r="D60" s="199"/>
-      <c r="E60" s="223"/>
+      <c r="A60" s="144"/>
+      <c r="B60" s="141"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="141"/>
+      <c r="E60" s="165"/>
     </row>
     <row r="61" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="202"/>
-      <c r="B61" s="199"/>
-      <c r="C61" s="202"/>
-      <c r="D61" s="199"/>
-      <c r="E61" s="223"/>
+      <c r="A61" s="144"/>
+      <c r="B61" s="141"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="141"/>
+      <c r="E61" s="165"/>
     </row>
     <row r="62" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="202"/>
-      <c r="B62" s="199"/>
-      <c r="C62" s="202"/>
-      <c r="D62" s="199"/>
-      <c r="E62" s="223"/>
+      <c r="A62" s="144"/>
+      <c r="B62" s="141"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="141"/>
+      <c r="E62" s="165"/>
     </row>
     <row r="63" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="202"/>
-      <c r="B63" s="199"/>
-      <c r="C63" s="202"/>
-      <c r="D63" s="199"/>
-      <c r="E63" s="223"/>
+      <c r="A63" s="144"/>
+      <c r="B63" s="141"/>
+      <c r="C63" s="144"/>
+      <c r="D63" s="141"/>
+      <c r="E63" s="165"/>
     </row>
     <row r="64" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="202"/>
-      <c r="B64" s="199"/>
-      <c r="C64" s="202"/>
-      <c r="D64" s="199"/>
-      <c r="E64" s="223"/>
+      <c r="A64" s="144"/>
+      <c r="B64" s="141"/>
+      <c r="C64" s="144"/>
+      <c r="D64" s="141"/>
+      <c r="E64" s="165"/>
     </row>
     <row r="65" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="202"/>
-      <c r="B65" s="199"/>
-      <c r="C65" s="202"/>
-      <c r="D65" s="199"/>
-      <c r="E65" s="223"/>
+      <c r="A65" s="144"/>
+      <c r="B65" s="141"/>
+      <c r="C65" s="144"/>
+      <c r="D65" s="141"/>
+      <c r="E65" s="165"/>
     </row>
     <row r="66" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="202"/>
-      <c r="B66" s="199"/>
-      <c r="C66" s="202"/>
-      <c r="D66" s="199"/>
-      <c r="E66" s="223"/>
+      <c r="A66" s="144"/>
+      <c r="B66" s="141"/>
+      <c r="C66" s="144"/>
+      <c r="D66" s="141"/>
+      <c r="E66" s="165"/>
     </row>
     <row r="67" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="202"/>
-      <c r="B67" s="199"/>
-      <c r="C67" s="202"/>
-      <c r="D67" s="199"/>
-      <c r="E67" s="223"/>
+      <c r="A67" s="144"/>
+      <c r="B67" s="141"/>
+      <c r="C67" s="144"/>
+      <c r="D67" s="141"/>
+      <c r="E67" s="165"/>
     </row>
     <row r="68" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="202"/>
-      <c r="B68" s="199"/>
-      <c r="C68" s="202"/>
-      <c r="D68" s="199"/>
-      <c r="E68" s="223"/>
+      <c r="A68" s="144"/>
+      <c r="B68" s="141"/>
+      <c r="C68" s="144"/>
+      <c r="D68" s="141"/>
+      <c r="E68" s="165"/>
     </row>
     <row r="69" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="202"/>
-      <c r="B69" s="199"/>
-      <c r="C69" s="202"/>
-      <c r="D69" s="199"/>
-      <c r="E69" s="223"/>
+      <c r="A69" s="144"/>
+      <c r="B69" s="141"/>
+      <c r="C69" s="144"/>
+      <c r="D69" s="141"/>
+      <c r="E69" s="165"/>
     </row>
     <row r="70" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="202"/>
-      <c r="B70" s="199"/>
-      <c r="C70" s="202"/>
-      <c r="D70" s="199"/>
-      <c r="E70" s="223"/>
+      <c r="A70" s="144"/>
+      <c r="B70" s="141"/>
+      <c r="C70" s="144"/>
+      <c r="D70" s="141"/>
+      <c r="E70" s="165"/>
     </row>
     <row r="71" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="202"/>
-      <c r="B71" s="199"/>
-      <c r="C71" s="202"/>
-      <c r="D71" s="199"/>
-      <c r="E71" s="223"/>
+      <c r="A71" s="144"/>
+      <c r="B71" s="141"/>
+      <c r="C71" s="144"/>
+      <c r="D71" s="141"/>
+      <c r="E71" s="165"/>
     </row>
     <row r="72" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="202"/>
-      <c r="B72" s="199"/>
-      <c r="C72" s="202"/>
-      <c r="D72" s="199"/>
-      <c r="E72" s="223"/>
+      <c r="A72" s="144"/>
+      <c r="B72" s="141"/>
+      <c r="C72" s="144"/>
+      <c r="D72" s="141"/>
+      <c r="E72" s="165"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="202"/>
-      <c r="B73" s="199"/>
-      <c r="C73" s="202"/>
-      <c r="D73" s="199"/>
-      <c r="E73" s="223"/>
+      <c r="A73" s="144"/>
+      <c r="B73" s="141"/>
+      <c r="C73" s="144"/>
+      <c r="D73" s="141"/>
+      <c r="E73" s="165"/>
     </row>
     <row r="74" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="202"/>
-      <c r="B74" s="199"/>
-      <c r="C74" s="202"/>
-      <c r="D74" s="199"/>
-      <c r="E74" s="223"/>
+      <c r="A74" s="144"/>
+      <c r="B74" s="141"/>
+      <c r="C74" s="144"/>
+      <c r="D74" s="141"/>
+      <c r="E74" s="165"/>
     </row>
     <row r="75" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="202"/>
-      <c r="B75" s="199"/>
-      <c r="C75" s="202"/>
-      <c r="D75" s="199"/>
-      <c r="E75" s="223"/>
+      <c r="A75" s="144"/>
+      <c r="B75" s="141"/>
+      <c r="C75" s="144"/>
+      <c r="D75" s="141"/>
+      <c r="E75" s="165"/>
     </row>
     <row r="76" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="202"/>
-      <c r="B76" s="199"/>
-      <c r="C76" s="202"/>
-      <c r="D76" s="199"/>
-      <c r="E76" s="223"/>
+      <c r="A76" s="144"/>
+      <c r="B76" s="141"/>
+      <c r="C76" s="144"/>
+      <c r="D76" s="141"/>
+      <c r="E76" s="165"/>
     </row>
     <row r="77" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="202"/>
-      <c r="B77" s="199"/>
-      <c r="C77" s="202"/>
-      <c r="D77" s="199"/>
-      <c r="E77" s="223"/>
+      <c r="A77" s="144"/>
+      <c r="B77" s="141"/>
+      <c r="C77" s="144"/>
+      <c r="D77" s="141"/>
+      <c r="E77" s="165"/>
     </row>
     <row r="78" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="202"/>
-      <c r="B78" s="199"/>
-      <c r="C78" s="202"/>
-      <c r="D78" s="199"/>
-      <c r="E78" s="223"/>
+      <c r="A78" s="144"/>
+      <c r="B78" s="141"/>
+      <c r="C78" s="144"/>
+      <c r="D78" s="141"/>
+      <c r="E78" s="165"/>
     </row>
     <row r="79" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="202"/>
-      <c r="B79" s="199"/>
-      <c r="C79" s="202"/>
-      <c r="D79" s="199"/>
-      <c r="E79" s="223"/>
+      <c r="A79" s="144"/>
+      <c r="B79" s="141"/>
+      <c r="C79" s="144"/>
+      <c r="D79" s="141"/>
+      <c r="E79" s="165"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="202"/>
-      <c r="B80" s="199"/>
-      <c r="C80" s="202"/>
-      <c r="D80" s="199"/>
-      <c r="E80" s="223"/>
+      <c r="A80" s="144"/>
+      <c r="B80" s="141"/>
+      <c r="C80" s="144"/>
+      <c r="D80" s="141"/>
+      <c r="E80" s="165"/>
     </row>
     <row r="81" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="202"/>
-      <c r="B81" s="199"/>
-      <c r="C81" s="202"/>
-      <c r="D81" s="199"/>
-      <c r="E81" s="223"/>
+      <c r="A81" s="144"/>
+      <c r="B81" s="141"/>
+      <c r="C81" s="144"/>
+      <c r="D81" s="141"/>
+      <c r="E81" s="165"/>
     </row>
     <row r="82" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="202"/>
-      <c r="B82" s="199"/>
-      <c r="C82" s="202"/>
-      <c r="D82" s="199"/>
-      <c r="E82" s="223"/>
+      <c r="A82" s="144"/>
+      <c r="B82" s="141"/>
+      <c r="C82" s="144"/>
+      <c r="D82" s="141"/>
+      <c r="E82" s="165"/>
     </row>
     <row r="83" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="202"/>
-      <c r="B83" s="199"/>
-      <c r="C83" s="202"/>
-      <c r="D83" s="199"/>
-      <c r="E83" s="223"/>
+      <c r="A83" s="144"/>
+      <c r="B83" s="141"/>
+      <c r="C83" s="144"/>
+      <c r="D83" s="141"/>
+      <c r="E83" s="165"/>
     </row>
     <row r="84" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="202"/>
-      <c r="B84" s="199"/>
-      <c r="C84" s="202"/>
-      <c r="D84" s="199"/>
-      <c r="E84" s="223"/>
+      <c r="A84" s="144"/>
+      <c r="B84" s="141"/>
+      <c r="C84" s="144"/>
+      <c r="D84" s="141"/>
+      <c r="E84" s="165"/>
     </row>
     <row r="85" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="202"/>
-      <c r="B85" s="199"/>
-      <c r="C85" s="202"/>
-      <c r="D85" s="199"/>
-      <c r="E85" s="223"/>
+      <c r="A85" s="144"/>
+      <c r="B85" s="141"/>
+      <c r="C85" s="144"/>
+      <c r="D85" s="141"/>
+      <c r="E85" s="165"/>
     </row>
     <row r="86" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="202"/>
-      <c r="B86" s="199"/>
-      <c r="C86" s="202"/>
-      <c r="D86" s="199"/>
-      <c r="E86" s="223"/>
+      <c r="A86" s="144"/>
+      <c r="B86" s="141"/>
+      <c r="C86" s="144"/>
+      <c r="D86" s="141"/>
+      <c r="E86" s="165"/>
     </row>
     <row r="87" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="202"/>
-      <c r="B87" s="199"/>
-      <c r="C87" s="202"/>
-      <c r="D87" s="199"/>
-      <c r="E87" s="223"/>
+      <c r="A87" s="144"/>
+      <c r="B87" s="141"/>
+      <c r="C87" s="144"/>
+      <c r="D87" s="141"/>
+      <c r="E87" s="165"/>
     </row>
     <row r="88" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="202"/>
-      <c r="B88" s="199"/>
-      <c r="C88" s="202"/>
-      <c r="D88" s="199"/>
-      <c r="E88" s="223"/>
+      <c r="A88" s="144"/>
+      <c r="B88" s="141"/>
+      <c r="C88" s="144"/>
+      <c r="D88" s="141"/>
+      <c r="E88" s="165"/>
     </row>
     <row r="89" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="202"/>
-      <c r="B89" s="199"/>
-      <c r="C89" s="202"/>
-      <c r="D89" s="199"/>
-      <c r="E89" s="223"/>
+      <c r="A89" s="144"/>
+      <c r="B89" s="141"/>
+      <c r="C89" s="144"/>
+      <c r="D89" s="141"/>
+      <c r="E89" s="165"/>
     </row>
     <row r="90" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="202"/>
-      <c r="B90" s="199"/>
-      <c r="C90" s="202"/>
-      <c r="D90" s="199"/>
-      <c r="E90" s="223"/>
+      <c r="A90" s="144"/>
+      <c r="B90" s="141"/>
+      <c r="C90" s="144"/>
+      <c r="D90" s="141"/>
+      <c r="E90" s="165"/>
     </row>
     <row r="91" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="202"/>
-      <c r="B91" s="199"/>
-      <c r="C91" s="202"/>
-      <c r="D91" s="199"/>
-      <c r="E91" s="223"/>
+      <c r="A91" s="144"/>
+      <c r="B91" s="141"/>
+      <c r="C91" s="144"/>
+      <c r="D91" s="141"/>
+      <c r="E91" s="165"/>
     </row>
     <row r="92" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="202"/>
-      <c r="B92" s="199"/>
-      <c r="C92" s="202"/>
-      <c r="D92" s="199"/>
-      <c r="E92" s="223"/>
+      <c r="A92" s="144"/>
+      <c r="B92" s="141"/>
+      <c r="C92" s="144"/>
+      <c r="D92" s="141"/>
+      <c r="E92" s="165"/>
     </row>
     <row r="93" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="202"/>
-      <c r="B93" s="199"/>
-      <c r="C93" s="202"/>
-      <c r="D93" s="199"/>
-      <c r="E93" s="223"/>
+      <c r="A93" s="144"/>
+      <c r="B93" s="141"/>
+      <c r="C93" s="144"/>
+      <c r="D93" s="141"/>
+      <c r="E93" s="165"/>
     </row>
     <row r="94" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="202"/>
-      <c r="B94" s="199"/>
-      <c r="C94" s="202"/>
-      <c r="D94" s="199"/>
-      <c r="E94" s="223"/>
+      <c r="A94" s="144"/>
+      <c r="B94" s="141"/>
+      <c r="C94" s="144"/>
+      <c r="D94" s="141"/>
+      <c r="E94" s="165"/>
     </row>
     <row r="95" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="202"/>
-      <c r="B95" s="199"/>
-      <c r="C95" s="202"/>
-      <c r="D95" s="199"/>
-      <c r="E95" s="223"/>
+      <c r="A95" s="144"/>
+      <c r="B95" s="141"/>
+      <c r="C95" s="144"/>
+      <c r="D95" s="141"/>
+      <c r="E95" s="165"/>
     </row>
     <row r="96" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="202"/>
-      <c r="B96" s="199"/>
-      <c r="C96" s="202"/>
-      <c r="D96" s="199"/>
-      <c r="E96" s="223"/>
+      <c r="A96" s="144"/>
+      <c r="B96" s="141"/>
+      <c r="C96" s="144"/>
+      <c r="D96" s="141"/>
+      <c r="E96" s="165"/>
     </row>
     <row r="97" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="202"/>
-      <c r="B97" s="199"/>
-      <c r="C97" s="202"/>
-      <c r="D97" s="199"/>
-      <c r="E97" s="223"/>
+      <c r="A97" s="144"/>
+      <c r="B97" s="141"/>
+      <c r="C97" s="144"/>
+      <c r="D97" s="141"/>
+      <c r="E97" s="165"/>
     </row>
     <row r="98" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="202"/>
-      <c r="B98" s="199"/>
-      <c r="C98" s="202"/>
-      <c r="D98" s="199"/>
-      <c r="E98" s="223"/>
+      <c r="A98" s="144"/>
+      <c r="B98" s="141"/>
+      <c r="C98" s="144"/>
+      <c r="D98" s="141"/>
+      <c r="E98" s="165"/>
     </row>
     <row r="99" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="202"/>
-      <c r="B99" s="199"/>
-      <c r="C99" s="202"/>
-      <c r="D99" s="199"/>
-      <c r="E99" s="223"/>
+      <c r="A99" s="144"/>
+      <c r="B99" s="141"/>
+      <c r="C99" s="144"/>
+      <c r="D99" s="141"/>
+      <c r="E99" s="165"/>
     </row>
     <row r="100" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="202"/>
-      <c r="B100" s="199"/>
-      <c r="C100" s="202"/>
-      <c r="D100" s="199"/>
-      <c r="E100" s="223"/>
+      <c r="A100" s="144"/>
+      <c r="B100" s="141"/>
+      <c r="C100" s="144"/>
+      <c r="D100" s="141"/>
+      <c r="E100" s="165"/>
     </row>
     <row r="101" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="202"/>
-      <c r="B101" s="199"/>
-      <c r="C101" s="202"/>
-      <c r="D101" s="199"/>
-      <c r="E101" s="223"/>
+      <c r="A101" s="144"/>
+      <c r="B101" s="141"/>
+      <c r="C101" s="144"/>
+      <c r="D101" s="141"/>
+      <c r="E101" s="165"/>
     </row>
     <row r="102" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="202"/>
-      <c r="B102" s="199"/>
-      <c r="C102" s="202"/>
-      <c r="D102" s="199"/>
-      <c r="E102" s="223"/>
+      <c r="A102" s="144"/>
+      <c r="B102" s="141"/>
+      <c r="C102" s="144"/>
+      <c r="D102" s="141"/>
+      <c r="E102" s="165"/>
     </row>
     <row r="103" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="202"/>
-      <c r="B103" s="199"/>
-      <c r="C103" s="202"/>
-      <c r="D103" s="199"/>
-      <c r="E103" s="223"/>
+      <c r="A103" s="144"/>
+      <c r="B103" s="141"/>
+      <c r="C103" s="144"/>
+      <c r="D103" s="141"/>
+      <c r="E103" s="165"/>
     </row>
     <row r="104" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="202"/>
-      <c r="B104" s="199"/>
-      <c r="C104" s="202"/>
-      <c r="D104" s="199"/>
-      <c r="E104" s="223"/>
+      <c r="A104" s="144"/>
+      <c r="B104" s="141"/>
+      <c r="C104" s="144"/>
+      <c r="D104" s="141"/>
+      <c r="E104" s="165"/>
     </row>
     <row r="105" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="202"/>
-      <c r="B105" s="199"/>
-      <c r="C105" s="202"/>
-      <c r="D105" s="199"/>
-      <c r="E105" s="223"/>
+      <c r="A105" s="144"/>
+      <c r="B105" s="141"/>
+      <c r="C105" s="144"/>
+      <c r="D105" s="141"/>
+      <c r="E105" s="165"/>
     </row>
     <row r="106" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="202"/>
-      <c r="B106" s="199"/>
-      <c r="C106" s="202"/>
-      <c r="D106" s="199"/>
-      <c r="E106" s="223"/>
+      <c r="A106" s="144"/>
+      <c r="B106" s="141"/>
+      <c r="C106" s="144"/>
+      <c r="D106" s="141"/>
+      <c r="E106" s="165"/>
     </row>
     <row r="107" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="202"/>
-      <c r="B107" s="199"/>
-      <c r="C107" s="202"/>
-      <c r="D107" s="199"/>
-      <c r="E107" s="223"/>
+      <c r="A107" s="144"/>
+      <c r="B107" s="141"/>
+      <c r="C107" s="144"/>
+      <c r="D107" s="141"/>
+      <c r="E107" s="165"/>
     </row>
     <row r="108" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="202"/>
-      <c r="B108" s="199"/>
-      <c r="C108" s="202"/>
-      <c r="D108" s="199"/>
-      <c r="E108" s="223"/>
+      <c r="A108" s="144"/>
+      <c r="B108" s="141"/>
+      <c r="C108" s="144"/>
+      <c r="D108" s="141"/>
+      <c r="E108" s="165"/>
     </row>
     <row r="109" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="202"/>
-      <c r="B109" s="199"/>
-      <c r="C109" s="202"/>
-      <c r="D109" s="199"/>
-      <c r="E109" s="223"/>
+      <c r="A109" s="144"/>
+      <c r="B109" s="141"/>
+      <c r="C109" s="144"/>
+      <c r="D109" s="141"/>
+      <c r="E109" s="165"/>
     </row>
     <row r="110" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="202"/>
-      <c r="B110" s="199"/>
-      <c r="C110" s="202"/>
-      <c r="D110" s="199"/>
-      <c r="E110" s="223"/>
+      <c r="A110" s="144"/>
+      <c r="B110" s="141"/>
+      <c r="C110" s="144"/>
+      <c r="D110" s="141"/>
+      <c r="E110" s="165"/>
     </row>
     <row r="111" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="202"/>
-      <c r="B111" s="199"/>
-      <c r="C111" s="202"/>
-      <c r="D111" s="199"/>
-      <c r="E111" s="223"/>
+      <c r="A111" s="144"/>
+      <c r="B111" s="141"/>
+      <c r="C111" s="144"/>
+      <c r="D111" s="141"/>
+      <c r="E111" s="165"/>
     </row>
     <row r="112" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="202"/>
-      <c r="B112" s="199"/>
-      <c r="C112" s="202"/>
-      <c r="D112" s="199"/>
-      <c r="E112" s="223"/>
+      <c r="A112" s="144"/>
+      <c r="B112" s="141"/>
+      <c r="C112" s="144"/>
+      <c r="D112" s="141"/>
+      <c r="E112" s="165"/>
     </row>
     <row r="113" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="202"/>
-      <c r="B113" s="199"/>
-      <c r="C113" s="202"/>
-      <c r="D113" s="199"/>
-      <c r="E113" s="223"/>
+      <c r="A113" s="144"/>
+      <c r="B113" s="141"/>
+      <c r="C113" s="144"/>
+      <c r="D113" s="141"/>
+      <c r="E113" s="165"/>
     </row>
     <row r="114" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="202"/>
-      <c r="B114" s="199"/>
-      <c r="C114" s="202"/>
-      <c r="D114" s="199"/>
-      <c r="E114" s="223"/>
+      <c r="A114" s="144"/>
+      <c r="B114" s="141"/>
+      <c r="C114" s="144"/>
+      <c r="D114" s="141"/>
+      <c r="E114" s="165"/>
     </row>
     <row r="115" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="202"/>
-      <c r="B115" s="199"/>
-      <c r="C115" s="202"/>
-      <c r="D115" s="199"/>
-      <c r="E115" s="223"/>
+      <c r="A115" s="144"/>
+      <c r="B115" s="141"/>
+      <c r="C115" s="144"/>
+      <c r="D115" s="141"/>
+      <c r="E115" s="165"/>
     </row>
     <row r="116" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="202"/>
-      <c r="B116" s="199"/>
-      <c r="C116" s="202"/>
-      <c r="D116" s="199"/>
-      <c r="E116" s="223"/>
+      <c r="A116" s="144"/>
+      <c r="B116" s="141"/>
+      <c r="C116" s="144"/>
+      <c r="D116" s="141"/>
+      <c r="E116" s="165"/>
     </row>
     <row r="117" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="202"/>
-      <c r="B117" s="199"/>
-      <c r="C117" s="202"/>
-      <c r="D117" s="199"/>
-      <c r="E117" s="223"/>
+      <c r="A117" s="144"/>
+      <c r="B117" s="141"/>
+      <c r="C117" s="144"/>
+      <c r="D117" s="141"/>
+      <c r="E117" s="165"/>
     </row>
     <row r="118" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="202"/>
-      <c r="B118" s="199"/>
-      <c r="C118" s="202"/>
-      <c r="D118" s="199"/>
-      <c r="E118" s="223"/>
+      <c r="A118" s="144"/>
+      <c r="B118" s="141"/>
+      <c r="C118" s="144"/>
+      <c r="D118" s="141"/>
+      <c r="E118" s="165"/>
     </row>
     <row r="119" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="202"/>
-      <c r="B119" s="199"/>
-      <c r="C119" s="202"/>
-      <c r="D119" s="199"/>
-      <c r="E119" s="223"/>
+      <c r="A119" s="144"/>
+      <c r="B119" s="141"/>
+      <c r="C119" s="144"/>
+      <c r="D119" s="141"/>
+      <c r="E119" s="165"/>
     </row>
     <row r="120" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="202"/>
-      <c r="B120" s="199"/>
-      <c r="C120" s="202"/>
-      <c r="D120" s="199"/>
-      <c r="E120" s="223"/>
+      <c r="A120" s="144"/>
+      <c r="B120" s="141"/>
+      <c r="C120" s="144"/>
+      <c r="D120" s="141"/>
+      <c r="E120" s="165"/>
     </row>
     <row r="121" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="202"/>
-      <c r="B121" s="199"/>
-      <c r="C121" s="202"/>
-      <c r="D121" s="199"/>
-      <c r="E121" s="223"/>
+      <c r="A121" s="144"/>
+      <c r="B121" s="141"/>
+      <c r="C121" s="144"/>
+      <c r="D121" s="141"/>
+      <c r="E121" s="165"/>
     </row>
     <row r="122" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="202"/>
-      <c r="B122" s="199"/>
-      <c r="C122" s="202"/>
-      <c r="D122" s="199"/>
-      <c r="E122" s="223"/>
+      <c r="A122" s="144"/>
+      <c r="B122" s="141"/>
+      <c r="C122" s="144"/>
+      <c r="D122" s="141"/>
+      <c r="E122" s="165"/>
     </row>
     <row r="123" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="202"/>
-      <c r="B123" s="199"/>
-      <c r="C123" s="202"/>
-      <c r="D123" s="199"/>
-      <c r="E123" s="223"/>
+      <c r="A123" s="144"/>
+      <c r="B123" s="141"/>
+      <c r="C123" s="144"/>
+      <c r="D123" s="141"/>
+      <c r="E123" s="165"/>
     </row>
     <row r="124" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="202"/>
-      <c r="B124" s="199"/>
-      <c r="C124" s="202"/>
-      <c r="D124" s="199"/>
-      <c r="E124" s="223"/>
+      <c r="A124" s="144"/>
+      <c r="B124" s="141"/>
+      <c r="C124" s="144"/>
+      <c r="D124" s="141"/>
+      <c r="E124" s="165"/>
     </row>
     <row r="125" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="202"/>
-      <c r="B125" s="199"/>
-      <c r="C125" s="202"/>
-      <c r="D125" s="199"/>
-      <c r="E125" s="223"/>
+      <c r="A125" s="144"/>
+      <c r="B125" s="141"/>
+      <c r="C125" s="144"/>
+      <c r="D125" s="141"/>
+      <c r="E125" s="165"/>
     </row>
     <row r="126" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="202"/>
-      <c r="B126" s="199"/>
-      <c r="C126" s="202"/>
-      <c r="D126" s="199"/>
-      <c r="E126" s="223"/>
+      <c r="A126" s="144"/>
+      <c r="B126" s="141"/>
+      <c r="C126" s="144"/>
+      <c r="D126" s="141"/>
+      <c r="E126" s="165"/>
     </row>
     <row r="127" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="202"/>
-      <c r="B127" s="199"/>
-      <c r="C127" s="202"/>
-      <c r="D127" s="199"/>
-      <c r="E127" s="223"/>
+      <c r="A127" s="144"/>
+      <c r="B127" s="141"/>
+      <c r="C127" s="144"/>
+      <c r="D127" s="141"/>
+      <c r="E127" s="165"/>
     </row>
     <row r="128" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="202"/>
-      <c r="B128" s="199"/>
-      <c r="C128" s="202"/>
-      <c r="D128" s="199"/>
-      <c r="E128" s="223"/>
+      <c r="A128" s="144"/>
+      <c r="B128" s="141"/>
+      <c r="C128" s="144"/>
+      <c r="D128" s="141"/>
+      <c r="E128" s="165"/>
     </row>
     <row r="129" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="202"/>
-      <c r="B129" s="199"/>
-      <c r="C129" s="202"/>
-      <c r="D129" s="199"/>
-      <c r="E129" s="223"/>
+      <c r="A129" s="144"/>
+      <c r="B129" s="141"/>
+      <c r="C129" s="144"/>
+      <c r="D129" s="141"/>
+      <c r="E129" s="165"/>
     </row>
     <row r="130" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="202"/>
-      <c r="B130" s="199"/>
-      <c r="C130" s="202"/>
-      <c r="D130" s="199"/>
-      <c r="E130" s="223"/>
+      <c r="A130" s="144"/>
+      <c r="B130" s="141"/>
+      <c r="C130" s="144"/>
+      <c r="D130" s="141"/>
+      <c r="E130" s="165"/>
     </row>
     <row r="131" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="202"/>
-      <c r="B131" s="199"/>
-      <c r="C131" s="202"/>
-      <c r="D131" s="199"/>
-      <c r="E131" s="223"/>
+      <c r="A131" s="144"/>
+      <c r="B131" s="141"/>
+      <c r="C131" s="144"/>
+      <c r="D131" s="141"/>
+      <c r="E131" s="165"/>
     </row>
     <row r="132" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="202"/>
-      <c r="B132" s="199"/>
-      <c r="C132" s="202"/>
-      <c r="D132" s="199"/>
-      <c r="E132" s="223"/>
+      <c r="A132" s="144"/>
+      <c r="B132" s="141"/>
+      <c r="C132" s="144"/>
+      <c r="D132" s="141"/>
+      <c r="E132" s="165"/>
     </row>
     <row r="133" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="202"/>
-      <c r="B133" s="199"/>
-      <c r="C133" s="202"/>
-      <c r="D133" s="199"/>
-      <c r="E133" s="223"/>
+      <c r="A133" s="144"/>
+      <c r="B133" s="141"/>
+      <c r="C133" s="144"/>
+      <c r="D133" s="141"/>
+      <c r="E133" s="165"/>
     </row>
     <row r="134" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="202"/>
-      <c r="B134" s="199"/>
-      <c r="C134" s="202"/>
-      <c r="D134" s="199"/>
-      <c r="E134" s="223"/>
+      <c r="A134" s="144"/>
+      <c r="B134" s="141"/>
+      <c r="C134" s="144"/>
+      <c r="D134" s="141"/>
+      <c r="E134" s="165"/>
     </row>
     <row r="135" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="202"/>
-      <c r="B135" s="199"/>
-      <c r="C135" s="202"/>
-      <c r="D135" s="199"/>
-      <c r="E135" s="223"/>
+      <c r="A135" s="144"/>
+      <c r="B135" s="141"/>
+      <c r="C135" s="144"/>
+      <c r="D135" s="141"/>
+      <c r="E135" s="165"/>
     </row>
     <row r="136" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="202"/>
-      <c r="B136" s="199"/>
-      <c r="C136" s="202"/>
-      <c r="D136" s="199"/>
-      <c r="E136" s="223"/>
+      <c r="A136" s="144"/>
+      <c r="B136" s="141"/>
+      <c r="C136" s="144"/>
+      <c r="D136" s="141"/>
+      <c r="E136" s="165"/>
     </row>
     <row r="137" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="202"/>
-      <c r="B137" s="199"/>
-      <c r="C137" s="202"/>
-      <c r="D137" s="199"/>
-      <c r="E137" s="223"/>
+      <c r="A137" s="144"/>
+      <c r="B137" s="141"/>
+      <c r="C137" s="144"/>
+      <c r="D137" s="141"/>
+      <c r="E137" s="165"/>
     </row>
     <row r="138" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="202"/>
-      <c r="B138" s="199"/>
-      <c r="C138" s="202"/>
-      <c r="D138" s="199"/>
-      <c r="E138" s="223"/>
+      <c r="A138" s="144"/>
+      <c r="B138" s="141"/>
+      <c r="C138" s="144"/>
+      <c r="D138" s="141"/>
+      <c r="E138" s="165"/>
     </row>
     <row r="139" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="202"/>
-      <c r="B139" s="199"/>
-      <c r="C139" s="202"/>
-      <c r="D139" s="199"/>
-      <c r="E139" s="223"/>
+      <c r="A139" s="144"/>
+      <c r="B139" s="141"/>
+      <c r="C139" s="144"/>
+      <c r="D139" s="141"/>
+      <c r="E139" s="165"/>
     </row>
     <row r="140" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="202"/>
-      <c r="B140" s="199"/>
-      <c r="C140" s="202"/>
-      <c r="D140" s="199"/>
-      <c r="E140" s="223"/>
+      <c r="A140" s="144"/>
+      <c r="B140" s="141"/>
+      <c r="C140" s="144"/>
+      <c r="D140" s="141"/>
+      <c r="E140" s="165"/>
     </row>
     <row r="141" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="202"/>
-      <c r="B141" s="199"/>
-      <c r="C141" s="202"/>
-      <c r="D141" s="199"/>
-      <c r="E141" s="223"/>
+      <c r="A141" s="144"/>
+      <c r="B141" s="141"/>
+      <c r="C141" s="144"/>
+      <c r="D141" s="141"/>
+      <c r="E141" s="165"/>
     </row>
     <row r="142" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="202"/>
-      <c r="B142" s="199"/>
-      <c r="C142" s="202"/>
-      <c r="D142" s="199"/>
-      <c r="E142" s="223"/>
+      <c r="A142" s="144"/>
+      <c r="B142" s="141"/>
+      <c r="C142" s="144"/>
+      <c r="D142" s="141"/>
+      <c r="E142" s="165"/>
     </row>
     <row r="143" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="202"/>
-      <c r="B143" s="199"/>
-      <c r="C143" s="202"/>
-      <c r="D143" s="199"/>
-      <c r="E143" s="223"/>
+      <c r="A143" s="144"/>
+      <c r="B143" s="141"/>
+      <c r="C143" s="144"/>
+      <c r="D143" s="141"/>
+      <c r="E143" s="165"/>
     </row>
     <row r="144" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="202"/>
-      <c r="B144" s="199"/>
-      <c r="C144" s="202"/>
-      <c r="D144" s="199"/>
-      <c r="E144" s="223"/>
+      <c r="A144" s="144"/>
+      <c r="B144" s="141"/>
+      <c r="C144" s="144"/>
+      <c r="D144" s="141"/>
+      <c r="E144" s="165"/>
     </row>
     <row r="145" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="202"/>
-      <c r="B145" s="199"/>
-      <c r="C145" s="202"/>
-      <c r="D145" s="199"/>
-      <c r="E145" s="223"/>
+      <c r="A145" s="144"/>
+      <c r="B145" s="141"/>
+      <c r="C145" s="144"/>
+      <c r="D145" s="141"/>
+      <c r="E145" s="165"/>
     </row>
     <row r="146" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="202"/>
-      <c r="B146" s="199"/>
-      <c r="C146" s="202"/>
-      <c r="D146" s="199"/>
-      <c r="E146" s="223"/>
+      <c r="A146" s="144"/>
+      <c r="B146" s="141"/>
+      <c r="C146" s="144"/>
+      <c r="D146" s="141"/>
+      <c r="E146" s="165"/>
     </row>
     <row r="147" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="202"/>
-      <c r="B147" s="199"/>
-      <c r="C147" s="202"/>
-      <c r="D147" s="199"/>
-      <c r="E147" s="223"/>
+      <c r="A147" s="144"/>
+      <c r="B147" s="141"/>
+      <c r="C147" s="144"/>
+      <c r="D147" s="141"/>
+      <c r="E147" s="165"/>
     </row>
     <row r="148" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="202"/>
-      <c r="B148" s="199"/>
-      <c r="C148" s="202"/>
-      <c r="D148" s="199"/>
-      <c r="E148" s="223"/>
+      <c r="A148" s="144"/>
+      <c r="B148" s="141"/>
+      <c r="C148" s="144"/>
+      <c r="D148" s="141"/>
+      <c r="E148" s="165"/>
     </row>
     <row r="149" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="202"/>
-      <c r="B149" s="199"/>
-      <c r="C149" s="202"/>
-      <c r="D149" s="199"/>
-      <c r="E149" s="223"/>
+      <c r="A149" s="144"/>
+      <c r="B149" s="141"/>
+      <c r="C149" s="144"/>
+      <c r="D149" s="141"/>
+      <c r="E149" s="165"/>
     </row>
     <row r="150" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="202"/>
-      <c r="B150" s="199"/>
-      <c r="C150" s="202"/>
-      <c r="D150" s="199"/>
-      <c r="E150" s="223"/>
+      <c r="A150" s="144"/>
+      <c r="B150" s="141"/>
+      <c r="C150" s="144"/>
+      <c r="D150" s="141"/>
+      <c r="E150" s="165"/>
     </row>
     <row r="151" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="202"/>
-      <c r="B151" s="199"/>
-      <c r="C151" s="202"/>
-      <c r="D151" s="199"/>
-      <c r="E151" s="223"/>
+      <c r="A151" s="144"/>
+      <c r="B151" s="141"/>
+      <c r="C151" s="144"/>
+      <c r="D151" s="141"/>
+      <c r="E151" s="165"/>
     </row>
     <row r="152" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="202"/>
-      <c r="B152" s="199"/>
-      <c r="C152" s="202"/>
-      <c r="D152" s="199"/>
-      <c r="E152" s="223"/>
+      <c r="A152" s="144"/>
+      <c r="B152" s="141"/>
+      <c r="C152" s="144"/>
+      <c r="D152" s="141"/>
+      <c r="E152" s="165"/>
     </row>
     <row r="153" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="202"/>
-      <c r="B153" s="199"/>
-      <c r="C153" s="202"/>
-      <c r="D153" s="199"/>
-      <c r="E153" s="223"/>
+      <c r="A153" s="144"/>
+      <c r="B153" s="141"/>
+      <c r="C153" s="144"/>
+      <c r="D153" s="141"/>
+      <c r="E153" s="165"/>
     </row>
     <row r="154" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="202"/>
-      <c r="B154" s="199"/>
-      <c r="C154" s="202"/>
-      <c r="D154" s="199"/>
-      <c r="E154" s="223"/>
+      <c r="A154" s="144"/>
+      <c r="B154" s="141"/>
+      <c r="C154" s="144"/>
+      <c r="D154" s="141"/>
+      <c r="E154" s="165"/>
     </row>
     <row r="155" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="202"/>
-      <c r="B155" s="199"/>
-      <c r="C155" s="202"/>
-      <c r="D155" s="199"/>
-      <c r="E155" s="223"/>
+      <c r="A155" s="144"/>
+      <c r="B155" s="141"/>
+      <c r="C155" s="144"/>
+      <c r="D155" s="141"/>
+      <c r="E155" s="165"/>
     </row>
     <row r="156" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="202"/>
-      <c r="B156" s="199"/>
-      <c r="C156" s="202"/>
-      <c r="D156" s="199"/>
-      <c r="E156" s="223"/>
+      <c r="A156" s="144"/>
+      <c r="B156" s="141"/>
+      <c r="C156" s="144"/>
+      <c r="D156" s="141"/>
+      <c r="E156" s="165"/>
     </row>
     <row r="157" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -6146,412 +7974,412 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F1" sqref="A1:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="219" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="161" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="277" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="277"/>
-      <c r="E1" s="277"/>
+      <c r="C1" s="304" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
     </row>
     <row r="2" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="277" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="277"/>
-      <c r="E2" s="277"/>
+      <c r="C2" s="304" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="225" t="s">
+      <c r="A5" s="167" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="167" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="167" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="167" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="225" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="225" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="225" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="225" t="s">
+      <c r="E5" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="330" t="s">
-        <v>123</v>
+      <c r="F5" s="171" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="224"/>
-      <c r="B6" s="224"/>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="331"/>
+      <c r="A6" s="166"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="172"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="224"/>
-      <c r="B7" s="224"/>
-      <c r="C7" s="224"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
-      <c r="F7" s="331"/>
+      <c r="A7" s="166"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="172"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="224"/>
-      <c r="B8" s="224"/>
-      <c r="C8" s="224"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="331"/>
+      <c r="A8" s="166"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="172"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="224"/>
-      <c r="B9" s="224"/>
-      <c r="C9" s="224"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="331"/>
+      <c r="A9" s="166"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="172"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="224"/>
-      <c r="B10" s="224"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="331"/>
+      <c r="A10" s="166"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="172"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="224"/>
-      <c r="B11" s="224"/>
-      <c r="C11" s="224"/>
-      <c r="D11" s="224"/>
-      <c r="E11" s="224"/>
-      <c r="F11" s="331"/>
+      <c r="A11" s="166"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="172"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="224"/>
-      <c r="B12" s="224"/>
-      <c r="C12" s="224"/>
-      <c r="D12" s="224"/>
-      <c r="E12" s="224"/>
-      <c r="F12" s="331"/>
+      <c r="A12" s="166"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="172"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="224"/>
-      <c r="B13" s="224"/>
-      <c r="C13" s="224"/>
-      <c r="D13" s="224"/>
-      <c r="E13" s="224"/>
-      <c r="F13" s="331"/>
+      <c r="A13" s="166"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="172"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="224"/>
-      <c r="B14" s="224"/>
-      <c r="C14" s="224"/>
-      <c r="D14" s="224"/>
-      <c r="E14" s="224"/>
-      <c r="F14" s="331"/>
+      <c r="A14" s="166"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="172"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="224"/>
-      <c r="B15" s="224"/>
-      <c r="C15" s="224"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="224"/>
-      <c r="F15" s="331"/>
+      <c r="A15" s="166"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="172"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="224"/>
-      <c r="B16" s="224"/>
-      <c r="C16" s="224"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="224"/>
-      <c r="F16" s="331"/>
+      <c r="A16" s="166"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="172"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="224"/>
-      <c r="B17" s="224"/>
-      <c r="C17" s="224"/>
-      <c r="D17" s="224"/>
-      <c r="E17" s="224"/>
-      <c r="F17" s="331"/>
+      <c r="A17" s="166"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="172"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="224"/>
-      <c r="B18" s="224"/>
-      <c r="C18" s="224"/>
-      <c r="D18" s="224"/>
-      <c r="E18" s="224"/>
-      <c r="F18" s="331"/>
+      <c r="A18" s="166"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="172"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="224"/>
-      <c r="B19" s="224"/>
-      <c r="C19" s="224"/>
-      <c r="D19" s="224"/>
-      <c r="E19" s="224"/>
-      <c r="F19" s="331"/>
+      <c r="A19" s="166"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="172"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="224"/>
-      <c r="B20" s="224"/>
-      <c r="C20" s="224"/>
-      <c r="D20" s="224"/>
-      <c r="E20" s="224"/>
-      <c r="F20" s="331"/>
+      <c r="A20" s="166"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="172"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="224"/>
-      <c r="B21" s="224"/>
-      <c r="C21" s="224"/>
-      <c r="D21" s="224"/>
-      <c r="E21" s="224"/>
-      <c r="F21" s="331"/>
+      <c r="A21" s="166"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="172"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="224"/>
-      <c r="B22" s="224"/>
-      <c r="C22" s="224"/>
-      <c r="D22" s="224"/>
-      <c r="E22" s="224"/>
-      <c r="F22" s="331"/>
+      <c r="A22" s="166"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="172"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="224"/>
-      <c r="B23" s="224"/>
-      <c r="C23" s="224"/>
-      <c r="D23" s="224"/>
-      <c r="E23" s="224"/>
-      <c r="F23" s="331"/>
+      <c r="A23" s="166"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="172"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="224"/>
-      <c r="B24" s="224"/>
-      <c r="C24" s="224"/>
-      <c r="D24" s="224"/>
-      <c r="E24" s="224"/>
-      <c r="F24" s="331"/>
+      <c r="A24" s="166"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="166"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="172"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="224"/>
-      <c r="B25" s="224"/>
-      <c r="C25" s="224"/>
-      <c r="D25" s="224"/>
-      <c r="E25" s="224"/>
-      <c r="F25" s="331"/>
+      <c r="A25" s="166"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="172"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="224"/>
-      <c r="B26" s="224"/>
-      <c r="C26" s="224"/>
-      <c r="D26" s="224"/>
-      <c r="E26" s="224"/>
-      <c r="F26" s="331"/>
+      <c r="A26" s="166"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="172"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="224"/>
-      <c r="B27" s="224"/>
-      <c r="C27" s="224"/>
-      <c r="D27" s="224"/>
-      <c r="E27" s="224"/>
-      <c r="F27" s="331"/>
+      <c r="A27" s="166"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="172"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="224"/>
-      <c r="B28" s="224"/>
-      <c r="C28" s="224"/>
-      <c r="D28" s="224"/>
-      <c r="E28" s="224"/>
-      <c r="F28" s="331"/>
+      <c r="A28" s="166"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="172"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="224"/>
-      <c r="B29" s="224"/>
-      <c r="C29" s="224"/>
-      <c r="D29" s="224"/>
-      <c r="E29" s="224"/>
-      <c r="F29" s="331"/>
+      <c r="A29" s="166"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="172"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="224"/>
-      <c r="B30" s="224"/>
-      <c r="C30" s="224"/>
-      <c r="D30" s="224"/>
-      <c r="E30" s="224"/>
-      <c r="F30" s="331"/>
+      <c r="A30" s="166"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="172"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="224"/>
-      <c r="B31" s="224"/>
-      <c r="C31" s="224"/>
-      <c r="D31" s="224"/>
-      <c r="E31" s="224"/>
-      <c r="F31" s="331"/>
+      <c r="A31" s="166"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="166"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="172"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="224"/>
-      <c r="B32" s="224"/>
-      <c r="C32" s="224"/>
-      <c r="D32" s="224"/>
-      <c r="E32" s="224"/>
-      <c r="F32" s="331"/>
+      <c r="A32" s="166"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="172"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="224"/>
-      <c r="B33" s="224"/>
-      <c r="C33" s="224"/>
-      <c r="D33" s="224"/>
-      <c r="E33" s="224"/>
-      <c r="F33" s="331"/>
+      <c r="A33" s="166"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="166"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="172"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="224"/>
-      <c r="B34" s="224"/>
-      <c r="C34" s="224"/>
-      <c r="D34" s="224"/>
-      <c r="E34" s="224"/>
-      <c r="F34" s="331"/>
+      <c r="A34" s="166"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="166"/>
+      <c r="F34" s="172"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="224"/>
-      <c r="B35" s="224"/>
-      <c r="C35" s="224"/>
-      <c r="D35" s="224"/>
-      <c r="E35" s="224"/>
-      <c r="F35" s="331"/>
+      <c r="A35" s="166"/>
+      <c r="B35" s="166"/>
+      <c r="C35" s="166"/>
+      <c r="D35" s="166"/>
+      <c r="E35" s="166"/>
+      <c r="F35" s="172"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="224"/>
-      <c r="B36" s="224"/>
-      <c r="C36" s="224"/>
-      <c r="D36" s="224"/>
-      <c r="E36" s="224"/>
-      <c r="F36" s="331"/>
+      <c r="A36" s="166"/>
+      <c r="B36" s="166"/>
+      <c r="C36" s="166"/>
+      <c r="D36" s="166"/>
+      <c r="E36" s="166"/>
+      <c r="F36" s="172"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="224"/>
-      <c r="B37" s="224"/>
-      <c r="C37" s="224"/>
-      <c r="D37" s="224"/>
-      <c r="E37" s="224"/>
-      <c r="F37" s="331"/>
+      <c r="A37" s="166"/>
+      <c r="B37" s="166"/>
+      <c r="C37" s="166"/>
+      <c r="D37" s="166"/>
+      <c r="E37" s="166"/>
+      <c r="F37" s="172"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="224"/>
-      <c r="B38" s="224"/>
-      <c r="C38" s="224"/>
-      <c r="D38" s="224"/>
-      <c r="E38" s="224"/>
-      <c r="F38" s="331"/>
+      <c r="A38" s="166"/>
+      <c r="B38" s="166"/>
+      <c r="C38" s="166"/>
+      <c r="D38" s="166"/>
+      <c r="E38" s="166"/>
+      <c r="F38" s="172"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="224"/>
-      <c r="B39" s="224"/>
-      <c r="C39" s="224"/>
-      <c r="D39" s="224"/>
-      <c r="E39" s="224"/>
-      <c r="F39" s="331"/>
+      <c r="A39" s="166"/>
+      <c r="B39" s="166"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="166"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="172"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="224"/>
-      <c r="B40" s="224"/>
-      <c r="C40" s="224"/>
-      <c r="D40" s="224"/>
-      <c r="E40" s="224"/>
-      <c r="F40" s="331"/>
+      <c r="A40" s="166"/>
+      <c r="B40" s="166"/>
+      <c r="C40" s="166"/>
+      <c r="D40" s="166"/>
+      <c r="E40" s="166"/>
+      <c r="F40" s="172"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="224"/>
-      <c r="B41" s="224"/>
-      <c r="C41" s="224"/>
-      <c r="D41" s="224"/>
-      <c r="E41" s="224"/>
-      <c r="F41" s="331"/>
+      <c r="A41" s="166"/>
+      <c r="B41" s="166"/>
+      <c r="C41" s="166"/>
+      <c r="D41" s="166"/>
+      <c r="E41" s="166"/>
+      <c r="F41" s="172"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="224"/>
-      <c r="B42" s="224"/>
-      <c r="C42" s="224"/>
-      <c r="D42" s="224"/>
-      <c r="E42" s="224"/>
-      <c r="F42" s="331"/>
+      <c r="A42" s="166"/>
+      <c r="B42" s="166"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="166"/>
+      <c r="E42" s="166"/>
+      <c r="F42" s="172"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="224"/>
-      <c r="B43" s="224"/>
-      <c r="C43" s="224"/>
-      <c r="D43" s="224"/>
-      <c r="E43" s="224"/>
-      <c r="F43" s="331"/>
+      <c r="A43" s="166"/>
+      <c r="B43" s="166"/>
+      <c r="C43" s="166"/>
+      <c r="D43" s="166"/>
+      <c r="E43" s="166"/>
+      <c r="F43" s="172"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="224"/>
-      <c r="B44" s="224"/>
-      <c r="C44" s="224"/>
-      <c r="D44" s="224"/>
-      <c r="E44" s="224"/>
-      <c r="F44" s="331"/>
+      <c r="A44" s="166"/>
+      <c r="B44" s="166"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="166"/>
+      <c r="E44" s="166"/>
+      <c r="F44" s="172"/>
     </row>
     <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="224"/>
-      <c r="B45" s="224"/>
-      <c r="C45" s="224"/>
-      <c r="D45" s="224"/>
-      <c r="E45" s="224"/>
-      <c r="F45" s="331"/>
+      <c r="A45" s="166"/>
+      <c r="B45" s="166"/>
+      <c r="C45" s="166"/>
+      <c r="D45" s="166"/>
+      <c r="E45" s="166"/>
+      <c r="F45" s="172"/>
     </row>
     <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="224"/>
-      <c r="B46" s="224"/>
-      <c r="C46" s="224"/>
-      <c r="D46" s="224"/>
-      <c r="E46" s="224"/>
-      <c r="F46" s="331"/>
+      <c r="A46" s="166"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="166"/>
+      <c r="E46" s="166"/>
+      <c r="F46" s="172"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="224"/>
-      <c r="B47" s="224"/>
-      <c r="C47" s="224"/>
-      <c r="D47" s="224"/>
-      <c r="E47" s="224"/>
-      <c r="F47" s="331"/>
+      <c r="A47" s="166"/>
+      <c r="B47" s="166"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="166"/>
+      <c r="E47" s="166"/>
+      <c r="F47" s="172"/>
     </row>
     <row r="48" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="224"/>
-      <c r="B48" s="224"/>
-      <c r="C48" s="224"/>
-      <c r="D48" s="224"/>
-      <c r="E48" s="224"/>
-      <c r="F48" s="331"/>
+      <c r="A48" s="166"/>
+      <c r="B48" s="166"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="166"/>
+      <c r="E48" s="166"/>
+      <c r="F48" s="172"/>
     </row>
     <row r="49" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="224"/>
-      <c r="B49" s="224"/>
-      <c r="C49" s="224"/>
-      <c r="D49" s="224"/>
-      <c r="E49" s="224"/>
-      <c r="F49" s="331"/>
+      <c r="A49" s="166"/>
+      <c r="B49" s="166"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="166"/>
+      <c r="E49" s="166"/>
+      <c r="F49" s="172"/>
     </row>
     <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="224"/>
-      <c r="B50" s="224"/>
-      <c r="C50" s="224"/>
-      <c r="D50" s="224"/>
-      <c r="E50" s="224"/>
-      <c r="F50" s="331"/>
+      <c r="A50" s="166"/>
+      <c r="B50" s="166"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="166"/>
+      <c r="E50" s="166"/>
+      <c r="F50" s="172"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -6566,6 +8394,436 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B08ADA2-F9E2-47BD-B9B6-69A2057B36A2}">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C1" s="304" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="161"/>
+    </row>
+    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C2" s="304" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="161"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="161"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="161"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="167" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="167" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="167" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="167" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="167" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="171" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="166"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="172"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="166"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="172"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="166"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="172"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="166"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="172"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="166"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="172"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="166"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="172"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="166"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="172"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="166"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="172"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="166"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="172"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="166"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="172"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="166"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="172"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="166"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="172"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="166"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="172"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="166"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="172"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="166"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="172"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="166"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="172"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="166"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="172"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="166"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="172"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="166"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="166"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="172"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="166"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="172"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="166"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="172"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="166"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="172"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="166"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="172"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="166"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="172"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="166"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="172"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="166"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="166"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="172"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="166"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="172"/>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="166"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="166"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="172"/>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="166"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="166"/>
+      <c r="F34" s="172"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="166"/>
+      <c r="B35" s="166"/>
+      <c r="C35" s="166"/>
+      <c r="D35" s="166"/>
+      <c r="E35" s="166"/>
+      <c r="F35" s="172"/>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="166"/>
+      <c r="B36" s="166"/>
+      <c r="C36" s="166"/>
+      <c r="D36" s="166"/>
+      <c r="E36" s="166"/>
+      <c r="F36" s="172"/>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="166"/>
+      <c r="B37" s="166"/>
+      <c r="C37" s="166"/>
+      <c r="D37" s="166"/>
+      <c r="E37" s="166"/>
+      <c r="F37" s="172"/>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="166"/>
+      <c r="B38" s="166"/>
+      <c r="C38" s="166"/>
+      <c r="D38" s="166"/>
+      <c r="E38" s="166"/>
+      <c r="F38" s="172"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="166"/>
+      <c r="B39" s="166"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="166"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="172"/>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="166"/>
+      <c r="B40" s="166"/>
+      <c r="C40" s="166"/>
+      <c r="D40" s="166"/>
+      <c r="E40" s="166"/>
+      <c r="F40" s="172"/>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="166"/>
+      <c r="B41" s="166"/>
+      <c r="C41" s="166"/>
+      <c r="D41" s="166"/>
+      <c r="E41" s="166"/>
+      <c r="F41" s="172"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="166"/>
+      <c r="B42" s="166"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="166"/>
+      <c r="E42" s="166"/>
+      <c r="F42" s="172"/>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="166"/>
+      <c r="B43" s="166"/>
+      <c r="C43" s="166"/>
+      <c r="D43" s="166"/>
+      <c r="E43" s="166"/>
+      <c r="F43" s="172"/>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="166"/>
+      <c r="B44" s="166"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="166"/>
+      <c r="E44" s="166"/>
+      <c r="F44" s="172"/>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="166"/>
+      <c r="B45" s="166"/>
+      <c r="C45" s="166"/>
+      <c r="D45" s="166"/>
+      <c r="E45" s="166"/>
+      <c r="F45" s="172"/>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="166"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="166"/>
+      <c r="E46" s="166"/>
+      <c r="F46" s="172"/>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="166"/>
+      <c r="B47" s="166"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="166"/>
+      <c r="E47" s="166"/>
+      <c r="F47" s="172"/>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="166"/>
+      <c r="B48" s="166"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="166"/>
+      <c r="E48" s="166"/>
+      <c r="F48" s="172"/>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="166"/>
+      <c r="B49" s="166"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="166"/>
+      <c r="E49" s="166"/>
+      <c r="F49" s="172"/>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="166"/>
+      <c r="B50" s="166"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="166"/>
+      <c r="E50" s="166"/>
+      <c r="F50" s="172"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -6588,52 +8846,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="324" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="288" t="s">
+      <c r="B1" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="289"/>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="290"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="317"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="298"/>
-      <c r="B2" s="291" t="s">
+      <c r="A2" s="325"/>
+      <c r="B2" s="318" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="292"/>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="280" t="s">
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
+      <c r="F2" s="320"/>
+      <c r="G2" s="307" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="284" t="s">
+      <c r="H2" s="311" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="285"/>
+      <c r="I2" s="312"/>
       <c r="J2" s="19">
         <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="299"/>
-      <c r="B3" s="294"/>
-      <c r="C3" s="295"/>
-      <c r="D3" s="295"/>
-      <c r="E3" s="295"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="281"/>
-      <c r="H3" s="284" t="s">
+      <c r="A3" s="326"/>
+      <c r="B3" s="321"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="323"/>
+      <c r="G3" s="308"/>
+      <c r="H3" s="311" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="285"/>
+      <c r="I3" s="312"/>
       <c r="J3" s="20">
         <v>10</v>
       </c>
@@ -6660,10 +8918,10 @@
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="286" t="s">
+      <c r="H4" s="313" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="287"/>
+      <c r="I4" s="314"/>
       <c r="J4" s="23">
         <v>8.5</v>
       </c>
@@ -6676,10 +8934,10 @@
       <c r="E5" s="24"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="282" t="s">
+      <c r="H5" s="309" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="283"/>
+      <c r="I5" s="310"/>
       <c r="J5" s="27">
         <f>SUM(G5:G100)</f>
         <v>0</v>
@@ -6693,10 +8951,10 @@
       <c r="E6" s="24"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="282" t="s">
+      <c r="H6" s="309" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="283"/>
+      <c r="I6" s="310"/>
       <c r="J6" s="28">
         <f>J5*0.05</f>
         <v>0</v>
@@ -6710,10 +8968,10 @@
       <c r="E7" s="24"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="282" t="s">
+      <c r="H7" s="309" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="283"/>
+      <c r="I7" s="310"/>
       <c r="J7" s="28">
         <v>110</v>
       </c>
@@ -6726,10 +8984,10 @@
       <c r="E8" s="24"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="282" t="s">
+      <c r="H8" s="309" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="283"/>
+      <c r="I8" s="310"/>
       <c r="J8" s="29">
         <v>150</v>
       </c>
@@ -6742,10 +9000,10 @@
       <c r="E9" s="24"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="282" t="s">
+      <c r="H9" s="309" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="282"/>
+      <c r="I9" s="309"/>
       <c r="J9" s="30">
         <f>(PRECIO_VENTA*LITROS_A_ELABORAR)</f>
         <v>1500</v>
@@ -6759,10 +9017,10 @@
       <c r="E10" s="24"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="282" t="s">
+      <c r="H10" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="282"/>
+      <c r="I10" s="309"/>
       <c r="J10" s="31">
         <f>J9-COSTO_TOTAL_MATERIA_PRIMA</f>
         <v>1500</v>
@@ -6776,10 +9034,10 @@
       <c r="E11" s="24"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="278" t="s">
+      <c r="H11" s="305" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="279"/>
+      <c r="I11" s="306"/>
       <c r="J11" s="32">
         <v>0.27</v>
       </c>
@@ -6792,10 +9050,10 @@
       <c r="E12" s="24"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="278" t="s">
+      <c r="H12" s="305" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="279"/>
+      <c r="I12" s="306"/>
       <c r="J12" s="32">
         <f>((J5+COSTO_PREPARACION)/J9-1)*(-1)</f>
         <v>0.92666666666666664</v>
@@ -6896,7 +9154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD38"/>
   <sheetViews>
@@ -6916,10 +9174,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="169" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="228">
+      <c r="B1" s="170">
         <v>42811</v>
       </c>
       <c r="C1" s="94"/>
@@ -6937,22 +9195,22 @@
       <c r="O1" s="81"/>
       <c r="P1" s="81"/>
       <c r="Q1" s="81"/>
-      <c r="R1" s="300" t="s">
+      <c r="R1" s="327" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="301"/>
-      <c r="T1" s="300" t="s">
+      <c r="S1" s="328"/>
+      <c r="T1" s="327" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="301"/>
-      <c r="V1" s="300" t="s">
+      <c r="U1" s="328"/>
+      <c r="V1" s="327" t="s">
         <v>62</v>
       </c>
-      <c r="W1" s="301"/>
-      <c r="X1" s="300" t="s">
+      <c r="W1" s="328"/>
+      <c r="X1" s="327" t="s">
         <v>63</v>
       </c>
-      <c r="Y1" s="301"/>
+      <c r="Y1" s="328"/>
       <c r="Z1" s="81"/>
       <c r="AA1" s="81"/>
       <c r="AB1" s="81"/>
@@ -6984,8 +9242,8 @@
       <c r="H2" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="226" t="s">
-        <v>126</v>
+      <c r="I2" s="168" t="s">
+        <v>122</v>
       </c>
       <c r="J2" s="91" t="s">
         <v>67</v>
@@ -8023,420 +10281,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:P21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="329"/>
-      <c r="B1" s="329"/>
-      <c r="C1" s="329"/>
-      <c r="D1" s="329"/>
-      <c r="E1" s="329"/>
-      <c r="F1" s="329"/>
-      <c r="G1" s="329"/>
-      <c r="H1" s="329"/>
-      <c r="I1" s="329"/>
-      <c r="J1" s="329"/>
-      <c r="K1" s="329"/>
-      <c r="L1" s="329"/>
-      <c r="M1" s="329"/>
-      <c r="N1" s="329"/>
-    </row>
-    <row r="2" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="329"/>
-      <c r="B2" s="329"/>
-      <c r="C2" s="329"/>
-      <c r="D2" s="329"/>
-      <c r="E2" s="329"/>
-      <c r="F2" s="329"/>
-      <c r="G2" s="329"/>
-      <c r="H2" s="329"/>
-      <c r="I2" s="329"/>
-      <c r="J2" s="329"/>
-      <c r="K2" s="329"/>
-      <c r="L2" s="329"/>
-      <c r="M2" s="329"/>
-      <c r="N2" s="329"/>
-    </row>
-    <row r="3" spans="1:16" s="120" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="121"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-    </row>
-    <row r="4" spans="1:16" ht="55.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="122" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="323"/>
-      <c r="C4" s="323"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="127" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="127" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="314" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="314"/>
-      <c r="J4" s="314"/>
-      <c r="K4" s="128" t="s">
-        <v>83</v>
-      </c>
-      <c r="L4" s="129" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="130" t="s">
-        <v>85</v>
-      </c>
-      <c r="N4" s="130" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="108"/>
-    </row>
-    <row r="5" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="324" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="316"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="196"/>
-      <c r="L5" s="197"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="102"/>
-    </row>
-    <row r="6" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="325"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="107" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="131" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="127" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="317" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="318"/>
-      <c r="J6" s="318"/>
-      <c r="K6" s="318"/>
-      <c r="L6" s="319"/>
-      <c r="M6" s="326" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="327"/>
-    </row>
-    <row r="7" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="123" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="124" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="125" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="126" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="110"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="320"/>
-      <c r="I7" s="321"/>
-      <c r="J7" s="321"/>
-      <c r="K7" s="321"/>
-      <c r="L7" s="322"/>
-      <c r="M7" s="328"/>
-      <c r="N7" s="328"/>
-    </row>
-    <row r="8" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="188"/>
-      <c r="B8" s="188"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-    </row>
-    <row r="9" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="168"/>
-      <c r="B9" s="191"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="192"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="311" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="312"/>
-      <c r="H9" s="312"/>
-      <c r="I9" s="312"/>
-      <c r="J9" s="312"/>
-      <c r="K9" s="313"/>
-      <c r="L9" s="311" t="s">
-        <v>94</v>
-      </c>
-      <c r="M9" s="312"/>
-      <c r="N9" s="313"/>
-    </row>
-    <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="168"/>
-      <c r="B10" s="191"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="302"/>
-      <c r="G10" s="303"/>
-      <c r="H10" s="303"/>
-      <c r="I10" s="303"/>
-      <c r="J10" s="303"/>
-      <c r="K10" s="304"/>
-      <c r="L10" s="302"/>
-      <c r="M10" s="303"/>
-      <c r="N10" s="304"/>
-    </row>
-    <row r="11" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="168"/>
-      <c r="B11" s="191"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="194"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="305"/>
-      <c r="G11" s="306"/>
-      <c r="H11" s="306"/>
-      <c r="I11" s="306"/>
-      <c r="J11" s="306"/>
-      <c r="K11" s="307"/>
-      <c r="L11" s="305"/>
-      <c r="M11" s="306"/>
-      <c r="N11" s="307"/>
-    </row>
-    <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="168"/>
-      <c r="B12" s="191"/>
-      <c r="C12" s="193"/>
-      <c r="D12" s="194"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="305"/>
-      <c r="G12" s="306"/>
-      <c r="H12" s="306"/>
-      <c r="I12" s="306"/>
-      <c r="J12" s="306"/>
-      <c r="K12" s="307"/>
-      <c r="L12" s="305"/>
-      <c r="M12" s="306"/>
-      <c r="N12" s="307"/>
-    </row>
-    <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="168"/>
-      <c r="B13" s="191"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="192"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="305"/>
-      <c r="G13" s="306"/>
-      <c r="H13" s="306"/>
-      <c r="I13" s="306"/>
-      <c r="J13" s="306"/>
-      <c r="K13" s="307"/>
-      <c r="L13" s="305"/>
-      <c r="M13" s="306"/>
-      <c r="N13" s="307"/>
-    </row>
-    <row r="14" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="168"/>
-      <c r="B14" s="191"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="192"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="305"/>
-      <c r="G14" s="306"/>
-      <c r="H14" s="306"/>
-      <c r="I14" s="306"/>
-      <c r="J14" s="306"/>
-      <c r="K14" s="307"/>
-      <c r="L14" s="305"/>
-      <c r="M14" s="306"/>
-      <c r="N14" s="307"/>
-    </row>
-    <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="168"/>
-      <c r="B15" s="191"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="192"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="305"/>
-      <c r="G15" s="306"/>
-      <c r="H15" s="306"/>
-      <c r="I15" s="306"/>
-      <c r="J15" s="306"/>
-      <c r="K15" s="307"/>
-      <c r="L15" s="305"/>
-      <c r="M15" s="306"/>
-      <c r="N15" s="307"/>
-    </row>
-    <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="168"/>
-      <c r="B16" s="191"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="192"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="305"/>
-      <c r="G16" s="306"/>
-      <c r="H16" s="306"/>
-      <c r="I16" s="306"/>
-      <c r="J16" s="306"/>
-      <c r="K16" s="307"/>
-      <c r="L16" s="305"/>
-      <c r="M16" s="306"/>
-      <c r="N16" s="307"/>
-    </row>
-    <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="168"/>
-      <c r="B17" s="191"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="192"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="305"/>
-      <c r="G17" s="306"/>
-      <c r="H17" s="306"/>
-      <c r="I17" s="306"/>
-      <c r="J17" s="306"/>
-      <c r="K17" s="307"/>
-      <c r="L17" s="305"/>
-      <c r="M17" s="306"/>
-      <c r="N17" s="307"/>
-    </row>
-    <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="195"/>
-      <c r="B18" s="191"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="192"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="305"/>
-      <c r="G18" s="306"/>
-      <c r="H18" s="306"/>
-      <c r="I18" s="306"/>
-      <c r="J18" s="306"/>
-      <c r="K18" s="307"/>
-      <c r="L18" s="305"/>
-      <c r="M18" s="306"/>
-      <c r="N18" s="307"/>
-    </row>
-    <row r="19" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="168" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="191" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="168"/>
-      <c r="D19" s="192"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="305"/>
-      <c r="G19" s="306"/>
-      <c r="H19" s="306"/>
-      <c r="I19" s="306"/>
-      <c r="J19" s="306"/>
-      <c r="K19" s="307"/>
-      <c r="L19" s="305"/>
-      <c r="M19" s="306"/>
-      <c r="N19" s="307"/>
-    </row>
-    <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="195"/>
-      <c r="B20" s="191"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="308"/>
-      <c r="G20" s="309"/>
-      <c r="H20" s="309"/>
-      <c r="I20" s="309"/>
-      <c r="J20" s="309"/>
-      <c r="K20" s="310"/>
-      <c r="L20" s="308"/>
-      <c r="M20" s="309"/>
-      <c r="N20" s="310"/>
-    </row>
-    <row r="21" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="132" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="112"/>
-      <c r="E21" s="109"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="L10:N20"/>
-    <mergeCell ref="F10:K20"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="L9:N9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>